--- a/docs/xcom_perks/compiled_perks.xlsx
+++ b/docs/xcom_perks/compiled_perks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merbos_copy\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\xcom2_my_tweaks\docs\xcom_perks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA9844C-8937-4412-A091-D875B1D664C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3441BE97-669F-4374-9EC9-8A1B10CC7FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19092" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabellenblatt1" sheetId="1" r:id="rId1"/>
@@ -1223,48 +1223,57 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1303,6 +1312,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1545,7 +1555,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1556,13 +1566,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1570,74 +1579,72 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1858,9 +1865,9 @@
   </sheetPr>
   <dimension ref="A1:AA1119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C114" sqref="C114"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E41" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1931,220 +1938,213 @@
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="27" t="s">
+      <c r="D3" s="21"/>
+      <c r="E3" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="23"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="24" t="s">
+      <c r="A4" s="41"/>
+      <c r="B4" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="7" t="s">
         <v>75</v>
       </c>
       <c r="D4" s="8"/>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G4" s="32"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="24" t="s">
+      <c r="A5" s="41"/>
+      <c r="B5" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="7" t="s">
         <v>81</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="33"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="25"/>
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="24" t="s">
+      <c r="A6" s="41"/>
+      <c r="B6" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="7" t="s">
         <v>83</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="33"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="25"/>
     </row>
     <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="24" t="s">
+      <c r="A7" s="41"/>
+      <c r="B7" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="7" t="s">
         <v>85</v>
       </c>
       <c r="D7" s="8"/>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="33"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="24" t="s">
+      <c r="A8" s="41"/>
+      <c r="B8" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="7" t="s">
         <v>87</v>
       </c>
       <c r="D8" s="8"/>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="33"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="25"/>
     </row>
     <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="24" t="s">
+      <c r="A9" s="41"/>
+      <c r="B9" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="7" t="s">
         <v>99</v>
       </c>
       <c r="D9" s="8"/>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="33"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="25"/>
     </row>
     <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
-      <c r="B10" s="24" t="s">
+      <c r="A10" s="41"/>
+      <c r="B10" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="7" t="s">
         <v>101</v>
       </c>
       <c r="D10" s="8"/>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="33"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="25"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
-      <c r="B11" s="24" t="s">
+      <c r="A11" s="41"/>
+      <c r="B11" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="7" t="s">
         <v>105</v>
       </c>
       <c r="D11" s="8"/>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="33"/>
+      <c r="G11" s="25"/>
     </row>
     <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="31"/>
-      <c r="B12" s="24" t="s">
+      <c r="A12" s="41"/>
+      <c r="B12" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="33"/>
+      <c r="G12" s="25"/>
     </row>
     <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="31"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="7" t="s">
         <v>114</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D13" s="25"/>
       <c r="E13" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="G13" s="33"/>
+      <c r="G13" s="25"/>
     </row>
     <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="31"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="7" t="s">
         <v>116</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D14" s="25"/>
       <c r="E14" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="G14" s="33"/>
+      <c r="G14" s="25"/>
     </row>
     <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="31"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="7" t="s">
         <v>118</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D15" s="25"/>
       <c r="E15" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G15" s="33"/>
+      <c r="G15" s="25"/>
     </row>
     <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="31"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="7" t="s">
         <v>120</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="D16" s="25"/>
       <c r="E16" s="7" t="s">
         <v>127</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G16" s="33"/>
+      <c r="G16" s="25"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="31"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="7" t="s">
         <v>122</v>
       </c>
@@ -2154,1496 +2154,1496 @@
       <c r="E17" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="G17" s="33"/>
+      <c r="G17" s="25"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="31"/>
-      <c r="B18" s="56" t="s">
+      <c r="A18" s="41"/>
+      <c r="B18" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="C18" s="56" t="s">
+      <c r="C18" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="E18" s="56" t="s">
+      <c r="E18" s="38" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="31"/>
-      <c r="B19" s="56" t="s">
+      <c r="A19" s="41"/>
+      <c r="B19" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="C19" s="56" t="s">
+      <c r="C19" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="E19" s="56" t="s">
+      <c r="E19" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="F19" s="56" t="s">
+      <c r="F19" s="38" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="31"/>
-      <c r="B20" s="56" t="s">
+      <c r="A20" s="41"/>
+      <c r="B20" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="C20" s="56" t="s">
+      <c r="C20" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="E20" s="56" t="s">
+      <c r="E20" s="38" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="31"/>
-      <c r="B21" s="56" t="s">
+      <c r="A21" s="41"/>
+      <c r="B21" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="C21" s="56" t="s">
+      <c r="C21" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="E21" s="56" t="s">
+      <c r="E21" s="38" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="31"/>
-      <c r="B22" s="56" t="s">
+      <c r="A22" s="41"/>
+      <c r="B22" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="C22" s="56" t="s">
+      <c r="C22" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="E22" s="56" t="s">
+      <c r="E22" s="38" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="31"/>
-      <c r="B23" s="56" t="s">
+      <c r="A23" s="41"/>
+      <c r="B23" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="C23" s="56" t="s">
+      <c r="C23" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="E23" s="56" t="s">
+      <c r="E23" s="38" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="31"/>
-      <c r="B24" s="56" t="s">
+      <c r="A24" s="41"/>
+      <c r="B24" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="C24" s="56" t="s">
+      <c r="C24" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="E24" s="56" t="s">
+      <c r="E24" s="38" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="31"/>
-      <c r="B25" s="56" t="s">
+      <c r="A25" s="41"/>
+      <c r="B25" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="C25" s="56" t="s">
+      <c r="C25" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="E25" s="56" t="s">
+      <c r="E25" s="38" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="31"/>
-      <c r="B26" s="56" t="s">
+      <c r="A26" s="41"/>
+      <c r="B26" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="C26" s="56" t="s">
+      <c r="C26" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="E26" s="56" t="s">
+      <c r="E26" s="38" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="31"/>
-      <c r="B27" s="56" t="s">
+      <c r="A27" s="41"/>
+      <c r="B27" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="C27" s="56" t="s">
+      <c r="C27" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="E27" s="56" t="s">
+      <c r="E27" s="38" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="31"/>
-      <c r="B28" s="56" t="s">
+      <c r="A28" s="41"/>
+      <c r="B28" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="C28" s="56" t="s">
+      <c r="C28" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="E28" s="56" t="s">
+      <c r="E28" s="38" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="31"/>
-      <c r="B29" s="56" t="s">
+      <c r="A29" s="41"/>
+      <c r="B29" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="C29" s="56" t="s">
+      <c r="C29" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="E29" s="56" t="s">
+      <c r="E29" s="38" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="31"/>
-      <c r="B30" s="56" t="s">
+      <c r="A30" s="41"/>
+      <c r="B30" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="C30" s="56" t="s">
+      <c r="C30" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="E30" s="56" t="s">
+      <c r="E30" s="38" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="31"/>
-      <c r="B31" s="56" t="s">
+      <c r="A31" s="41"/>
+      <c r="B31" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="C31" s="56" t="s">
+      <c r="C31" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="E31" s="56" t="s">
+      <c r="E31" s="38" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="31"/>
-      <c r="B32" s="56" t="s">
+      <c r="A32" s="41"/>
+      <c r="B32" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="C32" s="56" t="s">
+      <c r="C32" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="E32" s="56" t="s">
+      <c r="E32" s="38" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="31"/>
-      <c r="B33" s="56" t="s">
+      <c r="A33" s="41"/>
+      <c r="B33" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="C33" s="56" t="s">
+      <c r="C33" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="E33" s="56" t="s">
+      <c r="E33" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="F33" s="56" t="s">
+      <c r="F33" s="38" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="31"/>
-      <c r="B34" s="56" t="s">
+      <c r="A34" s="41"/>
+      <c r="B34" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="C34" s="56" t="s">
+      <c r="C34" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="E34" s="56" t="s">
+      <c r="E34" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="F34" s="56"/>
+      <c r="F34" s="38"/>
     </row>
     <row r="35" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="31"/>
-      <c r="B35" s="56" t="s">
+      <c r="A35" s="41"/>
+      <c r="B35" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="C35" s="56" t="s">
+      <c r="C35" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="E35" s="56" t="s">
+      <c r="E35" s="38" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="31"/>
-      <c r="B36" s="56" t="s">
+      <c r="A36" s="41"/>
+      <c r="B36" s="38" t="s">
         <v>181</v>
       </c>
-      <c r="C36" s="56" t="s">
+      <c r="C36" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="E36" s="56" t="s">
+      <c r="E36" s="38" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="31"/>
-      <c r="B37" s="56" t="s">
+      <c r="A37" s="41"/>
+      <c r="B37" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="C37" s="56" t="s">
+      <c r="C37" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="E37" s="56" t="s">
+      <c r="E37" s="38" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="31"/>
-      <c r="B38" s="56" t="s">
+      <c r="A38" s="41"/>
+      <c r="B38" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="C38" s="56" t="s">
+      <c r="C38" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="E38" s="56" t="s">
+      <c r="E38" s="38" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="31"/>
-      <c r="B39" s="56" t="s">
+      <c r="A39" s="41"/>
+      <c r="B39" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="C39" s="56" t="s">
+      <c r="C39" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="E39" s="56" t="s">
+      <c r="E39" s="38" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="31"/>
-      <c r="B40" s="56" t="s">
+      <c r="A40" s="41"/>
+      <c r="B40" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="C40" s="56" t="s">
+      <c r="C40" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="E40" s="56" t="s">
+      <c r="E40" s="38" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="31"/>
-      <c r="B41" s="56" t="s">
+      <c r="A41" s="41"/>
+      <c r="B41" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="C41" s="56" t="s">
+      <c r="C41" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="E41" s="56" t="s">
+      <c r="E41" s="38" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="31"/>
-      <c r="B42" s="56" t="s">
+      <c r="A42" s="41"/>
+      <c r="B42" s="38" t="s">
         <v>193</v>
       </c>
-      <c r="C42" s="56" t="s">
+      <c r="C42" s="38" t="s">
         <v>194</v>
       </c>
-      <c r="E42" s="56" t="s">
+      <c r="E42" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="F42" s="56" t="s">
+      <c r="F42" s="38" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="31"/>
-      <c r="B43" s="56" t="s">
+      <c r="A43" s="41"/>
+      <c r="B43" s="38" t="s">
         <v>193</v>
       </c>
-      <c r="C43" s="56" t="s">
+      <c r="C43" s="38" t="s">
         <v>195</v>
       </c>
-      <c r="E43" s="56" t="s">
+      <c r="E43" s="38" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="31"/>
-      <c r="B44" s="56" t="s">
+      <c r="A44" s="41"/>
+      <c r="B44" s="38" t="s">
         <v>196</v>
       </c>
-      <c r="C44" s="56" t="s">
+      <c r="C44" s="38" t="s">
         <v>197</v>
       </c>
-      <c r="E44" s="56" t="s">
+      <c r="E44" s="38" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="31"/>
-      <c r="B45" s="56" t="s">
+      <c r="A45" s="41"/>
+      <c r="B45" s="38" t="s">
         <v>208</v>
       </c>
-      <c r="C45" s="56" t="s">
+      <c r="C45" s="38" t="s">
         <v>209</v>
       </c>
-      <c r="E45" s="56" t="s">
+      <c r="E45" s="38" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="31"/>
-      <c r="B46" s="56" t="s">
+      <c r="A46" s="41"/>
+      <c r="B46" s="38" t="s">
         <v>210</v>
       </c>
-      <c r="C46" s="56" t="s">
+      <c r="C46" s="38" t="s">
         <v>211</v>
       </c>
-      <c r="E46" s="56" t="s">
+      <c r="E46" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="F46" s="56" t="s">
+      <c r="F46" s="38" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="31"/>
-      <c r="B47" s="56" t="s">
+      <c r="A47" s="41"/>
+      <c r="B47" s="38" t="s">
         <v>212</v>
       </c>
-      <c r="C47" s="56" t="s">
+      <c r="C47" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="E47" s="56" t="s">
+      <c r="E47" s="38" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="31"/>
-      <c r="B48" s="56" t="s">
+      <c r="A48" s="41"/>
+      <c r="B48" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="C48" s="56" t="s">
+      <c r="C48" s="38" t="s">
         <v>215</v>
       </c>
-      <c r="E48" s="56" t="s">
+      <c r="E48" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="F48" s="56" t="s">
+      <c r="F48" s="38" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="31"/>
-      <c r="B49" s="56" t="s">
+      <c r="A49" s="41"/>
+      <c r="B49" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="C49" s="56" t="s">
+      <c r="C49" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="E49" s="56" t="s">
+      <c r="E49" s="38" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="31"/>
-      <c r="B50" s="56" t="s">
+      <c r="A50" s="41"/>
+      <c r="B50" s="38" t="s">
         <v>217</v>
       </c>
-      <c r="C50" s="56" t="s">
+      <c r="C50" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="E50" s="56" t="s">
+      <c r="E50" s="38" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="31"/>
-      <c r="B51" s="56" t="s">
+      <c r="A51" s="41"/>
+      <c r="B51" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="C51" s="56" t="s">
+      <c r="C51" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="E51" s="56" t="s">
+      <c r="E51" s="38" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="31"/>
-      <c r="B52" s="56" t="s">
+      <c r="A52" s="41"/>
+      <c r="B52" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="C52" s="56" t="s">
+      <c r="C52" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="E52" s="56" t="s">
+      <c r="E52" s="38" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="31"/>
-      <c r="B53" s="56" t="s">
+      <c r="A53" s="41"/>
+      <c r="B53" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="C53" s="56" t="s">
+      <c r="C53" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="E53" s="56" t="s">
+      <c r="E53" s="38" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="31"/>
-      <c r="B54" s="56" t="s">
+      <c r="A54" s="41"/>
+      <c r="B54" s="38" t="s">
         <v>234</v>
       </c>
-      <c r="C54" s="56" t="s">
+      <c r="C54" s="38" t="s">
         <v>235</v>
       </c>
-      <c r="E54" s="56" t="s">
+      <c r="E54" s="38" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="31"/>
-      <c r="B55" s="56" t="s">
+      <c r="A55" s="41"/>
+      <c r="B55" s="38" t="s">
         <v>236</v>
       </c>
-      <c r="C55" s="56" t="s">
+      <c r="C55" s="38" t="s">
         <v>237</v>
       </c>
-      <c r="E55" s="56" t="s">
+      <c r="E55" s="38" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="31"/>
-      <c r="B56" s="56" t="s">
+      <c r="A56" s="41"/>
+      <c r="B56" s="38" t="s">
         <v>238</v>
       </c>
-      <c r="C56" s="56" t="s">
+      <c r="C56" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="E56" s="56" t="s">
+      <c r="E56" s="38" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="31"/>
-      <c r="B57" s="56" t="s">
+      <c r="A57" s="41"/>
+      <c r="B57" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="C57" s="56" t="s">
+      <c r="C57" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="E57" s="56" t="s">
+      <c r="E57" s="38" t="s">
         <v>255</v>
       </c>
-      <c r="F57" s="56" t="s">
+      <c r="F57" s="38" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="31"/>
-      <c r="B58" s="56" t="s">
+      <c r="A58" s="41"/>
+      <c r="B58" s="38" t="s">
         <v>242</v>
       </c>
-      <c r="C58" s="56" t="s">
+      <c r="C58" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="E58" s="56" t="s">
+      <c r="E58" s="38" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="31"/>
-      <c r="B59" s="56" t="s">
+      <c r="A59" s="41"/>
+      <c r="B59" s="38" t="s">
         <v>244</v>
       </c>
-      <c r="C59" s="56" t="s">
+      <c r="C59" s="38" t="s">
         <v>245</v>
       </c>
-      <c r="E59" s="56" t="s">
+      <c r="E59" s="38" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="31"/>
-      <c r="B60" s="56" t="s">
+      <c r="A60" s="41"/>
+      <c r="B60" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="C60" s="56" t="s">
+      <c r="C60" s="38" t="s">
         <v>247</v>
       </c>
-      <c r="E60" s="56" t="s">
+      <c r="E60" s="38" t="s">
         <v>258</v>
       </c>
-      <c r="F60" s="56" t="s">
+      <c r="F60" s="38" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="31"/>
-      <c r="B61" s="56" t="s">
+      <c r="A61" s="41"/>
+      <c r="B61" s="38" t="s">
         <v>248</v>
       </c>
-      <c r="C61" s="56" t="s">
+      <c r="C61" s="38" t="s">
         <v>249</v>
       </c>
-      <c r="E61" s="56" t="s">
+      <c r="E61" s="38" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="31"/>
-      <c r="B62" s="56" t="s">
+      <c r="A62" s="41"/>
+      <c r="B62" s="38" t="s">
         <v>250</v>
       </c>
-      <c r="C62" s="56" t="s">
+      <c r="C62" s="38" t="s">
         <v>251</v>
       </c>
-      <c r="E62" s="56" t="s">
+      <c r="E62" s="38" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="31"/>
-      <c r="B63" s="56" t="s">
+      <c r="A63" s="41"/>
+      <c r="B63" s="38" t="s">
         <v>261</v>
       </c>
-      <c r="C63" s="56" t="s">
+      <c r="C63" s="38" t="s">
         <v>262</v>
       </c>
-      <c r="E63" s="56" t="s">
+      <c r="E63" s="38" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A64" s="31"/>
-      <c r="B64" s="56" t="s">
+      <c r="A64" s="41"/>
+      <c r="B64" s="38" t="s">
         <v>263</v>
       </c>
-      <c r="C64" s="56" t="s">
+      <c r="C64" s="38" t="s">
         <v>264</v>
       </c>
-      <c r="E64" s="56" t="s">
+      <c r="E64" s="38" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="31"/>
-      <c r="B65" s="56" t="s">
+      <c r="A65" s="41"/>
+      <c r="B65" s="38" t="s">
         <v>265</v>
       </c>
-      <c r="C65" s="56" t="s">
+      <c r="C65" s="38" t="s">
         <v>266</v>
       </c>
-      <c r="E65" s="56" t="s">
+      <c r="E65" s="38" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="31"/>
-      <c r="B66" s="56" t="s">
+      <c r="A66" s="41"/>
+      <c r="B66" s="38" t="s">
         <v>269</v>
       </c>
-      <c r="C66" s="56" t="s">
+      <c r="C66" s="38" t="s">
         <v>270</v>
       </c>
-      <c r="E66" s="56" t="s">
+      <c r="E66" s="38" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A67" s="31"/>
-      <c r="B67" s="56" t="s">
+      <c r="A67" s="41"/>
+      <c r="B67" s="38" t="s">
         <v>271</v>
       </c>
-      <c r="C67" s="56" t="s">
+      <c r="C67" s="38" t="s">
         <v>272</v>
       </c>
-      <c r="E67" s="56" t="s">
+      <c r="E67" s="38" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="31"/>
-      <c r="B68" s="56" t="s">
+      <c r="A68" s="41"/>
+      <c r="B68" s="38" t="s">
         <v>273</v>
       </c>
-      <c r="C68" s="56" t="s">
+      <c r="C68" s="38" t="s">
         <v>274</v>
       </c>
-      <c r="E68" s="56" t="s">
+      <c r="E68" s="38" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="31"/>
-      <c r="B69" s="56" t="s">
+      <c r="A69" s="41"/>
+      <c r="B69" s="38" t="s">
         <v>275</v>
       </c>
-      <c r="C69" s="56" t="s">
+      <c r="C69" s="38" t="s">
         <v>276</v>
       </c>
-      <c r="E69" s="56" t="s">
+      <c r="E69" s="38" t="s">
         <v>306</v>
       </c>
-      <c r="F69" s="56" t="s">
+      <c r="F69" s="38" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="31"/>
-      <c r="B70" s="56" t="s">
+      <c r="A70" s="41"/>
+      <c r="B70" s="38" t="s">
         <v>277</v>
       </c>
-      <c r="C70" s="56" t="s">
+      <c r="C70" s="38" t="s">
         <v>278</v>
       </c>
-      <c r="E70" s="56" t="s">
+      <c r="E70" s="38" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A71" s="31"/>
-      <c r="B71" s="56" t="s">
+      <c r="A71" s="41"/>
+      <c r="B71" s="38" t="s">
         <v>279</v>
       </c>
-      <c r="C71" s="56" t="s">
+      <c r="C71" s="38" t="s">
         <v>280</v>
       </c>
-      <c r="E71" s="56" t="s">
+      <c r="E71" s="38" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="31"/>
-      <c r="B72" s="56" t="s">
+      <c r="A72" s="41"/>
+      <c r="B72" s="38" t="s">
         <v>281</v>
       </c>
-      <c r="C72" s="56" t="s">
+      <c r="C72" s="38" t="s">
         <v>282</v>
       </c>
-      <c r="E72" s="56" t="s">
+      <c r="E72" s="38" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="31"/>
-      <c r="B73" s="56" t="s">
+      <c r="A73" s="41"/>
+      <c r="B73" s="38" t="s">
         <v>283</v>
       </c>
-      <c r="C73" s="56" t="s">
+      <c r="C73" s="38" t="s">
         <v>284</v>
       </c>
-      <c r="E73" s="56" t="s">
+      <c r="E73" s="38" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="31"/>
-      <c r="B74" s="56" t="s">
+      <c r="A74" s="41"/>
+      <c r="B74" s="38" t="s">
         <v>285</v>
       </c>
-      <c r="C74" s="56" t="s">
+      <c r="C74" s="38" t="s">
         <v>286</v>
       </c>
-      <c r="E74" s="56" t="s">
+      <c r="E74" s="38" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A75" s="31"/>
-      <c r="B75" s="56" t="s">
+      <c r="A75" s="41"/>
+      <c r="B75" s="38" t="s">
         <v>287</v>
       </c>
-      <c r="C75" s="56" t="s">
+      <c r="C75" s="38" t="s">
         <v>288</v>
       </c>
-      <c r="E75" s="56" t="s">
+      <c r="E75" s="38" t="s">
         <v>312</v>
       </c>
-      <c r="F75" s="56" t="s">
+      <c r="F75" s="38" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="31"/>
-      <c r="B76" s="56" t="s">
+      <c r="A76" s="41"/>
+      <c r="B76" s="38" t="s">
         <v>289</v>
       </c>
-      <c r="C76" s="56" t="s">
+      <c r="C76" s="38" t="s">
         <v>290</v>
       </c>
-      <c r="E76" s="56" t="s">
+      <c r="E76" s="38" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A77" s="31"/>
-      <c r="B77" s="56" t="s">
+      <c r="A77" s="41"/>
+      <c r="B77" s="38" t="s">
         <v>291</v>
       </c>
-      <c r="C77" s="56" t="s">
+      <c r="C77" s="38" t="s">
         <v>292</v>
       </c>
-      <c r="E77" s="56" t="s">
+      <c r="E77" s="38" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A78" s="31"/>
-      <c r="B78" s="56" t="s">
+      <c r="A78" s="41"/>
+      <c r="B78" s="38" t="s">
         <v>293</v>
       </c>
-      <c r="C78" s="56" t="s">
+      <c r="C78" s="38" t="s">
         <v>294</v>
       </c>
-      <c r="E78" s="56" t="s">
+      <c r="E78" s="38" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A79" s="31"/>
-      <c r="B79" s="56" t="s">
+      <c r="A79" s="41"/>
+      <c r="B79" s="38" t="s">
         <v>295</v>
       </c>
-      <c r="C79" s="56" t="s">
+      <c r="C79" s="38" t="s">
         <v>296</v>
       </c>
-      <c r="E79" s="56" t="s">
+      <c r="E79" s="38" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A80" s="31"/>
-      <c r="B80" s="56" t="s">
+      <c r="A80" s="41"/>
+      <c r="B80" s="38" t="s">
         <v>297</v>
       </c>
-      <c r="C80" s="56" t="s">
+      <c r="C80" s="38" t="s">
         <v>298</v>
       </c>
-      <c r="E80" s="56" t="s">
+      <c r="E80" s="38" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A81" s="31"/>
-      <c r="B81" s="56" t="s">
+      <c r="A81" s="41"/>
+      <c r="B81" s="38" t="s">
         <v>318</v>
       </c>
-      <c r="C81" s="56" t="s">
+      <c r="C81" s="38" t="s">
         <v>319</v>
       </c>
-      <c r="E81" s="56" t="s">
+      <c r="E81" s="38" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A82" s="31"/>
-      <c r="B82" s="56" t="s">
+      <c r="A82" s="41"/>
+      <c r="B82" s="38" t="s">
         <v>320</v>
       </c>
-      <c r="C82" s="56" t="s">
+      <c r="C82" s="38" t="s">
         <v>321</v>
       </c>
-      <c r="E82" s="56" t="s">
+      <c r="E82" s="38" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A83" s="31"/>
-      <c r="B83" s="56" t="s">
+      <c r="A83" s="41"/>
+      <c r="B83" s="38" t="s">
         <v>322</v>
       </c>
-      <c r="C83" s="56" t="s">
+      <c r="C83" s="38" t="s">
         <v>323</v>
       </c>
-      <c r="E83" s="56" t="s">
+      <c r="E83" s="38" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A84" s="31"/>
-      <c r="B84" s="56" t="s">
+      <c r="A84" s="41"/>
+      <c r="B84" s="38" t="s">
         <v>324</v>
       </c>
-      <c r="C84" s="56" t="s">
+      <c r="C84" s="38" t="s">
         <v>325</v>
       </c>
-      <c r="E84" s="56" t="s">
+      <c r="E84" s="38" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A85" s="31"/>
-      <c r="B85" s="56" t="s">
+      <c r="A85" s="41"/>
+      <c r="B85" s="38" t="s">
         <v>326</v>
       </c>
-      <c r="C85" s="56" t="s">
+      <c r="C85" s="38" t="s">
         <v>327</v>
       </c>
-      <c r="E85" s="56" t="s">
+      <c r="E85" s="38" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A86" s="31"/>
-      <c r="B86" s="56" t="s">
+      <c r="A86" s="41"/>
+      <c r="B86" s="38" t="s">
         <v>328</v>
       </c>
-      <c r="C86" s="56" t="s">
+      <c r="C86" s="38" t="s">
         <v>329</v>
       </c>
-      <c r="E86" s="56" t="s">
+      <c r="E86" s="38" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A87" s="31"/>
-      <c r="B87" s="56" t="s">
+      <c r="A87" s="41"/>
+      <c r="B87" s="38" t="s">
         <v>330</v>
       </c>
-      <c r="C87" s="56" t="s">
+      <c r="C87" s="38" t="s">
         <v>331</v>
       </c>
-      <c r="E87" s="56" t="s">
+      <c r="E87" s="38" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A88" s="31"/>
-      <c r="B88" s="56" t="s">
+      <c r="A88" s="41"/>
+      <c r="B88" s="38" t="s">
         <v>332</v>
       </c>
-      <c r="C88" s="56" t="s">
+      <c r="C88" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="E88" s="56" t="s">
+      <c r="E88" s="38" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="31"/>
-      <c r="B89" s="56" t="s">
+      <c r="A89" s="41"/>
+      <c r="B89" s="38" t="s">
         <v>342</v>
       </c>
-      <c r="C89" s="56" t="s">
+      <c r="C89" s="38" t="s">
         <v>343</v>
       </c>
-      <c r="E89" s="56" t="s">
+      <c r="E89" s="38" t="s">
         <v>357</v>
       </c>
-      <c r="F89" s="56" t="s">
+      <c r="F89" s="38" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A90" s="31"/>
-      <c r="B90" s="56" t="s">
+      <c r="A90" s="41"/>
+      <c r="B90" s="38" t="s">
         <v>342</v>
       </c>
-      <c r="C90" s="56" t="s">
+      <c r="C90" s="38" t="s">
         <v>344</v>
       </c>
-      <c r="E90" s="56" t="s">
+      <c r="E90" s="38" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A91" s="31"/>
-      <c r="B91" s="56" t="s">
+      <c r="A91" s="41"/>
+      <c r="B91" s="38" t="s">
         <v>345</v>
       </c>
-      <c r="C91" s="56" t="s">
+      <c r="C91" s="38" t="s">
         <v>346</v>
       </c>
-      <c r="E91" s="56" t="s">
+      <c r="E91" s="38" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A92" s="31"/>
-      <c r="B92" s="56" t="s">
+      <c r="A92" s="41"/>
+      <c r="B92" s="38" t="s">
         <v>347</v>
       </c>
-      <c r="C92" s="56" t="s">
+      <c r="C92" s="38" t="s">
         <v>348</v>
       </c>
-      <c r="E92" s="56" t="s">
+      <c r="E92" s="38" t="s">
         <v>360</v>
       </c>
-      <c r="F92" s="56" t="s">
+      <c r="F92" s="38" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A93" s="31"/>
-      <c r="B93" s="56" t="s">
+      <c r="A93" s="41"/>
+      <c r="B93" s="38" t="s">
         <v>349</v>
       </c>
-      <c r="C93" s="56" t="s">
+      <c r="C93" s="38" t="s">
         <v>350</v>
       </c>
-      <c r="E93" s="56" t="s">
+      <c r="E93" s="38" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A94" s="31"/>
-      <c r="B94" s="56" t="s">
+      <c r="A94" s="41"/>
+      <c r="B94" s="38" t="s">
         <v>351</v>
       </c>
-      <c r="C94" s="56" t="s">
+      <c r="C94" s="38" t="s">
         <v>352</v>
       </c>
-      <c r="E94" s="56" t="s">
+      <c r="E94" s="38" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A95" s="31"/>
-      <c r="B95" s="56" t="s">
+      <c r="A95" s="41"/>
+      <c r="B95" s="38" t="s">
         <v>353</v>
       </c>
-      <c r="C95" s="56" t="s">
+      <c r="C95" s="38" t="s">
         <v>354</v>
       </c>
-      <c r="E95" s="56" t="s">
+      <c r="E95" s="38" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A96" s="31"/>
-      <c r="B96" s="56" t="s">
+      <c r="A96" s="41"/>
+      <c r="B96" s="38" t="s">
         <v>355</v>
       </c>
-      <c r="C96" s="56" t="s">
+      <c r="C96" s="38" t="s">
         <v>356</v>
       </c>
-      <c r="E96" s="56" t="s">
+      <c r="E96" s="38" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A97" s="31"/>
-      <c r="B97" s="56" t="s">
+      <c r="A97" s="41"/>
+      <c r="B97" s="38" t="s">
         <v>367</v>
       </c>
-      <c r="C97" s="56" t="s">
+      <c r="C97" s="38" t="s">
         <v>368</v>
       </c>
-      <c r="E97" s="56" t="s">
+      <c r="E97" s="38" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A98" s="31"/>
-      <c r="B98" s="56" t="s">
+      <c r="A98" s="41"/>
+      <c r="B98" s="38" t="s">
         <v>369</v>
       </c>
-      <c r="C98" s="56" t="s">
+      <c r="C98" s="38" t="s">
         <v>370</v>
       </c>
-      <c r="E98" s="56" t="s">
+      <c r="E98" s="38" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A99" s="31"/>
-      <c r="B99" s="56" t="s">
+      <c r="A99" s="41"/>
+      <c r="B99" s="38" t="s">
         <v>371</v>
       </c>
-      <c r="C99" s="56" t="s">
+      <c r="C99" s="38" t="s">
         <v>372</v>
       </c>
-      <c r="E99" s="56" t="s">
+      <c r="E99" s="38" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A100" s="31"/>
-      <c r="B100" s="57" t="s">
+      <c r="A100" s="41"/>
+      <c r="B100" s="39" t="s">
         <v>373</v>
       </c>
-      <c r="C100" s="56" t="s">
+      <c r="C100" s="38" t="s">
         <v>374</v>
       </c>
-      <c r="E100" s="56" t="s">
+      <c r="E100" s="38" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A101" s="31"/>
-      <c r="B101" s="56" t="s">
+      <c r="A101" s="41"/>
+      <c r="B101" s="38" t="s">
         <v>375</v>
       </c>
-      <c r="C101" s="56" t="s">
+      <c r="C101" s="38" t="s">
         <v>376</v>
       </c>
-      <c r="E101" s="56" t="s">
+      <c r="E101" s="38" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A102" s="31"/>
-      <c r="B102" s="56" t="s">
+      <c r="A102" s="41"/>
+      <c r="B102" s="38" t="s">
         <v>377</v>
       </c>
-      <c r="C102" s="56" t="s">
+      <c r="C102" s="38" t="s">
         <v>378</v>
       </c>
-      <c r="E102" s="56" t="s">
+      <c r="E102" s="38" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A103" s="31"/>
-      <c r="B103" s="56" t="s">
+      <c r="A103" s="41"/>
+      <c r="B103" s="38" t="s">
         <v>379</v>
       </c>
-      <c r="C103" s="56" t="s">
+      <c r="C103" s="38" t="s">
         <v>380</v>
       </c>
-      <c r="E103" s="56" t="s">
+      <c r="E103" s="38" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A104" s="31"/>
-      <c r="B104" s="56" t="s">
+      <c r="A104" s="41"/>
+      <c r="B104" s="38" t="s">
         <v>389</v>
       </c>
-      <c r="C104" s="56" t="s">
+      <c r="C104" s="38" t="s">
         <v>390</v>
       </c>
-      <c r="E104" s="56" t="s">
+      <c r="E104" s="38" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="34"/>
-      <c r="B105" s="56" t="s">
+      <c r="A105" s="42"/>
+      <c r="B105" s="38" t="s">
         <v>391</v>
       </c>
-      <c r="C105" s="56" t="s">
+      <c r="C105" s="38" t="s">
         <v>392</v>
       </c>
-      <c r="D105" s="36"/>
-      <c r="E105" s="56" t="s">
+      <c r="D105" s="27"/>
+      <c r="E105" s="38" t="s">
         <v>394</v>
       </c>
-      <c r="F105" s="35"/>
-      <c r="G105" s="37"/>
+      <c r="F105" s="26"/>
+      <c r="G105" s="28"/>
     </row>
     <row r="106" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="23" t="s">
+      <c r="A106" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="B106" s="9" t="s">
+      <c r="B106" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C106" s="9" t="s">
+      <c r="C106" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D106" s="9" t="s">
+      <c r="D106" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E106" s="10" t="s">
+      <c r="E106" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F106" s="21"/>
-      <c r="G106" s="15"/>
+      <c r="F106" s="18"/>
+      <c r="G106" s="13"/>
     </row>
     <row r="107" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="14"/>
-      <c r="B107" s="9" t="s">
+      <c r="A107" s="50"/>
+      <c r="B107" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C107" s="9" t="s">
+      <c r="C107" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D107" s="9"/>
-      <c r="E107" s="10" t="s">
+      <c r="D107" s="4"/>
+      <c r="E107" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F107" s="21"/>
-      <c r="G107" s="15"/>
+      <c r="F107" s="18"/>
+      <c r="G107" s="13"/>
     </row>
     <row r="108" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="16"/>
-      <c r="B108" s="17" t="s">
+      <c r="A108" s="51"/>
+      <c r="B108" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C108" s="17" t="s">
+      <c r="C108" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D108" s="17"/>
-      <c r="E108" s="18" t="s">
+      <c r="D108" s="14"/>
+      <c r="E108" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="F108" s="22"/>
-      <c r="G108" s="19" t="s">
+      <c r="F108" s="19"/>
+      <c r="G108" s="16" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="38" t="s">
+      <c r="A109" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="G109" s="52"/>
+      <c r="G109" s="37"/>
     </row>
     <row r="110" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="40"/>
-      <c r="B110" s="24" t="s">
+      <c r="A110" s="44"/>
+      <c r="B110" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C110" s="24" t="s">
+      <c r="C110" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D110" s="8"/>
-      <c r="E110" s="24" t="s">
+      <c r="E110" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F110" s="21"/>
-      <c r="G110" s="41"/>
+      <c r="F110" s="18"/>
+      <c r="G110" s="30"/>
     </row>
     <row r="111" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="40"/>
-      <c r="B111" s="24" t="s">
+      <c r="A111" s="44"/>
+      <c r="B111" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C111" s="24" t="s">
+      <c r="C111" s="7" t="s">
         <v>77</v>
       </c>
       <c r="D111" s="8"/>
-      <c r="E111" s="24" t="s">
+      <c r="E111" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F111" s="21"/>
-      <c r="G111" s="15"/>
+      <c r="F111" s="18"/>
+      <c r="G111" s="13"/>
     </row>
     <row r="112" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="40"/>
-      <c r="B112" s="56" t="s">
+      <c r="A112" s="44"/>
+      <c r="B112" s="38" t="s">
         <v>267</v>
       </c>
-      <c r="C112" s="56" t="s">
+      <c r="C112" s="38" t="s">
         <v>268</v>
       </c>
-      <c r="E112" s="56" t="s">
+      <c r="E112" s="38" t="s">
         <v>302</v>
       </c>
-      <c r="F112" s="21"/>
-      <c r="G112" s="15"/>
+      <c r="F112" s="18"/>
+      <c r="G112" s="13"/>
     </row>
     <row r="113" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="40"/>
-      <c r="B113" s="56" t="s">
+      <c r="A113" s="44"/>
+      <c r="B113" s="38" t="s">
         <v>365</v>
       </c>
-      <c r="C113" s="56" t="s">
+      <c r="C113" s="38" t="s">
         <v>366</v>
       </c>
-      <c r="E113" s="56" t="s">
+      <c r="E113" s="38" t="s">
         <v>381</v>
       </c>
-      <c r="F113" s="21"/>
-      <c r="G113" s="15"/>
+      <c r="F113" s="18"/>
+      <c r="G113" s="13"/>
     </row>
     <row r="114" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="40"/>
-      <c r="B114" s="24"/>
-      <c r="C114" s="24"/>
+      <c r="A114" s="44"/>
+      <c r="B114" s="7"/>
+      <c r="C114" s="7"/>
       <c r="D114" s="8"/>
-      <c r="E114" s="24"/>
-      <c r="F114" s="21"/>
-      <c r="G114" s="15"/>
+      <c r="E114" s="7"/>
+      <c r="F114" s="18"/>
+      <c r="G114" s="13"/>
     </row>
     <row r="115" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="40"/>
-      <c r="B115" s="24"/>
-      <c r="C115" s="24"/>
+      <c r="A115" s="44"/>
+      <c r="B115" s="7"/>
+      <c r="C115" s="7"/>
       <c r="D115" s="8"/>
-      <c r="E115" s="24"/>
-      <c r="F115" s="21"/>
-      <c r="G115" s="15"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="18"/>
+      <c r="G115" s="13"/>
     </row>
     <row r="116" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="42"/>
-      <c r="B116" s="43"/>
-      <c r="C116" s="43"/>
-      <c r="D116" s="44"/>
-      <c r="E116" s="43"/>
-      <c r="F116" s="22"/>
-      <c r="G116" s="19"/>
+      <c r="A116" s="45"/>
+      <c r="B116" s="31"/>
+      <c r="C116" s="31"/>
+      <c r="D116" s="32"/>
+      <c r="E116" s="31"/>
+      <c r="F116" s="19"/>
+      <c r="G116" s="16"/>
     </row>
     <row r="117" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="45" t="s">
+      <c r="A117" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B117" s="20" t="s">
+      <c r="B117" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C117" s="20" t="s">
+      <c r="C117" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D117" s="39" t="s">
+      <c r="D117" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E117" s="46" t="s">
+      <c r="E117" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F117" s="20"/>
-      <c r="G117" s="13" t="s">
+      <c r="F117" s="17"/>
+      <c r="G117" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="14"/>
-      <c r="B118" s="21" t="s">
+      <c r="A118" s="50"/>
+      <c r="B118" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C118" s="21" t="s">
+      <c r="C118" s="18" t="s">
         <v>17</v>
       </c>
       <c r="D118" s="8"/>
-      <c r="E118" s="47" t="s">
+      <c r="E118" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="F118" s="21"/>
-      <c r="G118" s="15"/>
+      <c r="F118" s="18"/>
+      <c r="G118" s="13"/>
     </row>
     <row r="119" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="14"/>
-      <c r="B119" s="21" t="s">
+      <c r="A119" s="50"/>
+      <c r="B119" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C119" s="21" t="s">
+      <c r="C119" s="18" t="s">
         <v>20</v>
       </c>
       <c r="D119" s="8"/>
-      <c r="E119" s="48" t="s">
+      <c r="E119" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="F119" s="21"/>
-      <c r="G119" s="15"/>
+      <c r="F119" s="18"/>
+      <c r="G119" s="13"/>
     </row>
     <row r="120" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="14"/>
-      <c r="B120" s="21" t="s">
+      <c r="A120" s="50"/>
+      <c r="B120" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C120" s="21" t="s">
+      <c r="C120" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D120" s="8"/>
-      <c r="E120" s="47" t="s">
+      <c r="E120" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="F120" s="21"/>
-      <c r="G120" s="15"/>
+      <c r="F120" s="18"/>
+      <c r="G120" s="13"/>
     </row>
     <row r="121" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="14"/>
-      <c r="B121" s="21" t="s">
+      <c r="A121" s="50"/>
+      <c r="B121" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C121" s="21" t="s">
+      <c r="C121" s="18" t="s">
         <v>26</v>
       </c>
       <c r="D121" s="8"/>
-      <c r="E121" s="47" t="s">
+      <c r="E121" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="F121" s="21"/>
-      <c r="G121" s="15"/>
+      <c r="F121" s="18"/>
+      <c r="G121" s="13"/>
     </row>
     <row r="122" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="14"/>
-      <c r="B122" s="21" t="s">
+      <c r="A122" s="50"/>
+      <c r="B122" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C122" s="21" t="s">
+      <c r="C122" s="18" t="s">
         <v>29</v>
       </c>
       <c r="D122" s="8"/>
-      <c r="E122" s="47" t="s">
+      <c r="E122" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="F122" s="21"/>
-      <c r="G122" s="15"/>
+      <c r="F122" s="18"/>
+      <c r="G122" s="13"/>
     </row>
     <row r="123" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="14"/>
-      <c r="B123" s="21" t="s">
+      <c r="A123" s="50"/>
+      <c r="B123" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C123" s="21" t="s">
+      <c r="C123" s="18" t="s">
         <v>32</v>
       </c>
       <c r="D123" s="8"/>
-      <c r="E123" s="47" t="s">
+      <c r="E123" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="F123" s="21"/>
-      <c r="G123" s="15"/>
+      <c r="F123" s="18"/>
+      <c r="G123" s="13"/>
     </row>
     <row r="124" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="16"/>
-      <c r="B124" s="22" t="s">
+      <c r="A124" s="51"/>
+      <c r="B124" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C124" s="22" t="s">
+      <c r="C124" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D124" s="44"/>
-      <c r="E124" s="49" t="s">
+      <c r="D124" s="32"/>
+      <c r="E124" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="F124" s="22"/>
-      <c r="G124" s="19"/>
+      <c r="F124" s="19"/>
+      <c r="G124" s="16"/>
     </row>
     <row r="125" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="50" t="s">
+      <c r="A125" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B125" s="11" t="s">
+      <c r="B125" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C125" s="11" t="s">
+      <c r="C125" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D125" s="11" t="s">
+      <c r="D125" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E125" s="12" t="s">
+      <c r="E125" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F125" s="20"/>
-      <c r="G125" s="13"/>
+      <c r="F125" s="17"/>
+      <c r="G125" s="12"/>
     </row>
     <row r="126" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="14"/>
-      <c r="B126" s="9" t="s">
+      <c r="A126" s="50"/>
+      <c r="B126" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C126" s="9" t="s">
+      <c r="C126" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D126" s="9" t="s">
+      <c r="D126" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E126" s="10" t="s">
+      <c r="E126" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F126" s="21"/>
-      <c r="G126" s="15"/>
+      <c r="F126" s="18"/>
+      <c r="G126" s="13"/>
     </row>
     <row r="127" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="14"/>
-      <c r="B127" s="9" t="s">
+      <c r="A127" s="50"/>
+      <c r="B127" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C127" s="9" t="s">
+      <c r="C127" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D127" s="9"/>
-      <c r="E127" s="10" t="s">
+      <c r="D127" s="4"/>
+      <c r="E127" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F127" s="21"/>
-      <c r="G127" s="15"/>
+      <c r="F127" s="18"/>
+      <c r="G127" s="13"/>
     </row>
     <row r="128" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="14"/>
-      <c r="B128" s="9" t="s">
+      <c r="A128" s="50"/>
+      <c r="B128" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C128" s="9" t="s">
+      <c r="C128" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D128" s="9" t="s">
+      <c r="D128" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E128" s="10" t="s">
+      <c r="E128" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F128" s="21" t="s">
+      <c r="F128" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="G128" s="15"/>
+      <c r="G128" s="13"/>
     </row>
     <row r="129" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="14"/>
-      <c r="B129" s="9" t="s">
+      <c r="A129" s="50"/>
+      <c r="B129" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C129" s="9" t="s">
+      <c r="C129" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D129" s="9" t="s">
+      <c r="D129" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E129" s="10" t="s">
+      <c r="E129" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F129" s="21"/>
-      <c r="G129" s="15"/>
+      <c r="F129" s="18"/>
+      <c r="G129" s="13"/>
     </row>
     <row r="130" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="14"/>
-      <c r="B130" s="9" t="s">
+      <c r="A130" s="50"/>
+      <c r="B130" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C130" s="9" t="s">
+      <c r="C130" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D130" s="9" t="s">
+      <c r="D130" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E130" s="10" t="s">
+      <c r="E130" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F130" s="21" t="s">
+      <c r="F130" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="G130" s="15"/>
+      <c r="G130" s="13"/>
     </row>
     <row r="131" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="51"/>
-      <c r="B131" s="17" t="s">
+      <c r="A131" s="54"/>
+      <c r="B131" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C131" s="17" t="s">
+      <c r="C131" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="D131" s="17" t="s">
+      <c r="D131" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E131" s="18" t="s">
+      <c r="E131" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="F131" s="22" t="s">
+      <c r="F131" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="G131" s="19"/>
+      <c r="G131" s="16"/>
     </row>
     <row r="132" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="53" t="s">
+      <c r="A132" s="46" t="s">
         <v>110</v>
       </c>
       <c r="B132" s="7" t="s">
@@ -3655,70 +3655,66 @@
       <c r="E132" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G132" s="52"/>
+      <c r="G132" s="37"/>
     </row>
     <row r="133" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="54"/>
-      <c r="B133" s="24"/>
-      <c r="C133" s="24"/>
+      <c r="A133" s="47"/>
+      <c r="B133" s="7"/>
+      <c r="C133" s="7"/>
       <c r="D133" s="8"/>
-      <c r="E133" s="24"/>
-      <c r="F133" s="21"/>
-      <c r="G133" s="41"/>
+      <c r="E133" s="7"/>
+      <c r="F133" s="18"/>
+      <c r="G133" s="30"/>
     </row>
     <row r="134" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="54"/>
-      <c r="B134" s="24"/>
-      <c r="C134" s="24"/>
+      <c r="A134" s="47"/>
+      <c r="B134" s="7"/>
+      <c r="C134" s="7"/>
       <c r="D134" s="8"/>
-      <c r="E134" s="24"/>
-      <c r="F134" s="21"/>
-      <c r="G134" s="15"/>
+      <c r="E134" s="7"/>
+      <c r="F134" s="18"/>
+      <c r="G134" s="13"/>
     </row>
     <row r="135" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="54"/>
-      <c r="B135" s="25"/>
-      <c r="C135" s="25"/>
-      <c r="D135" s="25"/>
-      <c r="E135" s="25"/>
-      <c r="F135" s="21"/>
-      <c r="G135" s="15"/>
+      <c r="A135" s="47"/>
+      <c r="F135" s="18"/>
+      <c r="G135" s="13"/>
     </row>
     <row r="136" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="54"/>
-      <c r="B136" s="24"/>
-      <c r="C136" s="24"/>
+      <c r="A136" s="47"/>
+      <c r="B136" s="7"/>
+      <c r="C136" s="7"/>
       <c r="D136" s="8"/>
-      <c r="E136" s="24"/>
-      <c r="F136" s="21"/>
-      <c r="G136" s="15"/>
+      <c r="E136" s="7"/>
+      <c r="F136" s="18"/>
+      <c r="G136" s="13"/>
     </row>
     <row r="137" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="54"/>
-      <c r="B137" s="24"/>
-      <c r="C137" s="24"/>
+      <c r="A137" s="47"/>
+      <c r="B137" s="7"/>
+      <c r="C137" s="7"/>
       <c r="D137" s="8"/>
-      <c r="E137" s="24"/>
-      <c r="F137" s="21"/>
-      <c r="G137" s="15"/>
+      <c r="E137" s="7"/>
+      <c r="F137" s="18"/>
+      <c r="G137" s="13"/>
     </row>
     <row r="138" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="54"/>
-      <c r="B138" s="24"/>
-      <c r="C138" s="24"/>
+      <c r="A138" s="47"/>
+      <c r="B138" s="7"/>
+      <c r="C138" s="7"/>
       <c r="D138" s="8"/>
-      <c r="E138" s="24"/>
-      <c r="F138" s="21"/>
-      <c r="G138" s="15"/>
+      <c r="E138" s="7"/>
+      <c r="F138" s="18"/>
+      <c r="G138" s="13"/>
     </row>
     <row r="139" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="55"/>
-      <c r="B139" s="43"/>
-      <c r="C139" s="43"/>
-      <c r="D139" s="44"/>
-      <c r="E139" s="43"/>
-      <c r="F139" s="22"/>
-      <c r="G139" s="19"/>
+      <c r="A139" s="48"/>
+      <c r="B139" s="31"/>
+      <c r="C139" s="31"/>
+      <c r="D139" s="32"/>
+      <c r="E139" s="31"/>
+      <c r="F139" s="19"/>
+      <c r="G139" s="16"/>
     </row>
     <row r="140" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4"/>

--- a/docs/xcom_perks/compiled_perks.xlsx
+++ b/docs/xcom_perks/compiled_perks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\xcom2_my_tweaks\docs\xcom_perks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merbos_copy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3441BE97-669F-4374-9EC9-8A1B10CC7FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8047D2CE-E967-432B-AF2E-B001BAEF7361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19092" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabellenblatt1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="761">
   <si>
     <t>Localized Name</t>
   </si>
@@ -235,9 +235,6 @@
     <t>Quickly recharge your Arc Thrower's battery with a spare, reducing all related cooldowns by up to 3 turns. &lt;Ability:SPARE_BATTERY_COOLDOWN/&gt;  turn cooldown.</t>
   </si>
   <si>
-    <t>Standard</t>
-  </si>
-  <si>
     <t>Absolutely Critical</t>
   </si>
   <si>
@@ -316,21 +313,12 @@
     <t>Gremlin</t>
   </si>
   <si>
-    <t>Bandolier</t>
-  </si>
-  <si>
-    <t>ShadowOps_Bandolier</t>
-  </si>
-  <si>
     <t>Bare Knuckle</t>
   </si>
   <si>
     <t>ShadowOps_BareKnuckle</t>
   </si>
   <si>
-    <t>Grants an extra utility item slot only usable for ammo.</t>
-  </si>
-  <si>
     <t>Your melee attacks deal additional damage. The damage bonus increases with rank.</t>
   </si>
   <si>
@@ -1205,13 +1193,1123 @@
   </si>
   <si>
     <t>Take a reaction shot against any enemy that moves or attacks within your vision.</t>
+  </si>
+  <si>
+    <t>Anatomy</t>
+  </si>
+  <si>
+    <t>You gain +15% Critical Chance and 2 Armor Pierce on all attacks.</t>
+  </si>
+  <si>
+    <t>Armor Pierce will not show during attack preview, but does function properly.</t>
+  </si>
+  <si>
+    <t>Battlespace</t>
+  </si>
+  <si>
+    <t>Increases your vision radius by 3 tiles. Once per mission, you can increase this bonus to 12 tiles for a turn.</t>
+  </si>
+  <si>
+    <t>Beatdown</t>
+  </si>
+  <si>
+    <t>Strike an enemy with the butt of your weapon, dealing only little damage, but stunning the target. Can only be used on unarmored, non-robotic targets. Has a 3 turn cooldown.</t>
+  </si>
+  <si>
+    <t>Iron Rations</t>
+  </si>
+  <si>
+    <t>ABB_Bombard</t>
+  </si>
+  <si>
+    <t>Gain one bonus use on all your grenades and rockets. Also, get one Frag Grenade in addition to those you equip.</t>
+  </si>
+  <si>
+    <t>This will affect rockets from Iridar's Rocket Launchers mod. Battle Scanners are affected as well.</t>
+  </si>
+  <si>
+    <t>Disarming Strike</t>
+  </si>
+  <si>
+    <t>DisarmingStrike</t>
+  </si>
+  <si>
+    <t>A knife strike that also disables the enemy's primary weapon, forcing the enemy to spend an action to ready it again. Resets Run and Slice. Has a 2 turn cooldown.</t>
+  </si>
+  <si>
+    <t>Meant to be used with Combat Knives but functions with any melee weapon.</t>
+  </si>
+  <si>
+    <t>Stealth_Scout</t>
+  </si>
+  <si>
+    <t>Leader</t>
+  </si>
+  <si>
+    <t>Shotgun</t>
+  </si>
+  <si>
+    <t>Drive Out</t>
+  </si>
+  <si>
+    <t>DriveOut</t>
+  </si>
+  <si>
+    <t>Strike an enemy with the butt of your weapon, dealing only little damage, but knocking the target back, possibly out of cover. Cannot be used against mechanical targets. Has a 3 turn cooldown.</t>
+  </si>
+  <si>
+    <t>Hunker Down lasts until you move. Only works in cover.</t>
+  </si>
+  <si>
+    <t>Replaces Hunker Down. Still puts out fires like Hunker Down does.</t>
+  </si>
+  <si>
+    <t>Hamstring</t>
+  </si>
+  <si>
+    <t>A crippling knife slash. Applies a permanent -7 movement, -30 aim and -50 dodge debuff. Resets Run and Slice. Has a 3 turn cooldown.</t>
+  </si>
+  <si>
+    <t>Hidden Reserves</t>
+  </si>
+  <si>
+    <t>HiddenReserves</t>
+  </si>
+  <si>
+    <t>Once per mission, as a free action, set all your cooldowns on abilities back to zero.</t>
+  </si>
+  <si>
+    <t>Heist Artist</t>
+  </si>
+  <si>
+    <t>ABB_Infiltrator</t>
+  </si>
+  <si>
+    <t>Your skills are required for a job. As a master of espionage and intel acquisition, you gain +150 Hacking.</t>
+  </si>
+  <si>
+    <t>For balance purposes, this ability is not intended to be acquired by any Gremlin users.</t>
+  </si>
+  <si>
+    <t>Interrogator</t>
+  </si>
+  <si>
+    <t>Gain +1 Skullmining charges when carrying the Skulljack.</t>
+  </si>
+  <si>
+    <t>Lacerate</t>
+  </si>
+  <si>
+    <t>A knife strike that cuts open something important, causing the target to bleed out. Resets Run and Slice. Has a 3 turn cooldown.</t>
+  </si>
+  <si>
+    <t>Minelayer</t>
+  </si>
+  <si>
+    <t>MineLayer</t>
+  </si>
+  <si>
+    <t>Provides one free proximity mine.</t>
+  </si>
+  <si>
+    <t>Nimble Hands</t>
+  </si>
+  <si>
+    <t>NimbleHands</t>
+  </si>
+  <si>
+    <t>As a free action, reload your weapon. Can be used every 3 turns.</t>
+  </si>
+  <si>
+    <t>This is separate from the regular reload, so you can use it when you really need it.</t>
+  </si>
+  <si>
+    <t>Parkour</t>
+  </si>
+  <si>
+    <t>ABB_Parkour</t>
+  </si>
+  <si>
+    <t>This soldier is able to climb walls.</t>
+  </si>
+  <si>
+    <t>Uses ladder climbing animations.</t>
+  </si>
+  <si>
+    <t>Riot Control</t>
+  </si>
+  <si>
+    <t>RiotControl</t>
+  </si>
+  <si>
+    <t>You have one free smoke grenade and one free flashbang use on every mission.</t>
+  </si>
+  <si>
+    <t>Run and Slice</t>
+  </si>
+  <si>
+    <t>SlashAndDashRS</t>
+  </si>
+  <si>
+    <t>Move to and slice a target. Uses one action and doesn't end the turn but can only be used once per turn. Has a 4 turn cooldown that can be reset by using other knife perks.</t>
+  </si>
+  <si>
+    <t>Grenade_Explody</t>
+  </si>
+  <si>
+    <t>Shadowmelt</t>
+  </si>
+  <si>
+    <t>Strike an enemy with the knife. If you kill the target, enter concealment. Resets Run and Slice. Has a 3 turn cooldown.</t>
+  </si>
+  <si>
+    <t>Take Under</t>
+  </si>
+  <si>
+    <t>TakeUnder</t>
+  </si>
+  <si>
+    <t>An attack with your melee weapon that always hits and doesn't end the turn. Can only be used against wounded targets on 3 or less health.</t>
+  </si>
+  <si>
+    <t>Functions with any melee weapon.</t>
+  </si>
+  <si>
+    <t>Taunt</t>
+  </si>
+  <si>
+    <t>Try to draw enemy fire towards you. Decrease Defense by 30, and increase Dodge by 70. Is used like Hunker Down, ending the turn.</t>
+  </si>
+  <si>
+    <t>Does not require cover and does not replace Hunker Down.</t>
+  </si>
+  <si>
+    <t>Tear Down</t>
+  </si>
+  <si>
+    <t>TearDown</t>
+  </si>
+  <si>
+    <t>As a free action, detonate an environmental explosive with a well placed shot.</t>
+  </si>
+  <si>
+    <t>Does not use ammo, but also does not change the range or damage of the explosion, and will not allow for retaining concealment.</t>
+  </si>
+  <si>
+    <t>Trial By Fire</t>
+  </si>
+  <si>
+    <t>ABB_TrialByFire</t>
+  </si>
+  <si>
+    <t>Permanently gain +1 Aim and +1 Will at the start of each mission.</t>
+  </si>
+  <si>
+    <t>Triggers at the start of each mission.</t>
+  </si>
+  <si>
+    <t>Trained Sniper</t>
+  </si>
+  <si>
+    <t>TrainedSniper</t>
+  </si>
+  <si>
+    <t>Grants the Squadsight ability, but only when a sniper rifle is equipped as this soldier's primary weapon.</t>
+  </si>
+  <si>
+    <t>Any sniper rifle category of weapon counts for this, such as Auto-Sniper Rifles or Strike Rifles.</t>
+  </si>
+  <si>
+    <t>Perfect Plan</t>
+  </si>
+  <si>
+    <t>PerfectPlan</t>
+  </si>
+  <si>
+    <t>Gain the Failsafe and Parkour abilities.</t>
+  </si>
+  <si>
+    <t>Jingoistic</t>
+  </si>
+  <si>
+    <t>It's time for war. This soldier is granted a grenade slot as well as a heavy weapon slot, regardless of armor worn.</t>
+  </si>
+  <si>
+    <t>Does not "double up" on slots that are already granted by something else (Launch Grenade ability or EXO Suit for example)</t>
+  </si>
+  <si>
+    <t>Cannonade</t>
+  </si>
+  <si>
+    <t>ABB_Cannonade</t>
+  </si>
+  <si>
+    <t>Gain one bonus use on all your grenades and rockets. Additionally gain the Bombardier ability, letting you launch grenades 2 extra tiles.</t>
+  </si>
+  <si>
+    <t>Bonus range may affect rockets too, currently untested in that regard.</t>
+  </si>
+  <si>
+    <t>Take Down</t>
+  </si>
+  <si>
+    <t>ABB_TakeDown</t>
+  </si>
+  <si>
+    <t>A melee finisher that always hits and doesn't end the turn. Can only be used against wounded targets on 3 or less health. Can be used once per turn.</t>
+  </si>
+  <si>
+    <t>Unlike Take Under, this attack does not require a melee weapon (human soldiers will do a stock strike)</t>
+  </si>
+  <si>
+    <t>Multitasking</t>
+  </si>
+  <si>
+    <t>Whenever you Aid Protocol a target, you also Aid Protocol yourself. This includes Threat Assessment, if available.</t>
+  </si>
+  <si>
+    <t>Requires the user to have Aid Protocol and a GREMLIN or BIT.</t>
+  </si>
+  <si>
+    <t>Bullfighter</t>
+  </si>
+  <si>
+    <t>Make an extremely accurate dashing melee attack against a target that deals little damage but stuns for 2 actions.</t>
+  </si>
+  <si>
+    <t>Does not require a melee weapon and does not benefit from one.</t>
+  </si>
+  <si>
+    <t>Soul Mania</t>
+  </si>
+  <si>
+    <t>SoulMania</t>
+  </si>
+  <si>
+    <t>Free Psionic attacks on any enemies that enter or attack from within 2 tiles. Guaranteed to hit, but robots and enemies with Shadowstep are immune.</t>
+  </si>
+  <si>
+    <t>Needs to be bound to a Psi Amp or Psi Underlay to function properly.</t>
+  </si>
+  <si>
+    <t>Equipment</t>
+  </si>
+  <si>
+    <t>Suppression</t>
+  </si>
+  <si>
+    <t>Overwatch</t>
+  </si>
+  <si>
+    <t>Medical</t>
+  </si>
+  <si>
+    <t>Cannon</t>
+  </si>
+  <si>
+    <t>Pistol_Sidearm</t>
+  </si>
+  <si>
+    <t>Close_Range</t>
+  </si>
+  <si>
+    <t>Sniper</t>
+  </si>
+  <si>
+    <t>Shred</t>
+  </si>
+  <si>
+    <t>Robot Killer</t>
+  </si>
+  <si>
+    <t>Loot</t>
+  </si>
+  <si>
+    <t>eInvSlot_PrimaryWeapon</t>
+  </si>
+  <si>
+    <t>Adrenaline</t>
+  </si>
+  <si>
+    <t>F_Adrenaline</t>
+  </si>
+  <si>
+    <t>Kills grant Shield.</t>
+  </si>
+  <si>
+    <t>Ambush</t>
+  </si>
+  <si>
+    <t>F_Ambush</t>
+  </si>
+  <si>
+    <t>Take a reaction shot against any enemy that moves or attacks within a cone of fire. Can only be used while concealed.</t>
+  </si>
+  <si>
+    <t>Ammo Conservation</t>
+  </si>
+  <si>
+    <t>F_AmmoConservation</t>
+  </si>
+  <si>
+    <t>Activated ability that does not cost an action point. For the remainder of this turn, your ammo will be refunded after each shot you take.</t>
+  </si>
+  <si>
+    <t>Avenger</t>
+  </si>
+  <si>
+    <t>F_Avenger</t>
+  </si>
+  <si>
+    <t>When an ally within a small radius is shot at, you will automatically take a primary weapon shot back at the shooter.</t>
+  </si>
+  <si>
+    <t>Blend</t>
+  </si>
+  <si>
+    <t>F_Blend</t>
+  </si>
+  <si>
+    <t>Immediately grants concealment that is automatically broken after 2 turns.</t>
+  </si>
+  <si>
+    <t>Blinding Fire</t>
+  </si>
+  <si>
+    <t>F_BlindingFire</t>
+  </si>
+  <si>
+    <t>Fire at enemies in a cone. This attack is inaccurate, but reduces the aim of all targets.</t>
+  </si>
+  <si>
+    <t>Bloodlet</t>
+  </si>
+  <si>
+    <t>F_Bloodlet</t>
+  </si>
+  <si>
+    <t>Standard shots from your primary weapon or a pistol now cause bleeding.</t>
+  </si>
+  <si>
+    <t>Bolstered Wall</t>
+  </si>
+  <si>
+    <t>F_BolsteredWall</t>
+  </si>
+  <si>
+    <t>While Shield Wall is active, gain a bonus to Dodge.</t>
+  </si>
+  <si>
+    <t>Botnet</t>
+  </si>
+  <si>
+    <t>F_Botnet</t>
+  </si>
+  <si>
+    <t>While active, standard shots from all allies before next turn lower their target's hack defense.</t>
+  </si>
+  <si>
+    <t>Call For Fire</t>
+  </si>
+  <si>
+    <t>F_CallForFire</t>
+  </si>
+  <si>
+    <t>Enter overwatch. All allies in a radius around you also enter overwatch.</t>
+  </si>
+  <si>
+    <t>Chip Away</t>
+  </si>
+  <si>
+    <t>F_ChipAway</t>
+  </si>
+  <si>
+    <t>Fire a shot with your primary weapon that shreds armor based on weapon tier.</t>
+  </si>
+  <si>
+    <t>Cold Blooded</t>
+  </si>
+  <si>
+    <t>F_ColdBlooded</t>
+  </si>
+  <si>
+    <t>The first standard shot you take against an enemy suffering from bleeding, poison, burning, or acid burning does not cost an action.</t>
+  </si>
+  <si>
+    <t>F_CombatDrugs</t>
+  </si>
+  <si>
+    <t>A fast-acting stimulant in your smoke grenades grants bonus Aim and Critical Chance to units in the smoke cloud.</t>
+  </si>
+  <si>
+    <t>Compensation</t>
+  </si>
+  <si>
+    <t>F_Compensation</t>
+  </si>
+  <si>
+    <t>Firing your sniper rifle with two actions will refund one of those actions.</t>
+  </si>
+  <si>
+    <t>Concentration</t>
+  </si>
+  <si>
+    <t>F_Concentration</t>
+  </si>
+  <si>
+    <t>Your grazing shots are automatically upgraded to normal hits.</t>
+  </si>
+  <si>
+    <t>Controlled Fire</t>
+  </si>
+  <si>
+    <t>F_ControlledFire</t>
+  </si>
+  <si>
+    <t>Additional shots fired from Area Suppression no longer cost ammo.</t>
+  </si>
+  <si>
+    <t>Coordinate Fire</t>
+  </si>
+  <si>
+    <t>F_CoordinateFire</t>
+  </si>
+  <si>
+    <t>Fire at a target, then command all adjacent allies to fire at that target.</t>
+  </si>
+  <si>
+    <t>Corpsman</t>
+  </si>
+  <si>
+    <t>F_Corpsman</t>
+  </si>
+  <si>
+    <t>Grants a free Medikit.</t>
+  </si>
+  <si>
+    <t>Dedication</t>
+  </si>
+  <si>
+    <t>F_Dedication</t>
+  </si>
+  <si>
+    <t>Free action. Gain bonus mobility and ignore reaction fire for the rest of the turn.</t>
+  </si>
+  <si>
+    <t>F_DisablingShot</t>
+  </si>
+  <si>
+    <t>Primary weapon shot that, if it hits, stuns the target. Cannot critically hit.</t>
+  </si>
+  <si>
+    <t>Faultless Defense</t>
+  </si>
+  <si>
+    <t>F_FaultlessDefense</t>
+  </si>
+  <si>
+    <t>While Shield Wall is active, you cannot be critically hit.</t>
+  </si>
+  <si>
+    <t>Field Medic</t>
+  </si>
+  <si>
+    <t>F_FieldMedic</t>
+  </si>
+  <si>
+    <t>Equipped medikits have extra charges.</t>
+  </si>
+  <si>
+    <t>Similar to base game perk, but works properly with Corpsman</t>
+  </si>
+  <si>
+    <t>Finesse</t>
+  </si>
+  <si>
+    <t>F_Finesse</t>
+  </si>
+  <si>
+    <t>Your first melee attack each turn will have its actions refunded.</t>
+  </si>
+  <si>
+    <t>Intended to be used with the Combat Knife and its Knife Fighter ability, but can also work with Swords.</t>
+  </si>
+  <si>
+    <t>Fire First</t>
+  </si>
+  <si>
+    <t>F_FireFirst</t>
+  </si>
+  <si>
+    <t>When an enemy attempts to shoot at you, you will pre-emptively take a primary weapon shot at them.</t>
+  </si>
+  <si>
+    <t>Flatline</t>
+  </si>
+  <si>
+    <t>F_Flatline</t>
+  </si>
+  <si>
+    <t>Fire a shot with your primary weapon that deals additional damage and applies Rupture.</t>
+  </si>
+  <si>
+    <t>Guard</t>
+  </si>
+  <si>
+    <t>F_Guard</t>
+  </si>
+  <si>
+    <t>Block the next attack made at you, negating all damage and effects</t>
+  </si>
+  <si>
+    <t>No animation (soldier will T-pose during the Guard, but functions fine)</t>
+  </si>
+  <si>
+    <t>Havoc</t>
+  </si>
+  <si>
+    <t>F_Havoc</t>
+  </si>
+  <si>
+    <t>Your Suppression and Area Suppression abilities now deals one point of guarenteed damage to the primary target.</t>
+  </si>
+  <si>
+    <t>Immunize</t>
+  </si>
+  <si>
+    <t>F_Immunize</t>
+  </si>
+  <si>
+    <t>Your GREMLIN flies to an ally, granting them immunity to damage until the beginning of next turn.</t>
+  </si>
+  <si>
+    <t>Requires GREMLIN</t>
+  </si>
+  <si>
+    <t>Imposition</t>
+  </si>
+  <si>
+    <t>F_Imposition</t>
+  </si>
+  <si>
+    <t>Standard shots at an enemy with the unit's primary weapon reduces the target's aim until next turn.</t>
+  </si>
+  <si>
+    <t>Intimidate</t>
+  </si>
+  <si>
+    <t>F_Intimidate</t>
+  </si>
+  <si>
+    <t>When targeted by an attack, the enemy has a chance to panic. Chance is based on your secondary weapon tier</t>
+  </si>
+  <si>
+    <t>Kill 'Em All</t>
+  </si>
+  <si>
+    <t>F_KillEmAll</t>
+  </si>
+  <si>
+    <t>Take a shot at every enemy in a cone area. Requires line of sight in order to fire at a target.</t>
+  </si>
+  <si>
+    <t>Taken from RPGO</t>
+  </si>
+  <si>
+    <t>Lick Your Wounds</t>
+  </si>
+  <si>
+    <t>F_LickYourWounds</t>
+  </si>
+  <si>
+    <t>Hunker Down restores some health when used, up to a configurable maximum per mission, and removes poison, burning, and acid burning.</t>
+  </si>
+  <si>
+    <t>Like Lightning</t>
+  </si>
+  <si>
+    <t>F_LikeLightning</t>
+  </si>
+  <si>
+    <t>When Run and Gun is activated, your Arc Thrower cooldown is immediately removed, and your next Arc Thrower shot this turn does not cost an action.</t>
+  </si>
+  <si>
+    <t>Requires Run and Gun and Arc Thrower</t>
+  </si>
+  <si>
+    <t>Lock 'N Load</t>
+  </si>
+  <si>
+    <t>F_LockNLoad</t>
+  </si>
+  <si>
+    <t>Kills with your primary weapon restore one ammo.</t>
+  </si>
+  <si>
+    <t>Maim</t>
+  </si>
+  <si>
+    <t>F_Maim</t>
+  </si>
+  <si>
+    <t>Fire a shot with your primary weapon that immobilizes the target until the end of their next turn.</t>
+  </si>
+  <si>
+    <t>Mind Blast</t>
+  </si>
+  <si>
+    <t>F_MindBlast</t>
+  </si>
+  <si>
+    <t>Deal a small amount of damage and stun the target for one action.</t>
+  </si>
+  <si>
+    <t>Requires Psi Amp</t>
+  </si>
+  <si>
+    <t>Mind's Eye</t>
+  </si>
+  <si>
+    <t>F_SensePanic</t>
+  </si>
+  <si>
+    <t>Shots against targets that are suffering from mental impairments ignore half of cover bonuses</t>
+  </si>
+  <si>
+    <t>Momentum</t>
+  </si>
+  <si>
+    <t>F_Momentum</t>
+  </si>
+  <si>
+    <t>Confers bonus aim, critical chance, and damage with your primary weapon if you have moved this turn.</t>
+  </si>
+  <si>
+    <t>Open Fire</t>
+  </si>
+  <si>
+    <t>F_OpenFire</t>
+  </si>
+  <si>
+    <t>Gain bonus Aim and Crit against targets that are at full health.</t>
+  </si>
+  <si>
+    <t>Opportunist</t>
+  </si>
+  <si>
+    <t>F_Opportunist</t>
+  </si>
+  <si>
+    <t>Reaction fire shots now ignore half of cover bonuses.</t>
+  </si>
+  <si>
+    <t>Over Exertion</t>
+  </si>
+  <si>
+    <t>F_OverExertion</t>
+  </si>
+  <si>
+    <t>Immediately gain a bonus standard action point. Can only be used once per turn. Has limited uses per mission</t>
+  </si>
+  <si>
+    <t>Pack Tactics</t>
+  </si>
+  <si>
+    <t>F_PackTactics</t>
+  </si>
+  <si>
+    <t>If Shield Wall is active, then all adjacent allies will enter overwatch at the end of the turn</t>
+  </si>
+  <si>
+    <t>Parry</t>
+  </si>
+  <si>
+    <t>F_Parry</t>
+  </si>
+  <si>
+    <t>You may parry melee attacks and counterattack with a Shield Bash</t>
+  </si>
+  <si>
+    <t>No animation (soldier will T-pose, but functions fine)</t>
+  </si>
+  <si>
+    <t>Pierce the Veil</t>
+  </si>
+  <si>
+    <t>F_PierceTheVeil</t>
+  </si>
+  <si>
+    <t>Activated ability that confers bonus aim, damage, and armor piercing to organic targets with your primary weapon, while increasing the cooldown of all of your other abilities.</t>
+  </si>
+  <si>
+    <t>Predator</t>
+  </si>
+  <si>
+    <t>F_Predator</t>
+  </si>
+  <si>
+    <t>Grants bonus aim and critical chance against enemies that are flanked or out of cover.</t>
+  </si>
+  <si>
+    <t>Preservation</t>
+  </si>
+  <si>
+    <t>F_Preservation</t>
+  </si>
+  <si>
+    <t>When your concealment is broken, gain bonus defense for a few turns.</t>
+  </si>
+  <si>
+    <t>Protect and Serve</t>
+  </si>
+  <si>
+    <t>F_ProtectAndServe</t>
+  </si>
+  <si>
+    <t>Gain a non-movement action point after using Shield Wall.</t>
+  </si>
+  <si>
+    <t>Put 'Em Down</t>
+  </si>
+  <si>
+    <t>F_PutEmDown</t>
+  </si>
+  <si>
+    <t>Grants bonus aim against targets that are stunned, disoriented, dazed, or panicked.</t>
+  </si>
+  <si>
+    <t>Quick Feet</t>
+  </si>
+  <si>
+    <t>F_QuickFeet</t>
+  </si>
+  <si>
+    <t>Refunds one action point when you are revealed from concealment via your own action.</t>
+  </si>
+  <si>
+    <t>Quick Patch</t>
+  </si>
+  <si>
+    <t>F_QuickPatch</t>
+  </si>
+  <si>
+    <t>Using a Medikit does not cost an action.</t>
+  </si>
+  <si>
+    <t>Rally</t>
+  </si>
+  <si>
+    <t>F_Rally</t>
+  </si>
+  <si>
+    <t>Embolden the resolve of yourself and allies around you, granting them bonus Shield.</t>
+  </si>
+  <si>
+    <t>Rampart</t>
+  </si>
+  <si>
+    <t>F_Rampart</t>
+  </si>
+  <si>
+    <t>Activated ability that reduces all damage taken by the user and adjacent allies</t>
+  </si>
+  <si>
+    <t>F_ReadyForAnything</t>
+  </si>
+  <si>
+    <t>Recharge</t>
+  </si>
+  <si>
+    <t>F_Recharge</t>
+  </si>
+  <si>
+    <t>Killing an enemy with your primary weapon reduces the cooldown of all abilities.</t>
+  </si>
+  <si>
+    <t>Regenerative Mist</t>
+  </si>
+  <si>
+    <t>F_RegenerativeMist</t>
+  </si>
+  <si>
+    <t>Traces of restorative chemicals are added to your smoke grenades, healing all units in the cloud at the beginning of each turn that they remain in the area of effect.</t>
+  </si>
+  <si>
+    <t>Renewal</t>
+  </si>
+  <si>
+    <t>F_Renewal</t>
+  </si>
+  <si>
+    <t>At the start of each turn, heals yourself and all allies in a radius on you.</t>
+  </si>
+  <si>
+    <t>Resupply</t>
+  </si>
+  <si>
+    <t>F_Resupply</t>
+  </si>
+  <si>
+    <t>Refill the primary weapon ammo of all allies.</t>
+  </si>
+  <si>
+    <t>F_RiotControl</t>
+  </si>
+  <si>
+    <t>Grants a free Flashbang and Smoke Grenade</t>
+  </si>
+  <si>
+    <t>Rush</t>
+  </si>
+  <si>
+    <t>F_Rush</t>
+  </si>
+  <si>
+    <t>Run towards an enemy and stab them with your knife. Can only perform with single-action moves. Costs a single action and does not end the turn.</t>
+  </si>
+  <si>
+    <t>Requires Combat Knife or Sword</t>
+  </si>
+  <si>
+    <t>Safeguard</t>
+  </si>
+  <si>
+    <t>F_Safeguard</t>
+  </si>
+  <si>
+    <t>Shots against adjacent allies have reduced Aim. While Shield Wall is in effect, the penalty is increased</t>
+  </si>
+  <si>
+    <t>Salt in the Wound</t>
+  </si>
+  <si>
+    <t>F_SaltInTheWound</t>
+  </si>
+  <si>
+    <t>All attacks deal bonus damage to targets suffering from Poison, Burning, Acid, or Bleeding. This includes tick damage from those effects.</t>
+  </si>
+  <si>
+    <t>Shield Trauma</t>
+  </si>
+  <si>
+    <t>F_ShieldTrauma</t>
+  </si>
+  <si>
+    <t>Make a melee attack with your shield that leaves your opponent disoriented and stunned for 1 action.</t>
+  </si>
+  <si>
+    <t>Shoudler To Lean On</t>
+  </si>
+  <si>
+    <t>F_ShoulderToLeanOn</t>
+  </si>
+  <si>
+    <t>Allies in a small radius around you gain bonus Aim.</t>
+  </si>
+  <si>
+    <t>Sniper Elite</t>
+  </si>
+  <si>
+    <t>F_SniperElite</t>
+  </si>
+  <si>
+    <t>Removes squadsight penalties.</t>
+  </si>
+  <si>
+    <t>Stationary Threat</t>
+  </si>
+  <si>
+    <t>F_StationaryThreat</t>
+  </si>
+  <si>
+    <t>Gain bonus damage to your primary weapon attacks for each turn that you do not move.</t>
+  </si>
+  <si>
+    <t>Steadfast</t>
+  </si>
+  <si>
+    <t>F_Steadfast</t>
+  </si>
+  <si>
+    <t>Grants immunity to negative mental conditions including panic, mind control, stuns, and disorientation.</t>
+  </si>
+  <si>
+    <t>Stiletto</t>
+  </si>
+  <si>
+    <t>F_Stiletto</t>
+  </si>
+  <si>
+    <t>Your shots pierce armor.</t>
+  </si>
+  <si>
+    <t>Stimulate</t>
+  </si>
+  <si>
+    <t>F_Stimulate</t>
+  </si>
+  <si>
+    <t>Once per turn, you may remove mental impairments from an adjacent ally.</t>
+  </si>
+  <si>
+    <t>Strong Back</t>
+  </si>
+  <si>
+    <t>F_StrongBack</t>
+  </si>
+  <si>
+    <t>Reduces the mobility penalty for each weighted utility item by one</t>
+  </si>
+  <si>
+    <t>Suppressing Fire</t>
+  </si>
+  <si>
+    <t>F_SuppressingFire</t>
+  </si>
+  <si>
+    <t>Fire a standard shot. If the shot does not kill the target, then suppress them.</t>
+  </si>
+  <si>
+    <t>Surgical Precision</t>
+  </si>
+  <si>
+    <t>F_SurgicalPrecision</t>
+  </si>
+  <si>
+    <t>Reduces aim penalties from cover by half. Does not apply to reaction fire.</t>
+  </si>
+  <si>
+    <t>Surprise</t>
+  </si>
+  <si>
+    <t>F_FirstStrike</t>
+  </si>
+  <si>
+    <t>You deal +2 damage while concealed and +1 damage while flanking your target.</t>
+  </si>
+  <si>
+    <t>Survivor</t>
+  </si>
+  <si>
+    <t>F_Survivor</t>
+  </si>
+  <si>
+    <t>Ensures the first killing blow in a mission will not lead to instant death. Also reduces this soldier's wound recovery time.</t>
+  </si>
+  <si>
+    <t>The Bigger They Are</t>
+  </si>
+  <si>
+    <t>F_TheBiggerTheyAre</t>
+  </si>
+  <si>
+    <t>Grants bonus aim against targets that cannot take cover.</t>
+  </si>
+  <si>
+    <t>Thousands To Go</t>
+  </si>
+  <si>
+    <t>F_ThousandsToGo</t>
+  </si>
+  <si>
+    <t>Once per turn, after killing an enemy with your primary weapon, you may take an additional non-movement action.</t>
+  </si>
+  <si>
+    <t>Trade Fire</t>
+  </si>
+  <si>
+    <t>F_TradeFire</t>
+  </si>
+  <si>
+    <t>Until the start of next turn, fire at any enemy that takes a hostile action</t>
+  </si>
+  <si>
+    <t>Trench Warfare</t>
+  </si>
+  <si>
+    <t>F_TrenchWarfare</t>
+  </si>
+  <si>
+    <t>If you get at least one kill during your turn, automatically Hunker Down at the end of it.</t>
+  </si>
+  <si>
+    <t>Triage</t>
+  </si>
+  <si>
+    <t>F_Triage</t>
+  </si>
+  <si>
+    <t>Restores health to the user and surrounding allies. Removes Burning, Acid, and Poison.</t>
+  </si>
+  <si>
+    <t>Unload</t>
+  </si>
+  <si>
+    <t>F_Unload</t>
+  </si>
+  <si>
+    <t>Fire with your primary weapon until out of ammo or the target is dead. Shots cannot critically hit and each shot deals less damage than a standard shot.</t>
+  </si>
+  <si>
+    <t>Warning Shot</t>
+  </si>
+  <si>
+    <t>F_WarningShot</t>
+  </si>
+  <si>
+    <t>Fire your primary weapon just over the target's head, causing them to panic. This attack deals no damage.</t>
+  </si>
+  <si>
+    <t>Watch Them Run</t>
+  </si>
+  <si>
+    <t>F_WatchThemRun</t>
+  </si>
+  <si>
+    <t>After throwing or launching a grenade, you will automatically enter overwatch.</t>
+  </si>
+  <si>
+    <t>F_WatchfulEye</t>
+  </si>
+  <si>
+    <t>You get a free overwatch shot when any target you have holotargeted moves or attacks.</t>
+  </si>
+  <si>
+    <t>Requires Holotargeter</t>
+  </si>
+  <si>
+    <t>Well Protected</t>
+  </si>
+  <si>
+    <t>F_WellProtected</t>
+  </si>
+  <si>
+    <t>Grants a vest only utility slot.</t>
+  </si>
+  <si>
+    <t>Requires user to edit XComVestSlot.ini</t>
+  </si>
+  <si>
+    <t>Will to Survive</t>
+  </si>
+  <si>
+    <t>F_WillToSurvive</t>
+  </si>
+  <si>
+    <t>Grants bonus Armor and Dodge</t>
+  </si>
+  <si>
+    <t>Holotargeter</t>
+  </si>
+  <si>
+    <t>Monster Killer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1314,8 +2412,54 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1349,12 +2493,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
-        <bgColor rgb="FFB4A7D6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1382,8 +2520,188 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor rgb="FFB4A7D6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.24994659260841701"/>
+        <bgColor rgb="FFB4A7D6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.24994659260841701"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39994506668294322"/>
+        <bgColor rgb="FFA4C2F4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.24994659260841701"/>
+        <bgColor rgb="FFEA9999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.24994659260841701"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59996337778862885"/>
+        <bgColor rgb="FFEA9999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59996337778862885"/>
+        <bgColor rgb="FFA4C2F4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59996337778862885"/>
+        <bgColor rgb="FFA4C2F4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor rgb="FFEA9999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor rgb="FFA4C2F4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor rgb="FFEA9999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor rgb="FFEA9999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor rgb="FFEA9999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.499984740745262"/>
+        <bgColor rgb="FFA4C2F4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor rgb="FFA4C2F4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FFA4C2F4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1476,37 +2794,6 @@
         <color rgb="FF000000"/>
       </left>
       <right/>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1533,15 +2820,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
@@ -1551,11 +2829,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1588,15 +2875,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1618,33 +2898,146 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1863,11 +3256,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA1119"/>
+  <dimension ref="A1:AA1330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E41" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B336" sqref="B336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1875,8 +3268,9 @@
     <col min="1" max="2" width="19.85546875" customWidth="1"/>
     <col min="3" max="3" width="32.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.28515625" customWidth="1"/>
-    <col min="5" max="5" width="148" customWidth="1"/>
+    <col min="5" max="5" width="154.7109375" customWidth="1"/>
     <col min="6" max="6" width="26.5703125" customWidth="1"/>
+    <col min="7" max="7" width="79.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1920,7 +3314,7 @@
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
     </row>
-    <row r="2" spans="1:27" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="6" t="s">
         <v>6</v>
@@ -1937,2424 +3331,4476 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:27" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="23"/>
-    </row>
-    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
+    <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="35"/>
+      <c r="B3" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="18"/>
+      <c r="G3" s="20"/>
+    </row>
+    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="35"/>
       <c r="B4" s="7" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="8"/>
+        <v>103</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G4" s="24"/>
-    </row>
-    <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
+        <v>105</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="20"/>
+    </row>
+    <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="35"/>
       <c r="B5" s="7" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="8"/>
+        <v>115</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="25"/>
-    </row>
-    <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
-      <c r="B6" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="25"/>
-    </row>
-    <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
-      <c r="B7" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="25"/>
-    </row>
-    <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
-      <c r="B8" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5" s="20"/>
+    </row>
+    <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="35"/>
+      <c r="B6" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="G6" s="20"/>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="35"/>
+      <c r="B7" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="G7" s="20"/>
+    </row>
+    <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="35"/>
+      <c r="B8" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="G8" s="20"/>
+    </row>
+    <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="35"/>
+      <c r="B9" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="G9" s="20"/>
+    </row>
+    <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="35"/>
+      <c r="B10" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="G10" s="20"/>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="35"/>
+      <c r="B11" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="G11" s="20"/>
+    </row>
+    <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="35"/>
+      <c r="B12" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="G12" s="20"/>
+    </row>
+    <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="35"/>
+      <c r="B13" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="F13" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="25"/>
-    </row>
-    <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
-      <c r="B9" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="25"/>
-    </row>
-    <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
-      <c r="B10" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="25"/>
-    </row>
-    <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
-      <c r="B11" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G11" s="25"/>
-    </row>
-    <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="41"/>
-      <c r="B12" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G12" s="25"/>
-    </row>
-    <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="41"/>
-      <c r="B13" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E13" s="7" t="s">
+    </row>
+    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="35"/>
+      <c r="B14" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="35"/>
+      <c r="B15" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="35"/>
+      <c r="B16" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="35"/>
+      <c r="B17" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="35"/>
+      <c r="B18" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="35"/>
+      <c r="B19" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="35"/>
+      <c r="B20" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="35"/>
+      <c r="B21" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>278</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="35"/>
+      <c r="B22" s="31" t="s">
+        <v>287</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>288</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="35"/>
+      <c r="B23" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>315</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="35"/>
+      <c r="B24" s="31" t="s">
+        <v>320</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>321</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="35"/>
+      <c r="B25" s="31" t="s">
+        <v>326</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>327</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="35"/>
+      <c r="B26" s="31" t="s">
+        <v>341</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>342</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="35"/>
+      <c r="B27" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>346</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="35"/>
+      <c r="B28" s="31" t="s">
+        <v>365</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="E28" s="31" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="35"/>
+      <c r="B29" s="31" t="s">
+        <v>385</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>386</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="35"/>
+      <c r="B30" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="C30" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61" t="s">
+        <v>412</v>
+      </c>
+      <c r="F30" s="61" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="35"/>
+      <c r="B31" s="61" t="s">
+        <v>416</v>
+      </c>
+      <c r="C31" s="61" t="s">
+        <v>417</v>
+      </c>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="35"/>
+      <c r="B32" s="61" t="s">
+        <v>419</v>
+      </c>
+      <c r="C32" s="61" t="s">
+        <v>420</v>
+      </c>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61" t="s">
+        <v>421</v>
+      </c>
+      <c r="F32" s="61" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="35"/>
+      <c r="B33" s="61" t="s">
+        <v>430</v>
+      </c>
+      <c r="C33" s="61" t="s">
+        <v>431</v>
+      </c>
+      <c r="D33" s="56" t="s">
+        <v>501</v>
+      </c>
+      <c r="E33" s="61" t="s">
+        <v>432</v>
+      </c>
+      <c r="F33" s="61" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="35"/>
+      <c r="B34" s="49" t="s">
+        <v>454</v>
+      </c>
+      <c r="C34" s="49" t="s">
+        <v>455</v>
+      </c>
+      <c r="D34" s="56" t="s">
+        <v>501</v>
+      </c>
+      <c r="E34" s="49" t="s">
+        <v>456</v>
+      </c>
+      <c r="F34" s="49" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="35"/>
+      <c r="B35" s="49" t="s">
+        <v>458</v>
+      </c>
+      <c r="C35" s="49" t="s">
+        <v>459</v>
+      </c>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49" t="s">
+        <v>460</v>
+      </c>
+      <c r="F35" s="49" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="35"/>
+      <c r="B36" s="49" t="s">
+        <v>466</v>
+      </c>
+      <c r="C36" s="49" t="s">
+        <v>467</v>
+      </c>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="35"/>
+      <c r="B37" s="31" t="s">
+        <v>508</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>509</v>
+      </c>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="35"/>
+      <c r="B38" s="31" t="s">
+        <v>520</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>521</v>
+      </c>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="35"/>
+      <c r="B39" s="31" t="s">
+        <v>535</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>536</v>
+      </c>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="35"/>
+      <c r="B40" s="31" t="s">
+        <v>543</v>
+      </c>
+      <c r="C40" s="31" t="s">
+        <v>544</v>
+      </c>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="35"/>
+      <c r="B41" s="31" t="s">
+        <v>555</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>556</v>
+      </c>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="35"/>
+      <c r="B42" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>558</v>
+      </c>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="35"/>
+      <c r="B43" s="31" t="s">
+        <v>574</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>575</v>
+      </c>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="35"/>
+      <c r="B44" s="31" t="s">
+        <v>591</v>
+      </c>
+      <c r="C44" s="31" t="s">
+        <v>592</v>
+      </c>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="35"/>
+      <c r="B45" s="31" t="s">
+        <v>594</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>595</v>
+      </c>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31" t="s">
+        <v>596</v>
+      </c>
+      <c r="F45" s="31" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="35"/>
+      <c r="B46" s="31" t="s">
+        <v>598</v>
+      </c>
+      <c r="C46" s="31" t="s">
+        <v>599</v>
+      </c>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="35"/>
+      <c r="B47" s="31" t="s">
+        <v>605</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>606</v>
+      </c>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="35"/>
+      <c r="B48" s="31" t="s">
+        <v>618</v>
+      </c>
+      <c r="C48" s="31" t="s">
+        <v>619</v>
+      </c>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="35"/>
+      <c r="B49" s="31" t="s">
+        <v>621</v>
+      </c>
+      <c r="C49" s="31" t="s">
+        <v>622</v>
+      </c>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="35"/>
+      <c r="B50" s="31" t="s">
+        <v>627</v>
+      </c>
+      <c r="C50" s="31" t="s">
+        <v>628</v>
+      </c>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="35"/>
+      <c r="B51" s="31" t="s">
+        <v>637</v>
+      </c>
+      <c r="C51" s="31" t="s">
+        <v>638</v>
+      </c>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="35"/>
+      <c r="B52" s="31" t="s">
+        <v>640</v>
+      </c>
+      <c r="C52" s="31" t="s">
+        <v>641</v>
+      </c>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="35"/>
+      <c r="B53" s="31" t="s">
+        <v>643</v>
+      </c>
+      <c r="C53" s="31" t="s">
+        <v>644</v>
+      </c>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="35"/>
+      <c r="B54" s="31" t="s">
+        <v>646</v>
+      </c>
+      <c r="C54" s="31" t="s">
+        <v>647</v>
+      </c>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A55" s="35"/>
+      <c r="B55" s="31" t="s">
+        <v>649</v>
+      </c>
+      <c r="C55" s="31" t="s">
+        <v>650</v>
+      </c>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A56" s="35"/>
+      <c r="B56" s="31" t="s">
+        <v>652</v>
+      </c>
+      <c r="C56" s="31" t="s">
+        <v>653</v>
+      </c>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A57" s="35"/>
+      <c r="B57" s="31" t="s">
+        <v>655</v>
+      </c>
+      <c r="C57" s="31" t="s">
+        <v>656</v>
+      </c>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A58" s="35"/>
+      <c r="B58" s="31" t="s">
+        <v>658</v>
+      </c>
+      <c r="C58" s="31" t="s">
+        <v>659</v>
+      </c>
+      <c r="D58" s="31"/>
+      <c r="E58" s="31" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A59" s="35"/>
+      <c r="B59" s="31" t="s">
+        <v>661</v>
+      </c>
+      <c r="C59" s="31" t="s">
+        <v>662</v>
+      </c>
+      <c r="D59" s="31"/>
+      <c r="E59" s="31" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A60" s="35"/>
+      <c r="B60" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="C60" s="31" t="s">
+        <v>664</v>
+      </c>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A61" s="35"/>
+      <c r="B61" s="31" t="s">
+        <v>665</v>
+      </c>
+      <c r="C61" s="31" t="s">
+        <v>666</v>
+      </c>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A62" s="35"/>
+      <c r="B62" s="31" t="s">
+        <v>668</v>
+      </c>
+      <c r="C62" s="31" t="s">
+        <v>669</v>
+      </c>
+      <c r="D62" s="31"/>
+      <c r="E62" s="31" t="s">
+        <v>670</v>
+      </c>
+      <c r="F62" s="31"/>
+    </row>
+    <row r="63" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A63" s="35"/>
+      <c r="B63" s="31" t="s">
+        <v>671</v>
+      </c>
+      <c r="C63" s="31" t="s">
+        <v>672</v>
+      </c>
+      <c r="D63" s="31"/>
+      <c r="E63" s="31" t="s">
+        <v>673</v>
+      </c>
+      <c r="F63" s="31"/>
+    </row>
+    <row r="64" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A64" s="35"/>
+      <c r="B64" s="31" t="s">
+        <v>686</v>
+      </c>
+      <c r="C64" s="31" t="s">
+        <v>687</v>
+      </c>
+      <c r="D64" s="31"/>
+      <c r="E64" s="31" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A65" s="35"/>
+      <c r="B65" s="31" t="s">
+        <v>704</v>
+      </c>
+      <c r="C65" s="31" t="s">
+        <v>705</v>
+      </c>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A66" s="35"/>
+      <c r="B66" s="31" t="s">
+        <v>722</v>
+      </c>
+      <c r="C66" s="31" t="s">
+        <v>723</v>
+      </c>
+      <c r="D66" s="31"/>
+      <c r="E66" s="31" t="s">
+        <v>724</v>
+      </c>
+      <c r="F66" s="31"/>
+    </row>
+    <row r="67" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A67" s="35"/>
+      <c r="B67" s="31" t="s">
+        <v>728</v>
+      </c>
+      <c r="C67" s="31" t="s">
+        <v>729</v>
+      </c>
+      <c r="D67" s="31"/>
+      <c r="E67" s="31" t="s">
+        <v>730</v>
+      </c>
+      <c r="F67" s="31"/>
+    </row>
+    <row r="68" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A68" s="35"/>
+      <c r="B68" s="31" t="s">
+        <v>734</v>
+      </c>
+      <c r="C68" s="31" t="s">
+        <v>735</v>
+      </c>
+      <c r="D68" s="31"/>
+      <c r="E68" s="31" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A69" s="35"/>
+      <c r="B69" s="31" t="s">
+        <v>740</v>
+      </c>
+      <c r="C69" s="31" t="s">
+        <v>741</v>
+      </c>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A70" s="35"/>
+      <c r="B70" s="31" t="s">
+        <v>743</v>
+      </c>
+      <c r="C70" s="31" t="s">
+        <v>744</v>
+      </c>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A71" s="35"/>
+      <c r="B71" s="31" t="s">
+        <v>752</v>
+      </c>
+      <c r="C71" s="31" t="s">
+        <v>753</v>
+      </c>
+      <c r="D71" s="31"/>
+      <c r="E71" s="31" t="s">
+        <v>754</v>
+      </c>
+      <c r="F71" s="31" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A72" s="35"/>
+    </row>
+    <row r="73" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A73" s="35"/>
+    </row>
+    <row r="74" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A74" s="35"/>
+    </row>
+    <row r="75" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A75" s="35"/>
+    </row>
+    <row r="76" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A76" s="35"/>
+    </row>
+    <row r="77" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A77" s="35"/>
+    </row>
+    <row r="78" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A78" s="35"/>
+    </row>
+    <row r="79" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A79" s="35"/>
+    </row>
+    <row r="80" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A80" s="35"/>
+    </row>
+    <row r="81" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A81" s="35"/>
+    </row>
+    <row r="82" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A82" s="35"/>
+    </row>
+    <row r="83" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A83" s="35"/>
+    </row>
+    <row r="84" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A84" s="35"/>
+    </row>
+    <row r="85" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A85" s="35"/>
+    </row>
+    <row r="86" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A86" s="35"/>
+    </row>
+    <row r="87" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A87" s="35"/>
+    </row>
+    <row r="88" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A88" s="35"/>
+    </row>
+    <row r="89" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A89" s="35"/>
+    </row>
+    <row r="90" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A90" s="35"/>
+    </row>
+    <row r="91" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A91" s="35"/>
+    </row>
+    <row r="92" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="105"/>
+      <c r="G92" s="21"/>
+    </row>
+    <row r="93" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="B93" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="C93" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="D93" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="E93" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="F93" s="18"/>
+      <c r="G93" s="13"/>
+    </row>
+    <row r="94" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="96"/>
+      <c r="B94" s="56"/>
+      <c r="C94" s="56"/>
+      <c r="D94" s="56"/>
+      <c r="E94" s="57"/>
+      <c r="F94" s="18"/>
+      <c r="G94" s="13"/>
+    </row>
+    <row r="95" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="97"/>
+      <c r="B95" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D95" s="4"/>
+      <c r="E95" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F95" s="18"/>
+      <c r="G95" s="13"/>
+    </row>
+    <row r="96" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="98"/>
+      <c r="B96" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C96" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D96" s="33"/>
+      <c r="E96" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F96" s="19"/>
+      <c r="G96" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="74" t="s">
+        <v>494</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F97" s="18"/>
+      <c r="G97" s="13"/>
+    </row>
+    <row r="98" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="74"/>
+      <c r="B98" s="56"/>
+      <c r="C98" s="56"/>
+      <c r="D98" s="56"/>
+      <c r="E98" s="57"/>
+      <c r="F98" s="18"/>
+      <c r="G98" s="13"/>
+    </row>
+    <row r="99" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="75"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="18"/>
+      <c r="G99" s="13"/>
+    </row>
+    <row r="100" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="85"/>
+      <c r="B100" s="33"/>
+      <c r="C100" s="33"/>
+      <c r="D100" s="33"/>
+      <c r="E100" s="34"/>
+      <c r="F100" s="19"/>
+      <c r="G100" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="86" t="s">
+        <v>496</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F101" s="18"/>
+      <c r="G101" s="13"/>
+    </row>
+    <row r="102" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A102" s="86"/>
+      <c r="B102" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="C102" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="E102" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="F102" s="18"/>
+      <c r="G102" s="13"/>
+    </row>
+    <row r="103" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A103" s="92"/>
+      <c r="B103" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E103" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="G13" s="25"/>
-    </row>
-    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="41"/>
-      <c r="B14" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G14" s="25"/>
-    </row>
-    <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="41"/>
-      <c r="B15" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G15" s="25"/>
-    </row>
-    <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="41"/>
-      <c r="B16" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G16" s="25"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="41"/>
-      <c r="B17" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G17" s="25"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="41"/>
-      <c r="B18" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="C18" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="E18" s="38" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="41"/>
-      <c r="B19" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="C19" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="E19" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="F19" s="38" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="41"/>
-      <c r="B20" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="C20" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="E20" s="38" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="41"/>
-      <c r="B21" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="C21" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="E21" s="38" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="41"/>
-      <c r="B22" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="C22" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="E22" s="38" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="41"/>
-      <c r="B23" s="38" t="s">
-        <v>139</v>
-      </c>
-      <c r="C23" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="E23" s="38" t="s">
+      <c r="F103" s="18"/>
+      <c r="G103" s="13"/>
+    </row>
+    <row r="104" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A104" s="93"/>
+      <c r="B104" s="31" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="41"/>
-      <c r="B24" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="C24" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="E24" s="38" t="s">
+      <c r="C104" s="31" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="41"/>
-      <c r="B25" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="C25" s="38" t="s">
-        <v>144</v>
-      </c>
-      <c r="E25" s="38" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="41"/>
-      <c r="B26" s="38" t="s">
-        <v>145</v>
-      </c>
-      <c r="C26" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="E26" s="38" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="41"/>
-      <c r="B27" s="38" t="s">
-        <v>156</v>
-      </c>
-      <c r="C27" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="E27" s="38" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="41"/>
-      <c r="B28" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="C28" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="E28" s="38" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="41"/>
-      <c r="B29" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="C29" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="E29" s="38" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="41"/>
-      <c r="B30" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="C30" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="E30" s="38" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="41"/>
-      <c r="B31" s="38" t="s">
-        <v>164</v>
-      </c>
-      <c r="C31" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="E31" s="38" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="41"/>
-      <c r="B32" s="38" t="s">
-        <v>166</v>
-      </c>
-      <c r="C32" s="38" t="s">
+      <c r="E104" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="E32" s="38" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="41"/>
-      <c r="B33" s="38" t="s">
-        <v>166</v>
-      </c>
-      <c r="C33" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="E33" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="F33" s="38" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="41"/>
-      <c r="B34" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="C34" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="E34" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="F34" s="38"/>
-    </row>
-    <row r="35" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="41"/>
-      <c r="B35" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="C35" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="E35" s="38" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="41"/>
-      <c r="B36" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="C36" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="E36" s="38" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="41"/>
-      <c r="B37" s="38" t="s">
-        <v>183</v>
-      </c>
-      <c r="C37" s="38" t="s">
-        <v>184</v>
-      </c>
-      <c r="E37" s="38" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="41"/>
-      <c r="B38" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="C38" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="E38" s="38" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="41"/>
-      <c r="B39" s="38" t="s">
-        <v>187</v>
-      </c>
-      <c r="C39" s="38" t="s">
-        <v>188</v>
-      </c>
-      <c r="E39" s="38" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="41"/>
-      <c r="B40" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="C40" s="38" t="s">
-        <v>190</v>
-      </c>
-      <c r="E40" s="38" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="41"/>
-      <c r="B41" s="38" t="s">
-        <v>191</v>
-      </c>
-      <c r="C41" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="E41" s="38" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="41"/>
-      <c r="B42" s="38" t="s">
-        <v>193</v>
-      </c>
-      <c r="C42" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="E42" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="F42" s="38" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="41"/>
-      <c r="B43" s="38" t="s">
-        <v>193</v>
-      </c>
-      <c r="C43" s="38" t="s">
-        <v>195</v>
-      </c>
-      <c r="E43" s="38" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="41"/>
-      <c r="B44" s="38" t="s">
-        <v>196</v>
-      </c>
-      <c r="C44" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="E44" s="38" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="41"/>
-      <c r="B45" s="38" t="s">
-        <v>208</v>
-      </c>
-      <c r="C45" s="38" t="s">
-        <v>209</v>
-      </c>
-      <c r="E45" s="38" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="41"/>
-      <c r="B46" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="C46" s="38" t="s">
-        <v>211</v>
-      </c>
-      <c r="E46" s="38" t="s">
-        <v>226</v>
-      </c>
-      <c r="F46" s="38" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="41"/>
-      <c r="B47" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="C47" s="38" t="s">
-        <v>213</v>
-      </c>
-      <c r="E47" s="38" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="41"/>
-      <c r="B48" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="C48" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="E48" s="38" t="s">
-        <v>228</v>
-      </c>
-      <c r="F48" s="38" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="41"/>
-      <c r="B49" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="C49" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="E49" s="38" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="41"/>
-      <c r="B50" s="38" t="s">
-        <v>217</v>
-      </c>
-      <c r="C50" s="38" t="s">
-        <v>218</v>
-      </c>
-      <c r="E50" s="38" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="41"/>
-      <c r="B51" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="C51" s="38" t="s">
-        <v>220</v>
-      </c>
-      <c r="E51" s="38" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="41"/>
-      <c r="B52" s="38" t="s">
-        <v>221</v>
-      </c>
-      <c r="C52" s="38" t="s">
-        <v>222</v>
-      </c>
-      <c r="E52" s="38" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="41"/>
-      <c r="B53" s="38" t="s">
-        <v>223</v>
-      </c>
-      <c r="C53" s="38" t="s">
-        <v>224</v>
-      </c>
-      <c r="E53" s="38" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="41"/>
-      <c r="B54" s="38" t="s">
+      <c r="F104" s="50"/>
+      <c r="G104" s="50"/>
+    </row>
+    <row r="105" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A105" s="94"/>
+      <c r="B105" s="31" t="s">
         <v>234</v>
       </c>
-      <c r="C54" s="38" t="s">
+      <c r="C105" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="E54" s="38" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="41"/>
-      <c r="B55" s="38" t="s">
-        <v>236</v>
-      </c>
-      <c r="C55" s="38" t="s">
-        <v>237</v>
-      </c>
-      <c r="E55" s="38" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="41"/>
-      <c r="B56" s="38" t="s">
-        <v>238</v>
-      </c>
-      <c r="C56" s="38" t="s">
-        <v>239</v>
-      </c>
-      <c r="E56" s="38" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="41"/>
-      <c r="B57" s="38" t="s">
-        <v>240</v>
-      </c>
-      <c r="C57" s="38" t="s">
-        <v>241</v>
-      </c>
-      <c r="E57" s="38" t="s">
-        <v>255</v>
-      </c>
-      <c r="F57" s="38" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="41"/>
-      <c r="B58" s="38" t="s">
-        <v>242</v>
-      </c>
-      <c r="C58" s="38" t="s">
-        <v>243</v>
-      </c>
-      <c r="E58" s="38" t="s">
+      <c r="E105" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="F105" s="50"/>
+      <c r="G105" s="13"/>
+    </row>
+    <row r="106" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A106" s="94"/>
+      <c r="B106" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="C106" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="E106" s="31" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="41"/>
-      <c r="B59" s="38" t="s">
-        <v>244</v>
-      </c>
-      <c r="C59" s="38" t="s">
-        <v>245</v>
-      </c>
-      <c r="E59" s="38" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="41"/>
-      <c r="B60" s="38" t="s">
-        <v>246</v>
-      </c>
-      <c r="C60" s="38" t="s">
-        <v>247</v>
-      </c>
-      <c r="E60" s="38" t="s">
-        <v>258</v>
-      </c>
-      <c r="F60" s="38" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="41"/>
-      <c r="B61" s="38" t="s">
-        <v>248</v>
-      </c>
-      <c r="C61" s="38" t="s">
-        <v>249</v>
-      </c>
-      <c r="E61" s="38" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="41"/>
-      <c r="B62" s="38" t="s">
-        <v>250</v>
-      </c>
-      <c r="C62" s="38" t="s">
-        <v>251</v>
-      </c>
-      <c r="E62" s="38" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="41"/>
-      <c r="B63" s="38" t="s">
+      <c r="F106" s="50"/>
+      <c r="G106" s="13"/>
+    </row>
+    <row r="107" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="94"/>
+      <c r="B107" s="31" t="s">
+        <v>601</v>
+      </c>
+      <c r="C107" s="31" t="s">
+        <v>602</v>
+      </c>
+      <c r="D107" s="31"/>
+      <c r="E107" s="31" t="s">
+        <v>603</v>
+      </c>
+      <c r="F107" s="31" t="s">
+        <v>604</v>
+      </c>
+      <c r="G107" s="13"/>
+    </row>
+    <row r="108" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="94"/>
+      <c r="B108" s="31"/>
+      <c r="C108" s="31"/>
+      <c r="E108" s="31"/>
+      <c r="F108" s="50"/>
+      <c r="G108" s="13"/>
+    </row>
+    <row r="109" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="95"/>
+      <c r="B109" s="31"/>
+      <c r="C109" s="31"/>
+      <c r="E109" s="31"/>
+      <c r="F109" s="50"/>
+      <c r="G109" s="13"/>
+    </row>
+    <row r="110" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="99" t="s">
+        <v>490</v>
+      </c>
+      <c r="B110" s="31" t="s">
         <v>261</v>
       </c>
-      <c r="C63" s="38" t="s">
+      <c r="C110" s="31" t="s">
         <v>262</v>
       </c>
-      <c r="E63" s="38" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A64" s="41"/>
-      <c r="B64" s="38" t="s">
-        <v>263</v>
-      </c>
-      <c r="C64" s="38" t="s">
-        <v>264</v>
-      </c>
-      <c r="E64" s="38" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="41"/>
-      <c r="B65" s="38" t="s">
-        <v>265</v>
-      </c>
-      <c r="C65" s="38" t="s">
-        <v>266</v>
-      </c>
-      <c r="E65" s="38" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="41"/>
-      <c r="B66" s="38" t="s">
-        <v>269</v>
-      </c>
-      <c r="C66" s="38" t="s">
-        <v>270</v>
-      </c>
-      <c r="E66" s="38" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A67" s="41"/>
-      <c r="B67" s="38" t="s">
-        <v>271</v>
-      </c>
-      <c r="C67" s="38" t="s">
-        <v>272</v>
-      </c>
-      <c r="E67" s="38" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="41"/>
-      <c r="B68" s="38" t="s">
-        <v>273</v>
-      </c>
-      <c r="C68" s="38" t="s">
-        <v>274</v>
-      </c>
-      <c r="E68" s="38" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="41"/>
-      <c r="B69" s="38" t="s">
-        <v>275</v>
-      </c>
-      <c r="C69" s="38" t="s">
-        <v>276</v>
-      </c>
-      <c r="E69" s="38" t="s">
-        <v>306</v>
-      </c>
-      <c r="F69" s="38" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="41"/>
-      <c r="B70" s="38" t="s">
-        <v>277</v>
-      </c>
-      <c r="C70" s="38" t="s">
-        <v>278</v>
-      </c>
-      <c r="E70" s="38" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A71" s="41"/>
-      <c r="B71" s="38" t="s">
-        <v>279</v>
-      </c>
-      <c r="C71" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="E71" s="38" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="41"/>
-      <c r="B72" s="38" t="s">
-        <v>281</v>
-      </c>
-      <c r="C72" s="38" t="s">
-        <v>282</v>
-      </c>
-      <c r="E72" s="38" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="41"/>
-      <c r="B73" s="38" t="s">
-        <v>283</v>
-      </c>
-      <c r="C73" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="E73" s="38" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="41"/>
-      <c r="B74" s="38" t="s">
-        <v>285</v>
-      </c>
-      <c r="C74" s="38" t="s">
-        <v>286</v>
-      </c>
-      <c r="E74" s="38" t="s">
+      <c r="E110" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="F110" s="18"/>
+      <c r="G110" s="13"/>
+    </row>
+    <row r="111" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="99"/>
+      <c r="B111" s="31" t="s">
+        <v>289</v>
+      </c>
+      <c r="C111" s="31" t="s">
+        <v>290</v>
+      </c>
+      <c r="E111" s="31" t="s">
         <v>311</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A75" s="41"/>
-      <c r="B75" s="38" t="s">
-        <v>287</v>
-      </c>
-      <c r="C75" s="38" t="s">
-        <v>288</v>
-      </c>
-      <c r="E75" s="38" t="s">
-        <v>312</v>
-      </c>
-      <c r="F75" s="38" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="41"/>
-      <c r="B76" s="38" t="s">
-        <v>289</v>
-      </c>
-      <c r="C76" s="38" t="s">
-        <v>290</v>
-      </c>
-      <c r="E76" s="38" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A77" s="41"/>
-      <c r="B77" s="38" t="s">
-        <v>291</v>
-      </c>
-      <c r="C77" s="38" t="s">
-        <v>292</v>
-      </c>
-      <c r="E77" s="38" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A78" s="41"/>
-      <c r="B78" s="38" t="s">
-        <v>293</v>
-      </c>
-      <c r="C78" s="38" t="s">
-        <v>294</v>
-      </c>
-      <c r="E78" s="38" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A79" s="41"/>
-      <c r="B79" s="38" t="s">
-        <v>295</v>
-      </c>
-      <c r="C79" s="38" t="s">
-        <v>296</v>
-      </c>
-      <c r="E79" s="38" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A80" s="41"/>
-      <c r="B80" s="38" t="s">
-        <v>297</v>
-      </c>
-      <c r="C80" s="38" t="s">
-        <v>298</v>
-      </c>
-      <c r="E80" s="38" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A81" s="41"/>
-      <c r="B81" s="38" t="s">
-        <v>318</v>
-      </c>
-      <c r="C81" s="38" t="s">
-        <v>319</v>
-      </c>
-      <c r="E81" s="38" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A82" s="41"/>
-      <c r="B82" s="38" t="s">
-        <v>320</v>
-      </c>
-      <c r="C82" s="38" t="s">
-        <v>321</v>
-      </c>
-      <c r="E82" s="38" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A83" s="41"/>
-      <c r="B83" s="38" t="s">
-        <v>322</v>
-      </c>
-      <c r="C83" s="38" t="s">
-        <v>323</v>
-      </c>
-      <c r="E83" s="38" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A84" s="41"/>
-      <c r="B84" s="38" t="s">
-        <v>324</v>
-      </c>
-      <c r="C84" s="38" t="s">
-        <v>325</v>
-      </c>
-      <c r="E84" s="38" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A85" s="41"/>
-      <c r="B85" s="38" t="s">
-        <v>326</v>
-      </c>
-      <c r="C85" s="38" t="s">
-        <v>327</v>
-      </c>
-      <c r="E85" s="38" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A86" s="41"/>
-      <c r="B86" s="38" t="s">
-        <v>328</v>
-      </c>
-      <c r="C86" s="38" t="s">
-        <v>329</v>
-      </c>
-      <c r="E86" s="38" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A87" s="41"/>
-      <c r="B87" s="38" t="s">
-        <v>330</v>
-      </c>
-      <c r="C87" s="38" t="s">
-        <v>331</v>
-      </c>
-      <c r="E87" s="38" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A88" s="41"/>
-      <c r="B88" s="38" t="s">
-        <v>332</v>
-      </c>
-      <c r="C88" s="38" t="s">
-        <v>333</v>
-      </c>
-      <c r="E88" s="38" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="41"/>
-      <c r="B89" s="38" t="s">
-        <v>342</v>
-      </c>
-      <c r="C89" s="38" t="s">
-        <v>343</v>
-      </c>
-      <c r="E89" s="38" t="s">
-        <v>357</v>
-      </c>
-      <c r="F89" s="38" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A90" s="41"/>
-      <c r="B90" s="38" t="s">
-        <v>342</v>
-      </c>
-      <c r="C90" s="38" t="s">
-        <v>344</v>
-      </c>
-      <c r="E90" s="38" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A91" s="41"/>
-      <c r="B91" s="38" t="s">
-        <v>345</v>
-      </c>
-      <c r="C91" s="38" t="s">
-        <v>346</v>
-      </c>
-      <c r="E91" s="38" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A92" s="41"/>
-      <c r="B92" s="38" t="s">
-        <v>347</v>
-      </c>
-      <c r="C92" s="38" t="s">
-        <v>348</v>
-      </c>
-      <c r="E92" s="38" t="s">
-        <v>360</v>
-      </c>
-      <c r="F92" s="38" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A93" s="41"/>
-      <c r="B93" s="38" t="s">
-        <v>349</v>
-      </c>
-      <c r="C93" s="38" t="s">
-        <v>350</v>
-      </c>
-      <c r="E93" s="38" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A94" s="41"/>
-      <c r="B94" s="38" t="s">
-        <v>351</v>
-      </c>
-      <c r="C94" s="38" t="s">
-        <v>352</v>
-      </c>
-      <c r="E94" s="38" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A95" s="41"/>
-      <c r="B95" s="38" t="s">
-        <v>353</v>
-      </c>
-      <c r="C95" s="38" t="s">
-        <v>354</v>
-      </c>
-      <c r="E95" s="38" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A96" s="41"/>
-      <c r="B96" s="38" t="s">
-        <v>355</v>
-      </c>
-      <c r="C96" s="38" t="s">
-        <v>356</v>
-      </c>
-      <c r="E96" s="38" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A97" s="41"/>
-      <c r="B97" s="38" t="s">
-        <v>367</v>
-      </c>
-      <c r="C97" s="38" t="s">
-        <v>368</v>
-      </c>
-      <c r="E97" s="38" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A98" s="41"/>
-      <c r="B98" s="38" t="s">
-        <v>369</v>
-      </c>
-      <c r="C98" s="38" t="s">
-        <v>370</v>
-      </c>
-      <c r="E98" s="38" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A99" s="41"/>
-      <c r="B99" s="38" t="s">
-        <v>371</v>
-      </c>
-      <c r="C99" s="38" t="s">
-        <v>372</v>
-      </c>
-      <c r="E99" s="38" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A100" s="41"/>
-      <c r="B100" s="39" t="s">
-        <v>373</v>
-      </c>
-      <c r="C100" s="38" t="s">
-        <v>374</v>
-      </c>
-      <c r="E100" s="38" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A101" s="41"/>
-      <c r="B101" s="38" t="s">
-        <v>375</v>
-      </c>
-      <c r="C101" s="38" t="s">
-        <v>376</v>
-      </c>
-      <c r="E101" s="38" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A102" s="41"/>
-      <c r="B102" s="38" t="s">
-        <v>377</v>
-      </c>
-      <c r="C102" s="38" t="s">
-        <v>378</v>
-      </c>
-      <c r="E102" s="38" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A103" s="41"/>
-      <c r="B103" s="38" t="s">
-        <v>379</v>
-      </c>
-      <c r="C103" s="38" t="s">
-        <v>380</v>
-      </c>
-      <c r="E103" s="38" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A104" s="41"/>
-      <c r="B104" s="38" t="s">
-        <v>389</v>
-      </c>
-      <c r="C104" s="38" t="s">
-        <v>390</v>
-      </c>
-      <c r="E104" s="38" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="42"/>
-      <c r="B105" s="38" t="s">
-        <v>391</v>
-      </c>
-      <c r="C105" s="38" t="s">
-        <v>392</v>
-      </c>
-      <c r="D105" s="27"/>
-      <c r="E105" s="38" t="s">
-        <v>394</v>
-      </c>
-      <c r="F105" s="26"/>
-      <c r="G105" s="28"/>
-    </row>
-    <row r="106" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E106" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F106" s="18"/>
-      <c r="G106" s="13"/>
-    </row>
-    <row r="107" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="50"/>
-      <c r="B107" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D107" s="4"/>
-      <c r="E107" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F107" s="18"/>
-      <c r="G107" s="13"/>
-    </row>
-    <row r="108" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="51"/>
-      <c r="B108" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C108" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D108" s="14"/>
-      <c r="E108" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="F108" s="19"/>
-      <c r="G108" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="G109" s="37"/>
-    </row>
-    <row r="110" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="44"/>
-      <c r="B110" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D110" s="8"/>
-      <c r="E110" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F110" s="18"/>
-      <c r="G110" s="30"/>
-    </row>
-    <row r="111" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="44"/>
-      <c r="B111" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C111" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D111" s="8"/>
-      <c r="E111" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="F111" s="18"/>
       <c r="G111" s="13"/>
     </row>
     <row r="112" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="44"/>
-      <c r="B112" s="38" t="s">
-        <v>267</v>
-      </c>
-      <c r="C112" s="38" t="s">
-        <v>268</v>
-      </c>
-      <c r="E112" s="38" t="s">
-        <v>302</v>
+      <c r="A112" s="100"/>
+      <c r="B112" s="61" t="s">
+        <v>423</v>
+      </c>
+      <c r="C112" s="61" t="s">
+        <v>423</v>
+      </c>
+      <c r="D112" s="61"/>
+      <c r="E112" s="61" t="s">
+        <v>424</v>
       </c>
       <c r="F112" s="18"/>
       <c r="G112" s="13"/>
     </row>
-    <row r="113" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="44"/>
-      <c r="B113" s="38" t="s">
-        <v>365</v>
-      </c>
-      <c r="C113" s="38" t="s">
-        <v>366</v>
-      </c>
-      <c r="E113" s="38" t="s">
-        <v>381</v>
-      </c>
-      <c r="F113" s="18"/>
-      <c r="G113" s="13"/>
-    </row>
-    <row r="114" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="44"/>
-      <c r="B114" s="7"/>
-      <c r="C114" s="7"/>
+    <row r="113" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="101"/>
+      <c r="B113" s="33"/>
+      <c r="C113" s="33"/>
+      <c r="D113" s="33"/>
+      <c r="E113" s="34"/>
+      <c r="F113" s="19"/>
+      <c r="G113" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="D114" s="8"/>
-      <c r="E114" s="7"/>
+      <c r="E114" s="7" t="s">
+        <v>90</v>
+      </c>
       <c r="F114" s="18"/>
-      <c r="G114" s="13"/>
-    </row>
-    <row r="115" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="44"/>
-      <c r="B115" s="7"/>
-      <c r="C115" s="7"/>
+      <c r="G114" s="30"/>
+    </row>
+    <row r="115" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A115" s="37"/>
+      <c r="B115" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>76</v>
+      </c>
       <c r="D115" s="8"/>
-      <c r="E115" s="7"/>
+      <c r="E115" s="7" t="s">
+        <v>89</v>
+      </c>
       <c r="F115" s="18"/>
-      <c r="G115" s="13"/>
-    </row>
-    <row r="116" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="45"/>
-      <c r="B116" s="31"/>
-      <c r="C116" s="31"/>
-      <c r="D116" s="32"/>
-      <c r="E116" s="31"/>
-      <c r="F116" s="19"/>
-      <c r="G116" s="16"/>
-    </row>
-    <row r="117" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="B117" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C117" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D117" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E117" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="F117" s="17"/>
-      <c r="G117" s="12" t="s">
+      <c r="G115" s="23"/>
+    </row>
+    <row r="116" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A116" s="37"/>
+      <c r="B116" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="C116" s="31" t="s">
+        <v>264</v>
+      </c>
+      <c r="E116" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="F116" s="18"/>
+      <c r="G116" s="13"/>
+    </row>
+    <row r="117" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A117" s="37"/>
+      <c r="B117" s="31" t="s">
+        <v>361</v>
+      </c>
+      <c r="C117" s="31" t="s">
+        <v>362</v>
+      </c>
+      <c r="E117" s="31" t="s">
+        <v>377</v>
+      </c>
+      <c r="F117" s="18"/>
+      <c r="G117" s="13"/>
+    </row>
+    <row r="118" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A118" s="37"/>
+      <c r="B118" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="C118" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="E118" s="31" t="s">
+        <v>302</v>
+      </c>
+      <c r="F118" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="G118" s="13"/>
+    </row>
+    <row r="119" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A119" s="37"/>
+      <c r="B119" s="31" t="s">
+        <v>281</v>
+      </c>
+      <c r="C119" s="31" t="s">
+        <v>282</v>
+      </c>
+      <c r="E119" s="31" t="s">
+        <v>307</v>
+      </c>
+      <c r="F119" s="31"/>
+      <c r="G119" s="13"/>
+    </row>
+    <row r="120" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A120" s="37"/>
+      <c r="B120" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="C120" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="E120" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="F120" s="31"/>
+      <c r="G120" s="13"/>
+    </row>
+    <row r="121" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A121" s="37"/>
+      <c r="B121" s="31" t="s">
+        <v>351</v>
+      </c>
+      <c r="C121" s="31" t="s">
+        <v>352</v>
+      </c>
+      <c r="E121" s="31" t="s">
+        <v>360</v>
+      </c>
+      <c r="F121" s="31"/>
+      <c r="G121" s="13"/>
+    </row>
+    <row r="122" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A122" s="37"/>
+      <c r="B122" s="31" t="s">
+        <v>316</v>
+      </c>
+      <c r="C122" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="E122" s="31" t="s">
+        <v>331</v>
+      </c>
+      <c r="F122" s="31"/>
+      <c r="G122" s="13"/>
+    </row>
+    <row r="123" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A123" s="37"/>
+      <c r="B123" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="C123" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="E123" s="31" t="s">
+        <v>301</v>
+      </c>
+      <c r="F123" s="31"/>
+      <c r="G123" s="13"/>
+    </row>
+    <row r="124" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A124" s="37"/>
+      <c r="B124" s="49" t="s">
+        <v>480</v>
+      </c>
+      <c r="C124" s="49" t="s">
+        <v>480</v>
+      </c>
+      <c r="D124" s="49"/>
+      <c r="E124" s="49" t="s">
+        <v>481</v>
+      </c>
+      <c r="F124" s="49" t="s">
+        <v>482</v>
+      </c>
+      <c r="G124" s="13"/>
+    </row>
+    <row r="125" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A125" s="37"/>
+      <c r="B125" s="31" t="s">
+        <v>322</v>
+      </c>
+      <c r="C125" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="E125" s="31" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A126" s="37"/>
+      <c r="B126" s="31" t="s">
+        <v>526</v>
+      </c>
+      <c r="C126" s="31" t="s">
+        <v>527</v>
+      </c>
+      <c r="D126" s="31"/>
+      <c r="E126" s="31" t="s">
+        <v>528</v>
+      </c>
+      <c r="F126" s="31"/>
+      <c r="G126" s="13"/>
+    </row>
+    <row r="127" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A127" s="37"/>
+      <c r="B127" s="32" t="s">
+        <v>584</v>
+      </c>
+      <c r="C127" s="31" t="s">
+        <v>585</v>
+      </c>
+      <c r="D127" s="31"/>
+      <c r="E127" s="31" t="s">
+        <v>586</v>
+      </c>
+      <c r="F127" s="31" t="s">
+        <v>587</v>
+      </c>
+      <c r="G127" s="13"/>
+    </row>
+    <row r="128" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A128" s="37"/>
+      <c r="B128" s="31" t="s">
+        <v>674</v>
+      </c>
+      <c r="C128" s="31" t="s">
+        <v>675</v>
+      </c>
+      <c r="D128" s="31"/>
+      <c r="E128" s="31" t="s">
+        <v>676</v>
+      </c>
+      <c r="F128" s="31" t="s">
+        <v>587</v>
+      </c>
+      <c r="G128" s="13"/>
+    </row>
+    <row r="129" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A129" s="37"/>
+      <c r="B129" s="32"/>
+      <c r="C129" s="31"/>
+      <c r="D129" s="31"/>
+      <c r="E129" s="31"/>
+      <c r="F129" s="31"/>
+      <c r="G129" s="13"/>
+    </row>
+    <row r="130" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A130" s="37"/>
+      <c r="B130" s="32"/>
+      <c r="C130" s="31"/>
+      <c r="D130" s="31"/>
+      <c r="E130" s="31"/>
+      <c r="F130" s="31"/>
+      <c r="G130" s="13"/>
+    </row>
+    <row r="131" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A131" s="37"/>
+      <c r="B131" s="32"/>
+      <c r="C131" s="31"/>
+      <c r="D131" s="31"/>
+      <c r="E131" s="31"/>
+      <c r="F131" s="31"/>
+      <c r="G131" s="13"/>
+    </row>
+    <row r="132" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A132" s="37"/>
+      <c r="B132" s="32"/>
+      <c r="C132" s="31"/>
+      <c r="D132" s="31"/>
+      <c r="E132" s="31"/>
+      <c r="F132" s="31"/>
+      <c r="G132" s="13"/>
+    </row>
+    <row r="133" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="38"/>
+      <c r="B133" s="24"/>
+      <c r="C133" s="24"/>
+      <c r="D133" s="25"/>
+      <c r="E133" s="24"/>
+      <c r="F133" s="19"/>
+      <c r="G133" s="16"/>
+    </row>
+    <row r="134" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="43" t="s">
+        <v>444</v>
+      </c>
+      <c r="B134" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="C134" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="E134" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="F134" s="17"/>
+      <c r="G134" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="50"/>
-      <c r="B118" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C118" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D118" s="8"/>
-      <c r="E118" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F118" s="18"/>
-      <c r="G118" s="13"/>
-    </row>
-    <row r="119" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="50"/>
-      <c r="B119" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C119" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D119" s="8"/>
-      <c r="E119" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="F119" s="18"/>
-      <c r="G119" s="13"/>
-    </row>
-    <row r="120" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="50"/>
-      <c r="B120" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C120" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D120" s="8"/>
-      <c r="E120" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="F120" s="18"/>
-      <c r="G120" s="13"/>
-    </row>
-    <row r="121" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="50"/>
-      <c r="B121" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C121" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D121" s="8"/>
-      <c r="E121" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="F121" s="18"/>
-      <c r="G121" s="13"/>
-    </row>
-    <row r="122" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="50"/>
-      <c r="B122" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C122" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D122" s="8"/>
-      <c r="E122" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="F122" s="18"/>
-      <c r="G122" s="13"/>
-    </row>
-    <row r="123" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="50"/>
-      <c r="B123" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C123" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D123" s="8"/>
-      <c r="E123" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="F123" s="18"/>
-      <c r="G123" s="13"/>
-    </row>
-    <row r="124" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="51"/>
-      <c r="B124" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C124" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D124" s="32"/>
-      <c r="E124" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="F124" s="19"/>
-      <c r="G124" s="16"/>
-    </row>
-    <row r="125" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="B125" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C125" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D125" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E125" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F125" s="17"/>
-      <c r="G125" s="12"/>
-    </row>
-    <row r="126" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="50"/>
-      <c r="B126" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D126" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E126" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F126" s="18"/>
-      <c r="G126" s="13"/>
-    </row>
-    <row r="127" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="50"/>
-      <c r="B127" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D127" s="4"/>
-      <c r="E127" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F127" s="18"/>
-      <c r="G127" s="13"/>
-    </row>
-    <row r="128" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="50"/>
-      <c r="B128" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E128" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F128" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="G128" s="13"/>
-    </row>
-    <row r="129" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="50"/>
-      <c r="B129" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C129" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D129" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E129" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F129" s="18"/>
-      <c r="G129" s="13"/>
-    </row>
-    <row r="130" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="50"/>
-      <c r="B130" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D130" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E130" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="F130" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="G130" s="13"/>
-    </row>
-    <row r="131" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="54"/>
-      <c r="B131" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C131" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D131" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E131" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F131" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="G131" s="16"/>
-    </row>
-    <row r="132" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="B132" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C132" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E132" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G132" s="37"/>
-    </row>
-    <row r="133" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="47"/>
-      <c r="B133" s="7"/>
-      <c r="C133" s="7"/>
-      <c r="D133" s="8"/>
-      <c r="E133" s="7"/>
-      <c r="F133" s="18"/>
-      <c r="G133" s="30"/>
-    </row>
-    <row r="134" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="47"/>
-      <c r="B134" s="7"/>
-      <c r="C134" s="7"/>
-      <c r="D134" s="8"/>
-      <c r="E134" s="7"/>
-      <c r="F134" s="18"/>
-      <c r="G134" s="13"/>
-    </row>
-    <row r="135" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="47"/>
-      <c r="F135" s="18"/>
+    <row r="135" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A135" s="44"/>
+      <c r="B135" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="C135" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="E135" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="F135" s="31" t="s">
+        <v>95</v>
+      </c>
       <c r="G135" s="13"/>
     </row>
-    <row r="136" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="47"/>
-      <c r="B136" s="7"/>
-      <c r="C136" s="7"/>
-      <c r="D136" s="8"/>
-      <c r="E136" s="7"/>
+    <row r="136" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A136" s="44"/>
+      <c r="B136" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="C136" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="E136" s="31" t="s">
+        <v>148</v>
+      </c>
       <c r="F136" s="18"/>
       <c r="G136" s="13"/>
     </row>
-    <row r="137" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="47"/>
-      <c r="B137" s="7"/>
-      <c r="C137" s="7"/>
-      <c r="D137" s="8"/>
-      <c r="E137" s="7"/>
+    <row r="137" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A137" s="44"/>
+      <c r="B137" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="C137" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="E137" s="31" t="s">
+        <v>149</v>
+      </c>
       <c r="F137" s="18"/>
       <c r="G137" s="13"/>
     </row>
-    <row r="138" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="47"/>
-      <c r="B138" s="7"/>
-      <c r="C138" s="7"/>
-      <c r="D138" s="8"/>
-      <c r="E138" s="7"/>
-      <c r="F138" s="18"/>
+    <row r="138" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A138" s="44"/>
+      <c r="B138" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="C138" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="E138" s="31" t="s">
+        <v>172</v>
+      </c>
       <c r="G138" s="13"/>
     </row>
-    <row r="139" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="48"/>
-      <c r="B139" s="31"/>
-      <c r="C139" s="31"/>
-      <c r="D139" s="32"/>
-      <c r="E139" s="31"/>
-      <c r="F139" s="19"/>
-      <c r="G139" s="16"/>
-    </row>
-    <row r="140" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="4"/>
-      <c r="E140" s="5"/>
-    </row>
-    <row r="141" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="4"/>
-      <c r="E141" s="5"/>
+    <row r="139" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A139" s="44"/>
+      <c r="B139" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="C139" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="E139" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="F139" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="G139" s="13"/>
+    </row>
+    <row r="140" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A140" s="44"/>
+      <c r="B140" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="C140" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="E140" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="F140" s="31"/>
+      <c r="G140" s="13"/>
+    </row>
+    <row r="141" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A141" s="44"/>
+      <c r="B141" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="C141" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="E141" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="F141" s="31"/>
+      <c r="G141" s="13"/>
     </row>
     <row r="142" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E142" s="5"/>
+      <c r="A142" s="44"/>
+      <c r="B142" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="C142" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="E142" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="F142" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="G142" s="13"/>
     </row>
     <row r="143" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E143" s="5"/>
+      <c r="A143" s="44"/>
+      <c r="B143" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="C143" s="31" t="s">
+        <v>274</v>
+      </c>
+      <c r="E143" s="31" t="s">
+        <v>303</v>
+      </c>
+      <c r="F143" s="31"/>
+      <c r="G143" s="13"/>
     </row>
     <row r="144" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E144" s="5"/>
-    </row>
-    <row r="145" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E145" s="5"/>
-    </row>
-    <row r="146" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E146" s="5"/>
-    </row>
-    <row r="147" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E147" s="5"/>
-    </row>
-    <row r="148" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E148" s="5"/>
-    </row>
-    <row r="149" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E149" s="5"/>
-    </row>
-    <row r="150" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E150" s="5"/>
-    </row>
-    <row r="151" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E151" s="5"/>
-    </row>
-    <row r="152" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E152" s="5"/>
-    </row>
-    <row r="153" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E153" s="5"/>
-    </row>
-    <row r="154" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E154" s="5"/>
-    </row>
-    <row r="155" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E155" s="5"/>
-    </row>
-    <row r="156" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E156" s="5"/>
-    </row>
-    <row r="157" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E157" s="5"/>
-    </row>
-    <row r="158" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E158" s="5"/>
-    </row>
-    <row r="159" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E159" s="5"/>
-    </row>
-    <row r="160" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E160" s="5"/>
-    </row>
-    <row r="161" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E161" s="5"/>
-    </row>
-    <row r="162" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E162" s="5"/>
-    </row>
-    <row r="163" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E163" s="5"/>
-    </row>
-    <row r="164" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E164" s="5"/>
-    </row>
-    <row r="165" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E165" s="5"/>
-    </row>
-    <row r="166" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E166" s="5"/>
-    </row>
-    <row r="167" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E167" s="5"/>
-    </row>
-    <row r="168" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E168" s="5"/>
-    </row>
-    <row r="169" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E169" s="5"/>
-    </row>
-    <row r="170" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E170" s="5"/>
-    </row>
-    <row r="171" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E171" s="5"/>
-    </row>
-    <row r="172" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E172" s="5"/>
-    </row>
-    <row r="173" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E173" s="5"/>
-    </row>
-    <row r="174" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E174" s="5"/>
-    </row>
-    <row r="175" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E175" s="5"/>
-    </row>
-    <row r="176" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E176" s="5"/>
-    </row>
-    <row r="177" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E177" s="5"/>
-    </row>
-    <row r="178" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E178" s="5"/>
-    </row>
-    <row r="179" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E179" s="5"/>
-    </row>
-    <row r="180" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E180" s="5"/>
-    </row>
-    <row r="181" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E181" s="5"/>
-    </row>
-    <row r="182" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E182" s="5"/>
-    </row>
-    <row r="183" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E183" s="5"/>
-    </row>
-    <row r="184" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E184" s="5"/>
-    </row>
-    <row r="185" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E185" s="5"/>
-    </row>
-    <row r="186" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E186" s="5"/>
-    </row>
-    <row r="187" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E187" s="5"/>
-    </row>
-    <row r="188" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E188" s="5"/>
-    </row>
-    <row r="189" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E189" s="5"/>
-    </row>
-    <row r="190" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E190" s="5"/>
-    </row>
-    <row r="191" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E191" s="5"/>
-    </row>
-    <row r="192" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E192" s="5"/>
-    </row>
-    <row r="193" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E193" s="5"/>
-    </row>
-    <row r="194" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E194" s="5"/>
-    </row>
-    <row r="195" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E195" s="5"/>
-    </row>
-    <row r="196" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E196" s="5"/>
-    </row>
-    <row r="197" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E197" s="5"/>
-    </row>
-    <row r="198" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E198" s="5"/>
-    </row>
-    <row r="199" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E199" s="5"/>
-    </row>
-    <row r="200" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E200" s="5"/>
-    </row>
-    <row r="201" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E201" s="5"/>
-    </row>
-    <row r="202" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E202" s="5"/>
-    </row>
-    <row r="203" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E203" s="5"/>
-    </row>
-    <row r="204" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E204" s="5"/>
-    </row>
-    <row r="205" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E205" s="5"/>
-    </row>
-    <row r="206" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E206" s="5"/>
-    </row>
-    <row r="207" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E207" s="5"/>
-    </row>
-    <row r="208" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E208" s="5"/>
-    </row>
-    <row r="209" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E209" s="5"/>
-    </row>
-    <row r="210" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E210" s="5"/>
-    </row>
-    <row r="211" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E211" s="5"/>
-    </row>
-    <row r="212" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E212" s="5"/>
-    </row>
-    <row r="213" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E213" s="5"/>
-    </row>
-    <row r="214" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E214" s="5"/>
-    </row>
-    <row r="215" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E215" s="5"/>
-    </row>
-    <row r="216" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E216" s="5"/>
-    </row>
-    <row r="217" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E217" s="5"/>
-    </row>
-    <row r="218" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E218" s="5"/>
-    </row>
-    <row r="219" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E219" s="5"/>
-    </row>
-    <row r="220" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E220" s="5"/>
-    </row>
-    <row r="221" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E221" s="5"/>
-    </row>
-    <row r="222" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E222" s="5"/>
-    </row>
-    <row r="223" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E223" s="5"/>
-    </row>
-    <row r="224" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E224" s="5"/>
-    </row>
-    <row r="225" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E225" s="5"/>
-    </row>
-    <row r="226" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E226" s="5"/>
-    </row>
-    <row r="227" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E227" s="5"/>
-    </row>
-    <row r="228" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E228" s="5"/>
-    </row>
-    <row r="229" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E229" s="5"/>
-    </row>
-    <row r="230" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E230" s="5"/>
-    </row>
-    <row r="231" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E231" s="5"/>
-    </row>
-    <row r="232" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E232" s="5"/>
-    </row>
-    <row r="233" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E233" s="5"/>
-    </row>
-    <row r="234" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E234" s="5"/>
-    </row>
-    <row r="235" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E235" s="5"/>
-    </row>
-    <row r="236" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E236" s="5"/>
-    </row>
-    <row r="237" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E237" s="5"/>
-    </row>
-    <row r="238" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E238" s="5"/>
-    </row>
-    <row r="239" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E239" s="5"/>
-    </row>
-    <row r="240" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E240" s="5"/>
-    </row>
-    <row r="241" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E241" s="5"/>
-    </row>
-    <row r="242" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E242" s="5"/>
-    </row>
-    <row r="243" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E243" s="5"/>
-    </row>
-    <row r="244" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E244" s="5"/>
-    </row>
-    <row r="245" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E245" s="5"/>
-    </row>
-    <row r="246" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E246" s="5"/>
-    </row>
-    <row r="247" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E247" s="5"/>
-    </row>
-    <row r="248" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E248" s="5"/>
-    </row>
-    <row r="249" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E249" s="5"/>
-    </row>
-    <row r="250" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E250" s="5"/>
-    </row>
-    <row r="251" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E251" s="5"/>
-    </row>
-    <row r="252" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E252" s="5"/>
-    </row>
-    <row r="253" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E253" s="5"/>
-    </row>
-    <row r="254" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E254" s="5"/>
-    </row>
-    <row r="255" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E255" s="5"/>
-    </row>
-    <row r="256" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E256" s="5"/>
-    </row>
-    <row r="257" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E257" s="5"/>
-    </row>
-    <row r="258" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E258" s="5"/>
-    </row>
-    <row r="259" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E259" s="5"/>
-    </row>
-    <row r="260" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E260" s="5"/>
-    </row>
-    <row r="261" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E261" s="5"/>
-    </row>
-    <row r="262" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E262" s="5"/>
-    </row>
-    <row r="263" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E263" s="5"/>
-    </row>
-    <row r="264" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E264" s="5"/>
-    </row>
-    <row r="265" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E265" s="5"/>
-    </row>
-    <row r="266" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E266" s="5"/>
-    </row>
-    <row r="267" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E267" s="5"/>
-    </row>
-    <row r="268" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E268" s="5"/>
-    </row>
-    <row r="269" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E269" s="5"/>
-    </row>
-    <row r="270" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E270" s="5"/>
-    </row>
-    <row r="271" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E271" s="5"/>
-    </row>
-    <row r="272" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E272" s="5"/>
-    </row>
-    <row r="273" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E273" s="5"/>
-    </row>
-    <row r="274" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E274" s="5"/>
-    </row>
-    <row r="275" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E275" s="5"/>
-    </row>
-    <row r="276" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E276" s="5"/>
-    </row>
-    <row r="277" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E277" s="5"/>
-    </row>
-    <row r="278" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E278" s="5"/>
-    </row>
-    <row r="279" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E279" s="5"/>
-    </row>
-    <row r="280" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E280" s="5"/>
-    </row>
-    <row r="281" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E281" s="5"/>
-    </row>
-    <row r="282" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E282" s="5"/>
-    </row>
-    <row r="283" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E283" s="5"/>
-    </row>
-    <row r="284" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E284" s="5"/>
-    </row>
-    <row r="285" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E285" s="5"/>
-    </row>
-    <row r="286" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E286" s="5"/>
-    </row>
-    <row r="287" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E287" s="5"/>
-    </row>
-    <row r="288" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E288" s="5"/>
-    </row>
-    <row r="289" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E289" s="5"/>
-    </row>
-    <row r="290" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E290" s="5"/>
-    </row>
-    <row r="291" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E291" s="5"/>
-    </row>
-    <row r="292" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E292" s="5"/>
-    </row>
-    <row r="293" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E293" s="5"/>
-    </row>
-    <row r="294" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E294" s="5"/>
-    </row>
-    <row r="295" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E295" s="5"/>
-    </row>
-    <row r="296" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E296" s="5"/>
-    </row>
-    <row r="297" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E297" s="5"/>
-    </row>
-    <row r="298" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E298" s="5"/>
-    </row>
-    <row r="299" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E299" s="5"/>
-    </row>
-    <row r="300" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E300" s="5"/>
-    </row>
-    <row r="301" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E301" s="5"/>
-    </row>
-    <row r="302" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E302" s="5"/>
-    </row>
-    <row r="303" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E303" s="5"/>
-    </row>
-    <row r="304" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E304" s="5"/>
-    </row>
-    <row r="305" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E305" s="5"/>
-    </row>
-    <row r="306" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E306" s="5"/>
-    </row>
-    <row r="307" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E307" s="5"/>
-    </row>
-    <row r="308" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E308" s="5"/>
-    </row>
-    <row r="309" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E309" s="5"/>
-    </row>
-    <row r="310" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E310" s="5"/>
-    </row>
-    <row r="311" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E311" s="5"/>
-    </row>
-    <row r="312" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E312" s="5"/>
-    </row>
-    <row r="313" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E313" s="5"/>
-    </row>
-    <row r="314" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E314" s="5"/>
-    </row>
-    <row r="315" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E315" s="5"/>
-    </row>
-    <row r="316" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E316" s="5"/>
-    </row>
-    <row r="317" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E317" s="5"/>
-    </row>
-    <row r="318" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E318" s="5"/>
-    </row>
-    <row r="319" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E319" s="5"/>
-    </row>
-    <row r="320" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E320" s="5"/>
-    </row>
-    <row r="321" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E321" s="5"/>
-    </row>
-    <row r="322" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E322" s="5"/>
-    </row>
-    <row r="323" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E323" s="5"/>
-    </row>
-    <row r="324" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E324" s="5"/>
-    </row>
-    <row r="325" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E325" s="5"/>
-    </row>
-    <row r="326" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E326" s="5"/>
-    </row>
-    <row r="327" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E327" s="5"/>
-    </row>
-    <row r="328" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E328" s="5"/>
-    </row>
-    <row r="329" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E329" s="5"/>
-    </row>
-    <row r="330" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E330" s="5"/>
-    </row>
-    <row r="331" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E331" s="5"/>
-    </row>
-    <row r="332" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E332" s="5"/>
-    </row>
-    <row r="333" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E333" s="5"/>
-    </row>
-    <row r="334" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E334" s="5"/>
-    </row>
-    <row r="335" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E335" s="5"/>
-    </row>
-    <row r="336" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E336" s="5"/>
-    </row>
-    <row r="337" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E337" s="5"/>
-    </row>
-    <row r="338" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E338" s="5"/>
-    </row>
-    <row r="339" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E339" s="5"/>
-    </row>
-    <row r="340" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E340" s="5"/>
-    </row>
-    <row r="341" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E341" s="5"/>
-    </row>
-    <row r="342" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E342" s="5"/>
-    </row>
-    <row r="343" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E343" s="5"/>
-    </row>
-    <row r="344" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E344" s="5"/>
-    </row>
-    <row r="345" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E345" s="5"/>
-    </row>
-    <row r="346" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E346" s="5"/>
-    </row>
-    <row r="347" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E347" s="5"/>
-    </row>
-    <row r="348" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E348" s="5"/>
-    </row>
-    <row r="349" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E349" s="5"/>
-    </row>
-    <row r="350" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E350" s="5"/>
-    </row>
-    <row r="351" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A144" s="44"/>
+      <c r="B144" s="31" t="s">
+        <v>338</v>
+      </c>
+      <c r="C144" s="31" t="s">
+        <v>339</v>
+      </c>
+      <c r="E144" s="31" t="s">
+        <v>353</v>
+      </c>
+      <c r="F144" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="G144" s="13"/>
+    </row>
+    <row r="145" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A145" s="44"/>
+      <c r="B145" s="31" t="s">
+        <v>338</v>
+      </c>
+      <c r="C145" s="31" t="s">
+        <v>340</v>
+      </c>
+      <c r="E145" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="G145" s="13"/>
+    </row>
+    <row r="146" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A146" s="44"/>
+      <c r="B146" s="61" t="s">
+        <v>427</v>
+      </c>
+      <c r="C146" s="61" t="s">
+        <v>428</v>
+      </c>
+      <c r="D146" s="61"/>
+      <c r="E146" s="61" t="s">
+        <v>429</v>
+      </c>
+      <c r="F146" s="31"/>
+      <c r="G146" s="13"/>
+    </row>
+    <row r="147" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A147" s="44"/>
+      <c r="B147" s="61" t="s">
+        <v>438</v>
+      </c>
+      <c r="C147" s="61" t="s">
+        <v>439</v>
+      </c>
+      <c r="D147" s="61"/>
+      <c r="E147" s="61" t="s">
+        <v>440</v>
+      </c>
+      <c r="F147" s="31"/>
+      <c r="G147" s="13"/>
+    </row>
+    <row r="148" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A148" s="44"/>
+      <c r="B148" s="49" t="s">
+        <v>472</v>
+      </c>
+      <c r="C148" s="49" t="s">
+        <v>473</v>
+      </c>
+      <c r="D148" s="49"/>
+      <c r="E148" s="49" t="s">
+        <v>474</v>
+      </c>
+      <c r="F148" s="49" t="s">
+        <v>475</v>
+      </c>
+      <c r="G148" s="13"/>
+    </row>
+    <row r="149" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A149" s="44"/>
+      <c r="B149" s="49" t="s">
+        <v>398</v>
+      </c>
+      <c r="C149" s="49" t="s">
+        <v>399</v>
+      </c>
+      <c r="D149" s="49"/>
+      <c r="E149" s="49" t="s">
+        <v>400</v>
+      </c>
+      <c r="F149" s="49" t="s">
+        <v>401</v>
+      </c>
+      <c r="G149" s="13"/>
+    </row>
+    <row r="150" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A150" s="44"/>
+      <c r="B150" s="49" t="s">
+        <v>469</v>
+      </c>
+      <c r="C150" s="49" t="s">
+        <v>469</v>
+      </c>
+      <c r="D150" s="49"/>
+      <c r="E150" s="49" t="s">
+        <v>470</v>
+      </c>
+      <c r="F150" s="49" t="s">
+        <v>471</v>
+      </c>
+      <c r="G150" s="13"/>
+    </row>
+    <row r="151" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A151" s="44"/>
+      <c r="B151" s="31" t="s">
+        <v>285</v>
+      </c>
+      <c r="C151" s="31" t="s">
+        <v>286</v>
+      </c>
+      <c r="E151" s="31" t="s">
+        <v>309</v>
+      </c>
+      <c r="F151" s="49"/>
+      <c r="G151" s="13"/>
+    </row>
+    <row r="152" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A152" s="44"/>
+      <c r="B152" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="C152" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="E152" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="F152" s="49"/>
+      <c r="G152" s="13"/>
+    </row>
+    <row r="153" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A153" s="44"/>
+      <c r="B153" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E153" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F153" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G153" s="13"/>
+    </row>
+    <row r="154" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A154" s="44"/>
+      <c r="B154" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="C154" s="31" t="s">
+        <v>538</v>
+      </c>
+      <c r="D154" s="31"/>
+      <c r="E154" s="31" t="s">
+        <v>539</v>
+      </c>
+      <c r="F154" s="7"/>
+      <c r="G154" s="13"/>
+    </row>
+    <row r="155" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A155" s="44"/>
+      <c r="B155" s="31" t="s">
+        <v>438</v>
+      </c>
+      <c r="C155" s="31" t="s">
+        <v>677</v>
+      </c>
+      <c r="D155" s="31"/>
+      <c r="E155" s="31" t="s">
+        <v>678</v>
+      </c>
+      <c r="F155" s="7"/>
+      <c r="G155" s="13"/>
+    </row>
+    <row r="156" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A156" s="44"/>
+      <c r="B156" s="31" t="s">
+        <v>710</v>
+      </c>
+      <c r="C156" s="31" t="s">
+        <v>711</v>
+      </c>
+      <c r="D156" s="31"/>
+      <c r="E156" s="31" t="s">
+        <v>712</v>
+      </c>
+      <c r="F156" s="7"/>
+      <c r="G156" s="13"/>
+    </row>
+    <row r="157" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A157" s="44"/>
+      <c r="B157" s="31"/>
+      <c r="C157" s="31"/>
+      <c r="D157" s="31"/>
+      <c r="E157" s="31"/>
+      <c r="F157" s="7"/>
+      <c r="G157" s="13"/>
+    </row>
+    <row r="158" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A158" s="44"/>
+      <c r="B158" s="31"/>
+      <c r="C158" s="31"/>
+      <c r="D158" s="31"/>
+      <c r="E158" s="31"/>
+      <c r="F158" s="7"/>
+      <c r="G158" s="13"/>
+    </row>
+    <row r="159" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A159" s="44"/>
+      <c r="B159" s="31"/>
+      <c r="C159" s="31"/>
+      <c r="D159" s="31"/>
+      <c r="E159" s="31"/>
+      <c r="F159" s="7"/>
+      <c r="G159" s="13"/>
+    </row>
+    <row r="160" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A160" s="44"/>
+      <c r="B160" s="7"/>
+      <c r="C160" s="7"/>
+      <c r="E160" s="7"/>
+      <c r="F160" s="7"/>
+      <c r="G160" s="13"/>
+    </row>
+    <row r="161" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="45"/>
+      <c r="B161" s="64"/>
+      <c r="C161" s="64"/>
+      <c r="D161" s="64"/>
+      <c r="E161" s="64"/>
+      <c r="F161" s="64"/>
+      <c r="G161" s="16"/>
+    </row>
+    <row r="162" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="114" t="s">
+        <v>759</v>
+      </c>
+      <c r="B162" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="C162" s="31" t="s">
+        <v>749</v>
+      </c>
+      <c r="D162" s="31"/>
+      <c r="E162" s="31" t="s">
+        <v>750</v>
+      </c>
+      <c r="F162" s="31" t="s">
+        <v>751</v>
+      </c>
+      <c r="G162" s="13"/>
+    </row>
+    <row r="163" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="114"/>
+      <c r="B163" s="31"/>
+      <c r="C163" s="31"/>
+      <c r="E163" s="31"/>
+      <c r="F163" s="18"/>
+      <c r="G163" s="13"/>
+    </row>
+    <row r="164" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="115"/>
+      <c r="B164" s="61"/>
+      <c r="C164" s="61"/>
+      <c r="D164" s="61"/>
+      <c r="E164" s="61"/>
+      <c r="F164" s="18"/>
+      <c r="G164" s="13"/>
+    </row>
+    <row r="165" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="116"/>
+      <c r="B165" s="33"/>
+      <c r="C165" s="33"/>
+      <c r="D165" s="33"/>
+      <c r="E165" s="34"/>
+      <c r="F165" s="19"/>
+      <c r="G165" s="16"/>
+    </row>
+    <row r="166" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="53" t="s">
+        <v>407</v>
+      </c>
+      <c r="B166" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="C166" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="E166" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="F166" s="18"/>
+      <c r="G166" s="13"/>
+    </row>
+    <row r="167" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A167" s="54"/>
+      <c r="B167" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D167" s="8"/>
+      <c r="E167" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F167" s="18"/>
+      <c r="G167" s="13"/>
+    </row>
+    <row r="168" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A168" s="54"/>
+      <c r="B168" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D168" s="8"/>
+      <c r="E168" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F168" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G168" s="13"/>
+    </row>
+    <row r="169" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A169" s="54"/>
+      <c r="B169" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="C169" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="E169" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="F169" s="7"/>
+      <c r="G169" s="13"/>
+    </row>
+    <row r="170" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A170" s="54"/>
+      <c r="B170" s="31" t="s">
+        <v>549</v>
+      </c>
+      <c r="C170" s="31" t="s">
+        <v>550</v>
+      </c>
+      <c r="D170" s="31"/>
+      <c r="E170" s="31" t="s">
+        <v>551</v>
+      </c>
+      <c r="F170" s="7"/>
+      <c r="G170" s="13"/>
+    </row>
+    <row r="171" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A171" s="54"/>
+      <c r="B171" s="31" t="s">
+        <v>692</v>
+      </c>
+      <c r="C171" s="31" t="s">
+        <v>693</v>
+      </c>
+      <c r="D171" s="31"/>
+      <c r="E171" s="31" t="s">
+        <v>694</v>
+      </c>
+      <c r="F171" s="7"/>
+      <c r="G171" s="13"/>
+    </row>
+    <row r="172" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A172" s="54"/>
+      <c r="B172" s="31" t="s">
+        <v>707</v>
+      </c>
+      <c r="C172" s="31" t="s">
+        <v>708</v>
+      </c>
+      <c r="D172" s="31"/>
+      <c r="E172" s="31" t="s">
+        <v>709</v>
+      </c>
+      <c r="F172" s="7"/>
+      <c r="G172" s="13"/>
+    </row>
+    <row r="173" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="55"/>
+      <c r="G173" s="16"/>
+    </row>
+    <row r="174" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="102" t="s">
+        <v>500</v>
+      </c>
+      <c r="B174" s="31" t="s">
+        <v>291</v>
+      </c>
+      <c r="C174" s="31" t="s">
+        <v>292</v>
+      </c>
+      <c r="E174" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="F174" s="18"/>
+      <c r="G174" s="13"/>
+    </row>
+    <row r="175" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="103"/>
+      <c r="B175" s="7"/>
+      <c r="C175" s="7"/>
+      <c r="D175" s="8"/>
+      <c r="E175" s="7"/>
+      <c r="F175" s="18"/>
+      <c r="G175" s="13"/>
+    </row>
+    <row r="176" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="103"/>
+      <c r="B176" s="7"/>
+      <c r="C176" s="7"/>
+      <c r="D176" s="8"/>
+      <c r="E176" s="7"/>
+      <c r="F176" s="7"/>
+      <c r="G176" s="13"/>
+    </row>
+    <row r="177" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="103"/>
+      <c r="B177" s="31"/>
+      <c r="C177" s="31"/>
+      <c r="E177" s="31"/>
+      <c r="F177" s="7"/>
+      <c r="G177" s="13"/>
+    </row>
+    <row r="178" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="103"/>
+      <c r="B178" s="7"/>
+      <c r="C178" s="7"/>
+      <c r="D178" s="8"/>
+      <c r="E178" s="7"/>
+      <c r="F178" s="7"/>
+      <c r="G178" s="13"/>
+    </row>
+    <row r="179" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="104"/>
+      <c r="G179" s="16"/>
+    </row>
+    <row r="180" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="69" t="s">
+        <v>493</v>
+      </c>
+      <c r="B180" s="49" t="s">
+        <v>391</v>
+      </c>
+      <c r="C180" s="49" t="s">
+        <v>391</v>
+      </c>
+      <c r="D180" s="49"/>
+      <c r="E180" s="49" t="s">
+        <v>392</v>
+      </c>
+      <c r="F180" s="49" t="s">
+        <v>393</v>
+      </c>
+      <c r="G180" s="13"/>
+    </row>
+    <row r="181" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A181" s="70"/>
+      <c r="B181" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="C181" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="E181" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="F181" s="18"/>
+      <c r="G181" s="13"/>
+    </row>
+    <row r="182" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A182" s="70"/>
+      <c r="B182" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D182" s="8"/>
+      <c r="E182" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F182" s="18"/>
+      <c r="G182" s="13"/>
+    </row>
+    <row r="183" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A183" s="70"/>
+      <c r="B183" s="31" t="s">
+        <v>293</v>
+      </c>
+      <c r="C183" s="31" t="s">
+        <v>294</v>
+      </c>
+      <c r="E183" s="31" t="s">
+        <v>313</v>
+      </c>
+      <c r="F183" s="18"/>
+      <c r="G183" s="13"/>
+    </row>
+    <row r="184" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A184" s="70"/>
+      <c r="B184" s="31" t="s">
+        <v>563</v>
+      </c>
+      <c r="C184" s="31" t="s">
+        <v>564</v>
+      </c>
+      <c r="D184" s="31"/>
+      <c r="E184" s="31" t="s">
+        <v>565</v>
+      </c>
+      <c r="F184" s="31" t="s">
+        <v>566</v>
+      </c>
+      <c r="G184" s="13"/>
+    </row>
+    <row r="185" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A185" s="70"/>
+      <c r="B185" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="C185" s="31" t="s">
+        <v>538</v>
+      </c>
+      <c r="D185" s="31"/>
+      <c r="E185" s="31" t="s">
+        <v>539</v>
+      </c>
+      <c r="F185" s="18"/>
+      <c r="G185" s="13"/>
+    </row>
+    <row r="186" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A186" s="70"/>
+      <c r="B186" s="31" t="s">
+        <v>552</v>
+      </c>
+      <c r="C186" s="31" t="s">
+        <v>553</v>
+      </c>
+      <c r="D186" s="31"/>
+      <c r="E186" s="31" t="s">
+        <v>554</v>
+      </c>
+      <c r="F186" s="18"/>
+      <c r="G186" s="13"/>
+    </row>
+    <row r="187" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A187" s="70"/>
+      <c r="B187" s="31" t="s">
+        <v>707</v>
+      </c>
+      <c r="C187" s="31" t="s">
+        <v>708</v>
+      </c>
+      <c r="D187" s="31"/>
+      <c r="E187" s="31" t="s">
+        <v>709</v>
+      </c>
+      <c r="F187" s="18"/>
+      <c r="G187" s="13"/>
+    </row>
+    <row r="188" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A188" s="70"/>
+      <c r="B188" s="31" t="s">
+        <v>737</v>
+      </c>
+      <c r="C188" s="31" t="s">
+        <v>738</v>
+      </c>
+      <c r="D188" s="31"/>
+      <c r="E188" s="31" t="s">
+        <v>739</v>
+      </c>
+      <c r="F188" s="18"/>
+      <c r="G188" s="13"/>
+    </row>
+    <row r="189" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A189" s="70"/>
+      <c r="B189" s="31" t="s">
+        <v>746</v>
+      </c>
+      <c r="C189" s="31" t="s">
+        <v>747</v>
+      </c>
+      <c r="D189" s="31"/>
+      <c r="E189" s="31" t="s">
+        <v>748</v>
+      </c>
+      <c r="F189" s="18"/>
+      <c r="G189" s="13"/>
+    </row>
+    <row r="190" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A190" s="70"/>
+      <c r="B190" s="31"/>
+      <c r="C190" s="31"/>
+      <c r="D190" s="31"/>
+      <c r="E190" s="31"/>
+      <c r="F190" s="18"/>
+      <c r="G190" s="13"/>
+    </row>
+    <row r="191" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A191" s="70"/>
+      <c r="B191" s="31"/>
+      <c r="C191" s="31"/>
+      <c r="D191" s="31"/>
+      <c r="E191" s="31"/>
+      <c r="F191" s="18"/>
+      <c r="G191" s="13"/>
+    </row>
+    <row r="192" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="107"/>
+      <c r="F192" s="19"/>
+      <c r="G192" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="109" t="s">
+        <v>106</v>
+      </c>
+      <c r="B193" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E193" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G193" s="30"/>
+    </row>
+    <row r="194" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A194" s="110"/>
+      <c r="B194" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C194" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D194" s="8"/>
+      <c r="E194" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F194" s="18"/>
+      <c r="G194" s="23"/>
+    </row>
+    <row r="195" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A195" s="110"/>
+      <c r="B195" s="31" t="s">
+        <v>328</v>
+      </c>
+      <c r="C195" s="31" t="s">
+        <v>329</v>
+      </c>
+      <c r="D195" s="73"/>
+      <c r="E195" s="31" t="s">
+        <v>337</v>
+      </c>
+      <c r="F195" s="18"/>
+      <c r="G195" s="13"/>
+    </row>
+    <row r="196" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A196" s="110"/>
+      <c r="B196" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="C196" s="31" t="s">
+        <v>374</v>
+      </c>
+      <c r="D196" s="73"/>
+      <c r="E196" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="F196" s="18"/>
+      <c r="G196" s="13"/>
+    </row>
+    <row r="197" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A197" s="110"/>
+      <c r="B197" s="61" t="s">
+        <v>441</v>
+      </c>
+      <c r="C197" s="61" t="s">
+        <v>442</v>
+      </c>
+      <c r="D197" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="E197" s="61" t="s">
+        <v>443</v>
+      </c>
+      <c r="F197" s="61" t="s">
+        <v>405</v>
+      </c>
+      <c r="G197" s="13"/>
+    </row>
+    <row r="198" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A198" s="110"/>
+      <c r="B198" s="61" t="s">
+        <v>425</v>
+      </c>
+      <c r="C198" s="61" t="s">
+        <v>425</v>
+      </c>
+      <c r="D198" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="E198" s="61" t="s">
+        <v>426</v>
+      </c>
+      <c r="F198" s="61" t="s">
+        <v>405</v>
+      </c>
+      <c r="G198" s="13"/>
+    </row>
+    <row r="199" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A199" s="110"/>
+      <c r="B199" s="49" t="s">
+        <v>483</v>
+      </c>
+      <c r="C199" s="49" t="s">
+        <v>483</v>
+      </c>
+      <c r="D199" s="106"/>
+      <c r="E199" s="49" t="s">
+        <v>484</v>
+      </c>
+      <c r="F199" s="49" t="s">
+        <v>485</v>
+      </c>
+      <c r="G199" s="13"/>
+    </row>
+    <row r="200" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A200" s="110"/>
+      <c r="B200" s="49" t="s">
+        <v>476</v>
+      </c>
+      <c r="C200" s="49" t="s">
+        <v>477</v>
+      </c>
+      <c r="D200" s="106"/>
+      <c r="E200" s="49" t="s">
+        <v>478</v>
+      </c>
+      <c r="F200" s="49" t="s">
+        <v>479</v>
+      </c>
+      <c r="G200" s="13"/>
+    </row>
+    <row r="201" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A201" s="110"/>
+      <c r="B201" s="61" t="s">
+        <v>414</v>
+      </c>
+      <c r="C201" s="61" t="s">
+        <v>414</v>
+      </c>
+      <c r="D201" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="E201" s="61" t="s">
+        <v>415</v>
+      </c>
+      <c r="F201" s="61" t="s">
+        <v>405</v>
+      </c>
+      <c r="G201" s="13"/>
+    </row>
+    <row r="202" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A202" s="110"/>
+      <c r="B202" s="49" t="s">
+        <v>402</v>
+      </c>
+      <c r="C202" s="49" t="s">
+        <v>403</v>
+      </c>
+      <c r="D202" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="E202" s="49" t="s">
+        <v>404</v>
+      </c>
+      <c r="F202" s="49" t="s">
+        <v>405</v>
+      </c>
+      <c r="G202" s="13"/>
+    </row>
+    <row r="203" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A203" s="110"/>
+      <c r="B203" s="49" t="s">
+        <v>396</v>
+      </c>
+      <c r="C203" s="49" t="s">
+        <v>396</v>
+      </c>
+      <c r="D203" s="106"/>
+      <c r="E203" s="49" t="s">
+        <v>397</v>
+      </c>
+      <c r="F203" s="61"/>
+      <c r="G203" s="13"/>
+    </row>
+    <row r="204" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A204" s="110"/>
+      <c r="B204" s="61" t="s">
+        <v>409</v>
+      </c>
+      <c r="C204" s="61" t="s">
+        <v>410</v>
+      </c>
+      <c r="D204" s="113"/>
+      <c r="E204" s="61" t="s">
+        <v>411</v>
+      </c>
+      <c r="F204" s="61"/>
+      <c r="G204" s="13"/>
+    </row>
+    <row r="205" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A205" s="110"/>
+      <c r="B205" s="49" t="s">
+        <v>445</v>
+      </c>
+      <c r="C205" s="49" t="s">
+        <v>445</v>
+      </c>
+      <c r="D205" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="E205" s="49" t="s">
+        <v>446</v>
+      </c>
+      <c r="F205" s="49" t="s">
+        <v>405</v>
+      </c>
+      <c r="G205" s="13"/>
+    </row>
+    <row r="206" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A206" s="111"/>
+      <c r="B206" s="49" t="s">
+        <v>447</v>
+      </c>
+      <c r="C206" s="49" t="s">
+        <v>448</v>
+      </c>
+      <c r="D206" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="E206" s="49" t="s">
+        <v>449</v>
+      </c>
+      <c r="F206" s="49" t="s">
+        <v>450</v>
+      </c>
+      <c r="G206" s="13"/>
+    </row>
+    <row r="207" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A207" s="111"/>
+      <c r="B207" s="31" t="s">
+        <v>567</v>
+      </c>
+      <c r="C207" s="31" t="s">
+        <v>568</v>
+      </c>
+      <c r="D207" s="31"/>
+      <c r="E207" s="31" t="s">
+        <v>569</v>
+      </c>
+      <c r="F207" s="31" t="s">
+        <v>570</v>
+      </c>
+      <c r="G207" s="50"/>
+    </row>
+    <row r="208" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A208" s="111"/>
+      <c r="B208" s="31" t="s">
+        <v>679</v>
+      </c>
+      <c r="C208" s="31" t="s">
+        <v>680</v>
+      </c>
+      <c r="D208" s="31"/>
+      <c r="E208" s="31" t="s">
+        <v>681</v>
+      </c>
+      <c r="F208" s="31" t="s">
+        <v>682</v>
+      </c>
+      <c r="G208" s="13"/>
+    </row>
+    <row r="209" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A209" s="111"/>
+      <c r="B209" s="49"/>
+      <c r="C209" s="49"/>
+      <c r="D209" s="56"/>
+      <c r="E209" s="49"/>
+      <c r="F209" s="49"/>
+      <c r="G209" s="13"/>
+    </row>
+    <row r="210" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A210" s="112"/>
+      <c r="B210" s="49"/>
+      <c r="C210" s="49"/>
+      <c r="D210" s="56"/>
+      <c r="E210" s="49"/>
+      <c r="F210" s="49"/>
+      <c r="G210" s="13"/>
+    </row>
+    <row r="211" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="69" t="s">
+        <v>760</v>
+      </c>
+      <c r="B211" s="31" t="s">
+        <v>725</v>
+      </c>
+      <c r="C211" s="31" t="s">
+        <v>726</v>
+      </c>
+      <c r="D211" s="31"/>
+      <c r="E211" s="31" t="s">
+        <v>727</v>
+      </c>
+      <c r="F211" s="31"/>
+      <c r="G211" s="13"/>
+    </row>
+    <row r="212" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="70"/>
+      <c r="B212" s="31"/>
+      <c r="C212" s="31"/>
+      <c r="E212" s="31"/>
+      <c r="F212" s="18"/>
+      <c r="G212" s="13"/>
+    </row>
+    <row r="213" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="70"/>
+      <c r="B213" s="31"/>
+      <c r="C213" s="31"/>
+      <c r="D213" s="31"/>
+      <c r="E213" s="31"/>
+      <c r="F213" s="18"/>
+      <c r="G213" s="13"/>
+    </row>
+    <row r="214" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="70"/>
+      <c r="B214" s="7"/>
+      <c r="C214" s="7"/>
+      <c r="D214" s="8"/>
+      <c r="E214" s="7"/>
+      <c r="F214" s="18"/>
+      <c r="G214" s="13"/>
+    </row>
+    <row r="215" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="70"/>
+      <c r="B215" s="7"/>
+      <c r="C215" s="7"/>
+      <c r="D215" s="8"/>
+      <c r="E215" s="7"/>
+      <c r="F215" s="18"/>
+      <c r="G215" s="13"/>
+    </row>
+    <row r="216" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="70"/>
+      <c r="B216" s="7"/>
+      <c r="C216" s="7"/>
+      <c r="D216" s="8"/>
+      <c r="E216" s="7"/>
+      <c r="F216" s="18"/>
+      <c r="G216" s="13"/>
+    </row>
+    <row r="217" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="70"/>
+      <c r="B217" s="7"/>
+      <c r="C217" s="7"/>
+      <c r="D217" s="8"/>
+      <c r="E217" s="7"/>
+      <c r="F217" s="18"/>
+      <c r="G217" s="13"/>
+    </row>
+    <row r="218" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="71"/>
+      <c r="F218" s="19"/>
+      <c r="G218" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A219" s="108" t="s">
+        <v>492</v>
+      </c>
+      <c r="B219" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="C219" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="E219" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="F219" s="17"/>
+      <c r="G219" s="12"/>
+    </row>
+    <row r="220" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A220" s="66"/>
+      <c r="B220" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="C220" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="E220" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="F220" s="18"/>
+      <c r="G220" s="13"/>
+    </row>
+    <row r="221" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A221" s="66"/>
+      <c r="B221" s="31" t="s">
+        <v>387</v>
+      </c>
+      <c r="C221" s="31" t="s">
+        <v>388</v>
+      </c>
+      <c r="E221" s="31" t="s">
+        <v>390</v>
+      </c>
+      <c r="F221" s="18"/>
+      <c r="G221" s="13"/>
+    </row>
+    <row r="222" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A222" s="66"/>
+      <c r="B222" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="C222" s="31" t="s">
+        <v>276</v>
+      </c>
+      <c r="E222" s="31" t="s">
+        <v>304</v>
+      </c>
+      <c r="F222" s="18"/>
+      <c r="G222" s="13"/>
+    </row>
+    <row r="223" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A223" s="66"/>
+      <c r="B223" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="C223" s="31" t="s">
+        <v>368</v>
+      </c>
+      <c r="E223" s="31" t="s">
+        <v>380</v>
+      </c>
+      <c r="F223" s="18"/>
+      <c r="G223" s="13"/>
+    </row>
+    <row r="224" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A224" s="66"/>
+      <c r="B224" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="C224" s="31" t="s">
+        <v>376</v>
+      </c>
+      <c r="E224" s="31" t="s">
+        <v>384</v>
+      </c>
+      <c r="F224" s="18"/>
+      <c r="G224" s="13"/>
+    </row>
+    <row r="225" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A225" s="66"/>
+      <c r="B225" s="31" t="s">
+        <v>505</v>
+      </c>
+      <c r="C225" s="31" t="s">
+        <v>506</v>
+      </c>
+      <c r="D225" s="31"/>
+      <c r="E225" s="31" t="s">
+        <v>507</v>
+      </c>
+      <c r="F225" s="18"/>
+      <c r="G225" s="13"/>
+    </row>
+    <row r="226" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A226" s="66"/>
+      <c r="B226" s="31" t="s">
+        <v>529</v>
+      </c>
+      <c r="C226" s="31" t="s">
+        <v>530</v>
+      </c>
+      <c r="D226" s="31"/>
+      <c r="E226" s="31" t="s">
+        <v>531</v>
+      </c>
+      <c r="F226" s="18"/>
+      <c r="G226" s="13"/>
+    </row>
+    <row r="227" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A227" s="66"/>
+      <c r="B227" s="31" t="s">
+        <v>571</v>
+      </c>
+      <c r="C227" s="31" t="s">
+        <v>572</v>
+      </c>
+      <c r="D227" s="31"/>
+      <c r="E227" s="31" t="s">
+        <v>573</v>
+      </c>
+      <c r="F227" s="18"/>
+      <c r="G227" s="13"/>
+    </row>
+    <row r="228" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A228" s="66"/>
+      <c r="B228" s="31" t="s">
+        <v>588</v>
+      </c>
+      <c r="C228" s="31" t="s">
+        <v>589</v>
+      </c>
+      <c r="D228" s="31"/>
+      <c r="E228" s="31" t="s">
+        <v>590</v>
+      </c>
+      <c r="F228" s="18"/>
+      <c r="G228" s="13"/>
+    </row>
+    <row r="229" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A229" s="66"/>
+      <c r="B229" s="31" t="s">
+        <v>624</v>
+      </c>
+      <c r="C229" s="31" t="s">
+        <v>625</v>
+      </c>
+      <c r="D229" s="31"/>
+      <c r="E229" s="31" t="s">
+        <v>626</v>
+      </c>
+      <c r="F229" s="18"/>
+      <c r="G229" s="13"/>
+    </row>
+    <row r="230" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A230" s="66"/>
+      <c r="B230" s="31" t="s">
+        <v>698</v>
+      </c>
+      <c r="C230" s="31" t="s">
+        <v>699</v>
+      </c>
+      <c r="D230" s="31"/>
+      <c r="E230" s="31" t="s">
+        <v>700</v>
+      </c>
+      <c r="F230" s="18"/>
+      <c r="G230" s="13"/>
+    </row>
+    <row r="231" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A231" s="66"/>
+      <c r="B231" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="C231" s="31" t="s">
+        <v>749</v>
+      </c>
+      <c r="D231" s="31"/>
+      <c r="E231" s="31" t="s">
+        <v>750</v>
+      </c>
+      <c r="F231" s="31" t="s">
+        <v>751</v>
+      </c>
+      <c r="G231" s="13"/>
+    </row>
+    <row r="232" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A232" s="66"/>
+      <c r="B232" s="31" t="s">
+        <v>731</v>
+      </c>
+      <c r="C232" s="31" t="s">
+        <v>732</v>
+      </c>
+      <c r="D232" s="31"/>
+      <c r="E232" s="31" t="s">
+        <v>733</v>
+      </c>
+      <c r="F232" s="31"/>
+      <c r="G232" s="13"/>
+    </row>
+    <row r="233" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A233" s="66"/>
+      <c r="B233" s="31"/>
+      <c r="C233" s="31"/>
+      <c r="D233" s="31"/>
+      <c r="E233" s="31"/>
+      <c r="F233" s="31"/>
+      <c r="G233" s="13"/>
+    </row>
+    <row r="234" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="67"/>
+      <c r="F234" s="19"/>
+      <c r="G234" s="16"/>
+    </row>
+    <row r="235" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A235" s="76" t="s">
+        <v>495</v>
+      </c>
+      <c r="B235" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="C235" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E235" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="F235" s="17"/>
+      <c r="G235" s="12"/>
+    </row>
+    <row r="236" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A236" s="77"/>
+      <c r="B236" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="C236" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="E236" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="F236" s="18"/>
+      <c r="G236" s="13"/>
+    </row>
+    <row r="237" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="77"/>
+      <c r="B237" s="4"/>
+      <c r="C237" s="4"/>
+      <c r="D237" s="4"/>
+      <c r="E237" s="9"/>
+      <c r="F237" s="18"/>
+      <c r="G237" s="13"/>
+    </row>
+    <row r="238" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="77"/>
+      <c r="B238" s="4"/>
+      <c r="C238" s="4"/>
+      <c r="D238" s="4"/>
+      <c r="E238" s="9"/>
+      <c r="F238" s="18"/>
+      <c r="G238" s="13"/>
+    </row>
+    <row r="239" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="77"/>
+      <c r="B239" s="4"/>
+      <c r="C239" s="4"/>
+      <c r="D239" s="4"/>
+      <c r="E239" s="9"/>
+      <c r="F239" s="18"/>
+      <c r="G239" s="13"/>
+    </row>
+    <row r="240" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="77"/>
+      <c r="B240" s="4"/>
+      <c r="C240" s="4"/>
+      <c r="D240" s="4"/>
+      <c r="E240" s="9"/>
+      <c r="F240" s="18"/>
+      <c r="G240" s="13"/>
+    </row>
+    <row r="241" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="78"/>
+      <c r="B241" s="31"/>
+      <c r="C241" s="31"/>
+      <c r="E241" s="31"/>
+      <c r="F241" s="19"/>
+      <c r="G241" s="16"/>
+    </row>
+    <row r="242" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A242" s="69" t="s">
+        <v>499</v>
+      </c>
+      <c r="B242" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="C242" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="E242" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="F242" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="G242" s="13"/>
+    </row>
+    <row r="243" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A243" s="70"/>
+      <c r="B243" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="C243" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="E243" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="F243" s="18"/>
+      <c r="G243" s="13"/>
+    </row>
+    <row r="244" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A244" s="70"/>
+      <c r="B244" s="31" t="s">
+        <v>725</v>
+      </c>
+      <c r="C244" s="31" t="s">
+        <v>726</v>
+      </c>
+      <c r="D244" s="31"/>
+      <c r="E244" s="31" t="s">
+        <v>727</v>
+      </c>
+      <c r="F244" s="18"/>
+      <c r="G244" s="13"/>
+    </row>
+    <row r="245" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="70"/>
+      <c r="B245" s="7"/>
+      <c r="C245" s="7"/>
+      <c r="D245" s="8"/>
+      <c r="E245" s="7"/>
+      <c r="F245" s="18"/>
+      <c r="G245" s="13"/>
+    </row>
+    <row r="246" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="70"/>
+      <c r="B246" s="7"/>
+      <c r="C246" s="7"/>
+      <c r="D246" s="8"/>
+      <c r="E246" s="7"/>
+      <c r="F246" s="18"/>
+      <c r="G246" s="13"/>
+    </row>
+    <row r="247" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="70"/>
+      <c r="B247" s="7"/>
+      <c r="C247" s="7"/>
+      <c r="D247" s="8"/>
+      <c r="E247" s="7"/>
+      <c r="F247" s="18"/>
+      <c r="G247" s="13"/>
+    </row>
+    <row r="248" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="70"/>
+      <c r="B248" s="7"/>
+      <c r="C248" s="7"/>
+      <c r="D248" s="8"/>
+      <c r="E248" s="7"/>
+      <c r="F248" s="18"/>
+      <c r="G248" s="13"/>
+    </row>
+    <row r="249" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="71"/>
+      <c r="F249" s="19"/>
+      <c r="G249" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B250" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C250" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D250" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E250" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F250" s="17"/>
+      <c r="G250" s="12"/>
+    </row>
+    <row r="251" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="90"/>
+      <c r="B251" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D251" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E251" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F251" s="18"/>
+      <c r="G251" s="13"/>
+    </row>
+    <row r="252" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="90"/>
+      <c r="B252" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D252" s="4"/>
+      <c r="E252" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F252" s="18"/>
+      <c r="G252" s="13"/>
+    </row>
+    <row r="253" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="90"/>
+      <c r="B253" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D253" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E253" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F253" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G253" s="13"/>
+    </row>
+    <row r="254" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="90"/>
+      <c r="B254" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D254" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E254" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F254" s="18"/>
+      <c r="G254" s="13"/>
+    </row>
+    <row r="255" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="90"/>
+      <c r="B255" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C255" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D255" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E255" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F255" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G255" s="13"/>
+    </row>
+    <row r="256" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="90"/>
+      <c r="B256" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C256" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D256" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="E256" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="F256" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="G256" s="13"/>
+    </row>
+    <row r="257" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A257" s="90"/>
+      <c r="B257" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C257" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="E257" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="F257" s="50"/>
+      <c r="G257" s="13"/>
+    </row>
+    <row r="258" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="90"/>
+      <c r="B258" s="56"/>
+      <c r="C258" s="56"/>
+      <c r="D258" s="56"/>
+      <c r="E258" s="57"/>
+      <c r="F258" s="50"/>
+      <c r="G258" s="13"/>
+    </row>
+    <row r="259" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="90"/>
+      <c r="B259" s="4"/>
+      <c r="C259" s="4"/>
+      <c r="D259" s="4"/>
+      <c r="E259" s="9"/>
+      <c r="F259" s="18"/>
+      <c r="G259" s="13"/>
+    </row>
+    <row r="260" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A260" s="91"/>
+      <c r="B260" s="14"/>
+      <c r="C260" s="14"/>
+      <c r="D260" s="14"/>
+      <c r="E260" s="15"/>
+      <c r="F260" s="19"/>
+      <c r="G260" s="16"/>
+    </row>
+    <row r="261" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="58" t="s">
+        <v>408</v>
+      </c>
+      <c r="B261" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C261" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D261" s="8"/>
+      <c r="E261" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F261" s="17"/>
+      <c r="G261" s="12"/>
+    </row>
+    <row r="262" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A262" s="59"/>
+      <c r="B262" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="C262" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="E262" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="F262" s="18"/>
+      <c r="G262" s="13"/>
+    </row>
+    <row r="263" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A263" s="59"/>
+      <c r="B263" s="31" t="s">
+        <v>324</v>
+      </c>
+      <c r="C263" s="31" t="s">
+        <v>325</v>
+      </c>
+      <c r="E263" s="31" t="s">
+        <v>335</v>
+      </c>
+      <c r="F263" s="18"/>
+      <c r="G263" s="13"/>
+    </row>
+    <row r="264" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="59"/>
+      <c r="B264" s="4"/>
+      <c r="C264" s="4"/>
+      <c r="D264" s="4"/>
+      <c r="E264" s="9"/>
+      <c r="F264" s="18"/>
+      <c r="G264" s="13"/>
+    </row>
+    <row r="265" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="59"/>
+      <c r="B265" s="4"/>
+      <c r="C265" s="4"/>
+      <c r="D265" s="4"/>
+      <c r="E265" s="9"/>
+      <c r="F265" s="18"/>
+      <c r="G265" s="13"/>
+    </row>
+    <row r="266" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="59"/>
+      <c r="B266" s="4"/>
+      <c r="C266" s="4"/>
+      <c r="D266" s="4"/>
+      <c r="E266" s="9"/>
+      <c r="F266" s="18"/>
+      <c r="G266" s="13"/>
+    </row>
+    <row r="267" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A267" s="60"/>
+      <c r="B267" s="14"/>
+      <c r="C267" s="14"/>
+      <c r="D267" s="14"/>
+      <c r="E267" s="15"/>
+      <c r="F267" s="19"/>
+      <c r="G267" s="16"/>
+    </row>
+    <row r="268" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A268" s="87" t="s">
+        <v>498</v>
+      </c>
+      <c r="B268" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="C268" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="E268" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="F268" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="G268" s="12"/>
+    </row>
+    <row r="269" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A269" s="88"/>
+      <c r="B269" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="C269" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="E269" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="F269" s="18"/>
+      <c r="G269" s="13"/>
+    </row>
+    <row r="270" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A270" s="88"/>
+      <c r="B270" s="31" t="s">
+        <v>532</v>
+      </c>
+      <c r="C270" s="31" t="s">
+        <v>533</v>
+      </c>
+      <c r="D270" s="31"/>
+      <c r="E270" s="31" t="s">
+        <v>534</v>
+      </c>
+      <c r="F270" s="18"/>
+      <c r="G270" s="13"/>
+    </row>
+    <row r="271" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="88"/>
+      <c r="B271" s="4"/>
+      <c r="C271" s="4"/>
+      <c r="D271" s="4"/>
+      <c r="E271" s="9"/>
+      <c r="F271" s="18"/>
+      <c r="G271" s="13"/>
+    </row>
+    <row r="272" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="88"/>
+      <c r="B272" s="4"/>
+      <c r="C272" s="4"/>
+      <c r="D272" s="4"/>
+      <c r="E272" s="9"/>
+      <c r="F272" s="18"/>
+      <c r="G272" s="13"/>
+    </row>
+    <row r="273" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="88"/>
+      <c r="B273" s="4"/>
+      <c r="C273" s="4"/>
+      <c r="D273" s="4"/>
+      <c r="E273" s="9"/>
+      <c r="F273" s="18"/>
+      <c r="G273" s="13"/>
+    </row>
+    <row r="274" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="89"/>
+      <c r="B274" s="31"/>
+      <c r="C274" s="31"/>
+      <c r="E274" s="31"/>
+      <c r="F274" s="50"/>
+      <c r="G274" s="13"/>
+    </row>
+    <row r="275" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A275" s="79" t="s">
+        <v>497</v>
+      </c>
+      <c r="B275" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C275" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E275" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F275" s="50"/>
+      <c r="G275" s="50"/>
+    </row>
+    <row r="276" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A276" s="80"/>
+      <c r="B276" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="C276" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="E276" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="F276" s="18"/>
+      <c r="G276" s="13"/>
+    </row>
+    <row r="277" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A277" s="80"/>
+      <c r="B277" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="C277" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="E277" s="31" t="s">
+        <v>299</v>
+      </c>
+      <c r="F277" s="18"/>
+      <c r="G277" s="13"/>
+    </row>
+    <row r="278" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A278" s="80"/>
+      <c r="B278" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="C278" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="E278" s="31" t="s">
+        <v>300</v>
+      </c>
+      <c r="F278" s="18"/>
+      <c r="G278" s="13"/>
+    </row>
+    <row r="279" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A279" s="80"/>
+      <c r="B279" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="C279" s="31" t="s">
+        <v>344</v>
+      </c>
+      <c r="E279" s="31" t="s">
+        <v>356</v>
+      </c>
+      <c r="F279" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="G279" s="13"/>
+    </row>
+    <row r="280" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A280" s="80"/>
+      <c r="B280" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="C280" s="31" t="s">
+        <v>368</v>
+      </c>
+      <c r="E280" s="31" t="s">
+        <v>380</v>
+      </c>
+      <c r="F280" s="31"/>
+      <c r="G280" s="13"/>
+    </row>
+    <row r="281" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A281" s="80"/>
+      <c r="B281" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="C281" s="31" t="s">
+        <v>376</v>
+      </c>
+      <c r="E281" s="31" t="s">
+        <v>384</v>
+      </c>
+      <c r="F281" s="18"/>
+      <c r="G281" s="13"/>
+    </row>
+    <row r="282" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A282" s="80"/>
+      <c r="B282" s="49" t="s">
+        <v>462</v>
+      </c>
+      <c r="C282" s="49" t="s">
+        <v>463</v>
+      </c>
+      <c r="D282" s="49"/>
+      <c r="E282" s="49" t="s">
+        <v>464</v>
+      </c>
+      <c r="F282" s="49" t="s">
+        <v>465</v>
+      </c>
+      <c r="G282" s="13"/>
+    </row>
+    <row r="283" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A283" s="80"/>
+      <c r="B283" s="31" t="s">
+        <v>505</v>
+      </c>
+      <c r="C283" s="31" t="s">
+        <v>506</v>
+      </c>
+      <c r="D283" s="31"/>
+      <c r="E283" s="31" t="s">
+        <v>507</v>
+      </c>
+      <c r="F283" s="18"/>
+      <c r="G283" s="13"/>
+    </row>
+    <row r="284" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A284" s="80"/>
+      <c r="B284" s="31" t="s">
+        <v>540</v>
+      </c>
+      <c r="C284" s="31" t="s">
+        <v>541</v>
+      </c>
+      <c r="D284" s="31"/>
+      <c r="E284" s="31" t="s">
+        <v>542</v>
+      </c>
+      <c r="F284" s="18"/>
+      <c r="G284" s="13"/>
+    </row>
+    <row r="285" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A285" s="80"/>
+      <c r="B285" s="31" t="s">
+        <v>695</v>
+      </c>
+      <c r="C285" s="31" t="s">
+        <v>696</v>
+      </c>
+      <c r="D285" s="31"/>
+      <c r="E285" s="31" t="s">
+        <v>697</v>
+      </c>
+      <c r="F285" s="31" t="s">
+        <v>597</v>
+      </c>
+      <c r="G285" s="13"/>
+    </row>
+    <row r="286" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A286" s="80"/>
+      <c r="B286" s="31" t="s">
+        <v>698</v>
+      </c>
+      <c r="C286" s="31" t="s">
+        <v>699</v>
+      </c>
+      <c r="D286" s="31"/>
+      <c r="E286" s="31" t="s">
+        <v>700</v>
+      </c>
+      <c r="F286" s="18"/>
+      <c r="G286" s="13"/>
+    </row>
+    <row r="287" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A287" s="80"/>
+      <c r="B287" s="31" t="s">
+        <v>716</v>
+      </c>
+      <c r="C287" s="31" t="s">
+        <v>717</v>
+      </c>
+      <c r="D287" s="31"/>
+      <c r="E287" s="31" t="s">
+        <v>718</v>
+      </c>
+      <c r="F287" s="31" t="s">
+        <v>597</v>
+      </c>
+      <c r="G287" s="13"/>
+    </row>
+    <row r="288" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A288" s="80"/>
+      <c r="B288" s="31"/>
+      <c r="C288" s="31"/>
+      <c r="D288" s="31"/>
+      <c r="E288" s="31"/>
+      <c r="F288" s="31"/>
+      <c r="G288" s="13"/>
+    </row>
+    <row r="289" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A289" s="80"/>
+      <c r="B289" s="31"/>
+      <c r="C289" s="31"/>
+      <c r="D289" s="31"/>
+      <c r="E289" s="31"/>
+      <c r="F289" s="31"/>
+      <c r="G289" s="13"/>
+    </row>
+    <row r="290" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A290" s="80"/>
+      <c r="B290" s="31"/>
+      <c r="C290" s="31"/>
+      <c r="D290" s="31"/>
+      <c r="E290" s="31"/>
+      <c r="F290" s="31"/>
+      <c r="G290" s="13"/>
+    </row>
+    <row r="291" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="81"/>
+      <c r="B291" s="31" t="s">
+        <v>387</v>
+      </c>
+      <c r="C291" s="31" t="s">
+        <v>388</v>
+      </c>
+      <c r="E291" s="31" t="s">
+        <v>390</v>
+      </c>
+      <c r="F291" s="19"/>
+      <c r="G291" s="16"/>
+    </row>
+    <row r="292" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="46" t="s">
+        <v>406</v>
+      </c>
+      <c r="B292" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C292" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D292" s="8"/>
+      <c r="E292" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G292" s="30"/>
+    </row>
+    <row r="293" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A293" s="47"/>
+      <c r="B293" s="61" t="s">
+        <v>434</v>
+      </c>
+      <c r="C293" s="61" t="s">
+        <v>435</v>
+      </c>
+      <c r="D293" s="61"/>
+      <c r="E293" s="61" t="s">
+        <v>436</v>
+      </c>
+      <c r="F293" s="61" t="s">
+        <v>437</v>
+      </c>
+      <c r="G293" s="23"/>
+    </row>
+    <row r="294" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A294" s="47"/>
+      <c r="B294" s="31" t="s">
+        <v>347</v>
+      </c>
+      <c r="C294" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="E294" s="31" t="s">
+        <v>358</v>
+      </c>
+      <c r="F294" s="18"/>
+      <c r="G294" s="13"/>
+    </row>
+    <row r="295" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A295" s="47"/>
+      <c r="B295" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="C295" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="E295" s="31" t="s">
+        <v>381</v>
+      </c>
+      <c r="G295" s="13"/>
+    </row>
+    <row r="296" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A296" s="47"/>
+      <c r="B296" s="31" t="s">
+        <v>371</v>
+      </c>
+      <c r="C296" s="31" t="s">
+        <v>372</v>
+      </c>
+      <c r="E296" s="31" t="s">
+        <v>382</v>
+      </c>
+      <c r="F296" s="18"/>
+      <c r="G296" s="13"/>
+    </row>
+    <row r="297" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A297" s="47"/>
+      <c r="B297" s="49" t="s">
+        <v>394</v>
+      </c>
+      <c r="C297" s="49" t="s">
+        <v>394</v>
+      </c>
+      <c r="D297" s="49"/>
+      <c r="E297" s="49" t="s">
+        <v>395</v>
+      </c>
+      <c r="F297" s="18"/>
+      <c r="G297" s="13"/>
+    </row>
+    <row r="298" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A298" s="47"/>
+      <c r="B298" s="72" t="s">
+        <v>165</v>
+      </c>
+      <c r="C298" s="72" t="s">
+        <v>166</v>
+      </c>
+      <c r="D298" s="73"/>
+      <c r="E298" s="72" t="s">
+        <v>174</v>
+      </c>
+      <c r="F298" s="18"/>
+      <c r="G298" s="13"/>
+    </row>
+    <row r="299" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="47"/>
+      <c r="B299" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="C299" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="D299" s="51"/>
+      <c r="E299" s="68" t="s">
+        <v>87</v>
+      </c>
+      <c r="F299" s="18"/>
+      <c r="G299" s="13"/>
+    </row>
+    <row r="300" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A300" s="47"/>
+      <c r="B300" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="C300" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="E300" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="F300" s="18"/>
+      <c r="G300" s="13"/>
+    </row>
+    <row r="301" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A301" s="47"/>
+      <c r="B301" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="C301" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="E301" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="F301" s="18"/>
+      <c r="G301" s="13"/>
+    </row>
+    <row r="302" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A302" s="47"/>
+      <c r="B302" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="C302" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="E302" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="F302" s="18"/>
+      <c r="G302" s="13"/>
+    </row>
+    <row r="303" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A303" s="47"/>
+      <c r="B303" s="31" t="s">
+        <v>514</v>
+      </c>
+      <c r="C303" s="31" t="s">
+        <v>515</v>
+      </c>
+      <c r="D303" s="31"/>
+      <c r="E303" s="31" t="s">
+        <v>516</v>
+      </c>
+      <c r="F303" s="18"/>
+      <c r="G303" s="13"/>
+    </row>
+    <row r="304" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A304" s="47"/>
+      <c r="B304" s="31" t="s">
+        <v>719</v>
+      </c>
+      <c r="C304" s="31" t="s">
+        <v>720</v>
+      </c>
+      <c r="D304" s="31"/>
+      <c r="E304" s="31" t="s">
+        <v>721</v>
+      </c>
+      <c r="G304" s="13"/>
+    </row>
+    <row r="305" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A305" s="47"/>
+      <c r="B305" s="31"/>
+      <c r="C305" s="31"/>
+      <c r="D305" s="31"/>
+      <c r="E305" s="31"/>
+      <c r="F305" s="18"/>
+      <c r="G305" s="13"/>
+    </row>
+    <row r="306" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A306" s="47"/>
+      <c r="B306" s="31"/>
+      <c r="C306" s="31"/>
+      <c r="D306" s="31"/>
+      <c r="E306" s="31"/>
+      <c r="F306" s="18"/>
+      <c r="G306" s="13"/>
+    </row>
+    <row r="307" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A307" s="47"/>
+      <c r="B307" s="31"/>
+      <c r="C307" s="31"/>
+      <c r="D307" s="31"/>
+      <c r="E307" s="31"/>
+      <c r="F307" s="18"/>
+      <c r="G307" s="13"/>
+    </row>
+    <row r="308" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="48"/>
+      <c r="F308" s="19"/>
+      <c r="G308" s="16"/>
+    </row>
+    <row r="309" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A309" s="65" t="s">
+        <v>491</v>
+      </c>
+      <c r="B309" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="C309" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="E309" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="F309" s="17"/>
+      <c r="G309" s="12"/>
+    </row>
+    <row r="310" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A310" s="66"/>
+      <c r="B310" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="C310" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="E310" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="F310" s="18"/>
+      <c r="G310" s="13"/>
+    </row>
+    <row r="311" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A311" s="66"/>
+      <c r="B311" s="31" t="s">
+        <v>283</v>
+      </c>
+      <c r="C311" s="31" t="s">
+        <v>284</v>
+      </c>
+      <c r="E311" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="F311" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="G311" s="13"/>
+    </row>
+    <row r="312" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A312" s="66"/>
+      <c r="B312" s="31" t="s">
+        <v>517</v>
+      </c>
+      <c r="C312" s="31" t="s">
+        <v>518</v>
+      </c>
+      <c r="D312" s="31"/>
+      <c r="E312" s="31" t="s">
+        <v>519</v>
+      </c>
+      <c r="F312" s="18"/>
+      <c r="G312" s="13"/>
+    </row>
+    <row r="313" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A313" s="66"/>
+      <c r="B313" s="31" t="s">
+        <v>546</v>
+      </c>
+      <c r="C313" s="31" t="s">
+        <v>547</v>
+      </c>
+      <c r="D313" s="31"/>
+      <c r="E313" s="31" t="s">
+        <v>548</v>
+      </c>
+      <c r="F313" s="18"/>
+      <c r="G313" s="13"/>
+    </row>
+    <row r="314" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A314" s="66"/>
+      <c r="B314" s="31" t="s">
+        <v>581</v>
+      </c>
+      <c r="C314" s="31" t="s">
+        <v>582</v>
+      </c>
+      <c r="D314" s="31"/>
+      <c r="E314" s="31" t="s">
+        <v>583</v>
+      </c>
+      <c r="F314" s="18"/>
+      <c r="G314" s="13"/>
+    </row>
+    <row r="315" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A315" s="66"/>
+      <c r="B315" s="31" t="s">
+        <v>608</v>
+      </c>
+      <c r="C315" s="31" t="s">
+        <v>609</v>
+      </c>
+      <c r="D315" s="31"/>
+      <c r="E315" s="31" t="s">
+        <v>610</v>
+      </c>
+      <c r="F315" s="18"/>
+      <c r="G315" s="13"/>
+    </row>
+    <row r="316" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A316" s="66"/>
+      <c r="B316" s="31" t="s">
+        <v>698</v>
+      </c>
+      <c r="C316" s="31" t="s">
+        <v>699</v>
+      </c>
+      <c r="D316" s="31"/>
+      <c r="E316" s="31" t="s">
+        <v>700</v>
+      </c>
+      <c r="F316" s="18"/>
+      <c r="G316" s="13"/>
+    </row>
+    <row r="317" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A317" s="66"/>
+      <c r="B317" s="31" t="s">
+        <v>713</v>
+      </c>
+      <c r="C317" s="31" t="s">
+        <v>714</v>
+      </c>
+      <c r="D317" s="31"/>
+      <c r="E317" s="31" t="s">
+        <v>715</v>
+      </c>
+      <c r="F317" s="18"/>
+      <c r="G317" s="13"/>
+    </row>
+    <row r="318" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A318" s="66"/>
+      <c r="B318" s="31"/>
+      <c r="C318" s="31"/>
+      <c r="D318" s="31"/>
+      <c r="E318" s="31"/>
+      <c r="F318" s="18"/>
+      <c r="G318" s="13"/>
+    </row>
+    <row r="319" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A319" s="67"/>
+      <c r="B319" s="14"/>
+      <c r="C319" s="14"/>
+      <c r="D319" s="14"/>
+      <c r="E319" s="15"/>
+      <c r="F319" s="19"/>
+      <c r="G319" s="16"/>
+    </row>
+    <row r="320" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A320" s="82" t="s">
+        <v>208</v>
+      </c>
+      <c r="B320" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="C320" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="E320" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="F320" s="17"/>
+      <c r="G320" s="12"/>
+    </row>
+    <row r="321" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A321" s="83"/>
+      <c r="B321" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C321" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="E321" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="F321" s="18"/>
+      <c r="G321" s="13"/>
+    </row>
+    <row r="322" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A322" s="83"/>
+      <c r="B322" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="C322" s="31" t="s">
+        <v>280</v>
+      </c>
+      <c r="E322" s="31" t="s">
+        <v>306</v>
+      </c>
+      <c r="F322" s="18"/>
+      <c r="G322" s="13"/>
+    </row>
+    <row r="323" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A323" s="83"/>
+      <c r="B323" s="31" t="s">
+        <v>363</v>
+      </c>
+      <c r="C323" s="31" t="s">
+        <v>364</v>
+      </c>
+      <c r="E323" s="31" t="s">
+        <v>378</v>
+      </c>
+      <c r="F323" s="18"/>
+      <c r="G323" s="13"/>
+    </row>
+    <row r="324" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A324" s="83"/>
+      <c r="B324" s="49" t="s">
+        <v>451</v>
+      </c>
+      <c r="C324" s="49" t="s">
+        <v>451</v>
+      </c>
+      <c r="D324" s="106"/>
+      <c r="E324" s="49" t="s">
+        <v>452</v>
+      </c>
+      <c r="F324" s="49" t="s">
+        <v>453</v>
+      </c>
+      <c r="G324" s="13"/>
+    </row>
+    <row r="325" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A325" s="83"/>
+      <c r="B325" s="31" t="s">
+        <v>502</v>
+      </c>
+      <c r="C325" s="31" t="s">
+        <v>503</v>
+      </c>
+      <c r="D325" s="31"/>
+      <c r="E325" s="31" t="s">
+        <v>504</v>
+      </c>
+      <c r="F325" s="49"/>
+      <c r="G325" s="13"/>
+    </row>
+    <row r="326" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A326" s="83"/>
+      <c r="B326" s="31" t="s">
+        <v>511</v>
+      </c>
+      <c r="C326" s="31" t="s">
+        <v>512</v>
+      </c>
+      <c r="D326" s="31"/>
+      <c r="E326" s="31" t="s">
+        <v>513</v>
+      </c>
+      <c r="F326" s="49"/>
+      <c r="G326" s="13"/>
+    </row>
+    <row r="327" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A327" s="83"/>
+      <c r="B327" s="31" t="s">
+        <v>523</v>
+      </c>
+      <c r="C327" s="31" t="s">
+        <v>524</v>
+      </c>
+      <c r="D327" s="31"/>
+      <c r="E327" s="31" t="s">
+        <v>525</v>
+      </c>
+      <c r="F327" s="18"/>
+      <c r="G327" s="13"/>
+    </row>
+    <row r="328" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A328" s="83"/>
+      <c r="B328" s="31" t="s">
+        <v>560</v>
+      </c>
+      <c r="C328" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="D328" s="31"/>
+      <c r="E328" s="31" t="s">
+        <v>562</v>
+      </c>
+      <c r="F328" s="18"/>
+      <c r="G328" s="13"/>
+    </row>
+    <row r="329" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A329" s="83"/>
+      <c r="B329" s="31" t="s">
+        <v>577</v>
+      </c>
+      <c r="C329" s="31" t="s">
+        <v>578</v>
+      </c>
+      <c r="D329" s="31"/>
+      <c r="E329" s="31" t="s">
+        <v>579</v>
+      </c>
+      <c r="F329" s="31" t="s">
+        <v>580</v>
+      </c>
+      <c r="G329" s="13"/>
+    </row>
+    <row r="330" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A330" s="83"/>
+      <c r="B330" s="31" t="s">
+        <v>630</v>
+      </c>
+      <c r="C330" s="31" t="s">
+        <v>631</v>
+      </c>
+      <c r="D330" s="31"/>
+      <c r="E330" s="31" t="s">
+        <v>632</v>
+      </c>
+      <c r="G330" s="13"/>
+    </row>
+    <row r="331" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A331" s="83"/>
+      <c r="B331" s="31" t="s">
+        <v>633</v>
+      </c>
+      <c r="C331" s="31" t="s">
+        <v>634</v>
+      </c>
+      <c r="D331" s="31"/>
+      <c r="E331" s="31" t="s">
+        <v>635</v>
+      </c>
+      <c r="F331" s="31" t="s">
+        <v>636</v>
+      </c>
+      <c r="G331" s="13"/>
+    </row>
+    <row r="332" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A332" s="83"/>
+      <c r="B332" s="31" t="s">
+        <v>689</v>
+      </c>
+      <c r="C332" s="31" t="s">
+        <v>690</v>
+      </c>
+      <c r="D332" s="31"/>
+      <c r="E332" s="31" t="s">
+        <v>691</v>
+      </c>
+      <c r="F332" s="31"/>
+      <c r="G332" s="13"/>
+    </row>
+    <row r="333" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A333" s="83"/>
+      <c r="B333" s="31" t="s">
+        <v>701</v>
+      </c>
+      <c r="C333" s="31" t="s">
+        <v>702</v>
+      </c>
+      <c r="D333" s="31"/>
+      <c r="E333" s="31" t="s">
+        <v>703</v>
+      </c>
+      <c r="F333" s="31"/>
+      <c r="G333" s="13"/>
+    </row>
+    <row r="334" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A334" s="83"/>
+      <c r="B334" s="31" t="s">
+        <v>683</v>
+      </c>
+      <c r="C334" s="31" t="s">
+        <v>684</v>
+      </c>
+      <c r="D334" s="31"/>
+      <c r="E334" s="31" t="s">
+        <v>685</v>
+      </c>
+      <c r="F334" s="31"/>
+      <c r="G334" s="13"/>
+    </row>
+    <row r="335" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A335" s="83"/>
+      <c r="B335" s="31" t="s">
+        <v>756</v>
+      </c>
+      <c r="C335" s="31" t="s">
+        <v>757</v>
+      </c>
+      <c r="D335" s="31"/>
+      <c r="E335" s="31" t="s">
+        <v>758</v>
+      </c>
+      <c r="F335" s="31"/>
+      <c r="G335" s="13"/>
+    </row>
+    <row r="336" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A336" s="84"/>
+      <c r="F336" s="19"/>
+      <c r="G336" s="16"/>
+    </row>
+    <row r="337" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A337" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B337" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C337" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D337" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E337" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F337" s="17"/>
+      <c r="G337" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A338" s="40"/>
+      <c r="B338" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C338" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D338" s="8"/>
+      <c r="E338" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F338" s="18"/>
+      <c r="G338" s="13"/>
+    </row>
+    <row r="339" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A339" s="40"/>
+      <c r="B339" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C339" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D339" s="8"/>
+      <c r="E339" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F339" s="18"/>
+      <c r="G339" s="13"/>
+    </row>
+    <row r="340" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A340" s="40"/>
+      <c r="B340" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C340" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D340" s="8"/>
+      <c r="E340" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F340" s="18"/>
+      <c r="G340" s="13"/>
+    </row>
+    <row r="341" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A341" s="40"/>
+      <c r="B341" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C341" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D341" s="8"/>
+      <c r="E341" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F341" s="18"/>
+      <c r="G341" s="13"/>
+    </row>
+    <row r="342" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A342" s="40"/>
+      <c r="B342" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C342" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D342" s="8"/>
+      <c r="E342" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F342" s="18"/>
+      <c r="G342" s="13"/>
+    </row>
+    <row r="343" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A343" s="40"/>
+      <c r="B343" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C343" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D343" s="8"/>
+      <c r="E343" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F343" s="18"/>
+      <c r="G343" s="13"/>
+    </row>
+    <row r="344" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A344" s="40"/>
+      <c r="B344" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="C344" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="D344" s="51"/>
+      <c r="E344" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="F344" s="18"/>
+      <c r="G344" s="13"/>
+    </row>
+    <row r="345" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A345" s="40"/>
+      <c r="B345" s="49" t="s">
+        <v>486</v>
+      </c>
+      <c r="C345" s="49" t="s">
+        <v>487</v>
+      </c>
+      <c r="D345" s="49"/>
+      <c r="E345" s="49" t="s">
+        <v>488</v>
+      </c>
+      <c r="F345" s="49" t="s">
+        <v>489</v>
+      </c>
+      <c r="G345" s="13"/>
+    </row>
+    <row r="346" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A346" s="40"/>
+      <c r="B346" s="31" t="s">
+        <v>349</v>
+      </c>
+      <c r="C346" s="31" t="s">
+        <v>350</v>
+      </c>
+      <c r="E346" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="F346" s="18"/>
+      <c r="G346" s="13"/>
+    </row>
+    <row r="347" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A347" s="40"/>
+      <c r="B347" s="31" t="s">
+        <v>611</v>
+      </c>
+      <c r="C347" s="31" t="s">
+        <v>612</v>
+      </c>
+      <c r="D347" s="31"/>
+      <c r="E347" s="31" t="s">
+        <v>613</v>
+      </c>
+      <c r="F347" s="31" t="s">
+        <v>614</v>
+      </c>
+      <c r="G347" s="13"/>
+    </row>
+    <row r="348" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A348" s="40"/>
+      <c r="B348" s="31" t="s">
+        <v>615</v>
+      </c>
+      <c r="C348" s="31" t="s">
+        <v>616</v>
+      </c>
+      <c r="D348" s="31"/>
+      <c r="E348" s="31" t="s">
+        <v>617</v>
+      </c>
+      <c r="G348" s="13"/>
+    </row>
+    <row r="349" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A349" s="40"/>
+      <c r="B349" s="50"/>
+      <c r="C349" s="50"/>
+      <c r="D349" s="51"/>
+      <c r="E349" s="52"/>
+      <c r="F349" s="18"/>
+      <c r="G349" s="13"/>
+    </row>
+    <row r="350" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A350" s="41"/>
+      <c r="B350" s="19"/>
+      <c r="C350" s="19"/>
+      <c r="D350" s="25"/>
+      <c r="E350" s="29"/>
+      <c r="F350" s="19"/>
+      <c r="G350" s="16"/>
+    </row>
+    <row r="351" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A351" s="4"/>
       <c r="E351" s="5"/>
     </row>
-    <row r="352" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A352" s="4"/>
       <c r="E352" s="5"/>
     </row>
     <row r="353" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -6658,14 +10104,665 @@
     <row r="1119" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1119" s="5"/>
     </row>
+    <row r="1120" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1120" s="5"/>
+    </row>
+    <row r="1121" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1121" s="5"/>
+    </row>
+    <row r="1122" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1122" s="5"/>
+    </row>
+    <row r="1123" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1123" s="5"/>
+    </row>
+    <row r="1124" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1124" s="5"/>
+    </row>
+    <row r="1125" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1125" s="5"/>
+    </row>
+    <row r="1126" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1126" s="5"/>
+    </row>
+    <row r="1127" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1127" s="5"/>
+    </row>
+    <row r="1128" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1128" s="5"/>
+    </row>
+    <row r="1129" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1129" s="5"/>
+    </row>
+    <row r="1130" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1130" s="5"/>
+    </row>
+    <row r="1131" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1131" s="5"/>
+    </row>
+    <row r="1132" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1132" s="5"/>
+    </row>
+    <row r="1133" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1133" s="5"/>
+    </row>
+    <row r="1134" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1134" s="5"/>
+    </row>
+    <row r="1135" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1135" s="5"/>
+    </row>
+    <row r="1136" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1136" s="5"/>
+    </row>
+    <row r="1137" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1137" s="5"/>
+    </row>
+    <row r="1138" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1138" s="5"/>
+    </row>
+    <row r="1139" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1139" s="5"/>
+    </row>
+    <row r="1140" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1140" s="5"/>
+    </row>
+    <row r="1141" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1141" s="5"/>
+    </row>
+    <row r="1142" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1142" s="5"/>
+    </row>
+    <row r="1143" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1143" s="5"/>
+    </row>
+    <row r="1144" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1144" s="5"/>
+    </row>
+    <row r="1145" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1145" s="5"/>
+    </row>
+    <row r="1146" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1146" s="5"/>
+    </row>
+    <row r="1147" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1147" s="5"/>
+    </row>
+    <row r="1148" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1148" s="5"/>
+    </row>
+    <row r="1149" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1149" s="5"/>
+    </row>
+    <row r="1150" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1150" s="5"/>
+    </row>
+    <row r="1151" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1151" s="5"/>
+    </row>
+    <row r="1152" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1152" s="5"/>
+    </row>
+    <row r="1153" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1153" s="5"/>
+    </row>
+    <row r="1154" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1154" s="5"/>
+    </row>
+    <row r="1155" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1155" s="5"/>
+    </row>
+    <row r="1156" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1156" s="5"/>
+    </row>
+    <row r="1157" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1157" s="5"/>
+    </row>
+    <row r="1158" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1158" s="5"/>
+    </row>
+    <row r="1159" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1159" s="5"/>
+    </row>
+    <row r="1160" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1160" s="5"/>
+    </row>
+    <row r="1161" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1161" s="5"/>
+    </row>
+    <row r="1162" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1162" s="5"/>
+    </row>
+    <row r="1163" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1163" s="5"/>
+    </row>
+    <row r="1164" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1164" s="5"/>
+    </row>
+    <row r="1165" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1165" s="5"/>
+    </row>
+    <row r="1166" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1166" s="5"/>
+    </row>
+    <row r="1167" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1167" s="5"/>
+    </row>
+    <row r="1168" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1168" s="5"/>
+    </row>
+    <row r="1169" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1169" s="5"/>
+    </row>
+    <row r="1170" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1170" s="5"/>
+    </row>
+    <row r="1171" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1171" s="5"/>
+    </row>
+    <row r="1172" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1172" s="5"/>
+    </row>
+    <row r="1173" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1173" s="5"/>
+    </row>
+    <row r="1174" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1174" s="5"/>
+    </row>
+    <row r="1175" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1175" s="5"/>
+    </row>
+    <row r="1176" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1176" s="5"/>
+    </row>
+    <row r="1177" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1177" s="5"/>
+    </row>
+    <row r="1178" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1178" s="5"/>
+    </row>
+    <row r="1179" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1179" s="5"/>
+    </row>
+    <row r="1180" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1180" s="5"/>
+    </row>
+    <row r="1181" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1181" s="5"/>
+    </row>
+    <row r="1182" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1182" s="5"/>
+    </row>
+    <row r="1183" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1183" s="5"/>
+    </row>
+    <row r="1184" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1184" s="5"/>
+    </row>
+    <row r="1185" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1185" s="5"/>
+    </row>
+    <row r="1186" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1186" s="5"/>
+    </row>
+    <row r="1187" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1187" s="5"/>
+    </row>
+    <row r="1188" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1188" s="5"/>
+    </row>
+    <row r="1189" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1189" s="5"/>
+    </row>
+    <row r="1190" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1190" s="5"/>
+    </row>
+    <row r="1191" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1191" s="5"/>
+    </row>
+    <row r="1192" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1192" s="5"/>
+    </row>
+    <row r="1193" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1193" s="5"/>
+    </row>
+    <row r="1194" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1194" s="5"/>
+    </row>
+    <row r="1195" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1195" s="5"/>
+    </row>
+    <row r="1196" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1196" s="5"/>
+    </row>
+    <row r="1197" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1197" s="5"/>
+    </row>
+    <row r="1198" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1198" s="5"/>
+    </row>
+    <row r="1199" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1199" s="5"/>
+    </row>
+    <row r="1200" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1200" s="5"/>
+    </row>
+    <row r="1201" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1201" s="5"/>
+    </row>
+    <row r="1202" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1202" s="5"/>
+    </row>
+    <row r="1203" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1203" s="5"/>
+    </row>
+    <row r="1204" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1204" s="5"/>
+    </row>
+    <row r="1205" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1205" s="5"/>
+    </row>
+    <row r="1206" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1206" s="5"/>
+    </row>
+    <row r="1207" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1207" s="5"/>
+    </row>
+    <row r="1208" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1208" s="5"/>
+    </row>
+    <row r="1209" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1209" s="5"/>
+    </row>
+    <row r="1210" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1210" s="5"/>
+    </row>
+    <row r="1211" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1211" s="5"/>
+    </row>
+    <row r="1212" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1212" s="5"/>
+    </row>
+    <row r="1213" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1213" s="5"/>
+    </row>
+    <row r="1214" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1214" s="5"/>
+    </row>
+    <row r="1215" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1215" s="5"/>
+    </row>
+    <row r="1216" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1216" s="5"/>
+    </row>
+    <row r="1217" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1217" s="5"/>
+    </row>
+    <row r="1218" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1218" s="5"/>
+    </row>
+    <row r="1219" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1219" s="5"/>
+    </row>
+    <row r="1220" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1220" s="5"/>
+    </row>
+    <row r="1221" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1221" s="5"/>
+    </row>
+    <row r="1222" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1222" s="5"/>
+    </row>
+    <row r="1223" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1223" s="5"/>
+    </row>
+    <row r="1224" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1224" s="5"/>
+    </row>
+    <row r="1225" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1225" s="5"/>
+    </row>
+    <row r="1226" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1226" s="5"/>
+    </row>
+    <row r="1227" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1227" s="5"/>
+    </row>
+    <row r="1228" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1228" s="5"/>
+    </row>
+    <row r="1229" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1229" s="5"/>
+    </row>
+    <row r="1230" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1230" s="5"/>
+    </row>
+    <row r="1231" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1231" s="5"/>
+    </row>
+    <row r="1232" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1232" s="5"/>
+    </row>
+    <row r="1233" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1233" s="5"/>
+    </row>
+    <row r="1234" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1234" s="5"/>
+    </row>
+    <row r="1235" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1235" s="5"/>
+    </row>
+    <row r="1236" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1236" s="5"/>
+    </row>
+    <row r="1237" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1237" s="5"/>
+    </row>
+    <row r="1238" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1238" s="5"/>
+    </row>
+    <row r="1239" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1239" s="5"/>
+    </row>
+    <row r="1240" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1240" s="5"/>
+    </row>
+    <row r="1241" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1241" s="5"/>
+    </row>
+    <row r="1242" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1242" s="5"/>
+    </row>
+    <row r="1243" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1243" s="5"/>
+    </row>
+    <row r="1244" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1244" s="5"/>
+    </row>
+    <row r="1245" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1245" s="5"/>
+    </row>
+    <row r="1246" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1246" s="5"/>
+    </row>
+    <row r="1247" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1247" s="5"/>
+    </row>
+    <row r="1248" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1248" s="5"/>
+    </row>
+    <row r="1249" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1249" s="5"/>
+    </row>
+    <row r="1250" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1250" s="5"/>
+    </row>
+    <row r="1251" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1251" s="5"/>
+    </row>
+    <row r="1252" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1252" s="5"/>
+    </row>
+    <row r="1253" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1253" s="5"/>
+    </row>
+    <row r="1254" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1254" s="5"/>
+    </row>
+    <row r="1255" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1255" s="5"/>
+    </row>
+    <row r="1256" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1256" s="5"/>
+    </row>
+    <row r="1257" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1257" s="5"/>
+    </row>
+    <row r="1258" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1258" s="5"/>
+    </row>
+    <row r="1259" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1259" s="5"/>
+    </row>
+    <row r="1260" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1260" s="5"/>
+    </row>
+    <row r="1261" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1261" s="5"/>
+    </row>
+    <row r="1262" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1262" s="5"/>
+    </row>
+    <row r="1263" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1263" s="5"/>
+    </row>
+    <row r="1264" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1264" s="5"/>
+    </row>
+    <row r="1265" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1265" s="5"/>
+    </row>
+    <row r="1266" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1266" s="5"/>
+    </row>
+    <row r="1267" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1267" s="5"/>
+    </row>
+    <row r="1268" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1268" s="5"/>
+    </row>
+    <row r="1269" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1269" s="5"/>
+    </row>
+    <row r="1270" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1270" s="5"/>
+    </row>
+    <row r="1271" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1271" s="5"/>
+    </row>
+    <row r="1272" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1272" s="5"/>
+    </row>
+    <row r="1273" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1273" s="5"/>
+    </row>
+    <row r="1274" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1274" s="5"/>
+    </row>
+    <row r="1275" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1275" s="5"/>
+    </row>
+    <row r="1276" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1276" s="5"/>
+    </row>
+    <row r="1277" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1277" s="5"/>
+    </row>
+    <row r="1278" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1278" s="5"/>
+    </row>
+    <row r="1279" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1279" s="5"/>
+    </row>
+    <row r="1280" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1280" s="5"/>
+    </row>
+    <row r="1281" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1281" s="5"/>
+    </row>
+    <row r="1282" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1282" s="5"/>
+    </row>
+    <row r="1283" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1283" s="5"/>
+    </row>
+    <row r="1284" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1284" s="5"/>
+    </row>
+    <row r="1285" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1285" s="5"/>
+    </row>
+    <row r="1286" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1286" s="5"/>
+    </row>
+    <row r="1287" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1287" s="5"/>
+    </row>
+    <row r="1288" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1288" s="5"/>
+    </row>
+    <row r="1289" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1289" s="5"/>
+    </row>
+    <row r="1290" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1290" s="5"/>
+    </row>
+    <row r="1291" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1291" s="5"/>
+    </row>
+    <row r="1292" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1292" s="5"/>
+    </row>
+    <row r="1293" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1293" s="5"/>
+    </row>
+    <row r="1294" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1294" s="5"/>
+    </row>
+    <row r="1295" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1295" s="5"/>
+    </row>
+    <row r="1296" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1296" s="5"/>
+    </row>
+    <row r="1297" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1297" s="5"/>
+    </row>
+    <row r="1298" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1298" s="5"/>
+    </row>
+    <row r="1299" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1299" s="5"/>
+    </row>
+    <row r="1300" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1300" s="5"/>
+    </row>
+    <row r="1301" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1301" s="5"/>
+    </row>
+    <row r="1302" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1302" s="5"/>
+    </row>
+    <row r="1303" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1303" s="5"/>
+    </row>
+    <row r="1304" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1304" s="5"/>
+    </row>
+    <row r="1305" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1305" s="5"/>
+    </row>
+    <row r="1306" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1306" s="5"/>
+    </row>
+    <row r="1307" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1307" s="5"/>
+    </row>
+    <row r="1308" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1308" s="5"/>
+    </row>
+    <row r="1309" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1309" s="5"/>
+    </row>
+    <row r="1310" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1310" s="5"/>
+    </row>
+    <row r="1311" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1311" s="5"/>
+    </row>
+    <row r="1312" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1312" s="5"/>
+    </row>
+    <row r="1313" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1313" s="5"/>
+    </row>
+    <row r="1314" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1314" s="5"/>
+    </row>
+    <row r="1315" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1315" s="5"/>
+    </row>
+    <row r="1316" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1316" s="5"/>
+    </row>
+    <row r="1317" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1317" s="5"/>
+    </row>
+    <row r="1318" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1318" s="5"/>
+    </row>
+    <row r="1319" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1319" s="5"/>
+    </row>
+    <row r="1320" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1320" s="5"/>
+    </row>
+    <row r="1321" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1321" s="5"/>
+    </row>
+    <row r="1322" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1322" s="5"/>
+    </row>
+    <row r="1323" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1323" s="5"/>
+    </row>
+    <row r="1324" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1324" s="5"/>
+    </row>
+    <row r="1325" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1325" s="5"/>
+    </row>
+    <row r="1326" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1326" s="5"/>
+    </row>
+    <row r="1327" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1327" s="5"/>
+    </row>
+    <row r="1328" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1328" s="5"/>
+    </row>
+    <row r="1329" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1329" s="5"/>
+    </row>
+    <row r="1330" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E1330" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A3:A105"/>
-    <mergeCell ref="A109:A116"/>
-    <mergeCell ref="A132:A139"/>
-    <mergeCell ref="A117:A124"/>
-    <mergeCell ref="A106:A108"/>
-    <mergeCell ref="A125:A131"/>
+  <mergeCells count="24">
+    <mergeCell ref="A275:A291"/>
+    <mergeCell ref="A320:A336"/>
+    <mergeCell ref="A268:A274"/>
+    <mergeCell ref="A242:A249"/>
+    <mergeCell ref="A101:A109"/>
+    <mergeCell ref="A110:A113"/>
+    <mergeCell ref="A174:A179"/>
+    <mergeCell ref="A193:A210"/>
+    <mergeCell ref="A162:A165"/>
+    <mergeCell ref="A211:A218"/>
+    <mergeCell ref="A3:A92"/>
+    <mergeCell ref="A114:A133"/>
+    <mergeCell ref="A337:A350"/>
+    <mergeCell ref="A93:A96"/>
+    <mergeCell ref="A250:A260"/>
+    <mergeCell ref="A134:A161"/>
+    <mergeCell ref="A292:A308"/>
+    <mergeCell ref="A166:A173"/>
+    <mergeCell ref="A261:A267"/>
+    <mergeCell ref="A309:A319"/>
+    <mergeCell ref="A219:A234"/>
+    <mergeCell ref="A180:A192"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="A235:A241"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/xcom_perks/compiled_perks.xlsx
+++ b/docs/xcom_perks/compiled_perks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merbos_copy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8047D2CE-E967-432B-AF2E-B001BAEF7361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E917914-9DEF-4E29-AF67-68F3BE3C7CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2842,7 +2842,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2904,7 +2904,62 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2915,7 +2970,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2928,116 +2994,35 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="24" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="26" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="26" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="40" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3259,8 +3244,8 @@
   <dimension ref="A1:AA1330"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B336" sqref="B336"/>
+      <pane ySplit="2" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3332,7 +3317,7 @@
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
+      <c r="A3" s="69"/>
       <c r="B3" s="7" t="s">
         <v>79</v>
       </c>
@@ -3347,7 +3332,7 @@
       <c r="G3" s="20"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="35"/>
+      <c r="A4" s="69"/>
       <c r="B4" s="7" t="s">
         <v>102</v>
       </c>
@@ -3361,7 +3346,7 @@
       <c r="G4" s="20"/>
     </row>
     <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="35"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="7" t="s">
         <v>114</v>
       </c>
@@ -3374,7 +3359,7 @@
       <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="35"/>
+      <c r="A6" s="69"/>
       <c r="B6" s="31" t="s">
         <v>141</v>
       </c>
@@ -3387,7 +3372,7 @@
       <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="35"/>
+      <c r="A7" s="69"/>
       <c r="B7" s="31" t="s">
         <v>156</v>
       </c>
@@ -3400,7 +3385,7 @@
       <c r="G7" s="20"/>
     </row>
     <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="35"/>
+      <c r="A8" s="69"/>
       <c r="B8" s="31" t="s">
         <v>158</v>
       </c>
@@ -3413,7 +3398,7 @@
       <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="35"/>
+      <c r="A9" s="69"/>
       <c r="B9" s="31" t="s">
         <v>160</v>
       </c>
@@ -3426,7 +3411,7 @@
       <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="35"/>
+      <c r="A10" s="69"/>
       <c r="B10" s="31" t="s">
         <v>177</v>
       </c>
@@ -3439,7 +3424,7 @@
       <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="35"/>
+      <c r="A11" s="69"/>
       <c r="B11" s="31" t="s">
         <v>192</v>
       </c>
@@ -3452,7 +3437,7 @@
       <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="35"/>
+      <c r="A12" s="69"/>
       <c r="B12" s="31" t="s">
         <v>204</v>
       </c>
@@ -3465,7 +3450,7 @@
       <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="35"/>
+      <c r="A13" s="69"/>
       <c r="B13" s="31" t="s">
         <v>210</v>
       </c>
@@ -3480,7 +3465,7 @@
       </c>
     </row>
     <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="35"/>
+      <c r="A14" s="69"/>
       <c r="B14" s="31" t="s">
         <v>213</v>
       </c>
@@ -3492,7 +3477,7 @@
       </c>
     </row>
     <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="35"/>
+      <c r="A15" s="69"/>
       <c r="B15" s="31" t="s">
         <v>219</v>
       </c>
@@ -3504,7 +3489,7 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="35"/>
+      <c r="A16" s="69"/>
       <c r="B16" s="31" t="s">
         <v>230</v>
       </c>
@@ -3516,7 +3501,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="35"/>
+      <c r="A17" s="69"/>
       <c r="B17" s="31" t="s">
         <v>236</v>
       </c>
@@ -3531,7 +3516,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="35"/>
+      <c r="A18" s="69"/>
       <c r="B18" s="31" t="s">
         <v>244</v>
       </c>
@@ -3543,7 +3528,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="35"/>
+      <c r="A19" s="69"/>
       <c r="B19" s="31" t="s">
         <v>257</v>
       </c>
@@ -3555,7 +3540,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="35"/>
+      <c r="A20" s="69"/>
       <c r="B20" s="31" t="s">
         <v>259</v>
       </c>
@@ -3567,7 +3552,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="35"/>
+      <c r="A21" s="69"/>
       <c r="B21" s="31" t="s">
         <v>277</v>
       </c>
@@ -3579,7 +3564,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="35"/>
+      <c r="A22" s="69"/>
       <c r="B22" s="31" t="s">
         <v>287</v>
       </c>
@@ -3591,7 +3576,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="35"/>
+      <c r="A23" s="69"/>
       <c r="B23" s="31" t="s">
         <v>314</v>
       </c>
@@ -3603,7 +3588,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="35"/>
+      <c r="A24" s="69"/>
       <c r="B24" s="31" t="s">
         <v>320</v>
       </c>
@@ -3615,7 +3600,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="35"/>
+      <c r="A25" s="69"/>
       <c r="B25" s="31" t="s">
         <v>326</v>
       </c>
@@ -3627,7 +3612,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="35"/>
+      <c r="A26" s="69"/>
       <c r="B26" s="31" t="s">
         <v>341</v>
       </c>
@@ -3639,7 +3624,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="35"/>
+      <c r="A27" s="69"/>
       <c r="B27" s="31" t="s">
         <v>345</v>
       </c>
@@ -3651,7 +3636,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="35"/>
+      <c r="A28" s="69"/>
       <c r="B28" s="31" t="s">
         <v>365</v>
       </c>
@@ -3663,7 +3648,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="35"/>
+      <c r="A29" s="69"/>
       <c r="B29" s="31" t="s">
         <v>385</v>
       </c>
@@ -3675,117 +3660,117 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="35"/>
-      <c r="B30" s="61" t="s">
+      <c r="A30" s="69"/>
+      <c r="B30" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="C30" s="61" t="s">
+      <c r="C30" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61" t="s">
+      <c r="D30" s="36"/>
+      <c r="E30" s="36" t="s">
         <v>412</v>
       </c>
-      <c r="F30" s="61" t="s">
+      <c r="F30" s="36" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="35"/>
-      <c r="B31" s="61" t="s">
+      <c r="A31" s="69"/>
+      <c r="B31" s="36" t="s">
         <v>416</v>
       </c>
-      <c r="C31" s="61" t="s">
+      <c r="C31" s="36" t="s">
         <v>417</v>
       </c>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61" t="s">
+      <c r="D31" s="36"/>
+      <c r="E31" s="36" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="35"/>
-      <c r="B32" s="61" t="s">
+      <c r="A32" s="69"/>
+      <c r="B32" s="36" t="s">
         <v>419</v>
       </c>
-      <c r="C32" s="61" t="s">
+      <c r="C32" s="36" t="s">
         <v>420</v>
       </c>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61" t="s">
+      <c r="D32" s="36"/>
+      <c r="E32" s="36" t="s">
         <v>421</v>
       </c>
-      <c r="F32" s="61" t="s">
+      <c r="F32" s="36" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="35"/>
-      <c r="B33" s="61" t="s">
+      <c r="A33" s="69"/>
+      <c r="B33" s="36" t="s">
         <v>430</v>
       </c>
-      <c r="C33" s="61" t="s">
+      <c r="C33" s="36" t="s">
         <v>431</v>
       </c>
-      <c r="D33" s="56" t="s">
+      <c r="D33" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="E33" s="61" t="s">
+      <c r="E33" s="36" t="s">
         <v>432</v>
       </c>
-      <c r="F33" s="61" t="s">
+      <c r="F33" s="36" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="35"/>
-      <c r="B34" s="49" t="s">
+      <c r="A34" s="69"/>
+      <c r="B34" s="35" t="s">
         <v>454</v>
       </c>
-      <c r="C34" s="49" t="s">
+      <c r="C34" s="35" t="s">
         <v>455</v>
       </c>
-      <c r="D34" s="56" t="s">
+      <c r="D34" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="E34" s="49" t="s">
+      <c r="E34" s="35" t="s">
         <v>456</v>
       </c>
-      <c r="F34" s="49" t="s">
+      <c r="F34" s="35" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="35"/>
-      <c r="B35" s="49" t="s">
+      <c r="A35" s="69"/>
+      <c r="B35" s="35" t="s">
         <v>458</v>
       </c>
-      <c r="C35" s="49" t="s">
+      <c r="C35" s="35" t="s">
         <v>459</v>
       </c>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49" t="s">
+      <c r="D35" s="35"/>
+      <c r="E35" s="35" t="s">
         <v>460</v>
       </c>
-      <c r="F35" s="49" t="s">
+      <c r="F35" s="35" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="35"/>
-      <c r="B36" s="49" t="s">
+      <c r="A36" s="69"/>
+      <c r="B36" s="35" t="s">
         <v>466</v>
       </c>
-      <c r="C36" s="49" t="s">
+      <c r="C36" s="35" t="s">
         <v>467</v>
       </c>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49" t="s">
+      <c r="D36" s="35"/>
+      <c r="E36" s="35" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="35"/>
+      <c r="A37" s="69"/>
       <c r="B37" s="31" t="s">
         <v>508</v>
       </c>
@@ -3798,7 +3783,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="35"/>
+      <c r="A38" s="69"/>
       <c r="B38" s="31" t="s">
         <v>520</v>
       </c>
@@ -3811,7 +3796,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="35"/>
+      <c r="A39" s="69"/>
       <c r="B39" s="31" t="s">
         <v>535</v>
       </c>
@@ -3824,7 +3809,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="35"/>
+      <c r="A40" s="69"/>
       <c r="B40" s="31" t="s">
         <v>543</v>
       </c>
@@ -3837,7 +3822,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="35"/>
+      <c r="A41" s="69"/>
       <c r="B41" s="31" t="s">
         <v>555</v>
       </c>
@@ -3850,7 +3835,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="35"/>
+      <c r="A42" s="69"/>
       <c r="B42" s="31" t="s">
         <v>141</v>
       </c>
@@ -3863,7 +3848,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="35"/>
+      <c r="A43" s="69"/>
       <c r="B43" s="31" t="s">
         <v>574</v>
       </c>
@@ -3876,7 +3861,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="35"/>
+      <c r="A44" s="69"/>
       <c r="B44" s="31" t="s">
         <v>591</v>
       </c>
@@ -3889,7 +3874,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="35"/>
+      <c r="A45" s="69"/>
       <c r="B45" s="31" t="s">
         <v>594</v>
       </c>
@@ -3905,7 +3890,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="35"/>
+      <c r="A46" s="69"/>
       <c r="B46" s="31" t="s">
         <v>598</v>
       </c>
@@ -3918,7 +3903,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="35"/>
+      <c r="A47" s="69"/>
       <c r="B47" s="31" t="s">
         <v>605</v>
       </c>
@@ -3931,7 +3916,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="35"/>
+      <c r="A48" s="69"/>
       <c r="B48" s="31" t="s">
         <v>618</v>
       </c>
@@ -3944,7 +3929,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="35"/>
+      <c r="A49" s="69"/>
       <c r="B49" s="31" t="s">
         <v>621</v>
       </c>
@@ -3957,7 +3942,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="35"/>
+      <c r="A50" s="69"/>
       <c r="B50" s="31" t="s">
         <v>627</v>
       </c>
@@ -3970,7 +3955,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="35"/>
+      <c r="A51" s="69"/>
       <c r="B51" s="31" t="s">
         <v>637</v>
       </c>
@@ -3983,7 +3968,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="35"/>
+      <c r="A52" s="69"/>
       <c r="B52" s="31" t="s">
         <v>640</v>
       </c>
@@ -3996,7 +3981,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="35"/>
+      <c r="A53" s="69"/>
       <c r="B53" s="31" t="s">
         <v>643</v>
       </c>
@@ -4009,7 +3994,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="35"/>
+      <c r="A54" s="69"/>
       <c r="B54" s="31" t="s">
         <v>646</v>
       </c>
@@ -4022,7 +4007,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="35"/>
+      <c r="A55" s="69"/>
       <c r="B55" s="31" t="s">
         <v>649</v>
       </c>
@@ -4035,7 +4020,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="35"/>
+      <c r="A56" s="69"/>
       <c r="B56" s="31" t="s">
         <v>652</v>
       </c>
@@ -4048,7 +4033,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="35"/>
+      <c r="A57" s="69"/>
       <c r="B57" s="31" t="s">
         <v>655</v>
       </c>
@@ -4061,7 +4046,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="35"/>
+      <c r="A58" s="69"/>
       <c r="B58" s="31" t="s">
         <v>658</v>
       </c>
@@ -4074,7 +4059,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="35"/>
+      <c r="A59" s="69"/>
       <c r="B59" s="31" t="s">
         <v>661</v>
       </c>
@@ -4087,7 +4072,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="35"/>
+      <c r="A60" s="69"/>
       <c r="B60" s="31" t="s">
         <v>275</v>
       </c>
@@ -4100,7 +4085,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="35"/>
+      <c r="A61" s="69"/>
       <c r="B61" s="31" t="s">
         <v>665</v>
       </c>
@@ -4113,7 +4098,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="35"/>
+      <c r="A62" s="69"/>
       <c r="B62" s="31" t="s">
         <v>668</v>
       </c>
@@ -4127,7 +4112,7 @@
       <c r="F62" s="31"/>
     </row>
     <row r="63" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="35"/>
+      <c r="A63" s="69"/>
       <c r="B63" s="31" t="s">
         <v>671</v>
       </c>
@@ -4141,7 +4126,7 @@
       <c r="F63" s="31"/>
     </row>
     <row r="64" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A64" s="35"/>
+      <c r="A64" s="69"/>
       <c r="B64" s="31" t="s">
         <v>686</v>
       </c>
@@ -4154,7 +4139,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="35"/>
+      <c r="A65" s="69"/>
       <c r="B65" s="31" t="s">
         <v>704</v>
       </c>
@@ -4167,7 +4152,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="35"/>
+      <c r="A66" s="69"/>
       <c r="B66" s="31" t="s">
         <v>722</v>
       </c>
@@ -4181,7 +4166,7 @@
       <c r="F66" s="31"/>
     </row>
     <row r="67" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A67" s="35"/>
+      <c r="A67" s="69"/>
       <c r="B67" s="31" t="s">
         <v>728</v>
       </c>
@@ -4195,7 +4180,7 @@
       <c r="F67" s="31"/>
     </row>
     <row r="68" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="35"/>
+      <c r="A68" s="69"/>
       <c r="B68" s="31" t="s">
         <v>734</v>
       </c>
@@ -4208,7 +4193,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="35"/>
+      <c r="A69" s="69"/>
       <c r="B69" s="31" t="s">
         <v>740</v>
       </c>
@@ -4221,7 +4206,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="35"/>
+      <c r="A70" s="69"/>
       <c r="B70" s="31" t="s">
         <v>743</v>
       </c>
@@ -4234,7 +4219,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A71" s="35"/>
+      <c r="A71" s="69"/>
       <c r="B71" s="31" t="s">
         <v>752</v>
       </c>
@@ -4250,99 +4235,99 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="35"/>
+      <c r="A72" s="69"/>
     </row>
     <row r="73" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="35"/>
+      <c r="A73" s="69"/>
     </row>
     <row r="74" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="35"/>
+      <c r="A74" s="69"/>
     </row>
     <row r="75" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A75" s="35"/>
+      <c r="A75" s="69"/>
     </row>
     <row r="76" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="35"/>
+      <c r="A76" s="69"/>
     </row>
     <row r="77" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A77" s="35"/>
+      <c r="A77" s="69"/>
     </row>
     <row r="78" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A78" s="35"/>
+      <c r="A78" s="69"/>
     </row>
     <row r="79" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A79" s="35"/>
+      <c r="A79" s="69"/>
     </row>
     <row r="80" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A80" s="35"/>
+      <c r="A80" s="69"/>
     </row>
     <row r="81" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A81" s="35"/>
+      <c r="A81" s="69"/>
     </row>
     <row r="82" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A82" s="35"/>
+      <c r="A82" s="69"/>
     </row>
     <row r="83" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A83" s="35"/>
+      <c r="A83" s="69"/>
     </row>
     <row r="84" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A84" s="35"/>
+      <c r="A84" s="69"/>
     </row>
     <row r="85" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A85" s="35"/>
+      <c r="A85" s="69"/>
     </row>
     <row r="86" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A86" s="35"/>
+      <c r="A86" s="69"/>
     </row>
     <row r="87" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A87" s="35"/>
+      <c r="A87" s="69"/>
     </row>
     <row r="88" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A88" s="35"/>
+      <c r="A88" s="69"/>
     </row>
     <row r="89" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="35"/>
+      <c r="A89" s="69"/>
     </row>
     <row r="90" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A90" s="35"/>
+      <c r="A90" s="69"/>
     </row>
     <row r="91" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A91" s="35"/>
+      <c r="A91" s="69"/>
     </row>
     <row r="92" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="105"/>
+      <c r="A92" s="70"/>
       <c r="G92" s="21"/>
     </row>
     <row r="93" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="96" t="s">
+      <c r="A93" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="B93" s="62" t="s">
+      <c r="B93" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="C93" s="62" t="s">
+      <c r="C93" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D93" s="62" t="s">
+      <c r="D93" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="E93" s="63" t="s">
+      <c r="E93" s="38" t="s">
         <v>40</v>
       </c>
       <c r="F93" s="18"/>
       <c r="G93" s="13"/>
     </row>
     <row r="94" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="96"/>
-      <c r="B94" s="56"/>
-      <c r="C94" s="56"/>
-      <c r="D94" s="56"/>
-      <c r="E94" s="57"/>
+      <c r="A94" s="77"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="9"/>
       <c r="F94" s="18"/>
       <c r="G94" s="13"/>
     </row>
     <row r="95" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="97"/>
+      <c r="A95" s="78"/>
       <c r="B95" s="4" t="s">
         <v>41</v>
       </c>
@@ -4357,7 +4342,7 @@
       <c r="G95" s="13"/>
     </row>
     <row r="96" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="98"/>
+      <c r="A96" s="79"/>
       <c r="B96" s="33" t="s">
         <v>44</v>
       </c>
@@ -4374,7 +4359,7 @@
       </c>
     </row>
     <row r="97" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="74" t="s">
+      <c r="A97" s="100" t="s">
         <v>494</v>
       </c>
       <c r="B97" s="7" t="s">
@@ -4390,16 +4375,16 @@
       <c r="G97" s="13"/>
     </row>
     <row r="98" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="74"/>
-      <c r="B98" s="56"/>
-      <c r="C98" s="56"/>
-      <c r="D98" s="56"/>
-      <c r="E98" s="57"/>
+      <c r="A98" s="100"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="9"/>
       <c r="F98" s="18"/>
       <c r="G98" s="13"/>
     </row>
     <row r="99" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="75"/>
+      <c r="A99" s="101"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
@@ -4408,7 +4393,7 @@
       <c r="G99" s="13"/>
     </row>
     <row r="100" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="85"/>
+      <c r="A100" s="102"/>
       <c r="B100" s="33"/>
       <c r="C100" s="33"/>
       <c r="D100" s="33"/>
@@ -4419,7 +4404,7 @@
       </c>
     </row>
     <row r="101" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="86" t="s">
+      <c r="A101" s="52" t="s">
         <v>496</v>
       </c>
       <c r="B101" s="7" t="s">
@@ -4435,7 +4420,7 @@
       <c r="G101" s="13"/>
     </row>
     <row r="102" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A102" s="86"/>
+      <c r="A102" s="52"/>
       <c r="B102" s="31" t="s">
         <v>185</v>
       </c>
@@ -4449,7 +4434,7 @@
       <c r="G102" s="13"/>
     </row>
     <row r="103" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A103" s="92"/>
+      <c r="A103" s="53"/>
       <c r="B103" s="7" t="s">
         <v>118</v>
       </c>
@@ -4463,7 +4448,7 @@
       <c r="G103" s="13"/>
     </row>
     <row r="104" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A104" s="93"/>
+      <c r="A104" s="54"/>
       <c r="B104" s="31" t="s">
         <v>152</v>
       </c>
@@ -4473,11 +4458,11 @@
       <c r="E104" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="F104" s="50"/>
-      <c r="G104" s="50"/>
+      <c r="F104" s="18"/>
+      <c r="G104" s="18"/>
     </row>
     <row r="105" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A105" s="94"/>
+      <c r="A105" s="55"/>
       <c r="B105" s="31" t="s">
         <v>234</v>
       </c>
@@ -4487,11 +4472,11 @@
       <c r="E105" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="F105" s="50"/>
+      <c r="F105" s="18"/>
       <c r="G105" s="13"/>
     </row>
     <row r="106" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A106" s="94"/>
+      <c r="A106" s="55"/>
       <c r="B106" s="31" t="s">
         <v>246</v>
       </c>
@@ -4501,11 +4486,11 @@
       <c r="E106" s="31" t="s">
         <v>256</v>
       </c>
-      <c r="F106" s="50"/>
+      <c r="F106" s="18"/>
       <c r="G106" s="13"/>
     </row>
     <row r="107" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="94"/>
+      <c r="A107" s="55"/>
       <c r="B107" s="31" t="s">
         <v>601</v>
       </c>
@@ -4522,23 +4507,23 @@
       <c r="G107" s="13"/>
     </row>
     <row r="108" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="94"/>
+      <c r="A108" s="55"/>
       <c r="B108" s="31"/>
       <c r="C108" s="31"/>
       <c r="E108" s="31"/>
-      <c r="F108" s="50"/>
+      <c r="F108" s="18"/>
       <c r="G108" s="13"/>
     </row>
     <row r="109" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="95"/>
+      <c r="A109" s="56"/>
       <c r="B109" s="31"/>
       <c r="C109" s="31"/>
       <c r="E109" s="31"/>
-      <c r="F109" s="50"/>
+      <c r="F109" s="18"/>
       <c r="G109" s="13"/>
     </row>
     <row r="110" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="99" t="s">
+      <c r="A110" s="57" t="s">
         <v>490</v>
       </c>
       <c r="B110" s="31" t="s">
@@ -4554,7 +4539,7 @@
       <c r="G110" s="13"/>
     </row>
     <row r="111" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="99"/>
+      <c r="A111" s="57"/>
       <c r="B111" s="31" t="s">
         <v>289</v>
       </c>
@@ -4568,22 +4553,22 @@
       <c r="G111" s="13"/>
     </row>
     <row r="112" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="100"/>
-      <c r="B112" s="61" t="s">
+      <c r="A112" s="58"/>
+      <c r="B112" s="36" t="s">
         <v>423</v>
       </c>
-      <c r="C112" s="61" t="s">
+      <c r="C112" s="36" t="s">
         <v>423</v>
       </c>
-      <c r="D112" s="61"/>
-      <c r="E112" s="61" t="s">
+      <c r="D112" s="36"/>
+      <c r="E112" s="36" t="s">
         <v>424</v>
       </c>
       <c r="F112" s="18"/>
       <c r="G112" s="13"/>
     </row>
     <row r="113" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="101"/>
+      <c r="A113" s="59"/>
       <c r="B113" s="33"/>
       <c r="C113" s="33"/>
       <c r="D113" s="33"/>
@@ -4594,7 +4579,7 @@
       </c>
     </row>
     <row r="114" spans="1:7" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="36" t="s">
+      <c r="A114" s="71" t="s">
         <v>96</v>
       </c>
       <c r="B114" s="7" t="s">
@@ -4611,7 +4596,7 @@
       <c r="G114" s="30"/>
     </row>
     <row r="115" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A115" s="37"/>
+      <c r="A115" s="72"/>
       <c r="B115" s="7" t="s">
         <v>75</v>
       </c>
@@ -4626,7 +4611,7 @@
       <c r="G115" s="23"/>
     </row>
     <row r="116" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A116" s="37"/>
+      <c r="A116" s="72"/>
       <c r="B116" s="31" t="s">
         <v>263</v>
       </c>
@@ -4640,7 +4625,7 @@
       <c r="G116" s="13"/>
     </row>
     <row r="117" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A117" s="37"/>
+      <c r="A117" s="72"/>
       <c r="B117" s="31" t="s">
         <v>361</v>
       </c>
@@ -4654,7 +4639,7 @@
       <c r="G117" s="13"/>
     </row>
     <row r="118" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A118" s="37"/>
+      <c r="A118" s="72"/>
       <c r="B118" s="31" t="s">
         <v>271</v>
       </c>
@@ -4670,7 +4655,7 @@
       <c r="G118" s="13"/>
     </row>
     <row r="119" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A119" s="37"/>
+      <c r="A119" s="72"/>
       <c r="B119" s="31" t="s">
         <v>281</v>
       </c>
@@ -4684,7 +4669,7 @@
       <c r="G119" s="13"/>
     </row>
     <row r="120" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A120" s="37"/>
+      <c r="A120" s="72"/>
       <c r="B120" s="31" t="s">
         <v>318</v>
       </c>
@@ -4698,7 +4683,7 @@
       <c r="G120" s="13"/>
     </row>
     <row r="121" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A121" s="37"/>
+      <c r="A121" s="72"/>
       <c r="B121" s="31" t="s">
         <v>351</v>
       </c>
@@ -4712,7 +4697,7 @@
       <c r="G121" s="13"/>
     </row>
     <row r="122" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A122" s="37"/>
+      <c r="A122" s="72"/>
       <c r="B122" s="31" t="s">
         <v>316</v>
       </c>
@@ -4726,7 +4711,7 @@
       <c r="G122" s="13"/>
     </row>
     <row r="123" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A123" s="37"/>
+      <c r="A123" s="72"/>
       <c r="B123" s="31" t="s">
         <v>269</v>
       </c>
@@ -4740,24 +4725,24 @@
       <c r="G123" s="13"/>
     </row>
     <row r="124" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A124" s="37"/>
-      <c r="B124" s="49" t="s">
+      <c r="A124" s="72"/>
+      <c r="B124" s="35" t="s">
         <v>480</v>
       </c>
-      <c r="C124" s="49" t="s">
+      <c r="C124" s="35" t="s">
         <v>480</v>
       </c>
-      <c r="D124" s="49"/>
-      <c r="E124" s="49" t="s">
+      <c r="D124" s="35"/>
+      <c r="E124" s="35" t="s">
         <v>481</v>
       </c>
-      <c r="F124" s="49" t="s">
+      <c r="F124" s="35" t="s">
         <v>482</v>
       </c>
       <c r="G124" s="13"/>
     </row>
     <row r="125" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A125" s="37"/>
+      <c r="A125" s="72"/>
       <c r="B125" s="31" t="s">
         <v>322</v>
       </c>
@@ -4769,7 +4754,7 @@
       </c>
     </row>
     <row r="126" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A126" s="37"/>
+      <c r="A126" s="72"/>
       <c r="B126" s="31" t="s">
         <v>526</v>
       </c>
@@ -4784,7 +4769,7 @@
       <c r="G126" s="13"/>
     </row>
     <row r="127" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A127" s="37"/>
+      <c r="A127" s="72"/>
       <c r="B127" s="32" t="s">
         <v>584</v>
       </c>
@@ -4801,7 +4786,7 @@
       <c r="G127" s="13"/>
     </row>
     <row r="128" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A128" s="37"/>
+      <c r="A128" s="72"/>
       <c r="B128" s="31" t="s">
         <v>674</v>
       </c>
@@ -4818,7 +4803,7 @@
       <c r="G128" s="13"/>
     </row>
     <row r="129" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A129" s="37"/>
+      <c r="A129" s="72"/>
       <c r="B129" s="32"/>
       <c r="C129" s="31"/>
       <c r="D129" s="31"/>
@@ -4827,7 +4812,7 @@
       <c r="G129" s="13"/>
     </row>
     <row r="130" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A130" s="37"/>
+      <c r="A130" s="72"/>
       <c r="B130" s="32"/>
       <c r="C130" s="31"/>
       <c r="D130" s="31"/>
@@ -4836,7 +4821,7 @@
       <c r="G130" s="13"/>
     </row>
     <row r="131" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A131" s="37"/>
+      <c r="A131" s="72"/>
       <c r="B131" s="32"/>
       <c r="C131" s="31"/>
       <c r="D131" s="31"/>
@@ -4845,7 +4830,7 @@
       <c r="G131" s="13"/>
     </row>
     <row r="132" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A132" s="37"/>
+      <c r="A132" s="72"/>
       <c r="B132" s="32"/>
       <c r="C132" s="31"/>
       <c r="D132" s="31"/>
@@ -4854,7 +4839,7 @@
       <c r="G132" s="13"/>
     </row>
     <row r="133" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="38"/>
+      <c r="A133" s="73"/>
       <c r="B133" s="24"/>
       <c r="C133" s="24"/>
       <c r="D133" s="25"/>
@@ -4863,7 +4848,7 @@
       <c r="G133" s="16"/>
     </row>
     <row r="134" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="43" t="s">
+      <c r="A134" s="83" t="s">
         <v>444</v>
       </c>
       <c r="B134" s="31" t="s">
@@ -4881,7 +4866,7 @@
       </c>
     </row>
     <row r="135" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A135" s="44"/>
+      <c r="A135" s="84"/>
       <c r="B135" s="31" t="s">
         <v>127</v>
       </c>
@@ -4897,7 +4882,7 @@
       <c r="G135" s="13"/>
     </row>
     <row r="136" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A136" s="44"/>
+      <c r="A136" s="84"/>
       <c r="B136" s="31" t="s">
         <v>135</v>
       </c>
@@ -4911,7 +4896,7 @@
       <c r="G136" s="13"/>
     </row>
     <row r="137" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A137" s="44"/>
+      <c r="A137" s="84"/>
       <c r="B137" s="31" t="s">
         <v>137</v>
       </c>
@@ -4925,7 +4910,7 @@
       <c r="G137" s="13"/>
     </row>
     <row r="138" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A138" s="44"/>
+      <c r="A138" s="84"/>
       <c r="B138" s="31" t="s">
         <v>162</v>
       </c>
@@ -4938,7 +4923,7 @@
       <c r="G138" s="13"/>
     </row>
     <row r="139" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A139" s="44"/>
+      <c r="A139" s="84"/>
       <c r="B139" s="31" t="s">
         <v>162</v>
       </c>
@@ -4954,7 +4939,7 @@
       <c r="G139" s="13"/>
     </row>
     <row r="140" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A140" s="44"/>
+      <c r="A140" s="84"/>
       <c r="B140" s="31" t="s">
         <v>175</v>
       </c>
@@ -4968,7 +4953,7 @@
       <c r="G140" s="13"/>
     </row>
     <row r="141" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A141" s="44"/>
+      <c r="A141" s="84"/>
       <c r="B141" s="31" t="s">
         <v>238</v>
       </c>
@@ -4982,7 +4967,7 @@
       <c r="G141" s="13"/>
     </row>
     <row r="142" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A142" s="44"/>
+      <c r="A142" s="84"/>
       <c r="B142" s="31" t="s">
         <v>242</v>
       </c>
@@ -4998,7 +4983,7 @@
       <c r="G142" s="13"/>
     </row>
     <row r="143" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A143" s="44"/>
+      <c r="A143" s="84"/>
       <c r="B143" s="31" t="s">
         <v>273</v>
       </c>
@@ -5012,7 +4997,7 @@
       <c r="G143" s="13"/>
     </row>
     <row r="144" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A144" s="44"/>
+      <c r="A144" s="84"/>
       <c r="B144" s="31" t="s">
         <v>338</v>
       </c>
@@ -5028,7 +5013,7 @@
       <c r="G144" s="13"/>
     </row>
     <row r="145" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A145" s="44"/>
+      <c r="A145" s="84"/>
       <c r="B145" s="31" t="s">
         <v>338</v>
       </c>
@@ -5041,88 +5026,88 @@
       <c r="G145" s="13"/>
     </row>
     <row r="146" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A146" s="44"/>
-      <c r="B146" s="61" t="s">
+      <c r="A146" s="84"/>
+      <c r="B146" s="36" t="s">
         <v>427</v>
       </c>
-      <c r="C146" s="61" t="s">
+      <c r="C146" s="36" t="s">
         <v>428</v>
       </c>
-      <c r="D146" s="61"/>
-      <c r="E146" s="61" t="s">
+      <c r="D146" s="36"/>
+      <c r="E146" s="36" t="s">
         <v>429</v>
       </c>
       <c r="F146" s="31"/>
       <c r="G146" s="13"/>
     </row>
     <row r="147" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A147" s="44"/>
-      <c r="B147" s="61" t="s">
+      <c r="A147" s="84"/>
+      <c r="B147" s="36" t="s">
         <v>438</v>
       </c>
-      <c r="C147" s="61" t="s">
+      <c r="C147" s="36" t="s">
         <v>439</v>
       </c>
-      <c r="D147" s="61"/>
-      <c r="E147" s="61" t="s">
+      <c r="D147" s="36"/>
+      <c r="E147" s="36" t="s">
         <v>440</v>
       </c>
       <c r="F147" s="31"/>
       <c r="G147" s="13"/>
     </row>
     <row r="148" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A148" s="44"/>
-      <c r="B148" s="49" t="s">
+      <c r="A148" s="84"/>
+      <c r="B148" s="35" t="s">
         <v>472</v>
       </c>
-      <c r="C148" s="49" t="s">
+      <c r="C148" s="35" t="s">
         <v>473</v>
       </c>
-      <c r="D148" s="49"/>
-      <c r="E148" s="49" t="s">
+      <c r="D148" s="35"/>
+      <c r="E148" s="35" t="s">
         <v>474</v>
       </c>
-      <c r="F148" s="49" t="s">
+      <c r="F148" s="35" t="s">
         <v>475</v>
       </c>
       <c r="G148" s="13"/>
     </row>
     <row r="149" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A149" s="44"/>
-      <c r="B149" s="49" t="s">
+      <c r="A149" s="84"/>
+      <c r="B149" s="35" t="s">
         <v>398</v>
       </c>
-      <c r="C149" s="49" t="s">
+      <c r="C149" s="35" t="s">
         <v>399</v>
       </c>
-      <c r="D149" s="49"/>
-      <c r="E149" s="49" t="s">
+      <c r="D149" s="35"/>
+      <c r="E149" s="35" t="s">
         <v>400</v>
       </c>
-      <c r="F149" s="49" t="s">
+      <c r="F149" s="35" t="s">
         <v>401</v>
       </c>
       <c r="G149" s="13"/>
     </row>
     <row r="150" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A150" s="44"/>
-      <c r="B150" s="49" t="s">
+      <c r="A150" s="84"/>
+      <c r="B150" s="35" t="s">
         <v>469</v>
       </c>
-      <c r="C150" s="49" t="s">
+      <c r="C150" s="35" t="s">
         <v>469</v>
       </c>
-      <c r="D150" s="49"/>
-      <c r="E150" s="49" t="s">
+      <c r="D150" s="35"/>
+      <c r="E150" s="35" t="s">
         <v>470</v>
       </c>
-      <c r="F150" s="49" t="s">
+      <c r="F150" s="35" t="s">
         <v>471</v>
       </c>
       <c r="G150" s="13"/>
     </row>
     <row r="151" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A151" s="44"/>
+      <c r="A151" s="84"/>
       <c r="B151" s="31" t="s">
         <v>285</v>
       </c>
@@ -5132,11 +5117,11 @@
       <c r="E151" s="31" t="s">
         <v>309</v>
       </c>
-      <c r="F151" s="49"/>
+      <c r="F151" s="35"/>
       <c r="G151" s="13"/>
     </row>
     <row r="152" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A152" s="44"/>
+      <c r="A152" s="84"/>
       <c r="B152" s="31" t="s">
         <v>187</v>
       </c>
@@ -5146,11 +5131,11 @@
       <c r="E152" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="F152" s="49"/>
+      <c r="F152" s="35"/>
       <c r="G152" s="13"/>
     </row>
     <row r="153" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A153" s="44"/>
+      <c r="A153" s="84"/>
       <c r="B153" s="7" t="s">
         <v>116</v>
       </c>
@@ -5166,7 +5151,7 @@
       <c r="G153" s="13"/>
     </row>
     <row r="154" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A154" s="44"/>
+      <c r="A154" s="84"/>
       <c r="B154" s="31" t="s">
         <v>125</v>
       </c>
@@ -5181,7 +5166,7 @@
       <c r="G154" s="13"/>
     </row>
     <row r="155" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A155" s="44"/>
+      <c r="A155" s="84"/>
       <c r="B155" s="31" t="s">
         <v>438</v>
       </c>
@@ -5196,7 +5181,7 @@
       <c r="G155" s="13"/>
     </row>
     <row r="156" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A156" s="44"/>
+      <c r="A156" s="84"/>
       <c r="B156" s="31" t="s">
         <v>710</v>
       </c>
@@ -5211,7 +5196,7 @@
       <c r="G156" s="13"/>
     </row>
     <row r="157" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A157" s="44"/>
+      <c r="A157" s="84"/>
       <c r="B157" s="31"/>
       <c r="C157" s="31"/>
       <c r="D157" s="31"/>
@@ -5220,7 +5205,7 @@
       <c r="G157" s="13"/>
     </row>
     <row r="158" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A158" s="44"/>
+      <c r="A158" s="84"/>
       <c r="B158" s="31"/>
       <c r="C158" s="31"/>
       <c r="D158" s="31"/>
@@ -5229,7 +5214,7 @@
       <c r="G158" s="13"/>
     </row>
     <row r="159" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A159" s="44"/>
+      <c r="A159" s="84"/>
       <c r="B159" s="31"/>
       <c r="C159" s="31"/>
       <c r="D159" s="31"/>
@@ -5238,7 +5223,7 @@
       <c r="G159" s="13"/>
     </row>
     <row r="160" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A160" s="44"/>
+      <c r="A160" s="84"/>
       <c r="B160" s="7"/>
       <c r="C160" s="7"/>
       <c r="E160" s="7"/>
@@ -5246,16 +5231,16 @@
       <c r="G160" s="13"/>
     </row>
     <row r="161" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="45"/>
-      <c r="B161" s="64"/>
-      <c r="C161" s="64"/>
-      <c r="D161" s="64"/>
-      <c r="E161" s="64"/>
-      <c r="F161" s="64"/>
+      <c r="A161" s="85"/>
+      <c r="B161" s="39"/>
+      <c r="C161" s="39"/>
+      <c r="D161" s="39"/>
+      <c r="E161" s="39"/>
+      <c r="F161" s="39"/>
       <c r="G161" s="16"/>
     </row>
     <row r="162" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="114" t="s">
+      <c r="A162" s="66" t="s">
         <v>759</v>
       </c>
       <c r="B162" s="31" t="s">
@@ -5274,7 +5259,7 @@
       <c r="G162" s="13"/>
     </row>
     <row r="163" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="114"/>
+      <c r="A163" s="66"/>
       <c r="B163" s="31"/>
       <c r="C163" s="31"/>
       <c r="E163" s="31"/>
@@ -5282,16 +5267,16 @@
       <c r="G163" s="13"/>
     </row>
     <row r="164" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="115"/>
-      <c r="B164" s="61"/>
-      <c r="C164" s="61"/>
-      <c r="D164" s="61"/>
-      <c r="E164" s="61"/>
+      <c r="A164" s="67"/>
+      <c r="B164" s="36"/>
+      <c r="C164" s="36"/>
+      <c r="D164" s="36"/>
+      <c r="E164" s="36"/>
       <c r="F164" s="18"/>
       <c r="G164" s="13"/>
     </row>
     <row r="165" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="116"/>
+      <c r="A165" s="68"/>
       <c r="B165" s="33"/>
       <c r="C165" s="33"/>
       <c r="D165" s="33"/>
@@ -5300,7 +5285,7 @@
       <c r="G165" s="16"/>
     </row>
     <row r="166" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="53" t="s">
+      <c r="A166" s="89" t="s">
         <v>407</v>
       </c>
       <c r="B166" s="31" t="s">
@@ -5316,7 +5301,7 @@
       <c r="G166" s="13"/>
     </row>
     <row r="167" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A167" s="54"/>
+      <c r="A167" s="90"/>
       <c r="B167" s="7" t="s">
         <v>81</v>
       </c>
@@ -5331,7 +5316,7 @@
       <c r="G167" s="13"/>
     </row>
     <row r="168" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A168" s="54"/>
+      <c r="A168" s="90"/>
       <c r="B168" s="7" t="s">
         <v>73</v>
       </c>
@@ -5348,7 +5333,7 @@
       <c r="G168" s="13"/>
     </row>
     <row r="169" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A169" s="54"/>
+      <c r="A169" s="90"/>
       <c r="B169" s="31" t="s">
         <v>131</v>
       </c>
@@ -5362,7 +5347,7 @@
       <c r="G169" s="13"/>
     </row>
     <row r="170" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A170" s="54"/>
+      <c r="A170" s="90"/>
       <c r="B170" s="31" t="s">
         <v>549</v>
       </c>
@@ -5377,7 +5362,7 @@
       <c r="G170" s="13"/>
     </row>
     <row r="171" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A171" s="54"/>
+      <c r="A171" s="90"/>
       <c r="B171" s="31" t="s">
         <v>692</v>
       </c>
@@ -5392,7 +5377,7 @@
       <c r="G171" s="13"/>
     </row>
     <row r="172" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A172" s="54"/>
+      <c r="A172" s="90"/>
       <c r="B172" s="31" t="s">
         <v>707</v>
       </c>
@@ -5407,11 +5392,11 @@
       <c r="G172" s="13"/>
     </row>
     <row r="173" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="55"/>
+      <c r="A173" s="91"/>
       <c r="G173" s="16"/>
     </row>
     <row r="174" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="102" t="s">
+      <c r="A174" s="60" t="s">
         <v>500</v>
       </c>
       <c r="B174" s="31" t="s">
@@ -5427,7 +5412,7 @@
       <c r="G174" s="13"/>
     </row>
     <row r="175" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="103"/>
+      <c r="A175" s="61"/>
       <c r="B175" s="7"/>
       <c r="C175" s="7"/>
       <c r="D175" s="8"/>
@@ -5436,7 +5421,7 @@
       <c r="G175" s="13"/>
     </row>
     <row r="176" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="103"/>
+      <c r="A176" s="61"/>
       <c r="B176" s="7"/>
       <c r="C176" s="7"/>
       <c r="D176" s="8"/>
@@ -5445,7 +5430,7 @@
       <c r="G176" s="13"/>
     </row>
     <row r="177" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="103"/>
+      <c r="A177" s="61"/>
       <c r="B177" s="31"/>
       <c r="C177" s="31"/>
       <c r="E177" s="31"/>
@@ -5453,7 +5438,7 @@
       <c r="G177" s="13"/>
     </row>
     <row r="178" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="103"/>
+      <c r="A178" s="61"/>
       <c r="B178" s="7"/>
       <c r="C178" s="7"/>
       <c r="D178" s="8"/>
@@ -5462,30 +5447,30 @@
       <c r="G178" s="13"/>
     </row>
     <row r="179" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="104"/>
+      <c r="A179" s="62"/>
       <c r="G179" s="16"/>
     </row>
     <row r="180" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="69" t="s">
+      <c r="A180" s="49" t="s">
         <v>493</v>
       </c>
-      <c r="B180" s="49" t="s">
+      <c r="B180" s="35" t="s">
         <v>391</v>
       </c>
-      <c r="C180" s="49" t="s">
+      <c r="C180" s="35" t="s">
         <v>391</v>
       </c>
-      <c r="D180" s="49"/>
-      <c r="E180" s="49" t="s">
+      <c r="D180" s="35"/>
+      <c r="E180" s="35" t="s">
         <v>392</v>
       </c>
-      <c r="F180" s="49" t="s">
+      <c r="F180" s="35" t="s">
         <v>393</v>
       </c>
       <c r="G180" s="13"/>
     </row>
     <row r="181" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A181" s="70"/>
+      <c r="A181" s="50"/>
       <c r="B181" s="31" t="s">
         <v>179</v>
       </c>
@@ -5499,7 +5484,7 @@
       <c r="G181" s="13"/>
     </row>
     <row r="182" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A182" s="70"/>
+      <c r="A182" s="50"/>
       <c r="B182" s="7" t="s">
         <v>83</v>
       </c>
@@ -5514,7 +5499,7 @@
       <c r="G182" s="13"/>
     </row>
     <row r="183" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A183" s="70"/>
+      <c r="A183" s="50"/>
       <c r="B183" s="31" t="s">
         <v>293</v>
       </c>
@@ -5528,7 +5513,7 @@
       <c r="G183" s="13"/>
     </row>
     <row r="184" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A184" s="70"/>
+      <c r="A184" s="50"/>
       <c r="B184" s="31" t="s">
         <v>563</v>
       </c>
@@ -5545,7 +5530,7 @@
       <c r="G184" s="13"/>
     </row>
     <row r="185" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A185" s="70"/>
+      <c r="A185" s="50"/>
       <c r="B185" s="31" t="s">
         <v>125</v>
       </c>
@@ -5560,7 +5545,7 @@
       <c r="G185" s="13"/>
     </row>
     <row r="186" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A186" s="70"/>
+      <c r="A186" s="50"/>
       <c r="B186" s="31" t="s">
         <v>552</v>
       </c>
@@ -5575,7 +5560,7 @@
       <c r="G186" s="13"/>
     </row>
     <row r="187" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A187" s="70"/>
+      <c r="A187" s="50"/>
       <c r="B187" s="31" t="s">
         <v>707</v>
       </c>
@@ -5590,7 +5575,7 @@
       <c r="G187" s="13"/>
     </row>
     <row r="188" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A188" s="70"/>
+      <c r="A188" s="50"/>
       <c r="B188" s="31" t="s">
         <v>737</v>
       </c>
@@ -5605,7 +5590,7 @@
       <c r="G188" s="13"/>
     </row>
     <row r="189" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A189" s="70"/>
+      <c r="A189" s="50"/>
       <c r="B189" s="31" t="s">
         <v>746</v>
       </c>
@@ -5620,7 +5605,7 @@
       <c r="G189" s="13"/>
     </row>
     <row r="190" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A190" s="70"/>
+      <c r="A190" s="50"/>
       <c r="B190" s="31"/>
       <c r="C190" s="31"/>
       <c r="D190" s="31"/>
@@ -5629,7 +5614,7 @@
       <c r="G190" s="13"/>
     </row>
     <row r="191" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A191" s="70"/>
+      <c r="A191" s="50"/>
       <c r="B191" s="31"/>
       <c r="C191" s="31"/>
       <c r="D191" s="31"/>
@@ -5638,14 +5623,14 @@
       <c r="G191" s="13"/>
     </row>
     <row r="192" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="107"/>
+      <c r="A192" s="99"/>
       <c r="F192" s="19"/>
       <c r="G192" s="16" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="109" t="s">
+      <c r="A193" s="63" t="s">
         <v>106</v>
       </c>
       <c r="B193" s="7" t="s">
@@ -5660,7 +5645,7 @@
       <c r="G193" s="30"/>
     </row>
     <row r="194" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A194" s="110"/>
+      <c r="A194" s="64"/>
       <c r="B194" s="7" t="s">
         <v>97</v>
       </c>
@@ -5675,14 +5660,13 @@
       <c r="G194" s="23"/>
     </row>
     <row r="195" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A195" s="110"/>
+      <c r="A195" s="64"/>
       <c r="B195" s="31" t="s">
         <v>328</v>
       </c>
       <c r="C195" s="31" t="s">
         <v>329</v>
       </c>
-      <c r="D195" s="73"/>
       <c r="E195" s="31" t="s">
         <v>337</v>
       </c>
@@ -5690,14 +5674,13 @@
       <c r="G195" s="13"/>
     </row>
     <row r="196" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A196" s="110"/>
+      <c r="A196" s="64"/>
       <c r="B196" s="31" t="s">
         <v>373</v>
       </c>
       <c r="C196" s="31" t="s">
         <v>374</v>
       </c>
-      <c r="D196" s="73"/>
       <c r="E196" s="31" t="s">
         <v>383</v>
       </c>
@@ -5705,185 +5688,185 @@
       <c r="G196" s="13"/>
     </row>
     <row r="197" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A197" s="110"/>
-      <c r="B197" s="61" t="s">
+      <c r="A197" s="64"/>
+      <c r="B197" s="36" t="s">
         <v>441</v>
       </c>
-      <c r="C197" s="61" t="s">
+      <c r="C197" s="36" t="s">
         <v>442</v>
       </c>
-      <c r="D197" s="56" t="s">
+      <c r="D197" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E197" s="61" t="s">
+      <c r="E197" s="36" t="s">
         <v>443</v>
       </c>
-      <c r="F197" s="61" t="s">
+      <c r="F197" s="36" t="s">
         <v>405</v>
       </c>
       <c r="G197" s="13"/>
     </row>
     <row r="198" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A198" s="110"/>
-      <c r="B198" s="61" t="s">
+      <c r="A198" s="64"/>
+      <c r="B198" s="36" t="s">
         <v>425</v>
       </c>
-      <c r="C198" s="61" t="s">
+      <c r="C198" s="36" t="s">
         <v>425</v>
       </c>
-      <c r="D198" s="56" t="s">
+      <c r="D198" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E198" s="61" t="s">
+      <c r="E198" s="36" t="s">
         <v>426</v>
       </c>
-      <c r="F198" s="61" t="s">
+      <c r="F198" s="36" t="s">
         <v>405</v>
       </c>
       <c r="G198" s="13"/>
     </row>
     <row r="199" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A199" s="110"/>
-      <c r="B199" s="49" t="s">
+      <c r="A199" s="64"/>
+      <c r="B199" s="35" t="s">
         <v>483</v>
       </c>
-      <c r="C199" s="49" t="s">
+      <c r="C199" s="35" t="s">
         <v>483</v>
       </c>
-      <c r="D199" s="106"/>
-      <c r="E199" s="49" t="s">
+      <c r="D199" s="35"/>
+      <c r="E199" s="35" t="s">
         <v>484</v>
       </c>
-      <c r="F199" s="49" t="s">
+      <c r="F199" s="35" t="s">
         <v>485</v>
       </c>
       <c r="G199" s="13"/>
     </row>
     <row r="200" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A200" s="110"/>
-      <c r="B200" s="49" t="s">
+      <c r="A200" s="64"/>
+      <c r="B200" s="35" t="s">
         <v>476</v>
       </c>
-      <c r="C200" s="49" t="s">
+      <c r="C200" s="35" t="s">
         <v>477</v>
       </c>
-      <c r="D200" s="106"/>
-      <c r="E200" s="49" t="s">
+      <c r="D200" s="35"/>
+      <c r="E200" s="35" t="s">
         <v>478</v>
       </c>
-      <c r="F200" s="49" t="s">
+      <c r="F200" s="35" t="s">
         <v>479</v>
       </c>
       <c r="G200" s="13"/>
     </row>
     <row r="201" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A201" s="110"/>
-      <c r="B201" s="61" t="s">
+      <c r="A201" s="64"/>
+      <c r="B201" s="36" t="s">
         <v>414</v>
       </c>
-      <c r="C201" s="61" t="s">
+      <c r="C201" s="36" t="s">
         <v>414</v>
       </c>
-      <c r="D201" s="56" t="s">
+      <c r="D201" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E201" s="61" t="s">
+      <c r="E201" s="36" t="s">
         <v>415</v>
       </c>
-      <c r="F201" s="61" t="s">
+      <c r="F201" s="36" t="s">
         <v>405</v>
       </c>
       <c r="G201" s="13"/>
     </row>
     <row r="202" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A202" s="110"/>
-      <c r="B202" s="49" t="s">
+      <c r="A202" s="64"/>
+      <c r="B202" s="35" t="s">
         <v>402</v>
       </c>
-      <c r="C202" s="49" t="s">
+      <c r="C202" s="35" t="s">
         <v>403</v>
       </c>
-      <c r="D202" s="56" t="s">
+      <c r="D202" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E202" s="49" t="s">
+      <c r="E202" s="35" t="s">
         <v>404</v>
       </c>
-      <c r="F202" s="49" t="s">
+      <c r="F202" s="35" t="s">
         <v>405</v>
       </c>
       <c r="G202" s="13"/>
     </row>
     <row r="203" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A203" s="110"/>
-      <c r="B203" s="49" t="s">
+      <c r="A203" s="64"/>
+      <c r="B203" s="35" t="s">
         <v>396</v>
       </c>
-      <c r="C203" s="49" t="s">
+      <c r="C203" s="35" t="s">
         <v>396</v>
       </c>
-      <c r="D203" s="106"/>
-      <c r="E203" s="49" t="s">
+      <c r="D203" s="35"/>
+      <c r="E203" s="35" t="s">
         <v>397</v>
       </c>
-      <c r="F203" s="61"/>
+      <c r="F203" s="36"/>
       <c r="G203" s="13"/>
     </row>
     <row r="204" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A204" s="110"/>
-      <c r="B204" s="61" t="s">
+      <c r="A204" s="64"/>
+      <c r="B204" s="36" t="s">
         <v>409</v>
       </c>
-      <c r="C204" s="61" t="s">
+      <c r="C204" s="36" t="s">
         <v>410</v>
       </c>
-      <c r="D204" s="113"/>
-      <c r="E204" s="61" t="s">
+      <c r="D204" s="36"/>
+      <c r="E204" s="36" t="s">
         <v>411</v>
       </c>
-      <c r="F204" s="61"/>
+      <c r="F204" s="36"/>
       <c r="G204" s="13"/>
     </row>
     <row r="205" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A205" s="110"/>
-      <c r="B205" s="49" t="s">
+      <c r="A205" s="64"/>
+      <c r="B205" s="35" t="s">
         <v>445</v>
       </c>
-      <c r="C205" s="49" t="s">
+      <c r="C205" s="35" t="s">
         <v>445</v>
       </c>
-      <c r="D205" s="56" t="s">
+      <c r="D205" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E205" s="49" t="s">
+      <c r="E205" s="35" t="s">
         <v>446</v>
       </c>
-      <c r="F205" s="49" t="s">
+      <c r="F205" s="35" t="s">
         <v>405</v>
       </c>
       <c r="G205" s="13"/>
     </row>
     <row r="206" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A206" s="111"/>
-      <c r="B206" s="49" t="s">
+      <c r="A206" s="65"/>
+      <c r="B206" s="35" t="s">
         <v>447</v>
       </c>
-      <c r="C206" s="49" t="s">
+      <c r="C206" s="35" t="s">
         <v>448</v>
       </c>
-      <c r="D206" s="56" t="s">
+      <c r="D206" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E206" s="49" t="s">
+      <c r="E206" s="35" t="s">
         <v>449</v>
       </c>
-      <c r="F206" s="49" t="s">
+      <c r="F206" s="35" t="s">
         <v>450</v>
       </c>
       <c r="G206" s="13"/>
     </row>
     <row r="207" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A207" s="111"/>
+      <c r="A207" s="65"/>
       <c r="B207" s="31" t="s">
         <v>567</v>
       </c>
@@ -5897,10 +5880,10 @@
       <c r="F207" s="31" t="s">
         <v>570</v>
       </c>
-      <c r="G207" s="50"/>
+      <c r="G207" s="18"/>
     </row>
     <row r="208" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A208" s="111"/>
+      <c r="A208" s="65"/>
       <c r="B208" s="31" t="s">
         <v>679</v>
       </c>
@@ -5917,25 +5900,25 @@
       <c r="G208" s="13"/>
     </row>
     <row r="209" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A209" s="111"/>
-      <c r="B209" s="49"/>
-      <c r="C209" s="49"/>
-      <c r="D209" s="56"/>
-      <c r="E209" s="49"/>
-      <c r="F209" s="49"/>
+      <c r="A209" s="65"/>
+      <c r="B209" s="35"/>
+      <c r="C209" s="35"/>
+      <c r="D209" s="4"/>
+      <c r="E209" s="35"/>
+      <c r="F209" s="35"/>
       <c r="G209" s="13"/>
     </row>
     <row r="210" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A210" s="112"/>
-      <c r="B210" s="49"/>
-      <c r="C210" s="49"/>
-      <c r="D210" s="56"/>
-      <c r="E210" s="49"/>
-      <c r="F210" s="49"/>
+      <c r="A210" s="55"/>
+      <c r="B210" s="35"/>
+      <c r="C210" s="35"/>
+      <c r="D210" s="4"/>
+      <c r="E210" s="35"/>
+      <c r="F210" s="35"/>
       <c r="G210" s="13"/>
     </row>
     <row r="211" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="69" t="s">
+      <c r="A211" s="49" t="s">
         <v>760</v>
       </c>
       <c r="B211" s="31" t="s">
@@ -5952,7 +5935,7 @@
       <c r="G211" s="13"/>
     </row>
     <row r="212" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="70"/>
+      <c r="A212" s="50"/>
       <c r="B212" s="31"/>
       <c r="C212" s="31"/>
       <c r="E212" s="31"/>
@@ -5960,7 +5943,7 @@
       <c r="G212" s="13"/>
     </row>
     <row r="213" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="70"/>
+      <c r="A213" s="50"/>
       <c r="B213" s="31"/>
       <c r="C213" s="31"/>
       <c r="D213" s="31"/>
@@ -5969,7 +5952,7 @@
       <c r="G213" s="13"/>
     </row>
     <row r="214" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="70"/>
+      <c r="A214" s="50"/>
       <c r="B214" s="7"/>
       <c r="C214" s="7"/>
       <c r="D214" s="8"/>
@@ -5978,7 +5961,7 @@
       <c r="G214" s="13"/>
     </row>
     <row r="215" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="70"/>
+      <c r="A215" s="50"/>
       <c r="B215" s="7"/>
       <c r="C215" s="7"/>
       <c r="D215" s="8"/>
@@ -5987,7 +5970,7 @@
       <c r="G215" s="13"/>
     </row>
     <row r="216" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="70"/>
+      <c r="A216" s="50"/>
       <c r="B216" s="7"/>
       <c r="C216" s="7"/>
       <c r="D216" s="8"/>
@@ -5996,7 +5979,7 @@
       <c r="G216" s="13"/>
     </row>
     <row r="217" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="70"/>
+      <c r="A217" s="50"/>
       <c r="B217" s="7"/>
       <c r="C217" s="7"/>
       <c r="D217" s="8"/>
@@ -6005,14 +5988,14 @@
       <c r="G217" s="13"/>
     </row>
     <row r="218" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="71"/>
+      <c r="A218" s="51"/>
       <c r="F218" s="19"/>
       <c r="G218" s="16" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="219" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="108" t="s">
+      <c r="A219" s="98" t="s">
         <v>492</v>
       </c>
       <c r="B219" s="31" t="s">
@@ -6028,7 +6011,7 @@
       <c r="G219" s="12"/>
     </row>
     <row r="220" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A220" s="66"/>
+      <c r="A220" s="96"/>
       <c r="B220" s="31" t="s">
         <v>187</v>
       </c>
@@ -6042,7 +6025,7 @@
       <c r="G220" s="13"/>
     </row>
     <row r="221" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A221" s="66"/>
+      <c r="A221" s="96"/>
       <c r="B221" s="31" t="s">
         <v>387</v>
       </c>
@@ -6056,7 +6039,7 @@
       <c r="G221" s="13"/>
     </row>
     <row r="222" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A222" s="66"/>
+      <c r="A222" s="96"/>
       <c r="B222" s="31" t="s">
         <v>275</v>
       </c>
@@ -6070,7 +6053,7 @@
       <c r="G222" s="13"/>
     </row>
     <row r="223" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A223" s="66"/>
+      <c r="A223" s="96"/>
       <c r="B223" s="31" t="s">
         <v>367</v>
       </c>
@@ -6084,7 +6067,7 @@
       <c r="G223" s="13"/>
     </row>
     <row r="224" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A224" s="66"/>
+      <c r="A224" s="96"/>
       <c r="B224" s="31" t="s">
         <v>375</v>
       </c>
@@ -6098,7 +6081,7 @@
       <c r="G224" s="13"/>
     </row>
     <row r="225" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A225" s="66"/>
+      <c r="A225" s="96"/>
       <c r="B225" s="31" t="s">
         <v>505</v>
       </c>
@@ -6113,7 +6096,7 @@
       <c r="G225" s="13"/>
     </row>
     <row r="226" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A226" s="66"/>
+      <c r="A226" s="96"/>
       <c r="B226" s="31" t="s">
         <v>529</v>
       </c>
@@ -6128,7 +6111,7 @@
       <c r="G226" s="13"/>
     </row>
     <row r="227" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A227" s="66"/>
+      <c r="A227" s="96"/>
       <c r="B227" s="31" t="s">
         <v>571</v>
       </c>
@@ -6143,7 +6126,7 @@
       <c r="G227" s="13"/>
     </row>
     <row r="228" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A228" s="66"/>
+      <c r="A228" s="96"/>
       <c r="B228" s="31" t="s">
         <v>588</v>
       </c>
@@ -6158,7 +6141,7 @@
       <c r="G228" s="13"/>
     </row>
     <row r="229" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A229" s="66"/>
+      <c r="A229" s="96"/>
       <c r="B229" s="31" t="s">
         <v>624</v>
       </c>
@@ -6173,7 +6156,7 @@
       <c r="G229" s="13"/>
     </row>
     <row r="230" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A230" s="66"/>
+      <c r="A230" s="96"/>
       <c r="B230" s="31" t="s">
         <v>698</v>
       </c>
@@ -6188,7 +6171,7 @@
       <c r="G230" s="13"/>
     </row>
     <row r="231" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A231" s="66"/>
+      <c r="A231" s="96"/>
       <c r="B231" s="31" t="s">
         <v>375</v>
       </c>
@@ -6205,7 +6188,7 @@
       <c r="G231" s="13"/>
     </row>
     <row r="232" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A232" s="66"/>
+      <c r="A232" s="96"/>
       <c r="B232" s="31" t="s">
         <v>731</v>
       </c>
@@ -6220,7 +6203,7 @@
       <c r="G232" s="13"/>
     </row>
     <row r="233" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A233" s="66"/>
+      <c r="A233" s="96"/>
       <c r="B233" s="31"/>
       <c r="C233" s="31"/>
       <c r="D233" s="31"/>
@@ -6229,12 +6212,12 @@
       <c r="G233" s="13"/>
     </row>
     <row r="234" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="67"/>
+      <c r="A234" s="97"/>
       <c r="F234" s="19"/>
       <c r="G234" s="16"/>
     </row>
     <row r="235" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="76" t="s">
+      <c r="A235" s="103" t="s">
         <v>495</v>
       </c>
       <c r="B235" s="31" t="s">
@@ -6250,7 +6233,7 @@
       <c r="G235" s="12"/>
     </row>
     <row r="236" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="77"/>
+      <c r="A236" s="104"/>
       <c r="B236" s="31" t="s">
         <v>240</v>
       </c>
@@ -6264,7 +6247,7 @@
       <c r="G236" s="13"/>
     </row>
     <row r="237" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="77"/>
+      <c r="A237" s="104"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
@@ -6273,7 +6256,7 @@
       <c r="G237" s="13"/>
     </row>
     <row r="238" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="77"/>
+      <c r="A238" s="104"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
@@ -6282,7 +6265,7 @@
       <c r="G238" s="13"/>
     </row>
     <row r="239" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="77"/>
+      <c r="A239" s="104"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
@@ -6291,7 +6274,7 @@
       <c r="G239" s="13"/>
     </row>
     <row r="240" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="77"/>
+      <c r="A240" s="104"/>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
@@ -6300,7 +6283,7 @@
       <c r="G240" s="13"/>
     </row>
     <row r="241" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="78"/>
+      <c r="A241" s="105"/>
       <c r="B241" s="31"/>
       <c r="C241" s="31"/>
       <c r="E241" s="31"/>
@@ -6308,7 +6291,7 @@
       <c r="G241" s="16"/>
     </row>
     <row r="242" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="69" t="s">
+      <c r="A242" s="49" t="s">
         <v>499</v>
       </c>
       <c r="B242" s="31" t="s">
@@ -6326,7 +6309,7 @@
       <c r="G242" s="13"/>
     </row>
     <row r="243" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="70"/>
+      <c r="A243" s="50"/>
       <c r="B243" s="31" t="s">
         <v>189</v>
       </c>
@@ -6340,7 +6323,7 @@
       <c r="G243" s="13"/>
     </row>
     <row r="244" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="70"/>
+      <c r="A244" s="50"/>
       <c r="B244" s="31" t="s">
         <v>725</v>
       </c>
@@ -6355,7 +6338,7 @@
       <c r="G244" s="13"/>
     </row>
     <row r="245" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="70"/>
+      <c r="A245" s="50"/>
       <c r="B245" s="7"/>
       <c r="C245" s="7"/>
       <c r="D245" s="8"/>
@@ -6364,7 +6347,7 @@
       <c r="G245" s="13"/>
     </row>
     <row r="246" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="70"/>
+      <c r="A246" s="50"/>
       <c r="B246" s="7"/>
       <c r="C246" s="7"/>
       <c r="D246" s="8"/>
@@ -6373,7 +6356,7 @@
       <c r="G246" s="13"/>
     </row>
     <row r="247" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="70"/>
+      <c r="A247" s="50"/>
       <c r="B247" s="7"/>
       <c r="C247" s="7"/>
       <c r="D247" s="8"/>
@@ -6382,7 +6365,7 @@
       <c r="G247" s="13"/>
     </row>
     <row r="248" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="70"/>
+      <c r="A248" s="50"/>
       <c r="B248" s="7"/>
       <c r="C248" s="7"/>
       <c r="D248" s="8"/>
@@ -6391,14 +6374,14 @@
       <c r="G248" s="13"/>
     </row>
     <row r="249" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="71"/>
+      <c r="A249" s="51"/>
       <c r="F249" s="19"/>
       <c r="G249" s="16" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="250" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="42" t="s">
+      <c r="A250" s="80" t="s">
         <v>47</v>
       </c>
       <c r="B250" s="10" t="s">
@@ -6417,7 +6400,7 @@
       <c r="G250" s="12"/>
     </row>
     <row r="251" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="90"/>
+      <c r="A251" s="81"/>
       <c r="B251" s="4" t="s">
         <v>51</v>
       </c>
@@ -6434,7 +6417,7 @@
       <c r="G251" s="13"/>
     </row>
     <row r="252" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="90"/>
+      <c r="A252" s="81"/>
       <c r="B252" s="4" t="s">
         <v>54</v>
       </c>
@@ -6449,7 +6432,7 @@
       <c r="G252" s="13"/>
     </row>
     <row r="253" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="90"/>
+      <c r="A253" s="81"/>
       <c r="B253" s="4" t="s">
         <v>57</v>
       </c>
@@ -6468,7 +6451,7 @@
       <c r="G253" s="13"/>
     </row>
     <row r="254" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="90"/>
+      <c r="A254" s="81"/>
       <c r="B254" s="4" t="s">
         <v>61</v>
       </c>
@@ -6485,7 +6468,7 @@
       <c r="G254" s="13"/>
     </row>
     <row r="255" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="90"/>
+      <c r="A255" s="81"/>
       <c r="B255" s="4" t="s">
         <v>64</v>
       </c>
@@ -6504,26 +6487,26 @@
       <c r="G255" s="13"/>
     </row>
     <row r="256" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="90"/>
-      <c r="B256" s="56" t="s">
+      <c r="A256" s="81"/>
+      <c r="B256" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C256" s="56" t="s">
+      <c r="C256" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D256" s="56" t="s">
+      <c r="D256" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E256" s="57" t="s">
+      <c r="E256" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F256" s="50" t="s">
+      <c r="F256" s="18" t="s">
         <v>60</v>
       </c>
       <c r="G256" s="13"/>
     </row>
     <row r="257" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A257" s="90"/>
+      <c r="A257" s="81"/>
       <c r="B257" s="31" t="s">
         <v>51</v>
       </c>
@@ -6533,20 +6516,20 @@
       <c r="E257" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="F257" s="50"/>
+      <c r="F257" s="18"/>
       <c r="G257" s="13"/>
     </row>
     <row r="258" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="90"/>
-      <c r="B258" s="56"/>
-      <c r="C258" s="56"/>
-      <c r="D258" s="56"/>
-      <c r="E258" s="57"/>
-      <c r="F258" s="50"/>
+      <c r="A258" s="81"/>
+      <c r="B258" s="4"/>
+      <c r="C258" s="4"/>
+      <c r="D258" s="4"/>
+      <c r="E258" s="9"/>
+      <c r="F258" s="18"/>
       <c r="G258" s="13"/>
     </row>
     <row r="259" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="90"/>
+      <c r="A259" s="81"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
@@ -6555,7 +6538,7 @@
       <c r="G259" s="13"/>
     </row>
     <row r="260" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A260" s="91"/>
+      <c r="A260" s="82"/>
       <c r="B260" s="14"/>
       <c r="C260" s="14"/>
       <c r="D260" s="14"/>
@@ -6564,7 +6547,7 @@
       <c r="G260" s="16"/>
     </row>
     <row r="261" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="58" t="s">
+      <c r="A261" s="92" t="s">
         <v>408</v>
       </c>
       <c r="B261" s="7" t="s">
@@ -6581,7 +6564,7 @@
       <c r="G261" s="12"/>
     </row>
     <row r="262" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A262" s="59"/>
+      <c r="A262" s="93"/>
       <c r="B262" s="31" t="s">
         <v>135</v>
       </c>
@@ -6595,7 +6578,7 @@
       <c r="G262" s="13"/>
     </row>
     <row r="263" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A263" s="59"/>
+      <c r="A263" s="93"/>
       <c r="B263" s="31" t="s">
         <v>324</v>
       </c>
@@ -6609,7 +6592,7 @@
       <c r="G263" s="13"/>
     </row>
     <row r="264" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="59"/>
+      <c r="A264" s="93"/>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
       <c r="D264" s="4"/>
@@ -6618,7 +6601,7 @@
       <c r="G264" s="13"/>
     </row>
     <row r="265" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="59"/>
+      <c r="A265" s="93"/>
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
@@ -6627,7 +6610,7 @@
       <c r="G265" s="13"/>
     </row>
     <row r="266" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="59"/>
+      <c r="A266" s="93"/>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
       <c r="D266" s="4"/>
@@ -6636,7 +6619,7 @@
       <c r="G266" s="13"/>
     </row>
     <row r="267" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A267" s="60"/>
+      <c r="A267" s="94"/>
       <c r="B267" s="14"/>
       <c r="C267" s="14"/>
       <c r="D267" s="14"/>
@@ -6645,7 +6628,7 @@
       <c r="G267" s="16"/>
     </row>
     <row r="268" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A268" s="87" t="s">
+      <c r="A268" s="46" t="s">
         <v>498</v>
       </c>
       <c r="B268" s="31" t="s">
@@ -6663,7 +6646,7 @@
       <c r="G268" s="12"/>
     </row>
     <row r="269" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A269" s="88"/>
+      <c r="A269" s="47"/>
       <c r="B269" s="31" t="s">
         <v>189</v>
       </c>
@@ -6677,7 +6660,7 @@
       <c r="G269" s="13"/>
     </row>
     <row r="270" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A270" s="88"/>
+      <c r="A270" s="47"/>
       <c r="B270" s="31" t="s">
         <v>532</v>
       </c>
@@ -6692,7 +6675,7 @@
       <c r="G270" s="13"/>
     </row>
     <row r="271" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="88"/>
+      <c r="A271" s="47"/>
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
       <c r="D271" s="4"/>
@@ -6701,7 +6684,7 @@
       <c r="G271" s="13"/>
     </row>
     <row r="272" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="88"/>
+      <c r="A272" s="47"/>
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
       <c r="D272" s="4"/>
@@ -6710,7 +6693,7 @@
       <c r="G272" s="13"/>
     </row>
     <row r="273" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="88"/>
+      <c r="A273" s="47"/>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
       <c r="D273" s="4"/>
@@ -6719,15 +6702,15 @@
       <c r="G273" s="13"/>
     </row>
     <row r="274" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="89"/>
+      <c r="A274" s="48"/>
       <c r="B274" s="31"/>
       <c r="C274" s="31"/>
       <c r="E274" s="31"/>
-      <c r="F274" s="50"/>
+      <c r="F274" s="18"/>
       <c r="G274" s="13"/>
     </row>
     <row r="275" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A275" s="79" t="s">
+      <c r="A275" s="40" t="s">
         <v>497</v>
       </c>
       <c r="B275" s="7" t="s">
@@ -6739,11 +6722,11 @@
       <c r="E275" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F275" s="50"/>
-      <c r="G275" s="50"/>
+      <c r="F275" s="18"/>
+      <c r="G275" s="18"/>
     </row>
     <row r="276" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A276" s="80"/>
+      <c r="A276" s="41"/>
       <c r="B276" s="31" t="s">
         <v>133</v>
       </c>
@@ -6757,7 +6740,7 @@
       <c r="G276" s="13"/>
     </row>
     <row r="277" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A277" s="80"/>
+      <c r="A277" s="41"/>
       <c r="B277" s="31" t="s">
         <v>265</v>
       </c>
@@ -6771,7 +6754,7 @@
       <c r="G277" s="13"/>
     </row>
     <row r="278" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A278" s="80"/>
+      <c r="A278" s="41"/>
       <c r="B278" s="31" t="s">
         <v>267</v>
       </c>
@@ -6785,7 +6768,7 @@
       <c r="G278" s="13"/>
     </row>
     <row r="279" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A279" s="80"/>
+      <c r="A279" s="41"/>
       <c r="B279" s="31" t="s">
         <v>343</v>
       </c>
@@ -6801,7 +6784,7 @@
       <c r="G279" s="13"/>
     </row>
     <row r="280" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A280" s="80"/>
+      <c r="A280" s="41"/>
       <c r="B280" s="31" t="s">
         <v>367</v>
       </c>
@@ -6815,7 +6798,7 @@
       <c r="G280" s="13"/>
     </row>
     <row r="281" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A281" s="80"/>
+      <c r="A281" s="41"/>
       <c r="B281" s="31" t="s">
         <v>375</v>
       </c>
@@ -6829,24 +6812,24 @@
       <c r="G281" s="13"/>
     </row>
     <row r="282" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A282" s="80"/>
-      <c r="B282" s="49" t="s">
+      <c r="A282" s="41"/>
+      <c r="B282" s="35" t="s">
         <v>462</v>
       </c>
-      <c r="C282" s="49" t="s">
+      <c r="C282" s="35" t="s">
         <v>463</v>
       </c>
-      <c r="D282" s="49"/>
-      <c r="E282" s="49" t="s">
+      <c r="D282" s="35"/>
+      <c r="E282" s="35" t="s">
         <v>464</v>
       </c>
-      <c r="F282" s="49" t="s">
+      <c r="F282" s="35" t="s">
         <v>465</v>
       </c>
       <c r="G282" s="13"/>
     </row>
     <row r="283" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A283" s="80"/>
+      <c r="A283" s="41"/>
       <c r="B283" s="31" t="s">
         <v>505</v>
       </c>
@@ -6861,7 +6844,7 @@
       <c r="G283" s="13"/>
     </row>
     <row r="284" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A284" s="80"/>
+      <c r="A284" s="41"/>
       <c r="B284" s="31" t="s">
         <v>540</v>
       </c>
@@ -6876,7 +6859,7 @@
       <c r="G284" s="13"/>
     </row>
     <row r="285" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A285" s="80"/>
+      <c r="A285" s="41"/>
       <c r="B285" s="31" t="s">
         <v>695</v>
       </c>
@@ -6893,7 +6876,7 @@
       <c r="G285" s="13"/>
     </row>
     <row r="286" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A286" s="80"/>
+      <c r="A286" s="41"/>
       <c r="B286" s="31" t="s">
         <v>698</v>
       </c>
@@ -6908,7 +6891,7 @@
       <c r="G286" s="13"/>
     </row>
     <row r="287" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A287" s="80"/>
+      <c r="A287" s="41"/>
       <c r="B287" s="31" t="s">
         <v>716</v>
       </c>
@@ -6925,7 +6908,7 @@
       <c r="G287" s="13"/>
     </row>
     <row r="288" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A288" s="80"/>
+      <c r="A288" s="41"/>
       <c r="B288" s="31"/>
       <c r="C288" s="31"/>
       <c r="D288" s="31"/>
@@ -6934,7 +6917,7 @@
       <c r="G288" s="13"/>
     </row>
     <row r="289" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A289" s="80"/>
+      <c r="A289" s="41"/>
       <c r="B289" s="31"/>
       <c r="C289" s="31"/>
       <c r="D289" s="31"/>
@@ -6943,7 +6926,7 @@
       <c r="G289" s="13"/>
     </row>
     <row r="290" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A290" s="80"/>
+      <c r="A290" s="41"/>
       <c r="B290" s="31"/>
       <c r="C290" s="31"/>
       <c r="D290" s="31"/>
@@ -6952,7 +6935,7 @@
       <c r="G290" s="13"/>
     </row>
     <row r="291" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="81"/>
+      <c r="A291" s="42"/>
       <c r="B291" s="31" t="s">
         <v>387</v>
       </c>
@@ -6966,7 +6949,7 @@
       <c r="G291" s="16"/>
     </row>
     <row r="292" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="46" t="s">
+      <c r="A292" s="86" t="s">
         <v>406</v>
       </c>
       <c r="B292" s="7" t="s">
@@ -6982,24 +6965,24 @@
       <c r="G292" s="30"/>
     </row>
     <row r="293" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A293" s="47"/>
-      <c r="B293" s="61" t="s">
+      <c r="A293" s="87"/>
+      <c r="B293" s="36" t="s">
         <v>434</v>
       </c>
-      <c r="C293" s="61" t="s">
+      <c r="C293" s="36" t="s">
         <v>435</v>
       </c>
-      <c r="D293" s="61"/>
-      <c r="E293" s="61" t="s">
+      <c r="D293" s="36"/>
+      <c r="E293" s="36" t="s">
         <v>436</v>
       </c>
-      <c r="F293" s="61" t="s">
+      <c r="F293" s="36" t="s">
         <v>437</v>
       </c>
       <c r="G293" s="23"/>
     </row>
     <row r="294" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A294" s="47"/>
+      <c r="A294" s="87"/>
       <c r="B294" s="31" t="s">
         <v>347</v>
       </c>
@@ -7013,7 +6996,7 @@
       <c r="G294" s="13"/>
     </row>
     <row r="295" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A295" s="47"/>
+      <c r="A295" s="87"/>
       <c r="B295" s="32" t="s">
         <v>369</v>
       </c>
@@ -7026,7 +7009,7 @@
       <c r="G295" s="13"/>
     </row>
     <row r="296" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A296" s="47"/>
+      <c r="A296" s="87"/>
       <c r="B296" s="31" t="s">
         <v>371</v>
       </c>
@@ -7040,52 +7023,51 @@
       <c r="G296" s="13"/>
     </row>
     <row r="297" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A297" s="47"/>
-      <c r="B297" s="49" t="s">
+      <c r="A297" s="87"/>
+      <c r="B297" s="35" t="s">
         <v>394</v>
       </c>
-      <c r="C297" s="49" t="s">
+      <c r="C297" s="35" t="s">
         <v>394</v>
       </c>
-      <c r="D297" s="49"/>
-      <c r="E297" s="49" t="s">
+      <c r="D297" s="35"/>
+      <c r="E297" s="35" t="s">
         <v>395</v>
       </c>
       <c r="F297" s="18"/>
       <c r="G297" s="13"/>
     </row>
     <row r="298" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A298" s="47"/>
-      <c r="B298" s="72" t="s">
+      <c r="A298" s="87"/>
+      <c r="B298" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="C298" s="72" t="s">
+      <c r="C298" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="D298" s="73"/>
-      <c r="E298" s="72" t="s">
+      <c r="E298" s="31" t="s">
         <v>174</v>
       </c>
       <c r="F298" s="18"/>
       <c r="G298" s="13"/>
     </row>
     <row r="299" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="47"/>
-      <c r="B299" s="68" t="s">
+      <c r="A299" s="87"/>
+      <c r="B299" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C299" s="68" t="s">
+      <c r="C299" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D299" s="51"/>
-      <c r="E299" s="68" t="s">
+      <c r="D299" s="8"/>
+      <c r="E299" s="7" t="s">
         <v>87</v>
       </c>
       <c r="F299" s="18"/>
       <c r="G299" s="13"/>
     </row>
     <row r="300" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A300" s="47"/>
+      <c r="A300" s="87"/>
       <c r="B300" s="31" t="s">
         <v>154</v>
       </c>
@@ -7099,7 +7081,7 @@
       <c r="G300" s="13"/>
     </row>
     <row r="301" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A301" s="47"/>
+      <c r="A301" s="87"/>
       <c r="B301" s="31" t="s">
         <v>181</v>
       </c>
@@ -7113,7 +7095,7 @@
       <c r="G301" s="13"/>
     </row>
     <row r="302" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A302" s="47"/>
+      <c r="A302" s="87"/>
       <c r="B302" s="31" t="s">
         <v>232</v>
       </c>
@@ -7127,7 +7109,7 @@
       <c r="G302" s="13"/>
     </row>
     <row r="303" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A303" s="47"/>
+      <c r="A303" s="87"/>
       <c r="B303" s="31" t="s">
         <v>514</v>
       </c>
@@ -7142,7 +7124,7 @@
       <c r="G303" s="13"/>
     </row>
     <row r="304" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A304" s="47"/>
+      <c r="A304" s="87"/>
       <c r="B304" s="31" t="s">
         <v>719</v>
       </c>
@@ -7156,7 +7138,7 @@
       <c r="G304" s="13"/>
     </row>
     <row r="305" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A305" s="47"/>
+      <c r="A305" s="87"/>
       <c r="B305" s="31"/>
       <c r="C305" s="31"/>
       <c r="D305" s="31"/>
@@ -7165,7 +7147,7 @@
       <c r="G305" s="13"/>
     </row>
     <row r="306" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A306" s="47"/>
+      <c r="A306" s="87"/>
       <c r="B306" s="31"/>
       <c r="C306" s="31"/>
       <c r="D306" s="31"/>
@@ -7174,7 +7156,7 @@
       <c r="G306" s="13"/>
     </row>
     <row r="307" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A307" s="47"/>
+      <c r="A307" s="87"/>
       <c r="B307" s="31"/>
       <c r="C307" s="31"/>
       <c r="D307" s="31"/>
@@ -7183,12 +7165,12 @@
       <c r="G307" s="13"/>
     </row>
     <row r="308" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="48"/>
+      <c r="A308" s="88"/>
       <c r="F308" s="19"/>
       <c r="G308" s="16"/>
     </row>
     <row r="309" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A309" s="65" t="s">
+      <c r="A309" s="95" t="s">
         <v>491</v>
       </c>
       <c r="B309" s="31" t="s">
@@ -7204,7 +7186,7 @@
       <c r="G309" s="12"/>
     </row>
     <row r="310" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A310" s="66"/>
+      <c r="A310" s="96"/>
       <c r="B310" s="31" t="s">
         <v>215</v>
       </c>
@@ -7218,7 +7200,7 @@
       <c r="G310" s="13"/>
     </row>
     <row r="311" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A311" s="66"/>
+      <c r="A311" s="96"/>
       <c r="B311" s="31" t="s">
         <v>283</v>
       </c>
@@ -7234,7 +7216,7 @@
       <c r="G311" s="13"/>
     </row>
     <row r="312" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A312" s="66"/>
+      <c r="A312" s="96"/>
       <c r="B312" s="31" t="s">
         <v>517</v>
       </c>
@@ -7249,7 +7231,7 @@
       <c r="G312" s="13"/>
     </row>
     <row r="313" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A313" s="66"/>
+      <c r="A313" s="96"/>
       <c r="B313" s="31" t="s">
         <v>546</v>
       </c>
@@ -7264,7 +7246,7 @@
       <c r="G313" s="13"/>
     </row>
     <row r="314" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A314" s="66"/>
+      <c r="A314" s="96"/>
       <c r="B314" s="31" t="s">
         <v>581</v>
       </c>
@@ -7279,7 +7261,7 @@
       <c r="G314" s="13"/>
     </row>
     <row r="315" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A315" s="66"/>
+      <c r="A315" s="96"/>
       <c r="B315" s="31" t="s">
         <v>608</v>
       </c>
@@ -7294,7 +7276,7 @@
       <c r="G315" s="13"/>
     </row>
     <row r="316" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A316" s="66"/>
+      <c r="A316" s="96"/>
       <c r="B316" s="31" t="s">
         <v>698</v>
       </c>
@@ -7309,7 +7291,7 @@
       <c r="G316" s="13"/>
     </row>
     <row r="317" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A317" s="66"/>
+      <c r="A317" s="96"/>
       <c r="B317" s="31" t="s">
         <v>713</v>
       </c>
@@ -7324,7 +7306,7 @@
       <c r="G317" s="13"/>
     </row>
     <row r="318" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A318" s="66"/>
+      <c r="A318" s="96"/>
       <c r="B318" s="31"/>
       <c r="C318" s="31"/>
       <c r="D318" s="31"/>
@@ -7333,7 +7315,7 @@
       <c r="G318" s="13"/>
     </row>
     <row r="319" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A319" s="67"/>
+      <c r="A319" s="97"/>
       <c r="B319" s="14"/>
       <c r="C319" s="14"/>
       <c r="D319" s="14"/>
@@ -7342,7 +7324,7 @@
       <c r="G319" s="16"/>
     </row>
     <row r="320" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A320" s="82" t="s">
+      <c r="A320" s="43" t="s">
         <v>208</v>
       </c>
       <c r="B320" s="31" t="s">
@@ -7358,7 +7340,7 @@
       <c r="G320" s="12"/>
     </row>
     <row r="321" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A321" s="83"/>
+      <c r="A321" s="44"/>
       <c r="B321" s="31" t="s">
         <v>208</v>
       </c>
@@ -7372,7 +7354,7 @@
       <c r="G321" s="13"/>
     </row>
     <row r="322" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A322" s="83"/>
+      <c r="A322" s="44"/>
       <c r="B322" s="31" t="s">
         <v>279</v>
       </c>
@@ -7386,7 +7368,7 @@
       <c r="G322" s="13"/>
     </row>
     <row r="323" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A323" s="83"/>
+      <c r="A323" s="44"/>
       <c r="B323" s="31" t="s">
         <v>363</v>
       </c>
@@ -7400,24 +7382,24 @@
       <c r="G323" s="13"/>
     </row>
     <row r="324" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A324" s="83"/>
-      <c r="B324" s="49" t="s">
+      <c r="A324" s="44"/>
+      <c r="B324" s="35" t="s">
         <v>451</v>
       </c>
-      <c r="C324" s="49" t="s">
+      <c r="C324" s="35" t="s">
         <v>451</v>
       </c>
-      <c r="D324" s="106"/>
-      <c r="E324" s="49" t="s">
+      <c r="D324" s="35"/>
+      <c r="E324" s="35" t="s">
         <v>452</v>
       </c>
-      <c r="F324" s="49" t="s">
+      <c r="F324" s="35" t="s">
         <v>453</v>
       </c>
       <c r="G324" s="13"/>
     </row>
     <row r="325" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A325" s="83"/>
+      <c r="A325" s="44"/>
       <c r="B325" s="31" t="s">
         <v>502</v>
       </c>
@@ -7428,11 +7410,11 @@
       <c r="E325" s="31" t="s">
         <v>504</v>
       </c>
-      <c r="F325" s="49"/>
+      <c r="F325" s="35"/>
       <c r="G325" s="13"/>
     </row>
     <row r="326" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A326" s="83"/>
+      <c r="A326" s="44"/>
       <c r="B326" s="31" t="s">
         <v>511</v>
       </c>
@@ -7443,11 +7425,11 @@
       <c r="E326" s="31" t="s">
         <v>513</v>
       </c>
-      <c r="F326" s="49"/>
+      <c r="F326" s="35"/>
       <c r="G326" s="13"/>
     </row>
     <row r="327" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A327" s="83"/>
+      <c r="A327" s="44"/>
       <c r="B327" s="31" t="s">
         <v>523</v>
       </c>
@@ -7462,7 +7444,7 @@
       <c r="G327" s="13"/>
     </row>
     <row r="328" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A328" s="83"/>
+      <c r="A328" s="44"/>
       <c r="B328" s="31" t="s">
         <v>560</v>
       </c>
@@ -7477,7 +7459,7 @@
       <c r="G328" s="13"/>
     </row>
     <row r="329" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A329" s="83"/>
+      <c r="A329" s="44"/>
       <c r="B329" s="31" t="s">
         <v>577</v>
       </c>
@@ -7494,7 +7476,7 @@
       <c r="G329" s="13"/>
     </row>
     <row r="330" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A330" s="83"/>
+      <c r="A330" s="44"/>
       <c r="B330" s="31" t="s">
         <v>630</v>
       </c>
@@ -7508,7 +7490,7 @@
       <c r="G330" s="13"/>
     </row>
     <row r="331" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A331" s="83"/>
+      <c r="A331" s="44"/>
       <c r="B331" s="31" t="s">
         <v>633</v>
       </c>
@@ -7525,7 +7507,7 @@
       <c r="G331" s="13"/>
     </row>
     <row r="332" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A332" s="83"/>
+      <c r="A332" s="44"/>
       <c r="B332" s="31" t="s">
         <v>689</v>
       </c>
@@ -7540,7 +7522,7 @@
       <c r="G332" s="13"/>
     </row>
     <row r="333" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A333" s="83"/>
+      <c r="A333" s="44"/>
       <c r="B333" s="31" t="s">
         <v>701</v>
       </c>
@@ -7555,7 +7537,7 @@
       <c r="G333" s="13"/>
     </row>
     <row r="334" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A334" s="83"/>
+      <c r="A334" s="44"/>
       <c r="B334" s="31" t="s">
         <v>683</v>
       </c>
@@ -7570,7 +7552,7 @@
       <c r="G334" s="13"/>
     </row>
     <row r="335" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A335" s="83"/>
+      <c r="A335" s="44"/>
       <c r="B335" s="31" t="s">
         <v>756</v>
       </c>
@@ -7585,12 +7567,12 @@
       <c r="G335" s="13"/>
     </row>
     <row r="336" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A336" s="84"/>
+      <c r="A336" s="45"/>
       <c r="F336" s="19"/>
       <c r="G336" s="16"/>
     </row>
     <row r="337" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="39" t="s">
+      <c r="A337" s="74" t="s">
         <v>10</v>
       </c>
       <c r="B337" s="17" t="s">
@@ -7611,7 +7593,7 @@
       </c>
     </row>
     <row r="338" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A338" s="40"/>
+      <c r="A338" s="75"/>
       <c r="B338" s="18" t="s">
         <v>16</v>
       </c>
@@ -7626,7 +7608,7 @@
       <c r="G338" s="13"/>
     </row>
     <row r="339" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A339" s="40"/>
+      <c r="A339" s="75"/>
       <c r="B339" s="18" t="s">
         <v>19</v>
       </c>
@@ -7641,7 +7623,7 @@
       <c r="G339" s="13"/>
     </row>
     <row r="340" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A340" s="40"/>
+      <c r="A340" s="75"/>
       <c r="B340" s="18" t="s">
         <v>22</v>
       </c>
@@ -7656,7 +7638,7 @@
       <c r="G340" s="13"/>
     </row>
     <row r="341" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A341" s="40"/>
+      <c r="A341" s="75"/>
       <c r="B341" s="18" t="s">
         <v>25</v>
       </c>
@@ -7671,7 +7653,7 @@
       <c r="G341" s="13"/>
     </row>
     <row r="342" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="40"/>
+      <c r="A342" s="75"/>
       <c r="B342" s="18" t="s">
         <v>28</v>
       </c>
@@ -7686,7 +7668,7 @@
       <c r="G342" s="13"/>
     </row>
     <row r="343" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="40"/>
+      <c r="A343" s="75"/>
       <c r="B343" s="18" t="s">
         <v>31</v>
       </c>
@@ -7701,39 +7683,39 @@
       <c r="G343" s="13"/>
     </row>
     <row r="344" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="40"/>
-      <c r="B344" s="50" t="s">
+      <c r="A344" s="75"/>
+      <c r="B344" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C344" s="50" t="s">
+      <c r="C344" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D344" s="51"/>
-      <c r="E344" s="52" t="s">
+      <c r="D344" s="8"/>
+      <c r="E344" s="28" t="s">
         <v>36</v>
       </c>
       <c r="F344" s="18"/>
       <c r="G344" s="13"/>
     </row>
     <row r="345" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A345" s="40"/>
-      <c r="B345" s="49" t="s">
+      <c r="A345" s="75"/>
+      <c r="B345" s="35" t="s">
         <v>486</v>
       </c>
-      <c r="C345" s="49" t="s">
+      <c r="C345" s="35" t="s">
         <v>487</v>
       </c>
-      <c r="D345" s="49"/>
-      <c r="E345" s="49" t="s">
+      <c r="D345" s="35"/>
+      <c r="E345" s="35" t="s">
         <v>488</v>
       </c>
-      <c r="F345" s="49" t="s">
+      <c r="F345" s="35" t="s">
         <v>489</v>
       </c>
       <c r="G345" s="13"/>
     </row>
     <row r="346" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A346" s="40"/>
+      <c r="A346" s="75"/>
       <c r="B346" s="31" t="s">
         <v>349</v>
       </c>
@@ -7747,7 +7729,7 @@
       <c r="G346" s="13"/>
     </row>
     <row r="347" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A347" s="40"/>
+      <c r="A347" s="75"/>
       <c r="B347" s="31" t="s">
         <v>611</v>
       </c>
@@ -7764,7 +7746,7 @@
       <c r="G347" s="13"/>
     </row>
     <row r="348" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A348" s="40"/>
+      <c r="A348" s="75"/>
       <c r="B348" s="31" t="s">
         <v>615</v>
       </c>
@@ -7778,16 +7760,16 @@
       <c r="G348" s="13"/>
     </row>
     <row r="349" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A349" s="40"/>
-      <c r="B349" s="50"/>
-      <c r="C349" s="50"/>
-      <c r="D349" s="51"/>
-      <c r="E349" s="52"/>
+      <c r="A349" s="75"/>
+      <c r="B349" s="18"/>
+      <c r="C349" s="18"/>
+      <c r="D349" s="8"/>
+      <c r="E349" s="28"/>
       <c r="F349" s="18"/>
       <c r="G349" s="13"/>
     </row>
     <row r="350" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A350" s="41"/>
+      <c r="A350" s="76"/>
       <c r="B350" s="19"/>
       <c r="C350" s="19"/>
       <c r="D350" s="25"/>
@@ -10739,16 +10721,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A275:A291"/>
-    <mergeCell ref="A320:A336"/>
-    <mergeCell ref="A268:A274"/>
-    <mergeCell ref="A242:A249"/>
-    <mergeCell ref="A101:A109"/>
-    <mergeCell ref="A110:A113"/>
-    <mergeCell ref="A174:A179"/>
-    <mergeCell ref="A193:A210"/>
-    <mergeCell ref="A162:A165"/>
-    <mergeCell ref="A211:A218"/>
     <mergeCell ref="A3:A92"/>
     <mergeCell ref="A114:A133"/>
     <mergeCell ref="A337:A350"/>
@@ -10763,6 +10735,16 @@
     <mergeCell ref="A180:A192"/>
     <mergeCell ref="A97:A100"/>
     <mergeCell ref="A235:A241"/>
+    <mergeCell ref="A275:A291"/>
+    <mergeCell ref="A320:A336"/>
+    <mergeCell ref="A268:A274"/>
+    <mergeCell ref="A242:A249"/>
+    <mergeCell ref="A101:A109"/>
+    <mergeCell ref="A110:A113"/>
+    <mergeCell ref="A174:A179"/>
+    <mergeCell ref="A193:A210"/>
+    <mergeCell ref="A162:A165"/>
+    <mergeCell ref="A211:A218"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/xcom_perks/compiled_perks.xlsx
+++ b/docs/xcom_perks/compiled_perks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\xcom2_my_tweaks\docs\xcom_perks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3420CE-B539-41CE-B36E-138BEE5E614B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA3726A-E343-49AB-ADDF-504222C46440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19092" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabellenblatt1" sheetId="1" r:id="rId1"/>
@@ -3690,6 +3690,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3715,6 +3716,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -3748,6 +3750,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -4168,7 +4171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4234,7 +4237,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4255,52 +4257,32 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="40" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4347,17 +4329,16 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="24" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="24" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4368,39 +4349,54 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="32" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="32" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="20" fillId="40" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4619,17 +4615,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA1456"/>
+  <dimension ref="A1:AA1455"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C108" sqref="C108"/>
+      <pane ySplit="2" topLeftCell="A379" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C399" sqref="C399"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="44" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="43" customWidth="1"/>
     <col min="3" max="3" width="32.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.28515625" customWidth="1"/>
     <col min="5" max="5" width="154.7109375" customWidth="1"/>
@@ -4639,7 +4635,7 @@
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="40" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -4680,7 +4676,7 @@
     </row>
     <row r="2" spans="1:27" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="41" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -4696,8 +4692,8 @@
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="82"/>
-      <c r="B3" s="43" t="s">
+      <c r="A3" s="65"/>
+      <c r="B3" s="42" t="s">
         <v>79</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -4711,8 +4707,8 @@
       <c r="G3" s="20"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="82"/>
-      <c r="B4" s="43" t="s">
+      <c r="A4" s="65"/>
+      <c r="B4" s="42" t="s">
         <v>102</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -4725,8 +4721,8 @@
       <c r="G4" s="20"/>
     </row>
     <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="82"/>
-      <c r="B5" s="43" t="s">
+      <c r="A5" s="65"/>
+      <c r="B5" s="42" t="s">
         <v>114</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -4738,8 +4734,8 @@
       <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="82"/>
-      <c r="B6" s="43" t="s">
+      <c r="A6" s="65"/>
+      <c r="B6" s="42" t="s">
         <v>141</v>
       </c>
       <c r="C6" s="31" t="s">
@@ -4751,8 +4747,8 @@
       <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="82"/>
-      <c r="B7" s="43" t="s">
+      <c r="A7" s="65"/>
+      <c r="B7" s="42" t="s">
         <v>156</v>
       </c>
       <c r="C7" s="31" t="s">
@@ -4764,8 +4760,8 @@
       <c r="G7" s="20"/>
     </row>
     <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="82"/>
-      <c r="B8" s="43" t="s">
+      <c r="A8" s="65"/>
+      <c r="B8" s="42" t="s">
         <v>158</v>
       </c>
       <c r="C8" s="31" t="s">
@@ -4777,8 +4773,8 @@
       <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="82"/>
-      <c r="B9" s="43" t="s">
+      <c r="A9" s="65"/>
+      <c r="B9" s="42" t="s">
         <v>160</v>
       </c>
       <c r="C9" s="31" t="s">
@@ -4790,8 +4786,8 @@
       <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="82"/>
-      <c r="B10" s="43" t="s">
+      <c r="A10" s="65"/>
+      <c r="B10" s="42" t="s">
         <v>177</v>
       </c>
       <c r="C10" s="31" t="s">
@@ -4803,8 +4799,8 @@
       <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="82"/>
-      <c r="B11" s="43" t="s">
+      <c r="A11" s="65"/>
+      <c r="B11" s="42" t="s">
         <v>192</v>
       </c>
       <c r="C11" s="31" t="s">
@@ -4816,8 +4812,8 @@
       <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="82"/>
-      <c r="B12" s="43" t="s">
+      <c r="A12" s="65"/>
+      <c r="B12" s="42" t="s">
         <v>204</v>
       </c>
       <c r="C12" s="31" t="s">
@@ -4829,8 +4825,8 @@
       <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="82"/>
-      <c r="B13" s="43" t="s">
+      <c r="A13" s="65"/>
+      <c r="B13" s="42" t="s">
         <v>210</v>
       </c>
       <c r="C13" s="31" t="s">
@@ -4844,8 +4840,8 @@
       </c>
     </row>
     <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="82"/>
-      <c r="B14" s="43" t="s">
+      <c r="A14" s="65"/>
+      <c r="B14" s="42" t="s">
         <v>213</v>
       </c>
       <c r="C14" s="31" t="s">
@@ -4856,8 +4852,8 @@
       </c>
     </row>
     <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="82"/>
-      <c r="B15" s="43" t="s">
+      <c r="A15" s="65"/>
+      <c r="B15" s="42" t="s">
         <v>219</v>
       </c>
       <c r="C15" s="31" t="s">
@@ -4868,8 +4864,8 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="82"/>
-      <c r="B16" s="43" t="s">
+      <c r="A16" s="65"/>
+      <c r="B16" s="42" t="s">
         <v>230</v>
       </c>
       <c r="C16" s="31" t="s">
@@ -4880,8 +4876,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="82"/>
-      <c r="B17" s="43" t="s">
+      <c r="A17" s="65"/>
+      <c r="B17" s="42" t="s">
         <v>236</v>
       </c>
       <c r="C17" s="31" t="s">
@@ -4895,8 +4891,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="82"/>
-      <c r="B18" s="43" t="s">
+      <c r="A18" s="65"/>
+      <c r="B18" s="42" t="s">
         <v>244</v>
       </c>
       <c r="C18" s="31" t="s">
@@ -4907,8 +4903,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="82"/>
-      <c r="B19" s="43" t="s">
+      <c r="A19" s="65"/>
+      <c r="B19" s="42" t="s">
         <v>257</v>
       </c>
       <c r="C19" s="31" t="s">
@@ -4919,8 +4915,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="82"/>
-      <c r="B20" s="43" t="s">
+      <c r="A20" s="65"/>
+      <c r="B20" s="42" t="s">
         <v>259</v>
       </c>
       <c r="C20" s="31" t="s">
@@ -4931,8 +4927,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="82"/>
-      <c r="B21" s="43" t="s">
+      <c r="A21" s="65"/>
+      <c r="B21" s="42" t="s">
         <v>277</v>
       </c>
       <c r="C21" s="31" t="s">
@@ -4943,8 +4939,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="82"/>
-      <c r="B22" s="43" t="s">
+      <c r="A22" s="65"/>
+      <c r="B22" s="42" t="s">
         <v>287</v>
       </c>
       <c r="C22" s="31" t="s">
@@ -4955,8 +4951,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="82"/>
-      <c r="B23" s="43" t="s">
+      <c r="A23" s="65"/>
+      <c r="B23" s="42" t="s">
         <v>314</v>
       </c>
       <c r="C23" s="31" t="s">
@@ -4967,8 +4963,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="82"/>
-      <c r="B24" s="43" t="s">
+      <c r="A24" s="65"/>
+      <c r="B24" s="42" t="s">
         <v>320</v>
       </c>
       <c r="C24" s="31" t="s">
@@ -4979,8 +4975,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="82"/>
-      <c r="B25" s="43" t="s">
+      <c r="A25" s="65"/>
+      <c r="B25" s="42" t="s">
         <v>326</v>
       </c>
       <c r="C25" s="31" t="s">
@@ -4991,8 +4987,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="82"/>
-      <c r="B26" s="43" t="s">
+      <c r="A26" s="65"/>
+      <c r="B26" s="42" t="s">
         <v>341</v>
       </c>
       <c r="C26" s="31" t="s">
@@ -5003,8 +4999,8 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="82"/>
-      <c r="B27" s="43" t="s">
+      <c r="A27" s="65"/>
+      <c r="B27" s="42" t="s">
         <v>345</v>
       </c>
       <c r="C27" s="31" t="s">
@@ -5015,8 +5011,8 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="82"/>
-      <c r="B28" s="43" t="s">
+      <c r="A28" s="65"/>
+      <c r="B28" s="42" t="s">
         <v>365</v>
       </c>
       <c r="C28" s="31" t="s">
@@ -5027,8 +5023,8 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="82"/>
-      <c r="B29" s="43" t="s">
+      <c r="A29" s="65"/>
+      <c r="B29" s="42" t="s">
         <v>385</v>
       </c>
       <c r="C29" s="31" t="s">
@@ -5039,7 +5035,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="82"/>
+      <c r="A30" s="65"/>
       <c r="B30" s="35" t="s">
         <v>158</v>
       </c>
@@ -5055,7 +5051,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="82"/>
+      <c r="A31" s="65"/>
       <c r="B31" s="35" t="s">
         <v>416</v>
       </c>
@@ -5068,7 +5064,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="82"/>
+      <c r="A32" s="65"/>
       <c r="B32" s="35" t="s">
         <v>419</v>
       </c>
@@ -5084,7 +5080,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="82"/>
+      <c r="A33" s="65"/>
       <c r="B33" s="35" t="s">
         <v>430</v>
       </c>
@@ -5102,7 +5098,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="82"/>
+      <c r="A34" s="65"/>
       <c r="B34" s="35" t="s">
         <v>454</v>
       </c>
@@ -5120,7 +5116,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="82"/>
+      <c r="A35" s="65"/>
       <c r="B35" s="35" t="s">
         <v>458</v>
       </c>
@@ -5136,7 +5132,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="82"/>
+      <c r="A36" s="65"/>
       <c r="B36" s="35" t="s">
         <v>466</v>
       </c>
@@ -5149,8 +5145,8 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="82"/>
-      <c r="B37" s="43" t="s">
+      <c r="A37" s="65"/>
+      <c r="B37" s="42" t="s">
         <v>508</v>
       </c>
       <c r="C37" s="31" t="s">
@@ -5162,8 +5158,8 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="82"/>
-      <c r="B38" s="43" t="s">
+      <c r="A38" s="65"/>
+      <c r="B38" s="42" t="s">
         <v>520</v>
       </c>
       <c r="C38" s="31" t="s">
@@ -5175,8 +5171,8 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="82"/>
-      <c r="B39" s="43" t="s">
+      <c r="A39" s="65"/>
+      <c r="B39" s="42" t="s">
         <v>535</v>
       </c>
       <c r="C39" s="31" t="s">
@@ -5188,8 +5184,8 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="82"/>
-      <c r="B40" s="43" t="s">
+      <c r="A40" s="65"/>
+      <c r="B40" s="42" t="s">
         <v>543</v>
       </c>
       <c r="C40" s="31" t="s">
@@ -5201,8 +5197,8 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="82"/>
-      <c r="B41" s="43" t="s">
+      <c r="A41" s="65"/>
+      <c r="B41" s="42" t="s">
         <v>555</v>
       </c>
       <c r="C41" s="31" t="s">
@@ -5214,8 +5210,8 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="82"/>
-      <c r="B42" s="43" t="s">
+      <c r="A42" s="65"/>
+      <c r="B42" s="42" t="s">
         <v>141</v>
       </c>
       <c r="C42" s="31" t="s">
@@ -5227,8 +5223,8 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="82"/>
-      <c r="B43" s="43" t="s">
+      <c r="A43" s="65"/>
+      <c r="B43" s="42" t="s">
         <v>574</v>
       </c>
       <c r="C43" s="31" t="s">
@@ -5240,8 +5236,8 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="82"/>
-      <c r="B44" s="43" t="s">
+      <c r="A44" s="65"/>
+      <c r="B44" s="42" t="s">
         <v>591</v>
       </c>
       <c r="C44" s="31" t="s">
@@ -5253,8 +5249,8 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="82"/>
-      <c r="B45" s="43" t="s">
+      <c r="A45" s="65"/>
+      <c r="B45" s="42" t="s">
         <v>594</v>
       </c>
       <c r="C45" s="31" t="s">
@@ -5269,8 +5265,8 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="82"/>
-      <c r="B46" s="43" t="s">
+      <c r="A46" s="65"/>
+      <c r="B46" s="42" t="s">
         <v>598</v>
       </c>
       <c r="C46" s="31" t="s">
@@ -5282,8 +5278,8 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="82"/>
-      <c r="B47" s="43" t="s">
+      <c r="A47" s="65"/>
+      <c r="B47" s="42" t="s">
         <v>605</v>
       </c>
       <c r="C47" s="31" t="s">
@@ -5295,8 +5291,8 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="82"/>
-      <c r="B48" s="43" t="s">
+      <c r="A48" s="65"/>
+      <c r="B48" s="42" t="s">
         <v>618</v>
       </c>
       <c r="C48" s="31" t="s">
@@ -5308,8 +5304,8 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="82"/>
-      <c r="B49" s="43" t="s">
+      <c r="A49" s="65"/>
+      <c r="B49" s="42" t="s">
         <v>621</v>
       </c>
       <c r="C49" s="31" t="s">
@@ -5321,8 +5317,8 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="82"/>
-      <c r="B50" s="43" t="s">
+      <c r="A50" s="65"/>
+      <c r="B50" s="42" t="s">
         <v>627</v>
       </c>
       <c r="C50" s="31" t="s">
@@ -5334,8 +5330,8 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="82"/>
-      <c r="B51" s="43" t="s">
+      <c r="A51" s="65"/>
+      <c r="B51" s="42" t="s">
         <v>637</v>
       </c>
       <c r="C51" s="31" t="s">
@@ -5347,8 +5343,8 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="82"/>
-      <c r="B52" s="43" t="s">
+      <c r="A52" s="65"/>
+      <c r="B52" s="42" t="s">
         <v>640</v>
       </c>
       <c r="C52" s="31" t="s">
@@ -5360,8 +5356,8 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="82"/>
-      <c r="B53" s="43" t="s">
+      <c r="A53" s="65"/>
+      <c r="B53" s="42" t="s">
         <v>643</v>
       </c>
       <c r="C53" s="31" t="s">
@@ -5373,8 +5369,8 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="82"/>
-      <c r="B54" s="43" t="s">
+      <c r="A54" s="65"/>
+      <c r="B54" s="42" t="s">
         <v>646</v>
       </c>
       <c r="C54" s="31" t="s">
@@ -5386,8 +5382,8 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="82"/>
-      <c r="B55" s="43" t="s">
+      <c r="A55" s="65"/>
+      <c r="B55" s="42" t="s">
         <v>649</v>
       </c>
       <c r="C55" s="31" t="s">
@@ -5399,8 +5395,8 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="82"/>
-      <c r="B56" s="43" t="s">
+      <c r="A56" s="65"/>
+      <c r="B56" s="42" t="s">
         <v>652</v>
       </c>
       <c r="C56" s="31" t="s">
@@ -5412,8 +5408,8 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="82"/>
-      <c r="B57" s="43" t="s">
+      <c r="A57" s="65"/>
+      <c r="B57" s="42" t="s">
         <v>655</v>
       </c>
       <c r="C57" s="31" t="s">
@@ -5425,8 +5421,8 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="82"/>
-      <c r="B58" s="43" t="s">
+      <c r="A58" s="65"/>
+      <c r="B58" s="42" t="s">
         <v>658</v>
       </c>
       <c r="C58" s="31" t="s">
@@ -5438,8 +5434,8 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="82"/>
-      <c r="B59" s="43" t="s">
+      <c r="A59" s="65"/>
+      <c r="B59" s="42" t="s">
         <v>661</v>
       </c>
       <c r="C59" s="31" t="s">
@@ -5451,8 +5447,8 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="82"/>
-      <c r="B60" s="43" t="s">
+      <c r="A60" s="65"/>
+      <c r="B60" s="42" t="s">
         <v>275</v>
       </c>
       <c r="C60" s="31" t="s">
@@ -5464,8 +5460,8 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="82"/>
-      <c r="B61" s="43" t="s">
+      <c r="A61" s="65"/>
+      <c r="B61" s="42" t="s">
         <v>665</v>
       </c>
       <c r="C61" s="31" t="s">
@@ -5477,8 +5473,8 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="82"/>
-      <c r="B62" s="43" t="s">
+      <c r="A62" s="65"/>
+      <c r="B62" s="42" t="s">
         <v>668</v>
       </c>
       <c r="C62" s="31" t="s">
@@ -5491,8 +5487,8 @@
       <c r="F62" s="31"/>
     </row>
     <row r="63" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="82"/>
-      <c r="B63" s="43" t="s">
+      <c r="A63" s="65"/>
+      <c r="B63" s="42" t="s">
         <v>671</v>
       </c>
       <c r="C63" s="31" t="s">
@@ -5505,8 +5501,8 @@
       <c r="F63" s="31"/>
     </row>
     <row r="64" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="82"/>
-      <c r="B64" s="43" t="s">
+      <c r="A64" s="65"/>
+      <c r="B64" s="42" t="s">
         <v>686</v>
       </c>
       <c r="C64" s="31" t="s">
@@ -5518,8 +5514,8 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="82"/>
-      <c r="B65" s="43" t="s">
+      <c r="A65" s="65"/>
+      <c r="B65" s="42" t="s">
         <v>704</v>
       </c>
       <c r="C65" s="31" t="s">
@@ -5531,8 +5527,8 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="82"/>
-      <c r="B66" s="43" t="s">
+      <c r="A66" s="65"/>
+      <c r="B66" s="42" t="s">
         <v>722</v>
       </c>
       <c r="C66" s="31" t="s">
@@ -5545,8 +5541,8 @@
       <c r="F66" s="31"/>
     </row>
     <row r="67" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="82"/>
-      <c r="B67" s="43" t="s">
+      <c r="A67" s="65"/>
+      <c r="B67" s="42" t="s">
         <v>728</v>
       </c>
       <c r="C67" s="31" t="s">
@@ -5559,8 +5555,8 @@
       <c r="F67" s="31"/>
     </row>
     <row r="68" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="82"/>
-      <c r="B68" s="43" t="s">
+      <c r="A68" s="65"/>
+      <c r="B68" s="42" t="s">
         <v>734</v>
       </c>
       <c r="C68" s="31" t="s">
@@ -5572,8 +5568,8 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="82"/>
-      <c r="B69" s="43" t="s">
+      <c r="A69" s="65"/>
+      <c r="B69" s="42" t="s">
         <v>740</v>
       </c>
       <c r="C69" s="31" t="s">
@@ -5585,8 +5581,8 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="82"/>
-      <c r="B70" s="43" t="s">
+      <c r="A70" s="65"/>
+      <c r="B70" s="42" t="s">
         <v>743</v>
       </c>
       <c r="C70" s="31" t="s">
@@ -5598,8 +5594,8 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="82"/>
-      <c r="B71" s="43" t="s">
+      <c r="A71" s="65"/>
+      <c r="B71" s="42" t="s">
         <v>752</v>
       </c>
       <c r="C71" s="31" t="s">
@@ -5614,72 +5610,72 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="82"/>
-      <c r="B72" s="43" t="s">
+      <c r="A72" s="65"/>
+      <c r="B72" s="42" t="s">
         <v>761</v>
       </c>
-      <c r="C72" s="40" t="s">
+      <c r="C72" s="39" t="s">
         <v>762</v>
       </c>
-      <c r="D72" s="40"/>
-      <c r="E72" s="40" t="s">
+      <c r="D72" s="39"/>
+      <c r="E72" s="39" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="82"/>
-      <c r="B73" s="43" t="s">
+      <c r="A73" s="65"/>
+      <c r="B73" s="42" t="s">
         <v>767</v>
       </c>
-      <c r="C73" s="40" t="s">
+      <c r="C73" s="39" t="s">
         <v>768</v>
       </c>
-      <c r="D73" s="40"/>
-      <c r="E73" s="40" t="s">
+      <c r="D73" s="39"/>
+      <c r="E73" s="39" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="82"/>
-      <c r="B74" s="43" t="s">
+      <c r="A74" s="65"/>
+      <c r="B74" s="42" t="s">
         <v>779</v>
       </c>
-      <c r="C74" s="40" t="s">
+      <c r="C74" s="39" t="s">
         <v>780</v>
       </c>
-      <c r="D74" s="40"/>
-      <c r="E74" s="40" t="s">
+      <c r="D74" s="39"/>
+      <c r="E74" s="39" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="82"/>
-      <c r="B75" s="43" t="s">
+      <c r="A75" s="65"/>
+      <c r="B75" s="42" t="s">
         <v>788</v>
       </c>
-      <c r="C75" s="40" t="s">
+      <c r="C75" s="39" t="s">
         <v>789</v>
       </c>
-      <c r="D75" s="40"/>
-      <c r="E75" s="40" t="s">
+      <c r="D75" s="39"/>
+      <c r="E75" s="39" t="s">
         <v>790</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="82"/>
-      <c r="B76" s="43" t="s">
+      <c r="A76" s="65"/>
+      <c r="B76" s="42" t="s">
         <v>791</v>
       </c>
-      <c r="C76" s="40" t="s">
+      <c r="C76" s="39" t="s">
         <v>792</v>
       </c>
-      <c r="D76" s="40"/>
-      <c r="E76" s="40" t="s">
+      <c r="D76" s="39"/>
+      <c r="E76" s="39" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A77" s="82"/>
+      <c r="A77" s="65"/>
       <c r="B77" s="31" t="s">
         <v>809</v>
       </c>
@@ -5692,7 +5688,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A78" s="82"/>
+      <c r="A78" s="65"/>
       <c r="B78" s="31" t="s">
         <v>827</v>
       </c>
@@ -5705,7 +5701,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="82"/>
+      <c r="A79" s="65"/>
       <c r="B79" s="31" t="s">
         <v>830</v>
       </c>
@@ -5718,7 +5714,7 @@
       </c>
     </row>
     <row r="80" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="82"/>
+      <c r="A80" s="65"/>
       <c r="B80" s="31" t="s">
         <v>850</v>
       </c>
@@ -5731,7 +5727,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A81" s="82"/>
+      <c r="A81" s="65"/>
       <c r="B81" s="31" t="s">
         <v>853</v>
       </c>
@@ -5744,7 +5740,7 @@
       </c>
     </row>
     <row r="82" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A82" s="82"/>
+      <c r="A82" s="65"/>
       <c r="B82" s="31" t="s">
         <v>871</v>
       </c>
@@ -5757,33 +5753,33 @@
       </c>
     </row>
     <row r="83" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="82"/>
-      <c r="B83" s="40" t="s">
+      <c r="A83" s="65"/>
+      <c r="B83" s="39" t="s">
         <v>891</v>
       </c>
-      <c r="C83" s="40" t="s">
+      <c r="C83" s="39" t="s">
         <v>892</v>
       </c>
-      <c r="D83" s="40"/>
-      <c r="E83" s="40" t="s">
+      <c r="D83" s="39"/>
+      <c r="E83" s="39" t="s">
         <v>893</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="82"/>
-      <c r="B84" s="40" t="s">
+      <c r="A84" s="65"/>
+      <c r="B84" s="39" t="s">
         <v>897</v>
       </c>
-      <c r="C84" s="40" t="s">
+      <c r="C84" s="39" t="s">
         <v>898</v>
       </c>
-      <c r="D84" s="40"/>
-      <c r="E84" s="40" t="s">
+      <c r="D84" s="39"/>
+      <c r="E84" s="39" t="s">
         <v>899</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A85" s="82"/>
+      <c r="A85" s="65"/>
       <c r="B85" s="31" t="s">
         <v>912</v>
       </c>
@@ -5796,7 +5792,7 @@
       </c>
     </row>
     <row r="86" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A86" s="82"/>
+      <c r="A86" s="65"/>
       <c r="B86" s="31" t="s">
         <v>915</v>
       </c>
@@ -5809,7 +5805,7 @@
       </c>
     </row>
     <row r="87" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="82"/>
+      <c r="A87" s="65"/>
       <c r="B87" s="31" t="s">
         <v>933</v>
       </c>
@@ -5822,7 +5818,7 @@
       </c>
     </row>
     <row r="88" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A88" s="82"/>
+      <c r="A88" s="65"/>
       <c r="B88" s="31" t="s">
         <v>936</v>
       </c>
@@ -5835,7 +5831,7 @@
       </c>
     </row>
     <row r="89" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="82"/>
+      <c r="A89" s="65"/>
       <c r="B89" s="31" t="s">
         <v>939</v>
       </c>
@@ -5848,33 +5844,33 @@
       </c>
     </row>
     <row r="90" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="82"/>
-      <c r="B90" s="40" t="s">
+      <c r="A90" s="65"/>
+      <c r="B90" s="39" t="s">
         <v>948</v>
       </c>
-      <c r="C90" s="40" t="s">
+      <c r="C90" s="39" t="s">
         <v>949</v>
       </c>
-      <c r="D90" s="40"/>
-      <c r="E90" s="40" t="s">
+      <c r="D90" s="39"/>
+      <c r="E90" s="39" t="s">
         <v>950</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="82"/>
-      <c r="B91" s="40" t="s">
+      <c r="A91" s="65"/>
+      <c r="B91" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="C91" s="40" t="s">
+      <c r="C91" s="39" t="s">
         <v>954</v>
       </c>
-      <c r="D91" s="40"/>
-      <c r="E91" s="40" t="s">
+      <c r="D91" s="39"/>
+      <c r="E91" s="39" t="s">
         <v>955</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A92" s="82"/>
+      <c r="A92" s="65"/>
       <c r="B92" s="31" t="s">
         <v>999</v>
       </c>
@@ -5887,7 +5883,7 @@
       </c>
     </row>
     <row r="93" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A93" s="82"/>
+      <c r="A93" s="65"/>
       <c r="B93" s="31" t="s">
         <v>1013</v>
       </c>
@@ -5900,7 +5896,7 @@
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="82"/>
+      <c r="A94" s="65"/>
       <c r="B94" s="31" t="s">
         <v>1016</v>
       </c>
@@ -5913,7 +5909,7 @@
       </c>
     </row>
     <row r="95" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="82"/>
+      <c r="A95" s="65"/>
       <c r="B95" s="31" t="s">
         <v>1025</v>
       </c>
@@ -5926,7 +5922,7 @@
       </c>
     </row>
     <row r="96" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A96" s="82"/>
+      <c r="A96" s="65"/>
       <c r="B96" s="31" t="s">
         <v>1028</v>
       </c>
@@ -5939,7 +5935,7 @@
       </c>
     </row>
     <row r="97" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A97" s="82"/>
+      <c r="A97" s="65"/>
       <c r="B97" s="31" t="s">
         <v>1040</v>
       </c>
@@ -5952,7 +5948,7 @@
       </c>
     </row>
     <row r="98" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="82"/>
+      <c r="A98" s="65"/>
       <c r="B98" s="31" t="s">
         <v>756</v>
       </c>
@@ -5965,7 +5961,7 @@
       </c>
     </row>
     <row r="99" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="83"/>
+      <c r="A99" s="66"/>
       <c r="B99" s="34" t="s">
         <v>1085</v>
       </c>
@@ -5981,23 +5977,23 @@
       <c r="G99" s="21"/>
     </row>
     <row r="100" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="127"/>
+      <c r="A100" s="58"/>
       <c r="B100" s="35" t="s">
         <v>1129</v>
       </c>
       <c r="C100" s="35" t="s">
         <v>1130</v>
       </c>
-      <c r="D100" s="136" t="s">
+      <c r="D100" s="35" t="s">
         <v>1103</v>
       </c>
       <c r="E100" s="35" t="s">
         <v>1131</v>
       </c>
-      <c r="G100" s="128"/>
+      <c r="G100" s="18"/>
     </row>
     <row r="101" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="127"/>
+      <c r="A101" s="58"/>
       <c r="B101" s="35" t="s">
         <v>1158</v>
       </c>
@@ -6010,13 +6006,13 @@
       <c r="E101" s="35" t="s">
         <v>1160</v>
       </c>
-      <c r="F101" s="137" t="s">
+      <c r="F101" s="62" t="s">
         <v>1161</v>
       </c>
-      <c r="G101" s="128"/>
+      <c r="G101" s="18"/>
     </row>
     <row r="102" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="127"/>
+      <c r="A102" s="58"/>
       <c r="B102" s="35" t="s">
         <v>1162</v>
       </c>
@@ -6029,11 +6025,11 @@
       <c r="E102" s="35" t="s">
         <v>1164</v>
       </c>
-      <c r="F102" s="133"/>
-      <c r="G102" s="128"/>
+      <c r="F102" s="62"/>
+      <c r="G102" s="18"/>
     </row>
     <row r="103" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="127"/>
+      <c r="A103" s="58"/>
       <c r="B103" s="35" t="s">
         <v>1165</v>
       </c>
@@ -6046,11 +6042,11 @@
       <c r="E103" s="35" t="s">
         <v>1167</v>
       </c>
-      <c r="F103" s="133"/>
-      <c r="G103" s="128"/>
+      <c r="F103" s="62"/>
+      <c r="G103" s="18"/>
     </row>
     <row r="104" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="127"/>
+      <c r="A104" s="58"/>
       <c r="B104" s="35" t="s">
         <v>1168</v>
       </c>
@@ -6063,11 +6059,11 @@
       <c r="E104" s="35" t="s">
         <v>1170</v>
       </c>
-      <c r="F104" s="133"/>
-      <c r="G104" s="128"/>
+      <c r="F104" s="62"/>
+      <c r="G104" s="18"/>
     </row>
     <row r="105" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="127"/>
+      <c r="A105" s="58"/>
       <c r="B105" s="35" t="s">
         <v>1171</v>
       </c>
@@ -6080,11 +6076,11 @@
       <c r="E105" s="35" t="s">
         <v>1173</v>
       </c>
-      <c r="F105" s="133"/>
-      <c r="G105" s="128"/>
+      <c r="F105" s="62"/>
+      <c r="G105" s="18"/>
     </row>
     <row r="106" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="127"/>
+      <c r="A106" s="58"/>
       <c r="B106" s="35" t="s">
         <v>1174</v>
       </c>
@@ -6097,13 +6093,13 @@
       <c r="E106" s="35" t="s">
         <v>1176</v>
       </c>
-      <c r="F106" s="133" t="s">
+      <c r="F106" s="62" t="s">
         <v>1177</v>
       </c>
-      <c r="G106" s="128"/>
+      <c r="G106" s="18"/>
     </row>
     <row r="107" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="127"/>
+      <c r="A107" s="58"/>
       <c r="B107" s="35" t="s">
         <v>1178</v>
       </c>
@@ -6116,40 +6112,40 @@
       <c r="E107" s="35" t="s">
         <v>1180</v>
       </c>
-      <c r="F107" s="133" t="s">
+      <c r="F107" s="62" t="s">
         <v>1177</v>
       </c>
-      <c r="G107" s="128"/>
+      <c r="G107" s="18"/>
     </row>
     <row r="108" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="127"/>
-      <c r="G108" s="128"/>
+      <c r="A108" s="58"/>
+      <c r="G108" s="18"/>
     </row>
     <row r="109" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="127"/>
-      <c r="G109" s="128"/>
+      <c r="A109" s="58"/>
+      <c r="G109" s="18"/>
     </row>
     <row r="110" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="127"/>
+      <c r="A110" s="58"/>
       <c r="B110" s="34"/>
       <c r="C110" s="34"/>
       <c r="D110" s="34"/>
       <c r="E110" s="34"/>
-      <c r="G110" s="128"/>
+      <c r="G110" s="18"/>
     </row>
     <row r="111" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="127"/>
+      <c r="A111" s="58"/>
       <c r="B111" s="34"/>
       <c r="C111" s="34"/>
       <c r="D111" s="34"/>
       <c r="E111" s="34"/>
-      <c r="G111" s="128"/>
+      <c r="G111" s="18"/>
     </row>
     <row r="112" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="90" t="s">
+      <c r="A112" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="B112" s="45" t="s">
+      <c r="B112" s="44" t="s">
         <v>38</v>
       </c>
       <c r="C112" s="36" t="s">
@@ -6165,8 +6161,8 @@
       <c r="G112" s="13"/>
     </row>
     <row r="113" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="90"/>
-      <c r="B113" s="46"/>
+      <c r="A113" s="73"/>
+      <c r="B113" s="45"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="9"/>
@@ -6174,8 +6170,8 @@
       <c r="G113" s="13"/>
     </row>
     <row r="114" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="91"/>
-      <c r="B114" s="46" t="s">
+      <c r="A114" s="74"/>
+      <c r="B114" s="45" t="s">
         <v>41</v>
       </c>
       <c r="C114" s="4" t="s">
@@ -6189,8 +6185,8 @@
       <c r="G114" s="13"/>
     </row>
     <row r="115" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="92"/>
-      <c r="B115" s="47" t="s">
+      <c r="A115" s="75"/>
+      <c r="B115" s="46" t="s">
         <v>44</v>
       </c>
       <c r="C115" s="32" t="s">
@@ -6206,10 +6202,10 @@
       </c>
     </row>
     <row r="116" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="109" t="s">
+      <c r="A116" s="94" t="s">
         <v>494</v>
       </c>
-      <c r="B116" s="43" t="s">
+      <c r="B116" s="42" t="s">
         <v>112</v>
       </c>
       <c r="C116" s="7" t="s">
@@ -6222,8 +6218,8 @@
       <c r="G116" s="13"/>
     </row>
     <row r="117" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="109"/>
-      <c r="B117" s="46"/>
+      <c r="A117" s="94"/>
+      <c r="B117" s="45"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="9"/>
@@ -6231,8 +6227,8 @@
       <c r="G117" s="13"/>
     </row>
     <row r="118" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="110"/>
-      <c r="B118" s="46"/>
+      <c r="A118" s="95"/>
+      <c r="B118" s="45"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="9"/>
@@ -6240,8 +6236,8 @@
       <c r="G118" s="13"/>
     </row>
     <row r="119" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="111"/>
-      <c r="B119" s="47"/>
+      <c r="A119" s="96"/>
+      <c r="B119" s="46"/>
       <c r="C119" s="32"/>
       <c r="D119" s="32"/>
       <c r="E119" s="33"/>
@@ -6251,10 +6247,10 @@
       </c>
     </row>
     <row r="120" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="60" t="s">
+      <c r="A120" s="107" t="s">
         <v>496</v>
       </c>
-      <c r="B120" s="43" t="s">
+      <c r="B120" s="42" t="s">
         <v>185</v>
       </c>
       <c r="C120" s="31" t="s">
@@ -6267,8 +6263,8 @@
       <c r="G120" s="13"/>
     </row>
     <row r="121" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A121" s="60"/>
-      <c r="B121" s="43" t="s">
+      <c r="A121" s="107"/>
+      <c r="B121" s="42" t="s">
         <v>118</v>
       </c>
       <c r="C121" s="7" t="s">
@@ -6281,8 +6277,8 @@
       <c r="G121" s="13"/>
     </row>
     <row r="122" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A122" s="61"/>
-      <c r="B122" s="43" t="s">
+      <c r="A122" s="108"/>
+      <c r="B122" s="42" t="s">
         <v>152</v>
       </c>
       <c r="C122" s="31" t="s">
@@ -6295,8 +6291,8 @@
       <c r="G122" s="13"/>
     </row>
     <row r="123" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A123" s="62"/>
-      <c r="B123" s="43" t="s">
+      <c r="A123" s="109"/>
+      <c r="B123" s="42" t="s">
         <v>234</v>
       </c>
       <c r="C123" s="31" t="s">
@@ -6309,8 +6305,8 @@
       <c r="G123" s="18"/>
     </row>
     <row r="124" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A124" s="63"/>
-      <c r="B124" s="43" t="s">
+      <c r="A124" s="110"/>
+      <c r="B124" s="42" t="s">
         <v>246</v>
       </c>
       <c r="C124" s="31" t="s">
@@ -6323,8 +6319,8 @@
       <c r="G124" s="13"/>
     </row>
     <row r="125" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A125" s="63"/>
-      <c r="B125" s="43" t="s">
+      <c r="A125" s="110"/>
+      <c r="B125" s="42" t="s">
         <v>601</v>
       </c>
       <c r="C125" s="31" t="s">
@@ -6338,15 +6334,15 @@
       <c r="G125" s="13"/>
     </row>
     <row r="126" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A126" s="63"/>
-      <c r="B126" s="43" t="s">
+      <c r="A126" s="110"/>
+      <c r="B126" s="42" t="s">
         <v>794</v>
       </c>
-      <c r="C126" s="40" t="s">
+      <c r="C126" s="39" t="s">
         <v>795</v>
       </c>
-      <c r="D126" s="40"/>
-      <c r="E126" s="40" t="s">
+      <c r="D126" s="39"/>
+      <c r="E126" s="39" t="s">
         <v>796</v>
       </c>
       <c r="F126" s="31" t="s">
@@ -6355,22 +6351,22 @@
       <c r="G126" s="13"/>
     </row>
     <row r="127" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A127" s="63"/>
-      <c r="B127" s="43" t="s">
+      <c r="A127" s="110"/>
+      <c r="B127" s="42" t="s">
         <v>800</v>
       </c>
-      <c r="C127" s="40" t="s">
+      <c r="C127" s="39" t="s">
         <v>801</v>
       </c>
-      <c r="D127" s="40"/>
-      <c r="E127" s="40" t="s">
+      <c r="D127" s="39"/>
+      <c r="E127" s="39" t="s">
         <v>802</v>
       </c>
       <c r="F127" s="18"/>
       <c r="G127" s="13"/>
     </row>
     <row r="128" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A128" s="63"/>
+      <c r="A128" s="110"/>
       <c r="B128" s="31" t="s">
         <v>856</v>
       </c>
@@ -6385,37 +6381,37 @@
       <c r="G128" s="13"/>
     </row>
     <row r="129" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A129" s="63"/>
-      <c r="B129" s="40" t="s">
+      <c r="A129" s="110"/>
+      <c r="B129" s="39" t="s">
         <v>906</v>
       </c>
-      <c r="C129" s="40" t="s">
+      <c r="C129" s="39" t="s">
         <v>907</v>
       </c>
-      <c r="D129" s="40"/>
-      <c r="E129" s="40" t="s">
+      <c r="D129" s="39"/>
+      <c r="E129" s="39" t="s">
         <v>908</v>
       </c>
       <c r="F129" s="18"/>
       <c r="G129" s="13"/>
     </row>
     <row r="130" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A130" s="63"/>
-      <c r="B130" s="40" t="s">
+      <c r="A130" s="110"/>
+      <c r="B130" s="39" t="s">
         <v>909</v>
       </c>
-      <c r="C130" s="40" t="s">
+      <c r="C130" s="39" t="s">
         <v>910</v>
       </c>
-      <c r="D130" s="40"/>
-      <c r="E130" s="40" t="s">
+      <c r="D130" s="39"/>
+      <c r="E130" s="39" t="s">
         <v>911</v>
       </c>
       <c r="F130" s="18"/>
       <c r="G130" s="13"/>
     </row>
     <row r="131" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A131" s="63"/>
+      <c r="A131" s="110"/>
       <c r="B131" s="31" t="s">
         <v>930</v>
       </c>
@@ -6430,7 +6426,7 @@
       <c r="G131" s="13"/>
     </row>
     <row r="132" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A132" s="63"/>
+      <c r="A132" s="110"/>
       <c r="B132" s="31" t="s">
         <v>942</v>
       </c>
@@ -6445,7 +6441,7 @@
       <c r="G132" s="13"/>
     </row>
     <row r="133" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A133" s="63"/>
+      <c r="A133" s="110"/>
       <c r="B133" s="31" t="s">
         <v>981</v>
       </c>
@@ -6460,7 +6456,7 @@
       <c r="G133" s="13"/>
     </row>
     <row r="134" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A134" s="63"/>
+      <c r="A134" s="110"/>
       <c r="B134" s="31" t="s">
         <v>918</v>
       </c>
@@ -6475,24 +6471,24 @@
       <c r="G134" s="13"/>
     </row>
     <row r="135" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A135" s="63"/>
-      <c r="B135" s="40"/>
-      <c r="C135" s="40"/>
-      <c r="D135" s="40"/>
-      <c r="E135" s="40"/>
+      <c r="A135" s="110"/>
+      <c r="B135" s="39"/>
+      <c r="C135" s="39"/>
+      <c r="D135" s="39"/>
+      <c r="E135" s="39"/>
       <c r="F135" s="18"/>
       <c r="G135" s="13"/>
     </row>
     <row r="136" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="64"/>
+      <c r="A136" s="111"/>
       <c r="F136" s="18"/>
       <c r="G136" s="13"/>
     </row>
     <row r="137" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="65" t="s">
+      <c r="A137" s="112" t="s">
         <v>490</v>
       </c>
-      <c r="B137" s="43" t="s">
+      <c r="B137" s="42" t="s">
         <v>261</v>
       </c>
       <c r="C137" s="31" t="s">
@@ -6505,8 +6501,8 @@
       <c r="G137" s="13"/>
     </row>
     <row r="138" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="65"/>
-      <c r="B138" s="43" t="s">
+      <c r="A138" s="112"/>
+      <c r="B138" s="42" t="s">
         <v>289</v>
       </c>
       <c r="C138" s="31" t="s">
@@ -6519,7 +6515,7 @@
       <c r="G138" s="13"/>
     </row>
     <row r="139" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="66"/>
+      <c r="A139" s="113"/>
       <c r="B139" s="35" t="s">
         <v>423</v>
       </c>
@@ -6534,8 +6530,8 @@
       <c r="G139" s="13"/>
     </row>
     <row r="140" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="67"/>
-      <c r="B140" s="47"/>
+      <c r="A140" s="114"/>
+      <c r="B140" s="46"/>
       <c r="C140" s="32"/>
       <c r="D140" s="32"/>
       <c r="E140" s="33"/>
@@ -6545,10 +6541,10 @@
       </c>
     </row>
     <row r="141" spans="1:7" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="84" t="s">
+      <c r="A141" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="B141" s="43" t="s">
+      <c r="B141" s="42" t="s">
         <v>77</v>
       </c>
       <c r="C141" s="7" t="s">
@@ -6562,8 +6558,8 @@
       <c r="G141" s="30"/>
     </row>
     <row r="142" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A142" s="85"/>
-      <c r="B142" s="43" t="s">
+      <c r="A142" s="68"/>
+      <c r="B142" s="42" t="s">
         <v>75</v>
       </c>
       <c r="C142" s="7" t="s">
@@ -6577,8 +6573,8 @@
       <c r="G142" s="23"/>
     </row>
     <row r="143" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A143" s="85"/>
-      <c r="B143" s="43" t="s">
+      <c r="A143" s="68"/>
+      <c r="B143" s="42" t="s">
         <v>263</v>
       </c>
       <c r="C143" s="31" t="s">
@@ -6591,8 +6587,8 @@
       <c r="G143" s="13"/>
     </row>
     <row r="144" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A144" s="85"/>
-      <c r="B144" s="43" t="s">
+      <c r="A144" s="68"/>
+      <c r="B144" s="42" t="s">
         <v>361</v>
       </c>
       <c r="C144" s="31" t="s">
@@ -6605,8 +6601,8 @@
       <c r="G144" s="13"/>
     </row>
     <row r="145" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A145" s="85"/>
-      <c r="B145" s="43" t="s">
+      <c r="A145" s="68"/>
+      <c r="B145" s="42" t="s">
         <v>271</v>
       </c>
       <c r="C145" s="31" t="s">
@@ -6621,8 +6617,8 @@
       <c r="G145" s="13"/>
     </row>
     <row r="146" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A146" s="85"/>
-      <c r="B146" s="43" t="s">
+      <c r="A146" s="68"/>
+      <c r="B146" s="42" t="s">
         <v>281</v>
       </c>
       <c r="C146" s="31" t="s">
@@ -6635,8 +6631,8 @@
       <c r="G146" s="13"/>
     </row>
     <row r="147" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A147" s="85"/>
-      <c r="B147" s="43" t="s">
+      <c r="A147" s="68"/>
+      <c r="B147" s="42" t="s">
         <v>318</v>
       </c>
       <c r="C147" s="31" t="s">
@@ -6649,8 +6645,8 @@
       <c r="G147" s="13"/>
     </row>
     <row r="148" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A148" s="85"/>
-      <c r="B148" s="43" t="s">
+      <c r="A148" s="68"/>
+      <c r="B148" s="42" t="s">
         <v>351</v>
       </c>
       <c r="C148" s="31" t="s">
@@ -6663,8 +6659,8 @@
       <c r="G148" s="13"/>
     </row>
     <row r="149" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A149" s="85"/>
-      <c r="B149" s="43" t="s">
+      <c r="A149" s="68"/>
+      <c r="B149" s="42" t="s">
         <v>316</v>
       </c>
       <c r="C149" s="31" t="s">
@@ -6677,8 +6673,8 @@
       <c r="G149" s="13"/>
     </row>
     <row r="150" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A150" s="85"/>
-      <c r="B150" s="43" t="s">
+      <c r="A150" s="68"/>
+      <c r="B150" s="42" t="s">
         <v>269</v>
       </c>
       <c r="C150" s="31" t="s">
@@ -6691,7 +6687,7 @@
       <c r="G150" s="13"/>
     </row>
     <row r="151" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A151" s="85"/>
+      <c r="A151" s="68"/>
       <c r="B151" s="35" t="s">
         <v>480</v>
       </c>
@@ -6708,8 +6704,8 @@
       <c r="G151" s="13"/>
     </row>
     <row r="152" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A152" s="85"/>
-      <c r="B152" s="43" t="s">
+      <c r="A152" s="68"/>
+      <c r="B152" s="42" t="s">
         <v>322</v>
       </c>
       <c r="C152" s="31" t="s">
@@ -6720,8 +6716,8 @@
       </c>
     </row>
     <row r="153" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A153" s="85"/>
-      <c r="B153" s="43" t="s">
+      <c r="A153" s="68"/>
+      <c r="B153" s="42" t="s">
         <v>526</v>
       </c>
       <c r="C153" s="31" t="s">
@@ -6735,8 +6731,8 @@
       <c r="G153" s="13"/>
     </row>
     <row r="154" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A154" s="85"/>
-      <c r="B154" s="48" t="s">
+      <c r="A154" s="68"/>
+      <c r="B154" s="47" t="s">
         <v>584</v>
       </c>
       <c r="C154" s="31" t="s">
@@ -6752,8 +6748,8 @@
       <c r="G154" s="13"/>
     </row>
     <row r="155" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A155" s="85"/>
-      <c r="B155" s="43" t="s">
+      <c r="A155" s="68"/>
+      <c r="B155" s="42" t="s">
         <v>674</v>
       </c>
       <c r="C155" s="31" t="s">
@@ -6769,22 +6765,22 @@
       <c r="G155" s="13"/>
     </row>
     <row r="156" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A156" s="85"/>
-      <c r="B156" s="43" t="s">
+      <c r="A156" s="68"/>
+      <c r="B156" s="42" t="s">
         <v>764</v>
       </c>
-      <c r="C156" s="40" t="s">
+      <c r="C156" s="39" t="s">
         <v>765</v>
       </c>
-      <c r="D156" s="40"/>
-      <c r="E156" s="40" t="s">
+      <c r="D156" s="39"/>
+      <c r="E156" s="39" t="s">
         <v>766</v>
       </c>
       <c r="F156" s="31"/>
       <c r="G156" s="13"/>
     </row>
     <row r="157" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A157" s="85"/>
+      <c r="A157" s="68"/>
       <c r="B157" s="31" t="s">
         <v>859</v>
       </c>
@@ -6799,22 +6795,22 @@
       <c r="G157" s="13"/>
     </row>
     <row r="158" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A158" s="85"/>
-      <c r="B158" s="40" t="s">
+      <c r="A158" s="68"/>
+      <c r="B158" s="39" t="s">
         <v>882</v>
       </c>
-      <c r="C158" s="40" t="s">
+      <c r="C158" s="39" t="s">
         <v>883</v>
       </c>
-      <c r="D158" s="40"/>
-      <c r="E158" s="40" t="s">
+      <c r="D158" s="39"/>
+      <c r="E158" s="39" t="s">
         <v>884</v>
       </c>
       <c r="F158" s="31"/>
       <c r="G158" s="13"/>
     </row>
     <row r="159" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A159" s="85"/>
+      <c r="A159" s="68"/>
       <c r="B159" s="31" t="s">
         <v>921</v>
       </c>
@@ -6829,7 +6825,7 @@
       <c r="G159" s="13"/>
     </row>
     <row r="160" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A160" s="85"/>
+      <c r="A160" s="68"/>
       <c r="B160" s="31" t="s">
         <v>976</v>
       </c>
@@ -6844,7 +6840,7 @@
       <c r="G160" s="13"/>
     </row>
     <row r="161" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A161" s="85"/>
+      <c r="A161" s="68"/>
       <c r="B161" s="31" t="s">
         <v>1034</v>
       </c>
@@ -6859,7 +6855,7 @@
       <c r="G161" s="13"/>
     </row>
     <row r="162" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A162" s="85"/>
+      <c r="A162" s="68"/>
       <c r="B162" s="31"/>
       <c r="C162" s="31"/>
       <c r="D162" s="31"/>
@@ -6868,8 +6864,8 @@
       <c r="G162" s="13"/>
     </row>
     <row r="163" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="86"/>
-      <c r="B163" s="49"/>
+      <c r="A163" s="69"/>
+      <c r="B163" s="48"/>
       <c r="C163" s="24"/>
       <c r="D163" s="25"/>
       <c r="E163" s="24"/>
@@ -6877,10 +6873,10 @@
       <c r="G163" s="16"/>
     </row>
     <row r="164" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="77" t="s">
+      <c r="A164" s="124" t="s">
         <v>444</v>
       </c>
-      <c r="B164" s="43" t="s">
+      <c r="B164" s="42" t="s">
         <v>125</v>
       </c>
       <c r="C164" s="31" t="s">
@@ -6895,8 +6891,8 @@
       </c>
     </row>
     <row r="165" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A165" s="78"/>
-      <c r="B165" s="43" t="s">
+      <c r="A165" s="125"/>
+      <c r="B165" s="42" t="s">
         <v>127</v>
       </c>
       <c r="C165" s="31" t="s">
@@ -6911,8 +6907,8 @@
       <c r="G165" s="13"/>
     </row>
     <row r="166" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A166" s="78"/>
-      <c r="B166" s="43" t="s">
+      <c r="A166" s="125"/>
+      <c r="B166" s="42" t="s">
         <v>135</v>
       </c>
       <c r="C166" s="31" t="s">
@@ -6925,8 +6921,8 @@
       <c r="G166" s="13"/>
     </row>
     <row r="167" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A167" s="78"/>
-      <c r="B167" s="43" t="s">
+      <c r="A167" s="125"/>
+      <c r="B167" s="42" t="s">
         <v>137</v>
       </c>
       <c r="C167" s="31" t="s">
@@ -6939,8 +6935,8 @@
       <c r="G167" s="13"/>
     </row>
     <row r="168" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A168" s="78"/>
-      <c r="B168" s="43" t="s">
+      <c r="A168" s="125"/>
+      <c r="B168" s="42" t="s">
         <v>162</v>
       </c>
       <c r="C168" s="31" t="s">
@@ -6952,8 +6948,8 @@
       <c r="G168" s="13"/>
     </row>
     <row r="169" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A169" s="78"/>
-      <c r="B169" s="43" t="s">
+      <c r="A169" s="125"/>
+      <c r="B169" s="42" t="s">
         <v>162</v>
       </c>
       <c r="C169" s="31" t="s">
@@ -6968,8 +6964,8 @@
       <c r="G169" s="13"/>
     </row>
     <row r="170" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A170" s="78"/>
-      <c r="B170" s="43" t="s">
+      <c r="A170" s="125"/>
+      <c r="B170" s="42" t="s">
         <v>175</v>
       </c>
       <c r="C170" s="31" t="s">
@@ -6982,8 +6978,8 @@
       <c r="G170" s="13"/>
     </row>
     <row r="171" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A171" s="78"/>
-      <c r="B171" s="43" t="s">
+      <c r="A171" s="125"/>
+      <c r="B171" s="42" t="s">
         <v>238</v>
       </c>
       <c r="C171" s="31" t="s">
@@ -6996,8 +6992,8 @@
       <c r="G171" s="13"/>
     </row>
     <row r="172" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A172" s="78"/>
-      <c r="B172" s="43" t="s">
+      <c r="A172" s="125"/>
+      <c r="B172" s="42" t="s">
         <v>242</v>
       </c>
       <c r="C172" s="31" t="s">
@@ -7012,8 +7008,8 @@
       <c r="G172" s="13"/>
     </row>
     <row r="173" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A173" s="78"/>
-      <c r="B173" s="43" t="s">
+      <c r="A173" s="125"/>
+      <c r="B173" s="42" t="s">
         <v>273</v>
       </c>
       <c r="C173" s="31" t="s">
@@ -7026,8 +7022,8 @@
       <c r="G173" s="13"/>
     </row>
     <row r="174" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A174" s="78"/>
-      <c r="B174" s="43" t="s">
+      <c r="A174" s="125"/>
+      <c r="B174" s="42" t="s">
         <v>338</v>
       </c>
       <c r="C174" s="31" t="s">
@@ -7042,8 +7038,8 @@
       <c r="G174" s="13"/>
     </row>
     <row r="175" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A175" s="78"/>
-      <c r="B175" s="43" t="s">
+      <c r="A175" s="125"/>
+      <c r="B175" s="42" t="s">
         <v>338</v>
       </c>
       <c r="C175" s="31" t="s">
@@ -7055,7 +7051,7 @@
       <c r="G175" s="13"/>
     </row>
     <row r="176" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A176" s="78"/>
+      <c r="A176" s="125"/>
       <c r="B176" s="35" t="s">
         <v>427</v>
       </c>
@@ -7070,7 +7066,7 @@
       <c r="G176" s="13"/>
     </row>
     <row r="177" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A177" s="78"/>
+      <c r="A177" s="125"/>
       <c r="B177" s="35" t="s">
         <v>438</v>
       </c>
@@ -7085,7 +7081,7 @@
       <c r="G177" s="13"/>
     </row>
     <row r="178" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A178" s="78"/>
+      <c r="A178" s="125"/>
       <c r="B178" s="35" t="s">
         <v>472</v>
       </c>
@@ -7102,7 +7098,7 @@
       <c r="G178" s="13"/>
     </row>
     <row r="179" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A179" s="78"/>
+      <c r="A179" s="125"/>
       <c r="B179" s="35" t="s">
         <v>398</v>
       </c>
@@ -7119,7 +7115,7 @@
       <c r="G179" s="13"/>
     </row>
     <row r="180" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A180" s="78"/>
+      <c r="A180" s="125"/>
       <c r="B180" s="35" t="s">
         <v>469</v>
       </c>
@@ -7136,8 +7132,8 @@
       <c r="G180" s="13"/>
     </row>
     <row r="181" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A181" s="78"/>
-      <c r="B181" s="43" t="s">
+      <c r="A181" s="125"/>
+      <c r="B181" s="42" t="s">
         <v>285</v>
       </c>
       <c r="C181" s="31" t="s">
@@ -7150,8 +7146,8 @@
       <c r="G181" s="13"/>
     </row>
     <row r="182" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A182" s="78"/>
-      <c r="B182" s="43" t="s">
+      <c r="A182" s="125"/>
+      <c r="B182" s="42" t="s">
         <v>187</v>
       </c>
       <c r="C182" s="31" t="s">
@@ -7164,8 +7160,8 @@
       <c r="G182" s="13"/>
     </row>
     <row r="183" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A183" s="78"/>
-      <c r="B183" s="43" t="s">
+      <c r="A183" s="125"/>
+      <c r="B183" s="42" t="s">
         <v>116</v>
       </c>
       <c r="C183" s="7" t="s">
@@ -7180,8 +7176,8 @@
       <c r="G183" s="13"/>
     </row>
     <row r="184" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A184" s="78"/>
-      <c r="B184" s="43" t="s">
+      <c r="A184" s="125"/>
+      <c r="B184" s="42" t="s">
         <v>125</v>
       </c>
       <c r="C184" s="31" t="s">
@@ -7195,8 +7191,8 @@
       <c r="G184" s="13"/>
     </row>
     <row r="185" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A185" s="78"/>
-      <c r="B185" s="43" t="s">
+      <c r="A185" s="125"/>
+      <c r="B185" s="42" t="s">
         <v>438</v>
       </c>
       <c r="C185" s="31" t="s">
@@ -7210,8 +7206,8 @@
       <c r="G185" s="13"/>
     </row>
     <row r="186" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A186" s="78"/>
-      <c r="B186" s="43" t="s">
+      <c r="A186" s="125"/>
+      <c r="B186" s="42" t="s">
         <v>710</v>
       </c>
       <c r="C186" s="31" t="s">
@@ -7225,52 +7221,52 @@
       <c r="G186" s="13"/>
     </row>
     <row r="187" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A187" s="78"/>
-      <c r="B187" s="43" t="s">
+      <c r="A187" s="125"/>
+      <c r="B187" s="42" t="s">
         <v>776</v>
       </c>
-      <c r="C187" s="40" t="s">
+      <c r="C187" s="39" t="s">
         <v>777</v>
       </c>
-      <c r="D187" s="40"/>
-      <c r="E187" s="40" t="s">
+      <c r="D187" s="39"/>
+      <c r="E187" s="39" t="s">
         <v>778</v>
       </c>
       <c r="F187" s="7"/>
       <c r="G187" s="13"/>
     </row>
     <row r="188" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A188" s="78"/>
-      <c r="B188" s="43" t="s">
+      <c r="A188" s="125"/>
+      <c r="B188" s="42" t="s">
         <v>782</v>
       </c>
-      <c r="C188" s="40" t="s">
+      <c r="C188" s="39" t="s">
         <v>783</v>
       </c>
-      <c r="D188" s="40"/>
-      <c r="E188" s="40" t="s">
+      <c r="D188" s="39"/>
+      <c r="E188" s="39" t="s">
         <v>784</v>
       </c>
       <c r="F188" s="7"/>
       <c r="G188" s="13"/>
     </row>
     <row r="189" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A189" s="78"/>
-      <c r="B189" s="43" t="s">
+      <c r="A189" s="125"/>
+      <c r="B189" s="42" t="s">
         <v>785</v>
       </c>
-      <c r="C189" s="40" t="s">
+      <c r="C189" s="39" t="s">
         <v>786</v>
       </c>
-      <c r="D189" s="40"/>
-      <c r="E189" s="40" t="s">
+      <c r="D189" s="39"/>
+      <c r="E189" s="39" t="s">
         <v>787</v>
       </c>
       <c r="F189" s="7"/>
       <c r="G189" s="13"/>
     </row>
     <row r="190" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A190" s="78"/>
+      <c r="A190" s="125"/>
       <c r="B190" s="31" t="s">
         <v>838</v>
       </c>
@@ -7285,7 +7281,7 @@
       <c r="G190" s="13"/>
     </row>
     <row r="191" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A191" s="78"/>
+      <c r="A191" s="125"/>
       <c r="B191" s="31" t="s">
         <v>865</v>
       </c>
@@ -7300,109 +7296,109 @@
       <c r="G191" s="13"/>
     </row>
     <row r="192" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A192" s="78"/>
-      <c r="B192" s="40" t="s">
+      <c r="A192" s="125"/>
+      <c r="B192" s="39" t="s">
         <v>879</v>
       </c>
-      <c r="C192" s="40" t="s">
+      <c r="C192" s="39" t="s">
         <v>880</v>
       </c>
-      <c r="D192" s="40"/>
-      <c r="E192" s="40" t="s">
+      <c r="D192" s="39"/>
+      <c r="E192" s="39" t="s">
         <v>881</v>
       </c>
       <c r="F192" s="7"/>
       <c r="G192" s="13"/>
     </row>
     <row r="193" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A193" s="78"/>
-      <c r="B193" s="40" t="s">
+      <c r="A193" s="125"/>
+      <c r="B193" s="39" t="s">
         <v>885</v>
       </c>
-      <c r="C193" s="40" t="s">
+      <c r="C193" s="39" t="s">
         <v>886</v>
       </c>
-      <c r="D193" s="40"/>
-      <c r="E193" s="40" t="s">
+      <c r="D193" s="39"/>
+      <c r="E193" s="39" t="s">
         <v>887</v>
       </c>
       <c r="F193" s="7"/>
       <c r="G193" s="13"/>
     </row>
     <row r="194" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A194" s="78"/>
-      <c r="B194" s="40" t="s">
+      <c r="A194" s="125"/>
+      <c r="B194" s="39" t="s">
         <v>900</v>
       </c>
-      <c r="C194" s="40" t="s">
+      <c r="C194" s="39" t="s">
         <v>901</v>
       </c>
-      <c r="D194" s="40"/>
-      <c r="E194" s="40" t="s">
+      <c r="D194" s="39"/>
+      <c r="E194" s="39" t="s">
         <v>902</v>
       </c>
       <c r="F194" s="7"/>
       <c r="G194" s="13"/>
     </row>
     <row r="195" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="79"/>
-      <c r="B195" s="40" t="s">
+      <c r="A195" s="126"/>
+      <c r="B195" s="39" t="s">
         <v>903</v>
       </c>
-      <c r="C195" s="40" t="s">
+      <c r="C195" s="39" t="s">
         <v>904</v>
       </c>
-      <c r="D195" s="40"/>
-      <c r="E195" s="40" t="s">
+      <c r="D195" s="39"/>
+      <c r="E195" s="39" t="s">
         <v>905</v>
       </c>
       <c r="F195" s="38"/>
       <c r="G195" s="16"/>
     </row>
     <row r="196" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="79"/>
-      <c r="B196" s="40" t="s">
+      <c r="A196" s="126"/>
+      <c r="B196" s="39" t="s">
         <v>961</v>
       </c>
-      <c r="C196" s="40" t="s">
+      <c r="C196" s="39" t="s">
         <v>962</v>
       </c>
-      <c r="D196" s="40"/>
-      <c r="E196" s="40" t="s">
+      <c r="D196" s="39"/>
+      <c r="E196" s="39" t="s">
         <v>963</v>
       </c>
       <c r="G196" s="13"/>
     </row>
     <row r="197" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A197" s="79"/>
-      <c r="B197" s="40" t="s">
+      <c r="A197" s="126"/>
+      <c r="B197" s="39" t="s">
         <v>967</v>
       </c>
-      <c r="C197" s="40" t="s">
+      <c r="C197" s="39" t="s">
         <v>968</v>
       </c>
-      <c r="D197" s="40"/>
-      <c r="E197" s="40" t="s">
+      <c r="D197" s="39"/>
+      <c r="E197" s="39" t="s">
         <v>969</v>
       </c>
       <c r="G197" s="13"/>
     </row>
     <row r="198" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A198" s="79"/>
-      <c r="B198" s="40" t="s">
+      <c r="A198" s="126"/>
+      <c r="B198" s="39" t="s">
         <v>970</v>
       </c>
-      <c r="C198" s="40" t="s">
+      <c r="C198" s="39" t="s">
         <v>971</v>
       </c>
-      <c r="D198" s="40"/>
-      <c r="E198" s="40" t="s">
+      <c r="D198" s="39"/>
+      <c r="E198" s="39" t="s">
         <v>972</v>
       </c>
       <c r="G198" s="13"/>
     </row>
     <row r="199" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A199" s="79"/>
+      <c r="A199" s="126"/>
       <c r="B199" s="31" t="s">
         <v>984</v>
       </c>
@@ -7416,7 +7412,7 @@
       <c r="G199" s="13"/>
     </row>
     <row r="200" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A200" s="79"/>
+      <c r="A200" s="126"/>
       <c r="B200" s="31" t="s">
         <v>1002</v>
       </c>
@@ -7430,7 +7426,7 @@
       <c r="G200" s="13"/>
     </row>
     <row r="201" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A201" s="79"/>
+      <c r="A201" s="126"/>
       <c r="B201" s="31" t="s">
         <v>1019</v>
       </c>
@@ -7444,7 +7440,7 @@
       <c r="G201" s="13"/>
     </row>
     <row r="202" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A202" s="79"/>
+      <c r="A202" s="126"/>
       <c r="B202" s="31" t="s">
         <v>1037</v>
       </c>
@@ -7458,62 +7454,62 @@
       <c r="G202" s="13"/>
     </row>
     <row r="203" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A203" s="79"/>
+      <c r="A203" s="126"/>
       <c r="B203" s="34" t="s">
         <v>1048</v>
       </c>
       <c r="C203" s="34" t="s">
         <v>1049</v>
       </c>
-      <c r="D203" s="121" t="s">
+      <c r="D203" s="53" t="s">
         <v>1050</v>
       </c>
       <c r="E203" s="34" t="s">
         <v>1051</v>
       </c>
-      <c r="F203" s="122" t="s">
+      <c r="F203" s="54" t="s">
         <v>1052</v>
       </c>
       <c r="G203" s="13"/>
     </row>
     <row r="204" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A204" s="79"/>
+      <c r="A204" s="126"/>
       <c r="B204" s="34" t="s">
         <v>1048</v>
       </c>
       <c r="C204" s="34" t="s">
         <v>1053</v>
       </c>
-      <c r="D204" s="121" t="s">
+      <c r="D204" s="53" t="s">
         <v>1050</v>
       </c>
       <c r="E204" s="34" t="s">
         <v>1054</v>
       </c>
-      <c r="F204" s="122" t="s">
+      <c r="F204" s="54" t="s">
         <v>1055</v>
       </c>
       <c r="G204" s="13"/>
     </row>
     <row r="205" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A205" s="79"/>
+      <c r="A205" s="126"/>
       <c r="B205" s="34" t="s">
         <v>1056</v>
       </c>
       <c r="C205" s="34" t="s">
         <v>1057</v>
       </c>
-      <c r="D205" s="121" t="s">
+      <c r="D205" s="53" t="s">
         <v>1050</v>
       </c>
       <c r="E205" s="34" t="s">
         <v>1058</v>
       </c>
-      <c r="F205" s="123"/>
+      <c r="F205" s="34"/>
       <c r="G205" s="13"/>
     </row>
     <row r="206" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A206" s="79"/>
+      <c r="A206" s="126"/>
       <c r="B206" s="34" t="s">
         <v>1059</v>
       </c>
@@ -7526,87 +7522,87 @@
       <c r="E206" s="34" t="s">
         <v>1061</v>
       </c>
-      <c r="F206" s="123"/>
+      <c r="F206" s="34"/>
       <c r="G206" s="13"/>
     </row>
     <row r="207" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A207" s="79"/>
+      <c r="A207" s="126"/>
       <c r="B207" s="34" t="s">
         <v>1062</v>
       </c>
       <c r="C207" s="34" t="s">
         <v>1063</v>
       </c>
-      <c r="D207" s="121" t="s">
+      <c r="D207" s="53" t="s">
         <v>1050</v>
       </c>
       <c r="E207" s="34" t="s">
         <v>1064</v>
       </c>
-      <c r="F207" s="122" t="s">
+      <c r="F207" s="54" t="s">
         <v>1065</v>
       </c>
       <c r="G207" s="13"/>
     </row>
     <row r="208" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A208" s="79"/>
+      <c r="A208" s="126"/>
       <c r="B208" s="34" t="s">
         <v>1066</v>
       </c>
       <c r="C208" s="34" t="s">
         <v>1067</v>
       </c>
-      <c r="D208" s="121" t="s">
+      <c r="D208" s="53" t="s">
         <v>1050</v>
       </c>
       <c r="E208" s="34" t="s">
         <v>1068</v>
       </c>
-      <c r="F208" s="122" t="s">
+      <c r="F208" s="54" t="s">
         <v>1069</v>
       </c>
       <c r="G208" s="13"/>
     </row>
     <row r="209" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A209" s="79"/>
+      <c r="A209" s="126"/>
       <c r="B209" s="34" t="s">
         <v>1070</v>
       </c>
       <c r="C209" s="34" t="s">
         <v>1071</v>
       </c>
-      <c r="D209" s="121" t="s">
+      <c r="D209" s="53" t="s">
         <v>1050</v>
       </c>
       <c r="E209" s="34" t="s">
         <v>1072</v>
       </c>
-      <c r="F209" s="122" t="s">
+      <c r="F209" s="54" t="s">
         <v>1069</v>
       </c>
       <c r="G209" s="13"/>
     </row>
     <row r="210" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A210" s="79"/>
-      <c r="B210" s="124" t="s">
+      <c r="A210" s="126"/>
+      <c r="B210" s="55" t="s">
         <v>1073</v>
       </c>
-      <c r="C210" s="124" t="s">
+      <c r="C210" s="55" t="s">
         <v>1074</v>
       </c>
-      <c r="D210" s="124" t="s">
+      <c r="D210" s="55" t="s">
         <v>1050</v>
       </c>
-      <c r="E210" s="124" t="s">
+      <c r="E210" s="55" t="s">
         <v>1075</v>
       </c>
-      <c r="F210" s="125" t="s">
+      <c r="F210" s="56" t="s">
         <v>1069</v>
       </c>
       <c r="G210" s="13"/>
     </row>
     <row r="211" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A211" s="79"/>
+      <c r="A211" s="126"/>
       <c r="B211" s="34" t="s">
         <v>1094</v>
       </c>
@@ -7619,79 +7615,79 @@
       <c r="E211" s="34" t="s">
         <v>1096</v>
       </c>
-      <c r="F211" s="132" t="s">
+      <c r="F211" s="54" t="s">
         <v>1097</v>
       </c>
       <c r="G211" s="13"/>
     </row>
     <row r="212" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A212" s="79"/>
-      <c r="B212" s="124" t="s">
+      <c r="A212" s="126"/>
+      <c r="B212" s="55" t="s">
         <v>1094</v>
       </c>
-      <c r="C212" s="124" t="s">
+      <c r="C212" s="55" t="s">
         <v>1098</v>
       </c>
-      <c r="D212" s="124" t="s">
+      <c r="D212" s="55" t="s">
         <v>1050</v>
       </c>
-      <c r="E212" s="124" t="s">
+      <c r="E212" s="55" t="s">
         <v>1099</v>
       </c>
-      <c r="F212" s="125" t="s">
+      <c r="F212" s="56" t="s">
         <v>1100</v>
       </c>
       <c r="G212" s="13"/>
     </row>
     <row r="213" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A213" s="79"/>
-      <c r="B213" s="123"/>
-      <c r="C213" s="123"/>
-      <c r="D213" s="123"/>
-      <c r="E213" s="123"/>
-      <c r="F213" s="123"/>
+      <c r="A213" s="126"/>
+      <c r="B213" s="34"/>
+      <c r="C213" s="34"/>
+      <c r="D213" s="34"/>
+      <c r="E213" s="34"/>
+      <c r="F213" s="34"/>
       <c r="G213" s="13"/>
     </row>
     <row r="214" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A214" s="79"/>
-      <c r="B214" s="123"/>
-      <c r="C214" s="123"/>
-      <c r="D214" s="123"/>
-      <c r="E214" s="123"/>
-      <c r="F214" s="123"/>
+      <c r="A214" s="126"/>
+      <c r="B214" s="34"/>
+      <c r="C214" s="34"/>
+      <c r="D214" s="34"/>
+      <c r="E214" s="34"/>
+      <c r="F214" s="34"/>
       <c r="G214" s="13"/>
     </row>
     <row r="215" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A215" s="79"/>
-      <c r="B215" s="123"/>
-      <c r="C215" s="123"/>
-      <c r="D215" s="123"/>
-      <c r="E215" s="123"/>
-      <c r="F215" s="123"/>
+      <c r="A215" s="126"/>
+      <c r="B215" s="34"/>
+      <c r="C215" s="34"/>
+      <c r="D215" s="34"/>
+      <c r="E215" s="34"/>
+      <c r="F215" s="34"/>
       <c r="G215" s="13"/>
     </row>
     <row r="216" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A216" s="79"/>
-      <c r="B216" s="123"/>
-      <c r="C216" s="123"/>
-      <c r="D216" s="123"/>
-      <c r="E216" s="123"/>
-      <c r="F216" s="123"/>
+      <c r="A216" s="126"/>
+      <c r="B216" s="34"/>
+      <c r="C216" s="34"/>
+      <c r="D216" s="34"/>
+      <c r="E216" s="34"/>
+      <c r="F216" s="34"/>
       <c r="G216" s="13"/>
     </row>
     <row r="217" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A217" s="63"/>
-      <c r="B217" s="40"/>
-      <c r="C217" s="40"/>
-      <c r="D217" s="40"/>
-      <c r="E217" s="40"/>
+      <c r="A217" s="110"/>
+      <c r="B217" s="39"/>
+      <c r="C217" s="39"/>
+      <c r="D217" s="39"/>
+      <c r="E217" s="39"/>
       <c r="G217" s="13"/>
     </row>
     <row r="218" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="74" t="s">
+      <c r="A218" s="121" t="s">
         <v>759</v>
       </c>
-      <c r="B218" s="43" t="s">
+      <c r="B218" s="42" t="s">
         <v>375</v>
       </c>
       <c r="C218" s="31" t="s">
@@ -7707,15 +7703,15 @@
       <c r="G218" s="13"/>
     </row>
     <row r="219" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="74"/>
-      <c r="B219" s="43"/>
+      <c r="A219" s="121"/>
+      <c r="B219" s="42"/>
       <c r="C219" s="31"/>
       <c r="E219" s="31"/>
       <c r="F219" s="18"/>
       <c r="G219" s="13"/>
     </row>
     <row r="220" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="75"/>
+      <c r="A220" s="122"/>
       <c r="B220" s="35"/>
       <c r="C220" s="35"/>
       <c r="D220" s="35"/>
@@ -7724,8 +7720,8 @@
       <c r="G220" s="13"/>
     </row>
     <row r="221" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="76"/>
-      <c r="B221" s="47"/>
+      <c r="A221" s="123"/>
+      <c r="B221" s="46"/>
       <c r="C221" s="32"/>
       <c r="D221" s="32"/>
       <c r="E221" s="33"/>
@@ -7733,10 +7729,10 @@
       <c r="G221" s="16"/>
     </row>
     <row r="222" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="99" t="s">
+      <c r="A222" s="82" t="s">
         <v>407</v>
       </c>
-      <c r="B222" s="43" t="s">
+      <c r="B222" s="42" t="s">
         <v>217</v>
       </c>
       <c r="C222" s="31" t="s">
@@ -7749,8 +7745,8 @@
       <c r="G222" s="13"/>
     </row>
     <row r="223" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A223" s="100"/>
-      <c r="B223" s="43" t="s">
+      <c r="A223" s="83"/>
+      <c r="B223" s="42" t="s">
         <v>81</v>
       </c>
       <c r="C223" s="7" t="s">
@@ -7764,8 +7760,8 @@
       <c r="G223" s="13"/>
     </row>
     <row r="224" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A224" s="100"/>
-      <c r="B224" s="43" t="s">
+      <c r="A224" s="83"/>
+      <c r="B224" s="42" t="s">
         <v>73</v>
       </c>
       <c r="C224" s="7" t="s">
@@ -7781,8 +7777,8 @@
       <c r="G224" s="13"/>
     </row>
     <row r="225" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A225" s="100"/>
-      <c r="B225" s="43" t="s">
+      <c r="A225" s="83"/>
+      <c r="B225" s="42" t="s">
         <v>131</v>
       </c>
       <c r="C225" s="31" t="s">
@@ -7795,8 +7791,8 @@
       <c r="G225" s="13"/>
     </row>
     <row r="226" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A226" s="100"/>
-      <c r="B226" s="43" t="s">
+      <c r="A226" s="83"/>
+      <c r="B226" s="42" t="s">
         <v>549</v>
       </c>
       <c r="C226" s="31" t="s">
@@ -7810,8 +7806,8 @@
       <c r="G226" s="13"/>
     </row>
     <row r="227" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A227" s="100"/>
-      <c r="B227" s="43" t="s">
+      <c r="A227" s="83"/>
+      <c r="B227" s="42" t="s">
         <v>692</v>
       </c>
       <c r="C227" s="31" t="s">
@@ -7825,8 +7821,8 @@
       <c r="G227" s="13"/>
     </row>
     <row r="228" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A228" s="100"/>
-      <c r="B228" s="43" t="s">
+      <c r="A228" s="83"/>
+      <c r="B228" s="42" t="s">
         <v>707</v>
       </c>
       <c r="C228" s="31" t="s">
@@ -7840,7 +7836,7 @@
       <c r="G228" s="13"/>
     </row>
     <row r="229" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A229" s="100"/>
+      <c r="A229" s="83"/>
       <c r="B229" s="31" t="s">
         <v>812</v>
       </c>
@@ -7855,8 +7851,8 @@
       <c r="G229" s="13"/>
     </row>
     <row r="230" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A230" s="100"/>
-      <c r="B230" s="43"/>
+      <c r="A230" s="83"/>
+      <c r="B230" s="42"/>
       <c r="C230" s="31"/>
       <c r="D230" s="31"/>
       <c r="E230" s="31"/>
@@ -7864,8 +7860,8 @@
       <c r="G230" s="13"/>
     </row>
     <row r="231" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A231" s="100"/>
-      <c r="B231" s="43"/>
+      <c r="A231" s="83"/>
+      <c r="B231" s="42"/>
       <c r="C231" s="31"/>
       <c r="D231" s="31"/>
       <c r="E231" s="31"/>
@@ -7873,14 +7869,14 @@
       <c r="G231" s="13"/>
     </row>
     <row r="232" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="101"/>
+      <c r="A232" s="84"/>
       <c r="G232" s="16"/>
     </row>
     <row r="233" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="68" t="s">
+      <c r="A233" s="115" t="s">
         <v>500</v>
       </c>
-      <c r="B233" s="43" t="s">
+      <c r="B233" s="42" t="s">
         <v>291</v>
       </c>
       <c r="C233" s="31" t="s">
@@ -7893,8 +7889,8 @@
       <c r="G233" s="13"/>
     </row>
     <row r="234" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="69"/>
-      <c r="B234" s="43"/>
+      <c r="A234" s="116"/>
+      <c r="B234" s="42"/>
       <c r="C234" s="7"/>
       <c r="D234" s="8"/>
       <c r="E234" s="7"/>
@@ -7902,8 +7898,8 @@
       <c r="G234" s="13"/>
     </row>
     <row r="235" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="69"/>
-      <c r="B235" s="43"/>
+      <c r="A235" s="116"/>
+      <c r="B235" s="42"/>
       <c r="C235" s="7"/>
       <c r="D235" s="8"/>
       <c r="E235" s="7"/>
@@ -7911,16 +7907,16 @@
       <c r="G235" s="13"/>
     </row>
     <row r="236" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="69"/>
-      <c r="B236" s="43"/>
+      <c r="A236" s="116"/>
+      <c r="B236" s="42"/>
       <c r="C236" s="31"/>
       <c r="E236" s="31"/>
       <c r="F236" s="7"/>
       <c r="G236" s="13"/>
     </row>
     <row r="237" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="69"/>
-      <c r="B237" s="43"/>
+      <c r="A237" s="116"/>
+      <c r="B237" s="42"/>
       <c r="C237" s="7"/>
       <c r="D237" s="8"/>
       <c r="E237" s="7"/>
@@ -7928,11 +7924,11 @@
       <c r="G237" s="13"/>
     </row>
     <row r="238" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="70"/>
+      <c r="A238" s="117"/>
       <c r="G238" s="16"/>
     </row>
     <row r="239" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="57" t="s">
+      <c r="A239" s="91" t="s">
         <v>493</v>
       </c>
       <c r="B239" s="35" t="s">
@@ -7951,8 +7947,8 @@
       <c r="G239" s="13"/>
     </row>
     <row r="240" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A240" s="58"/>
-      <c r="B240" s="43" t="s">
+      <c r="A240" s="92"/>
+      <c r="B240" s="42" t="s">
         <v>179</v>
       </c>
       <c r="C240" s="31" t="s">
@@ -7965,8 +7961,8 @@
       <c r="G240" s="13"/>
     </row>
     <row r="241" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A241" s="58"/>
-      <c r="B241" s="43" t="s">
+      <c r="A241" s="92"/>
+      <c r="B241" s="42" t="s">
         <v>83</v>
       </c>
       <c r="C241" s="7" t="s">
@@ -7980,8 +7976,8 @@
       <c r="G241" s="13"/>
     </row>
     <row r="242" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A242" s="58"/>
-      <c r="B242" s="43" t="s">
+      <c r="A242" s="92"/>
+      <c r="B242" s="42" t="s">
         <v>293</v>
       </c>
       <c r="C242" s="31" t="s">
@@ -7994,8 +7990,8 @@
       <c r="G242" s="13"/>
     </row>
     <row r="243" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A243" s="58"/>
-      <c r="B243" s="43" t="s">
+      <c r="A243" s="92"/>
+      <c r="B243" s="42" t="s">
         <v>563</v>
       </c>
       <c r="C243" s="31" t="s">
@@ -8011,8 +8007,8 @@
       <c r="G243" s="13"/>
     </row>
     <row r="244" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A244" s="58"/>
-      <c r="B244" s="43" t="s">
+      <c r="A244" s="92"/>
+      <c r="B244" s="42" t="s">
         <v>125</v>
       </c>
       <c r="C244" s="31" t="s">
@@ -8026,8 +8022,8 @@
       <c r="G244" s="13"/>
     </row>
     <row r="245" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A245" s="58"/>
-      <c r="B245" s="43" t="s">
+      <c r="A245" s="92"/>
+      <c r="B245" s="42" t="s">
         <v>552</v>
       </c>
       <c r="C245" s="31" t="s">
@@ -8041,8 +8037,8 @@
       <c r="G245" s="13"/>
     </row>
     <row r="246" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A246" s="58"/>
-      <c r="B246" s="43" t="s">
+      <c r="A246" s="92"/>
+      <c r="B246" s="42" t="s">
         <v>707</v>
       </c>
       <c r="C246" s="31" t="s">
@@ -8056,8 +8052,8 @@
       <c r="G246" s="13"/>
     </row>
     <row r="247" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A247" s="58"/>
-      <c r="B247" s="43" t="s">
+      <c r="A247" s="92"/>
+      <c r="B247" s="42" t="s">
         <v>737</v>
       </c>
       <c r="C247" s="31" t="s">
@@ -8071,8 +8067,8 @@
       <c r="G247" s="13"/>
     </row>
     <row r="248" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A248" s="58"/>
-      <c r="B248" s="43" t="s">
+      <c r="A248" s="92"/>
+      <c r="B248" s="42" t="s">
         <v>746</v>
       </c>
       <c r="C248" s="31" t="s">
@@ -8086,7 +8082,7 @@
       <c r="G248" s="13"/>
     </row>
     <row r="249" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A249" s="58"/>
+      <c r="A249" s="92"/>
       <c r="B249" s="31" t="s">
         <v>847</v>
       </c>
@@ -8101,7 +8097,7 @@
       <c r="G249" s="13"/>
     </row>
     <row r="250" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A250" s="58"/>
+      <c r="A250" s="92"/>
       <c r="B250" s="31" t="s">
         <v>862</v>
       </c>
@@ -8116,7 +8112,7 @@
       <c r="G250" s="13"/>
     </row>
     <row r="251" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A251" s="58"/>
+      <c r="A251" s="92"/>
       <c r="B251" s="31" t="s">
         <v>987</v>
       </c>
@@ -8131,7 +8127,7 @@
       <c r="G251" s="13"/>
     </row>
     <row r="252" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A252" s="58"/>
+      <c r="A252" s="92"/>
       <c r="B252" s="31"/>
       <c r="C252" s="31"/>
       <c r="D252" s="31"/>
@@ -8140,7 +8136,7 @@
       <c r="G252" s="13"/>
     </row>
     <row r="253" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A253" s="58"/>
+      <c r="A253" s="92"/>
       <c r="B253" s="31"/>
       <c r="C253" s="31"/>
       <c r="D253" s="31"/>
@@ -8149,17 +8145,17 @@
       <c r="G253" s="13"/>
     </row>
     <row r="254" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="108"/>
+      <c r="A254" s="93"/>
       <c r="F254" s="19"/>
       <c r="G254" s="16" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="255" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="71" t="s">
+      <c r="A255" s="118" t="s">
         <v>106</v>
       </c>
-      <c r="B255" s="43" t="s">
+      <c r="B255" s="42" t="s">
         <v>107</v>
       </c>
       <c r="C255" s="7" t="s">
@@ -8171,8 +8167,8 @@
       <c r="G255" s="30"/>
     </row>
     <row r="256" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A256" s="72"/>
-      <c r="B256" s="43" t="s">
+      <c r="A256" s="119"/>
+      <c r="B256" s="42" t="s">
         <v>97</v>
       </c>
       <c r="C256" s="7" t="s">
@@ -8186,8 +8182,8 @@
       <c r="G256" s="23"/>
     </row>
     <row r="257" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A257" s="72"/>
-      <c r="B257" s="43" t="s">
+      <c r="A257" s="119"/>
+      <c r="B257" s="42" t="s">
         <v>328</v>
       </c>
       <c r="C257" s="31" t="s">
@@ -8200,8 +8196,8 @@
       <c r="G257" s="13"/>
     </row>
     <row r="258" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A258" s="72"/>
-      <c r="B258" s="43" t="s">
+      <c r="A258" s="119"/>
+      <c r="B258" s="42" t="s">
         <v>373</v>
       </c>
       <c r="C258" s="31" t="s">
@@ -8214,7 +8210,7 @@
       <c r="G258" s="13"/>
     </row>
     <row r="259" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A259" s="72"/>
+      <c r="A259" s="119"/>
       <c r="B259" s="35" t="s">
         <v>441</v>
       </c>
@@ -8233,7 +8229,7 @@
       <c r="G259" s="13"/>
     </row>
     <row r="260" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A260" s="72"/>
+      <c r="A260" s="119"/>
       <c r="B260" s="35" t="s">
         <v>425</v>
       </c>
@@ -8252,7 +8248,7 @@
       <c r="G260" s="13"/>
     </row>
     <row r="261" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A261" s="72"/>
+      <c r="A261" s="119"/>
       <c r="B261" s="35" t="s">
         <v>483</v>
       </c>
@@ -8269,7 +8265,7 @@
       <c r="G261" s="13"/>
     </row>
     <row r="262" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A262" s="72"/>
+      <c r="A262" s="119"/>
       <c r="B262" s="35" t="s">
         <v>476</v>
       </c>
@@ -8286,7 +8282,7 @@
       <c r="G262" s="13"/>
     </row>
     <row r="263" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A263" s="72"/>
+      <c r="A263" s="119"/>
       <c r="B263" s="35" t="s">
         <v>414</v>
       </c>
@@ -8305,7 +8301,7 @@
       <c r="G263" s="13"/>
     </row>
     <row r="264" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A264" s="72"/>
+      <c r="A264" s="119"/>
       <c r="B264" s="35" t="s">
         <v>402</v>
       </c>
@@ -8324,7 +8320,7 @@
       <c r="G264" s="13"/>
     </row>
     <row r="265" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A265" s="72"/>
+      <c r="A265" s="119"/>
       <c r="B265" s="35" t="s">
         <v>396</v>
       </c>
@@ -8339,7 +8335,7 @@
       <c r="G265" s="13"/>
     </row>
     <row r="266" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A266" s="72"/>
+      <c r="A266" s="119"/>
       <c r="B266" s="35" t="s">
         <v>409</v>
       </c>
@@ -8354,7 +8350,7 @@
       <c r="G266" s="13"/>
     </row>
     <row r="267" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A267" s="72"/>
+      <c r="A267" s="119"/>
       <c r="B267" s="35" t="s">
         <v>445</v>
       </c>
@@ -8373,7 +8369,7 @@
       <c r="G267" s="13"/>
     </row>
     <row r="268" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A268" s="73"/>
+      <c r="A268" s="120"/>
       <c r="B268" s="35" t="s">
         <v>447</v>
       </c>
@@ -8392,8 +8388,8 @@
       <c r="G268" s="13"/>
     </row>
     <row r="269" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A269" s="73"/>
-      <c r="B269" s="43" t="s">
+      <c r="A269" s="120"/>
+      <c r="B269" s="42" t="s">
         <v>567</v>
       </c>
       <c r="C269" s="31" t="s">
@@ -8409,8 +8405,8 @@
       <c r="G269" s="18"/>
     </row>
     <row r="270" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A270" s="73"/>
-      <c r="B270" s="43" t="s">
+      <c r="A270" s="120"/>
+      <c r="B270" s="42" t="s">
         <v>679</v>
       </c>
       <c r="C270" s="31" t="s">
@@ -8426,7 +8422,7 @@
       <c r="G270" s="13"/>
     </row>
     <row r="271" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A271" s="73"/>
+      <c r="A271" s="120"/>
       <c r="B271" s="31" t="s">
         <v>818</v>
       </c>
@@ -8441,7 +8437,7 @@
       <c r="G271" s="13"/>
     </row>
     <row r="272" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A272" s="73"/>
+      <c r="A272" s="120"/>
       <c r="B272" s="31" t="s">
         <v>824</v>
       </c>
@@ -8456,7 +8452,7 @@
       <c r="G272" s="13"/>
     </row>
     <row r="273" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A273" s="73"/>
+      <c r="A273" s="120"/>
       <c r="B273" s="31" t="s">
         <v>868</v>
       </c>
@@ -8471,7 +8467,7 @@
       <c r="G273" s="13"/>
     </row>
     <row r="274" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A274" s="73"/>
+      <c r="A274" s="120"/>
       <c r="B274" s="31" t="s">
         <v>927</v>
       </c>
@@ -8486,7 +8482,7 @@
       <c r="G274" s="13"/>
     </row>
     <row r="275" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A275" s="73"/>
+      <c r="A275" s="120"/>
       <c r="B275" s="31" t="s">
         <v>993</v>
       </c>
@@ -8501,7 +8497,7 @@
       <c r="G275" s="13"/>
     </row>
     <row r="276" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A276" s="73"/>
+      <c r="A276" s="120"/>
       <c r="B276" s="31" t="s">
         <v>1043</v>
       </c>
@@ -8516,7 +8512,7 @@
       <c r="G276" s="13"/>
     </row>
     <row r="277" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A277" s="73"/>
+      <c r="A277" s="120"/>
       <c r="B277" s="31"/>
       <c r="C277" s="31"/>
       <c r="D277" s="31"/>
@@ -8525,7 +8521,7 @@
       <c r="G277" s="13"/>
     </row>
     <row r="278" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A278" s="73"/>
+      <c r="A278" s="120"/>
       <c r="B278" s="31"/>
       <c r="C278" s="31"/>
       <c r="D278" s="31"/>
@@ -8534,7 +8530,7 @@
       <c r="G278" s="13"/>
     </row>
     <row r="279" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A279" s="73"/>
+      <c r="A279" s="120"/>
       <c r="B279" s="31"/>
       <c r="C279" s="31"/>
       <c r="D279" s="31"/>
@@ -8543,7 +8539,7 @@
       <c r="G279" s="13"/>
     </row>
     <row r="280" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A280" s="63"/>
+      <c r="A280" s="110"/>
       <c r="B280" s="35"/>
       <c r="C280" s="34"/>
       <c r="D280" s="4"/>
@@ -8552,10 +8548,10 @@
       <c r="G280" s="13"/>
     </row>
     <row r="281" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A281" s="57" t="s">
+      <c r="A281" s="91" t="s">
         <v>760</v>
       </c>
-      <c r="B281" s="43" t="s">
+      <c r="B281" s="42" t="s">
         <v>725</v>
       </c>
       <c r="C281" s="31" t="s">
@@ -8569,16 +8565,16 @@
       <c r="G281" s="13"/>
     </row>
     <row r="282" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A282" s="58"/>
-      <c r="B282" s="43"/>
+      <c r="A282" s="92"/>
+      <c r="B282" s="42"/>
       <c r="C282" s="31"/>
       <c r="E282" s="31"/>
       <c r="F282" s="18"/>
       <c r="G282" s="13"/>
     </row>
     <row r="283" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A283" s="58"/>
-      <c r="B283" s="43"/>
+      <c r="A283" s="92"/>
+      <c r="B283" s="42"/>
       <c r="C283" s="31"/>
       <c r="D283" s="31"/>
       <c r="E283" s="31"/>
@@ -8586,8 +8582,8 @@
       <c r="G283" s="13"/>
     </row>
     <row r="284" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="58"/>
-      <c r="B284" s="43"/>
+      <c r="A284" s="92"/>
+      <c r="B284" s="42"/>
       <c r="C284" s="7"/>
       <c r="D284" s="8"/>
       <c r="E284" s="7"/>
@@ -8595,8 +8591,8 @@
       <c r="G284" s="13"/>
     </row>
     <row r="285" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="58"/>
-      <c r="B285" s="43"/>
+      <c r="A285" s="92"/>
+      <c r="B285" s="42"/>
       <c r="C285" s="7"/>
       <c r="D285" s="8"/>
       <c r="E285" s="7"/>
@@ -8604,8 +8600,8 @@
       <c r="G285" s="13"/>
     </row>
     <row r="286" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="58"/>
-      <c r="B286" s="43"/>
+      <c r="A286" s="92"/>
+      <c r="B286" s="42"/>
       <c r="C286" s="7"/>
       <c r="D286" s="8"/>
       <c r="E286" s="7"/>
@@ -8613,8 +8609,8 @@
       <c r="G286" s="13"/>
     </row>
     <row r="287" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="58"/>
-      <c r="B287" s="43"/>
+      <c r="A287" s="92"/>
+      <c r="B287" s="42"/>
       <c r="C287" s="7"/>
       <c r="D287" s="8"/>
       <c r="E287" s="7"/>
@@ -8622,17 +8618,17 @@
       <c r="G287" s="13"/>
     </row>
     <row r="288" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="59"/>
+      <c r="A288" s="106"/>
       <c r="F288" s="19"/>
       <c r="G288" s="16" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="289" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A289" s="80" t="s">
+      <c r="A289" s="127" t="s">
         <v>492</v>
       </c>
-      <c r="B289" s="43" t="s">
+      <c r="B289" s="42" t="s">
         <v>183</v>
       </c>
       <c r="C289" s="31" t="s">
@@ -8645,8 +8641,8 @@
       <c r="G289" s="12"/>
     </row>
     <row r="290" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A290" s="81"/>
-      <c r="B290" s="43" t="s">
+      <c r="A290" s="128"/>
+      <c r="B290" s="42" t="s">
         <v>187</v>
       </c>
       <c r="C290" s="31" t="s">
@@ -8659,8 +8655,8 @@
       <c r="G290" s="13"/>
     </row>
     <row r="291" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A291" s="81"/>
-      <c r="B291" s="43" t="s">
+      <c r="A291" s="128"/>
+      <c r="B291" s="42" t="s">
         <v>387</v>
       </c>
       <c r="C291" s="31" t="s">
@@ -8673,8 +8669,8 @@
       <c r="G291" s="13"/>
     </row>
     <row r="292" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A292" s="81"/>
-      <c r="B292" s="43" t="s">
+      <c r="A292" s="128"/>
+      <c r="B292" s="42" t="s">
         <v>275</v>
       </c>
       <c r="C292" s="31" t="s">
@@ -8687,8 +8683,8 @@
       <c r="G292" s="13"/>
     </row>
     <row r="293" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A293" s="81"/>
-      <c r="B293" s="43" t="s">
+      <c r="A293" s="128"/>
+      <c r="B293" s="42" t="s">
         <v>367</v>
       </c>
       <c r="C293" s="31" t="s">
@@ -8701,8 +8697,8 @@
       <c r="G293" s="13"/>
     </row>
     <row r="294" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A294" s="81"/>
-      <c r="B294" s="43" t="s">
+      <c r="A294" s="128"/>
+      <c r="B294" s="42" t="s">
         <v>375</v>
       </c>
       <c r="C294" s="31" t="s">
@@ -8715,8 +8711,8 @@
       <c r="G294" s="13"/>
     </row>
     <row r="295" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A295" s="81"/>
-      <c r="B295" s="43" t="s">
+      <c r="A295" s="128"/>
+      <c r="B295" s="42" t="s">
         <v>505</v>
       </c>
       <c r="C295" s="31" t="s">
@@ -8730,8 +8726,8 @@
       <c r="G295" s="13"/>
     </row>
     <row r="296" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A296" s="81"/>
-      <c r="B296" s="43" t="s">
+      <c r="A296" s="128"/>
+      <c r="B296" s="42" t="s">
         <v>529</v>
       </c>
       <c r="C296" s="31" t="s">
@@ -8745,8 +8741,8 @@
       <c r="G296" s="13"/>
     </row>
     <row r="297" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A297" s="81"/>
-      <c r="B297" s="43" t="s">
+      <c r="A297" s="128"/>
+      <c r="B297" s="42" t="s">
         <v>571</v>
       </c>
       <c r="C297" s="31" t="s">
@@ -8760,8 +8756,8 @@
       <c r="G297" s="13"/>
     </row>
     <row r="298" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A298" s="81"/>
-      <c r="B298" s="43" t="s">
+      <c r="A298" s="128"/>
+      <c r="B298" s="42" t="s">
         <v>588</v>
       </c>
       <c r="C298" s="31" t="s">
@@ -8775,8 +8771,8 @@
       <c r="G298" s="13"/>
     </row>
     <row r="299" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A299" s="81"/>
-      <c r="B299" s="43" t="s">
+      <c r="A299" s="128"/>
+      <c r="B299" s="42" t="s">
         <v>624</v>
       </c>
       <c r="C299" s="31" t="s">
@@ -8790,8 +8786,8 @@
       <c r="G299" s="13"/>
     </row>
     <row r="300" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A300" s="81"/>
-      <c r="B300" s="43" t="s">
+      <c r="A300" s="128"/>
+      <c r="B300" s="42" t="s">
         <v>698</v>
       </c>
       <c r="C300" s="31" t="s">
@@ -8805,8 +8801,8 @@
       <c r="G300" s="13"/>
     </row>
     <row r="301" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A301" s="81"/>
-      <c r="B301" s="43" t="s">
+      <c r="A301" s="128"/>
+      <c r="B301" s="42" t="s">
         <v>375</v>
       </c>
       <c r="C301" s="31" t="s">
@@ -8822,8 +8818,8 @@
       <c r="G301" s="13"/>
     </row>
     <row r="302" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A302" s="81"/>
-      <c r="B302" s="43" t="s">
+      <c r="A302" s="128"/>
+      <c r="B302" s="42" t="s">
         <v>731</v>
       </c>
       <c r="C302" s="31" t="s">
@@ -8837,37 +8833,37 @@
       <c r="G302" s="13"/>
     </row>
     <row r="303" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A303" s="81"/>
-      <c r="B303" s="43" t="s">
+      <c r="A303" s="128"/>
+      <c r="B303" s="42" t="s">
         <v>806</v>
       </c>
-      <c r="C303" s="40" t="s">
+      <c r="C303" s="39" t="s">
         <v>807</v>
       </c>
-      <c r="D303" s="40"/>
-      <c r="E303" s="40" t="s">
+      <c r="D303" s="39"/>
+      <c r="E303" s="39" t="s">
         <v>808</v>
       </c>
       <c r="F303" s="31"/>
       <c r="G303" s="13"/>
     </row>
     <row r="304" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A304" s="81"/>
-      <c r="B304" s="43" t="s">
+      <c r="A304" s="128"/>
+      <c r="B304" s="42" t="s">
         <v>797</v>
       </c>
-      <c r="C304" s="40" t="s">
+      <c r="C304" s="39" t="s">
         <v>798</v>
       </c>
-      <c r="D304" s="40"/>
-      <c r="E304" s="40" t="s">
+      <c r="D304" s="39"/>
+      <c r="E304" s="39" t="s">
         <v>799</v>
       </c>
       <c r="F304" s="31"/>
       <c r="G304" s="13"/>
     </row>
     <row r="305" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A305" s="81"/>
+      <c r="A305" s="128"/>
       <c r="B305" s="31" t="s">
         <v>835</v>
       </c>
@@ -8882,7 +8878,7 @@
       <c r="G305" s="13"/>
     </row>
     <row r="306" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A306" s="81"/>
+      <c r="A306" s="128"/>
       <c r="B306" s="31" t="s">
         <v>844</v>
       </c>
@@ -8897,37 +8893,37 @@
       <c r="G306" s="13"/>
     </row>
     <row r="307" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A307" s="81"/>
-      <c r="B307" s="40" t="s">
+      <c r="A307" s="128"/>
+      <c r="B307" s="39" t="s">
         <v>894</v>
       </c>
-      <c r="C307" s="40" t="s">
+      <c r="C307" s="39" t="s">
         <v>895</v>
       </c>
-      <c r="D307" s="40"/>
-      <c r="E307" s="40" t="s">
+      <c r="D307" s="39"/>
+      <c r="E307" s="39" t="s">
         <v>896</v>
       </c>
       <c r="F307" s="31"/>
       <c r="G307" s="13"/>
     </row>
     <row r="308" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="81"/>
-      <c r="B308" s="40" t="s">
+      <c r="A308" s="128"/>
+      <c r="B308" s="39" t="s">
         <v>973</v>
       </c>
-      <c r="C308" s="40" t="s">
+      <c r="C308" s="39" t="s">
         <v>974</v>
       </c>
-      <c r="D308" s="40"/>
-      <c r="E308" s="40" t="s">
+      <c r="D308" s="39"/>
+      <c r="E308" s="39" t="s">
         <v>975</v>
       </c>
       <c r="F308" s="19"/>
       <c r="G308" s="16"/>
     </row>
     <row r="309" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A309" s="63"/>
+      <c r="A309" s="110"/>
       <c r="B309" s="31" t="s">
         <v>990</v>
       </c>
@@ -8942,46 +8938,46 @@
       <c r="G309" s="13"/>
     </row>
     <row r="310" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A310" s="63"/>
-      <c r="B310" s="40"/>
-      <c r="C310" s="40"/>
-      <c r="D310" s="40"/>
-      <c r="E310" s="40"/>
+      <c r="A310" s="110"/>
+      <c r="B310" s="39"/>
+      <c r="C310" s="39"/>
+      <c r="D310" s="39"/>
+      <c r="E310" s="39"/>
       <c r="F310" s="18"/>
       <c r="G310" s="13"/>
     </row>
     <row r="311" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A311" s="63"/>
-      <c r="B311" s="40"/>
-      <c r="C311" s="40"/>
-      <c r="D311" s="40"/>
-      <c r="E311" s="40"/>
+      <c r="A311" s="110"/>
+      <c r="B311" s="39"/>
+      <c r="C311" s="39"/>
+      <c r="D311" s="39"/>
+      <c r="E311" s="39"/>
       <c r="F311" s="18"/>
       <c r="G311" s="13"/>
     </row>
     <row r="312" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A312" s="63"/>
-      <c r="B312" s="40"/>
-      <c r="C312" s="40"/>
-      <c r="D312" s="40"/>
-      <c r="E312" s="40"/>
+      <c r="A312" s="110"/>
+      <c r="B312" s="39"/>
+      <c r="C312" s="39"/>
+      <c r="D312" s="39"/>
+      <c r="E312" s="39"/>
       <c r="F312" s="18"/>
       <c r="G312" s="13"/>
     </row>
     <row r="313" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="64"/>
-      <c r="B313" s="40"/>
-      <c r="C313" s="40"/>
-      <c r="D313" s="40"/>
-      <c r="E313" s="40"/>
+      <c r="A313" s="129"/>
+      <c r="B313" s="39"/>
+      <c r="C313" s="39"/>
+      <c r="D313" s="39"/>
+      <c r="E313" s="39"/>
       <c r="F313" s="18"/>
       <c r="G313" s="13"/>
     </row>
     <row r="314" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A314" s="112" t="s">
+      <c r="A314" s="130" t="s">
         <v>495</v>
       </c>
-      <c r="B314" s="43" t="s">
+      <c r="B314" s="42" t="s">
         <v>129</v>
       </c>
       <c r="C314" s="31" t="s">
@@ -8994,8 +8990,8 @@
       <c r="G314" s="12"/>
     </row>
     <row r="315" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A315" s="113"/>
-      <c r="B315" s="43" t="s">
+      <c r="A315" s="131"/>
+      <c r="B315" s="42" t="s">
         <v>240</v>
       </c>
       <c r="C315" s="31" t="s">
@@ -9008,22 +9004,22 @@
       <c r="G315" s="13"/>
     </row>
     <row r="316" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A316" s="113"/>
-      <c r="B316" s="43" t="s">
+      <c r="A316" s="131"/>
+      <c r="B316" s="42" t="s">
         <v>803</v>
       </c>
-      <c r="C316" s="40" t="s">
+      <c r="C316" s="39" t="s">
         <v>804</v>
       </c>
-      <c r="D316" s="40"/>
-      <c r="E316" s="40" t="s">
+      <c r="D316" s="39"/>
+      <c r="E316" s="39" t="s">
         <v>805</v>
       </c>
       <c r="F316" s="18"/>
       <c r="G316" s="13"/>
     </row>
     <row r="317" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A317" s="113"/>
+      <c r="A317" s="131"/>
       <c r="B317" s="31" t="s">
         <v>815</v>
       </c>
@@ -9038,22 +9034,22 @@
       <c r="G317" s="13"/>
     </row>
     <row r="318" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A318" s="113"/>
-      <c r="B318" s="40" t="s">
+      <c r="A318" s="131"/>
+      <c r="B318" s="39" t="s">
         <v>894</v>
       </c>
-      <c r="C318" s="40" t="s">
+      <c r="C318" s="39" t="s">
         <v>895</v>
       </c>
-      <c r="D318" s="40"/>
-      <c r="E318" s="40" t="s">
+      <c r="D318" s="39"/>
+      <c r="E318" s="39" t="s">
         <v>896</v>
       </c>
       <c r="F318" s="18"/>
       <c r="G318" s="13"/>
     </row>
     <row r="319" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A319" s="113"/>
+      <c r="A319" s="131"/>
       <c r="B319" s="35" t="s">
         <v>1139</v>
       </c>
@@ -9066,13 +9062,13 @@
       <c r="E319" s="35" t="s">
         <v>1141</v>
       </c>
-      <c r="F319" s="133" t="s">
+      <c r="F319" s="62" t="s">
         <v>1142</v>
       </c>
       <c r="G319" s="13"/>
     </row>
     <row r="320" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A320" s="113"/>
+      <c r="A320" s="131"/>
       <c r="B320" s="35" t="s">
         <v>1143</v>
       </c>
@@ -9085,13 +9081,13 @@
       <c r="E320" s="35" t="s">
         <v>1145</v>
       </c>
-      <c r="F320" s="133" t="s">
+      <c r="F320" s="62" t="s">
         <v>1142</v>
       </c>
       <c r="G320" s="13"/>
     </row>
     <row r="321" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A321" s="113"/>
+      <c r="A321" s="131"/>
       <c r="B321" s="35" t="s">
         <v>1146</v>
       </c>
@@ -9104,13 +9100,13 @@
       <c r="E321" s="35" t="s">
         <v>1148</v>
       </c>
-      <c r="F321" s="133" t="s">
+      <c r="F321" s="62" t="s">
         <v>1142</v>
       </c>
       <c r="G321" s="13"/>
     </row>
     <row r="322" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A322" s="113"/>
+      <c r="A322" s="131"/>
       <c r="B322" s="35" t="s">
         <v>141</v>
       </c>
@@ -9123,13 +9119,13 @@
       <c r="E322" s="35" t="s">
         <v>1150</v>
       </c>
-      <c r="F322" s="133" t="s">
+      <c r="F322" s="62" t="s">
         <v>1151</v>
       </c>
       <c r="G322" s="13"/>
     </row>
     <row r="323" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A323" s="113"/>
+      <c r="A323" s="131"/>
       <c r="B323" s="35" t="s">
         <v>1152</v>
       </c>
@@ -9142,402 +9138,397 @@
       <c r="E323" s="35" t="s">
         <v>1154</v>
       </c>
-      <c r="F323" s="133" t="s">
+      <c r="F323" s="62" t="s">
         <v>1151</v>
       </c>
       <c r="G323" s="13"/>
     </row>
-    <row r="324" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A324" s="114"/>
-      <c r="B324" s="138" t="s">
+    <row r="324" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A324" s="131"/>
+      <c r="B324" s="132" t="s">
         <v>1155</v>
       </c>
-      <c r="C324" s="138" t="s">
+      <c r="C324" s="132" t="s">
         <v>1156</v>
       </c>
-      <c r="D324" s="138" t="s">
+      <c r="D324" s="132" t="s">
         <v>1077</v>
       </c>
-      <c r="E324" s="138" t="s">
+      <c r="E324" s="132" t="s">
         <v>1157</v>
       </c>
-      <c r="F324" s="139" t="s">
+      <c r="F324" s="132" t="s">
         <v>1151</v>
       </c>
-      <c r="G324" s="16"/>
-    </row>
-    <row r="325" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A325" s="39"/>
-      <c r="B325" s="136"/>
-      <c r="C325" s="136"/>
-      <c r="D325" s="136"/>
-      <c r="E325" s="136"/>
-      <c r="F325" s="136"/>
-      <c r="G325" s="13"/>
-    </row>
-    <row r="326" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A326" s="39"/>
-      <c r="B326" s="136"/>
-      <c r="C326" s="136"/>
-      <c r="D326" s="136"/>
-      <c r="E326" s="136"/>
-      <c r="F326" s="136"/>
+      <c r="G324" s="13"/>
+    </row>
+    <row r="325" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A325" s="131"/>
+      <c r="G325" s="16"/>
+    </row>
+    <row r="326" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A326" s="91" t="s">
+        <v>499</v>
+      </c>
+      <c r="B326" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="C326" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="E326" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="F326" s="31" t="s">
+        <v>95</v>
+      </c>
       <c r="G326" s="13"/>
     </row>
-    <row r="327" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A327" s="57" t="s">
-        <v>499</v>
-      </c>
-      <c r="B327" s="43" t="s">
-        <v>206</v>
+    <row r="327" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A327" s="92"/>
+      <c r="B327" s="42" t="s">
+        <v>189</v>
       </c>
       <c r="C327" s="31" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="E327" s="31" t="s">
-        <v>222</v>
-      </c>
-      <c r="F327" s="31" t="s">
-        <v>95</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="F327" s="18"/>
       <c r="G327" s="13"/>
     </row>
-    <row r="328" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A328" s="58"/>
-      <c r="B328" s="43" t="s">
-        <v>189</v>
+    <row r="328" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A328" s="92"/>
+      <c r="B328" s="42" t="s">
+        <v>725</v>
       </c>
       <c r="C328" s="31" t="s">
-        <v>191</v>
-      </c>
+        <v>726</v>
+      </c>
+      <c r="D328" s="31"/>
       <c r="E328" s="31" t="s">
-        <v>202</v>
+        <v>727</v>
       </c>
       <c r="F328" s="18"/>
       <c r="G328" s="13"/>
     </row>
-    <row r="329" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A329" s="58"/>
-      <c r="B329" s="43" t="s">
-        <v>725</v>
-      </c>
-      <c r="C329" s="31" t="s">
-        <v>726</v>
-      </c>
-      <c r="D329" s="31"/>
-      <c r="E329" s="31" t="s">
-        <v>727</v>
+    <row r="329" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A329" s="92"/>
+      <c r="B329" s="42" t="s">
+        <v>776</v>
+      </c>
+      <c r="C329" s="39" t="s">
+        <v>777</v>
+      </c>
+      <c r="D329" s="39"/>
+      <c r="E329" s="39" t="s">
+        <v>778</v>
       </c>
       <c r="F329" s="18"/>
       <c r="G329" s="13"/>
     </row>
-    <row r="330" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A330" s="58"/>
-      <c r="B330" s="43" t="s">
-        <v>776</v>
-      </c>
-      <c r="C330" s="40" t="s">
-        <v>777</v>
-      </c>
-      <c r="D330" s="40"/>
-      <c r="E330" s="40" t="s">
-        <v>778</v>
-      </c>
+    <row r="330" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A330" s="92"/>
+      <c r="B330" s="42"/>
+      <c r="C330" s="7"/>
+      <c r="D330" s="8"/>
+      <c r="E330" s="7"/>
       <c r="F330" s="18"/>
       <c r="G330" s="13"/>
     </row>
-    <row r="331" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A331" s="58"/>
-      <c r="B331" s="43"/>
+    <row r="331" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A331" s="92"/>
+      <c r="B331" s="42"/>
       <c r="C331" s="7"/>
       <c r="D331" s="8"/>
       <c r="E331" s="7"/>
       <c r="F331" s="18"/>
       <c r="G331" s="13"/>
     </row>
-    <row r="332" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A332" s="58"/>
-      <c r="B332" s="43"/>
+    <row r="332" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A332" s="92"/>
+      <c r="B332" s="42"/>
       <c r="C332" s="7"/>
       <c r="D332" s="8"/>
       <c r="E332" s="7"/>
       <c r="F332" s="18"/>
       <c r="G332" s="13"/>
     </row>
-    <row r="333" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="58"/>
-      <c r="B333" s="43"/>
-      <c r="C333" s="7"/>
-      <c r="D333" s="8"/>
-      <c r="E333" s="7"/>
-      <c r="F333" s="18"/>
-      <c r="G333" s="13"/>
-    </row>
-    <row r="334" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="59"/>
-      <c r="F334" s="19"/>
-      <c r="G334" s="16" t="s">
+    <row r="333" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A333" s="106"/>
+      <c r="F333" s="19"/>
+      <c r="G333" s="16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="335" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A335" s="93" t="s">
+    <row r="334" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A334" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="B335" s="50" t="s">
+      <c r="B334" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="C335" s="10" t="s">
+      <c r="C334" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D335" s="10" t="s">
+      <c r="D334" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E335" s="11" t="s">
+      <c r="E334" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F335" s="17"/>
-      <c r="G335" s="12"/>
+      <c r="F334" s="17"/>
+      <c r="G334" s="12"/>
+    </row>
+    <row r="335" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A335" s="77"/>
+      <c r="B335" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C335" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D335" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E335" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F335" s="18"/>
+      <c r="G335" s="13"/>
     </row>
     <row r="336" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A336" s="94"/>
-      <c r="B336" s="46" t="s">
-        <v>51</v>
+      <c r="A336" s="77"/>
+      <c r="B336" s="45" t="s">
+        <v>54</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D336" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D336" s="4"/>
       <c r="E336" s="9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F336" s="18"/>
       <c r="G336" s="13"/>
     </row>
     <row r="337" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="94"/>
-      <c r="B337" s="46" t="s">
-        <v>54</v>
+      <c r="A337" s="77"/>
+      <c r="B337" s="45" t="s">
+        <v>57</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D337" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="D337" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="E337" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F337" s="18"/>
+        <v>59</v>
+      </c>
+      <c r="F337" s="18" t="s">
+        <v>60</v>
+      </c>
       <c r="G337" s="13"/>
     </row>
     <row r="338" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A338" s="94"/>
-      <c r="B338" s="46" t="s">
-        <v>57</v>
+      <c r="A338" s="77"/>
+      <c r="B338" s="45" t="s">
+        <v>61</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D338" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E338" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F338" s="18" t="s">
-        <v>60</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="F338" s="18"/>
       <c r="G338" s="13"/>
     </row>
     <row r="339" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A339" s="94"/>
-      <c r="B339" s="46" t="s">
-        <v>61</v>
+      <c r="A339" s="77"/>
+      <c r="B339" s="45" t="s">
+        <v>64</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D339" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E339" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F339" s="18"/>
+        <v>66</v>
+      </c>
+      <c r="F339" s="18" t="s">
+        <v>60</v>
+      </c>
       <c r="G339" s="13"/>
     </row>
     <row r="340" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A340" s="94"/>
-      <c r="B340" s="46" t="s">
-        <v>64</v>
+      <c r="A340" s="77"/>
+      <c r="B340" s="45" t="s">
+        <v>67</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D340" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E340" s="9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F340" s="18" t="s">
         <v>60</v>
       </c>
       <c r="G340" s="13"/>
     </row>
-    <row r="341" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A341" s="94"/>
-      <c r="B341" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="C341" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D341" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E341" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="F341" s="18" t="s">
-        <v>60</v>
-      </c>
+    <row r="341" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A341" s="77"/>
+      <c r="B341" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C341" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="E341" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="F341" s="18"/>
       <c r="G341" s="13"/>
     </row>
-    <row r="342" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A342" s="94"/>
-      <c r="B342" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="C342" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="E342" s="31" t="s">
-        <v>225</v>
-      </c>
+    <row r="342" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A342" s="77"/>
+      <c r="B342" s="45"/>
+      <c r="C342" s="4"/>
+      <c r="D342" s="4"/>
+      <c r="E342" s="9"/>
       <c r="F342" s="18"/>
       <c r="G342" s="13"/>
     </row>
     <row r="343" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="94"/>
-      <c r="B343" s="46"/>
+      <c r="A343" s="77"/>
+      <c r="B343" s="45"/>
       <c r="C343" s="4"/>
       <c r="D343" s="4"/>
       <c r="E343" s="9"/>
       <c r="F343" s="18"/>
       <c r="G343" s="13"/>
     </row>
-    <row r="344" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="94"/>
-      <c r="B344" s="46"/>
-      <c r="C344" s="4"/>
-      <c r="D344" s="4"/>
-      <c r="E344" s="9"/>
-      <c r="F344" s="18"/>
-      <c r="G344" s="13"/>
-    </row>
-    <row r="345" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A345" s="95"/>
-      <c r="B345" s="51"/>
-      <c r="C345" s="14"/>
-      <c r="D345" s="14"/>
-      <c r="E345" s="15"/>
-      <c r="F345" s="19"/>
-      <c r="G345" s="16"/>
-    </row>
-    <row r="346" spans="1:7" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A346" s="102" t="s">
+    <row r="344" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A344" s="78"/>
+      <c r="B344" s="50"/>
+      <c r="C344" s="14"/>
+      <c r="D344" s="14"/>
+      <c r="E344" s="15"/>
+      <c r="F344" s="19"/>
+      <c r="G344" s="16"/>
+    </row>
+    <row r="345" spans="1:7" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A345" s="85" t="s">
         <v>408</v>
       </c>
-      <c r="B346" s="43" t="s">
+      <c r="B345" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="C346" s="7" t="s">
+      <c r="C345" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D346" s="8"/>
-      <c r="E346" s="7" t="s">
+      <c r="D345" s="8"/>
+      <c r="E345" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F346" s="17"/>
-      <c r="G346" s="12"/>
+      <c r="F345" s="17"/>
+      <c r="G345" s="12"/>
+    </row>
+    <row r="346" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A346" s="86"/>
+      <c r="B346" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="C346" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="E346" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="F346" s="18"/>
+      <c r="G346" s="13"/>
     </row>
     <row r="347" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A347" s="103"/>
-      <c r="B347" s="43" t="s">
-        <v>135</v>
+      <c r="A347" s="86"/>
+      <c r="B347" s="42" t="s">
+        <v>324</v>
       </c>
       <c r="C347" s="31" t="s">
-        <v>136</v>
+        <v>325</v>
       </c>
       <c r="E347" s="31" t="s">
-        <v>148</v>
+        <v>335</v>
       </c>
       <c r="F347" s="18"/>
       <c r="G347" s="13"/>
     </row>
     <row r="348" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A348" s="103"/>
-      <c r="B348" s="43" t="s">
-        <v>324</v>
+      <c r="A348" s="86"/>
+      <c r="B348" s="31" t="s">
+        <v>996</v>
       </c>
       <c r="C348" s="31" t="s">
-        <v>325</v>
-      </c>
+        <v>997</v>
+      </c>
+      <c r="D348" s="31"/>
       <c r="E348" s="31" t="s">
-        <v>335</v>
+        <v>998</v>
       </c>
       <c r="F348" s="18"/>
       <c r="G348" s="13"/>
     </row>
     <row r="349" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A349" s="103"/>
+      <c r="A349" s="86"/>
       <c r="B349" s="31" t="s">
-        <v>996</v>
+        <v>1022</v>
       </c>
       <c r="C349" s="31" t="s">
-        <v>997</v>
+        <v>1023</v>
       </c>
       <c r="D349" s="31"/>
       <c r="E349" s="31" t="s">
-        <v>998</v>
+        <v>1024</v>
       </c>
       <c r="F349" s="18"/>
       <c r="G349" s="13"/>
     </row>
     <row r="350" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A350" s="103"/>
+      <c r="A350" s="86"/>
       <c r="B350" s="31" t="s">
-        <v>1022</v>
+        <v>1031</v>
       </c>
       <c r="C350" s="31" t="s">
-        <v>1023</v>
+        <v>1032</v>
       </c>
       <c r="D350" s="31"/>
       <c r="E350" s="31" t="s">
-        <v>1024</v>
+        <v>1033</v>
       </c>
       <c r="F350" s="18"/>
       <c r="G350" s="13"/>
     </row>
     <row r="351" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A351" s="103"/>
-      <c r="B351" s="31" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C351" s="31" t="s">
-        <v>1032</v>
-      </c>
+      <c r="A351" s="86"/>
+      <c r="B351" s="31"/>
+      <c r="C351" s="31"/>
       <c r="D351" s="31"/>
-      <c r="E351" s="31" t="s">
-        <v>1033</v>
-      </c>
+      <c r="E351" s="31"/>
       <c r="F351" s="18"/>
       <c r="G351" s="13"/>
     </row>
     <row r="352" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A352" s="103"/>
+      <c r="A352" s="86"/>
       <c r="B352" s="31"/>
       <c r="C352" s="31"/>
       <c r="D352" s="31"/>
@@ -9545,74 +9536,74 @@
       <c r="F352" s="18"/>
       <c r="G352" s="13"/>
     </row>
-    <row r="353" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A353" s="103"/>
-      <c r="B353" s="31"/>
-      <c r="C353" s="31"/>
-      <c r="D353" s="31"/>
-      <c r="E353" s="31"/>
-      <c r="F353" s="18"/>
-      <c r="G353" s="13"/>
-    </row>
-    <row r="354" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A354" s="104"/>
-      <c r="B354" s="51"/>
-      <c r="C354" s="14"/>
-      <c r="D354" s="14"/>
-      <c r="E354" s="15"/>
-      <c r="F354" s="19"/>
-      <c r="G354" s="16"/>
-    </row>
-    <row r="355" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A355" s="54" t="s">
+    <row r="353" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A353" s="87"/>
+      <c r="B353" s="50"/>
+      <c r="C353" s="14"/>
+      <c r="D353" s="14"/>
+      <c r="E353" s="15"/>
+      <c r="F353" s="19"/>
+      <c r="G353" s="16"/>
+    </row>
+    <row r="354" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A354" s="103" t="s">
         <v>498</v>
       </c>
-      <c r="B355" s="43" t="s">
+      <c r="B354" s="42" t="s">
         <v>189</v>
       </c>
+      <c r="C354" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="E354" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="F354" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="G354" s="12"/>
+    </row>
+    <row r="355" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A355" s="104"/>
+      <c r="B355" s="42" t="s">
+        <v>189</v>
+      </c>
       <c r="C355" s="31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E355" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="F355" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="G355" s="12"/>
+        <v>202</v>
+      </c>
+      <c r="F355" s="18"/>
+      <c r="G355" s="13"/>
     </row>
     <row r="356" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A356" s="55"/>
-      <c r="B356" s="43" t="s">
-        <v>189</v>
+      <c r="A356" s="104"/>
+      <c r="B356" s="42" t="s">
+        <v>532</v>
       </c>
       <c r="C356" s="31" t="s">
-        <v>191</v>
-      </c>
+        <v>533</v>
+      </c>
+      <c r="D356" s="31"/>
       <c r="E356" s="31" t="s">
-        <v>202</v>
+        <v>534</v>
       </c>
       <c r="F356" s="18"/>
       <c r="G356" s="13"/>
     </row>
-    <row r="357" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A357" s="55"/>
-      <c r="B357" s="43" t="s">
-        <v>532</v>
-      </c>
-      <c r="C357" s="31" t="s">
-        <v>533</v>
-      </c>
-      <c r="D357" s="31"/>
-      <c r="E357" s="31" t="s">
-        <v>534</v>
-      </c>
+    <row r="357" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A357" s="104"/>
+      <c r="B357" s="45"/>
+      <c r="C357" s="4"/>
+      <c r="D357" s="4"/>
+      <c r="E357" s="9"/>
       <c r="F357" s="18"/>
       <c r="G357" s="13"/>
     </row>
     <row r="358" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A358" s="55"/>
-      <c r="B358" s="46"/>
+      <c r="A358" s="104"/>
+      <c r="B358" s="45"/>
       <c r="C358" s="4"/>
       <c r="D358" s="4"/>
       <c r="E358" s="9"/>
@@ -9620,1708 +9611,1702 @@
       <c r="G358" s="13"/>
     </row>
     <row r="359" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A359" s="55"/>
-      <c r="B359" s="46"/>
+      <c r="A359" s="104"/>
+      <c r="B359" s="45"/>
       <c r="C359" s="4"/>
       <c r="D359" s="4"/>
       <c r="E359" s="9"/>
       <c r="F359" s="18"/>
       <c r="G359" s="13"/>
     </row>
-    <row r="360" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A360" s="55"/>
-      <c r="B360" s="46"/>
-      <c r="C360" s="4"/>
-      <c r="D360" s="4"/>
-      <c r="E360" s="9"/>
+    <row r="360" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A360" s="105"/>
+      <c r="B360" s="42"/>
+      <c r="C360" s="31"/>
+      <c r="E360" s="31"/>
       <c r="F360" s="18"/>
       <c r="G360" s="13"/>
     </row>
-    <row r="361" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A361" s="56"/>
-      <c r="B361" s="43"/>
-      <c r="C361" s="31"/>
-      <c r="E361" s="31"/>
+    <row r="361" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A361" s="97" t="s">
+        <v>497</v>
+      </c>
+      <c r="B361" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="C361" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E361" s="7" t="s">
+        <v>120</v>
+      </c>
       <c r="F361" s="18"/>
-      <c r="G361" s="13"/>
-    </row>
-    <row r="362" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A362" s="115" t="s">
-        <v>497</v>
-      </c>
-      <c r="B362" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="C362" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E362" s="7" t="s">
-        <v>120</v>
+      <c r="G361" s="18"/>
+    </row>
+    <row r="362" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A362" s="98"/>
+      <c r="B362" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="C362" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="E362" s="31" t="s">
+        <v>147</v>
       </c>
       <c r="F362" s="18"/>
-      <c r="G362" s="18"/>
+      <c r="G362" s="13"/>
     </row>
     <row r="363" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A363" s="116"/>
-      <c r="B363" s="43" t="s">
-        <v>133</v>
+      <c r="A363" s="98"/>
+      <c r="B363" s="42" t="s">
+        <v>265</v>
       </c>
       <c r="C363" s="31" t="s">
-        <v>134</v>
+        <v>266</v>
       </c>
       <c r="E363" s="31" t="s">
-        <v>147</v>
+        <v>299</v>
       </c>
       <c r="F363" s="18"/>
       <c r="G363" s="13"/>
     </row>
     <row r="364" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A364" s="116"/>
-      <c r="B364" s="43" t="s">
-        <v>265</v>
+      <c r="A364" s="98"/>
+      <c r="B364" s="42" t="s">
+        <v>267</v>
       </c>
       <c r="C364" s="31" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E364" s="31" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F364" s="18"/>
       <c r="G364" s="13"/>
     </row>
     <row r="365" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A365" s="116"/>
-      <c r="B365" s="43" t="s">
-        <v>267</v>
+      <c r="A365" s="98"/>
+      <c r="B365" s="42" t="s">
+        <v>343</v>
       </c>
       <c r="C365" s="31" t="s">
-        <v>268</v>
+        <v>344</v>
       </c>
       <c r="E365" s="31" t="s">
-        <v>300</v>
-      </c>
-      <c r="F365" s="18"/>
+        <v>356</v>
+      </c>
+      <c r="F365" s="31" t="s">
+        <v>95</v>
+      </c>
       <c r="G365" s="13"/>
     </row>
     <row r="366" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A366" s="116"/>
-      <c r="B366" s="43" t="s">
-        <v>343</v>
+      <c r="A366" s="98"/>
+      <c r="B366" s="42" t="s">
+        <v>367</v>
       </c>
       <c r="C366" s="31" t="s">
-        <v>344</v>
+        <v>368</v>
       </c>
       <c r="E366" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="F366" s="31" t="s">
-        <v>95</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="F366" s="31"/>
       <c r="G366" s="13"/>
     </row>
     <row r="367" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A367" s="116"/>
-      <c r="B367" s="43" t="s">
-        <v>367</v>
+      <c r="A367" s="98"/>
+      <c r="B367" s="42" t="s">
+        <v>375</v>
       </c>
       <c r="C367" s="31" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="E367" s="31" t="s">
-        <v>380</v>
-      </c>
-      <c r="F367" s="31"/>
+        <v>384</v>
+      </c>
+      <c r="F367" s="18"/>
       <c r="G367" s="13"/>
     </row>
     <row r="368" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A368" s="116"/>
-      <c r="B368" s="43" t="s">
-        <v>375</v>
-      </c>
-      <c r="C368" s="31" t="s">
-        <v>376</v>
-      </c>
-      <c r="E368" s="31" t="s">
-        <v>384</v>
-      </c>
-      <c r="F368" s="18"/>
+      <c r="A368" s="98"/>
+      <c r="B368" s="35" t="s">
+        <v>462</v>
+      </c>
+      <c r="C368" s="34" t="s">
+        <v>463</v>
+      </c>
+      <c r="D368" s="34"/>
+      <c r="E368" s="34" t="s">
+        <v>464</v>
+      </c>
+      <c r="F368" s="34" t="s">
+        <v>465</v>
+      </c>
       <c r="G368" s="13"/>
     </row>
     <row r="369" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A369" s="116"/>
-      <c r="B369" s="35" t="s">
-        <v>462</v>
-      </c>
-      <c r="C369" s="34" t="s">
-        <v>463</v>
-      </c>
-      <c r="D369" s="34"/>
-      <c r="E369" s="34" t="s">
-        <v>464</v>
-      </c>
-      <c r="F369" s="34" t="s">
-        <v>465</v>
-      </c>
+      <c r="A369" s="98"/>
+      <c r="B369" s="42" t="s">
+        <v>505</v>
+      </c>
+      <c r="C369" s="31" t="s">
+        <v>506</v>
+      </c>
+      <c r="D369" s="31"/>
+      <c r="E369" s="31" t="s">
+        <v>507</v>
+      </c>
+      <c r="F369" s="18"/>
       <c r="G369" s="13"/>
     </row>
     <row r="370" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A370" s="116"/>
-      <c r="B370" s="43" t="s">
-        <v>505</v>
+      <c r="A370" s="98"/>
+      <c r="B370" s="42" t="s">
+        <v>540</v>
       </c>
       <c r="C370" s="31" t="s">
-        <v>506</v>
+        <v>541</v>
       </c>
       <c r="D370" s="31"/>
       <c r="E370" s="31" t="s">
-        <v>507</v>
+        <v>542</v>
       </c>
       <c r="F370" s="18"/>
       <c r="G370" s="13"/>
     </row>
     <row r="371" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A371" s="116"/>
-      <c r="B371" s="43" t="s">
-        <v>540</v>
+      <c r="A371" s="98"/>
+      <c r="B371" s="42" t="s">
+        <v>695</v>
       </c>
       <c r="C371" s="31" t="s">
-        <v>541</v>
+        <v>696</v>
       </c>
       <c r="D371" s="31"/>
       <c r="E371" s="31" t="s">
-        <v>542</v>
-      </c>
-      <c r="F371" s="18"/>
+        <v>697</v>
+      </c>
+      <c r="F371" s="31" t="s">
+        <v>597</v>
+      </c>
       <c r="G371" s="13"/>
     </row>
     <row r="372" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A372" s="116"/>
-      <c r="B372" s="43" t="s">
-        <v>695</v>
+      <c r="A372" s="98"/>
+      <c r="B372" s="42" t="s">
+        <v>698</v>
       </c>
       <c r="C372" s="31" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="D372" s="31"/>
       <c r="E372" s="31" t="s">
-        <v>697</v>
-      </c>
-      <c r="F372" s="31" t="s">
-        <v>597</v>
-      </c>
+        <v>700</v>
+      </c>
+      <c r="F372" s="18"/>
       <c r="G372" s="13"/>
     </row>
     <row r="373" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A373" s="116"/>
-      <c r="B373" s="43" t="s">
-        <v>698</v>
+      <c r="A373" s="98"/>
+      <c r="B373" s="42" t="s">
+        <v>716</v>
       </c>
       <c r="C373" s="31" t="s">
-        <v>699</v>
+        <v>717</v>
       </c>
       <c r="D373" s="31"/>
       <c r="E373" s="31" t="s">
-        <v>700</v>
-      </c>
-      <c r="F373" s="18"/>
+        <v>718</v>
+      </c>
+      <c r="F373" s="31" t="s">
+        <v>597</v>
+      </c>
       <c r="G373" s="13"/>
     </row>
     <row r="374" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A374" s="116"/>
-      <c r="B374" s="43" t="s">
-        <v>716</v>
+      <c r="A374" s="98"/>
+      <c r="B374" s="31" t="s">
+        <v>133</v>
       </c>
       <c r="C374" s="31" t="s">
-        <v>717</v>
+        <v>833</v>
       </c>
       <c r="D374" s="31"/>
       <c r="E374" s="31" t="s">
-        <v>718</v>
-      </c>
-      <c r="F374" s="31" t="s">
-        <v>597</v>
-      </c>
+        <v>834</v>
+      </c>
+      <c r="F374" s="31"/>
       <c r="G374" s="13"/>
     </row>
     <row r="375" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A375" s="116"/>
+      <c r="A375" s="98"/>
       <c r="B375" s="31" t="s">
-        <v>133</v>
+        <v>841</v>
       </c>
       <c r="C375" s="31" t="s">
-        <v>833</v>
+        <v>842</v>
       </c>
       <c r="D375" s="31"/>
       <c r="E375" s="31" t="s">
-        <v>834</v>
+        <v>843</v>
       </c>
       <c r="F375" s="31"/>
       <c r="G375" s="13"/>
     </row>
     <row r="376" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A376" s="116"/>
-      <c r="B376" s="31" t="s">
-        <v>841</v>
-      </c>
-      <c r="C376" s="31" t="s">
-        <v>842</v>
-      </c>
-      <c r="D376" s="31"/>
-      <c r="E376" s="31" t="s">
-        <v>843</v>
+      <c r="A376" s="98"/>
+      <c r="B376" s="39" t="s">
+        <v>951</v>
+      </c>
+      <c r="C376" s="39" t="s">
+        <v>952</v>
+      </c>
+      <c r="D376" s="39"/>
+      <c r="E376" s="39" t="s">
+        <v>953</v>
       </c>
       <c r="F376" s="31"/>
       <c r="G376" s="13"/>
     </row>
     <row r="377" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A377" s="116"/>
-      <c r="B377" s="40" t="s">
-        <v>951</v>
-      </c>
-      <c r="C377" s="40" t="s">
-        <v>952</v>
-      </c>
-      <c r="D377" s="40"/>
-      <c r="E377" s="40" t="s">
-        <v>953</v>
+      <c r="A377" s="98"/>
+      <c r="B377" s="39" t="s">
+        <v>964</v>
+      </c>
+      <c r="C377" s="39" t="s">
+        <v>965</v>
+      </c>
+      <c r="D377" s="39"/>
+      <c r="E377" s="39" t="s">
+        <v>966</v>
       </c>
       <c r="F377" s="31"/>
       <c r="G377" s="13"/>
     </row>
     <row r="378" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A378" s="116"/>
-      <c r="B378" s="40" t="s">
-        <v>964</v>
-      </c>
-      <c r="C378" s="40" t="s">
-        <v>965</v>
-      </c>
-      <c r="D378" s="40"/>
-      <c r="E378" s="40" t="s">
-        <v>966</v>
+      <c r="A378" s="98"/>
+      <c r="B378" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="C378" s="31" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D378" s="31"/>
+      <c r="E378" s="31" t="s">
+        <v>1006</v>
       </c>
       <c r="F378" s="31"/>
       <c r="G378" s="13"/>
     </row>
     <row r="379" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A379" s="116"/>
-      <c r="B379" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="C379" s="31" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D379" s="31"/>
-      <c r="E379" s="31" t="s">
-        <v>1006</v>
-      </c>
+      <c r="A379" s="98"/>
+      <c r="B379" s="39"/>
+      <c r="C379" s="39"/>
+      <c r="D379" s="39"/>
+      <c r="E379" s="39"/>
       <c r="F379" s="31"/>
       <c r="G379" s="13"/>
     </row>
     <row r="380" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A380" s="116"/>
-      <c r="B380" s="40"/>
-      <c r="C380" s="40"/>
-      <c r="D380" s="40"/>
-      <c r="E380" s="40"/>
+      <c r="A380" s="98"/>
+      <c r="B380" s="39"/>
+      <c r="C380" s="39"/>
+      <c r="D380" s="39"/>
+      <c r="E380" s="39"/>
       <c r="F380" s="31"/>
       <c r="G380" s="13"/>
     </row>
     <row r="381" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A381" s="116"/>
-      <c r="B381" s="40"/>
-      <c r="C381" s="40"/>
-      <c r="D381" s="40"/>
-      <c r="E381" s="40"/>
+      <c r="A381" s="98"/>
+      <c r="B381" s="39"/>
+      <c r="C381" s="39"/>
+      <c r="D381" s="39"/>
+      <c r="E381" s="39"/>
       <c r="F381" s="31"/>
       <c r="G381" s="13"/>
     </row>
-    <row r="382" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A382" s="116"/>
-      <c r="B382" s="40"/>
-      <c r="C382" s="40"/>
-      <c r="D382" s="40"/>
-      <c r="E382" s="40"/>
-      <c r="F382" s="31"/>
-      <c r="G382" s="13"/>
-    </row>
-    <row r="383" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A383" s="117"/>
-      <c r="B383" s="43" t="s">
+    <row r="382" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A382" s="99"/>
+      <c r="B382" s="42" t="s">
         <v>387</v>
       </c>
-      <c r="C383" s="31" t="s">
+      <c r="C382" s="31" t="s">
         <v>388</v>
       </c>
-      <c r="E383" s="31" t="s">
+      <c r="E382" s="31" t="s">
         <v>390</v>
       </c>
-      <c r="F383" s="19"/>
-      <c r="G383" s="16"/>
-    </row>
-    <row r="384" spans="1:7" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A384" s="96" t="s">
+      <c r="F382" s="19"/>
+      <c r="G382" s="16"/>
+    </row>
+    <row r="383" spans="1:7" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A383" s="79" t="s">
         <v>406</v>
       </c>
-      <c r="B384" s="43" t="s">
+      <c r="B383" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="C384" s="7" t="s">
+      <c r="C383" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D384" s="8"/>
-      <c r="E384" s="7" t="s">
+      <c r="D383" s="8"/>
+      <c r="E383" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G384" s="30"/>
+      <c r="G383" s="30"/>
+    </row>
+    <row r="384" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A384" s="80"/>
+      <c r="B384" s="35" t="s">
+        <v>434</v>
+      </c>
+      <c r="C384" s="35" t="s">
+        <v>435</v>
+      </c>
+      <c r="D384" s="35"/>
+      <c r="E384" s="35" t="s">
+        <v>436</v>
+      </c>
+      <c r="F384" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="G384" s="23"/>
     </row>
     <row r="385" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A385" s="97"/>
-      <c r="B385" s="35" t="s">
-        <v>434</v>
-      </c>
-      <c r="C385" s="35" t="s">
-        <v>435</v>
-      </c>
-      <c r="D385" s="35"/>
-      <c r="E385" s="35" t="s">
-        <v>436</v>
-      </c>
-      <c r="F385" s="35" t="s">
-        <v>437</v>
-      </c>
-      <c r="G385" s="23"/>
+      <c r="A385" s="80"/>
+      <c r="B385" s="42" t="s">
+        <v>347</v>
+      </c>
+      <c r="C385" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="E385" s="31" t="s">
+        <v>358</v>
+      </c>
+      <c r="F385" s="18"/>
+      <c r="G385" s="13"/>
     </row>
     <row r="386" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A386" s="97"/>
-      <c r="B386" s="43" t="s">
-        <v>347</v>
+      <c r="A386" s="80"/>
+      <c r="B386" s="47" t="s">
+        <v>369</v>
       </c>
       <c r="C386" s="31" t="s">
-        <v>348</v>
+        <v>370</v>
       </c>
       <c r="E386" s="31" t="s">
-        <v>358</v>
-      </c>
-      <c r="F386" s="18"/>
+        <v>381</v>
+      </c>
       <c r="G386" s="13"/>
     </row>
     <row r="387" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A387" s="97"/>
-      <c r="B387" s="48" t="s">
-        <v>369</v>
+      <c r="A387" s="80"/>
+      <c r="B387" s="42" t="s">
+        <v>371</v>
       </c>
       <c r="C387" s="31" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E387" s="31" t="s">
-        <v>381</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="F387" s="18"/>
       <c r="G387" s="13"/>
     </row>
     <row r="388" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A388" s="97"/>
-      <c r="B388" s="43" t="s">
-        <v>371</v>
-      </c>
-      <c r="C388" s="31" t="s">
-        <v>372</v>
-      </c>
-      <c r="E388" s="31" t="s">
-        <v>382</v>
+      <c r="A388" s="80"/>
+      <c r="B388" s="35" t="s">
+        <v>394</v>
+      </c>
+      <c r="C388" s="34" t="s">
+        <v>394</v>
+      </c>
+      <c r="D388" s="34"/>
+      <c r="E388" s="34" t="s">
+        <v>395</v>
       </c>
       <c r="F388" s="18"/>
       <c r="G388" s="13"/>
     </row>
     <row r="389" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A389" s="97"/>
-      <c r="B389" s="35" t="s">
-        <v>394</v>
-      </c>
-      <c r="C389" s="34" t="s">
-        <v>394</v>
-      </c>
-      <c r="D389" s="34"/>
-      <c r="E389" s="34" t="s">
-        <v>395</v>
+      <c r="A389" s="80"/>
+      <c r="B389" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="C389" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="E389" s="31" t="s">
+        <v>174</v>
       </c>
       <c r="F389" s="18"/>
       <c r="G389" s="13"/>
     </row>
-    <row r="390" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A390" s="97"/>
-      <c r="B390" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="C390" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="E390" s="31" t="s">
-        <v>174</v>
+    <row r="390" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A390" s="80"/>
+      <c r="B390" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="C390" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D390" s="8"/>
+      <c r="E390" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="F390" s="18"/>
       <c r="G390" s="13"/>
     </row>
-    <row r="391" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A391" s="97"/>
-      <c r="B391" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="C391" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D391" s="8"/>
-      <c r="E391" s="7" t="s">
-        <v>87</v>
+    <row r="391" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A391" s="80"/>
+      <c r="B391" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="C391" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="E391" s="31" t="s">
+        <v>168</v>
       </c>
       <c r="F391" s="18"/>
       <c r="G391" s="13"/>
     </row>
     <row r="392" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A392" s="97"/>
-      <c r="B392" s="43" t="s">
-        <v>154</v>
+      <c r="A392" s="80"/>
+      <c r="B392" s="42" t="s">
+        <v>181</v>
       </c>
       <c r="C392" s="31" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="E392" s="31" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="F392" s="18"/>
       <c r="G392" s="13"/>
     </row>
     <row r="393" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A393" s="97"/>
-      <c r="B393" s="43" t="s">
-        <v>181</v>
+      <c r="A393" s="80"/>
+      <c r="B393" s="42" t="s">
+        <v>232</v>
       </c>
       <c r="C393" s="31" t="s">
-        <v>182</v>
+        <v>233</v>
       </c>
       <c r="E393" s="31" t="s">
-        <v>197</v>
+        <v>249</v>
       </c>
       <c r="F393" s="18"/>
       <c r="G393" s="13"/>
     </row>
     <row r="394" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A394" s="97"/>
-      <c r="B394" s="43" t="s">
-        <v>232</v>
+      <c r="A394" s="80"/>
+      <c r="B394" s="42" t="s">
+        <v>514</v>
       </c>
       <c r="C394" s="31" t="s">
-        <v>233</v>
-      </c>
+        <v>515</v>
+      </c>
+      <c r="D394" s="31"/>
       <c r="E394" s="31" t="s">
-        <v>249</v>
+        <v>516</v>
       </c>
       <c r="F394" s="18"/>
       <c r="G394" s="13"/>
     </row>
     <row r="395" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A395" s="97"/>
-      <c r="B395" s="43" t="s">
-        <v>514</v>
+      <c r="A395" s="80"/>
+      <c r="B395" s="42" t="s">
+        <v>719</v>
       </c>
       <c r="C395" s="31" t="s">
-        <v>515</v>
+        <v>720</v>
       </c>
       <c r="D395" s="31"/>
       <c r="E395" s="31" t="s">
-        <v>516</v>
-      </c>
-      <c r="F395" s="18"/>
+        <v>721</v>
+      </c>
       <c r="G395" s="13"/>
     </row>
     <row r="396" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A396" s="97"/>
-      <c r="B396" s="43" t="s">
-        <v>719</v>
+      <c r="A396" s="80"/>
+      <c r="B396" s="31" t="s">
+        <v>821</v>
       </c>
       <c r="C396" s="31" t="s">
-        <v>720</v>
+        <v>822</v>
       </c>
       <c r="D396" s="31"/>
       <c r="E396" s="31" t="s">
-        <v>721</v>
-      </c>
+        <v>823</v>
+      </c>
+      <c r="F396" s="18"/>
       <c r="G396" s="13"/>
     </row>
     <row r="397" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A397" s="97"/>
-      <c r="B397" s="31" t="s">
-        <v>821</v>
-      </c>
-      <c r="C397" s="31" t="s">
-        <v>822</v>
-      </c>
-      <c r="D397" s="31"/>
-      <c r="E397" s="31" t="s">
-        <v>823</v>
+      <c r="A397" s="80"/>
+      <c r="B397" s="39" t="s">
+        <v>888</v>
+      </c>
+      <c r="C397" s="39" t="s">
+        <v>889</v>
+      </c>
+      <c r="D397" s="39"/>
+      <c r="E397" s="39" t="s">
+        <v>890</v>
       </c>
       <c r="F397" s="18"/>
       <c r="G397" s="13"/>
     </row>
     <row r="398" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A398" s="97"/>
-      <c r="B398" s="40" t="s">
-        <v>888</v>
-      </c>
-      <c r="C398" s="40" t="s">
-        <v>889</v>
-      </c>
-      <c r="D398" s="40"/>
-      <c r="E398" s="40" t="s">
-        <v>890</v>
+      <c r="A398" s="80"/>
+      <c r="B398" s="39" t="s">
+        <v>906</v>
+      </c>
+      <c r="C398" s="39" t="s">
+        <v>907</v>
+      </c>
+      <c r="D398" s="39"/>
+      <c r="E398" s="39" t="s">
+        <v>908</v>
       </c>
       <c r="F398" s="18"/>
       <c r="G398" s="13"/>
     </row>
     <row r="399" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A399" s="97"/>
-      <c r="B399" s="40" t="s">
-        <v>906</v>
-      </c>
-      <c r="C399" s="40" t="s">
-        <v>907</v>
-      </c>
-      <c r="D399" s="40"/>
-      <c r="E399" s="40" t="s">
-        <v>908</v>
-      </c>
-      <c r="F399" s="18"/>
+      <c r="A399" s="80"/>
+      <c r="B399" s="35" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C399" s="35" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E399" s="35" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F399" s="62" t="s">
+        <v>1135</v>
+      </c>
       <c r="G399" s="13"/>
     </row>
     <row r="400" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A400" s="97"/>
+      <c r="A400" s="80"/>
       <c r="B400" s="35" t="s">
-        <v>1132</v>
+        <v>1136</v>
       </c>
       <c r="C400" s="35" t="s">
-        <v>1133</v>
+        <v>1137</v>
       </c>
       <c r="E400" s="35" t="s">
-        <v>1134</v>
-      </c>
-      <c r="F400" s="137" t="s">
-        <v>1135</v>
-      </c>
+        <v>1138</v>
+      </c>
+      <c r="F400" s="18"/>
       <c r="G400" s="13"/>
     </row>
     <row r="401" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A401" s="97"/>
-      <c r="B401" s="35" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C401" s="35" t="s">
-        <v>1137</v>
-      </c>
-      <c r="E401" s="35" t="s">
-        <v>1138</v>
-      </c>
+      <c r="A401" s="80"/>
+      <c r="B401" s="39"/>
+      <c r="C401" s="39"/>
+      <c r="D401" s="39"/>
+      <c r="E401" s="39"/>
       <c r="F401" s="18"/>
       <c r="G401" s="13"/>
     </row>
     <row r="402" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A402" s="97"/>
-      <c r="B402" s="40"/>
-      <c r="C402" s="40"/>
-      <c r="D402" s="40"/>
-      <c r="E402" s="40"/>
+      <c r="A402" s="80"/>
+      <c r="B402" s="42"/>
+      <c r="C402" s="31"/>
+      <c r="D402" s="31"/>
+      <c r="E402" s="31"/>
       <c r="F402" s="18"/>
       <c r="G402" s="13"/>
     </row>
-    <row r="403" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A403" s="97"/>
-      <c r="B403" s="43"/>
-      <c r="C403" s="31"/>
-      <c r="D403" s="31"/>
-      <c r="E403" s="31"/>
-      <c r="F403" s="18"/>
-      <c r="G403" s="13"/>
-    </row>
-    <row r="404" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A404" s="98"/>
-      <c r="F404" s="19"/>
-      <c r="G404" s="16"/>
-    </row>
-    <row r="405" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A405" s="105" t="s">
+    <row r="403" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A403" s="81"/>
+      <c r="F403" s="19"/>
+      <c r="G403" s="16"/>
+    </row>
+    <row r="404" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A404" s="88" t="s">
         <v>491</v>
       </c>
-      <c r="B405" s="43" t="s">
+      <c r="B404" s="42" t="s">
         <v>187</v>
       </c>
+      <c r="C404" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="E404" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="F404" s="17"/>
+      <c r="G404" s="12"/>
+    </row>
+    <row r="405" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A405" s="89"/>
+      <c r="B405" s="42" t="s">
+        <v>215</v>
+      </c>
       <c r="C405" s="31" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="E405" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="F405" s="17"/>
-      <c r="G405" s="12"/>
+        <v>227</v>
+      </c>
+      <c r="F405" s="18"/>
+      <c r="G405" s="13"/>
     </row>
     <row r="406" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A406" s="106"/>
-      <c r="B406" s="43" t="s">
-        <v>215</v>
+      <c r="A406" s="89"/>
+      <c r="B406" s="42" t="s">
+        <v>283</v>
       </c>
       <c r="C406" s="31" t="s">
-        <v>216</v>
+        <v>284</v>
       </c>
       <c r="E406" s="31" t="s">
-        <v>227</v>
-      </c>
-      <c r="F406" s="18"/>
+        <v>308</v>
+      </c>
+      <c r="F406" s="31" t="s">
+        <v>95</v>
+      </c>
       <c r="G406" s="13"/>
     </row>
     <row r="407" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A407" s="106"/>
-      <c r="B407" s="43" t="s">
-        <v>283</v>
+      <c r="A407" s="89"/>
+      <c r="B407" s="42" t="s">
+        <v>517</v>
       </c>
       <c r="C407" s="31" t="s">
-        <v>284</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="D407" s="31"/>
       <c r="E407" s="31" t="s">
-        <v>308</v>
-      </c>
-      <c r="F407" s="31" t="s">
-        <v>95</v>
-      </c>
+        <v>519</v>
+      </c>
+      <c r="F407" s="18"/>
       <c r="G407" s="13"/>
     </row>
     <row r="408" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A408" s="106"/>
-      <c r="B408" s="43" t="s">
-        <v>517</v>
+      <c r="A408" s="89"/>
+      <c r="B408" s="42" t="s">
+        <v>546</v>
       </c>
       <c r="C408" s="31" t="s">
-        <v>518</v>
+        <v>547</v>
       </c>
       <c r="D408" s="31"/>
       <c r="E408" s="31" t="s">
-        <v>519</v>
+        <v>548</v>
       </c>
       <c r="F408" s="18"/>
       <c r="G408" s="13"/>
     </row>
     <row r="409" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A409" s="106"/>
-      <c r="B409" s="43" t="s">
-        <v>546</v>
+      <c r="A409" s="89"/>
+      <c r="B409" s="42" t="s">
+        <v>581</v>
       </c>
       <c r="C409" s="31" t="s">
-        <v>547</v>
+        <v>582</v>
       </c>
       <c r="D409" s="31"/>
       <c r="E409" s="31" t="s">
-        <v>548</v>
+        <v>583</v>
       </c>
       <c r="F409" s="18"/>
       <c r="G409" s="13"/>
     </row>
     <row r="410" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A410" s="106"/>
-      <c r="B410" s="43" t="s">
-        <v>581</v>
+      <c r="A410" s="89"/>
+      <c r="B410" s="42" t="s">
+        <v>608</v>
       </c>
       <c r="C410" s="31" t="s">
-        <v>582</v>
+        <v>609</v>
       </c>
       <c r="D410" s="31"/>
       <c r="E410" s="31" t="s">
-        <v>583</v>
+        <v>610</v>
       </c>
       <c r="F410" s="18"/>
       <c r="G410" s="13"/>
     </row>
     <row r="411" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A411" s="106"/>
-      <c r="B411" s="43" t="s">
-        <v>608</v>
+      <c r="A411" s="89"/>
+      <c r="B411" s="42" t="s">
+        <v>698</v>
       </c>
       <c r="C411" s="31" t="s">
-        <v>609</v>
+        <v>699</v>
       </c>
       <c r="D411" s="31"/>
       <c r="E411" s="31" t="s">
-        <v>610</v>
+        <v>700</v>
       </c>
       <c r="F411" s="18"/>
       <c r="G411" s="13"/>
     </row>
     <row r="412" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A412" s="106"/>
-      <c r="B412" s="43" t="s">
-        <v>698</v>
+      <c r="A412" s="89"/>
+      <c r="B412" s="42" t="s">
+        <v>713</v>
       </c>
       <c r="C412" s="31" t="s">
-        <v>699</v>
+        <v>714</v>
       </c>
       <c r="D412" s="31"/>
       <c r="E412" s="31" t="s">
-        <v>700</v>
+        <v>715</v>
       </c>
       <c r="F412" s="18"/>
       <c r="G412" s="13"/>
     </row>
     <row r="413" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A413" s="106"/>
-      <c r="B413" s="43" t="s">
-        <v>713</v>
-      </c>
-      <c r="C413" s="31" t="s">
-        <v>714</v>
-      </c>
-      <c r="D413" s="31"/>
-      <c r="E413" s="31" t="s">
-        <v>715</v>
-      </c>
-      <c r="F413" s="18"/>
+      <c r="A413" s="89"/>
+      <c r="B413" s="42" t="s">
+        <v>770</v>
+      </c>
+      <c r="C413" s="39" t="s">
+        <v>771</v>
+      </c>
+      <c r="D413" s="39"/>
+      <c r="E413" s="39" t="s">
+        <v>772</v>
+      </c>
       <c r="G413" s="13"/>
     </row>
     <row r="414" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A414" s="106"/>
-      <c r="B414" s="43" t="s">
-        <v>770</v>
-      </c>
-      <c r="C414" s="40" t="s">
-        <v>771</v>
-      </c>
-      <c r="D414" s="40"/>
-      <c r="E414" s="40" t="s">
-        <v>772</v>
+      <c r="A414" s="89"/>
+      <c r="B414" s="31" t="s">
+        <v>924</v>
+      </c>
+      <c r="C414" s="31" t="s">
+        <v>925</v>
+      </c>
+      <c r="D414" s="31"/>
+      <c r="E414" s="31" t="s">
+        <v>926</v>
       </c>
       <c r="G414" s="13"/>
     </row>
     <row r="415" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A415" s="106"/>
-      <c r="B415" s="31" t="s">
-        <v>924</v>
-      </c>
-      <c r="C415" s="31" t="s">
-        <v>925</v>
-      </c>
-      <c r="D415" s="31"/>
-      <c r="E415" s="31" t="s">
-        <v>926</v>
+      <c r="A415" s="89"/>
+      <c r="B415" s="39" t="s">
+        <v>945</v>
+      </c>
+      <c r="C415" s="39" t="s">
+        <v>946</v>
+      </c>
+      <c r="D415" s="39"/>
+      <c r="E415" s="39" t="s">
+        <v>947</v>
       </c>
       <c r="G415" s="13"/>
     </row>
     <row r="416" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A416" s="106"/>
-      <c r="B416" s="40" t="s">
-        <v>945</v>
-      </c>
-      <c r="C416" s="40" t="s">
-        <v>946</v>
-      </c>
-      <c r="D416" s="40"/>
-      <c r="E416" s="40" t="s">
-        <v>947</v>
+      <c r="A416" s="89"/>
+      <c r="B416" s="39" t="s">
+        <v>242</v>
+      </c>
+      <c r="C416" s="39" t="s">
+        <v>956</v>
+      </c>
+      <c r="D416" s="39"/>
+      <c r="E416" s="39" t="s">
+        <v>957</v>
       </c>
       <c r="G416" s="13"/>
     </row>
     <row r="417" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A417" s="106"/>
-      <c r="B417" s="40" t="s">
-        <v>242</v>
-      </c>
-      <c r="C417" s="40" t="s">
-        <v>956</v>
-      </c>
-      <c r="D417" s="40"/>
-      <c r="E417" s="40" t="s">
-        <v>957</v>
-      </c>
+      <c r="A417" s="89"/>
+      <c r="B417" s="42"/>
+      <c r="C417" s="39"/>
+      <c r="D417" s="39"/>
+      <c r="E417" s="39"/>
       <c r="G417" s="13"/>
     </row>
     <row r="418" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A418" s="106"/>
-      <c r="B418" s="43"/>
-      <c r="C418" s="40"/>
-      <c r="D418" s="40"/>
-      <c r="E418" s="40"/>
+      <c r="A418" s="89"/>
+      <c r="B418" s="42"/>
+      <c r="C418" s="39"/>
+      <c r="D418" s="39"/>
+      <c r="E418" s="39"/>
       <c r="G418" s="13"/>
     </row>
-    <row r="419" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A419" s="106"/>
-      <c r="B419" s="43"/>
-      <c r="C419" s="40"/>
-      <c r="D419" s="40"/>
-      <c r="E419" s="40"/>
-      <c r="G419" s="13"/>
-    </row>
-    <row r="420" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A420" s="107"/>
-      <c r="B420" s="51"/>
-      <c r="C420" s="14"/>
-      <c r="D420" s="14"/>
-      <c r="E420" s="15"/>
-      <c r="F420" s="19"/>
-      <c r="G420" s="16"/>
-    </row>
-    <row r="421" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A421" s="118" t="s">
+    <row r="419" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A419" s="90"/>
+      <c r="B419" s="50"/>
+      <c r="C419" s="14"/>
+      <c r="D419" s="14"/>
+      <c r="E419" s="15"/>
+      <c r="F419" s="19"/>
+      <c r="G419" s="16"/>
+    </row>
+    <row r="420" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A420" s="100" t="s">
         <v>208</v>
       </c>
-      <c r="B421" s="43" t="s">
+      <c r="B420" s="42" t="s">
         <v>139</v>
       </c>
+      <c r="C420" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="E420" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="F420" s="17"/>
+      <c r="G420" s="12"/>
+    </row>
+    <row r="421" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A421" s="101"/>
+      <c r="B421" s="42" t="s">
+        <v>208</v>
+      </c>
       <c r="C421" s="31" t="s">
-        <v>140</v>
+        <v>209</v>
       </c>
       <c r="E421" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="F421" s="17"/>
-      <c r="G421" s="12"/>
+        <v>223</v>
+      </c>
+      <c r="F421" s="18"/>
+      <c r="G421" s="13"/>
     </row>
     <row r="422" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A422" s="119"/>
-      <c r="B422" s="43" t="s">
-        <v>208</v>
+      <c r="A422" s="101"/>
+      <c r="B422" s="42" t="s">
+        <v>279</v>
       </c>
       <c r="C422" s="31" t="s">
-        <v>209</v>
+        <v>280</v>
       </c>
       <c r="E422" s="31" t="s">
-        <v>223</v>
+        <v>306</v>
       </c>
       <c r="F422" s="18"/>
       <c r="G422" s="13"/>
     </row>
     <row r="423" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A423" s="119"/>
-      <c r="B423" s="43" t="s">
-        <v>279</v>
+      <c r="A423" s="101"/>
+      <c r="B423" s="42" t="s">
+        <v>363</v>
       </c>
       <c r="C423" s="31" t="s">
-        <v>280</v>
+        <v>364</v>
       </c>
       <c r="E423" s="31" t="s">
-        <v>306</v>
+        <v>378</v>
       </c>
       <c r="F423" s="18"/>
       <c r="G423" s="13"/>
     </row>
     <row r="424" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A424" s="119"/>
-      <c r="B424" s="43" t="s">
-        <v>363</v>
-      </c>
-      <c r="C424" s="31" t="s">
-        <v>364</v>
-      </c>
-      <c r="E424" s="31" t="s">
-        <v>378</v>
-      </c>
-      <c r="F424" s="18"/>
+      <c r="A424" s="101"/>
+      <c r="B424" s="35" t="s">
+        <v>451</v>
+      </c>
+      <c r="C424" s="34" t="s">
+        <v>451</v>
+      </c>
+      <c r="D424" s="34"/>
+      <c r="E424" s="34" t="s">
+        <v>452</v>
+      </c>
+      <c r="F424" s="34" t="s">
+        <v>453</v>
+      </c>
       <c r="G424" s="13"/>
     </row>
     <row r="425" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A425" s="119"/>
-      <c r="B425" s="35" t="s">
-        <v>451</v>
-      </c>
-      <c r="C425" s="34" t="s">
-        <v>451</v>
-      </c>
-      <c r="D425" s="34"/>
-      <c r="E425" s="34" t="s">
-        <v>452</v>
-      </c>
-      <c r="F425" s="34" t="s">
-        <v>453</v>
-      </c>
+      <c r="A425" s="101"/>
+      <c r="B425" s="42" t="s">
+        <v>502</v>
+      </c>
+      <c r="C425" s="31" t="s">
+        <v>503</v>
+      </c>
+      <c r="D425" s="31"/>
+      <c r="E425" s="31" t="s">
+        <v>504</v>
+      </c>
+      <c r="F425" s="34"/>
       <c r="G425" s="13"/>
     </row>
     <row r="426" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A426" s="119"/>
-      <c r="B426" s="43" t="s">
-        <v>502</v>
+      <c r="A426" s="101"/>
+      <c r="B426" s="42" t="s">
+        <v>511</v>
       </c>
       <c r="C426" s="31" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="D426" s="31"/>
       <c r="E426" s="31" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="F426" s="34"/>
       <c r="G426" s="13"/>
     </row>
     <row r="427" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A427" s="119"/>
-      <c r="B427" s="43" t="s">
-        <v>511</v>
+      <c r="A427" s="101"/>
+      <c r="B427" s="42" t="s">
+        <v>523</v>
       </c>
       <c r="C427" s="31" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="D427" s="31"/>
       <c r="E427" s="31" t="s">
-        <v>513</v>
-      </c>
-      <c r="F427" s="34"/>
+        <v>525</v>
+      </c>
+      <c r="F427" s="18"/>
       <c r="G427" s="13"/>
     </row>
     <row r="428" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A428" s="119"/>
-      <c r="B428" s="43" t="s">
-        <v>523</v>
+      <c r="A428" s="101"/>
+      <c r="B428" s="42" t="s">
+        <v>560</v>
       </c>
       <c r="C428" s="31" t="s">
-        <v>524</v>
+        <v>561</v>
       </c>
       <c r="D428" s="31"/>
       <c r="E428" s="31" t="s">
-        <v>525</v>
+        <v>562</v>
       </c>
       <c r="F428" s="18"/>
       <c r="G428" s="13"/>
     </row>
     <row r="429" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A429" s="119"/>
-      <c r="B429" s="43" t="s">
-        <v>560</v>
+      <c r="A429" s="101"/>
+      <c r="B429" s="42" t="s">
+        <v>577</v>
       </c>
       <c r="C429" s="31" t="s">
-        <v>561</v>
+        <v>578</v>
       </c>
       <c r="D429" s="31"/>
       <c r="E429" s="31" t="s">
-        <v>562</v>
-      </c>
-      <c r="F429" s="18"/>
+        <v>579</v>
+      </c>
+      <c r="F429" s="31" t="s">
+        <v>580</v>
+      </c>
       <c r="G429" s="13"/>
     </row>
     <row r="430" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A430" s="119"/>
-      <c r="B430" s="43" t="s">
-        <v>577</v>
+      <c r="A430" s="101"/>
+      <c r="B430" s="42" t="s">
+        <v>630</v>
       </c>
       <c r="C430" s="31" t="s">
-        <v>578</v>
+        <v>631</v>
       </c>
       <c r="D430" s="31"/>
       <c r="E430" s="31" t="s">
-        <v>579</v>
-      </c>
-      <c r="F430" s="31" t="s">
-        <v>580</v>
+        <v>632</v>
       </c>
       <c r="G430" s="13"/>
     </row>
     <row r="431" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A431" s="119"/>
-      <c r="B431" s="43" t="s">
-        <v>630</v>
+      <c r="A431" s="101"/>
+      <c r="B431" s="42" t="s">
+        <v>633</v>
       </c>
       <c r="C431" s="31" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="D431" s="31"/>
       <c r="E431" s="31" t="s">
-        <v>632</v>
+        <v>635</v>
+      </c>
+      <c r="F431" s="31" t="s">
+        <v>636</v>
       </c>
       <c r="G431" s="13"/>
     </row>
     <row r="432" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A432" s="119"/>
-      <c r="B432" s="43" t="s">
-        <v>633</v>
+      <c r="A432" s="101"/>
+      <c r="B432" s="42" t="s">
+        <v>689</v>
       </c>
       <c r="C432" s="31" t="s">
-        <v>634</v>
+        <v>690</v>
       </c>
       <c r="D432" s="31"/>
       <c r="E432" s="31" t="s">
-        <v>635</v>
-      </c>
-      <c r="F432" s="31" t="s">
-        <v>636</v>
-      </c>
+        <v>691</v>
+      </c>
+      <c r="F432" s="31"/>
       <c r="G432" s="13"/>
     </row>
     <row r="433" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A433" s="119"/>
-      <c r="B433" s="43" t="s">
-        <v>689</v>
+      <c r="A433" s="101"/>
+      <c r="B433" s="42" t="s">
+        <v>701</v>
       </c>
       <c r="C433" s="31" t="s">
-        <v>690</v>
+        <v>702</v>
       </c>
       <c r="D433" s="31"/>
       <c r="E433" s="31" t="s">
-        <v>691</v>
+        <v>703</v>
       </c>
       <c r="F433" s="31"/>
       <c r="G433" s="13"/>
     </row>
     <row r="434" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A434" s="119"/>
-      <c r="B434" s="43" t="s">
-        <v>701</v>
+      <c r="A434" s="101"/>
+      <c r="B434" s="42" t="s">
+        <v>683</v>
       </c>
       <c r="C434" s="31" t="s">
-        <v>702</v>
+        <v>684</v>
       </c>
       <c r="D434" s="31"/>
       <c r="E434" s="31" t="s">
-        <v>703</v>
+        <v>685</v>
       </c>
       <c r="F434" s="31"/>
       <c r="G434" s="13"/>
     </row>
     <row r="435" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A435" s="119"/>
-      <c r="B435" s="43" t="s">
-        <v>683</v>
+      <c r="A435" s="101"/>
+      <c r="B435" s="42" t="s">
+        <v>756</v>
       </c>
       <c r="C435" s="31" t="s">
-        <v>684</v>
+        <v>757</v>
       </c>
       <c r="D435" s="31"/>
       <c r="E435" s="31" t="s">
-        <v>685</v>
+        <v>758</v>
       </c>
       <c r="F435" s="31"/>
       <c r="G435" s="13"/>
     </row>
     <row r="436" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A436" s="119"/>
-      <c r="B436" s="43" t="s">
-        <v>756</v>
+      <c r="A436" s="101"/>
+      <c r="B436" s="31" t="s">
+        <v>874</v>
       </c>
       <c r="C436" s="31" t="s">
-        <v>757</v>
+        <v>875</v>
       </c>
       <c r="D436" s="31"/>
       <c r="E436" s="31" t="s">
-        <v>758</v>
+        <v>876</v>
       </c>
       <c r="F436" s="31"/>
       <c r="G436" s="13"/>
     </row>
     <row r="437" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A437" s="119"/>
-      <c r="B437" s="31" t="s">
-        <v>874</v>
-      </c>
-      <c r="C437" s="31" t="s">
-        <v>875</v>
-      </c>
-      <c r="D437" s="31"/>
-      <c r="E437" s="31" t="s">
-        <v>876</v>
+      <c r="A437" s="101"/>
+      <c r="B437" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="C437" s="39" t="s">
+        <v>877</v>
+      </c>
+      <c r="D437" s="39"/>
+      <c r="E437" s="39" t="s">
+        <v>878</v>
       </c>
       <c r="F437" s="31"/>
       <c r="G437" s="13"/>
     </row>
     <row r="438" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A438" s="119"/>
-      <c r="B438" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="C438" s="40" t="s">
-        <v>877</v>
-      </c>
-      <c r="D438" s="40"/>
-      <c r="E438" s="40" t="s">
-        <v>878</v>
+      <c r="A438" s="101"/>
+      <c r="B438" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="C438" s="31" t="s">
+        <v>979</v>
+      </c>
+      <c r="D438" s="31"/>
+      <c r="E438" s="31" t="s">
+        <v>980</v>
       </c>
       <c r="F438" s="31"/>
       <c r="G438" s="13"/>
     </row>
     <row r="439" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A439" s="119"/>
-      <c r="B439" s="31" t="s">
-        <v>279</v>
-      </c>
-      <c r="C439" s="31" t="s">
-        <v>979</v>
-      </c>
+      <c r="A439" s="101"/>
+      <c r="B439" s="31"/>
+      <c r="C439" s="31"/>
       <c r="D439" s="31"/>
-      <c r="E439" s="31" t="s">
-        <v>980</v>
-      </c>
+      <c r="E439" s="31"/>
       <c r="F439" s="31"/>
       <c r="G439" s="13"/>
     </row>
     <row r="440" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A440" s="119"/>
-      <c r="B440" s="31"/>
+      <c r="A440" s="101"/>
+      <c r="B440" s="42"/>
       <c r="C440" s="31"/>
       <c r="D440" s="31"/>
       <c r="E440" s="31"/>
       <c r="F440" s="31"/>
       <c r="G440" s="13"/>
     </row>
-    <row r="441" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A441" s="119"/>
-      <c r="B441" s="43"/>
+    <row r="441" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A441" s="102"/>
+      <c r="B441" s="31"/>
       <c r="C441" s="31"/>
       <c r="D441" s="31"/>
       <c r="E441" s="31"/>
-      <c r="F441" s="31"/>
-      <c r="G441" s="13"/>
-    </row>
-    <row r="442" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A442" s="120"/>
-      <c r="B442" s="31"/>
-      <c r="C442" s="31"/>
-      <c r="D442" s="31"/>
-      <c r="E442" s="31"/>
-      <c r="F442" s="19"/>
-      <c r="G442" s="16"/>
-    </row>
-    <row r="443" spans="1:7" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A443" s="87" t="s">
+      <c r="F441" s="19"/>
+      <c r="G441" s="16"/>
+    </row>
+    <row r="442" spans="1:7" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A442" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B443" s="52" t="s">
+      <c r="B442" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C443" s="17" t="s">
+      <c r="C442" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D443" s="22" t="s">
+      <c r="D442" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E443" s="26" t="s">
+      <c r="E442" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="F443" s="17"/>
-      <c r="G443" s="12" t="s">
+      <c r="F442" s="17"/>
+      <c r="G442" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="444" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A444" s="88"/>
+    <row r="443" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A443" s="71"/>
+      <c r="B443" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C443" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D443" s="8"/>
+      <c r="E443" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F443" s="18"/>
+      <c r="G443" s="13"/>
+    </row>
+    <row r="444" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A444" s="71"/>
       <c r="B444" s="35" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C444" s="18" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D444" s="8"/>
-      <c r="E444" s="27" t="s">
-        <v>18</v>
+      <c r="E444" s="28" t="s">
+        <v>21</v>
       </c>
       <c r="F444" s="18"/>
       <c r="G444" s="13"/>
     </row>
     <row r="445" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A445" s="88"/>
+      <c r="A445" s="71"/>
       <c r="B445" s="35" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C445" s="18" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D445" s="8"/>
-      <c r="E445" s="28" t="s">
-        <v>21</v>
+      <c r="E445" s="27" t="s">
+        <v>24</v>
       </c>
       <c r="F445" s="18"/>
       <c r="G445" s="13"/>
     </row>
     <row r="446" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A446" s="88"/>
+      <c r="A446" s="71"/>
       <c r="B446" s="35" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C446" s="18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D446" s="8"/>
       <c r="E446" s="27" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F446" s="18"/>
       <c r="G446" s="13"/>
     </row>
     <row r="447" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A447" s="88"/>
+      <c r="A447" s="71"/>
       <c r="B447" s="35" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C447" s="18" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D447" s="8"/>
       <c r="E447" s="27" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F447" s="18"/>
       <c r="G447" s="13"/>
     </row>
     <row r="448" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A448" s="88"/>
+      <c r="A448" s="71"/>
       <c r="B448" s="35" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C448" s="18" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D448" s="8"/>
       <c r="E448" s="27" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F448" s="18"/>
       <c r="G448" s="13"/>
     </row>
     <row r="449" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A449" s="88"/>
+      <c r="A449" s="71"/>
       <c r="B449" s="35" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C449" s="18" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D449" s="8"/>
-      <c r="E449" s="27" t="s">
-        <v>33</v>
+      <c r="E449" s="28" t="s">
+        <v>36</v>
       </c>
       <c r="F449" s="18"/>
       <c r="G449" s="13"/>
     </row>
-    <row r="450" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A450" s="88"/>
+    <row r="450" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A450" s="71"/>
       <c r="B450" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="C450" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D450" s="8"/>
-      <c r="E450" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="F450" s="18"/>
+        <v>486</v>
+      </c>
+      <c r="C450" s="34" t="s">
+        <v>487</v>
+      </c>
+      <c r="D450" s="34"/>
+      <c r="E450" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="F450" s="34" t="s">
+        <v>489</v>
+      </c>
       <c r="G450" s="13"/>
     </row>
     <row r="451" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A451" s="88"/>
-      <c r="B451" s="35" t="s">
-        <v>486</v>
-      </c>
-      <c r="C451" s="34" t="s">
-        <v>487</v>
-      </c>
-      <c r="D451" s="34"/>
-      <c r="E451" s="34" t="s">
-        <v>488</v>
-      </c>
-      <c r="F451" s="34" t="s">
-        <v>489</v>
-      </c>
+      <c r="A451" s="71"/>
+      <c r="B451" s="42" t="s">
+        <v>349</v>
+      </c>
+      <c r="C451" s="31" t="s">
+        <v>350</v>
+      </c>
+      <c r="E451" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="F451" s="18"/>
       <c r="G451" s="13"/>
     </row>
     <row r="452" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A452" s="88"/>
-      <c r="B452" s="43" t="s">
-        <v>349</v>
+      <c r="A452" s="71"/>
+      <c r="B452" s="42" t="s">
+        <v>611</v>
       </c>
       <c r="C452" s="31" t="s">
-        <v>350</v>
-      </c>
+        <v>612</v>
+      </c>
+      <c r="D452" s="31"/>
       <c r="E452" s="31" t="s">
-        <v>359</v>
-      </c>
-      <c r="F452" s="18"/>
+        <v>613</v>
+      </c>
+      <c r="F452" s="31" t="s">
+        <v>614</v>
+      </c>
       <c r="G452" s="13"/>
     </row>
     <row r="453" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A453" s="88"/>
-      <c r="B453" s="43" t="s">
-        <v>611</v>
+      <c r="A453" s="71"/>
+      <c r="B453" s="42" t="s">
+        <v>615</v>
       </c>
       <c r="C453" s="31" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="D453" s="31"/>
       <c r="E453" s="31" t="s">
-        <v>613</v>
-      </c>
-      <c r="F453" s="31" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="G453" s="13"/>
     </row>
     <row r="454" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A454" s="88"/>
-      <c r="B454" s="43" t="s">
-        <v>615</v>
-      </c>
-      <c r="C454" s="31" t="s">
-        <v>616</v>
-      </c>
-      <c r="D454" s="31"/>
-      <c r="E454" s="31" t="s">
-        <v>617</v>
-      </c>
+      <c r="A454" s="71"/>
+      <c r="B454" s="42" t="s">
+        <v>773</v>
+      </c>
+      <c r="C454" s="39" t="s">
+        <v>774</v>
+      </c>
+      <c r="D454" s="39"/>
+      <c r="E454" s="39" t="s">
+        <v>775</v>
+      </c>
+      <c r="F454" s="18"/>
       <c r="G454" s="13"/>
     </row>
     <row r="455" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A455" s="88"/>
-      <c r="B455" s="43" t="s">
-        <v>773</v>
-      </c>
-      <c r="C455" s="40" t="s">
-        <v>774</v>
-      </c>
-      <c r="D455" s="40"/>
-      <c r="E455" s="40" t="s">
-        <v>775</v>
+      <c r="A455" s="71"/>
+      <c r="B455" s="39" t="s">
+        <v>958</v>
+      </c>
+      <c r="C455" s="39" t="s">
+        <v>959</v>
+      </c>
+      <c r="D455" s="39"/>
+      <c r="E455" s="39" t="s">
+        <v>960</v>
       </c>
       <c r="F455" s="18"/>
       <c r="G455" s="13"/>
     </row>
     <row r="456" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A456" s="88"/>
-      <c r="B456" s="40" t="s">
-        <v>958</v>
-      </c>
-      <c r="C456" s="40" t="s">
-        <v>959</v>
-      </c>
-      <c r="D456" s="40"/>
-      <c r="E456" s="40" t="s">
-        <v>960</v>
+      <c r="A456" s="71"/>
+      <c r="B456" s="31" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C456" s="31" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D456" s="31"/>
+      <c r="E456" s="31" t="s">
+        <v>1009</v>
       </c>
       <c r="F456" s="18"/>
       <c r="G456" s="13"/>
     </row>
     <row r="457" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A457" s="88"/>
+      <c r="A457" s="71"/>
       <c r="B457" s="31" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="C457" s="31" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="D457" s="31"/>
       <c r="E457" s="31" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="F457" s="18"/>
       <c r="G457" s="13"/>
     </row>
     <row r="458" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A458" s="88"/>
-      <c r="B458" s="31" t="s">
-        <v>1010</v>
-      </c>
-      <c r="C458" s="31" t="s">
-        <v>1011</v>
-      </c>
-      <c r="D458" s="31"/>
-      <c r="E458" s="31" t="s">
-        <v>1012</v>
-      </c>
-      <c r="F458" s="18"/>
+      <c r="A458" s="71"/>
+      <c r="B458" s="34" t="s">
+        <v>945</v>
+      </c>
+      <c r="C458" s="34" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D458" s="34" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E458" s="34" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F458" s="54" t="s">
+        <v>614</v>
+      </c>
       <c r="G458" s="13"/>
     </row>
     <row r="459" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A459" s="88"/>
+      <c r="A459" s="71"/>
       <c r="B459" s="34" t="s">
-        <v>945</v>
+        <v>1079</v>
       </c>
       <c r="C459" s="34" t="s">
-        <v>1076</v>
+        <v>1080</v>
       </c>
       <c r="D459" s="34" t="s">
         <v>1077</v>
       </c>
       <c r="E459" s="34" t="s">
-        <v>1078</v>
-      </c>
-      <c r="F459" s="122" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F459" s="57" t="s">
         <v>614</v>
       </c>
       <c r="G459" s="13"/>
     </row>
     <row r="460" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A460" s="88"/>
+      <c r="A460" s="71"/>
       <c r="B460" s="34" t="s">
-        <v>1079</v>
+        <v>1082</v>
       </c>
       <c r="C460" s="34" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="D460" s="34" t="s">
         <v>1077</v>
       </c>
       <c r="E460" s="34" t="s">
-        <v>1081</v>
-      </c>
-      <c r="F460" s="126" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F460" s="57" t="s">
         <v>614</v>
       </c>
       <c r="G460" s="13"/>
     </row>
     <row r="461" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A461" s="88"/>
+      <c r="A461" s="71"/>
       <c r="B461" s="34" t="s">
-        <v>1082</v>
+        <v>1088</v>
       </c>
       <c r="C461" s="34" t="s">
-        <v>1083</v>
+        <v>1089</v>
       </c>
       <c r="D461" s="34" t="s">
         <v>1077</v>
       </c>
-      <c r="E461" s="34" t="s">
-        <v>1084</v>
-      </c>
-      <c r="F461" s="126" t="s">
+      <c r="E461" s="59" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F461" s="60" t="s">
         <v>614</v>
       </c>
       <c r="G461" s="13"/>
     </row>
     <row r="462" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A462" s="88"/>
-      <c r="B462" s="34" t="s">
-        <v>1088</v>
-      </c>
-      <c r="C462" s="34" t="s">
-        <v>1089</v>
-      </c>
-      <c r="D462" s="34" t="s">
-        <v>1077</v>
-      </c>
-      <c r="E462" s="129" t="s">
-        <v>1090</v>
-      </c>
-      <c r="F462" s="130" t="s">
-        <v>614</v>
-      </c>
+      <c r="A462" s="71"/>
+      <c r="B462" s="55" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C462" s="55" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D462" s="55" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E462" s="55" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F462" s="61"/>
       <c r="G462" s="13"/>
     </row>
     <row r="463" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A463" s="88"/>
-      <c r="B463" s="124" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C463" s="124" t="s">
-        <v>1092</v>
-      </c>
-      <c r="D463" s="124" t="s">
-        <v>1050</v>
-      </c>
-      <c r="E463" s="124" t="s">
-        <v>1093</v>
-      </c>
-      <c r="F463" s="131"/>
+      <c r="A463" s="71"/>
+      <c r="B463" s="35" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C463" s="35" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D463" s="35" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E463" s="35" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F463" s="62" t="s">
+        <v>1105</v>
+      </c>
       <c r="G463" s="13"/>
     </row>
     <row r="464" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A464" s="88"/>
+      <c r="A464" s="71"/>
       <c r="B464" s="35" t="s">
-        <v>1101</v>
+        <v>1106</v>
       </c>
       <c r="C464" s="35" t="s">
-        <v>1102</v>
+        <v>1107</v>
       </c>
       <c r="D464" s="35" t="s">
         <v>1103</v>
       </c>
       <c r="E464" s="35" t="s">
-        <v>1104</v>
-      </c>
-      <c r="F464" s="133" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F464" s="63" t="s">
         <v>1105</v>
       </c>
       <c r="G464" s="13"/>
     </row>
     <row r="465" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A465" s="88"/>
+      <c r="A465" s="71"/>
       <c r="B465" s="35" t="s">
-        <v>1106</v>
+        <v>1109</v>
       </c>
       <c r="C465" s="35" t="s">
-        <v>1107</v>
+        <v>1110</v>
       </c>
       <c r="D465" s="35" t="s">
         <v>1103</v>
       </c>
       <c r="E465" s="35" t="s">
-        <v>1108</v>
-      </c>
-      <c r="F465" s="134" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F465" s="63" t="s">
         <v>1105</v>
       </c>
       <c r="G465" s="13"/>
     </row>
     <row r="466" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A466" s="88"/>
+      <c r="A466" s="71"/>
       <c r="B466" s="35" t="s">
-        <v>1109</v>
+        <v>1112</v>
       </c>
       <c r="C466" s="35" t="s">
-        <v>1110</v>
+        <v>1113</v>
       </c>
       <c r="D466" s="35" t="s">
-        <v>1103</v>
+        <v>1050</v>
       </c>
       <c r="E466" s="35" t="s">
-        <v>1111</v>
-      </c>
-      <c r="F466" s="134" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F466" s="63" t="s">
+        <v>1115</v>
+      </c>
+      <c r="G466" s="13"/>
+    </row>
+    <row r="467" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A467" s="71"/>
+      <c r="B467" s="35" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C467" s="35" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D467" s="64" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E467" s="35" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F467" s="62" t="s">
+        <v>1119</v>
+      </c>
+      <c r="G467" s="13"/>
+    </row>
+    <row r="468" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A468" s="71"/>
+      <c r="B468" s="35" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C468" s="35" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D468" s="64" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E468" s="35" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F468" s="62" t="s">
         <v>1105</v>
       </c>
-      <c r="G466" s="13"/>
-    </row>
-    <row r="467" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A467" s="88"/>
-      <c r="B467" s="35" t="s">
-        <v>1112</v>
-      </c>
-      <c r="C467" s="35" t="s">
-        <v>1113</v>
-      </c>
-      <c r="D467" s="35" t="s">
-        <v>1050</v>
-      </c>
-      <c r="E467" s="35" t="s">
-        <v>1114</v>
-      </c>
-      <c r="F467" s="134" t="s">
-        <v>1115</v>
-      </c>
-      <c r="G467" s="13"/>
-    </row>
-    <row r="468" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A468" s="88"/>
-      <c r="B468" s="35" t="s">
-        <v>1116</v>
-      </c>
-      <c r="C468" s="35" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D468" s="135" t="s">
-        <v>1050</v>
-      </c>
-      <c r="E468" s="35" t="s">
-        <v>1118</v>
-      </c>
-      <c r="F468" s="133" t="s">
-        <v>1119</v>
-      </c>
       <c r="G468" s="13"/>
     </row>
     <row r="469" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A469" s="88"/>
+      <c r="A469" s="71"/>
       <c r="B469" s="35" t="s">
         <v>1120</v>
       </c>
       <c r="C469" s="35" t="s">
-        <v>1121</v>
-      </c>
-      <c r="D469" s="135" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D469" s="64" t="s">
         <v>1050</v>
       </c>
       <c r="E469" s="35" t="s">
         <v>1122</v>
       </c>
-      <c r="F469" s="133" t="s">
-        <v>1105</v>
+      <c r="F469" s="62" t="s">
+        <v>1124</v>
       </c>
       <c r="G469" s="13"/>
     </row>
     <row r="470" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A470" s="88"/>
+      <c r="A470" s="71"/>
       <c r="B470" s="35" t="s">
-        <v>1120</v>
+        <v>1125</v>
       </c>
       <c r="C470" s="35" t="s">
-        <v>1123</v>
-      </c>
-      <c r="D470" s="135" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D470" s="64" t="s">
         <v>1050</v>
       </c>
       <c r="E470" s="35" t="s">
-        <v>1122</v>
-      </c>
-      <c r="F470" s="133" t="s">
-        <v>1124</v>
+        <v>1127</v>
+      </c>
+      <c r="F470" s="62" t="s">
+        <v>1128</v>
       </c>
       <c r="G470" s="13"/>
     </row>
     <row r="471" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A471" s="88"/>
-      <c r="B471" s="35" t="s">
-        <v>1125</v>
-      </c>
-      <c r="C471" s="35" t="s">
-        <v>1126</v>
-      </c>
-      <c r="D471" s="135" t="s">
-        <v>1050</v>
-      </c>
-      <c r="E471" s="35" t="s">
-        <v>1127</v>
-      </c>
-      <c r="F471" s="137" t="s">
-        <v>1128</v>
-      </c>
+      <c r="A471" s="71"/>
+      <c r="B471" s="35"/>
+      <c r="C471" s="35"/>
+      <c r="D471" s="64"/>
+      <c r="E471" s="35"/>
+      <c r="F471" s="35"/>
       <c r="G471" s="13"/>
     </row>
     <row r="472" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A472" s="88"/>
+      <c r="A472" s="71"/>
       <c r="B472" s="35"/>
       <c r="C472" s="35"/>
-      <c r="D472" s="135"/>
+      <c r="D472" s="64"/>
       <c r="E472" s="35"/>
-      <c r="F472" s="136"/>
+      <c r="F472" s="35"/>
       <c r="G472" s="13"/>
     </row>
     <row r="473" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A473" s="88"/>
+      <c r="A473" s="71"/>
       <c r="B473" s="35"/>
       <c r="C473" s="35"/>
-      <c r="D473" s="135"/>
+      <c r="D473" s="64"/>
       <c r="E473" s="35"/>
-      <c r="F473" s="136"/>
+      <c r="F473" s="35"/>
       <c r="G473" s="13"/>
     </row>
     <row r="474" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A474" s="88"/>
+      <c r="A474" s="71"/>
       <c r="B474" s="35"/>
       <c r="C474" s="35"/>
-      <c r="D474" s="135"/>
+      <c r="D474" s="64"/>
       <c r="E474" s="35"/>
-      <c r="F474" s="136"/>
+      <c r="F474" s="35"/>
       <c r="G474" s="13"/>
     </row>
-    <row r="475" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A475" s="88"/>
-      <c r="B475" s="35"/>
-      <c r="C475" s="35"/>
-      <c r="D475" s="135"/>
-      <c r="E475" s="35"/>
-      <c r="F475" s="136"/>
-      <c r="G475" s="13"/>
-    </row>
-    <row r="476" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A476" s="89"/>
-      <c r="B476" s="53"/>
-      <c r="C476" s="19"/>
-      <c r="D476" s="25"/>
-      <c r="E476" s="29"/>
-      <c r="F476" s="19"/>
-      <c r="G476" s="16"/>
-    </row>
-    <row r="477" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A475" s="72"/>
+      <c r="B475" s="52"/>
+      <c r="C475" s="19"/>
+      <c r="D475" s="25"/>
+      <c r="E475" s="29"/>
+      <c r="F475" s="19"/>
+      <c r="G475" s="16"/>
+    </row>
+    <row r="476" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A476" s="4"/>
+      <c r="E476" s="5"/>
+    </row>
+    <row r="477" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="4"/>
       <c r="E477" s="5"/>
     </row>
-    <row r="478" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A478" s="4"/>
+    <row r="478" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E478" s="5"/>
     </row>
     <row r="479" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -14255,35 +14240,32 @@
     <row r="1455" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1455" s="5"/>
     </row>
-    <row r="1456" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E1456" s="5"/>
-    </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A3:A99"/>
-    <mergeCell ref="A141:A163"/>
-    <mergeCell ref="A443:A476"/>
-    <mergeCell ref="A112:A115"/>
-    <mergeCell ref="A335:A345"/>
-    <mergeCell ref="A384:A404"/>
-    <mergeCell ref="A222:A232"/>
-    <mergeCell ref="A346:A354"/>
-    <mergeCell ref="A405:A420"/>
-    <mergeCell ref="A239:A254"/>
-    <mergeCell ref="A116:A119"/>
-    <mergeCell ref="A314:A324"/>
-    <mergeCell ref="A362:A383"/>
-    <mergeCell ref="A421:A442"/>
-    <mergeCell ref="A355:A361"/>
-    <mergeCell ref="A327:A334"/>
+    <mergeCell ref="A281:A288"/>
+    <mergeCell ref="A164:A217"/>
+    <mergeCell ref="A289:A313"/>
     <mergeCell ref="A120:A136"/>
     <mergeCell ref="A137:A140"/>
     <mergeCell ref="A233:A238"/>
     <mergeCell ref="A255:A280"/>
     <mergeCell ref="A218:A221"/>
-    <mergeCell ref="A281:A288"/>
-    <mergeCell ref="A164:A217"/>
-    <mergeCell ref="A289:A313"/>
+    <mergeCell ref="A3:A99"/>
+    <mergeCell ref="A141:A163"/>
+    <mergeCell ref="A442:A475"/>
+    <mergeCell ref="A112:A115"/>
+    <mergeCell ref="A334:A344"/>
+    <mergeCell ref="A383:A403"/>
+    <mergeCell ref="A222:A232"/>
+    <mergeCell ref="A345:A353"/>
+    <mergeCell ref="A404:A419"/>
+    <mergeCell ref="A239:A254"/>
+    <mergeCell ref="A116:A119"/>
+    <mergeCell ref="A314:A325"/>
+    <mergeCell ref="A361:A382"/>
+    <mergeCell ref="A420:A441"/>
+    <mergeCell ref="A354:A360"/>
+    <mergeCell ref="A326:A333"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/xcom_perks/compiled_perks.xlsx
+++ b/docs/xcom_perks/compiled_perks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\xcom2_my_tweaks\docs\xcom_perks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA3726A-E343-49AB-ADDF-504222C46440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD9EC74-80B4-47DB-909A-52FE8FEA3DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4171,7 +4171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4283,6 +4283,47 @@
     <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="40" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4329,16 +4370,16 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="24" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="24" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4354,49 +4395,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="34" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="34" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="40" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4617,23 +4615,23 @@
   </sheetPr>
   <dimension ref="A1:AA1455"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A379" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C399" sqref="C399"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A389" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C398" sqref="C398"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="43" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.28515625" customWidth="1"/>
-    <col min="5" max="5" width="154.7109375" customWidth="1"/>
-    <col min="6" max="6" width="26.5703125" customWidth="1"/>
-    <col min="7" max="7" width="79.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" style="43" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.33203125" customWidth="1"/>
+    <col min="5" max="5" width="154.6640625" customWidth="1"/>
+    <col min="6" max="6" width="26.5546875" customWidth="1"/>
+    <col min="7" max="7" width="79.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="40" t="s">
         <v>0</v>
@@ -4674,7 +4672,7 @@
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
     </row>
-    <row r="2" spans="1:27" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="69" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="41" t="s">
         <v>6</v>
@@ -4691,8 +4689,8 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="65"/>
+    <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="90"/>
       <c r="B3" s="42" t="s">
         <v>79</v>
       </c>
@@ -4706,8 +4704,8 @@
       <c r="F3" s="18"/>
       <c r="G3" s="20"/>
     </row>
-    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="65"/>
+    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="90"/>
       <c r="B4" s="42" t="s">
         <v>102</v>
       </c>
@@ -4720,8 +4718,8 @@
       <c r="F4" s="18"/>
       <c r="G4" s="20"/>
     </row>
-    <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="65"/>
+    <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="90"/>
       <c r="B5" s="42" t="s">
         <v>114</v>
       </c>
@@ -4733,8 +4731,8 @@
       </c>
       <c r="G5" s="20"/>
     </row>
-    <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="65"/>
+    <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="90"/>
       <c r="B6" s="42" t="s">
         <v>141</v>
       </c>
@@ -4746,8 +4744,8 @@
       </c>
       <c r="G6" s="20"/>
     </row>
-    <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="65"/>
+    <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="90"/>
       <c r="B7" s="42" t="s">
         <v>156</v>
       </c>
@@ -4759,8 +4757,8 @@
       </c>
       <c r="G7" s="20"/>
     </row>
-    <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="65"/>
+    <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="90"/>
       <c r="B8" s="42" t="s">
         <v>158</v>
       </c>
@@ -4772,8 +4770,8 @@
       </c>
       <c r="G8" s="20"/>
     </row>
-    <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="65"/>
+    <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="90"/>
       <c r="B9" s="42" t="s">
         <v>160</v>
       </c>
@@ -4785,8 +4783,8 @@
       </c>
       <c r="G9" s="20"/>
     </row>
-    <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="65"/>
+    <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="90"/>
       <c r="B10" s="42" t="s">
         <v>177</v>
       </c>
@@ -4798,8 +4796,8 @@
       </c>
       <c r="G10" s="20"/>
     </row>
-    <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="65"/>
+    <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="90"/>
       <c r="B11" s="42" t="s">
         <v>192</v>
       </c>
@@ -4811,8 +4809,8 @@
       </c>
       <c r="G11" s="20"/>
     </row>
-    <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="65"/>
+    <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="90"/>
       <c r="B12" s="42" t="s">
         <v>204</v>
       </c>
@@ -4824,8 +4822,8 @@
       </c>
       <c r="G12" s="20"/>
     </row>
-    <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="65"/>
+    <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="90"/>
       <c r="B13" s="42" t="s">
         <v>210</v>
       </c>
@@ -4839,8 +4837,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="65"/>
+    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="90"/>
       <c r="B14" s="42" t="s">
         <v>213</v>
       </c>
@@ -4851,8 +4849,8 @@
         <v>226</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="65"/>
+    <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="90"/>
       <c r="B15" s="42" t="s">
         <v>219</v>
       </c>
@@ -4863,8 +4861,8 @@
         <v>229</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="65"/>
+    <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="90"/>
       <c r="B16" s="42" t="s">
         <v>230</v>
       </c>
@@ -4875,8 +4873,8 @@
         <v>248</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="65"/>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="90"/>
       <c r="B17" s="42" t="s">
         <v>236</v>
       </c>
@@ -4890,8 +4888,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="65"/>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="90"/>
       <c r="B18" s="42" t="s">
         <v>244</v>
       </c>
@@ -4902,8 +4900,8 @@
         <v>255</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="65"/>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="90"/>
       <c r="B19" s="42" t="s">
         <v>257</v>
       </c>
@@ -4914,8 +4912,8 @@
         <v>295</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="65"/>
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="90"/>
       <c r="B20" s="42" t="s">
         <v>259</v>
       </c>
@@ -4926,8 +4924,8 @@
         <v>296</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="65"/>
+    <row r="21" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A21" s="90"/>
       <c r="B21" s="42" t="s">
         <v>277</v>
       </c>
@@ -4938,8 +4936,8 @@
         <v>305</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="65"/>
+    <row r="22" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A22" s="90"/>
       <c r="B22" s="42" t="s">
         <v>287</v>
       </c>
@@ -4950,8 +4948,8 @@
         <v>310</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="65"/>
+    <row r="23" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="90"/>
       <c r="B23" s="42" t="s">
         <v>314</v>
       </c>
@@ -4962,8 +4960,8 @@
         <v>330</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="65"/>
+    <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="90"/>
       <c r="B24" s="42" t="s">
         <v>320</v>
       </c>
@@ -4974,8 +4972,8 @@
         <v>333</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="65"/>
+    <row r="25" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A25" s="90"/>
       <c r="B25" s="42" t="s">
         <v>326</v>
       </c>
@@ -4986,8 +4984,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="65"/>
+    <row r="26" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A26" s="90"/>
       <c r="B26" s="42" t="s">
         <v>341</v>
       </c>
@@ -4998,8 +4996,8 @@
         <v>355</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="65"/>
+    <row r="27" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="90"/>
       <c r="B27" s="42" t="s">
         <v>345</v>
       </c>
@@ -5010,8 +5008,8 @@
         <v>357</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="65"/>
+    <row r="28" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="90"/>
       <c r="B28" s="42" t="s">
         <v>365</v>
       </c>
@@ -5022,8 +5020,8 @@
         <v>379</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="65"/>
+    <row r="29" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A29" s="90"/>
       <c r="B29" s="42" t="s">
         <v>385</v>
       </c>
@@ -5034,8 +5032,8 @@
         <v>389</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="65"/>
+    <row r="30" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A30" s="90"/>
       <c r="B30" s="35" t="s">
         <v>158</v>
       </c>
@@ -5050,8 +5048,8 @@
         <v>413</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="65"/>
+    <row r="31" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="90"/>
       <c r="B31" s="35" t="s">
         <v>416</v>
       </c>
@@ -5063,8 +5061,8 @@
         <v>418</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="65"/>
+    <row r="32" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="90"/>
       <c r="B32" s="35" t="s">
         <v>419</v>
       </c>
@@ -5079,8 +5077,8 @@
         <v>422</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="65"/>
+    <row r="33" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A33" s="90"/>
       <c r="B33" s="35" t="s">
         <v>430</v>
       </c>
@@ -5097,8 +5095,8 @@
         <v>433</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="65"/>
+    <row r="34" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A34" s="90"/>
       <c r="B34" s="35" t="s">
         <v>454</v>
       </c>
@@ -5115,8 +5113,8 @@
         <v>457</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="65"/>
+    <row r="35" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="90"/>
       <c r="B35" s="35" t="s">
         <v>458</v>
       </c>
@@ -5131,8 +5129,8 @@
         <v>461</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="65"/>
+    <row r="36" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="90"/>
       <c r="B36" s="35" t="s">
         <v>466</v>
       </c>
@@ -5144,8 +5142,8 @@
         <v>468</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="65"/>
+    <row r="37" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A37" s="90"/>
       <c r="B37" s="42" t="s">
         <v>508</v>
       </c>
@@ -5157,8 +5155,8 @@
         <v>510</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="65"/>
+    <row r="38" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A38" s="90"/>
       <c r="B38" s="42" t="s">
         <v>520</v>
       </c>
@@ -5170,8 +5168,8 @@
         <v>522</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="65"/>
+    <row r="39" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="90"/>
       <c r="B39" s="42" t="s">
         <v>535</v>
       </c>
@@ -5183,8 +5181,8 @@
         <v>537</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="65"/>
+    <row r="40" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="90"/>
       <c r="B40" s="42" t="s">
         <v>543</v>
       </c>
@@ -5196,8 +5194,8 @@
         <v>545</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="65"/>
+    <row r="41" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A41" s="90"/>
       <c r="B41" s="42" t="s">
         <v>555</v>
       </c>
@@ -5209,8 +5207,8 @@
         <v>557</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="65"/>
+    <row r="42" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A42" s="90"/>
       <c r="B42" s="42" t="s">
         <v>141</v>
       </c>
@@ -5222,8 +5220,8 @@
         <v>559</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="65"/>
+    <row r="43" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="90"/>
       <c r="B43" s="42" t="s">
         <v>574</v>
       </c>
@@ -5235,8 +5233,8 @@
         <v>576</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="65"/>
+    <row r="44" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="90"/>
       <c r="B44" s="42" t="s">
         <v>591</v>
       </c>
@@ -5248,8 +5246,8 @@
         <v>593</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="65"/>
+    <row r="45" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A45" s="90"/>
       <c r="B45" s="42" t="s">
         <v>594</v>
       </c>
@@ -5264,8 +5262,8 @@
         <v>597</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="65"/>
+    <row r="46" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A46" s="90"/>
       <c r="B46" s="42" t="s">
         <v>598</v>
       </c>
@@ -5277,8 +5275,8 @@
         <v>600</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="65"/>
+    <row r="47" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="90"/>
       <c r="B47" s="42" t="s">
         <v>605</v>
       </c>
@@ -5290,8 +5288,8 @@
         <v>607</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="65"/>
+    <row r="48" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="90"/>
       <c r="B48" s="42" t="s">
         <v>618</v>
       </c>
@@ -5303,8 +5301,8 @@
         <v>620</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="65"/>
+    <row r="49" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A49" s="90"/>
       <c r="B49" s="42" t="s">
         <v>621</v>
       </c>
@@ -5316,8 +5314,8 @@
         <v>623</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="65"/>
+    <row r="50" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A50" s="90"/>
       <c r="B50" s="42" t="s">
         <v>627</v>
       </c>
@@ -5329,8 +5327,8 @@
         <v>629</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="65"/>
+    <row r="51" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="90"/>
       <c r="B51" s="42" t="s">
         <v>637</v>
       </c>
@@ -5342,8 +5340,8 @@
         <v>639</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="65"/>
+    <row r="52" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="90"/>
       <c r="B52" s="42" t="s">
         <v>640</v>
       </c>
@@ -5355,8 +5353,8 @@
         <v>642</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="65"/>
+    <row r="53" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A53" s="90"/>
       <c r="B53" s="42" t="s">
         <v>643</v>
       </c>
@@ -5368,8 +5366,8 @@
         <v>645</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="65"/>
+    <row r="54" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A54" s="90"/>
       <c r="B54" s="42" t="s">
         <v>646</v>
       </c>
@@ -5381,8 +5379,8 @@
         <v>648</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="65"/>
+    <row r="55" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="90"/>
       <c r="B55" s="42" t="s">
         <v>649</v>
       </c>
@@ -5394,8 +5392,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="65"/>
+    <row r="56" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="90"/>
       <c r="B56" s="42" t="s">
         <v>652</v>
       </c>
@@ -5407,8 +5405,8 @@
         <v>654</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="65"/>
+    <row r="57" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A57" s="90"/>
       <c r="B57" s="42" t="s">
         <v>655</v>
       </c>
@@ -5420,8 +5418,8 @@
         <v>657</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="65"/>
+    <row r="58" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A58" s="90"/>
       <c r="B58" s="42" t="s">
         <v>658</v>
       </c>
@@ -5433,8 +5431,8 @@
         <v>660</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="65"/>
+    <row r="59" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="90"/>
       <c r="B59" s="42" t="s">
         <v>661</v>
       </c>
@@ -5446,8 +5444,8 @@
         <v>663</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="65"/>
+    <row r="60" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="90"/>
       <c r="B60" s="42" t="s">
         <v>275</v>
       </c>
@@ -5459,8 +5457,8 @@
         <v>304</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="65"/>
+    <row r="61" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A61" s="90"/>
       <c r="B61" s="42" t="s">
         <v>665</v>
       </c>
@@ -5472,8 +5470,8 @@
         <v>667</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="65"/>
+    <row r="62" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A62" s="90"/>
       <c r="B62" s="42" t="s">
         <v>668</v>
       </c>
@@ -5486,8 +5484,8 @@
       </c>
       <c r="F62" s="31"/>
     </row>
-    <row r="63" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="65"/>
+    <row r="63" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="90"/>
       <c r="B63" s="42" t="s">
         <v>671</v>
       </c>
@@ -5500,8 +5498,8 @@
       </c>
       <c r="F63" s="31"/>
     </row>
-    <row r="64" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="65"/>
+    <row r="64" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="90"/>
       <c r="B64" s="42" t="s">
         <v>686</v>
       </c>
@@ -5513,8 +5511,8 @@
         <v>688</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="65"/>
+    <row r="65" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A65" s="90"/>
       <c r="B65" s="42" t="s">
         <v>704</v>
       </c>
@@ -5526,8 +5524,8 @@
         <v>706</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="65"/>
+    <row r="66" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A66" s="90"/>
       <c r="B66" s="42" t="s">
         <v>722</v>
       </c>
@@ -5540,8 +5538,8 @@
       </c>
       <c r="F66" s="31"/>
     </row>
-    <row r="67" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="65"/>
+    <row r="67" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="90"/>
       <c r="B67" s="42" t="s">
         <v>728</v>
       </c>
@@ -5554,8 +5552,8 @@
       </c>
       <c r="F67" s="31"/>
     </row>
-    <row r="68" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="65"/>
+    <row r="68" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="90"/>
       <c r="B68" s="42" t="s">
         <v>734</v>
       </c>
@@ -5567,8 +5565,8 @@
         <v>736</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="65"/>
+    <row r="69" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A69" s="90"/>
       <c r="B69" s="42" t="s">
         <v>740</v>
       </c>
@@ -5580,8 +5578,8 @@
         <v>742</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="65"/>
+    <row r="70" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A70" s="90"/>
       <c r="B70" s="42" t="s">
         <v>743</v>
       </c>
@@ -5593,8 +5591,8 @@
         <v>745</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="65"/>
+    <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="90"/>
       <c r="B71" s="42" t="s">
         <v>752</v>
       </c>
@@ -5609,8 +5607,8 @@
         <v>755</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="65"/>
+    <row r="72" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="90"/>
       <c r="B72" s="42" t="s">
         <v>761</v>
       </c>
@@ -5622,8 +5620,8 @@
         <v>763</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="65"/>
+    <row r="73" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A73" s="90"/>
       <c r="B73" s="42" t="s">
         <v>767</v>
       </c>
@@ -5635,8 +5633,8 @@
         <v>769</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="65"/>
+    <row r="74" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A74" s="90"/>
       <c r="B74" s="42" t="s">
         <v>779</v>
       </c>
@@ -5648,8 +5646,8 @@
         <v>781</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="65"/>
+    <row r="75" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="90"/>
       <c r="B75" s="42" t="s">
         <v>788</v>
       </c>
@@ -5661,8 +5659,8 @@
         <v>790</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="65"/>
+    <row r="76" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="90"/>
       <c r="B76" s="42" t="s">
         <v>791</v>
       </c>
@@ -5674,8 +5672,8 @@
         <v>793</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A77" s="65"/>
+    <row r="77" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A77" s="90"/>
       <c r="B77" s="31" t="s">
         <v>809</v>
       </c>
@@ -5687,8 +5685,8 @@
         <v>811</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A78" s="65"/>
+    <row r="78" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A78" s="90"/>
       <c r="B78" s="31" t="s">
         <v>827</v>
       </c>
@@ -5700,8 +5698,8 @@
         <v>829</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="65"/>
+    <row r="79" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="90"/>
       <c r="B79" s="31" t="s">
         <v>830</v>
       </c>
@@ -5713,8 +5711,8 @@
         <v>832</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="65"/>
+    <row r="80" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="90"/>
       <c r="B80" s="31" t="s">
         <v>850</v>
       </c>
@@ -5726,8 +5724,8 @@
         <v>852</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A81" s="65"/>
+    <row r="81" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A81" s="90"/>
       <c r="B81" s="31" t="s">
         <v>853</v>
       </c>
@@ -5739,8 +5737,8 @@
         <v>855</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A82" s="65"/>
+    <row r="82" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A82" s="90"/>
       <c r="B82" s="31" t="s">
         <v>871</v>
       </c>
@@ -5752,8 +5750,8 @@
         <v>873</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="65"/>
+    <row r="83" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="90"/>
       <c r="B83" s="39" t="s">
         <v>891</v>
       </c>
@@ -5765,8 +5763,8 @@
         <v>893</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="65"/>
+    <row r="84" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="90"/>
       <c r="B84" s="39" t="s">
         <v>897</v>
       </c>
@@ -5778,8 +5776,8 @@
         <v>899</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A85" s="65"/>
+    <row r="85" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A85" s="90"/>
       <c r="B85" s="31" t="s">
         <v>912</v>
       </c>
@@ -5791,8 +5789,8 @@
         <v>914</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A86" s="65"/>
+    <row r="86" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A86" s="90"/>
       <c r="B86" s="31" t="s">
         <v>915</v>
       </c>
@@ -5804,8 +5802,8 @@
         <v>917</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="65"/>
+    <row r="87" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="90"/>
       <c r="B87" s="31" t="s">
         <v>933</v>
       </c>
@@ -5817,8 +5815,8 @@
         <v>935</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A88" s="65"/>
+    <row r="88" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A88" s="90"/>
       <c r="B88" s="31" t="s">
         <v>936</v>
       </c>
@@ -5830,8 +5828,8 @@
         <v>938</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="65"/>
+    <row r="89" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A89" s="90"/>
       <c r="B89" s="31" t="s">
         <v>939</v>
       </c>
@@ -5843,8 +5841,8 @@
         <v>941</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="65"/>
+    <row r="90" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="90"/>
       <c r="B90" s="39" t="s">
         <v>948</v>
       </c>
@@ -5856,8 +5854,8 @@
         <v>950</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="65"/>
+    <row r="91" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="90"/>
       <c r="B91" s="39" t="s">
         <v>236</v>
       </c>
@@ -5869,8 +5867,8 @@
         <v>955</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A92" s="65"/>
+    <row r="92" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A92" s="90"/>
       <c r="B92" s="31" t="s">
         <v>999</v>
       </c>
@@ -5882,8 +5880,8 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A93" s="65"/>
+    <row r="93" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A93" s="90"/>
       <c r="B93" s="31" t="s">
         <v>1013</v>
       </c>
@@ -5895,8 +5893,8 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="65"/>
+    <row r="94" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="90"/>
       <c r="B94" s="31" t="s">
         <v>1016</v>
       </c>
@@ -5908,8 +5906,8 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="65"/>
+    <row r="95" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="90"/>
       <c r="B95" s="31" t="s">
         <v>1025</v>
       </c>
@@ -5921,8 +5919,8 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A96" s="65"/>
+    <row r="96" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A96" s="90"/>
       <c r="B96" s="31" t="s">
         <v>1028</v>
       </c>
@@ -5934,8 +5932,8 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A97" s="65"/>
+    <row r="97" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A97" s="90"/>
       <c r="B97" s="31" t="s">
         <v>1040</v>
       </c>
@@ -5947,8 +5945,8 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="65"/>
+    <row r="98" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="90"/>
       <c r="B98" s="31" t="s">
         <v>756</v>
       </c>
@@ -5960,8 +5958,8 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="66"/>
+    <row r="99" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="91"/>
       <c r="B99" s="34" t="s">
         <v>1085</v>
       </c>
@@ -5976,7 +5974,7 @@
       </c>
       <c r="G99" s="21"/>
     </row>
-    <row r="100" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A100" s="58"/>
       <c r="B100" s="35" t="s">
         <v>1129</v>
@@ -5992,7 +5990,7 @@
       </c>
       <c r="G100" s="18"/>
     </row>
-    <row r="101" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="58"/>
       <c r="B101" s="35" t="s">
         <v>1158</v>
@@ -6011,7 +6009,7 @@
       </c>
       <c r="G101" s="18"/>
     </row>
-    <row r="102" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="58"/>
       <c r="B102" s="35" t="s">
         <v>1162</v>
@@ -6028,7 +6026,7 @@
       <c r="F102" s="62"/>
       <c r="G102" s="18"/>
     </row>
-    <row r="103" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="58"/>
       <c r="B103" s="35" t="s">
         <v>1165</v>
@@ -6045,7 +6043,7 @@
       <c r="F103" s="62"/>
       <c r="G103" s="18"/>
     </row>
-    <row r="104" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="58"/>
       <c r="B104" s="35" t="s">
         <v>1168</v>
@@ -6062,7 +6060,7 @@
       <c r="F104" s="62"/>
       <c r="G104" s="18"/>
     </row>
-    <row r="105" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="58"/>
       <c r="B105" s="35" t="s">
         <v>1171</v>
@@ -6079,7 +6077,7 @@
       <c r="F105" s="62"/>
       <c r="G105" s="18"/>
     </row>
-    <row r="106" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="58"/>
       <c r="B106" s="35" t="s">
         <v>1174</v>
@@ -6098,7 +6096,7 @@
       </c>
       <c r="G106" s="18"/>
     </row>
-    <row r="107" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="58"/>
       <c r="B107" s="35" t="s">
         <v>1178</v>
@@ -6117,15 +6115,15 @@
       </c>
       <c r="G107" s="18"/>
     </row>
-    <row r="108" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="58"/>
       <c r="G108" s="18"/>
     </row>
-    <row r="109" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="58"/>
       <c r="G109" s="18"/>
     </row>
-    <row r="110" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="58"/>
       <c r="B110" s="34"/>
       <c r="C110" s="34"/>
@@ -6133,7 +6131,7 @@
       <c r="E110" s="34"/>
       <c r="G110" s="18"/>
     </row>
-    <row r="111" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="58"/>
       <c r="B111" s="34"/>
       <c r="C111" s="34"/>
@@ -6141,8 +6139,8 @@
       <c r="E111" s="34"/>
       <c r="G111" s="18"/>
     </row>
-    <row r="112" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="73" t="s">
+    <row r="112" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="98" t="s">
         <v>37</v>
       </c>
       <c r="B112" s="44" t="s">
@@ -6160,8 +6158,8 @@
       <c r="F112" s="18"/>
       <c r="G112" s="13"/>
     </row>
-    <row r="113" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="73"/>
+    <row r="113" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="98"/>
       <c r="B113" s="45"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
@@ -6169,8 +6167,8 @@
       <c r="F113" s="18"/>
       <c r="G113" s="13"/>
     </row>
-    <row r="114" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="74"/>
+    <row r="114" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="99"/>
       <c r="B114" s="45" t="s">
         <v>41</v>
       </c>
@@ -6184,8 +6182,8 @@
       <c r="F114" s="18"/>
       <c r="G114" s="13"/>
     </row>
-    <row r="115" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="75"/>
+    <row r="115" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="100"/>
       <c r="B115" s="46" t="s">
         <v>44</v>
       </c>
@@ -6201,8 +6199,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="94" t="s">
+    <row r="116" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="117" t="s">
         <v>494</v>
       </c>
       <c r="B116" s="42" t="s">
@@ -6217,8 +6215,8 @@
       <c r="F116" s="18"/>
       <c r="G116" s="13"/>
     </row>
-    <row r="117" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="94"/>
+    <row r="117" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="117"/>
       <c r="B117" s="45"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
@@ -6226,8 +6224,8 @@
       <c r="F117" s="18"/>
       <c r="G117" s="13"/>
     </row>
-    <row r="118" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="95"/>
+    <row r="118" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="118"/>
       <c r="B118" s="45"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
@@ -6235,8 +6233,8 @@
       <c r="F118" s="18"/>
       <c r="G118" s="13"/>
     </row>
-    <row r="119" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="96"/>
+    <row r="119" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="119"/>
       <c r="B119" s="46"/>
       <c r="C119" s="32"/>
       <c r="D119" s="32"/>
@@ -6246,8 +6244,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="107" t="s">
+    <row r="120" spans="1:7" ht="14.4" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="74" t="s">
         <v>496</v>
       </c>
       <c r="B120" s="42" t="s">
@@ -6262,8 +6260,8 @@
       <c r="F120" s="18"/>
       <c r="G120" s="13"/>
     </row>
-    <row r="121" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A121" s="107"/>
+    <row r="121" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A121" s="74"/>
       <c r="B121" s="42" t="s">
         <v>118</v>
       </c>
@@ -6276,8 +6274,8 @@
       <c r="F121" s="18"/>
       <c r="G121" s="13"/>
     </row>
-    <row r="122" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A122" s="108"/>
+    <row r="122" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A122" s="75"/>
       <c r="B122" s="42" t="s">
         <v>152</v>
       </c>
@@ -6290,8 +6288,8 @@
       <c r="F122" s="18"/>
       <c r="G122" s="13"/>
     </row>
-    <row r="123" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A123" s="109"/>
+    <row r="123" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A123" s="76"/>
       <c r="B123" s="42" t="s">
         <v>234</v>
       </c>
@@ -6304,8 +6302,8 @@
       <c r="F123" s="18"/>
       <c r="G123" s="18"/>
     </row>
-    <row r="124" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A124" s="110"/>
+    <row r="124" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A124" s="71"/>
       <c r="B124" s="42" t="s">
         <v>246</v>
       </c>
@@ -6318,8 +6316,8 @@
       <c r="F124" s="18"/>
       <c r="G124" s="13"/>
     </row>
-    <row r="125" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A125" s="110"/>
+    <row r="125" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A125" s="71"/>
       <c r="B125" s="42" t="s">
         <v>601</v>
       </c>
@@ -6333,8 +6331,8 @@
       <c r="F125" s="18"/>
       <c r="G125" s="13"/>
     </row>
-    <row r="126" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A126" s="110"/>
+    <row r="126" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A126" s="71"/>
       <c r="B126" s="42" t="s">
         <v>794</v>
       </c>
@@ -6350,8 +6348,8 @@
       </c>
       <c r="G126" s="13"/>
     </row>
-    <row r="127" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A127" s="110"/>
+    <row r="127" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A127" s="71"/>
       <c r="B127" s="42" t="s">
         <v>800</v>
       </c>
@@ -6365,8 +6363,8 @@
       <c r="F127" s="18"/>
       <c r="G127" s="13"/>
     </row>
-    <row r="128" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A128" s="110"/>
+    <row r="128" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A128" s="71"/>
       <c r="B128" s="31" t="s">
         <v>856</v>
       </c>
@@ -6380,8 +6378,8 @@
       <c r="F128" s="18"/>
       <c r="G128" s="13"/>
     </row>
-    <row r="129" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A129" s="110"/>
+    <row r="129" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A129" s="71"/>
       <c r="B129" s="39" t="s">
         <v>906</v>
       </c>
@@ -6395,8 +6393,8 @@
       <c r="F129" s="18"/>
       <c r="G129" s="13"/>
     </row>
-    <row r="130" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A130" s="110"/>
+    <row r="130" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A130" s="71"/>
       <c r="B130" s="39" t="s">
         <v>909</v>
       </c>
@@ -6410,8 +6408,8 @@
       <c r="F130" s="18"/>
       <c r="G130" s="13"/>
     </row>
-    <row r="131" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A131" s="110"/>
+    <row r="131" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A131" s="71"/>
       <c r="B131" s="31" t="s">
         <v>930</v>
       </c>
@@ -6425,8 +6423,8 @@
       <c r="F131" s="18"/>
       <c r="G131" s="13"/>
     </row>
-    <row r="132" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A132" s="110"/>
+    <row r="132" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A132" s="71"/>
       <c r="B132" s="31" t="s">
         <v>942</v>
       </c>
@@ -6440,8 +6438,8 @@
       <c r="F132" s="18"/>
       <c r="G132" s="13"/>
     </row>
-    <row r="133" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A133" s="110"/>
+    <row r="133" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A133" s="71"/>
       <c r="B133" s="31" t="s">
         <v>981</v>
       </c>
@@ -6455,8 +6453,8 @@
       <c r="F133" s="18"/>
       <c r="G133" s="13"/>
     </row>
-    <row r="134" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A134" s="110"/>
+    <row r="134" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A134" s="71"/>
       <c r="B134" s="31" t="s">
         <v>918</v>
       </c>
@@ -6470,8 +6468,8 @@
       <c r="F134" s="18"/>
       <c r="G134" s="13"/>
     </row>
-    <row r="135" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A135" s="110"/>
+    <row r="135" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A135" s="71"/>
       <c r="B135" s="39"/>
       <c r="C135" s="39"/>
       <c r="D135" s="39"/>
@@ -6479,13 +6477,13 @@
       <c r="F135" s="18"/>
       <c r="G135" s="13"/>
     </row>
-    <row r="136" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="111"/>
+    <row r="136" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="77"/>
       <c r="F136" s="18"/>
       <c r="G136" s="13"/>
     </row>
-    <row r="137" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="112" t="s">
+    <row r="137" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="78" t="s">
         <v>490</v>
       </c>
       <c r="B137" s="42" t="s">
@@ -6500,8 +6498,8 @@
       <c r="F137" s="18"/>
       <c r="G137" s="13"/>
     </row>
-    <row r="138" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="112"/>
+    <row r="138" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="78"/>
       <c r="B138" s="42" t="s">
         <v>289</v>
       </c>
@@ -6514,8 +6512,8 @@
       <c r="F138" s="18"/>
       <c r="G138" s="13"/>
     </row>
-    <row r="139" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="113"/>
+    <row r="139" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="79"/>
       <c r="B139" s="35" t="s">
         <v>423</v>
       </c>
@@ -6529,8 +6527,8 @@
       <c r="F139" s="18"/>
       <c r="G139" s="13"/>
     </row>
-    <row r="140" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="114"/>
+    <row r="140" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="80"/>
       <c r="B140" s="46"/>
       <c r="C140" s="32"/>
       <c r="D140" s="32"/>
@@ -6540,8 +6538,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="141" spans="1:7" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="67" t="s">
+    <row r="141" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="92" t="s">
         <v>96</v>
       </c>
       <c r="B141" s="42" t="s">
@@ -6557,8 +6555,8 @@
       <c r="F141" s="18"/>
       <c r="G141" s="30"/>
     </row>
-    <row r="142" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A142" s="68"/>
+    <row r="142" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A142" s="93"/>
       <c r="B142" s="42" t="s">
         <v>75</v>
       </c>
@@ -6572,8 +6570,8 @@
       <c r="F142" s="18"/>
       <c r="G142" s="23"/>
     </row>
-    <row r="143" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A143" s="68"/>
+    <row r="143" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A143" s="93"/>
       <c r="B143" s="42" t="s">
         <v>263</v>
       </c>
@@ -6586,8 +6584,8 @@
       <c r="F143" s="18"/>
       <c r="G143" s="13"/>
     </row>
-    <row r="144" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A144" s="68"/>
+    <row r="144" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A144" s="93"/>
       <c r="B144" s="42" t="s">
         <v>361</v>
       </c>
@@ -6600,8 +6598,8 @@
       <c r="F144" s="18"/>
       <c r="G144" s="13"/>
     </row>
-    <row r="145" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A145" s="68"/>
+    <row r="145" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A145" s="93"/>
       <c r="B145" s="42" t="s">
         <v>271</v>
       </c>
@@ -6616,8 +6614,8 @@
       </c>
       <c r="G145" s="13"/>
     </row>
-    <row r="146" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A146" s="68"/>
+    <row r="146" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A146" s="93"/>
       <c r="B146" s="42" t="s">
         <v>281</v>
       </c>
@@ -6630,8 +6628,8 @@
       <c r="F146" s="31"/>
       <c r="G146" s="13"/>
     </row>
-    <row r="147" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A147" s="68"/>
+    <row r="147" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A147" s="93"/>
       <c r="B147" s="42" t="s">
         <v>318</v>
       </c>
@@ -6644,8 +6642,8 @@
       <c r="F147" s="31"/>
       <c r="G147" s="13"/>
     </row>
-    <row r="148" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A148" s="68"/>
+    <row r="148" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A148" s="93"/>
       <c r="B148" s="42" t="s">
         <v>351</v>
       </c>
@@ -6658,8 +6656,8 @@
       <c r="F148" s="31"/>
       <c r="G148" s="13"/>
     </row>
-    <row r="149" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A149" s="68"/>
+    <row r="149" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A149" s="93"/>
       <c r="B149" s="42" t="s">
         <v>316</v>
       </c>
@@ -6672,8 +6670,8 @@
       <c r="F149" s="31"/>
       <c r="G149" s="13"/>
     </row>
-    <row r="150" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A150" s="68"/>
+    <row r="150" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A150" s="93"/>
       <c r="B150" s="42" t="s">
         <v>269</v>
       </c>
@@ -6686,8 +6684,8 @@
       <c r="F150" s="31"/>
       <c r="G150" s="13"/>
     </row>
-    <row r="151" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A151" s="68"/>
+    <row r="151" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A151" s="93"/>
       <c r="B151" s="35" t="s">
         <v>480</v>
       </c>
@@ -6703,8 +6701,8 @@
       </c>
       <c r="G151" s="13"/>
     </row>
-    <row r="152" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A152" s="68"/>
+    <row r="152" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A152" s="93"/>
       <c r="B152" s="42" t="s">
         <v>322</v>
       </c>
@@ -6715,8 +6713,8 @@
         <v>334</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A153" s="68"/>
+    <row r="153" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A153" s="93"/>
       <c r="B153" s="42" t="s">
         <v>526</v>
       </c>
@@ -6730,8 +6728,8 @@
       <c r="F153" s="31"/>
       <c r="G153" s="13"/>
     </row>
-    <row r="154" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A154" s="68"/>
+    <row r="154" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A154" s="93"/>
       <c r="B154" s="47" t="s">
         <v>584</v>
       </c>
@@ -6747,8 +6745,8 @@
       </c>
       <c r="G154" s="13"/>
     </row>
-    <row r="155" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A155" s="68"/>
+    <row r="155" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A155" s="93"/>
       <c r="B155" s="42" t="s">
         <v>674</v>
       </c>
@@ -6764,8 +6762,8 @@
       </c>
       <c r="G155" s="13"/>
     </row>
-    <row r="156" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A156" s="68"/>
+    <row r="156" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A156" s="93"/>
       <c r="B156" s="42" t="s">
         <v>764</v>
       </c>
@@ -6779,8 +6777,8 @@
       <c r="F156" s="31"/>
       <c r="G156" s="13"/>
     </row>
-    <row r="157" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A157" s="68"/>
+    <row r="157" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A157" s="93"/>
       <c r="B157" s="31" t="s">
         <v>859</v>
       </c>
@@ -6794,8 +6792,8 @@
       <c r="F157" s="31"/>
       <c r="G157" s="13"/>
     </row>
-    <row r="158" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A158" s="68"/>
+    <row r="158" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A158" s="93"/>
       <c r="B158" s="39" t="s">
         <v>882</v>
       </c>
@@ -6809,8 +6807,8 @@
       <c r="F158" s="31"/>
       <c r="G158" s="13"/>
     </row>
-    <row r="159" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A159" s="68"/>
+    <row r="159" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A159" s="93"/>
       <c r="B159" s="31" t="s">
         <v>921</v>
       </c>
@@ -6824,8 +6822,8 @@
       <c r="F159" s="31"/>
       <c r="G159" s="13"/>
     </row>
-    <row r="160" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A160" s="68"/>
+    <row r="160" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A160" s="93"/>
       <c r="B160" s="31" t="s">
         <v>976</v>
       </c>
@@ -6839,8 +6837,8 @@
       <c r="F160" s="31"/>
       <c r="G160" s="13"/>
     </row>
-    <row r="161" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A161" s="68"/>
+    <row r="161" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A161" s="93"/>
       <c r="B161" s="31" t="s">
         <v>1034</v>
       </c>
@@ -6854,8 +6852,8 @@
       <c r="F161" s="31"/>
       <c r="G161" s="13"/>
     </row>
-    <row r="162" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A162" s="68"/>
+    <row r="162" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A162" s="93"/>
       <c r="B162" s="31"/>
       <c r="C162" s="31"/>
       <c r="D162" s="31"/>
@@ -6863,8 +6861,8 @@
       <c r="F162" s="31"/>
       <c r="G162" s="13"/>
     </row>
-    <row r="163" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="69"/>
+    <row r="163" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A163" s="94"/>
       <c r="B163" s="48"/>
       <c r="C163" s="24"/>
       <c r="D163" s="25"/>
@@ -6872,8 +6870,8 @@
       <c r="F163" s="19"/>
       <c r="G163" s="16"/>
     </row>
-    <row r="164" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="124" t="s">
+    <row r="164" spans="1:7" ht="14.4" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="68" t="s">
         <v>444</v>
       </c>
       <c r="B164" s="42" t="s">
@@ -6890,8 +6888,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A165" s="125"/>
+    <row r="165" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A165" s="69"/>
       <c r="B165" s="42" t="s">
         <v>127</v>
       </c>
@@ -6906,8 +6904,8 @@
       </c>
       <c r="G165" s="13"/>
     </row>
-    <row r="166" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A166" s="125"/>
+    <row r="166" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A166" s="69"/>
       <c r="B166" s="42" t="s">
         <v>135</v>
       </c>
@@ -6920,8 +6918,8 @@
       <c r="F166" s="18"/>
       <c r="G166" s="13"/>
     </row>
-    <row r="167" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A167" s="125"/>
+    <row r="167" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A167" s="69"/>
       <c r="B167" s="42" t="s">
         <v>137</v>
       </c>
@@ -6934,8 +6932,8 @@
       <c r="F167" s="18"/>
       <c r="G167" s="13"/>
     </row>
-    <row r="168" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A168" s="125"/>
+    <row r="168" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A168" s="69"/>
       <c r="B168" s="42" t="s">
         <v>162</v>
       </c>
@@ -6947,8 +6945,8 @@
       </c>
       <c r="G168" s="13"/>
     </row>
-    <row r="169" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A169" s="125"/>
+    <row r="169" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A169" s="69"/>
       <c r="B169" s="42" t="s">
         <v>162</v>
       </c>
@@ -6963,8 +6961,8 @@
       </c>
       <c r="G169" s="13"/>
     </row>
-    <row r="170" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A170" s="125"/>
+    <row r="170" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A170" s="69"/>
       <c r="B170" s="42" t="s">
         <v>175</v>
       </c>
@@ -6977,8 +6975,8 @@
       <c r="F170" s="31"/>
       <c r="G170" s="13"/>
     </row>
-    <row r="171" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A171" s="125"/>
+    <row r="171" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A171" s="69"/>
       <c r="B171" s="42" t="s">
         <v>238</v>
       </c>
@@ -6991,8 +6989,8 @@
       <c r="F171" s="31"/>
       <c r="G171" s="13"/>
     </row>
-    <row r="172" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A172" s="125"/>
+    <row r="172" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A172" s="69"/>
       <c r="B172" s="42" t="s">
         <v>242</v>
       </c>
@@ -7007,8 +7005,8 @@
       </c>
       <c r="G172" s="13"/>
     </row>
-    <row r="173" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A173" s="125"/>
+    <row r="173" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A173" s="69"/>
       <c r="B173" s="42" t="s">
         <v>273</v>
       </c>
@@ -7021,8 +7019,8 @@
       <c r="F173" s="31"/>
       <c r="G173" s="13"/>
     </row>
-    <row r="174" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A174" s="125"/>
+    <row r="174" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A174" s="69"/>
       <c r="B174" s="42" t="s">
         <v>338</v>
       </c>
@@ -7037,8 +7035,8 @@
       </c>
       <c r="G174" s="13"/>
     </row>
-    <row r="175" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A175" s="125"/>
+    <row r="175" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A175" s="69"/>
       <c r="B175" s="42" t="s">
         <v>338</v>
       </c>
@@ -7050,8 +7048,8 @@
       </c>
       <c r="G175" s="13"/>
     </row>
-    <row r="176" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A176" s="125"/>
+    <row r="176" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A176" s="69"/>
       <c r="B176" s="35" t="s">
         <v>427</v>
       </c>
@@ -7065,8 +7063,8 @@
       <c r="F176" s="31"/>
       <c r="G176" s="13"/>
     </row>
-    <row r="177" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A177" s="125"/>
+    <row r="177" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A177" s="69"/>
       <c r="B177" s="35" t="s">
         <v>438</v>
       </c>
@@ -7080,8 +7078,8 @@
       <c r="F177" s="31"/>
       <c r="G177" s="13"/>
     </row>
-    <row r="178" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A178" s="125"/>
+    <row r="178" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A178" s="69"/>
       <c r="B178" s="35" t="s">
         <v>472</v>
       </c>
@@ -7097,8 +7095,8 @@
       </c>
       <c r="G178" s="13"/>
     </row>
-    <row r="179" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A179" s="125"/>
+    <row r="179" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A179" s="69"/>
       <c r="B179" s="35" t="s">
         <v>398</v>
       </c>
@@ -7114,8 +7112,8 @@
       </c>
       <c r="G179" s="13"/>
     </row>
-    <row r="180" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A180" s="125"/>
+    <row r="180" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A180" s="69"/>
       <c r="B180" s="35" t="s">
         <v>469</v>
       </c>
@@ -7131,8 +7129,8 @@
       </c>
       <c r="G180" s="13"/>
     </row>
-    <row r="181" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A181" s="125"/>
+    <row r="181" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A181" s="69"/>
       <c r="B181" s="42" t="s">
         <v>285</v>
       </c>
@@ -7145,8 +7143,8 @@
       <c r="F181" s="34"/>
       <c r="G181" s="13"/>
     </row>
-    <row r="182" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A182" s="125"/>
+    <row r="182" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A182" s="69"/>
       <c r="B182" s="42" t="s">
         <v>187</v>
       </c>
@@ -7159,8 +7157,8 @@
       <c r="F182" s="34"/>
       <c r="G182" s="13"/>
     </row>
-    <row r="183" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A183" s="125"/>
+    <row r="183" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A183" s="69"/>
       <c r="B183" s="42" t="s">
         <v>116</v>
       </c>
@@ -7175,8 +7173,8 @@
       </c>
       <c r="G183" s="13"/>
     </row>
-    <row r="184" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A184" s="125"/>
+    <row r="184" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A184" s="69"/>
       <c r="B184" s="42" t="s">
         <v>125</v>
       </c>
@@ -7190,8 +7188,8 @@
       <c r="F184" s="7"/>
       <c r="G184" s="13"/>
     </row>
-    <row r="185" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A185" s="125"/>
+    <row r="185" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A185" s="69"/>
       <c r="B185" s="42" t="s">
         <v>438</v>
       </c>
@@ -7205,8 +7203,8 @@
       <c r="F185" s="7"/>
       <c r="G185" s="13"/>
     </row>
-    <row r="186" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A186" s="125"/>
+    <row r="186" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A186" s="69"/>
       <c r="B186" s="42" t="s">
         <v>710</v>
       </c>
@@ -7220,8 +7218,8 @@
       <c r="F186" s="7"/>
       <c r="G186" s="13"/>
     </row>
-    <row r="187" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A187" s="125"/>
+    <row r="187" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A187" s="69"/>
       <c r="B187" s="42" t="s">
         <v>776</v>
       </c>
@@ -7235,8 +7233,8 @@
       <c r="F187" s="7"/>
       <c r="G187" s="13"/>
     </row>
-    <row r="188" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A188" s="125"/>
+    <row r="188" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A188" s="69"/>
       <c r="B188" s="42" t="s">
         <v>782</v>
       </c>
@@ -7250,8 +7248,8 @@
       <c r="F188" s="7"/>
       <c r="G188" s="13"/>
     </row>
-    <row r="189" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A189" s="125"/>
+    <row r="189" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A189" s="69"/>
       <c r="B189" s="42" t="s">
         <v>785</v>
       </c>
@@ -7265,8 +7263,8 @@
       <c r="F189" s="7"/>
       <c r="G189" s="13"/>
     </row>
-    <row r="190" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A190" s="125"/>
+    <row r="190" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A190" s="69"/>
       <c r="B190" s="31" t="s">
         <v>838</v>
       </c>
@@ -7280,8 +7278,8 @@
       <c r="F190" s="7"/>
       <c r="G190" s="13"/>
     </row>
-    <row r="191" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A191" s="125"/>
+    <row r="191" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A191" s="69"/>
       <c r="B191" s="31" t="s">
         <v>865</v>
       </c>
@@ -7295,8 +7293,8 @@
       <c r="F191" s="7"/>
       <c r="G191" s="13"/>
     </row>
-    <row r="192" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A192" s="125"/>
+    <row r="192" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A192" s="69"/>
       <c r="B192" s="39" t="s">
         <v>879</v>
       </c>
@@ -7310,8 +7308,8 @@
       <c r="F192" s="7"/>
       <c r="G192" s="13"/>
     </row>
-    <row r="193" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A193" s="125"/>
+    <row r="193" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A193" s="69"/>
       <c r="B193" s="39" t="s">
         <v>885</v>
       </c>
@@ -7325,8 +7323,8 @@
       <c r="F193" s="7"/>
       <c r="G193" s="13"/>
     </row>
-    <row r="194" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A194" s="125"/>
+    <row r="194" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A194" s="69"/>
       <c r="B194" s="39" t="s">
         <v>900</v>
       </c>
@@ -7340,8 +7338,8 @@
       <c r="F194" s="7"/>
       <c r="G194" s="13"/>
     </row>
-    <row r="195" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="126"/>
+    <row r="195" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A195" s="70"/>
       <c r="B195" s="39" t="s">
         <v>903</v>
       </c>
@@ -7355,8 +7353,8 @@
       <c r="F195" s="38"/>
       <c r="G195" s="16"/>
     </row>
-    <row r="196" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="126"/>
+    <row r="196" spans="1:7" ht="14.4" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="70"/>
       <c r="B196" s="39" t="s">
         <v>961</v>
       </c>
@@ -7369,8 +7367,8 @@
       </c>
       <c r="G196" s="13"/>
     </row>
-    <row r="197" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A197" s="126"/>
+    <row r="197" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A197" s="70"/>
       <c r="B197" s="39" t="s">
         <v>967</v>
       </c>
@@ -7383,8 +7381,8 @@
       </c>
       <c r="G197" s="13"/>
     </row>
-    <row r="198" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A198" s="126"/>
+    <row r="198" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A198" s="70"/>
       <c r="B198" s="39" t="s">
         <v>970</v>
       </c>
@@ -7397,8 +7395,8 @@
       </c>
       <c r="G198" s="13"/>
     </row>
-    <row r="199" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A199" s="126"/>
+    <row r="199" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A199" s="70"/>
       <c r="B199" s="31" t="s">
         <v>984</v>
       </c>
@@ -7411,8 +7409,8 @@
       </c>
       <c r="G199" s="13"/>
     </row>
-    <row r="200" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A200" s="126"/>
+    <row r="200" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A200" s="70"/>
       <c r="B200" s="31" t="s">
         <v>1002</v>
       </c>
@@ -7425,8 +7423,8 @@
       </c>
       <c r="G200" s="13"/>
     </row>
-    <row r="201" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A201" s="126"/>
+    <row r="201" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A201" s="70"/>
       <c r="B201" s="31" t="s">
         <v>1019</v>
       </c>
@@ -7439,8 +7437,8 @@
       </c>
       <c r="G201" s="13"/>
     </row>
-    <row r="202" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A202" s="126"/>
+    <row r="202" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A202" s="70"/>
       <c r="B202" s="31" t="s">
         <v>1037</v>
       </c>
@@ -7453,8 +7451,8 @@
       </c>
       <c r="G202" s="13"/>
     </row>
-    <row r="203" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A203" s="126"/>
+    <row r="203" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A203" s="70"/>
       <c r="B203" s="34" t="s">
         <v>1048</v>
       </c>
@@ -7472,8 +7470,8 @@
       </c>
       <c r="G203" s="13"/>
     </row>
-    <row r="204" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A204" s="126"/>
+    <row r="204" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A204" s="70"/>
       <c r="B204" s="34" t="s">
         <v>1048</v>
       </c>
@@ -7491,8 +7489,8 @@
       </c>
       <c r="G204" s="13"/>
     </row>
-    <row r="205" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A205" s="126"/>
+    <row r="205" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A205" s="70"/>
       <c r="B205" s="34" t="s">
         <v>1056</v>
       </c>
@@ -7508,8 +7506,8 @@
       <c r="F205" s="34"/>
       <c r="G205" s="13"/>
     </row>
-    <row r="206" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A206" s="126"/>
+    <row r="206" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A206" s="70"/>
       <c r="B206" s="34" t="s">
         <v>1059</v>
       </c>
@@ -7525,8 +7523,8 @@
       <c r="F206" s="34"/>
       <c r="G206" s="13"/>
     </row>
-    <row r="207" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A207" s="126"/>
+    <row r="207" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A207" s="70"/>
       <c r="B207" s="34" t="s">
         <v>1062</v>
       </c>
@@ -7544,8 +7542,8 @@
       </c>
       <c r="G207" s="13"/>
     </row>
-    <row r="208" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A208" s="126"/>
+    <row r="208" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A208" s="70"/>
       <c r="B208" s="34" t="s">
         <v>1066</v>
       </c>
@@ -7563,8 +7561,8 @@
       </c>
       <c r="G208" s="13"/>
     </row>
-    <row r="209" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A209" s="126"/>
+    <row r="209" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A209" s="70"/>
       <c r="B209" s="34" t="s">
         <v>1070</v>
       </c>
@@ -7582,8 +7580,8 @@
       </c>
       <c r="G209" s="13"/>
     </row>
-    <row r="210" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A210" s="126"/>
+    <row r="210" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A210" s="70"/>
       <c r="B210" s="55" t="s">
         <v>1073</v>
       </c>
@@ -7601,8 +7599,8 @@
       </c>
       <c r="G210" s="13"/>
     </row>
-    <row r="211" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A211" s="126"/>
+    <row r="211" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A211" s="70"/>
       <c r="B211" s="34" t="s">
         <v>1094</v>
       </c>
@@ -7620,8 +7618,8 @@
       </c>
       <c r="G211" s="13"/>
     </row>
-    <row r="212" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A212" s="126"/>
+    <row r="212" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A212" s="70"/>
       <c r="B212" s="55" t="s">
         <v>1094</v>
       </c>
@@ -7639,8 +7637,8 @@
       </c>
       <c r="G212" s="13"/>
     </row>
-    <row r="213" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A213" s="126"/>
+    <row r="213" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A213" s="70"/>
       <c r="B213" s="34"/>
       <c r="C213" s="34"/>
       <c r="D213" s="34"/>
@@ -7648,8 +7646,8 @@
       <c r="F213" s="34"/>
       <c r="G213" s="13"/>
     </row>
-    <row r="214" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A214" s="126"/>
+    <row r="214" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A214" s="70"/>
       <c r="B214" s="34"/>
       <c r="C214" s="34"/>
       <c r="D214" s="34"/>
@@ -7657,8 +7655,8 @@
       <c r="F214" s="34"/>
       <c r="G214" s="13"/>
     </row>
-    <row r="215" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A215" s="126"/>
+    <row r="215" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A215" s="70"/>
       <c r="B215" s="34"/>
       <c r="C215" s="34"/>
       <c r="D215" s="34"/>
@@ -7666,8 +7664,8 @@
       <c r="F215" s="34"/>
       <c r="G215" s="13"/>
     </row>
-    <row r="216" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A216" s="126"/>
+    <row r="216" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A216" s="70"/>
       <c r="B216" s="34"/>
       <c r="C216" s="34"/>
       <c r="D216" s="34"/>
@@ -7675,16 +7673,16 @@
       <c r="F216" s="34"/>
       <c r="G216" s="13"/>
     </row>
-    <row r="217" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A217" s="110"/>
+    <row r="217" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A217" s="71"/>
       <c r="B217" s="39"/>
       <c r="C217" s="39"/>
       <c r="D217" s="39"/>
       <c r="E217" s="39"/>
       <c r="G217" s="13"/>
     </row>
-    <row r="218" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="121" t="s">
+    <row r="218" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="87" t="s">
         <v>759</v>
       </c>
       <c r="B218" s="42" t="s">
@@ -7702,16 +7700,16 @@
       </c>
       <c r="G218" s="13"/>
     </row>
-    <row r="219" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="121"/>
+    <row r="219" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="87"/>
       <c r="B219" s="42"/>
       <c r="C219" s="31"/>
       <c r="E219" s="31"/>
       <c r="F219" s="18"/>
       <c r="G219" s="13"/>
     </row>
-    <row r="220" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="122"/>
+    <row r="220" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="88"/>
       <c r="B220" s="35"/>
       <c r="C220" s="35"/>
       <c r="D220" s="35"/>
@@ -7719,8 +7717,8 @@
       <c r="F220" s="18"/>
       <c r="G220" s="13"/>
     </row>
-    <row r="221" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="123"/>
+    <row r="221" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A221" s="89"/>
       <c r="B221" s="46"/>
       <c r="C221" s="32"/>
       <c r="D221" s="32"/>
@@ -7728,8 +7726,8 @@
       <c r="F221" s="19"/>
       <c r="G221" s="16"/>
     </row>
-    <row r="222" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="82" t="s">
+    <row r="222" spans="1:7" ht="14.4" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="107" t="s">
         <v>407</v>
       </c>
       <c r="B222" s="42" t="s">
@@ -7744,8 +7742,8 @@
       <c r="F222" s="18"/>
       <c r="G222" s="13"/>
     </row>
-    <row r="223" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A223" s="83"/>
+    <row r="223" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A223" s="108"/>
       <c r="B223" s="42" t="s">
         <v>81</v>
       </c>
@@ -7759,8 +7757,8 @@
       <c r="F223" s="18"/>
       <c r="G223" s="13"/>
     </row>
-    <row r="224" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A224" s="83"/>
+    <row r="224" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A224" s="108"/>
       <c r="B224" s="42" t="s">
         <v>73</v>
       </c>
@@ -7776,8 +7774,8 @@
       </c>
       <c r="G224" s="13"/>
     </row>
-    <row r="225" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A225" s="83"/>
+    <row r="225" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A225" s="108"/>
       <c r="B225" s="42" t="s">
         <v>131</v>
       </c>
@@ -7790,8 +7788,8 @@
       <c r="F225" s="7"/>
       <c r="G225" s="13"/>
     </row>
-    <row r="226" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A226" s="83"/>
+    <row r="226" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A226" s="108"/>
       <c r="B226" s="42" t="s">
         <v>549</v>
       </c>
@@ -7805,8 +7803,8 @@
       <c r="F226" s="7"/>
       <c r="G226" s="13"/>
     </row>
-    <row r="227" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A227" s="83"/>
+    <row r="227" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A227" s="108"/>
       <c r="B227" s="42" t="s">
         <v>692</v>
       </c>
@@ -7820,8 +7818,8 @@
       <c r="F227" s="7"/>
       <c r="G227" s="13"/>
     </row>
-    <row r="228" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A228" s="83"/>
+    <row r="228" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A228" s="108"/>
       <c r="B228" s="42" t="s">
         <v>707</v>
       </c>
@@ -7835,8 +7833,8 @@
       <c r="F228" s="7"/>
       <c r="G228" s="13"/>
     </row>
-    <row r="229" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A229" s="83"/>
+    <row r="229" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A229" s="108"/>
       <c r="B229" s="31" t="s">
         <v>812</v>
       </c>
@@ -7850,8 +7848,8 @@
       <c r="F229" s="7"/>
       <c r="G229" s="13"/>
     </row>
-    <row r="230" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A230" s="83"/>
+    <row r="230" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A230" s="108"/>
       <c r="B230" s="42"/>
       <c r="C230" s="31"/>
       <c r="D230" s="31"/>
@@ -7859,8 +7857,8 @@
       <c r="F230" s="7"/>
       <c r="G230" s="13"/>
     </row>
-    <row r="231" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A231" s="83"/>
+    <row r="231" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A231" s="108"/>
       <c r="B231" s="42"/>
       <c r="C231" s="31"/>
       <c r="D231" s="31"/>
@@ -7868,12 +7866,12 @@
       <c r="F231" s="7"/>
       <c r="G231" s="13"/>
     </row>
-    <row r="232" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="84"/>
+    <row r="232" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A232" s="109"/>
       <c r="G232" s="16"/>
     </row>
-    <row r="233" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="115" t="s">
+    <row r="233" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="81" t="s">
         <v>500</v>
       </c>
       <c r="B233" s="42" t="s">
@@ -7888,8 +7886,8 @@
       <c r="F233" s="18"/>
       <c r="G233" s="13"/>
     </row>
-    <row r="234" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="116"/>
+    <row r="234" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="82"/>
       <c r="B234" s="42"/>
       <c r="C234" s="7"/>
       <c r="D234" s="8"/>
@@ -7897,8 +7895,8 @@
       <c r="F234" s="18"/>
       <c r="G234" s="13"/>
     </row>
-    <row r="235" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="116"/>
+    <row r="235" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="82"/>
       <c r="B235" s="42"/>
       <c r="C235" s="7"/>
       <c r="D235" s="8"/>
@@ -7906,16 +7904,16 @@
       <c r="F235" s="7"/>
       <c r="G235" s="13"/>
     </row>
-    <row r="236" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="116"/>
+    <row r="236" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="82"/>
       <c r="B236" s="42"/>
       <c r="C236" s="31"/>
       <c r="E236" s="31"/>
       <c r="F236" s="7"/>
       <c r="G236" s="13"/>
     </row>
-    <row r="237" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="116"/>
+    <row r="237" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="82"/>
       <c r="B237" s="42"/>
       <c r="C237" s="7"/>
       <c r="D237" s="8"/>
@@ -7923,12 +7921,12 @@
       <c r="F237" s="7"/>
       <c r="G237" s="13"/>
     </row>
-    <row r="238" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="117"/>
+    <row r="238" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A238" s="83"/>
       <c r="G238" s="16"/>
     </row>
-    <row r="239" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="91" t="s">
+    <row r="239" spans="1:7" ht="14.4" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="65" t="s">
         <v>493</v>
       </c>
       <c r="B239" s="35" t="s">
@@ -7946,8 +7944,8 @@
       </c>
       <c r="G239" s="13"/>
     </row>
-    <row r="240" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A240" s="92"/>
+    <row r="240" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A240" s="66"/>
       <c r="B240" s="42" t="s">
         <v>179</v>
       </c>
@@ -7960,8 +7958,8 @@
       <c r="F240" s="18"/>
       <c r="G240" s="13"/>
     </row>
-    <row r="241" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A241" s="92"/>
+    <row r="241" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A241" s="66"/>
       <c r="B241" s="42" t="s">
         <v>83</v>
       </c>
@@ -7975,8 +7973,8 @@
       <c r="F241" s="18"/>
       <c r="G241" s="13"/>
     </row>
-    <row r="242" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A242" s="92"/>
+    <row r="242" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A242" s="66"/>
       <c r="B242" s="42" t="s">
         <v>293</v>
       </c>
@@ -7989,8 +7987,8 @@
       <c r="F242" s="18"/>
       <c r="G242" s="13"/>
     </row>
-    <row r="243" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A243" s="92"/>
+    <row r="243" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A243" s="66"/>
       <c r="B243" s="42" t="s">
         <v>563</v>
       </c>
@@ -8006,8 +8004,8 @@
       </c>
       <c r="G243" s="13"/>
     </row>
-    <row r="244" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A244" s="92"/>
+    <row r="244" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A244" s="66"/>
       <c r="B244" s="42" t="s">
         <v>125</v>
       </c>
@@ -8021,8 +8019,8 @@
       <c r="F244" s="18"/>
       <c r="G244" s="13"/>
     </row>
-    <row r="245" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A245" s="92"/>
+    <row r="245" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A245" s="66"/>
       <c r="B245" s="42" t="s">
         <v>552</v>
       </c>
@@ -8036,8 +8034,8 @@
       <c r="F245" s="18"/>
       <c r="G245" s="13"/>
     </row>
-    <row r="246" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A246" s="92"/>
+    <row r="246" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A246" s="66"/>
       <c r="B246" s="42" t="s">
         <v>707</v>
       </c>
@@ -8051,8 +8049,8 @@
       <c r="F246" s="18"/>
       <c r="G246" s="13"/>
     </row>
-    <row r="247" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A247" s="92"/>
+    <row r="247" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A247" s="66"/>
       <c r="B247" s="42" t="s">
         <v>737</v>
       </c>
@@ -8066,8 +8064,8 @@
       <c r="F247" s="18"/>
       <c r="G247" s="13"/>
     </row>
-    <row r="248" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A248" s="92"/>
+    <row r="248" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A248" s="66"/>
       <c r="B248" s="42" t="s">
         <v>746</v>
       </c>
@@ -8081,8 +8079,8 @@
       <c r="F248" s="18"/>
       <c r="G248" s="13"/>
     </row>
-    <row r="249" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A249" s="92"/>
+    <row r="249" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A249" s="66"/>
       <c r="B249" s="31" t="s">
         <v>847</v>
       </c>
@@ -8096,8 +8094,8 @@
       <c r="F249" s="18"/>
       <c r="G249" s="13"/>
     </row>
-    <row r="250" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A250" s="92"/>
+    <row r="250" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A250" s="66"/>
       <c r="B250" s="31" t="s">
         <v>862</v>
       </c>
@@ -8111,8 +8109,8 @@
       <c r="F250" s="18"/>
       <c r="G250" s="13"/>
     </row>
-    <row r="251" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A251" s="92"/>
+    <row r="251" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A251" s="66"/>
       <c r="B251" s="31" t="s">
         <v>987</v>
       </c>
@@ -8126,8 +8124,8 @@
       <c r="F251" s="18"/>
       <c r="G251" s="13"/>
     </row>
-    <row r="252" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A252" s="92"/>
+    <row r="252" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A252" s="66"/>
       <c r="B252" s="31"/>
       <c r="C252" s="31"/>
       <c r="D252" s="31"/>
@@ -8135,8 +8133,8 @@
       <c r="F252" s="18"/>
       <c r="G252" s="13"/>
     </row>
-    <row r="253" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A253" s="92"/>
+    <row r="253" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A253" s="66"/>
       <c r="B253" s="31"/>
       <c r="C253" s="31"/>
       <c r="D253" s="31"/>
@@ -8144,15 +8142,15 @@
       <c r="F253" s="18"/>
       <c r="G253" s="13"/>
     </row>
-    <row r="254" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="93"/>
+    <row r="254" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A254" s="116"/>
       <c r="F254" s="19"/>
       <c r="G254" s="16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="255" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="118" t="s">
+    <row r="255" spans="1:7" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="84" t="s">
         <v>106</v>
       </c>
       <c r="B255" s="42" t="s">
@@ -8166,8 +8164,8 @@
       </c>
       <c r="G255" s="30"/>
     </row>
-    <row r="256" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A256" s="119"/>
+    <row r="256" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A256" s="85"/>
       <c r="B256" s="42" t="s">
         <v>97</v>
       </c>
@@ -8181,8 +8179,8 @@
       <c r="F256" s="18"/>
       <c r="G256" s="23"/>
     </row>
-    <row r="257" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A257" s="119"/>
+    <row r="257" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A257" s="85"/>
       <c r="B257" s="42" t="s">
         <v>328</v>
       </c>
@@ -8195,8 +8193,8 @@
       <c r="F257" s="18"/>
       <c r="G257" s="13"/>
     </row>
-    <row r="258" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A258" s="119"/>
+    <row r="258" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A258" s="85"/>
       <c r="B258" s="42" t="s">
         <v>373</v>
       </c>
@@ -8209,8 +8207,8 @@
       <c r="F258" s="18"/>
       <c r="G258" s="13"/>
     </row>
-    <row r="259" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A259" s="119"/>
+    <row r="259" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A259" s="85"/>
       <c r="B259" s="35" t="s">
         <v>441</v>
       </c>
@@ -8228,8 +8226,8 @@
       </c>
       <c r="G259" s="13"/>
     </row>
-    <row r="260" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A260" s="119"/>
+    <row r="260" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A260" s="85"/>
       <c r="B260" s="35" t="s">
         <v>425</v>
       </c>
@@ -8247,8 +8245,8 @@
       </c>
       <c r="G260" s="13"/>
     </row>
-    <row r="261" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A261" s="119"/>
+    <row r="261" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A261" s="85"/>
       <c r="B261" s="35" t="s">
         <v>483</v>
       </c>
@@ -8264,8 +8262,8 @@
       </c>
       <c r="G261" s="13"/>
     </row>
-    <row r="262" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A262" s="119"/>
+    <row r="262" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A262" s="85"/>
       <c r="B262" s="35" t="s">
         <v>476</v>
       </c>
@@ -8281,8 +8279,8 @@
       </c>
       <c r="G262" s="13"/>
     </row>
-    <row r="263" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A263" s="119"/>
+    <row r="263" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A263" s="85"/>
       <c r="B263" s="35" t="s">
         <v>414</v>
       </c>
@@ -8300,8 +8298,8 @@
       </c>
       <c r="G263" s="13"/>
     </row>
-    <row r="264" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A264" s="119"/>
+    <row r="264" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A264" s="85"/>
       <c r="B264" s="35" t="s">
         <v>402</v>
       </c>
@@ -8319,8 +8317,8 @@
       </c>
       <c r="G264" s="13"/>
     </row>
-    <row r="265" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A265" s="119"/>
+    <row r="265" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A265" s="85"/>
       <c r="B265" s="35" t="s">
         <v>396</v>
       </c>
@@ -8334,8 +8332,8 @@
       <c r="F265" s="35"/>
       <c r="G265" s="13"/>
     </row>
-    <row r="266" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A266" s="119"/>
+    <row r="266" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A266" s="85"/>
       <c r="B266" s="35" t="s">
         <v>409</v>
       </c>
@@ -8349,8 +8347,8 @@
       <c r="F266" s="35"/>
       <c r="G266" s="13"/>
     </row>
-    <row r="267" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A267" s="119"/>
+    <row r="267" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A267" s="85"/>
       <c r="B267" s="35" t="s">
         <v>445</v>
       </c>
@@ -8368,8 +8366,8 @@
       </c>
       <c r="G267" s="13"/>
     </row>
-    <row r="268" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A268" s="120"/>
+    <row r="268" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A268" s="86"/>
       <c r="B268" s="35" t="s">
         <v>447</v>
       </c>
@@ -8387,8 +8385,8 @@
       </c>
       <c r="G268" s="13"/>
     </row>
-    <row r="269" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A269" s="120"/>
+    <row r="269" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A269" s="86"/>
       <c r="B269" s="42" t="s">
         <v>567</v>
       </c>
@@ -8404,8 +8402,8 @@
       </c>
       <c r="G269" s="18"/>
     </row>
-    <row r="270" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A270" s="120"/>
+    <row r="270" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A270" s="86"/>
       <c r="B270" s="42" t="s">
         <v>679</v>
       </c>
@@ -8421,8 +8419,8 @@
       </c>
       <c r="G270" s="13"/>
     </row>
-    <row r="271" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A271" s="120"/>
+    <row r="271" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A271" s="86"/>
       <c r="B271" s="31" t="s">
         <v>818</v>
       </c>
@@ -8436,8 +8434,8 @@
       <c r="F271" s="34"/>
       <c r="G271" s="13"/>
     </row>
-    <row r="272" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A272" s="120"/>
+    <row r="272" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A272" s="86"/>
       <c r="B272" s="31" t="s">
         <v>824</v>
       </c>
@@ -8451,8 +8449,8 @@
       <c r="F272" s="34"/>
       <c r="G272" s="13"/>
     </row>
-    <row r="273" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A273" s="120"/>
+    <row r="273" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A273" s="86"/>
       <c r="B273" s="31" t="s">
         <v>868</v>
       </c>
@@ -8466,8 +8464,8 @@
       <c r="F273" s="34"/>
       <c r="G273" s="13"/>
     </row>
-    <row r="274" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A274" s="120"/>
+    <row r="274" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A274" s="86"/>
       <c r="B274" s="31" t="s">
         <v>927</v>
       </c>
@@ -8481,8 +8479,8 @@
       <c r="F274" s="34"/>
       <c r="G274" s="13"/>
     </row>
-    <row r="275" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A275" s="120"/>
+    <row r="275" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A275" s="86"/>
       <c r="B275" s="31" t="s">
         <v>993</v>
       </c>
@@ -8496,8 +8494,8 @@
       <c r="F275" s="34"/>
       <c r="G275" s="13"/>
     </row>
-    <row r="276" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A276" s="120"/>
+    <row r="276" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A276" s="86"/>
       <c r="B276" s="31" t="s">
         <v>1043</v>
       </c>
@@ -8511,8 +8509,8 @@
       <c r="F276" s="34"/>
       <c r="G276" s="13"/>
     </row>
-    <row r="277" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A277" s="120"/>
+    <row r="277" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A277" s="86"/>
       <c r="B277" s="31"/>
       <c r="C277" s="31"/>
       <c r="D277" s="31"/>
@@ -8520,8 +8518,8 @@
       <c r="F277" s="34"/>
       <c r="G277" s="13"/>
     </row>
-    <row r="278" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A278" s="120"/>
+    <row r="278" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A278" s="86"/>
       <c r="B278" s="31"/>
       <c r="C278" s="31"/>
       <c r="D278" s="31"/>
@@ -8529,8 +8527,8 @@
       <c r="F278" s="34"/>
       <c r="G278" s="13"/>
     </row>
-    <row r="279" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A279" s="120"/>
+    <row r="279" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A279" s="86"/>
       <c r="B279" s="31"/>
       <c r="C279" s="31"/>
       <c r="D279" s="31"/>
@@ -8538,8 +8536,8 @@
       <c r="F279" s="34"/>
       <c r="G279" s="13"/>
     </row>
-    <row r="280" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A280" s="110"/>
+    <row r="280" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A280" s="71"/>
       <c r="B280" s="35"/>
       <c r="C280" s="34"/>
       <c r="D280" s="4"/>
@@ -8547,8 +8545,8 @@
       <c r="F280" s="34"/>
       <c r="G280" s="13"/>
     </row>
-    <row r="281" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A281" s="91" t="s">
+    <row r="281" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A281" s="65" t="s">
         <v>760</v>
       </c>
       <c r="B281" s="42" t="s">
@@ -8564,16 +8562,16 @@
       <c r="F281" s="31"/>
       <c r="G281" s="13"/>
     </row>
-    <row r="282" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A282" s="92"/>
+    <row r="282" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A282" s="66"/>
       <c r="B282" s="42"/>
       <c r="C282" s="31"/>
       <c r="E282" s="31"/>
       <c r="F282" s="18"/>
       <c r="G282" s="13"/>
     </row>
-    <row r="283" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A283" s="92"/>
+    <row r="283" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A283" s="66"/>
       <c r="B283" s="42"/>
       <c r="C283" s="31"/>
       <c r="D283" s="31"/>
@@ -8581,8 +8579,8 @@
       <c r="F283" s="18"/>
       <c r="G283" s="13"/>
     </row>
-    <row r="284" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="92"/>
+    <row r="284" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A284" s="66"/>
       <c r="B284" s="42"/>
       <c r="C284" s="7"/>
       <c r="D284" s="8"/>
@@ -8590,8 +8588,8 @@
       <c r="F284" s="18"/>
       <c r="G284" s="13"/>
     </row>
-    <row r="285" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="92"/>
+    <row r="285" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A285" s="66"/>
       <c r="B285" s="42"/>
       <c r="C285" s="7"/>
       <c r="D285" s="8"/>
@@ -8599,8 +8597,8 @@
       <c r="F285" s="18"/>
       <c r="G285" s="13"/>
     </row>
-    <row r="286" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="92"/>
+    <row r="286" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A286" s="66"/>
       <c r="B286" s="42"/>
       <c r="C286" s="7"/>
       <c r="D286" s="8"/>
@@ -8608,8 +8606,8 @@
       <c r="F286" s="18"/>
       <c r="G286" s="13"/>
     </row>
-    <row r="287" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="92"/>
+    <row r="287" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A287" s="66"/>
       <c r="B287" s="42"/>
       <c r="C287" s="7"/>
       <c r="D287" s="8"/>
@@ -8617,15 +8615,15 @@
       <c r="F287" s="18"/>
       <c r="G287" s="13"/>
     </row>
-    <row r="288" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="106"/>
+    <row r="288" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A288" s="67"/>
       <c r="F288" s="19"/>
       <c r="G288" s="16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="289" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A289" s="127" t="s">
+    <row r="289" spans="1:7" ht="14.4" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A289" s="72" t="s">
         <v>492</v>
       </c>
       <c r="B289" s="42" t="s">
@@ -8640,8 +8638,8 @@
       <c r="F289" s="17"/>
       <c r="G289" s="12"/>
     </row>
-    <row r="290" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A290" s="128"/>
+    <row r="290" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A290" s="73"/>
       <c r="B290" s="42" t="s">
         <v>187</v>
       </c>
@@ -8654,8 +8652,8 @@
       <c r="F290" s="18"/>
       <c r="G290" s="13"/>
     </row>
-    <row r="291" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A291" s="128"/>
+    <row r="291" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A291" s="73"/>
       <c r="B291" s="42" t="s">
         <v>387</v>
       </c>
@@ -8668,8 +8666,8 @@
       <c r="F291" s="18"/>
       <c r="G291" s="13"/>
     </row>
-    <row r="292" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A292" s="128"/>
+    <row r="292" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A292" s="73"/>
       <c r="B292" s="42" t="s">
         <v>275</v>
       </c>
@@ -8682,8 +8680,8 @@
       <c r="F292" s="18"/>
       <c r="G292" s="13"/>
     </row>
-    <row r="293" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A293" s="128"/>
+    <row r="293" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A293" s="73"/>
       <c r="B293" s="42" t="s">
         <v>367</v>
       </c>
@@ -8696,8 +8694,8 @@
       <c r="F293" s="18"/>
       <c r="G293" s="13"/>
     </row>
-    <row r="294" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A294" s="128"/>
+    <row r="294" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A294" s="73"/>
       <c r="B294" s="42" t="s">
         <v>375</v>
       </c>
@@ -8710,8 +8708,8 @@
       <c r="F294" s="18"/>
       <c r="G294" s="13"/>
     </row>
-    <row r="295" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A295" s="128"/>
+    <row r="295" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A295" s="73"/>
       <c r="B295" s="42" t="s">
         <v>505</v>
       </c>
@@ -8725,8 +8723,8 @@
       <c r="F295" s="18"/>
       <c r="G295" s="13"/>
     </row>
-    <row r="296" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A296" s="128"/>
+    <row r="296" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A296" s="73"/>
       <c r="B296" s="42" t="s">
         <v>529</v>
       </c>
@@ -8740,8 +8738,8 @@
       <c r="F296" s="18"/>
       <c r="G296" s="13"/>
     </row>
-    <row r="297" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A297" s="128"/>
+    <row r="297" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A297" s="73"/>
       <c r="B297" s="42" t="s">
         <v>571</v>
       </c>
@@ -8755,8 +8753,8 @@
       <c r="F297" s="18"/>
       <c r="G297" s="13"/>
     </row>
-    <row r="298" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A298" s="128"/>
+    <row r="298" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A298" s="73"/>
       <c r="B298" s="42" t="s">
         <v>588</v>
       </c>
@@ -8770,8 +8768,8 @@
       <c r="F298" s="18"/>
       <c r="G298" s="13"/>
     </row>
-    <row r="299" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A299" s="128"/>
+    <row r="299" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A299" s="73"/>
       <c r="B299" s="42" t="s">
         <v>624</v>
       </c>
@@ -8785,8 +8783,8 @@
       <c r="F299" s="18"/>
       <c r="G299" s="13"/>
     </row>
-    <row r="300" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A300" s="128"/>
+    <row r="300" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A300" s="73"/>
       <c r="B300" s="42" t="s">
         <v>698</v>
       </c>
@@ -8800,8 +8798,8 @@
       <c r="F300" s="18"/>
       <c r="G300" s="13"/>
     </row>
-    <row r="301" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A301" s="128"/>
+    <row r="301" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A301" s="73"/>
       <c r="B301" s="42" t="s">
         <v>375</v>
       </c>
@@ -8817,8 +8815,8 @@
       </c>
       <c r="G301" s="13"/>
     </row>
-    <row r="302" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A302" s="128"/>
+    <row r="302" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A302" s="73"/>
       <c r="B302" s="42" t="s">
         <v>731</v>
       </c>
@@ -8832,8 +8830,8 @@
       <c r="F302" s="31"/>
       <c r="G302" s="13"/>
     </row>
-    <row r="303" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A303" s="128"/>
+    <row r="303" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A303" s="73"/>
       <c r="B303" s="42" t="s">
         <v>806</v>
       </c>
@@ -8847,8 +8845,8 @@
       <c r="F303" s="31"/>
       <c r="G303" s="13"/>
     </row>
-    <row r="304" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A304" s="128"/>
+    <row r="304" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A304" s="73"/>
       <c r="B304" s="42" t="s">
         <v>797</v>
       </c>
@@ -8862,8 +8860,8 @@
       <c r="F304" s="31"/>
       <c r="G304" s="13"/>
     </row>
-    <row r="305" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A305" s="128"/>
+    <row r="305" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A305" s="73"/>
       <c r="B305" s="31" t="s">
         <v>835</v>
       </c>
@@ -8877,8 +8875,8 @@
       <c r="F305" s="31"/>
       <c r="G305" s="13"/>
     </row>
-    <row r="306" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A306" s="128"/>
+    <row r="306" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A306" s="73"/>
       <c r="B306" s="31" t="s">
         <v>844</v>
       </c>
@@ -8892,8 +8890,8 @@
       <c r="F306" s="31"/>
       <c r="G306" s="13"/>
     </row>
-    <row r="307" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A307" s="128"/>
+    <row r="307" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A307" s="73"/>
       <c r="B307" s="39" t="s">
         <v>894</v>
       </c>
@@ -8907,8 +8905,8 @@
       <c r="F307" s="31"/>
       <c r="G307" s="13"/>
     </row>
-    <row r="308" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="128"/>
+    <row r="308" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A308" s="73"/>
       <c r="B308" s="39" t="s">
         <v>973</v>
       </c>
@@ -8922,8 +8920,8 @@
       <c r="F308" s="19"/>
       <c r="G308" s="16"/>
     </row>
-    <row r="309" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A309" s="110"/>
+    <row r="309" spans="1:7" ht="14.4" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A309" s="71"/>
       <c r="B309" s="31" t="s">
         <v>990</v>
       </c>
@@ -8937,8 +8935,8 @@
       <c r="F309" s="18"/>
       <c r="G309" s="13"/>
     </row>
-    <row r="310" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A310" s="110"/>
+    <row r="310" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A310" s="71"/>
       <c r="B310" s="39"/>
       <c r="C310" s="39"/>
       <c r="D310" s="39"/>
@@ -8946,8 +8944,8 @@
       <c r="F310" s="18"/>
       <c r="G310" s="13"/>
     </row>
-    <row r="311" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A311" s="110"/>
+    <row r="311" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A311" s="71"/>
       <c r="B311" s="39"/>
       <c r="C311" s="39"/>
       <c r="D311" s="39"/>
@@ -8955,8 +8953,8 @@
       <c r="F311" s="18"/>
       <c r="G311" s="13"/>
     </row>
-    <row r="312" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A312" s="110"/>
+    <row r="312" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A312" s="71"/>
       <c r="B312" s="39"/>
       <c r="C312" s="39"/>
       <c r="D312" s="39"/>
@@ -8964,8 +8962,8 @@
       <c r="F312" s="18"/>
       <c r="G312" s="13"/>
     </row>
-    <row r="313" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="129"/>
+    <row r="313" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A313" s="71"/>
       <c r="B313" s="39"/>
       <c r="C313" s="39"/>
       <c r="D313" s="39"/>
@@ -8973,8 +8971,8 @@
       <c r="F313" s="18"/>
       <c r="G313" s="13"/>
     </row>
-    <row r="314" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A314" s="130" t="s">
+    <row r="314" spans="1:7" ht="14.4" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A314" s="120" t="s">
         <v>495</v>
       </c>
       <c r="B314" s="42" t="s">
@@ -8989,8 +8987,8 @@
       <c r="F314" s="17"/>
       <c r="G314" s="12"/>
     </row>
-    <row r="315" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A315" s="131"/>
+    <row r="315" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A315" s="121"/>
       <c r="B315" s="42" t="s">
         <v>240</v>
       </c>
@@ -9003,8 +9001,8 @@
       <c r="F315" s="18"/>
       <c r="G315" s="13"/>
     </row>
-    <row r="316" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A316" s="131"/>
+    <row r="316" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A316" s="121"/>
       <c r="B316" s="42" t="s">
         <v>803</v>
       </c>
@@ -9018,8 +9016,8 @@
       <c r="F316" s="18"/>
       <c r="G316" s="13"/>
     </row>
-    <row r="317" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A317" s="131"/>
+    <row r="317" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A317" s="121"/>
       <c r="B317" s="31" t="s">
         <v>815</v>
       </c>
@@ -9033,8 +9031,8 @@
       <c r="F317" s="18"/>
       <c r="G317" s="13"/>
     </row>
-    <row r="318" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A318" s="131"/>
+    <row r="318" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A318" s="121"/>
       <c r="B318" s="39" t="s">
         <v>894</v>
       </c>
@@ -9048,8 +9046,8 @@
       <c r="F318" s="18"/>
       <c r="G318" s="13"/>
     </row>
-    <row r="319" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A319" s="131"/>
+    <row r="319" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A319" s="121"/>
       <c r="B319" s="35" t="s">
         <v>1139</v>
       </c>
@@ -9067,8 +9065,8 @@
       </c>
       <c r="G319" s="13"/>
     </row>
-    <row r="320" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A320" s="131"/>
+    <row r="320" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A320" s="121"/>
       <c r="B320" s="35" t="s">
         <v>1143</v>
       </c>
@@ -9086,8 +9084,8 @@
       </c>
       <c r="G320" s="13"/>
     </row>
-    <row r="321" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A321" s="131"/>
+    <row r="321" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A321" s="121"/>
       <c r="B321" s="35" t="s">
         <v>1146</v>
       </c>
@@ -9105,8 +9103,8 @@
       </c>
       <c r="G321" s="13"/>
     </row>
-    <row r="322" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A322" s="131"/>
+    <row r="322" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A322" s="121"/>
       <c r="B322" s="35" t="s">
         <v>141</v>
       </c>
@@ -9124,8 +9122,8 @@
       </c>
       <c r="G322" s="13"/>
     </row>
-    <row r="323" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A323" s="131"/>
+    <row r="323" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A323" s="121"/>
       <c r="B323" s="35" t="s">
         <v>1152</v>
       </c>
@@ -9143,31 +9141,31 @@
       </c>
       <c r="G323" s="13"/>
     </row>
-    <row r="324" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A324" s="131"/>
-      <c r="B324" s="132" t="s">
+    <row r="324" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A324" s="121"/>
+      <c r="B324" s="35" t="s">
         <v>1155</v>
       </c>
-      <c r="C324" s="132" t="s">
+      <c r="C324" s="35" t="s">
         <v>1156</v>
       </c>
-      <c r="D324" s="132" t="s">
+      <c r="D324" s="35" t="s">
         <v>1077</v>
       </c>
-      <c r="E324" s="132" t="s">
+      <c r="E324" s="35" t="s">
         <v>1157</v>
       </c>
-      <c r="F324" s="132" t="s">
+      <c r="F324" s="35" t="s">
         <v>1151</v>
       </c>
       <c r="G324" s="13"/>
     </row>
-    <row r="325" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A325" s="131"/>
+    <row r="325" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A325" s="121"/>
       <c r="G325" s="16"/>
     </row>
-    <row r="326" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A326" s="91" t="s">
+    <row r="326" spans="1:7" ht="14.4" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A326" s="65" t="s">
         <v>499</v>
       </c>
       <c r="B326" s="42" t="s">
@@ -9184,8 +9182,8 @@
       </c>
       <c r="G326" s="13"/>
     </row>
-    <row r="327" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A327" s="92"/>
+    <row r="327" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A327" s="66"/>
       <c r="B327" s="42" t="s">
         <v>189</v>
       </c>
@@ -9198,8 +9196,8 @@
       <c r="F327" s="18"/>
       <c r="G327" s="13"/>
     </row>
-    <row r="328" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A328" s="92"/>
+    <row r="328" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A328" s="66"/>
       <c r="B328" s="42" t="s">
         <v>725</v>
       </c>
@@ -9213,8 +9211,8 @@
       <c r="F328" s="18"/>
       <c r="G328" s="13"/>
     </row>
-    <row r="329" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A329" s="92"/>
+    <row r="329" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A329" s="66"/>
       <c r="B329" s="42" t="s">
         <v>776</v>
       </c>
@@ -9228,8 +9226,8 @@
       <c r="F329" s="18"/>
       <c r="G329" s="13"/>
     </row>
-    <row r="330" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A330" s="92"/>
+    <row r="330" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A330" s="66"/>
       <c r="B330" s="42"/>
       <c r="C330" s="7"/>
       <c r="D330" s="8"/>
@@ -9237,8 +9235,8 @@
       <c r="F330" s="18"/>
       <c r="G330" s="13"/>
     </row>
-    <row r="331" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A331" s="92"/>
+    <row r="331" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A331" s="66"/>
       <c r="B331" s="42"/>
       <c r="C331" s="7"/>
       <c r="D331" s="8"/>
@@ -9246,8 +9244,8 @@
       <c r="F331" s="18"/>
       <c r="G331" s="13"/>
     </row>
-    <row r="332" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A332" s="92"/>
+    <row r="332" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A332" s="66"/>
       <c r="B332" s="42"/>
       <c r="C332" s="7"/>
       <c r="D332" s="8"/>
@@ -9255,15 +9253,15 @@
       <c r="F332" s="18"/>
       <c r="G332" s="13"/>
     </row>
-    <row r="333" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="106"/>
+    <row r="333" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A333" s="67"/>
       <c r="F333" s="19"/>
       <c r="G333" s="16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="334" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="76" t="s">
+    <row r="334" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A334" s="101" t="s">
         <v>47</v>
       </c>
       <c r="B334" s="49" t="s">
@@ -9281,8 +9279,8 @@
       <c r="F334" s="17"/>
       <c r="G334" s="12"/>
     </row>
-    <row r="335" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A335" s="77"/>
+    <row r="335" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A335" s="102"/>
       <c r="B335" s="45" t="s">
         <v>51</v>
       </c>
@@ -9298,8 +9296,8 @@
       <c r="F335" s="18"/>
       <c r="G335" s="13"/>
     </row>
-    <row r="336" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A336" s="77"/>
+    <row r="336" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A336" s="102"/>
       <c r="B336" s="45" t="s">
         <v>54</v>
       </c>
@@ -9313,8 +9311,8 @@
       <c r="F336" s="18"/>
       <c r="G336" s="13"/>
     </row>
-    <row r="337" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="77"/>
+    <row r="337" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A337" s="102"/>
       <c r="B337" s="45" t="s">
         <v>57</v>
       </c>
@@ -9332,8 +9330,8 @@
       </c>
       <c r="G337" s="13"/>
     </row>
-    <row r="338" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A338" s="77"/>
+    <row r="338" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A338" s="102"/>
       <c r="B338" s="45" t="s">
         <v>61</v>
       </c>
@@ -9349,8 +9347,8 @@
       <c r="F338" s="18"/>
       <c r="G338" s="13"/>
     </row>
-    <row r="339" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A339" s="77"/>
+    <row r="339" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A339" s="102"/>
       <c r="B339" s="45" t="s">
         <v>64</v>
       </c>
@@ -9368,8 +9366,8 @@
       </c>
       <c r="G339" s="13"/>
     </row>
-    <row r="340" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A340" s="77"/>
+    <row r="340" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A340" s="102"/>
       <c r="B340" s="45" t="s">
         <v>67</v>
       </c>
@@ -9387,8 +9385,8 @@
       </c>
       <c r="G340" s="13"/>
     </row>
-    <row r="341" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A341" s="77"/>
+    <row r="341" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A341" s="102"/>
       <c r="B341" s="42" t="s">
         <v>51</v>
       </c>
@@ -9401,8 +9399,8 @@
       <c r="F341" s="18"/>
       <c r="G341" s="13"/>
     </row>
-    <row r="342" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="77"/>
+    <row r="342" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A342" s="102"/>
       <c r="B342" s="45"/>
       <c r="C342" s="4"/>
       <c r="D342" s="4"/>
@@ -9410,8 +9408,8 @@
       <c r="F342" s="18"/>
       <c r="G342" s="13"/>
     </row>
-    <row r="343" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="77"/>
+    <row r="343" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A343" s="102"/>
       <c r="B343" s="45"/>
       <c r="C343" s="4"/>
       <c r="D343" s="4"/>
@@ -9419,8 +9417,8 @@
       <c r="F343" s="18"/>
       <c r="G343" s="13"/>
     </row>
-    <row r="344" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A344" s="78"/>
+    <row r="344" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A344" s="103"/>
       <c r="B344" s="50"/>
       <c r="C344" s="14"/>
       <c r="D344" s="14"/>
@@ -9428,8 +9426,8 @@
       <c r="F344" s="19"/>
       <c r="G344" s="16"/>
     </row>
-    <row r="345" spans="1:7" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A345" s="85" t="s">
+    <row r="345" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A345" s="110" t="s">
         <v>408</v>
       </c>
       <c r="B345" s="42" t="s">
@@ -9445,8 +9443,8 @@
       <c r="F345" s="17"/>
       <c r="G345" s="12"/>
     </row>
-    <row r="346" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A346" s="86"/>
+    <row r="346" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A346" s="111"/>
       <c r="B346" s="42" t="s">
         <v>135</v>
       </c>
@@ -9459,8 +9457,8 @@
       <c r="F346" s="18"/>
       <c r="G346" s="13"/>
     </row>
-    <row r="347" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A347" s="86"/>
+    <row r="347" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A347" s="111"/>
       <c r="B347" s="42" t="s">
         <v>324</v>
       </c>
@@ -9473,8 +9471,8 @@
       <c r="F347" s="18"/>
       <c r="G347" s="13"/>
     </row>
-    <row r="348" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A348" s="86"/>
+    <row r="348" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A348" s="111"/>
       <c r="B348" s="31" t="s">
         <v>996</v>
       </c>
@@ -9488,8 +9486,8 @@
       <c r="F348" s="18"/>
       <c r="G348" s="13"/>
     </row>
-    <row r="349" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A349" s="86"/>
+    <row r="349" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A349" s="111"/>
       <c r="B349" s="31" t="s">
         <v>1022</v>
       </c>
@@ -9503,8 +9501,8 @@
       <c r="F349" s="18"/>
       <c r="G349" s="13"/>
     </row>
-    <row r="350" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A350" s="86"/>
+    <row r="350" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A350" s="111"/>
       <c r="B350" s="31" t="s">
         <v>1031</v>
       </c>
@@ -9518,8 +9516,8 @@
       <c r="F350" s="18"/>
       <c r="G350" s="13"/>
     </row>
-    <row r="351" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A351" s="86"/>
+    <row r="351" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A351" s="111"/>
       <c r="B351" s="31"/>
       <c r="C351" s="31"/>
       <c r="D351" s="31"/>
@@ -9527,8 +9525,8 @@
       <c r="F351" s="18"/>
       <c r="G351" s="13"/>
     </row>
-    <row r="352" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A352" s="86"/>
+    <row r="352" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A352" s="111"/>
       <c r="B352" s="31"/>
       <c r="C352" s="31"/>
       <c r="D352" s="31"/>
@@ -9536,8 +9534,8 @@
       <c r="F352" s="18"/>
       <c r="G352" s="13"/>
     </row>
-    <row r="353" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A353" s="87"/>
+    <row r="353" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A353" s="112"/>
       <c r="B353" s="50"/>
       <c r="C353" s="14"/>
       <c r="D353" s="14"/>
@@ -9545,8 +9543,8 @@
       <c r="F353" s="19"/>
       <c r="G353" s="16"/>
     </row>
-    <row r="354" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A354" s="103" t="s">
+    <row r="354" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A354" s="128" t="s">
         <v>498</v>
       </c>
       <c r="B354" s="42" t="s">
@@ -9563,8 +9561,8 @@
       </c>
       <c r="G354" s="12"/>
     </row>
-    <row r="355" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A355" s="104"/>
+    <row r="355" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A355" s="129"/>
       <c r="B355" s="42" t="s">
         <v>189</v>
       </c>
@@ -9577,8 +9575,8 @@
       <c r="F355" s="18"/>
       <c r="G355" s="13"/>
     </row>
-    <row r="356" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A356" s="104"/>
+    <row r="356" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A356" s="129"/>
       <c r="B356" s="42" t="s">
         <v>532</v>
       </c>
@@ -9592,8 +9590,8 @@
       <c r="F356" s="18"/>
       <c r="G356" s="13"/>
     </row>
-    <row r="357" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A357" s="104"/>
+    <row r="357" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A357" s="129"/>
       <c r="B357" s="45"/>
       <c r="C357" s="4"/>
       <c r="D357" s="4"/>
@@ -9601,8 +9599,8 @@
       <c r="F357" s="18"/>
       <c r="G357" s="13"/>
     </row>
-    <row r="358" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A358" s="104"/>
+    <row r="358" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A358" s="129"/>
       <c r="B358" s="45"/>
       <c r="C358" s="4"/>
       <c r="D358" s="4"/>
@@ -9610,8 +9608,8 @@
       <c r="F358" s="18"/>
       <c r="G358" s="13"/>
     </row>
-    <row r="359" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A359" s="104"/>
+    <row r="359" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A359" s="129"/>
       <c r="B359" s="45"/>
       <c r="C359" s="4"/>
       <c r="D359" s="4"/>
@@ -9619,16 +9617,16 @@
       <c r="F359" s="18"/>
       <c r="G359" s="13"/>
     </row>
-    <row r="360" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A360" s="105"/>
+    <row r="360" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A360" s="130"/>
       <c r="B360" s="42"/>
       <c r="C360" s="31"/>
       <c r="E360" s="31"/>
       <c r="F360" s="18"/>
       <c r="G360" s="13"/>
     </row>
-    <row r="361" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A361" s="97" t="s">
+    <row r="361" spans="1:7" ht="14.4" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A361" s="122" t="s">
         <v>497</v>
       </c>
       <c r="B361" s="42" t="s">
@@ -9643,8 +9641,8 @@
       <c r="F361" s="18"/>
       <c r="G361" s="18"/>
     </row>
-    <row r="362" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A362" s="98"/>
+    <row r="362" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A362" s="123"/>
       <c r="B362" s="42" t="s">
         <v>133</v>
       </c>
@@ -9657,8 +9655,8 @@
       <c r="F362" s="18"/>
       <c r="G362" s="13"/>
     </row>
-    <row r="363" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A363" s="98"/>
+    <row r="363" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A363" s="123"/>
       <c r="B363" s="42" t="s">
         <v>265</v>
       </c>
@@ -9671,8 +9669,8 @@
       <c r="F363" s="18"/>
       <c r="G363" s="13"/>
     </row>
-    <row r="364" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A364" s="98"/>
+    <row r="364" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A364" s="123"/>
       <c r="B364" s="42" t="s">
         <v>267</v>
       </c>
@@ -9685,8 +9683,8 @@
       <c r="F364" s="18"/>
       <c r="G364" s="13"/>
     </row>
-    <row r="365" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A365" s="98"/>
+    <row r="365" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A365" s="123"/>
       <c r="B365" s="42" t="s">
         <v>343</v>
       </c>
@@ -9701,8 +9699,8 @@
       </c>
       <c r="G365" s="13"/>
     </row>
-    <row r="366" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A366" s="98"/>
+    <row r="366" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A366" s="123"/>
       <c r="B366" s="42" t="s">
         <v>367</v>
       </c>
@@ -9715,8 +9713,8 @@
       <c r="F366" s="31"/>
       <c r="G366" s="13"/>
     </row>
-    <row r="367" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A367" s="98"/>
+    <row r="367" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A367" s="123"/>
       <c r="B367" s="42" t="s">
         <v>375</v>
       </c>
@@ -9729,8 +9727,8 @@
       <c r="F367" s="18"/>
       <c r="G367" s="13"/>
     </row>
-    <row r="368" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A368" s="98"/>
+    <row r="368" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A368" s="123"/>
       <c r="B368" s="35" t="s">
         <v>462</v>
       </c>
@@ -9746,8 +9744,8 @@
       </c>
       <c r="G368" s="13"/>
     </row>
-    <row r="369" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A369" s="98"/>
+    <row r="369" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A369" s="123"/>
       <c r="B369" s="42" t="s">
         <v>505</v>
       </c>
@@ -9761,8 +9759,8 @@
       <c r="F369" s="18"/>
       <c r="G369" s="13"/>
     </row>
-    <row r="370" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A370" s="98"/>
+    <row r="370" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A370" s="123"/>
       <c r="B370" s="42" t="s">
         <v>540</v>
       </c>
@@ -9776,8 +9774,8 @@
       <c r="F370" s="18"/>
       <c r="G370" s="13"/>
     </row>
-    <row r="371" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A371" s="98"/>
+    <row r="371" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A371" s="123"/>
       <c r="B371" s="42" t="s">
         <v>695</v>
       </c>
@@ -9793,8 +9791,8 @@
       </c>
       <c r="G371" s="13"/>
     </row>
-    <row r="372" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A372" s="98"/>
+    <row r="372" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A372" s="123"/>
       <c r="B372" s="42" t="s">
         <v>698</v>
       </c>
@@ -9808,8 +9806,8 @@
       <c r="F372" s="18"/>
       <c r="G372" s="13"/>
     </row>
-    <row r="373" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A373" s="98"/>
+    <row r="373" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A373" s="123"/>
       <c r="B373" s="42" t="s">
         <v>716</v>
       </c>
@@ -9825,8 +9823,8 @@
       </c>
       <c r="G373" s="13"/>
     </row>
-    <row r="374" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A374" s="98"/>
+    <row r="374" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A374" s="123"/>
       <c r="B374" s="31" t="s">
         <v>133</v>
       </c>
@@ -9840,8 +9838,8 @@
       <c r="F374" s="31"/>
       <c r="G374" s="13"/>
     </row>
-    <row r="375" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A375" s="98"/>
+    <row r="375" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A375" s="123"/>
       <c r="B375" s="31" t="s">
         <v>841</v>
       </c>
@@ -9855,8 +9853,8 @@
       <c r="F375" s="31"/>
       <c r="G375" s="13"/>
     </row>
-    <row r="376" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A376" s="98"/>
+    <row r="376" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A376" s="123"/>
       <c r="B376" s="39" t="s">
         <v>951</v>
       </c>
@@ -9870,8 +9868,8 @@
       <c r="F376" s="31"/>
       <c r="G376" s="13"/>
     </row>
-    <row r="377" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A377" s="98"/>
+    <row r="377" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A377" s="123"/>
       <c r="B377" s="39" t="s">
         <v>964</v>
       </c>
@@ -9885,8 +9883,8 @@
       <c r="F377" s="31"/>
       <c r="G377" s="13"/>
     </row>
-    <row r="378" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A378" s="98"/>
+    <row r="378" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A378" s="123"/>
       <c r="B378" s="31" t="s">
         <v>343</v>
       </c>
@@ -9900,8 +9898,8 @@
       <c r="F378" s="31"/>
       <c r="G378" s="13"/>
     </row>
-    <row r="379" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A379" s="98"/>
+    <row r="379" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A379" s="123"/>
       <c r="B379" s="39"/>
       <c r="C379" s="39"/>
       <c r="D379" s="39"/>
@@ -9909,8 +9907,8 @@
       <c r="F379" s="31"/>
       <c r="G379" s="13"/>
     </row>
-    <row r="380" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A380" s="98"/>
+    <row r="380" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A380" s="123"/>
       <c r="B380" s="39"/>
       <c r="C380" s="39"/>
       <c r="D380" s="39"/>
@@ -9918,8 +9916,8 @@
       <c r="F380" s="31"/>
       <c r="G380" s="13"/>
     </row>
-    <row r="381" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A381" s="98"/>
+    <row r="381" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A381" s="123"/>
       <c r="B381" s="39"/>
       <c r="C381" s="39"/>
       <c r="D381" s="39"/>
@@ -9927,8 +9925,8 @@
       <c r="F381" s="31"/>
       <c r="G381" s="13"/>
     </row>
-    <row r="382" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A382" s="99"/>
+    <row r="382" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A382" s="124"/>
       <c r="B382" s="42" t="s">
         <v>387</v>
       </c>
@@ -9941,8 +9939,8 @@
       <c r="F382" s="19"/>
       <c r="G382" s="16"/>
     </row>
-    <row r="383" spans="1:7" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A383" s="79" t="s">
+    <row r="383" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A383" s="104" t="s">
         <v>406</v>
       </c>
       <c r="B383" s="42" t="s">
@@ -9957,8 +9955,8 @@
       </c>
       <c r="G383" s="30"/>
     </row>
-    <row r="384" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A384" s="80"/>
+    <row r="384" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A384" s="105"/>
       <c r="B384" s="35" t="s">
         <v>434</v>
       </c>
@@ -9974,8 +9972,8 @@
       </c>
       <c r="G384" s="23"/>
     </row>
-    <row r="385" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A385" s="80"/>
+    <row r="385" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A385" s="105"/>
       <c r="B385" s="42" t="s">
         <v>347</v>
       </c>
@@ -9988,8 +9986,8 @@
       <c r="F385" s="18"/>
       <c r="G385" s="13"/>
     </row>
-    <row r="386" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A386" s="80"/>
+    <row r="386" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A386" s="105"/>
       <c r="B386" s="47" t="s">
         <v>369</v>
       </c>
@@ -10001,8 +9999,8 @@
       </c>
       <c r="G386" s="13"/>
     </row>
-    <row r="387" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A387" s="80"/>
+    <row r="387" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A387" s="105"/>
       <c r="B387" s="42" t="s">
         <v>371</v>
       </c>
@@ -10015,8 +10013,8 @@
       <c r="F387" s="18"/>
       <c r="G387" s="13"/>
     </row>
-    <row r="388" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A388" s="80"/>
+    <row r="388" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A388" s="105"/>
       <c r="B388" s="35" t="s">
         <v>394</v>
       </c>
@@ -10030,8 +10028,8 @@
       <c r="F388" s="18"/>
       <c r="G388" s="13"/>
     </row>
-    <row r="389" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A389" s="80"/>
+    <row r="389" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A389" s="105"/>
       <c r="B389" s="42" t="s">
         <v>165</v>
       </c>
@@ -10044,8 +10042,8 @@
       <c r="F389" s="18"/>
       <c r="G389" s="13"/>
     </row>
-    <row r="390" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A390" s="80"/>
+    <row r="390" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A390" s="105"/>
       <c r="B390" s="42" t="s">
         <v>71</v>
       </c>
@@ -10059,8 +10057,8 @@
       <c r="F390" s="18"/>
       <c r="G390" s="13"/>
     </row>
-    <row r="391" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A391" s="80"/>
+    <row r="391" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A391" s="105"/>
       <c r="B391" s="42" t="s">
         <v>154</v>
       </c>
@@ -10073,8 +10071,8 @@
       <c r="F391" s="18"/>
       <c r="G391" s="13"/>
     </row>
-    <row r="392" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A392" s="80"/>
+    <row r="392" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A392" s="105"/>
       <c r="B392" s="42" t="s">
         <v>181</v>
       </c>
@@ -10087,8 +10085,8 @@
       <c r="F392" s="18"/>
       <c r="G392" s="13"/>
     </row>
-    <row r="393" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A393" s="80"/>
+    <row r="393" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A393" s="105"/>
       <c r="B393" s="42" t="s">
         <v>232</v>
       </c>
@@ -10101,8 +10099,8 @@
       <c r="F393" s="18"/>
       <c r="G393" s="13"/>
     </row>
-    <row r="394" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A394" s="80"/>
+    <row r="394" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A394" s="105"/>
       <c r="B394" s="42" t="s">
         <v>514</v>
       </c>
@@ -10116,8 +10114,8 @@
       <c r="F394" s="18"/>
       <c r="G394" s="13"/>
     </row>
-    <row r="395" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A395" s="80"/>
+    <row r="395" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A395" s="105"/>
       <c r="B395" s="42" t="s">
         <v>719</v>
       </c>
@@ -10130,8 +10128,8 @@
       </c>
       <c r="G395" s="13"/>
     </row>
-    <row r="396" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A396" s="80"/>
+    <row r="396" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A396" s="105"/>
       <c r="B396" s="31" t="s">
         <v>821</v>
       </c>
@@ -10145,8 +10143,8 @@
       <c r="F396" s="18"/>
       <c r="G396" s="13"/>
     </row>
-    <row r="397" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A397" s="80"/>
+    <row r="397" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A397" s="105"/>
       <c r="B397" s="39" t="s">
         <v>888</v>
       </c>
@@ -10160,8 +10158,8 @@
       <c r="F397" s="18"/>
       <c r="G397" s="13"/>
     </row>
-    <row r="398" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A398" s="80"/>
+    <row r="398" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A398" s="105"/>
       <c r="B398" s="39" t="s">
         <v>906</v>
       </c>
@@ -10175,8 +10173,8 @@
       <c r="F398" s="18"/>
       <c r="G398" s="13"/>
     </row>
-    <row r="399" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A399" s="80"/>
+    <row r="399" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A399" s="105"/>
       <c r="B399" s="35" t="s">
         <v>1132</v>
       </c>
@@ -10191,8 +10189,8 @@
       </c>
       <c r="G399" s="13"/>
     </row>
-    <row r="400" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A400" s="80"/>
+    <row r="400" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A400" s="105"/>
       <c r="B400" s="35" t="s">
         <v>1136</v>
       </c>
@@ -10205,8 +10203,8 @@
       <c r="F400" s="18"/>
       <c r="G400" s="13"/>
     </row>
-    <row r="401" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A401" s="80"/>
+    <row r="401" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A401" s="105"/>
       <c r="B401" s="39"/>
       <c r="C401" s="39"/>
       <c r="D401" s="39"/>
@@ -10214,8 +10212,8 @@
       <c r="F401" s="18"/>
       <c r="G401" s="13"/>
     </row>
-    <row r="402" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A402" s="80"/>
+    <row r="402" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A402" s="105"/>
       <c r="B402" s="42"/>
       <c r="C402" s="31"/>
       <c r="D402" s="31"/>
@@ -10223,13 +10221,13 @@
       <c r="F402" s="18"/>
       <c r="G402" s="13"/>
     </row>
-    <row r="403" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A403" s="81"/>
+    <row r="403" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A403" s="106"/>
       <c r="F403" s="19"/>
       <c r="G403" s="16"/>
     </row>
-    <row r="404" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A404" s="88" t="s">
+    <row r="404" spans="1:7" ht="14.4" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A404" s="113" t="s">
         <v>491</v>
       </c>
       <c r="B404" s="42" t="s">
@@ -10244,8 +10242,8 @@
       <c r="F404" s="17"/>
       <c r="G404" s="12"/>
     </row>
-    <row r="405" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A405" s="89"/>
+    <row r="405" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A405" s="114"/>
       <c r="B405" s="42" t="s">
         <v>215</v>
       </c>
@@ -10258,8 +10256,8 @@
       <c r="F405" s="18"/>
       <c r="G405" s="13"/>
     </row>
-    <row r="406" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A406" s="89"/>
+    <row r="406" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A406" s="114"/>
       <c r="B406" s="42" t="s">
         <v>283</v>
       </c>
@@ -10274,8 +10272,8 @@
       </c>
       <c r="G406" s="13"/>
     </row>
-    <row r="407" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A407" s="89"/>
+    <row r="407" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A407" s="114"/>
       <c r="B407" s="42" t="s">
         <v>517</v>
       </c>
@@ -10289,8 +10287,8 @@
       <c r="F407" s="18"/>
       <c r="G407" s="13"/>
     </row>
-    <row r="408" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A408" s="89"/>
+    <row r="408" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A408" s="114"/>
       <c r="B408" s="42" t="s">
         <v>546</v>
       </c>
@@ -10304,8 +10302,8 @@
       <c r="F408" s="18"/>
       <c r="G408" s="13"/>
     </row>
-    <row r="409" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A409" s="89"/>
+    <row r="409" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A409" s="114"/>
       <c r="B409" s="42" t="s">
         <v>581</v>
       </c>
@@ -10319,8 +10317,8 @@
       <c r="F409" s="18"/>
       <c r="G409" s="13"/>
     </row>
-    <row r="410" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A410" s="89"/>
+    <row r="410" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A410" s="114"/>
       <c r="B410" s="42" t="s">
         <v>608</v>
       </c>
@@ -10334,8 +10332,8 @@
       <c r="F410" s="18"/>
       <c r="G410" s="13"/>
     </row>
-    <row r="411" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A411" s="89"/>
+    <row r="411" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A411" s="114"/>
       <c r="B411" s="42" t="s">
         <v>698</v>
       </c>
@@ -10349,8 +10347,8 @@
       <c r="F411" s="18"/>
       <c r="G411" s="13"/>
     </row>
-    <row r="412" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A412" s="89"/>
+    <row r="412" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A412" s="114"/>
       <c r="B412" s="42" t="s">
         <v>713</v>
       </c>
@@ -10364,8 +10362,8 @@
       <c r="F412" s="18"/>
       <c r="G412" s="13"/>
     </row>
-    <row r="413" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A413" s="89"/>
+    <row r="413" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A413" s="114"/>
       <c r="B413" s="42" t="s">
         <v>770</v>
       </c>
@@ -10378,8 +10376,8 @@
       </c>
       <c r="G413" s="13"/>
     </row>
-    <row r="414" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A414" s="89"/>
+    <row r="414" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A414" s="114"/>
       <c r="B414" s="31" t="s">
         <v>924</v>
       </c>
@@ -10392,8 +10390,8 @@
       </c>
       <c r="G414" s="13"/>
     </row>
-    <row r="415" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A415" s="89"/>
+    <row r="415" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A415" s="114"/>
       <c r="B415" s="39" t="s">
         <v>945</v>
       </c>
@@ -10406,8 +10404,8 @@
       </c>
       <c r="G415" s="13"/>
     </row>
-    <row r="416" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A416" s="89"/>
+    <row r="416" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A416" s="114"/>
       <c r="B416" s="39" t="s">
         <v>242</v>
       </c>
@@ -10420,24 +10418,24 @@
       </c>
       <c r="G416" s="13"/>
     </row>
-    <row r="417" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A417" s="89"/>
+    <row r="417" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A417" s="114"/>
       <c r="B417" s="42"/>
       <c r="C417" s="39"/>
       <c r="D417" s="39"/>
       <c r="E417" s="39"/>
       <c r="G417" s="13"/>
     </row>
-    <row r="418" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A418" s="89"/>
+    <row r="418" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A418" s="114"/>
       <c r="B418" s="42"/>
       <c r="C418" s="39"/>
       <c r="D418" s="39"/>
       <c r="E418" s="39"/>
       <c r="G418" s="13"/>
     </row>
-    <row r="419" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A419" s="90"/>
+    <row r="419" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A419" s="115"/>
       <c r="B419" s="50"/>
       <c r="C419" s="14"/>
       <c r="D419" s="14"/>
@@ -10445,8 +10443,8 @@
       <c r="F419" s="19"/>
       <c r="G419" s="16"/>
     </row>
-    <row r="420" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A420" s="100" t="s">
+    <row r="420" spans="1:7" ht="14.4" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A420" s="125" t="s">
         <v>208</v>
       </c>
       <c r="B420" s="42" t="s">
@@ -10461,8 +10459,8 @@
       <c r="F420" s="17"/>
       <c r="G420" s="12"/>
     </row>
-    <row r="421" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A421" s="101"/>
+    <row r="421" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A421" s="126"/>
       <c r="B421" s="42" t="s">
         <v>208</v>
       </c>
@@ -10475,8 +10473,8 @@
       <c r="F421" s="18"/>
       <c r="G421" s="13"/>
     </row>
-    <row r="422" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A422" s="101"/>
+    <row r="422" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A422" s="126"/>
       <c r="B422" s="42" t="s">
         <v>279</v>
       </c>
@@ -10489,8 +10487,8 @@
       <c r="F422" s="18"/>
       <c r="G422" s="13"/>
     </row>
-    <row r="423" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A423" s="101"/>
+    <row r="423" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A423" s="126"/>
       <c r="B423" s="42" t="s">
         <v>363</v>
       </c>
@@ -10503,8 +10501,8 @@
       <c r="F423" s="18"/>
       <c r="G423" s="13"/>
     </row>
-    <row r="424" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A424" s="101"/>
+    <row r="424" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A424" s="126"/>
       <c r="B424" s="35" t="s">
         <v>451</v>
       </c>
@@ -10520,8 +10518,8 @@
       </c>
       <c r="G424" s="13"/>
     </row>
-    <row r="425" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A425" s="101"/>
+    <row r="425" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A425" s="126"/>
       <c r="B425" s="42" t="s">
         <v>502</v>
       </c>
@@ -10535,8 +10533,8 @@
       <c r="F425" s="34"/>
       <c r="G425" s="13"/>
     </row>
-    <row r="426" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A426" s="101"/>
+    <row r="426" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A426" s="126"/>
       <c r="B426" s="42" t="s">
         <v>511</v>
       </c>
@@ -10550,8 +10548,8 @@
       <c r="F426" s="34"/>
       <c r="G426" s="13"/>
     </row>
-    <row r="427" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A427" s="101"/>
+    <row r="427" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A427" s="126"/>
       <c r="B427" s="42" t="s">
         <v>523</v>
       </c>
@@ -10565,8 +10563,8 @@
       <c r="F427" s="18"/>
       <c r="G427" s="13"/>
     </row>
-    <row r="428" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A428" s="101"/>
+    <row r="428" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A428" s="126"/>
       <c r="B428" s="42" t="s">
         <v>560</v>
       </c>
@@ -10580,8 +10578,8 @@
       <c r="F428" s="18"/>
       <c r="G428" s="13"/>
     </row>
-    <row r="429" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A429" s="101"/>
+    <row r="429" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A429" s="126"/>
       <c r="B429" s="42" t="s">
         <v>577</v>
       </c>
@@ -10597,8 +10595,8 @@
       </c>
       <c r="G429" s="13"/>
     </row>
-    <row r="430" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A430" s="101"/>
+    <row r="430" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A430" s="126"/>
       <c r="B430" s="42" t="s">
         <v>630</v>
       </c>
@@ -10611,8 +10609,8 @@
       </c>
       <c r="G430" s="13"/>
     </row>
-    <row r="431" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A431" s="101"/>
+    <row r="431" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A431" s="126"/>
       <c r="B431" s="42" t="s">
         <v>633</v>
       </c>
@@ -10628,8 +10626,8 @@
       </c>
       <c r="G431" s="13"/>
     </row>
-    <row r="432" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A432" s="101"/>
+    <row r="432" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A432" s="126"/>
       <c r="B432" s="42" t="s">
         <v>689</v>
       </c>
@@ -10643,8 +10641,8 @@
       <c r="F432" s="31"/>
       <c r="G432" s="13"/>
     </row>
-    <row r="433" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A433" s="101"/>
+    <row r="433" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A433" s="126"/>
       <c r="B433" s="42" t="s">
         <v>701</v>
       </c>
@@ -10658,8 +10656,8 @@
       <c r="F433" s="31"/>
       <c r="G433" s="13"/>
     </row>
-    <row r="434" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A434" s="101"/>
+    <row r="434" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A434" s="126"/>
       <c r="B434" s="42" t="s">
         <v>683</v>
       </c>
@@ -10673,8 +10671,8 @@
       <c r="F434" s="31"/>
       <c r="G434" s="13"/>
     </row>
-    <row r="435" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A435" s="101"/>
+    <row r="435" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A435" s="126"/>
       <c r="B435" s="42" t="s">
         <v>756</v>
       </c>
@@ -10688,8 +10686,8 @@
       <c r="F435" s="31"/>
       <c r="G435" s="13"/>
     </row>
-    <row r="436" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A436" s="101"/>
+    <row r="436" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A436" s="126"/>
       <c r="B436" s="31" t="s">
         <v>874</v>
       </c>
@@ -10703,8 +10701,8 @@
       <c r="F436" s="31"/>
       <c r="G436" s="13"/>
     </row>
-    <row r="437" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A437" s="101"/>
+    <row r="437" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A437" s="126"/>
       <c r="B437" s="39" t="s">
         <v>187</v>
       </c>
@@ -10718,8 +10716,8 @@
       <c r="F437" s="31"/>
       <c r="G437" s="13"/>
     </row>
-    <row r="438" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A438" s="101"/>
+    <row r="438" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A438" s="126"/>
       <c r="B438" s="31" t="s">
         <v>279</v>
       </c>
@@ -10733,8 +10731,8 @@
       <c r="F438" s="31"/>
       <c r="G438" s="13"/>
     </row>
-    <row r="439" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A439" s="101"/>
+    <row r="439" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A439" s="126"/>
       <c r="B439" s="31"/>
       <c r="C439" s="31"/>
       <c r="D439" s="31"/>
@@ -10742,8 +10740,8 @@
       <c r="F439" s="31"/>
       <c r="G439" s="13"/>
     </row>
-    <row r="440" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A440" s="101"/>
+    <row r="440" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A440" s="126"/>
       <c r="B440" s="42"/>
       <c r="C440" s="31"/>
       <c r="D440" s="31"/>
@@ -10751,8 +10749,8 @@
       <c r="F440" s="31"/>
       <c r="G440" s="13"/>
     </row>
-    <row r="441" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A441" s="102"/>
+    <row r="441" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A441" s="127"/>
       <c r="B441" s="31"/>
       <c r="C441" s="31"/>
       <c r="D441" s="31"/>
@@ -10760,8 +10758,8 @@
       <c r="F441" s="19"/>
       <c r="G441" s="16"/>
     </row>
-    <row r="442" spans="1:7" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A442" s="70" t="s">
+    <row r="442" spans="1:7" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A442" s="95" t="s">
         <v>10</v>
       </c>
       <c r="B442" s="51" t="s">
@@ -10781,8 +10779,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="443" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A443" s="71"/>
+    <row r="443" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A443" s="96"/>
       <c r="B443" s="35" t="s">
         <v>16</v>
       </c>
@@ -10796,8 +10794,8 @@
       <c r="F443" s="18"/>
       <c r="G443" s="13"/>
     </row>
-    <row r="444" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A444" s="71"/>
+    <row r="444" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A444" s="96"/>
       <c r="B444" s="35" t="s">
         <v>19</v>
       </c>
@@ -10811,8 +10809,8 @@
       <c r="F444" s="18"/>
       <c r="G444" s="13"/>
     </row>
-    <row r="445" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A445" s="71"/>
+    <row r="445" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A445" s="96"/>
       <c r="B445" s="35" t="s">
         <v>22</v>
       </c>
@@ -10826,8 +10824,8 @@
       <c r="F445" s="18"/>
       <c r="G445" s="13"/>
     </row>
-    <row r="446" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A446" s="71"/>
+    <row r="446" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A446" s="96"/>
       <c r="B446" s="35" t="s">
         <v>25</v>
       </c>
@@ -10841,8 +10839,8 @@
       <c r="F446" s="18"/>
       <c r="G446" s="13"/>
     </row>
-    <row r="447" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A447" s="71"/>
+    <row r="447" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A447" s="96"/>
       <c r="B447" s="35" t="s">
         <v>28</v>
       </c>
@@ -10856,8 +10854,8 @@
       <c r="F447" s="18"/>
       <c r="G447" s="13"/>
     </row>
-    <row r="448" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A448" s="71"/>
+    <row r="448" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A448" s="96"/>
       <c r="B448" s="35" t="s">
         <v>31</v>
       </c>
@@ -10871,8 +10869,8 @@
       <c r="F448" s="18"/>
       <c r="G448" s="13"/>
     </row>
-    <row r="449" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A449" s="71"/>
+    <row r="449" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A449" s="96"/>
       <c r="B449" s="35" t="s">
         <v>34</v>
       </c>
@@ -10886,8 +10884,8 @@
       <c r="F449" s="18"/>
       <c r="G449" s="13"/>
     </row>
-    <row r="450" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A450" s="71"/>
+    <row r="450" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A450" s="96"/>
       <c r="B450" s="35" t="s">
         <v>486</v>
       </c>
@@ -10903,8 +10901,8 @@
       </c>
       <c r="G450" s="13"/>
     </row>
-    <row r="451" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A451" s="71"/>
+    <row r="451" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A451" s="96"/>
       <c r="B451" s="42" t="s">
         <v>349</v>
       </c>
@@ -10917,8 +10915,8 @@
       <c r="F451" s="18"/>
       <c r="G451" s="13"/>
     </row>
-    <row r="452" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A452" s="71"/>
+    <row r="452" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A452" s="96"/>
       <c r="B452" s="42" t="s">
         <v>611</v>
       </c>
@@ -10934,8 +10932,8 @@
       </c>
       <c r="G452" s="13"/>
     </row>
-    <row r="453" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A453" s="71"/>
+    <row r="453" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A453" s="96"/>
       <c r="B453" s="42" t="s">
         <v>615</v>
       </c>
@@ -10948,8 +10946,8 @@
       </c>
       <c r="G453" s="13"/>
     </row>
-    <row r="454" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A454" s="71"/>
+    <row r="454" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A454" s="96"/>
       <c r="B454" s="42" t="s">
         <v>773</v>
       </c>
@@ -10963,8 +10961,8 @@
       <c r="F454" s="18"/>
       <c r="G454" s="13"/>
     </row>
-    <row r="455" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A455" s="71"/>
+    <row r="455" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A455" s="96"/>
       <c r="B455" s="39" t="s">
         <v>958</v>
       </c>
@@ -10978,8 +10976,8 @@
       <c r="F455" s="18"/>
       <c r="G455" s="13"/>
     </row>
-    <row r="456" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A456" s="71"/>
+    <row r="456" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A456" s="96"/>
       <c r="B456" s="31" t="s">
         <v>1007</v>
       </c>
@@ -10993,8 +10991,8 @@
       <c r="F456" s="18"/>
       <c r="G456" s="13"/>
     </row>
-    <row r="457" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A457" s="71"/>
+    <row r="457" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A457" s="96"/>
       <c r="B457" s="31" t="s">
         <v>1010</v>
       </c>
@@ -11008,8 +11006,8 @@
       <c r="F457" s="18"/>
       <c r="G457" s="13"/>
     </row>
-    <row r="458" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A458" s="71"/>
+    <row r="458" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A458" s="96"/>
       <c r="B458" s="34" t="s">
         <v>945</v>
       </c>
@@ -11027,8 +11025,8 @@
       </c>
       <c r="G458" s="13"/>
     </row>
-    <row r="459" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A459" s="71"/>
+    <row r="459" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A459" s="96"/>
       <c r="B459" s="34" t="s">
         <v>1079</v>
       </c>
@@ -11046,8 +11044,8 @@
       </c>
       <c r="G459" s="13"/>
     </row>
-    <row r="460" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A460" s="71"/>
+    <row r="460" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A460" s="96"/>
       <c r="B460" s="34" t="s">
         <v>1082</v>
       </c>
@@ -11065,8 +11063,8 @@
       </c>
       <c r="G460" s="13"/>
     </row>
-    <row r="461" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A461" s="71"/>
+    <row r="461" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A461" s="96"/>
       <c r="B461" s="34" t="s">
         <v>1088</v>
       </c>
@@ -11084,8 +11082,8 @@
       </c>
       <c r="G461" s="13"/>
     </row>
-    <row r="462" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A462" s="71"/>
+    <row r="462" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A462" s="96"/>
       <c r="B462" s="55" t="s">
         <v>1091</v>
       </c>
@@ -11101,8 +11099,8 @@
       <c r="F462" s="61"/>
       <c r="G462" s="13"/>
     </row>
-    <row r="463" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A463" s="71"/>
+    <row r="463" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A463" s="96"/>
       <c r="B463" s="35" t="s">
         <v>1101</v>
       </c>
@@ -11120,8 +11118,8 @@
       </c>
       <c r="G463" s="13"/>
     </row>
-    <row r="464" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A464" s="71"/>
+    <row r="464" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A464" s="96"/>
       <c r="B464" s="35" t="s">
         <v>1106</v>
       </c>
@@ -11139,8 +11137,8 @@
       </c>
       <c r="G464" s="13"/>
     </row>
-    <row r="465" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A465" s="71"/>
+    <row r="465" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A465" s="96"/>
       <c r="B465" s="35" t="s">
         <v>1109</v>
       </c>
@@ -11158,8 +11156,8 @@
       </c>
       <c r="G465" s="13"/>
     </row>
-    <row r="466" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A466" s="71"/>
+    <row r="466" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A466" s="96"/>
       <c r="B466" s="35" t="s">
         <v>1112</v>
       </c>
@@ -11177,8 +11175,8 @@
       </c>
       <c r="G466" s="13"/>
     </row>
-    <row r="467" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A467" s="71"/>
+    <row r="467" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A467" s="96"/>
       <c r="B467" s="35" t="s">
         <v>1116</v>
       </c>
@@ -11196,8 +11194,8 @@
       </c>
       <c r="G467" s="13"/>
     </row>
-    <row r="468" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A468" s="71"/>
+    <row r="468" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A468" s="96"/>
       <c r="B468" s="35" t="s">
         <v>1120</v>
       </c>
@@ -11215,8 +11213,8 @@
       </c>
       <c r="G468" s="13"/>
     </row>
-    <row r="469" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A469" s="71"/>
+    <row r="469" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A469" s="96"/>
       <c r="B469" s="35" t="s">
         <v>1120</v>
       </c>
@@ -11234,8 +11232,8 @@
       </c>
       <c r="G469" s="13"/>
     </row>
-    <row r="470" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A470" s="71"/>
+    <row r="470" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A470" s="96"/>
       <c r="B470" s="35" t="s">
         <v>1125</v>
       </c>
@@ -11253,8 +11251,8 @@
       </c>
       <c r="G470" s="13"/>
     </row>
-    <row r="471" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A471" s="71"/>
+    <row r="471" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A471" s="96"/>
       <c r="B471" s="35"/>
       <c r="C471" s="35"/>
       <c r="D471" s="64"/>
@@ -11262,8 +11260,8 @@
       <c r="F471" s="35"/>
       <c r="G471" s="13"/>
     </row>
-    <row r="472" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A472" s="71"/>
+    <row r="472" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A472" s="96"/>
       <c r="B472" s="35"/>
       <c r="C472" s="35"/>
       <c r="D472" s="64"/>
@@ -11271,8 +11269,8 @@
       <c r="F472" s="35"/>
       <c r="G472" s="13"/>
     </row>
-    <row r="473" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A473" s="71"/>
+    <row r="473" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A473" s="96"/>
       <c r="B473" s="35"/>
       <c r="C473" s="35"/>
       <c r="D473" s="64"/>
@@ -11280,8 +11278,8 @@
       <c r="F473" s="35"/>
       <c r="G473" s="13"/>
     </row>
-    <row r="474" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A474" s="71"/>
+    <row r="474" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A474" s="96"/>
       <c r="B474" s="35"/>
       <c r="C474" s="35"/>
       <c r="D474" s="64"/>
@@ -11289,8 +11287,8 @@
       <c r="F474" s="35"/>
       <c r="G474" s="13"/>
     </row>
-    <row r="475" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A475" s="72"/>
+    <row r="475" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A475" s="97"/>
       <c r="B475" s="52"/>
       <c r="C475" s="19"/>
       <c r="D475" s="25"/>
@@ -11298,2958 +11296,2950 @@
       <c r="F475" s="19"/>
       <c r="G475" s="16"/>
     </row>
-    <row r="476" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A476" s="4"/>
       <c r="E476" s="5"/>
     </row>
-    <row r="477" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="4"/>
       <c r="E477" s="5"/>
     </row>
-    <row r="478" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E478" s="5"/>
     </row>
-    <row r="479" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E479" s="5"/>
     </row>
-    <row r="480" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E480" s="5"/>
     </row>
-    <row r="481" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="481" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E481" s="5"/>
     </row>
-    <row r="482" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="482" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E482" s="5"/>
     </row>
-    <row r="483" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="483" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E483" s="5"/>
     </row>
-    <row r="484" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="484" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E484" s="5"/>
     </row>
-    <row r="485" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="485" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E485" s="5"/>
     </row>
-    <row r="486" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="486" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E486" s="5"/>
     </row>
-    <row r="487" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="487" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E487" s="5"/>
     </row>
-    <row r="488" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="488" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E488" s="5"/>
     </row>
-    <row r="489" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="489" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E489" s="5"/>
     </row>
-    <row r="490" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="490" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E490" s="5"/>
     </row>
-    <row r="491" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="491" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E491" s="5"/>
     </row>
-    <row r="492" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="492" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E492" s="5"/>
     </row>
-    <row r="493" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="493" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E493" s="5"/>
     </row>
-    <row r="494" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="494" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E494" s="5"/>
     </row>
-    <row r="495" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="495" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E495" s="5"/>
     </row>
-    <row r="496" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="496" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E496" s="5"/>
     </row>
-    <row r="497" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="497" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E497" s="5"/>
     </row>
-    <row r="498" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="498" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E498" s="5"/>
     </row>
-    <row r="499" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="499" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E499" s="5"/>
     </row>
-    <row r="500" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="500" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E500" s="5"/>
     </row>
-    <row r="501" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="501" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E501" s="5"/>
     </row>
-    <row r="502" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="502" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E502" s="5"/>
     </row>
-    <row r="503" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="503" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E503" s="5"/>
     </row>
-    <row r="504" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="504" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E504" s="5"/>
     </row>
-    <row r="505" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="505" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E505" s="5"/>
     </row>
-    <row r="506" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="506" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E506" s="5"/>
     </row>
-    <row r="507" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="507" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E507" s="5"/>
     </row>
-    <row r="508" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="508" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E508" s="5"/>
     </row>
-    <row r="509" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="509" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E509" s="5"/>
     </row>
-    <row r="510" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="510" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E510" s="5"/>
     </row>
-    <row r="511" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="511" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E511" s="5"/>
     </row>
-    <row r="512" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="512" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E512" s="5"/>
     </row>
-    <row r="513" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="513" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E513" s="5"/>
     </row>
-    <row r="514" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="514" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E514" s="5"/>
     </row>
-    <row r="515" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="515" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E515" s="5"/>
     </row>
-    <row r="516" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="516" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E516" s="5"/>
     </row>
-    <row r="517" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="517" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E517" s="5"/>
     </row>
-    <row r="518" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="518" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E518" s="5"/>
     </row>
-    <row r="519" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="519" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E519" s="5"/>
     </row>
-    <row r="520" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="520" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E520" s="5"/>
     </row>
-    <row r="521" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="521" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E521" s="5"/>
     </row>
-    <row r="522" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="522" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E522" s="5"/>
     </row>
-    <row r="523" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="523" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E523" s="5"/>
     </row>
-    <row r="524" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="524" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E524" s="5"/>
     </row>
-    <row r="525" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="525" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E525" s="5"/>
     </row>
-    <row r="526" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="526" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E526" s="5"/>
     </row>
-    <row r="527" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="527" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E527" s="5"/>
     </row>
-    <row r="528" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="528" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E528" s="5"/>
     </row>
-    <row r="529" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="529" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E529" s="5"/>
     </row>
-    <row r="530" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="530" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E530" s="5"/>
     </row>
-    <row r="531" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="531" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E531" s="5"/>
     </row>
-    <row r="532" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="532" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E532" s="5"/>
     </row>
-    <row r="533" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="533" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E533" s="5"/>
     </row>
-    <row r="534" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="534" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E534" s="5"/>
     </row>
-    <row r="535" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="535" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E535" s="5"/>
     </row>
-    <row r="536" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="536" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E536" s="5"/>
     </row>
-    <row r="537" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="537" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E537" s="5"/>
     </row>
-    <row r="538" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="538" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E538" s="5"/>
     </row>
-    <row r="539" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="539" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E539" s="5"/>
     </row>
-    <row r="540" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="540" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E540" s="5"/>
     </row>
-    <row r="541" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="541" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E541" s="5"/>
     </row>
-    <row r="542" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="542" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E542" s="5"/>
     </row>
-    <row r="543" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="543" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E543" s="5"/>
     </row>
-    <row r="544" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="544" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E544" s="5"/>
     </row>
-    <row r="545" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="545" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E545" s="5"/>
     </row>
-    <row r="546" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="546" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E546" s="5"/>
     </row>
-    <row r="547" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="547" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E547" s="5"/>
     </row>
-    <row r="548" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="548" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E548" s="5"/>
     </row>
-    <row r="549" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="549" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E549" s="5"/>
     </row>
-    <row r="550" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="550" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E550" s="5"/>
     </row>
-    <row r="551" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="551" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E551" s="5"/>
     </row>
-    <row r="552" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="552" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E552" s="5"/>
     </row>
-    <row r="553" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="553" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E553" s="5"/>
     </row>
-    <row r="554" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="554" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E554" s="5"/>
     </row>
-    <row r="555" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="555" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E555" s="5"/>
     </row>
-    <row r="556" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="556" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E556" s="5"/>
     </row>
-    <row r="557" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="557" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E557" s="5"/>
     </row>
-    <row r="558" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="558" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E558" s="5"/>
     </row>
-    <row r="559" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="559" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E559" s="5"/>
     </row>
-    <row r="560" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="560" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E560" s="5"/>
     </row>
-    <row r="561" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="561" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E561" s="5"/>
     </row>
-    <row r="562" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="562" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E562" s="5"/>
     </row>
-    <row r="563" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="563" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E563" s="5"/>
     </row>
-    <row r="564" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="564" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E564" s="5"/>
     </row>
-    <row r="565" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="565" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E565" s="5"/>
     </row>
-    <row r="566" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="566" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E566" s="5"/>
     </row>
-    <row r="567" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="567" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E567" s="5"/>
     </row>
-    <row r="568" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="568" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E568" s="5"/>
     </row>
-    <row r="569" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="569" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E569" s="5"/>
     </row>
-    <row r="570" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="570" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E570" s="5"/>
     </row>
-    <row r="571" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="571" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E571" s="5"/>
     </row>
-    <row r="572" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="572" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E572" s="5"/>
     </row>
-    <row r="573" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="573" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E573" s="5"/>
     </row>
-    <row r="574" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="574" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E574" s="5"/>
     </row>
-    <row r="575" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="575" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E575" s="5"/>
     </row>
-    <row r="576" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="576" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E576" s="5"/>
     </row>
-    <row r="577" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="577" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E577" s="5"/>
     </row>
-    <row r="578" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="578" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E578" s="5"/>
     </row>
-    <row r="579" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="579" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E579" s="5"/>
     </row>
-    <row r="580" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="580" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E580" s="5"/>
     </row>
-    <row r="581" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="581" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E581" s="5"/>
     </row>
-    <row r="582" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="582" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E582" s="5"/>
     </row>
-    <row r="583" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="583" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E583" s="5"/>
     </row>
-    <row r="584" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="584" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E584" s="5"/>
     </row>
-    <row r="585" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="585" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E585" s="5"/>
     </row>
-    <row r="586" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="586" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E586" s="5"/>
     </row>
-    <row r="587" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="587" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E587" s="5"/>
     </row>
-    <row r="588" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="588" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E588" s="5"/>
     </row>
-    <row r="589" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="589" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E589" s="5"/>
     </row>
-    <row r="590" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="590" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E590" s="5"/>
     </row>
-    <row r="591" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="591" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E591" s="5"/>
     </row>
-    <row r="592" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="592" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E592" s="5"/>
     </row>
-    <row r="593" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="593" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E593" s="5"/>
     </row>
-    <row r="594" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="594" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E594" s="5"/>
     </row>
-    <row r="595" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="595" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E595" s="5"/>
     </row>
-    <row r="596" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="596" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E596" s="5"/>
     </row>
-    <row r="597" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="597" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E597" s="5"/>
     </row>
-    <row r="598" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="598" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E598" s="5"/>
     </row>
-    <row r="599" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="599" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E599" s="5"/>
     </row>
-    <row r="600" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="600" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E600" s="5"/>
     </row>
-    <row r="601" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="601" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E601" s="5"/>
     </row>
-    <row r="602" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="602" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E602" s="5"/>
     </row>
-    <row r="603" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="603" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E603" s="5"/>
     </row>
-    <row r="604" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="604" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E604" s="5"/>
     </row>
-    <row r="605" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="605" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E605" s="5"/>
     </row>
-    <row r="606" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="606" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E606" s="5"/>
     </row>
-    <row r="607" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="607" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E607" s="5"/>
     </row>
-    <row r="608" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="608" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E608" s="5"/>
     </row>
-    <row r="609" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="609" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E609" s="5"/>
     </row>
-    <row r="610" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="610" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E610" s="5"/>
     </row>
-    <row r="611" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="611" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E611" s="5"/>
     </row>
-    <row r="612" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="612" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E612" s="5"/>
     </row>
-    <row r="613" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="613" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E613" s="5"/>
     </row>
-    <row r="614" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="614" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E614" s="5"/>
     </row>
-    <row r="615" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="615" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E615" s="5"/>
     </row>
-    <row r="616" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="616" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E616" s="5"/>
     </row>
-    <row r="617" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="617" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E617" s="5"/>
     </row>
-    <row r="618" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="618" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E618" s="5"/>
     </row>
-    <row r="619" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="619" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E619" s="5"/>
     </row>
-    <row r="620" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="620" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E620" s="5"/>
     </row>
-    <row r="621" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="621" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E621" s="5"/>
     </row>
-    <row r="622" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="622" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E622" s="5"/>
     </row>
-    <row r="623" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="623" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E623" s="5"/>
     </row>
-    <row r="624" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="624" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E624" s="5"/>
     </row>
-    <row r="625" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="625" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E625" s="5"/>
     </row>
-    <row r="626" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="626" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E626" s="5"/>
     </row>
-    <row r="627" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="627" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E627" s="5"/>
     </row>
-    <row r="628" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="628" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E628" s="5"/>
     </row>
-    <row r="629" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="629" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E629" s="5"/>
     </row>
-    <row r="630" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="630" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E630" s="5"/>
     </row>
-    <row r="631" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="631" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E631" s="5"/>
     </row>
-    <row r="632" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="632" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E632" s="5"/>
     </row>
-    <row r="633" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="633" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E633" s="5"/>
     </row>
-    <row r="634" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="634" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E634" s="5"/>
     </row>
-    <row r="635" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="635" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E635" s="5"/>
     </row>
-    <row r="636" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="636" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E636" s="5"/>
     </row>
-    <row r="637" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="637" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E637" s="5"/>
     </row>
-    <row r="638" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="638" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E638" s="5"/>
     </row>
-    <row r="639" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="639" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E639" s="5"/>
     </row>
-    <row r="640" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="640" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E640" s="5"/>
     </row>
-    <row r="641" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="641" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E641" s="5"/>
     </row>
-    <row r="642" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="642" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E642" s="5"/>
     </row>
-    <row r="643" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="643" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E643" s="5"/>
     </row>
-    <row r="644" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="644" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E644" s="5"/>
     </row>
-    <row r="645" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="645" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E645" s="5"/>
     </row>
-    <row r="646" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="646" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E646" s="5"/>
     </row>
-    <row r="647" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="647" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E647" s="5"/>
     </row>
-    <row r="648" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="648" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E648" s="5"/>
     </row>
-    <row r="649" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="649" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E649" s="5"/>
     </row>
-    <row r="650" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="650" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E650" s="5"/>
     </row>
-    <row r="651" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="651" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E651" s="5"/>
     </row>
-    <row r="652" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="652" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E652" s="5"/>
     </row>
-    <row r="653" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="653" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E653" s="5"/>
     </row>
-    <row r="654" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="654" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E654" s="5"/>
     </row>
-    <row r="655" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="655" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E655" s="5"/>
     </row>
-    <row r="656" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="656" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E656" s="5"/>
     </row>
-    <row r="657" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="657" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E657" s="5"/>
     </row>
-    <row r="658" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="658" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E658" s="5"/>
     </row>
-    <row r="659" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="659" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E659" s="5"/>
     </row>
-    <row r="660" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="660" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E660" s="5"/>
     </row>
-    <row r="661" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="661" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E661" s="5"/>
     </row>
-    <row r="662" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="662" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E662" s="5"/>
     </row>
-    <row r="663" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="663" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E663" s="5"/>
     </row>
-    <row r="664" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="664" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E664" s="5"/>
     </row>
-    <row r="665" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="665" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E665" s="5"/>
     </row>
-    <row r="666" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="666" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E666" s="5"/>
     </row>
-    <row r="667" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="667" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E667" s="5"/>
     </row>
-    <row r="668" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="668" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E668" s="5"/>
     </row>
-    <row r="669" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="669" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E669" s="5"/>
     </row>
-    <row r="670" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="670" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E670" s="5"/>
     </row>
-    <row r="671" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="671" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E671" s="5"/>
     </row>
-    <row r="672" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="672" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E672" s="5"/>
     </row>
-    <row r="673" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="673" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E673" s="5"/>
     </row>
-    <row r="674" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="674" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E674" s="5"/>
     </row>
-    <row r="675" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="675" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E675" s="5"/>
     </row>
-    <row r="676" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="676" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E676" s="5"/>
     </row>
-    <row r="677" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="677" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E677" s="5"/>
     </row>
-    <row r="678" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="678" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E678" s="5"/>
     </row>
-    <row r="679" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="679" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E679" s="5"/>
     </row>
-    <row r="680" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="680" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E680" s="5"/>
     </row>
-    <row r="681" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="681" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E681" s="5"/>
     </row>
-    <row r="682" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="682" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E682" s="5"/>
     </row>
-    <row r="683" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="683" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E683" s="5"/>
     </row>
-    <row r="684" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="684" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E684" s="5"/>
     </row>
-    <row r="685" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="685" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E685" s="5"/>
     </row>
-    <row r="686" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="686" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E686" s="5"/>
     </row>
-    <row r="687" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="687" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E687" s="5"/>
     </row>
-    <row r="688" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="688" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E688" s="5"/>
     </row>
-    <row r="689" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="689" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E689" s="5"/>
     </row>
-    <row r="690" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="690" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E690" s="5"/>
     </row>
-    <row r="691" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="691" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E691" s="5"/>
     </row>
-    <row r="692" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="692" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E692" s="5"/>
     </row>
-    <row r="693" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="693" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E693" s="5"/>
     </row>
-    <row r="694" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="694" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E694" s="5"/>
     </row>
-    <row r="695" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="695" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E695" s="5"/>
     </row>
-    <row r="696" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="696" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E696" s="5"/>
     </row>
-    <row r="697" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="697" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E697" s="5"/>
     </row>
-    <row r="698" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="698" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E698" s="5"/>
     </row>
-    <row r="699" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="699" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E699" s="5"/>
     </row>
-    <row r="700" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="700" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E700" s="5"/>
     </row>
-    <row r="701" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="701" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E701" s="5"/>
     </row>
-    <row r="702" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="702" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E702" s="5"/>
     </row>
-    <row r="703" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="703" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E703" s="5"/>
     </row>
-    <row r="704" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="704" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E704" s="5"/>
     </row>
-    <row r="705" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="705" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E705" s="5"/>
     </row>
-    <row r="706" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="706" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E706" s="5"/>
     </row>
-    <row r="707" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="707" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E707" s="5"/>
     </row>
-    <row r="708" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="708" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E708" s="5"/>
     </row>
-    <row r="709" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="709" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E709" s="5"/>
     </row>
-    <row r="710" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="710" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E710" s="5"/>
     </row>
-    <row r="711" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="711" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E711" s="5"/>
     </row>
-    <row r="712" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="712" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E712" s="5"/>
     </row>
-    <row r="713" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="713" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E713" s="5"/>
     </row>
-    <row r="714" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="714" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E714" s="5"/>
     </row>
-    <row r="715" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="715" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E715" s="5"/>
     </row>
-    <row r="716" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="716" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E716" s="5"/>
     </row>
-    <row r="717" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="717" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E717" s="5"/>
     </row>
-    <row r="718" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="718" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E718" s="5"/>
     </row>
-    <row r="719" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="719" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E719" s="5"/>
     </row>
-    <row r="720" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="720" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E720" s="5"/>
     </row>
-    <row r="721" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="721" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E721" s="5"/>
     </row>
-    <row r="722" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="722" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E722" s="5"/>
     </row>
-    <row r="723" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="723" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E723" s="5"/>
     </row>
-    <row r="724" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="724" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E724" s="5"/>
     </row>
-    <row r="725" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="725" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E725" s="5"/>
     </row>
-    <row r="726" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="726" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E726" s="5"/>
     </row>
-    <row r="727" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="727" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E727" s="5"/>
     </row>
-    <row r="728" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="728" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E728" s="5"/>
     </row>
-    <row r="729" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="729" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E729" s="5"/>
     </row>
-    <row r="730" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="730" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E730" s="5"/>
     </row>
-    <row r="731" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="731" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E731" s="5"/>
     </row>
-    <row r="732" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="732" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E732" s="5"/>
     </row>
-    <row r="733" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="733" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E733" s="5"/>
     </row>
-    <row r="734" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="734" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E734" s="5"/>
     </row>
-    <row r="735" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="735" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E735" s="5"/>
     </row>
-    <row r="736" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="736" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E736" s="5"/>
     </row>
-    <row r="737" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="737" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E737" s="5"/>
     </row>
-    <row r="738" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="738" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E738" s="5"/>
     </row>
-    <row r="739" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="739" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E739" s="5"/>
     </row>
-    <row r="740" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="740" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E740" s="5"/>
     </row>
-    <row r="741" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="741" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E741" s="5"/>
     </row>
-    <row r="742" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="742" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E742" s="5"/>
     </row>
-    <row r="743" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="743" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E743" s="5"/>
     </row>
-    <row r="744" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="744" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E744" s="5"/>
     </row>
-    <row r="745" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="745" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E745" s="5"/>
     </row>
-    <row r="746" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="746" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E746" s="5"/>
     </row>
-    <row r="747" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="747" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E747" s="5"/>
     </row>
-    <row r="748" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="748" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E748" s="5"/>
     </row>
-    <row r="749" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="749" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E749" s="5"/>
     </row>
-    <row r="750" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="750" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E750" s="5"/>
     </row>
-    <row r="751" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="751" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E751" s="5"/>
     </row>
-    <row r="752" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="752" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E752" s="5"/>
     </row>
-    <row r="753" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="753" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E753" s="5"/>
     </row>
-    <row r="754" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="754" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E754" s="5"/>
     </row>
-    <row r="755" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="755" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E755" s="5"/>
     </row>
-    <row r="756" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="756" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E756" s="5"/>
     </row>
-    <row r="757" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="757" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E757" s="5"/>
     </row>
-    <row r="758" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="758" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E758" s="5"/>
     </row>
-    <row r="759" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="759" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E759" s="5"/>
     </row>
-    <row r="760" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="760" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E760" s="5"/>
     </row>
-    <row r="761" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="761" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E761" s="5"/>
     </row>
-    <row r="762" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="762" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E762" s="5"/>
     </row>
-    <row r="763" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="763" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E763" s="5"/>
     </row>
-    <row r="764" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="764" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E764" s="5"/>
     </row>
-    <row r="765" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="765" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E765" s="5"/>
     </row>
-    <row r="766" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="766" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E766" s="5"/>
     </row>
-    <row r="767" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="767" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E767" s="5"/>
     </row>
-    <row r="768" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="768" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E768" s="5"/>
     </row>
-    <row r="769" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="769" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E769" s="5"/>
     </row>
-    <row r="770" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="770" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E770" s="5"/>
     </row>
-    <row r="771" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="771" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E771" s="5"/>
     </row>
-    <row r="772" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="772" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E772" s="5"/>
     </row>
-    <row r="773" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="773" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E773" s="5"/>
     </row>
-    <row r="774" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="774" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E774" s="5"/>
     </row>
-    <row r="775" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="775" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E775" s="5"/>
     </row>
-    <row r="776" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="776" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E776" s="5"/>
     </row>
-    <row r="777" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="777" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E777" s="5"/>
     </row>
-    <row r="778" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="778" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E778" s="5"/>
     </row>
-    <row r="779" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="779" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E779" s="5"/>
     </row>
-    <row r="780" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="780" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E780" s="5"/>
     </row>
-    <row r="781" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="781" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E781" s="5"/>
     </row>
-    <row r="782" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="782" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E782" s="5"/>
     </row>
-    <row r="783" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="783" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E783" s="5"/>
     </row>
-    <row r="784" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="784" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E784" s="5"/>
     </row>
-    <row r="785" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="785" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E785" s="5"/>
     </row>
-    <row r="786" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="786" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E786" s="5"/>
     </row>
-    <row r="787" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="787" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E787" s="5"/>
     </row>
-    <row r="788" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="788" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E788" s="5"/>
     </row>
-    <row r="789" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="789" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E789" s="5"/>
     </row>
-    <row r="790" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="790" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E790" s="5"/>
     </row>
-    <row r="791" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="791" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E791" s="5"/>
     </row>
-    <row r="792" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="792" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E792" s="5"/>
     </row>
-    <row r="793" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="793" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E793" s="5"/>
     </row>
-    <row r="794" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="794" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E794" s="5"/>
     </row>
-    <row r="795" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="795" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E795" s="5"/>
     </row>
-    <row r="796" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="796" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E796" s="5"/>
     </row>
-    <row r="797" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="797" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E797" s="5"/>
     </row>
-    <row r="798" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="798" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E798" s="5"/>
     </row>
-    <row r="799" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="799" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E799" s="5"/>
     </row>
-    <row r="800" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="800" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E800" s="5"/>
     </row>
-    <row r="801" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="801" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E801" s="5"/>
     </row>
-    <row r="802" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="802" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E802" s="5"/>
     </row>
-    <row r="803" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="803" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E803" s="5"/>
     </row>
-    <row r="804" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="804" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E804" s="5"/>
     </row>
-    <row r="805" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="805" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E805" s="5"/>
     </row>
-    <row r="806" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="806" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E806" s="5"/>
     </row>
-    <row r="807" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="807" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E807" s="5"/>
     </row>
-    <row r="808" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="808" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E808" s="5"/>
     </row>
-    <row r="809" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="809" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E809" s="5"/>
     </row>
-    <row r="810" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="810" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E810" s="5"/>
     </row>
-    <row r="811" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="811" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E811" s="5"/>
     </row>
-    <row r="812" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="812" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E812" s="5"/>
     </row>
-    <row r="813" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="813" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E813" s="5"/>
     </row>
-    <row r="814" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="814" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E814" s="5"/>
     </row>
-    <row r="815" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="815" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E815" s="5"/>
     </row>
-    <row r="816" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="816" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E816" s="5"/>
     </row>
-    <row r="817" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="817" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E817" s="5"/>
     </row>
-    <row r="818" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="818" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E818" s="5"/>
     </row>
-    <row r="819" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="819" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E819" s="5"/>
     </row>
-    <row r="820" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="820" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E820" s="5"/>
     </row>
-    <row r="821" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="821" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E821" s="5"/>
     </row>
-    <row r="822" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="822" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E822" s="5"/>
     </row>
-    <row r="823" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="823" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E823" s="5"/>
     </row>
-    <row r="824" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="824" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E824" s="5"/>
     </row>
-    <row r="825" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="825" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E825" s="5"/>
     </row>
-    <row r="826" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="826" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E826" s="5"/>
     </row>
-    <row r="827" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="827" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E827" s="5"/>
     </row>
-    <row r="828" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="828" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E828" s="5"/>
     </row>
-    <row r="829" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="829" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E829" s="5"/>
     </row>
-    <row r="830" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="830" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E830" s="5"/>
     </row>
-    <row r="831" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="831" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E831" s="5"/>
     </row>
-    <row r="832" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="832" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E832" s="5"/>
     </row>
-    <row r="833" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="833" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E833" s="5"/>
     </row>
-    <row r="834" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="834" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E834" s="5"/>
     </row>
-    <row r="835" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="835" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E835" s="5"/>
     </row>
-    <row r="836" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="836" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E836" s="5"/>
     </row>
-    <row r="837" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="837" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E837" s="5"/>
     </row>
-    <row r="838" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="838" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E838" s="5"/>
     </row>
-    <row r="839" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="839" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E839" s="5"/>
     </row>
-    <row r="840" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="840" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E840" s="5"/>
     </row>
-    <row r="841" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="841" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E841" s="5"/>
     </row>
-    <row r="842" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="842" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E842" s="5"/>
     </row>
-    <row r="843" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="843" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E843" s="5"/>
     </row>
-    <row r="844" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="844" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E844" s="5"/>
     </row>
-    <row r="845" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="845" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E845" s="5"/>
     </row>
-    <row r="846" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="846" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E846" s="5"/>
     </row>
-    <row r="847" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="847" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E847" s="5"/>
     </row>
-    <row r="848" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="848" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E848" s="5"/>
     </row>
-    <row r="849" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="849" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E849" s="5"/>
     </row>
-    <row r="850" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="850" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E850" s="5"/>
     </row>
-    <row r="851" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="851" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E851" s="5"/>
     </row>
-    <row r="852" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="852" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E852" s="5"/>
     </row>
-    <row r="853" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="853" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E853" s="5"/>
     </row>
-    <row r="854" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="854" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E854" s="5"/>
     </row>
-    <row r="855" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="855" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E855" s="5"/>
     </row>
-    <row r="856" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="856" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E856" s="5"/>
     </row>
-    <row r="857" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="857" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E857" s="5"/>
     </row>
-    <row r="858" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="858" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E858" s="5"/>
     </row>
-    <row r="859" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="859" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E859" s="5"/>
     </row>
-    <row r="860" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="860" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E860" s="5"/>
     </row>
-    <row r="861" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="861" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E861" s="5"/>
     </row>
-    <row r="862" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="862" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E862" s="5"/>
     </row>
-    <row r="863" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="863" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E863" s="5"/>
     </row>
-    <row r="864" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="864" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E864" s="5"/>
     </row>
-    <row r="865" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="865" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E865" s="5"/>
     </row>
-    <row r="866" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="866" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E866" s="5"/>
     </row>
-    <row r="867" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="867" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E867" s="5"/>
     </row>
-    <row r="868" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="868" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E868" s="5"/>
     </row>
-    <row r="869" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="869" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E869" s="5"/>
     </row>
-    <row r="870" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="870" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E870" s="5"/>
     </row>
-    <row r="871" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="871" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E871" s="5"/>
     </row>
-    <row r="872" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="872" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E872" s="5"/>
     </row>
-    <row r="873" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="873" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E873" s="5"/>
     </row>
-    <row r="874" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="874" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E874" s="5"/>
     </row>
-    <row r="875" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="875" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E875" s="5"/>
     </row>
-    <row r="876" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="876" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E876" s="5"/>
     </row>
-    <row r="877" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="877" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E877" s="5"/>
     </row>
-    <row r="878" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="878" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E878" s="5"/>
     </row>
-    <row r="879" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="879" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E879" s="5"/>
     </row>
-    <row r="880" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="880" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E880" s="5"/>
     </row>
-    <row r="881" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="881" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E881" s="5"/>
     </row>
-    <row r="882" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="882" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E882" s="5"/>
     </row>
-    <row r="883" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="883" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E883" s="5"/>
     </row>
-    <row r="884" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="884" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E884" s="5"/>
     </row>
-    <row r="885" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="885" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E885" s="5"/>
     </row>
-    <row r="886" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="886" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E886" s="5"/>
     </row>
-    <row r="887" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="887" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E887" s="5"/>
     </row>
-    <row r="888" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="888" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E888" s="5"/>
     </row>
-    <row r="889" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="889" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E889" s="5"/>
     </row>
-    <row r="890" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="890" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E890" s="5"/>
     </row>
-    <row r="891" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="891" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E891" s="5"/>
     </row>
-    <row r="892" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="892" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E892" s="5"/>
     </row>
-    <row r="893" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="893" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E893" s="5"/>
     </row>
-    <row r="894" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="894" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E894" s="5"/>
     </row>
-    <row r="895" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="895" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E895" s="5"/>
     </row>
-    <row r="896" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="896" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E896" s="5"/>
     </row>
-    <row r="897" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="897" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E897" s="5"/>
     </row>
-    <row r="898" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="898" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E898" s="5"/>
     </row>
-    <row r="899" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="899" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E899" s="5"/>
     </row>
-    <row r="900" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="900" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E900" s="5"/>
     </row>
-    <row r="901" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="901" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E901" s="5"/>
     </row>
-    <row r="902" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="902" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E902" s="5"/>
     </row>
-    <row r="903" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="903" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E903" s="5"/>
     </row>
-    <row r="904" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="904" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E904" s="5"/>
     </row>
-    <row r="905" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="905" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E905" s="5"/>
     </row>
-    <row r="906" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="906" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E906" s="5"/>
     </row>
-    <row r="907" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="907" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E907" s="5"/>
     </row>
-    <row r="908" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="908" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E908" s="5"/>
     </row>
-    <row r="909" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="909" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E909" s="5"/>
     </row>
-    <row r="910" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="910" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E910" s="5"/>
     </row>
-    <row r="911" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="911" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E911" s="5"/>
     </row>
-    <row r="912" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="912" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E912" s="5"/>
     </row>
-    <row r="913" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="913" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E913" s="5"/>
     </row>
-    <row r="914" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="914" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E914" s="5"/>
     </row>
-    <row r="915" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="915" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E915" s="5"/>
     </row>
-    <row r="916" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="916" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E916" s="5"/>
     </row>
-    <row r="917" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="917" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E917" s="5"/>
     </row>
-    <row r="918" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="918" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E918" s="5"/>
     </row>
-    <row r="919" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="919" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E919" s="5"/>
     </row>
-    <row r="920" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="920" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E920" s="5"/>
     </row>
-    <row r="921" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="921" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E921" s="5"/>
     </row>
-    <row r="922" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="922" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E922" s="5"/>
     </row>
-    <row r="923" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="923" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E923" s="5"/>
     </row>
-    <row r="924" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="924" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E924" s="5"/>
     </row>
-    <row r="925" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="925" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E925" s="5"/>
     </row>
-    <row r="926" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="926" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E926" s="5"/>
     </row>
-    <row r="927" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="927" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E927" s="5"/>
     </row>
-    <row r="928" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="928" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E928" s="5"/>
     </row>
-    <row r="929" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="929" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E929" s="5"/>
     </row>
-    <row r="930" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="930" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E930" s="5"/>
     </row>
-    <row r="931" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="931" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E931" s="5"/>
     </row>
-    <row r="932" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="932" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E932" s="5"/>
     </row>
-    <row r="933" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="933" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E933" s="5"/>
     </row>
-    <row r="934" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="934" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E934" s="5"/>
     </row>
-    <row r="935" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="935" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E935" s="5"/>
     </row>
-    <row r="936" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="936" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E936" s="5"/>
     </row>
-    <row r="937" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="937" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E937" s="5"/>
     </row>
-    <row r="938" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="938" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E938" s="5"/>
     </row>
-    <row r="939" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="939" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E939" s="5"/>
     </row>
-    <row r="940" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="940" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E940" s="5"/>
     </row>
-    <row r="941" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="941" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E941" s="5"/>
     </row>
-    <row r="942" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="942" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E942" s="5"/>
     </row>
-    <row r="943" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="943" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E943" s="5"/>
     </row>
-    <row r="944" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="944" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E944" s="5"/>
     </row>
-    <row r="945" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="945" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E945" s="5"/>
     </row>
-    <row r="946" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="946" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E946" s="5"/>
     </row>
-    <row r="947" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="947" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E947" s="5"/>
     </row>
-    <row r="948" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="948" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E948" s="5"/>
     </row>
-    <row r="949" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="949" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E949" s="5"/>
     </row>
-    <row r="950" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="950" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E950" s="5"/>
     </row>
-    <row r="951" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="951" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E951" s="5"/>
     </row>
-    <row r="952" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="952" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E952" s="5"/>
     </row>
-    <row r="953" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="953" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E953" s="5"/>
     </row>
-    <row r="954" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="954" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E954" s="5"/>
     </row>
-    <row r="955" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="955" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E955" s="5"/>
     </row>
-    <row r="956" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="956" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E956" s="5"/>
     </row>
-    <row r="957" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="957" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E957" s="5"/>
     </row>
-    <row r="958" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="958" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E958" s="5"/>
     </row>
-    <row r="959" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="959" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E959" s="5"/>
     </row>
-    <row r="960" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="960" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E960" s="5"/>
     </row>
-    <row r="961" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="961" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E961" s="5"/>
     </row>
-    <row r="962" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="962" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E962" s="5"/>
     </row>
-    <row r="963" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="963" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E963" s="5"/>
     </row>
-    <row r="964" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="964" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E964" s="5"/>
     </row>
-    <row r="965" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="965" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E965" s="5"/>
     </row>
-    <row r="966" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="966" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E966" s="5"/>
     </row>
-    <row r="967" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="967" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E967" s="5"/>
     </row>
-    <row r="968" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="968" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E968" s="5"/>
     </row>
-    <row r="969" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="969" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E969" s="5"/>
     </row>
-    <row r="970" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="970" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E970" s="5"/>
     </row>
-    <row r="971" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="971" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E971" s="5"/>
     </row>
-    <row r="972" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="972" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E972" s="5"/>
     </row>
-    <row r="973" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="973" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E973" s="5"/>
     </row>
-    <row r="974" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="974" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E974" s="5"/>
     </row>
-    <row r="975" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="975" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E975" s="5"/>
     </row>
-    <row r="976" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="976" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E976" s="5"/>
     </row>
-    <row r="977" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="977" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E977" s="5"/>
     </row>
-    <row r="978" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="978" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E978" s="5"/>
     </row>
-    <row r="979" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="979" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E979" s="5"/>
     </row>
-    <row r="980" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="980" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E980" s="5"/>
     </row>
-    <row r="981" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="981" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E981" s="5"/>
     </row>
-    <row r="982" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="982" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E982" s="5"/>
     </row>
-    <row r="983" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="983" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E983" s="5"/>
     </row>
-    <row r="984" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="984" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E984" s="5"/>
     </row>
-    <row r="985" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="985" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E985" s="5"/>
     </row>
-    <row r="986" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="986" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E986" s="5"/>
     </row>
-    <row r="987" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="987" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E987" s="5"/>
     </row>
-    <row r="988" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="988" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E988" s="5"/>
     </row>
-    <row r="989" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="989" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E989" s="5"/>
     </row>
-    <row r="990" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="990" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E990" s="5"/>
     </row>
-    <row r="991" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="991" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E991" s="5"/>
     </row>
-    <row r="992" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="992" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E992" s="5"/>
     </row>
-    <row r="993" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="993" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E993" s="5"/>
     </row>
-    <row r="994" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="994" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E994" s="5"/>
     </row>
-    <row r="995" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="995" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E995" s="5"/>
     </row>
-    <row r="996" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="996" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E996" s="5"/>
     </row>
-    <row r="997" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="997" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E997" s="5"/>
     </row>
-    <row r="998" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="998" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E998" s="5"/>
     </row>
-    <row r="999" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="999" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E999" s="5"/>
     </row>
-    <row r="1000" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1000" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1000" s="5"/>
     </row>
-    <row r="1001" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1001" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1001" s="5"/>
     </row>
-    <row r="1002" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1002" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1002" s="5"/>
     </row>
-    <row r="1003" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1003" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1003" s="5"/>
     </row>
-    <row r="1004" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1004" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1004" s="5"/>
     </row>
-    <row r="1005" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1005" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1005" s="5"/>
     </row>
-    <row r="1006" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1006" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1006" s="5"/>
     </row>
-    <row r="1007" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1007" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1007" s="5"/>
     </row>
-    <row r="1008" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1008" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1008" s="5"/>
     </row>
-    <row r="1009" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1009" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1009" s="5"/>
     </row>
-    <row r="1010" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1010" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1010" s="5"/>
     </row>
-    <row r="1011" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1011" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1011" s="5"/>
     </row>
-    <row r="1012" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1012" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1012" s="5"/>
     </row>
-    <row r="1013" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1013" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1013" s="5"/>
     </row>
-    <row r="1014" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1014" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1014" s="5"/>
     </row>
-    <row r="1015" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1015" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1015" s="5"/>
     </row>
-    <row r="1016" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1016" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1016" s="5"/>
     </row>
-    <row r="1017" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1017" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1017" s="5"/>
     </row>
-    <row r="1018" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1018" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1018" s="5"/>
     </row>
-    <row r="1019" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1019" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1019" s="5"/>
     </row>
-    <row r="1020" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1020" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1020" s="5"/>
     </row>
-    <row r="1021" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1021" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1021" s="5"/>
     </row>
-    <row r="1022" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1022" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1022" s="5"/>
     </row>
-    <row r="1023" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1023" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1023" s="5"/>
     </row>
-    <row r="1024" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1024" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1024" s="5"/>
     </row>
-    <row r="1025" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1025" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1025" s="5"/>
     </row>
-    <row r="1026" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1026" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1026" s="5"/>
     </row>
-    <row r="1027" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1027" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1027" s="5"/>
     </row>
-    <row r="1028" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1028" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1028" s="5"/>
     </row>
-    <row r="1029" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1029" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1029" s="5"/>
     </row>
-    <row r="1030" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1030" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1030" s="5"/>
     </row>
-    <row r="1031" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1031" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1031" s="5"/>
     </row>
-    <row r="1032" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1032" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1032" s="5"/>
     </row>
-    <row r="1033" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1033" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1033" s="5"/>
     </row>
-    <row r="1034" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1034" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1034" s="5"/>
     </row>
-    <row r="1035" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1035" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1035" s="5"/>
     </row>
-    <row r="1036" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1036" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1036" s="5"/>
     </row>
-    <row r="1037" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1037" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1037" s="5"/>
     </row>
-    <row r="1038" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1038" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1038" s="5"/>
     </row>
-    <row r="1039" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1039" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1039" s="5"/>
     </row>
-    <row r="1040" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1040" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1040" s="5"/>
     </row>
-    <row r="1041" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1041" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1041" s="5"/>
     </row>
-    <row r="1042" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1042" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1042" s="5"/>
     </row>
-    <row r="1043" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1043" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1043" s="5"/>
     </row>
-    <row r="1044" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1044" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1044" s="5"/>
     </row>
-    <row r="1045" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1045" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1045" s="5"/>
     </row>
-    <row r="1046" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1046" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1046" s="5"/>
     </row>
-    <row r="1047" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1047" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1047" s="5"/>
     </row>
-    <row r="1048" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1048" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1048" s="5"/>
     </row>
-    <row r="1049" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1049" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1049" s="5"/>
     </row>
-    <row r="1050" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1050" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1050" s="5"/>
     </row>
-    <row r="1051" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1051" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1051" s="5"/>
     </row>
-    <row r="1052" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1052" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1052" s="5"/>
     </row>
-    <row r="1053" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1053" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1053" s="5"/>
     </row>
-    <row r="1054" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1054" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1054" s="5"/>
     </row>
-    <row r="1055" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1055" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1055" s="5"/>
     </row>
-    <row r="1056" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1056" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1056" s="5"/>
     </row>
-    <row r="1057" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1057" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1057" s="5"/>
     </row>
-    <row r="1058" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1058" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1058" s="5"/>
     </row>
-    <row r="1059" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1059" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1059" s="5"/>
     </row>
-    <row r="1060" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1060" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1060" s="5"/>
     </row>
-    <row r="1061" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1061" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1061" s="5"/>
     </row>
-    <row r="1062" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1062" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1062" s="5"/>
     </row>
-    <row r="1063" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1063" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1063" s="5"/>
     </row>
-    <row r="1064" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1064" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1064" s="5"/>
     </row>
-    <row r="1065" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1065" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1065" s="5"/>
     </row>
-    <row r="1066" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1066" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1066" s="5"/>
     </row>
-    <row r="1067" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1067" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1067" s="5"/>
     </row>
-    <row r="1068" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1068" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1068" s="5"/>
     </row>
-    <row r="1069" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1069" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1069" s="5"/>
     </row>
-    <row r="1070" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1070" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1070" s="5"/>
     </row>
-    <row r="1071" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1071" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1071" s="5"/>
     </row>
-    <row r="1072" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1072" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1072" s="5"/>
     </row>
-    <row r="1073" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1073" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1073" s="5"/>
     </row>
-    <row r="1074" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1074" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1074" s="5"/>
     </row>
-    <row r="1075" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1075" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1075" s="5"/>
     </row>
-    <row r="1076" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1076" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1076" s="5"/>
     </row>
-    <row r="1077" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1077" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1077" s="5"/>
     </row>
-    <row r="1078" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1078" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1078" s="5"/>
     </row>
-    <row r="1079" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1079" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1079" s="5"/>
     </row>
-    <row r="1080" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1080" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1080" s="5"/>
     </row>
-    <row r="1081" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1081" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1081" s="5"/>
     </row>
-    <row r="1082" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1082" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1082" s="5"/>
     </row>
-    <row r="1083" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1083" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1083" s="5"/>
     </row>
-    <row r="1084" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1084" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1084" s="5"/>
     </row>
-    <row r="1085" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1085" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1085" s="5"/>
     </row>
-    <row r="1086" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1086" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1086" s="5"/>
     </row>
-    <row r="1087" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1087" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1087" s="5"/>
     </row>
-    <row r="1088" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1088" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1088" s="5"/>
     </row>
-    <row r="1089" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1089" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1089" s="5"/>
     </row>
-    <row r="1090" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1090" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1090" s="5"/>
     </row>
-    <row r="1091" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1091" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1091" s="5"/>
     </row>
-    <row r="1092" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1092" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1092" s="5"/>
     </row>
-    <row r="1093" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1093" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1093" s="5"/>
     </row>
-    <row r="1094" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1094" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1094" s="5"/>
     </row>
-    <row r="1095" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1095" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1095" s="5"/>
     </row>
-    <row r="1096" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1096" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1096" s="5"/>
     </row>
-    <row r="1097" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1097" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1097" s="5"/>
     </row>
-    <row r="1098" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1098" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1098" s="5"/>
     </row>
-    <row r="1099" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1099" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1099" s="5"/>
     </row>
-    <row r="1100" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1100" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1100" s="5"/>
     </row>
-    <row r="1101" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1101" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1101" s="5"/>
     </row>
-    <row r="1102" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1102" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1102" s="5"/>
     </row>
-    <row r="1103" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1103" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1103" s="5"/>
     </row>
-    <row r="1104" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1104" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1104" s="5"/>
     </row>
-    <row r="1105" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1105" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1105" s="5"/>
     </row>
-    <row r="1106" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1106" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1106" s="5"/>
     </row>
-    <row r="1107" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1107" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1107" s="5"/>
     </row>
-    <row r="1108" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1108" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1108" s="5"/>
     </row>
-    <row r="1109" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1109" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1109" s="5"/>
     </row>
-    <row r="1110" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1110" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1110" s="5"/>
     </row>
-    <row r="1111" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1111" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1111" s="5"/>
     </row>
-    <row r="1112" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1112" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1112" s="5"/>
     </row>
-    <row r="1113" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1113" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1113" s="5"/>
     </row>
-    <row r="1114" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1114" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1114" s="5"/>
     </row>
-    <row r="1115" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1115" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1115" s="5"/>
     </row>
-    <row r="1116" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1116" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1116" s="5"/>
     </row>
-    <row r="1117" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1117" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1117" s="5"/>
     </row>
-    <row r="1118" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1118" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1118" s="5"/>
     </row>
-    <row r="1119" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1119" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1119" s="5"/>
     </row>
-    <row r="1120" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1120" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1120" s="5"/>
     </row>
-    <row r="1121" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1121" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1121" s="5"/>
     </row>
-    <row r="1122" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1122" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1122" s="5"/>
     </row>
-    <row r="1123" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1123" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1123" s="5"/>
     </row>
-    <row r="1124" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1124" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1124" s="5"/>
     </row>
-    <row r="1125" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1125" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1125" s="5"/>
     </row>
-    <row r="1126" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1126" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1126" s="5"/>
     </row>
-    <row r="1127" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1127" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1127" s="5"/>
     </row>
-    <row r="1128" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1128" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1128" s="5"/>
     </row>
-    <row r="1129" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1129" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1129" s="5"/>
     </row>
-    <row r="1130" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1130" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1130" s="5"/>
     </row>
-    <row r="1131" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1131" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1131" s="5"/>
     </row>
-    <row r="1132" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1132" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1132" s="5"/>
     </row>
-    <row r="1133" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1133" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1133" s="5"/>
     </row>
-    <row r="1134" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1134" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1134" s="5"/>
     </row>
-    <row r="1135" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1135" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1135" s="5"/>
     </row>
-    <row r="1136" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1136" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1136" s="5"/>
     </row>
-    <row r="1137" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1137" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1137" s="5"/>
     </row>
-    <row r="1138" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1138" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1138" s="5"/>
     </row>
-    <row r="1139" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1139" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1139" s="5"/>
     </row>
-    <row r="1140" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1140" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1140" s="5"/>
     </row>
-    <row r="1141" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1141" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1141" s="5"/>
     </row>
-    <row r="1142" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1142" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1142" s="5"/>
     </row>
-    <row r="1143" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1143" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1143" s="5"/>
     </row>
-    <row r="1144" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1144" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1144" s="5"/>
     </row>
-    <row r="1145" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1145" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1145" s="5"/>
     </row>
-    <row r="1146" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1146" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1146" s="5"/>
     </row>
-    <row r="1147" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1147" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1147" s="5"/>
     </row>
-    <row r="1148" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1148" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1148" s="5"/>
     </row>
-    <row r="1149" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1149" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1149" s="5"/>
     </row>
-    <row r="1150" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1150" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1150" s="5"/>
     </row>
-    <row r="1151" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1151" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1151" s="5"/>
     </row>
-    <row r="1152" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1152" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1152" s="5"/>
     </row>
-    <row r="1153" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1153" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1153" s="5"/>
     </row>
-    <row r="1154" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1154" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1154" s="5"/>
     </row>
-    <row r="1155" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1155" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1155" s="5"/>
     </row>
-    <row r="1156" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1156" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1156" s="5"/>
     </row>
-    <row r="1157" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1157" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1157" s="5"/>
     </row>
-    <row r="1158" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1158" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1158" s="5"/>
     </row>
-    <row r="1159" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1159" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1159" s="5"/>
     </row>
-    <row r="1160" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1160" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1160" s="5"/>
     </row>
-    <row r="1161" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1161" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1161" s="5"/>
     </row>
-    <row r="1162" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1162" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1162" s="5"/>
     </row>
-    <row r="1163" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1163" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1163" s="5"/>
     </row>
-    <row r="1164" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1164" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1164" s="5"/>
     </row>
-    <row r="1165" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1165" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1165" s="5"/>
     </row>
-    <row r="1166" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1166" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1166" s="5"/>
     </row>
-    <row r="1167" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1167" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1167" s="5"/>
     </row>
-    <row r="1168" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1168" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1168" s="5"/>
     </row>
-    <row r="1169" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1169" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1169" s="5"/>
     </row>
-    <row r="1170" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1170" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1170" s="5"/>
     </row>
-    <row r="1171" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1171" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1171" s="5"/>
     </row>
-    <row r="1172" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1172" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1172" s="5"/>
     </row>
-    <row r="1173" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1173" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1173" s="5"/>
     </row>
-    <row r="1174" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1174" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1174" s="5"/>
     </row>
-    <row r="1175" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1175" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1175" s="5"/>
     </row>
-    <row r="1176" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1176" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1176" s="5"/>
     </row>
-    <row r="1177" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1177" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1177" s="5"/>
     </row>
-    <row r="1178" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1178" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1178" s="5"/>
     </row>
-    <row r="1179" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1179" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1179" s="5"/>
     </row>
-    <row r="1180" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1180" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1180" s="5"/>
     </row>
-    <row r="1181" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1181" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1181" s="5"/>
     </row>
-    <row r="1182" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1182" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1182" s="5"/>
     </row>
-    <row r="1183" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1183" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1183" s="5"/>
     </row>
-    <row r="1184" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1184" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1184" s="5"/>
     </row>
-    <row r="1185" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1185" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1185" s="5"/>
     </row>
-    <row r="1186" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1186" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1186" s="5"/>
     </row>
-    <row r="1187" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1187" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1187" s="5"/>
     </row>
-    <row r="1188" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1188" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1188" s="5"/>
     </row>
-    <row r="1189" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1189" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1189" s="5"/>
     </row>
-    <row r="1190" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1190" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1190" s="5"/>
     </row>
-    <row r="1191" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1191" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1191" s="5"/>
     </row>
-    <row r="1192" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1192" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1192" s="5"/>
     </row>
-    <row r="1193" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1193" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1193" s="5"/>
     </row>
-    <row r="1194" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1194" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1194" s="5"/>
     </row>
-    <row r="1195" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1195" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1195" s="5"/>
     </row>
-    <row r="1196" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1196" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1196" s="5"/>
     </row>
-    <row r="1197" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1197" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1197" s="5"/>
     </row>
-    <row r="1198" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1198" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1198" s="5"/>
     </row>
-    <row r="1199" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1199" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1199" s="5"/>
     </row>
-    <row r="1200" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1200" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1200" s="5"/>
     </row>
-    <row r="1201" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1201" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1201" s="5"/>
     </row>
-    <row r="1202" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1202" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1202" s="5"/>
     </row>
-    <row r="1203" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1203" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1203" s="5"/>
     </row>
-    <row r="1204" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1204" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1204" s="5"/>
     </row>
-    <row r="1205" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1205" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1205" s="5"/>
     </row>
-    <row r="1206" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1206" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1206" s="5"/>
     </row>
-    <row r="1207" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1207" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1207" s="5"/>
     </row>
-    <row r="1208" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1208" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1208" s="5"/>
     </row>
-    <row r="1209" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1209" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1209" s="5"/>
     </row>
-    <row r="1210" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1210" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1210" s="5"/>
     </row>
-    <row r="1211" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1211" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1211" s="5"/>
     </row>
-    <row r="1212" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1212" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1212" s="5"/>
     </row>
-    <row r="1213" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1213" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1213" s="5"/>
     </row>
-    <row r="1214" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1214" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1214" s="5"/>
     </row>
-    <row r="1215" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1215" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1215" s="5"/>
     </row>
-    <row r="1216" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1216" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1216" s="5"/>
     </row>
-    <row r="1217" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1217" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1217" s="5"/>
     </row>
-    <row r="1218" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1218" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1218" s="5"/>
     </row>
-    <row r="1219" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1219" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1219" s="5"/>
     </row>
-    <row r="1220" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1220" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1220" s="5"/>
     </row>
-    <row r="1221" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1221" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1221" s="5"/>
     </row>
-    <row r="1222" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1222" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1222" s="5"/>
     </row>
-    <row r="1223" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1223" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1223" s="5"/>
     </row>
-    <row r="1224" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1224" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1224" s="5"/>
     </row>
-    <row r="1225" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1225" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1225" s="5"/>
     </row>
-    <row r="1226" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1226" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1226" s="5"/>
     </row>
-    <row r="1227" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1227" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1227" s="5"/>
     </row>
-    <row r="1228" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1228" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1228" s="5"/>
     </row>
-    <row r="1229" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1229" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1229" s="5"/>
     </row>
-    <row r="1230" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1230" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1230" s="5"/>
     </row>
-    <row r="1231" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1231" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1231" s="5"/>
     </row>
-    <row r="1232" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1232" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1232" s="5"/>
     </row>
-    <row r="1233" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1233" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1233" s="5"/>
     </row>
-    <row r="1234" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1234" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1234" s="5"/>
     </row>
-    <row r="1235" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1235" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1235" s="5"/>
     </row>
-    <row r="1236" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1236" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1236" s="5"/>
     </row>
-    <row r="1237" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1237" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1237" s="5"/>
     </row>
-    <row r="1238" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1238" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1238" s="5"/>
     </row>
-    <row r="1239" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1239" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1239" s="5"/>
     </row>
-    <row r="1240" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1240" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1240" s="5"/>
     </row>
-    <row r="1241" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1241" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1241" s="5"/>
     </row>
-    <row r="1242" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1242" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1242" s="5"/>
     </row>
-    <row r="1243" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1243" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1243" s="5"/>
     </row>
-    <row r="1244" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1244" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1244" s="5"/>
     </row>
-    <row r="1245" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1245" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1245" s="5"/>
     </row>
-    <row r="1246" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1246" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1246" s="5"/>
     </row>
-    <row r="1247" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1247" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1247" s="5"/>
     </row>
-    <row r="1248" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1248" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1248" s="5"/>
     </row>
-    <row r="1249" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1249" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1249" s="5"/>
     </row>
-    <row r="1250" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1250" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1250" s="5"/>
     </row>
-    <row r="1251" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1251" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1251" s="5"/>
     </row>
-    <row r="1252" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1252" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1252" s="5"/>
     </row>
-    <row r="1253" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1253" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1253" s="5"/>
     </row>
-    <row r="1254" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1254" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1254" s="5"/>
     </row>
-    <row r="1255" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1255" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1255" s="5"/>
     </row>
-    <row r="1256" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1256" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1256" s="5"/>
     </row>
-    <row r="1257" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1257" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1257" s="5"/>
     </row>
-    <row r="1258" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1258" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1258" s="5"/>
     </row>
-    <row r="1259" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1259" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1259" s="5"/>
     </row>
-    <row r="1260" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1260" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1260" s="5"/>
     </row>
-    <row r="1261" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1261" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1261" s="5"/>
     </row>
-    <row r="1262" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1262" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1262" s="5"/>
     </row>
-    <row r="1263" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1263" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1263" s="5"/>
     </row>
-    <row r="1264" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1264" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1264" s="5"/>
     </row>
-    <row r="1265" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1265" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1265" s="5"/>
     </row>
-    <row r="1266" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1266" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1266" s="5"/>
     </row>
-    <row r="1267" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1267" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1267" s="5"/>
     </row>
-    <row r="1268" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1268" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1268" s="5"/>
     </row>
-    <row r="1269" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1269" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1269" s="5"/>
     </row>
-    <row r="1270" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1270" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1270" s="5"/>
     </row>
-    <row r="1271" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1271" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1271" s="5"/>
     </row>
-    <row r="1272" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1272" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1272" s="5"/>
     </row>
-    <row r="1273" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1273" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1273" s="5"/>
     </row>
-    <row r="1274" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1274" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1274" s="5"/>
     </row>
-    <row r="1275" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1275" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1275" s="5"/>
     </row>
-    <row r="1276" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1276" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1276" s="5"/>
     </row>
-    <row r="1277" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1277" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1277" s="5"/>
     </row>
-    <row r="1278" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1278" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1278" s="5"/>
     </row>
-    <row r="1279" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1279" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1279" s="5"/>
     </row>
-    <row r="1280" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1280" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1280" s="5"/>
     </row>
-    <row r="1281" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1281" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1281" s="5"/>
     </row>
-    <row r="1282" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1282" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1282" s="5"/>
     </row>
-    <row r="1283" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1283" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1283" s="5"/>
     </row>
-    <row r="1284" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1284" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1284" s="5"/>
     </row>
-    <row r="1285" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1285" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1285" s="5"/>
     </row>
-    <row r="1286" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1286" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1286" s="5"/>
     </row>
-    <row r="1287" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1287" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1287" s="5"/>
     </row>
-    <row r="1288" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1288" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1288" s="5"/>
     </row>
-    <row r="1289" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1289" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1289" s="5"/>
     </row>
-    <row r="1290" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1290" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1290" s="5"/>
     </row>
-    <row r="1291" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1291" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1291" s="5"/>
     </row>
-    <row r="1292" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1292" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1292" s="5"/>
     </row>
-    <row r="1293" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1293" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1293" s="5"/>
     </row>
-    <row r="1294" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1294" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1294" s="5"/>
     </row>
-    <row r="1295" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1295" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1295" s="5"/>
     </row>
-    <row r="1296" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1296" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1296" s="5"/>
     </row>
-    <row r="1297" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1297" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1297" s="5"/>
     </row>
-    <row r="1298" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1298" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1298" s="5"/>
     </row>
-    <row r="1299" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1299" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1299" s="5"/>
     </row>
-    <row r="1300" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1300" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1300" s="5"/>
     </row>
-    <row r="1301" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1301" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1301" s="5"/>
     </row>
-    <row r="1302" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1302" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1302" s="5"/>
     </row>
-    <row r="1303" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1303" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1303" s="5"/>
     </row>
-    <row r="1304" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1304" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1304" s="5"/>
     </row>
-    <row r="1305" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1305" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1305" s="5"/>
     </row>
-    <row r="1306" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1306" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1306" s="5"/>
     </row>
-    <row r="1307" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1307" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1307" s="5"/>
     </row>
-    <row r="1308" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1308" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1308" s="5"/>
     </row>
-    <row r="1309" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1309" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1309" s="5"/>
     </row>
-    <row r="1310" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1310" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1310" s="5"/>
     </row>
-    <row r="1311" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1311" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1311" s="5"/>
     </row>
-    <row r="1312" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1312" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1312" s="5"/>
     </row>
-    <row r="1313" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1313" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1313" s="5"/>
     </row>
-    <row r="1314" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1314" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1314" s="5"/>
     </row>
-    <row r="1315" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1315" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1315" s="5"/>
     </row>
-    <row r="1316" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1316" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1316" s="5"/>
     </row>
-    <row r="1317" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1317" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1317" s="5"/>
     </row>
-    <row r="1318" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1318" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1318" s="5"/>
     </row>
-    <row r="1319" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1319" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1319" s="5"/>
     </row>
-    <row r="1320" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1320" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1320" s="5"/>
     </row>
-    <row r="1321" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1321" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1321" s="5"/>
     </row>
-    <row r="1322" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1322" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1322" s="5"/>
     </row>
-    <row r="1323" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1323" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1323" s="5"/>
     </row>
-    <row r="1324" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1324" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1324" s="5"/>
     </row>
-    <row r="1325" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1325" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1325" s="5"/>
     </row>
-    <row r="1326" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1326" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1326" s="5"/>
     </row>
-    <row r="1327" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1327" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1327" s="5"/>
     </row>
-    <row r="1328" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1328" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1328" s="5"/>
     </row>
-    <row r="1329" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1329" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1329" s="5"/>
     </row>
-    <row r="1330" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1330" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1330" s="5"/>
     </row>
-    <row r="1331" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1331" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1331" s="5"/>
     </row>
-    <row r="1332" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1332" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1332" s="5"/>
     </row>
-    <row r="1333" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1333" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1333" s="5"/>
     </row>
-    <row r="1334" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1334" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1334" s="5"/>
     </row>
-    <row r="1335" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1335" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1335" s="5"/>
     </row>
-    <row r="1336" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1336" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1336" s="5"/>
     </row>
-    <row r="1337" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1337" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1337" s="5"/>
     </row>
-    <row r="1338" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1338" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1338" s="5"/>
     </row>
-    <row r="1339" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1339" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1339" s="5"/>
     </row>
-    <row r="1340" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1340" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1340" s="5"/>
     </row>
-    <row r="1341" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1341" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1341" s="5"/>
     </row>
-    <row r="1342" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1342" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1342" s="5"/>
     </row>
-    <row r="1343" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1343" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1343" s="5"/>
     </row>
-    <row r="1344" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1344" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1344" s="5"/>
     </row>
-    <row r="1345" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1345" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1345" s="5"/>
     </row>
-    <row r="1346" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1346" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1346" s="5"/>
     </row>
-    <row r="1347" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1347" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1347" s="5"/>
     </row>
-    <row r="1348" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1348" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1348" s="5"/>
     </row>
-    <row r="1349" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1349" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1349" s="5"/>
     </row>
-    <row r="1350" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1350" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1350" s="5"/>
     </row>
-    <row r="1351" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1351" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1351" s="5"/>
     </row>
-    <row r="1352" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1352" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1352" s="5"/>
     </row>
-    <row r="1353" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1353" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1353" s="5"/>
     </row>
-    <row r="1354" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1354" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1354" s="5"/>
     </row>
-    <row r="1355" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1355" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1355" s="5"/>
     </row>
-    <row r="1356" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1356" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1356" s="5"/>
     </row>
-    <row r="1357" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1357" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1357" s="5"/>
     </row>
-    <row r="1358" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1358" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1358" s="5"/>
     </row>
-    <row r="1359" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1359" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1359" s="5"/>
     </row>
-    <row r="1360" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1360" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1360" s="5"/>
     </row>
-    <row r="1361" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1361" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1361" s="5"/>
     </row>
-    <row r="1362" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1362" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1362" s="5"/>
     </row>
-    <row r="1363" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1363" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1363" s="5"/>
     </row>
-    <row r="1364" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1364" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1364" s="5"/>
     </row>
-    <row r="1365" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1365" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1365" s="5"/>
     </row>
-    <row r="1366" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1366" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1366" s="5"/>
     </row>
-    <row r="1367" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1367" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1367" s="5"/>
     </row>
-    <row r="1368" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1368" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1368" s="5"/>
     </row>
-    <row r="1369" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1369" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1369" s="5"/>
     </row>
-    <row r="1370" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1370" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1370" s="5"/>
     </row>
-    <row r="1371" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1371" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1371" s="5"/>
     </row>
-    <row r="1372" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1372" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1372" s="5"/>
     </row>
-    <row r="1373" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1373" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1373" s="5"/>
     </row>
-    <row r="1374" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1374" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1374" s="5"/>
     </row>
-    <row r="1375" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1375" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1375" s="5"/>
     </row>
-    <row r="1376" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1376" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1376" s="5"/>
     </row>
-    <row r="1377" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1377" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1377" s="5"/>
     </row>
-    <row r="1378" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1378" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1378" s="5"/>
     </row>
-    <row r="1379" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1379" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1379" s="5"/>
     </row>
-    <row r="1380" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1380" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1380" s="5"/>
     </row>
-    <row r="1381" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1381" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1381" s="5"/>
     </row>
-    <row r="1382" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1382" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1382" s="5"/>
     </row>
-    <row r="1383" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1383" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1383" s="5"/>
     </row>
-    <row r="1384" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1384" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1384" s="5"/>
     </row>
-    <row r="1385" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1385" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1385" s="5"/>
     </row>
-    <row r="1386" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1386" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1386" s="5"/>
     </row>
-    <row r="1387" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1387" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1387" s="5"/>
     </row>
-    <row r="1388" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1388" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1388" s="5"/>
     </row>
-    <row r="1389" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1389" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1389" s="5"/>
     </row>
-    <row r="1390" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1390" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1390" s="5"/>
     </row>
-    <row r="1391" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1391" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1391" s="5"/>
     </row>
-    <row r="1392" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1392" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1392" s="5"/>
     </row>
-    <row r="1393" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1393" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1393" s="5"/>
     </row>
-    <row r="1394" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1394" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1394" s="5"/>
     </row>
-    <row r="1395" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1395" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1395" s="5"/>
     </row>
-    <row r="1396" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1396" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1396" s="5"/>
     </row>
-    <row r="1397" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1397" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1397" s="5"/>
     </row>
-    <row r="1398" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1398" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1398" s="5"/>
     </row>
-    <row r="1399" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1399" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1399" s="5"/>
     </row>
-    <row r="1400" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1400" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1400" s="5"/>
     </row>
-    <row r="1401" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1401" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1401" s="5"/>
     </row>
-    <row r="1402" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1402" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1402" s="5"/>
     </row>
-    <row r="1403" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1403" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1403" s="5"/>
     </row>
-    <row r="1404" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1404" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1404" s="5"/>
     </row>
-    <row r="1405" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1405" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1405" s="5"/>
     </row>
-    <row r="1406" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1406" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1406" s="5"/>
     </row>
-    <row r="1407" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1407" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1407" s="5"/>
     </row>
-    <row r="1408" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1408" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1408" s="5"/>
     </row>
-    <row r="1409" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1409" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1409" s="5"/>
     </row>
-    <row r="1410" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1410" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1410" s="5"/>
     </row>
-    <row r="1411" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1411" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1411" s="5"/>
     </row>
-    <row r="1412" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1412" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1412" s="5"/>
     </row>
-    <row r="1413" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1413" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1413" s="5"/>
     </row>
-    <row r="1414" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1414" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1414" s="5"/>
     </row>
-    <row r="1415" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1415" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1415" s="5"/>
     </row>
-    <row r="1416" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1416" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1416" s="5"/>
     </row>
-    <row r="1417" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1417" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1417" s="5"/>
     </row>
-    <row r="1418" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1418" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1418" s="5"/>
     </row>
-    <row r="1419" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1419" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1419" s="5"/>
     </row>
-    <row r="1420" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1420" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1420" s="5"/>
     </row>
-    <row r="1421" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1421" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1421" s="5"/>
     </row>
-    <row r="1422" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1422" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1422" s="5"/>
     </row>
-    <row r="1423" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1423" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1423" s="5"/>
     </row>
-    <row r="1424" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1424" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1424" s="5"/>
     </row>
-    <row r="1425" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1425" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1425" s="5"/>
     </row>
-    <row r="1426" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1426" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1426" s="5"/>
     </row>
-    <row r="1427" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1427" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1427" s="5"/>
     </row>
-    <row r="1428" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1428" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1428" s="5"/>
     </row>
-    <row r="1429" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1429" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1429" s="5"/>
     </row>
-    <row r="1430" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1430" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1430" s="5"/>
     </row>
-    <row r="1431" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1431" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1431" s="5"/>
     </row>
-    <row r="1432" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1432" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1432" s="5"/>
     </row>
-    <row r="1433" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1433" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1433" s="5"/>
     </row>
-    <row r="1434" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1434" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1434" s="5"/>
     </row>
-    <row r="1435" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1435" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1435" s="5"/>
     </row>
-    <row r="1436" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1436" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1436" s="5"/>
     </row>
-    <row r="1437" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1437" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1437" s="5"/>
     </row>
-    <row r="1438" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1438" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1438" s="5"/>
     </row>
-    <row r="1439" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1439" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1439" s="5"/>
     </row>
-    <row r="1440" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1440" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1440" s="5"/>
     </row>
-    <row r="1441" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1441" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1441" s="5"/>
     </row>
-    <row r="1442" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1442" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1442" s="5"/>
     </row>
-    <row r="1443" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1443" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1443" s="5"/>
     </row>
-    <row r="1444" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1444" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1444" s="5"/>
     </row>
-    <row r="1445" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1445" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1445" s="5"/>
     </row>
-    <row r="1446" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1446" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1446" s="5"/>
     </row>
-    <row r="1447" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1447" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1447" s="5"/>
     </row>
-    <row r="1448" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1448" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1448" s="5"/>
     </row>
-    <row r="1449" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1449" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1449" s="5"/>
     </row>
-    <row r="1450" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1450" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1450" s="5"/>
     </row>
-    <row r="1451" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1451" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1451" s="5"/>
     </row>
-    <row r="1452" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1452" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1452" s="5"/>
     </row>
-    <row r="1453" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1453" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1453" s="5"/>
     </row>
-    <row r="1454" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1454" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1454" s="5"/>
     </row>
-    <row r="1455" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1455" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1455" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A281:A288"/>
-    <mergeCell ref="A164:A217"/>
-    <mergeCell ref="A289:A313"/>
-    <mergeCell ref="A120:A136"/>
-    <mergeCell ref="A137:A140"/>
-    <mergeCell ref="A233:A238"/>
-    <mergeCell ref="A255:A280"/>
-    <mergeCell ref="A218:A221"/>
     <mergeCell ref="A3:A99"/>
     <mergeCell ref="A141:A163"/>
     <mergeCell ref="A442:A475"/>
@@ -14266,6 +14256,14 @@
     <mergeCell ref="A420:A441"/>
     <mergeCell ref="A354:A360"/>
     <mergeCell ref="A326:A333"/>
+    <mergeCell ref="A281:A288"/>
+    <mergeCell ref="A164:A217"/>
+    <mergeCell ref="A289:A313"/>
+    <mergeCell ref="A120:A136"/>
+    <mergeCell ref="A137:A140"/>
+    <mergeCell ref="A233:A238"/>
+    <mergeCell ref="A255:A280"/>
+    <mergeCell ref="A218:A221"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/xcom_perks/compiled_perks.xlsx
+++ b/docs/xcom_perks/compiled_perks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\xcom2_my_tweaks\docs\xcom_perks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD9EC74-80B4-47DB-909A-52FE8FEA3DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804284B8-2594-4E8D-824B-54A1AD119649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19092" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabellenblatt1" sheetId="1" r:id="rId1"/>
@@ -4283,47 +4283,6 @@
     <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="40" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4370,6 +4329,10 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4395,6 +4358,43 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="34" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="34" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="40" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4615,23 +4615,23 @@
   </sheetPr>
   <dimension ref="A1:AA1455"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A389" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C398" sqref="C398"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A378" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B387" sqref="B387"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" style="43" customWidth="1"/>
-    <col min="3" max="3" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.33203125" customWidth="1"/>
-    <col min="5" max="5" width="154.6640625" customWidth="1"/>
-    <col min="6" max="6" width="26.5546875" customWidth="1"/>
-    <col min="7" max="7" width="79.5546875" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="43" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" customWidth="1"/>
+    <col min="5" max="5" width="154.7109375" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" customWidth="1"/>
+    <col min="7" max="7" width="79.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="40" t="s">
         <v>0</v>
@@ -4672,7 +4672,7 @@
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
     </row>
-    <row r="2" spans="1:27" ht="69" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="41" t="s">
         <v>6</v>
@@ -4689,8 +4689,8 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="90"/>
+    <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="65"/>
       <c r="B3" s="42" t="s">
         <v>79</v>
       </c>
@@ -4704,8 +4704,8 @@
       <c r="F3" s="18"/>
       <c r="G3" s="20"/>
     </row>
-    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="90"/>
+    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="65"/>
       <c r="B4" s="42" t="s">
         <v>102</v>
       </c>
@@ -4718,8 +4718,8 @@
       <c r="F4" s="18"/>
       <c r="G4" s="20"/>
     </row>
-    <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="90"/>
+    <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="65"/>
       <c r="B5" s="42" t="s">
         <v>114</v>
       </c>
@@ -4731,8 +4731,8 @@
       </c>
       <c r="G5" s="20"/>
     </row>
-    <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="90"/>
+    <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="65"/>
       <c r="B6" s="42" t="s">
         <v>141</v>
       </c>
@@ -4744,8 +4744,8 @@
       </c>
       <c r="G6" s="20"/>
     </row>
-    <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="90"/>
+    <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="65"/>
       <c r="B7" s="42" t="s">
         <v>156</v>
       </c>
@@ -4757,8 +4757,8 @@
       </c>
       <c r="G7" s="20"/>
     </row>
-    <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="90"/>
+    <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="65"/>
       <c r="B8" s="42" t="s">
         <v>158</v>
       </c>
@@ -4770,8 +4770,8 @@
       </c>
       <c r="G8" s="20"/>
     </row>
-    <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="90"/>
+    <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="65"/>
       <c r="B9" s="42" t="s">
         <v>160</v>
       </c>
@@ -4783,8 +4783,8 @@
       </c>
       <c r="G9" s="20"/>
     </row>
-    <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="90"/>
+    <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="65"/>
       <c r="B10" s="42" t="s">
         <v>177</v>
       </c>
@@ -4796,8 +4796,8 @@
       </c>
       <c r="G10" s="20"/>
     </row>
-    <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="90"/>
+    <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="65"/>
       <c r="B11" s="42" t="s">
         <v>192</v>
       </c>
@@ -4809,8 +4809,8 @@
       </c>
       <c r="G11" s="20"/>
     </row>
-    <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="90"/>
+    <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="65"/>
       <c r="B12" s="42" t="s">
         <v>204</v>
       </c>
@@ -4822,8 +4822,8 @@
       </c>
       <c r="G12" s="20"/>
     </row>
-    <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="90"/>
+    <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="65"/>
       <c r="B13" s="42" t="s">
         <v>210</v>
       </c>
@@ -4837,8 +4837,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="90"/>
+    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="65"/>
       <c r="B14" s="42" t="s">
         <v>213</v>
       </c>
@@ -4849,8 +4849,8 @@
         <v>226</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="90"/>
+    <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="65"/>
       <c r="B15" s="42" t="s">
         <v>219</v>
       </c>
@@ -4861,8 +4861,8 @@
         <v>229</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="90"/>
+    <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="65"/>
       <c r="B16" s="42" t="s">
         <v>230</v>
       </c>
@@ -4873,8 +4873,8 @@
         <v>248</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="90"/>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="65"/>
       <c r="B17" s="42" t="s">
         <v>236</v>
       </c>
@@ -4888,8 +4888,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="90"/>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="65"/>
       <c r="B18" s="42" t="s">
         <v>244</v>
       </c>
@@ -4900,8 +4900,8 @@
         <v>255</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="90"/>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="65"/>
       <c r="B19" s="42" t="s">
         <v>257</v>
       </c>
@@ -4912,8 +4912,8 @@
         <v>295</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="90"/>
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="65"/>
       <c r="B20" s="42" t="s">
         <v>259</v>
       </c>
@@ -4924,8 +4924,8 @@
         <v>296</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="90"/>
+    <row r="21" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="65"/>
       <c r="B21" s="42" t="s">
         <v>277</v>
       </c>
@@ -4936,8 +4936,8 @@
         <v>305</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="90"/>
+    <row r="22" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="65"/>
       <c r="B22" s="42" t="s">
         <v>287</v>
       </c>
@@ -4948,8 +4948,8 @@
         <v>310</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="90"/>
+    <row r="23" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="65"/>
       <c r="B23" s="42" t="s">
         <v>314</v>
       </c>
@@ -4960,8 +4960,8 @@
         <v>330</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="90"/>
+    <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="65"/>
       <c r="B24" s="42" t="s">
         <v>320</v>
       </c>
@@ -4972,8 +4972,8 @@
         <v>333</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="90"/>
+    <row r="25" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="65"/>
       <c r="B25" s="42" t="s">
         <v>326</v>
       </c>
@@ -4984,8 +4984,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="90"/>
+    <row r="26" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="65"/>
       <c r="B26" s="42" t="s">
         <v>341</v>
       </c>
@@ -4996,8 +4996,8 @@
         <v>355</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="90"/>
+    <row r="27" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="65"/>
       <c r="B27" s="42" t="s">
         <v>345</v>
       </c>
@@ -5008,8 +5008,8 @@
         <v>357</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="90"/>
+    <row r="28" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="65"/>
       <c r="B28" s="42" t="s">
         <v>365</v>
       </c>
@@ -5020,8 +5020,8 @@
         <v>379</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="90"/>
+    <row r="29" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="65"/>
       <c r="B29" s="42" t="s">
         <v>385</v>
       </c>
@@ -5032,8 +5032,8 @@
         <v>389</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="90"/>
+    <row r="30" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="65"/>
       <c r="B30" s="35" t="s">
         <v>158</v>
       </c>
@@ -5048,8 +5048,8 @@
         <v>413</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="90"/>
+    <row r="31" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="65"/>
       <c r="B31" s="35" t="s">
         <v>416</v>
       </c>
@@ -5061,8 +5061,8 @@
         <v>418</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="90"/>
+    <row r="32" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="65"/>
       <c r="B32" s="35" t="s">
         <v>419</v>
       </c>
@@ -5077,8 +5077,8 @@
         <v>422</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="90"/>
+    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="65"/>
       <c r="B33" s="35" t="s">
         <v>430</v>
       </c>
@@ -5095,8 +5095,8 @@
         <v>433</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="90"/>
+    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="65"/>
       <c r="B34" s="35" t="s">
         <v>454</v>
       </c>
@@ -5113,8 +5113,8 @@
         <v>457</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="90"/>
+    <row r="35" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="65"/>
       <c r="B35" s="35" t="s">
         <v>458</v>
       </c>
@@ -5129,8 +5129,8 @@
         <v>461</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="90"/>
+    <row r="36" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="65"/>
       <c r="B36" s="35" t="s">
         <v>466</v>
       </c>
@@ -5142,8 +5142,8 @@
         <v>468</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A37" s="90"/>
+    <row r="37" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="65"/>
       <c r="B37" s="42" t="s">
         <v>508</v>
       </c>
@@ -5155,8 +5155,8 @@
         <v>510</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A38" s="90"/>
+    <row r="38" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="65"/>
       <c r="B38" s="42" t="s">
         <v>520</v>
       </c>
@@ -5168,8 +5168,8 @@
         <v>522</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="90"/>
+    <row r="39" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="65"/>
       <c r="B39" s="42" t="s">
         <v>535</v>
       </c>
@@ -5181,8 +5181,8 @@
         <v>537</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="90"/>
+    <row r="40" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="65"/>
       <c r="B40" s="42" t="s">
         <v>543</v>
       </c>
@@ -5194,8 +5194,8 @@
         <v>545</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="90"/>
+    <row r="41" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="65"/>
       <c r="B41" s="42" t="s">
         <v>555</v>
       </c>
@@ -5207,8 +5207,8 @@
         <v>557</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A42" s="90"/>
+    <row r="42" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="65"/>
       <c r="B42" s="42" t="s">
         <v>141</v>
       </c>
@@ -5220,8 +5220,8 @@
         <v>559</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="90"/>
+    <row r="43" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="65"/>
       <c r="B43" s="42" t="s">
         <v>574</v>
       </c>
@@ -5233,8 +5233,8 @@
         <v>576</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="90"/>
+    <row r="44" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="65"/>
       <c r="B44" s="42" t="s">
         <v>591</v>
       </c>
@@ -5246,8 +5246,8 @@
         <v>593</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A45" s="90"/>
+    <row r="45" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="65"/>
       <c r="B45" s="42" t="s">
         <v>594</v>
       </c>
@@ -5262,8 +5262,8 @@
         <v>597</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A46" s="90"/>
+    <row r="46" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="65"/>
       <c r="B46" s="42" t="s">
         <v>598</v>
       </c>
@@ -5275,8 +5275,8 @@
         <v>600</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="90"/>
+    <row r="47" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="65"/>
       <c r="B47" s="42" t="s">
         <v>605</v>
       </c>
@@ -5288,8 +5288,8 @@
         <v>607</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="90"/>
+    <row r="48" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="65"/>
       <c r="B48" s="42" t="s">
         <v>618</v>
       </c>
@@ -5301,8 +5301,8 @@
         <v>620</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A49" s="90"/>
+    <row r="49" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="65"/>
       <c r="B49" s="42" t="s">
         <v>621</v>
       </c>
@@ -5314,8 +5314,8 @@
         <v>623</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A50" s="90"/>
+    <row r="50" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="65"/>
       <c r="B50" s="42" t="s">
         <v>627</v>
       </c>
@@ -5327,8 +5327,8 @@
         <v>629</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="90"/>
+    <row r="51" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="65"/>
       <c r="B51" s="42" t="s">
         <v>637</v>
       </c>
@@ -5340,8 +5340,8 @@
         <v>639</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="90"/>
+    <row r="52" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="65"/>
       <c r="B52" s="42" t="s">
         <v>640</v>
       </c>
@@ -5353,8 +5353,8 @@
         <v>642</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A53" s="90"/>
+    <row r="53" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="65"/>
       <c r="B53" s="42" t="s">
         <v>643</v>
       </c>
@@ -5366,8 +5366,8 @@
         <v>645</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A54" s="90"/>
+    <row r="54" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="65"/>
       <c r="B54" s="42" t="s">
         <v>646</v>
       </c>
@@ -5379,8 +5379,8 @@
         <v>648</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="90"/>
+    <row r="55" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="65"/>
       <c r="B55" s="42" t="s">
         <v>649</v>
       </c>
@@ -5392,8 +5392,8 @@
         <v>651</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="90"/>
+    <row r="56" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="65"/>
       <c r="B56" s="42" t="s">
         <v>652</v>
       </c>
@@ -5405,8 +5405,8 @@
         <v>654</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A57" s="90"/>
+    <row r="57" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A57" s="65"/>
       <c r="B57" s="42" t="s">
         <v>655</v>
       </c>
@@ -5418,8 +5418,8 @@
         <v>657</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A58" s="90"/>
+    <row r="58" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A58" s="65"/>
       <c r="B58" s="42" t="s">
         <v>658</v>
       </c>
@@ -5431,8 +5431,8 @@
         <v>660</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="90"/>
+    <row r="59" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="65"/>
       <c r="B59" s="42" t="s">
         <v>661</v>
       </c>
@@ -5444,8 +5444,8 @@
         <v>663</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="90"/>
+    <row r="60" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="65"/>
       <c r="B60" s="42" t="s">
         <v>275</v>
       </c>
@@ -5457,8 +5457,8 @@
         <v>304</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A61" s="90"/>
+    <row r="61" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A61" s="65"/>
       <c r="B61" s="42" t="s">
         <v>665</v>
       </c>
@@ -5470,8 +5470,8 @@
         <v>667</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A62" s="90"/>
+    <row r="62" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A62" s="65"/>
       <c r="B62" s="42" t="s">
         <v>668</v>
       </c>
@@ -5484,8 +5484,8 @@
       </c>
       <c r="F62" s="31"/>
     </row>
-    <row r="63" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="90"/>
+    <row r="63" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="65"/>
       <c r="B63" s="42" t="s">
         <v>671</v>
       </c>
@@ -5498,8 +5498,8 @@
       </c>
       <c r="F63" s="31"/>
     </row>
-    <row r="64" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="90"/>
+    <row r="64" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="65"/>
       <c r="B64" s="42" t="s">
         <v>686</v>
       </c>
@@ -5511,8 +5511,8 @@
         <v>688</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A65" s="90"/>
+    <row r="65" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A65" s="65"/>
       <c r="B65" s="42" t="s">
         <v>704</v>
       </c>
@@ -5524,8 +5524,8 @@
         <v>706</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A66" s="90"/>
+    <row r="66" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A66" s="65"/>
       <c r="B66" s="42" t="s">
         <v>722</v>
       </c>
@@ -5538,8 +5538,8 @@
       </c>
       <c r="F66" s="31"/>
     </row>
-    <row r="67" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="90"/>
+    <row r="67" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="65"/>
       <c r="B67" s="42" t="s">
         <v>728</v>
       </c>
@@ -5552,8 +5552,8 @@
       </c>
       <c r="F67" s="31"/>
     </row>
-    <row r="68" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="90"/>
+    <row r="68" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="65"/>
       <c r="B68" s="42" t="s">
         <v>734</v>
       </c>
@@ -5565,8 +5565,8 @@
         <v>736</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A69" s="90"/>
+    <row r="69" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A69" s="65"/>
       <c r="B69" s="42" t="s">
         <v>740</v>
       </c>
@@ -5578,8 +5578,8 @@
         <v>742</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A70" s="90"/>
+    <row r="70" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A70" s="65"/>
       <c r="B70" s="42" t="s">
         <v>743</v>
       </c>
@@ -5591,8 +5591,8 @@
         <v>745</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="90"/>
+    <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="65"/>
       <c r="B71" s="42" t="s">
         <v>752</v>
       </c>
@@ -5607,8 +5607,8 @@
         <v>755</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="90"/>
+    <row r="72" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="65"/>
       <c r="B72" s="42" t="s">
         <v>761</v>
       </c>
@@ -5620,8 +5620,8 @@
         <v>763</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A73" s="90"/>
+    <row r="73" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A73" s="65"/>
       <c r="B73" s="42" t="s">
         <v>767</v>
       </c>
@@ -5633,8 +5633,8 @@
         <v>769</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A74" s="90"/>
+    <row r="74" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A74" s="65"/>
       <c r="B74" s="42" t="s">
         <v>779</v>
       </c>
@@ -5646,8 +5646,8 @@
         <v>781</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="90"/>
+    <row r="75" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="65"/>
       <c r="B75" s="42" t="s">
         <v>788</v>
       </c>
@@ -5659,8 +5659,8 @@
         <v>790</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="90"/>
+    <row r="76" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="65"/>
       <c r="B76" s="42" t="s">
         <v>791</v>
       </c>
@@ -5672,8 +5672,8 @@
         <v>793</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A77" s="90"/>
+    <row r="77" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A77" s="65"/>
       <c r="B77" s="31" t="s">
         <v>809</v>
       </c>
@@ -5685,8 +5685,8 @@
         <v>811</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A78" s="90"/>
+    <row r="78" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A78" s="65"/>
       <c r="B78" s="31" t="s">
         <v>827</v>
       </c>
@@ -5698,8 +5698,8 @@
         <v>829</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="90"/>
+    <row r="79" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="65"/>
       <c r="B79" s="31" t="s">
         <v>830</v>
       </c>
@@ -5711,8 +5711,8 @@
         <v>832</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="90"/>
+    <row r="80" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="65"/>
       <c r="B80" s="31" t="s">
         <v>850</v>
       </c>
@@ -5724,8 +5724,8 @@
         <v>852</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A81" s="90"/>
+    <row r="81" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A81" s="65"/>
       <c r="B81" s="31" t="s">
         <v>853</v>
       </c>
@@ -5737,8 +5737,8 @@
         <v>855</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A82" s="90"/>
+    <row r="82" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A82" s="65"/>
       <c r="B82" s="31" t="s">
         <v>871</v>
       </c>
@@ -5750,8 +5750,8 @@
         <v>873</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="90"/>
+    <row r="83" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="65"/>
       <c r="B83" s="39" t="s">
         <v>891</v>
       </c>
@@ -5763,8 +5763,8 @@
         <v>893</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="90"/>
+    <row r="84" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="65"/>
       <c r="B84" s="39" t="s">
         <v>897</v>
       </c>
@@ -5776,8 +5776,8 @@
         <v>899</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A85" s="90"/>
+    <row r="85" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A85" s="65"/>
       <c r="B85" s="31" t="s">
         <v>912</v>
       </c>
@@ -5789,8 +5789,8 @@
         <v>914</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A86" s="90"/>
+    <row r="86" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A86" s="65"/>
       <c r="B86" s="31" t="s">
         <v>915</v>
       </c>
@@ -5802,8 +5802,8 @@
         <v>917</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="90"/>
+    <row r="87" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="65"/>
       <c r="B87" s="31" t="s">
         <v>933</v>
       </c>
@@ -5815,8 +5815,8 @@
         <v>935</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A88" s="90"/>
+    <row r="88" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A88" s="65"/>
       <c r="B88" s="31" t="s">
         <v>936</v>
       </c>
@@ -5828,8 +5828,8 @@
         <v>938</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A89" s="90"/>
+    <row r="89" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A89" s="65"/>
       <c r="B89" s="31" t="s">
         <v>939</v>
       </c>
@@ -5841,8 +5841,8 @@
         <v>941</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="90"/>
+    <row r="90" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="65"/>
       <c r="B90" s="39" t="s">
         <v>948</v>
       </c>
@@ -5854,8 +5854,8 @@
         <v>950</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="90"/>
+    <row r="91" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="65"/>
       <c r="B91" s="39" t="s">
         <v>236</v>
       </c>
@@ -5867,8 +5867,8 @@
         <v>955</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A92" s="90"/>
+    <row r="92" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A92" s="65"/>
       <c r="B92" s="31" t="s">
         <v>999</v>
       </c>
@@ -5880,8 +5880,8 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A93" s="90"/>
+    <row r="93" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A93" s="65"/>
       <c r="B93" s="31" t="s">
         <v>1013</v>
       </c>
@@ -5893,8 +5893,8 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="90"/>
+    <row r="94" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="65"/>
       <c r="B94" s="31" t="s">
         <v>1016</v>
       </c>
@@ -5906,8 +5906,8 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="90"/>
+    <row r="95" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="65"/>
       <c r="B95" s="31" t="s">
         <v>1025</v>
       </c>
@@ -5919,8 +5919,8 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A96" s="90"/>
+    <row r="96" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A96" s="65"/>
       <c r="B96" s="31" t="s">
         <v>1028</v>
       </c>
@@ -5932,8 +5932,8 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A97" s="90"/>
+    <row r="97" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A97" s="65"/>
       <c r="B97" s="31" t="s">
         <v>1040</v>
       </c>
@@ -5945,8 +5945,8 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="90"/>
+    <row r="98" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="65"/>
       <c r="B98" s="31" t="s">
         <v>756</v>
       </c>
@@ -5958,8 +5958,8 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="91"/>
+    <row r="99" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="66"/>
       <c r="B99" s="34" t="s">
         <v>1085</v>
       </c>
@@ -5974,7 +5974,7 @@
       </c>
       <c r="G99" s="21"/>
     </row>
-    <row r="100" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A100" s="58"/>
       <c r="B100" s="35" t="s">
         <v>1129</v>
@@ -5990,7 +5990,7 @@
       </c>
       <c r="G100" s="18"/>
     </row>
-    <row r="101" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="58"/>
       <c r="B101" s="35" t="s">
         <v>1158</v>
@@ -6009,7 +6009,7 @@
       </c>
       <c r="G101" s="18"/>
     </row>
-    <row r="102" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="58"/>
       <c r="B102" s="35" t="s">
         <v>1162</v>
@@ -6026,7 +6026,7 @@
       <c r="F102" s="62"/>
       <c r="G102" s="18"/>
     </row>
-    <row r="103" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="58"/>
       <c r="B103" s="35" t="s">
         <v>1165</v>
@@ -6043,7 +6043,7 @@
       <c r="F103" s="62"/>
       <c r="G103" s="18"/>
     </row>
-    <row r="104" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="58"/>
       <c r="B104" s="35" t="s">
         <v>1168</v>
@@ -6060,7 +6060,7 @@
       <c r="F104" s="62"/>
       <c r="G104" s="18"/>
     </row>
-    <row r="105" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="58"/>
       <c r="B105" s="35" t="s">
         <v>1171</v>
@@ -6077,7 +6077,7 @@
       <c r="F105" s="62"/>
       <c r="G105" s="18"/>
     </row>
-    <row r="106" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="58"/>
       <c r="B106" s="35" t="s">
         <v>1174</v>
@@ -6096,7 +6096,7 @@
       </c>
       <c r="G106" s="18"/>
     </row>
-    <row r="107" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="58"/>
       <c r="B107" s="35" t="s">
         <v>1178</v>
@@ -6115,15 +6115,15 @@
       </c>
       <c r="G107" s="18"/>
     </row>
-    <row r="108" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="58"/>
       <c r="G108" s="18"/>
     </row>
-    <row r="109" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="58"/>
       <c r="G109" s="18"/>
     </row>
-    <row r="110" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="58"/>
       <c r="B110" s="34"/>
       <c r="C110" s="34"/>
@@ -6131,7 +6131,7 @@
       <c r="E110" s="34"/>
       <c r="G110" s="18"/>
     </row>
-    <row r="111" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="58"/>
       <c r="B111" s="34"/>
       <c r="C111" s="34"/>
@@ -6139,8 +6139,8 @@
       <c r="E111" s="34"/>
       <c r="G111" s="18"/>
     </row>
-    <row r="112" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="98" t="s">
+    <row r="112" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="73" t="s">
         <v>37</v>
       </c>
       <c r="B112" s="44" t="s">
@@ -6158,8 +6158,8 @@
       <c r="F112" s="18"/>
       <c r="G112" s="13"/>
     </row>
-    <row r="113" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="98"/>
+    <row r="113" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="73"/>
       <c r="B113" s="45"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
@@ -6167,8 +6167,8 @@
       <c r="F113" s="18"/>
       <c r="G113" s="13"/>
     </row>
-    <row r="114" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="99"/>
+    <row r="114" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="74"/>
       <c r="B114" s="45" t="s">
         <v>41</v>
       </c>
@@ -6182,8 +6182,8 @@
       <c r="F114" s="18"/>
       <c r="G114" s="13"/>
     </row>
-    <row r="115" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="100"/>
+    <row r="115" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="75"/>
       <c r="B115" s="46" t="s">
         <v>44</v>
       </c>
@@ -6199,8 +6199,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="117" t="s">
+    <row r="116" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="94" t="s">
         <v>494</v>
       </c>
       <c r="B116" s="42" t="s">
@@ -6215,8 +6215,8 @@
       <c r="F116" s="18"/>
       <c r="G116" s="13"/>
     </row>
-    <row r="117" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="117"/>
+    <row r="117" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="94"/>
       <c r="B117" s="45"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
@@ -6224,8 +6224,8 @@
       <c r="F117" s="18"/>
       <c r="G117" s="13"/>
     </row>
-    <row r="118" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="118"/>
+    <row r="118" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="95"/>
       <c r="B118" s="45"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
@@ -6233,8 +6233,8 @@
       <c r="F118" s="18"/>
       <c r="G118" s="13"/>
     </row>
-    <row r="119" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="119"/>
+    <row r="119" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="96"/>
       <c r="B119" s="46"/>
       <c r="C119" s="32"/>
       <c r="D119" s="32"/>
@@ -6244,8 +6244,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="14.4" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="74" t="s">
+    <row r="120" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="115" t="s">
         <v>496</v>
       </c>
       <c r="B120" s="42" t="s">
@@ -6260,8 +6260,8 @@
       <c r="F120" s="18"/>
       <c r="G120" s="13"/>
     </row>
-    <row r="121" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A121" s="74"/>
+    <row r="121" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A121" s="115"/>
       <c r="B121" s="42" t="s">
         <v>118</v>
       </c>
@@ -6274,8 +6274,8 @@
       <c r="F121" s="18"/>
       <c r="G121" s="13"/>
     </row>
-    <row r="122" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A122" s="75"/>
+    <row r="122" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A122" s="116"/>
       <c r="B122" s="42" t="s">
         <v>152</v>
       </c>
@@ -6288,8 +6288,8 @@
       <c r="F122" s="18"/>
       <c r="G122" s="13"/>
     </row>
-    <row r="123" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A123" s="76"/>
+    <row r="123" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A123" s="117"/>
       <c r="B123" s="42" t="s">
         <v>234</v>
       </c>
@@ -6302,8 +6302,8 @@
       <c r="F123" s="18"/>
       <c r="G123" s="18"/>
     </row>
-    <row r="124" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A124" s="71"/>
+    <row r="124" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A124" s="112"/>
       <c r="B124" s="42" t="s">
         <v>246</v>
       </c>
@@ -6316,8 +6316,8 @@
       <c r="F124" s="18"/>
       <c r="G124" s="13"/>
     </row>
-    <row r="125" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A125" s="71"/>
+    <row r="125" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A125" s="112"/>
       <c r="B125" s="42" t="s">
         <v>601</v>
       </c>
@@ -6331,8 +6331,8 @@
       <c r="F125" s="18"/>
       <c r="G125" s="13"/>
     </row>
-    <row r="126" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A126" s="71"/>
+    <row r="126" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A126" s="112"/>
       <c r="B126" s="42" t="s">
         <v>794</v>
       </c>
@@ -6348,8 +6348,8 @@
       </c>
       <c r="G126" s="13"/>
     </row>
-    <row r="127" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A127" s="71"/>
+    <row r="127" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A127" s="112"/>
       <c r="B127" s="42" t="s">
         <v>800</v>
       </c>
@@ -6363,8 +6363,8 @@
       <c r="F127" s="18"/>
       <c r="G127" s="13"/>
     </row>
-    <row r="128" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A128" s="71"/>
+    <row r="128" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A128" s="112"/>
       <c r="B128" s="31" t="s">
         <v>856</v>
       </c>
@@ -6378,8 +6378,8 @@
       <c r="F128" s="18"/>
       <c r="G128" s="13"/>
     </row>
-    <row r="129" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A129" s="71"/>
+    <row r="129" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A129" s="112"/>
       <c r="B129" s="39" t="s">
         <v>906</v>
       </c>
@@ -6393,8 +6393,8 @@
       <c r="F129" s="18"/>
       <c r="G129" s="13"/>
     </row>
-    <row r="130" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A130" s="71"/>
+    <row r="130" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A130" s="112"/>
       <c r="B130" s="39" t="s">
         <v>909</v>
       </c>
@@ -6408,8 +6408,8 @@
       <c r="F130" s="18"/>
       <c r="G130" s="13"/>
     </row>
-    <row r="131" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A131" s="71"/>
+    <row r="131" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A131" s="112"/>
       <c r="B131" s="31" t="s">
         <v>930</v>
       </c>
@@ -6423,8 +6423,8 @@
       <c r="F131" s="18"/>
       <c r="G131" s="13"/>
     </row>
-    <row r="132" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A132" s="71"/>
+    <row r="132" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A132" s="112"/>
       <c r="B132" s="31" t="s">
         <v>942</v>
       </c>
@@ -6438,8 +6438,8 @@
       <c r="F132" s="18"/>
       <c r="G132" s="13"/>
     </row>
-    <row r="133" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A133" s="71"/>
+    <row r="133" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A133" s="112"/>
       <c r="B133" s="31" t="s">
         <v>981</v>
       </c>
@@ -6453,8 +6453,8 @@
       <c r="F133" s="18"/>
       <c r="G133" s="13"/>
     </row>
-    <row r="134" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A134" s="71"/>
+    <row r="134" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A134" s="112"/>
       <c r="B134" s="31" t="s">
         <v>918</v>
       </c>
@@ -6468,8 +6468,8 @@
       <c r="F134" s="18"/>
       <c r="G134" s="13"/>
     </row>
-    <row r="135" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A135" s="71"/>
+    <row r="135" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A135" s="112"/>
       <c r="B135" s="39"/>
       <c r="C135" s="39"/>
       <c r="D135" s="39"/>
@@ -6477,13 +6477,13 @@
       <c r="F135" s="18"/>
       <c r="G135" s="13"/>
     </row>
-    <row r="136" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="77"/>
+    <row r="136" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="118"/>
       <c r="F136" s="18"/>
       <c r="G136" s="13"/>
     </row>
-    <row r="137" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="78" t="s">
+    <row r="137" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="119" t="s">
         <v>490</v>
       </c>
       <c r="B137" s="42" t="s">
@@ -6498,8 +6498,8 @@
       <c r="F137" s="18"/>
       <c r="G137" s="13"/>
     </row>
-    <row r="138" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="78"/>
+    <row r="138" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="119"/>
       <c r="B138" s="42" t="s">
         <v>289</v>
       </c>
@@ -6512,8 +6512,8 @@
       <c r="F138" s="18"/>
       <c r="G138" s="13"/>
     </row>
-    <row r="139" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="79"/>
+    <row r="139" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="120"/>
       <c r="B139" s="35" t="s">
         <v>423</v>
       </c>
@@ -6527,8 +6527,8 @@
       <c r="F139" s="18"/>
       <c r="G139" s="13"/>
     </row>
-    <row r="140" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="80"/>
+    <row r="140" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="121"/>
       <c r="B140" s="46"/>
       <c r="C140" s="32"/>
       <c r="D140" s="32"/>
@@ -6538,8 +6538,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="92" t="s">
+    <row r="141" spans="1:7" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="67" t="s">
         <v>96</v>
       </c>
       <c r="B141" s="42" t="s">
@@ -6555,8 +6555,8 @@
       <c r="F141" s="18"/>
       <c r="G141" s="30"/>
     </row>
-    <row r="142" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A142" s="93"/>
+    <row r="142" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A142" s="68"/>
       <c r="B142" s="42" t="s">
         <v>75</v>
       </c>
@@ -6570,8 +6570,8 @@
       <c r="F142" s="18"/>
       <c r="G142" s="23"/>
     </row>
-    <row r="143" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A143" s="93"/>
+    <row r="143" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A143" s="68"/>
       <c r="B143" s="42" t="s">
         <v>263</v>
       </c>
@@ -6584,8 +6584,8 @@
       <c r="F143" s="18"/>
       <c r="G143" s="13"/>
     </row>
-    <row r="144" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A144" s="93"/>
+    <row r="144" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A144" s="68"/>
       <c r="B144" s="42" t="s">
         <v>361</v>
       </c>
@@ -6598,8 +6598,8 @@
       <c r="F144" s="18"/>
       <c r="G144" s="13"/>
     </row>
-    <row r="145" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A145" s="93"/>
+    <row r="145" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A145" s="68"/>
       <c r="B145" s="42" t="s">
         <v>271</v>
       </c>
@@ -6614,8 +6614,8 @@
       </c>
       <c r="G145" s="13"/>
     </row>
-    <row r="146" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A146" s="93"/>
+    <row r="146" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A146" s="68"/>
       <c r="B146" s="42" t="s">
         <v>281</v>
       </c>
@@ -6628,8 +6628,8 @@
       <c r="F146" s="31"/>
       <c r="G146" s="13"/>
     </row>
-    <row r="147" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A147" s="93"/>
+    <row r="147" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A147" s="68"/>
       <c r="B147" s="42" t="s">
         <v>318</v>
       </c>
@@ -6642,8 +6642,8 @@
       <c r="F147" s="31"/>
       <c r="G147" s="13"/>
     </row>
-    <row r="148" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A148" s="93"/>
+    <row r="148" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A148" s="68"/>
       <c r="B148" s="42" t="s">
         <v>351</v>
       </c>
@@ -6656,8 +6656,8 @@
       <c r="F148" s="31"/>
       <c r="G148" s="13"/>
     </row>
-    <row r="149" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A149" s="93"/>
+    <row r="149" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A149" s="68"/>
       <c r="B149" s="42" t="s">
         <v>316</v>
       </c>
@@ -6670,8 +6670,8 @@
       <c r="F149" s="31"/>
       <c r="G149" s="13"/>
     </row>
-    <row r="150" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A150" s="93"/>
+    <row r="150" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A150" s="68"/>
       <c r="B150" s="42" t="s">
         <v>269</v>
       </c>
@@ -6684,8 +6684,8 @@
       <c r="F150" s="31"/>
       <c r="G150" s="13"/>
     </row>
-    <row r="151" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A151" s="93"/>
+    <row r="151" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A151" s="68"/>
       <c r="B151" s="35" t="s">
         <v>480</v>
       </c>
@@ -6701,8 +6701,8 @@
       </c>
       <c r="G151" s="13"/>
     </row>
-    <row r="152" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A152" s="93"/>
+    <row r="152" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A152" s="68"/>
       <c r="B152" s="42" t="s">
         <v>322</v>
       </c>
@@ -6713,8 +6713,8 @@
         <v>334</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A153" s="93"/>
+    <row r="153" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A153" s="68"/>
       <c r="B153" s="42" t="s">
         <v>526</v>
       </c>
@@ -6728,8 +6728,8 @@
       <c r="F153" s="31"/>
       <c r="G153" s="13"/>
     </row>
-    <row r="154" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A154" s="93"/>
+    <row r="154" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A154" s="68"/>
       <c r="B154" s="47" t="s">
         <v>584</v>
       </c>
@@ -6745,8 +6745,8 @@
       </c>
       <c r="G154" s="13"/>
     </row>
-    <row r="155" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A155" s="93"/>
+    <row r="155" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A155" s="68"/>
       <c r="B155" s="42" t="s">
         <v>674</v>
       </c>
@@ -6762,8 +6762,8 @@
       </c>
       <c r="G155" s="13"/>
     </row>
-    <row r="156" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A156" s="93"/>
+    <row r="156" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A156" s="68"/>
       <c r="B156" s="42" t="s">
         <v>764</v>
       </c>
@@ -6777,8 +6777,8 @@
       <c r="F156" s="31"/>
       <c r="G156" s="13"/>
     </row>
-    <row r="157" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A157" s="93"/>
+    <row r="157" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A157" s="68"/>
       <c r="B157" s="31" t="s">
         <v>859</v>
       </c>
@@ -6792,8 +6792,8 @@
       <c r="F157" s="31"/>
       <c r="G157" s="13"/>
     </row>
-    <row r="158" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A158" s="93"/>
+    <row r="158" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A158" s="68"/>
       <c r="B158" s="39" t="s">
         <v>882</v>
       </c>
@@ -6807,8 +6807,8 @@
       <c r="F158" s="31"/>
       <c r="G158" s="13"/>
     </row>
-    <row r="159" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A159" s="93"/>
+    <row r="159" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A159" s="68"/>
       <c r="B159" s="31" t="s">
         <v>921</v>
       </c>
@@ -6822,8 +6822,8 @@
       <c r="F159" s="31"/>
       <c r="G159" s="13"/>
     </row>
-    <row r="160" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A160" s="93"/>
+    <row r="160" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A160" s="68"/>
       <c r="B160" s="31" t="s">
         <v>976</v>
       </c>
@@ -6837,8 +6837,8 @@
       <c r="F160" s="31"/>
       <c r="G160" s="13"/>
     </row>
-    <row r="161" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A161" s="93"/>
+    <row r="161" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A161" s="68"/>
       <c r="B161" s="31" t="s">
         <v>1034</v>
       </c>
@@ -6852,8 +6852,8 @@
       <c r="F161" s="31"/>
       <c r="G161" s="13"/>
     </row>
-    <row r="162" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A162" s="93"/>
+    <row r="162" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A162" s="68"/>
       <c r="B162" s="31"/>
       <c r="C162" s="31"/>
       <c r="D162" s="31"/>
@@ -6861,8 +6861,8 @@
       <c r="F162" s="31"/>
       <c r="G162" s="13"/>
     </row>
-    <row r="163" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="94"/>
+    <row r="163" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="69"/>
       <c r="B163" s="48"/>
       <c r="C163" s="24"/>
       <c r="D163" s="25"/>
@@ -6870,8 +6870,8 @@
       <c r="F163" s="19"/>
       <c r="G163" s="16"/>
     </row>
-    <row r="164" spans="1:7" ht="14.4" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="68" t="s">
+    <row r="164" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="109" t="s">
         <v>444</v>
       </c>
       <c r="B164" s="42" t="s">
@@ -6888,8 +6888,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A165" s="69"/>
+    <row r="165" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A165" s="110"/>
       <c r="B165" s="42" t="s">
         <v>127</v>
       </c>
@@ -6904,8 +6904,8 @@
       </c>
       <c r="G165" s="13"/>
     </row>
-    <row r="166" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A166" s="69"/>
+    <row r="166" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A166" s="110"/>
       <c r="B166" s="42" t="s">
         <v>135</v>
       </c>
@@ -6918,8 +6918,8 @@
       <c r="F166" s="18"/>
       <c r="G166" s="13"/>
     </row>
-    <row r="167" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A167" s="69"/>
+    <row r="167" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A167" s="110"/>
       <c r="B167" s="42" t="s">
         <v>137</v>
       </c>
@@ -6932,8 +6932,8 @@
       <c r="F167" s="18"/>
       <c r="G167" s="13"/>
     </row>
-    <row r="168" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A168" s="69"/>
+    <row r="168" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A168" s="110"/>
       <c r="B168" s="42" t="s">
         <v>162</v>
       </c>
@@ -6945,8 +6945,8 @@
       </c>
       <c r="G168" s="13"/>
     </row>
-    <row r="169" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A169" s="69"/>
+    <row r="169" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A169" s="110"/>
       <c r="B169" s="42" t="s">
         <v>162</v>
       </c>
@@ -6961,8 +6961,8 @@
       </c>
       <c r="G169" s="13"/>
     </row>
-    <row r="170" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A170" s="69"/>
+    <row r="170" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A170" s="110"/>
       <c r="B170" s="42" t="s">
         <v>175</v>
       </c>
@@ -6975,8 +6975,8 @@
       <c r="F170" s="31"/>
       <c r="G170" s="13"/>
     </row>
-    <row r="171" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A171" s="69"/>
+    <row r="171" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A171" s="110"/>
       <c r="B171" s="42" t="s">
         <v>238</v>
       </c>
@@ -6989,8 +6989,8 @@
       <c r="F171" s="31"/>
       <c r="G171" s="13"/>
     </row>
-    <row r="172" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A172" s="69"/>
+    <row r="172" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A172" s="110"/>
       <c r="B172" s="42" t="s">
         <v>242</v>
       </c>
@@ -7005,8 +7005,8 @@
       </c>
       <c r="G172" s="13"/>
     </row>
-    <row r="173" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A173" s="69"/>
+    <row r="173" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A173" s="110"/>
       <c r="B173" s="42" t="s">
         <v>273</v>
       </c>
@@ -7019,8 +7019,8 @@
       <c r="F173" s="31"/>
       <c r="G173" s="13"/>
     </row>
-    <row r="174" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A174" s="69"/>
+    <row r="174" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A174" s="110"/>
       <c r="B174" s="42" t="s">
         <v>338</v>
       </c>
@@ -7035,8 +7035,8 @@
       </c>
       <c r="G174" s="13"/>
     </row>
-    <row r="175" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A175" s="69"/>
+    <row r="175" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A175" s="110"/>
       <c r="B175" s="42" t="s">
         <v>338</v>
       </c>
@@ -7048,8 +7048,8 @@
       </c>
       <c r="G175" s="13"/>
     </row>
-    <row r="176" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A176" s="69"/>
+    <row r="176" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A176" s="110"/>
       <c r="B176" s="35" t="s">
         <v>427</v>
       </c>
@@ -7063,8 +7063,8 @@
       <c r="F176" s="31"/>
       <c r="G176" s="13"/>
     </row>
-    <row r="177" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A177" s="69"/>
+    <row r="177" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A177" s="110"/>
       <c r="B177" s="35" t="s">
         <v>438</v>
       </c>
@@ -7078,8 +7078,8 @@
       <c r="F177" s="31"/>
       <c r="G177" s="13"/>
     </row>
-    <row r="178" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A178" s="69"/>
+    <row r="178" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A178" s="110"/>
       <c r="B178" s="35" t="s">
         <v>472</v>
       </c>
@@ -7095,8 +7095,8 @@
       </c>
       <c r="G178" s="13"/>
     </row>
-    <row r="179" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A179" s="69"/>
+    <row r="179" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A179" s="110"/>
       <c r="B179" s="35" t="s">
         <v>398</v>
       </c>
@@ -7112,8 +7112,8 @@
       </c>
       <c r="G179" s="13"/>
     </row>
-    <row r="180" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A180" s="69"/>
+    <row r="180" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A180" s="110"/>
       <c r="B180" s="35" t="s">
         <v>469</v>
       </c>
@@ -7129,8 +7129,8 @@
       </c>
       <c r="G180" s="13"/>
     </row>
-    <row r="181" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A181" s="69"/>
+    <row r="181" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A181" s="110"/>
       <c r="B181" s="42" t="s">
         <v>285</v>
       </c>
@@ -7143,8 +7143,8 @@
       <c r="F181" s="34"/>
       <c r="G181" s="13"/>
     </row>
-    <row r="182" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A182" s="69"/>
+    <row r="182" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A182" s="110"/>
       <c r="B182" s="42" t="s">
         <v>187</v>
       </c>
@@ -7157,8 +7157,8 @@
       <c r="F182" s="34"/>
       <c r="G182" s="13"/>
     </row>
-    <row r="183" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A183" s="69"/>
+    <row r="183" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A183" s="110"/>
       <c r="B183" s="42" t="s">
         <v>116</v>
       </c>
@@ -7173,8 +7173,8 @@
       </c>
       <c r="G183" s="13"/>
     </row>
-    <row r="184" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A184" s="69"/>
+    <row r="184" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A184" s="110"/>
       <c r="B184" s="42" t="s">
         <v>125</v>
       </c>
@@ -7188,8 +7188,8 @@
       <c r="F184" s="7"/>
       <c r="G184" s="13"/>
     </row>
-    <row r="185" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A185" s="69"/>
+    <row r="185" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A185" s="110"/>
       <c r="B185" s="42" t="s">
         <v>438</v>
       </c>
@@ -7203,8 +7203,8 @@
       <c r="F185" s="7"/>
       <c r="G185" s="13"/>
     </row>
-    <row r="186" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A186" s="69"/>
+    <row r="186" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A186" s="110"/>
       <c r="B186" s="42" t="s">
         <v>710</v>
       </c>
@@ -7218,8 +7218,8 @@
       <c r="F186" s="7"/>
       <c r="G186" s="13"/>
     </row>
-    <row r="187" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A187" s="69"/>
+    <row r="187" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A187" s="110"/>
       <c r="B187" s="42" t="s">
         <v>776</v>
       </c>
@@ -7233,8 +7233,8 @@
       <c r="F187" s="7"/>
       <c r="G187" s="13"/>
     </row>
-    <row r="188" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A188" s="69"/>
+    <row r="188" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A188" s="110"/>
       <c r="B188" s="42" t="s">
         <v>782</v>
       </c>
@@ -7248,8 +7248,8 @@
       <c r="F188" s="7"/>
       <c r="G188" s="13"/>
     </row>
-    <row r="189" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A189" s="69"/>
+    <row r="189" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A189" s="110"/>
       <c r="B189" s="42" t="s">
         <v>785</v>
       </c>
@@ -7263,8 +7263,8 @@
       <c r="F189" s="7"/>
       <c r="G189" s="13"/>
     </row>
-    <row r="190" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A190" s="69"/>
+    <row r="190" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A190" s="110"/>
       <c r="B190" s="31" t="s">
         <v>838</v>
       </c>
@@ -7278,8 +7278,8 @@
       <c r="F190" s="7"/>
       <c r="G190" s="13"/>
     </row>
-    <row r="191" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A191" s="69"/>
+    <row r="191" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A191" s="110"/>
       <c r="B191" s="31" t="s">
         <v>865</v>
       </c>
@@ -7293,8 +7293,8 @@
       <c r="F191" s="7"/>
       <c r="G191" s="13"/>
     </row>
-    <row r="192" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A192" s="69"/>
+    <row r="192" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A192" s="110"/>
       <c r="B192" s="39" t="s">
         <v>879</v>
       </c>
@@ -7308,8 +7308,8 @@
       <c r="F192" s="7"/>
       <c r="G192" s="13"/>
     </row>
-    <row r="193" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A193" s="69"/>
+    <row r="193" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A193" s="110"/>
       <c r="B193" s="39" t="s">
         <v>885</v>
       </c>
@@ -7323,8 +7323,8 @@
       <c r="F193" s="7"/>
       <c r="G193" s="13"/>
     </row>
-    <row r="194" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A194" s="69"/>
+    <row r="194" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A194" s="110"/>
       <c r="B194" s="39" t="s">
         <v>900</v>
       </c>
@@ -7338,8 +7338,8 @@
       <c r="F194" s="7"/>
       <c r="G194" s="13"/>
     </row>
-    <row r="195" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A195" s="70"/>
+    <row r="195" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="111"/>
       <c r="B195" s="39" t="s">
         <v>903</v>
       </c>
@@ -7353,8 +7353,8 @@
       <c r="F195" s="38"/>
       <c r="G195" s="16"/>
     </row>
-    <row r="196" spans="1:7" ht="14.4" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="70"/>
+    <row r="196" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="111"/>
       <c r="B196" s="39" t="s">
         <v>961</v>
       </c>
@@ -7367,8 +7367,8 @@
       </c>
       <c r="G196" s="13"/>
     </row>
-    <row r="197" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A197" s="70"/>
+    <row r="197" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A197" s="111"/>
       <c r="B197" s="39" t="s">
         <v>967</v>
       </c>
@@ -7381,8 +7381,8 @@
       </c>
       <c r="G197" s="13"/>
     </row>
-    <row r="198" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A198" s="70"/>
+    <row r="198" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A198" s="111"/>
       <c r="B198" s="39" t="s">
         <v>970</v>
       </c>
@@ -7395,8 +7395,8 @@
       </c>
       <c r="G198" s="13"/>
     </row>
-    <row r="199" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A199" s="70"/>
+    <row r="199" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A199" s="111"/>
       <c r="B199" s="31" t="s">
         <v>984</v>
       </c>
@@ -7409,8 +7409,8 @@
       </c>
       <c r="G199" s="13"/>
     </row>
-    <row r="200" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A200" s="70"/>
+    <row r="200" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A200" s="111"/>
       <c r="B200" s="31" t="s">
         <v>1002</v>
       </c>
@@ -7423,8 +7423,8 @@
       </c>
       <c r="G200" s="13"/>
     </row>
-    <row r="201" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A201" s="70"/>
+    <row r="201" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A201" s="111"/>
       <c r="B201" s="31" t="s">
         <v>1019</v>
       </c>
@@ -7437,8 +7437,8 @@
       </c>
       <c r="G201" s="13"/>
     </row>
-    <row r="202" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A202" s="70"/>
+    <row r="202" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A202" s="111"/>
       <c r="B202" s="31" t="s">
         <v>1037</v>
       </c>
@@ -7451,8 +7451,8 @@
       </c>
       <c r="G202" s="13"/>
     </row>
-    <row r="203" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A203" s="70"/>
+    <row r="203" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A203" s="111"/>
       <c r="B203" s="34" t="s">
         <v>1048</v>
       </c>
@@ -7470,8 +7470,8 @@
       </c>
       <c r="G203" s="13"/>
     </row>
-    <row r="204" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A204" s="70"/>
+    <row r="204" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A204" s="111"/>
       <c r="B204" s="34" t="s">
         <v>1048</v>
       </c>
@@ -7489,8 +7489,8 @@
       </c>
       <c r="G204" s="13"/>
     </row>
-    <row r="205" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A205" s="70"/>
+    <row r="205" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A205" s="111"/>
       <c r="B205" s="34" t="s">
         <v>1056</v>
       </c>
@@ -7506,8 +7506,8 @@
       <c r="F205" s="34"/>
       <c r="G205" s="13"/>
     </row>
-    <row r="206" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A206" s="70"/>
+    <row r="206" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A206" s="111"/>
       <c r="B206" s="34" t="s">
         <v>1059</v>
       </c>
@@ -7523,8 +7523,8 @@
       <c r="F206" s="34"/>
       <c r="G206" s="13"/>
     </row>
-    <row r="207" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A207" s="70"/>
+    <row r="207" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A207" s="111"/>
       <c r="B207" s="34" t="s">
         <v>1062</v>
       </c>
@@ -7542,8 +7542,8 @@
       </c>
       <c r="G207" s="13"/>
     </row>
-    <row r="208" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A208" s="70"/>
+    <row r="208" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A208" s="111"/>
       <c r="B208" s="34" t="s">
         <v>1066</v>
       </c>
@@ -7561,8 +7561,8 @@
       </c>
       <c r="G208" s="13"/>
     </row>
-    <row r="209" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A209" s="70"/>
+    <row r="209" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A209" s="111"/>
       <c r="B209" s="34" t="s">
         <v>1070</v>
       </c>
@@ -7580,8 +7580,8 @@
       </c>
       <c r="G209" s="13"/>
     </row>
-    <row r="210" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A210" s="70"/>
+    <row r="210" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A210" s="111"/>
       <c r="B210" s="55" t="s">
         <v>1073</v>
       </c>
@@ -7599,8 +7599,8 @@
       </c>
       <c r="G210" s="13"/>
     </row>
-    <row r="211" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A211" s="70"/>
+    <row r="211" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A211" s="111"/>
       <c r="B211" s="34" t="s">
         <v>1094</v>
       </c>
@@ -7618,8 +7618,8 @@
       </c>
       <c r="G211" s="13"/>
     </row>
-    <row r="212" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A212" s="70"/>
+    <row r="212" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A212" s="111"/>
       <c r="B212" s="55" t="s">
         <v>1094</v>
       </c>
@@ -7637,8 +7637,8 @@
       </c>
       <c r="G212" s="13"/>
     </row>
-    <row r="213" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A213" s="70"/>
+    <row r="213" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A213" s="111"/>
       <c r="B213" s="34"/>
       <c r="C213" s="34"/>
       <c r="D213" s="34"/>
@@ -7646,8 +7646,8 @@
       <c r="F213" s="34"/>
       <c r="G213" s="13"/>
     </row>
-    <row r="214" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A214" s="70"/>
+    <row r="214" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A214" s="111"/>
       <c r="B214" s="34"/>
       <c r="C214" s="34"/>
       <c r="D214" s="34"/>
@@ -7655,8 +7655,8 @@
       <c r="F214" s="34"/>
       <c r="G214" s="13"/>
     </row>
-    <row r="215" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A215" s="70"/>
+    <row r="215" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A215" s="111"/>
       <c r="B215" s="34"/>
       <c r="C215" s="34"/>
       <c r="D215" s="34"/>
@@ -7664,8 +7664,8 @@
       <c r="F215" s="34"/>
       <c r="G215" s="13"/>
     </row>
-    <row r="216" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A216" s="70"/>
+    <row r="216" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A216" s="111"/>
       <c r="B216" s="34"/>
       <c r="C216" s="34"/>
       <c r="D216" s="34"/>
@@ -7673,16 +7673,16 @@
       <c r="F216" s="34"/>
       <c r="G216" s="13"/>
     </row>
-    <row r="217" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A217" s="71"/>
+    <row r="217" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A217" s="112"/>
       <c r="B217" s="39"/>
       <c r="C217" s="39"/>
       <c r="D217" s="39"/>
       <c r="E217" s="39"/>
       <c r="G217" s="13"/>
     </row>
-    <row r="218" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="87" t="s">
+    <row r="218" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A218" s="128" t="s">
         <v>759</v>
       </c>
       <c r="B218" s="42" t="s">
@@ -7700,16 +7700,16 @@
       </c>
       <c r="G218" s="13"/>
     </row>
-    <row r="219" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="87"/>
+    <row r="219" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A219" s="128"/>
       <c r="B219" s="42"/>
       <c r="C219" s="31"/>
       <c r="E219" s="31"/>
       <c r="F219" s="18"/>
       <c r="G219" s="13"/>
     </row>
-    <row r="220" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="88"/>
+    <row r="220" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A220" s="129"/>
       <c r="B220" s="35"/>
       <c r="C220" s="35"/>
       <c r="D220" s="35"/>
@@ -7717,8 +7717,8 @@
       <c r="F220" s="18"/>
       <c r="G220" s="13"/>
     </row>
-    <row r="221" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A221" s="89"/>
+    <row r="221" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="130"/>
       <c r="B221" s="46"/>
       <c r="C221" s="32"/>
       <c r="D221" s="32"/>
@@ -7726,8 +7726,8 @@
       <c r="F221" s="19"/>
       <c r="G221" s="16"/>
     </row>
-    <row r="222" spans="1:7" ht="14.4" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="107" t="s">
+    <row r="222" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A222" s="82" t="s">
         <v>407</v>
       </c>
       <c r="B222" s="42" t="s">
@@ -7742,8 +7742,8 @@
       <c r="F222" s="18"/>
       <c r="G222" s="13"/>
     </row>
-    <row r="223" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A223" s="108"/>
+    <row r="223" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A223" s="83"/>
       <c r="B223" s="42" t="s">
         <v>81</v>
       </c>
@@ -7757,8 +7757,8 @@
       <c r="F223" s="18"/>
       <c r="G223" s="13"/>
     </row>
-    <row r="224" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A224" s="108"/>
+    <row r="224" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A224" s="83"/>
       <c r="B224" s="42" t="s">
         <v>73</v>
       </c>
@@ -7774,8 +7774,8 @@
       </c>
       <c r="G224" s="13"/>
     </row>
-    <row r="225" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A225" s="108"/>
+    <row r="225" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A225" s="83"/>
       <c r="B225" s="42" t="s">
         <v>131</v>
       </c>
@@ -7788,8 +7788,8 @@
       <c r="F225" s="7"/>
       <c r="G225" s="13"/>
     </row>
-    <row r="226" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A226" s="108"/>
+    <row r="226" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A226" s="83"/>
       <c r="B226" s="42" t="s">
         <v>549</v>
       </c>
@@ -7803,8 +7803,8 @@
       <c r="F226" s="7"/>
       <c r="G226" s="13"/>
     </row>
-    <row r="227" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A227" s="108"/>
+    <row r="227" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A227" s="83"/>
       <c r="B227" s="42" t="s">
         <v>692</v>
       </c>
@@ -7818,8 +7818,8 @@
       <c r="F227" s="7"/>
       <c r="G227" s="13"/>
     </row>
-    <row r="228" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A228" s="108"/>
+    <row r="228" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A228" s="83"/>
       <c r="B228" s="42" t="s">
         <v>707</v>
       </c>
@@ -7833,8 +7833,8 @@
       <c r="F228" s="7"/>
       <c r="G228" s="13"/>
     </row>
-    <row r="229" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A229" s="108"/>
+    <row r="229" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A229" s="83"/>
       <c r="B229" s="31" t="s">
         <v>812</v>
       </c>
@@ -7848,8 +7848,8 @@
       <c r="F229" s="7"/>
       <c r="G229" s="13"/>
     </row>
-    <row r="230" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A230" s="108"/>
+    <row r="230" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A230" s="83"/>
       <c r="B230" s="42"/>
       <c r="C230" s="31"/>
       <c r="D230" s="31"/>
@@ -7857,8 +7857,8 @@
       <c r="F230" s="7"/>
       <c r="G230" s="13"/>
     </row>
-    <row r="231" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A231" s="108"/>
+    <row r="231" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A231" s="83"/>
       <c r="B231" s="42"/>
       <c r="C231" s="31"/>
       <c r="D231" s="31"/>
@@ -7866,12 +7866,12 @@
       <c r="F231" s="7"/>
       <c r="G231" s="13"/>
     </row>
-    <row r="232" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A232" s="109"/>
+    <row r="232" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="84"/>
       <c r="G232" s="16"/>
     </row>
-    <row r="233" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="81" t="s">
+    <row r="233" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A233" s="122" t="s">
         <v>500</v>
       </c>
       <c r="B233" s="42" t="s">
@@ -7886,8 +7886,8 @@
       <c r="F233" s="18"/>
       <c r="G233" s="13"/>
     </row>
-    <row r="234" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="82"/>
+    <row r="234" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="123"/>
       <c r="B234" s="42"/>
       <c r="C234" s="7"/>
       <c r="D234" s="8"/>
@@ -7895,8 +7895,8 @@
       <c r="F234" s="18"/>
       <c r="G234" s="13"/>
     </row>
-    <row r="235" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="82"/>
+    <row r="235" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="123"/>
       <c r="B235" s="42"/>
       <c r="C235" s="7"/>
       <c r="D235" s="8"/>
@@ -7904,16 +7904,16 @@
       <c r="F235" s="7"/>
       <c r="G235" s="13"/>
     </row>
-    <row r="236" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="82"/>
+    <row r="236" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A236" s="123"/>
       <c r="B236" s="42"/>
       <c r="C236" s="31"/>
       <c r="E236" s="31"/>
       <c r="F236" s="7"/>
       <c r="G236" s="13"/>
     </row>
-    <row r="237" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="82"/>
+    <row r="237" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="123"/>
       <c r="B237" s="42"/>
       <c r="C237" s="7"/>
       <c r="D237" s="8"/>
@@ -7921,12 +7921,12 @@
       <c r="F237" s="7"/>
       <c r="G237" s="13"/>
     </row>
-    <row r="238" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A238" s="83"/>
+    <row r="238" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="124"/>
       <c r="G238" s="16"/>
     </row>
-    <row r="239" spans="1:7" ht="14.4" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="65" t="s">
+    <row r="239" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A239" s="91" t="s">
         <v>493</v>
       </c>
       <c r="B239" s="35" t="s">
@@ -7944,8 +7944,8 @@
       </c>
       <c r="G239" s="13"/>
     </row>
-    <row r="240" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A240" s="66"/>
+    <row r="240" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A240" s="92"/>
       <c r="B240" s="42" t="s">
         <v>179</v>
       </c>
@@ -7958,8 +7958,8 @@
       <c r="F240" s="18"/>
       <c r="G240" s="13"/>
     </row>
-    <row r="241" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A241" s="66"/>
+    <row r="241" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A241" s="92"/>
       <c r="B241" s="42" t="s">
         <v>83</v>
       </c>
@@ -7973,8 +7973,8 @@
       <c r="F241" s="18"/>
       <c r="G241" s="13"/>
     </row>
-    <row r="242" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A242" s="66"/>
+    <row r="242" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A242" s="92"/>
       <c r="B242" s="42" t="s">
         <v>293</v>
       </c>
@@ -7987,8 +7987,8 @@
       <c r="F242" s="18"/>
       <c r="G242" s="13"/>
     </row>
-    <row r="243" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A243" s="66"/>
+    <row r="243" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A243" s="92"/>
       <c r="B243" s="42" t="s">
         <v>563</v>
       </c>
@@ -8004,8 +8004,8 @@
       </c>
       <c r="G243" s="13"/>
     </row>
-    <row r="244" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A244" s="66"/>
+    <row r="244" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A244" s="92"/>
       <c r="B244" s="42" t="s">
         <v>125</v>
       </c>
@@ -8019,8 +8019,8 @@
       <c r="F244" s="18"/>
       <c r="G244" s="13"/>
     </row>
-    <row r="245" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A245" s="66"/>
+    <row r="245" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A245" s="92"/>
       <c r="B245" s="42" t="s">
         <v>552</v>
       </c>
@@ -8034,8 +8034,8 @@
       <c r="F245" s="18"/>
       <c r="G245" s="13"/>
     </row>
-    <row r="246" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A246" s="66"/>
+    <row r="246" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A246" s="92"/>
       <c r="B246" s="42" t="s">
         <v>707</v>
       </c>
@@ -8049,8 +8049,8 @@
       <c r="F246" s="18"/>
       <c r="G246" s="13"/>
     </row>
-    <row r="247" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A247" s="66"/>
+    <row r="247" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A247" s="92"/>
       <c r="B247" s="42" t="s">
         <v>737</v>
       </c>
@@ -8064,8 +8064,8 @@
       <c r="F247" s="18"/>
       <c r="G247" s="13"/>
     </row>
-    <row r="248" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A248" s="66"/>
+    <row r="248" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A248" s="92"/>
       <c r="B248" s="42" t="s">
         <v>746</v>
       </c>
@@ -8079,8 +8079,8 @@
       <c r="F248" s="18"/>
       <c r="G248" s="13"/>
     </row>
-    <row r="249" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A249" s="66"/>
+    <row r="249" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A249" s="92"/>
       <c r="B249" s="31" t="s">
         <v>847</v>
       </c>
@@ -8094,8 +8094,8 @@
       <c r="F249" s="18"/>
       <c r="G249" s="13"/>
     </row>
-    <row r="250" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A250" s="66"/>
+    <row r="250" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A250" s="92"/>
       <c r="B250" s="31" t="s">
         <v>862</v>
       </c>
@@ -8109,8 +8109,8 @@
       <c r="F250" s="18"/>
       <c r="G250" s="13"/>
     </row>
-    <row r="251" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A251" s="66"/>
+    <row r="251" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A251" s="92"/>
       <c r="B251" s="31" t="s">
         <v>987</v>
       </c>
@@ -8124,8 +8124,8 @@
       <c r="F251" s="18"/>
       <c r="G251" s="13"/>
     </row>
-    <row r="252" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A252" s="66"/>
+    <row r="252" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A252" s="92"/>
       <c r="B252" s="31"/>
       <c r="C252" s="31"/>
       <c r="D252" s="31"/>
@@ -8133,8 +8133,8 @@
       <c r="F252" s="18"/>
       <c r="G252" s="13"/>
     </row>
-    <row r="253" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A253" s="66"/>
+    <row r="253" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A253" s="92"/>
       <c r="B253" s="31"/>
       <c r="C253" s="31"/>
       <c r="D253" s="31"/>
@@ -8142,15 +8142,15 @@
       <c r="F253" s="18"/>
       <c r="G253" s="13"/>
     </row>
-    <row r="254" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A254" s="116"/>
+    <row r="254" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="93"/>
       <c r="F254" s="19"/>
       <c r="G254" s="16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="255" spans="1:7" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="84" t="s">
+    <row r="255" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A255" s="125" t="s">
         <v>106</v>
       </c>
       <c r="B255" s="42" t="s">
@@ -8164,8 +8164,8 @@
       </c>
       <c r="G255" s="30"/>
     </row>
-    <row r="256" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A256" s="85"/>
+    <row r="256" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A256" s="126"/>
       <c r="B256" s="42" t="s">
         <v>97</v>
       </c>
@@ -8179,8 +8179,8 @@
       <c r="F256" s="18"/>
       <c r="G256" s="23"/>
     </row>
-    <row r="257" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A257" s="85"/>
+    <row r="257" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A257" s="126"/>
       <c r="B257" s="42" t="s">
         <v>328</v>
       </c>
@@ -8193,8 +8193,8 @@
       <c r="F257" s="18"/>
       <c r="G257" s="13"/>
     </row>
-    <row r="258" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A258" s="85"/>
+    <row r="258" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A258" s="126"/>
       <c r="B258" s="42" t="s">
         <v>373</v>
       </c>
@@ -8207,8 +8207,8 @@
       <c r="F258" s="18"/>
       <c r="G258" s="13"/>
     </row>
-    <row r="259" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A259" s="85"/>
+    <row r="259" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A259" s="126"/>
       <c r="B259" s="35" t="s">
         <v>441</v>
       </c>
@@ -8226,8 +8226,8 @@
       </c>
       <c r="G259" s="13"/>
     </row>
-    <row r="260" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A260" s="85"/>
+    <row r="260" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A260" s="126"/>
       <c r="B260" s="35" t="s">
         <v>425</v>
       </c>
@@ -8245,8 +8245,8 @@
       </c>
       <c r="G260" s="13"/>
     </row>
-    <row r="261" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A261" s="85"/>
+    <row r="261" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A261" s="126"/>
       <c r="B261" s="35" t="s">
         <v>483</v>
       </c>
@@ -8262,8 +8262,8 @@
       </c>
       <c r="G261" s="13"/>
     </row>
-    <row r="262" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A262" s="85"/>
+    <row r="262" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A262" s="126"/>
       <c r="B262" s="35" t="s">
         <v>476</v>
       </c>
@@ -8279,8 +8279,8 @@
       </c>
       <c r="G262" s="13"/>
     </row>
-    <row r="263" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A263" s="85"/>
+    <row r="263" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A263" s="126"/>
       <c r="B263" s="35" t="s">
         <v>414</v>
       </c>
@@ -8298,8 +8298,8 @@
       </c>
       <c r="G263" s="13"/>
     </row>
-    <row r="264" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A264" s="85"/>
+    <row r="264" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A264" s="126"/>
       <c r="B264" s="35" t="s">
         <v>402</v>
       </c>
@@ -8317,8 +8317,8 @@
       </c>
       <c r="G264" s="13"/>
     </row>
-    <row r="265" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A265" s="85"/>
+    <row r="265" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A265" s="126"/>
       <c r="B265" s="35" t="s">
         <v>396</v>
       </c>
@@ -8332,8 +8332,8 @@
       <c r="F265" s="35"/>
       <c r="G265" s="13"/>
     </row>
-    <row r="266" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A266" s="85"/>
+    <row r="266" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A266" s="126"/>
       <c r="B266" s="35" t="s">
         <v>409</v>
       </c>
@@ -8347,8 +8347,8 @@
       <c r="F266" s="35"/>
       <c r="G266" s="13"/>
     </row>
-    <row r="267" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A267" s="85"/>
+    <row r="267" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A267" s="126"/>
       <c r="B267" s="35" t="s">
         <v>445</v>
       </c>
@@ -8366,8 +8366,8 @@
       </c>
       <c r="G267" s="13"/>
     </row>
-    <row r="268" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A268" s="86"/>
+    <row r="268" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A268" s="127"/>
       <c r="B268" s="35" t="s">
         <v>447</v>
       </c>
@@ -8385,8 +8385,8 @@
       </c>
       <c r="G268" s="13"/>
     </row>
-    <row r="269" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A269" s="86"/>
+    <row r="269" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A269" s="127"/>
       <c r="B269" s="42" t="s">
         <v>567</v>
       </c>
@@ -8402,8 +8402,8 @@
       </c>
       <c r="G269" s="18"/>
     </row>
-    <row r="270" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A270" s="86"/>
+    <row r="270" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A270" s="127"/>
       <c r="B270" s="42" t="s">
         <v>679</v>
       </c>
@@ -8419,8 +8419,8 @@
       </c>
       <c r="G270" s="13"/>
     </row>
-    <row r="271" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A271" s="86"/>
+    <row r="271" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A271" s="127"/>
       <c r="B271" s="31" t="s">
         <v>818</v>
       </c>
@@ -8434,8 +8434,8 @@
       <c r="F271" s="34"/>
       <c r="G271" s="13"/>
     </row>
-    <row r="272" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A272" s="86"/>
+    <row r="272" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A272" s="127"/>
       <c r="B272" s="31" t="s">
         <v>824</v>
       </c>
@@ -8449,8 +8449,8 @@
       <c r="F272" s="34"/>
       <c r="G272" s="13"/>
     </row>
-    <row r="273" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A273" s="86"/>
+    <row r="273" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A273" s="127"/>
       <c r="B273" s="31" t="s">
         <v>868</v>
       </c>
@@ -8464,8 +8464,8 @@
       <c r="F273" s="34"/>
       <c r="G273" s="13"/>
     </row>
-    <row r="274" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A274" s="86"/>
+    <row r="274" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A274" s="127"/>
       <c r="B274" s="31" t="s">
         <v>927</v>
       </c>
@@ -8479,8 +8479,8 @@
       <c r="F274" s="34"/>
       <c r="G274" s="13"/>
     </row>
-    <row r="275" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A275" s="86"/>
+    <row r="275" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A275" s="127"/>
       <c r="B275" s="31" t="s">
         <v>993</v>
       </c>
@@ -8494,8 +8494,8 @@
       <c r="F275" s="34"/>
       <c r="G275" s="13"/>
     </row>
-    <row r="276" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A276" s="86"/>
+    <row r="276" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A276" s="127"/>
       <c r="B276" s="31" t="s">
         <v>1043</v>
       </c>
@@ -8509,8 +8509,8 @@
       <c r="F276" s="34"/>
       <c r="G276" s="13"/>
     </row>
-    <row r="277" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A277" s="86"/>
+    <row r="277" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A277" s="127"/>
       <c r="B277" s="31"/>
       <c r="C277" s="31"/>
       <c r="D277" s="31"/>
@@ -8518,8 +8518,8 @@
       <c r="F277" s="34"/>
       <c r="G277" s="13"/>
     </row>
-    <row r="278" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A278" s="86"/>
+    <row r="278" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A278" s="127"/>
       <c r="B278" s="31"/>
       <c r="C278" s="31"/>
       <c r="D278" s="31"/>
@@ -8527,8 +8527,8 @@
       <c r="F278" s="34"/>
       <c r="G278" s="13"/>
     </row>
-    <row r="279" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A279" s="86"/>
+    <row r="279" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A279" s="127"/>
       <c r="B279" s="31"/>
       <c r="C279" s="31"/>
       <c r="D279" s="31"/>
@@ -8536,8 +8536,8 @@
       <c r="F279" s="34"/>
       <c r="G279" s="13"/>
     </row>
-    <row r="280" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A280" s="71"/>
+    <row r="280" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A280" s="112"/>
       <c r="B280" s="35"/>
       <c r="C280" s="34"/>
       <c r="D280" s="4"/>
@@ -8545,8 +8545,8 @@
       <c r="F280" s="34"/>
       <c r="G280" s="13"/>
     </row>
-    <row r="281" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A281" s="65" t="s">
+    <row r="281" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A281" s="91" t="s">
         <v>760</v>
       </c>
       <c r="B281" s="42" t="s">
@@ -8562,16 +8562,16 @@
       <c r="F281" s="31"/>
       <c r="G281" s="13"/>
     </row>
-    <row r="282" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A282" s="66"/>
+    <row r="282" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A282" s="92"/>
       <c r="B282" s="42"/>
       <c r="C282" s="31"/>
       <c r="E282" s="31"/>
       <c r="F282" s="18"/>
       <c r="G282" s="13"/>
     </row>
-    <row r="283" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A283" s="66"/>
+    <row r="283" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A283" s="92"/>
       <c r="B283" s="42"/>
       <c r="C283" s="31"/>
       <c r="D283" s="31"/>
@@ -8579,8 +8579,8 @@
       <c r="F283" s="18"/>
       <c r="G283" s="13"/>
     </row>
-    <row r="284" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A284" s="66"/>
+    <row r="284" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="92"/>
       <c r="B284" s="42"/>
       <c r="C284" s="7"/>
       <c r="D284" s="8"/>
@@ -8588,8 +8588,8 @@
       <c r="F284" s="18"/>
       <c r="G284" s="13"/>
     </row>
-    <row r="285" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A285" s="66"/>
+    <row r="285" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="92"/>
       <c r="B285" s="42"/>
       <c r="C285" s="7"/>
       <c r="D285" s="8"/>
@@ -8597,8 +8597,8 @@
       <c r="F285" s="18"/>
       <c r="G285" s="13"/>
     </row>
-    <row r="286" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A286" s="66"/>
+    <row r="286" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="92"/>
       <c r="B286" s="42"/>
       <c r="C286" s="7"/>
       <c r="D286" s="8"/>
@@ -8606,8 +8606,8 @@
       <c r="F286" s="18"/>
       <c r="G286" s="13"/>
     </row>
-    <row r="287" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A287" s="66"/>
+    <row r="287" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="92"/>
       <c r="B287" s="42"/>
       <c r="C287" s="7"/>
       <c r="D287" s="8"/>
@@ -8615,15 +8615,15 @@
       <c r="F287" s="18"/>
       <c r="G287" s="13"/>
     </row>
-    <row r="288" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A288" s="67"/>
+    <row r="288" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="108"/>
       <c r="F288" s="19"/>
       <c r="G288" s="16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="289" spans="1:7" ht="14.4" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A289" s="72" t="s">
+    <row r="289" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A289" s="113" t="s">
         <v>492</v>
       </c>
       <c r="B289" s="42" t="s">
@@ -8638,8 +8638,8 @@
       <c r="F289" s="17"/>
       <c r="G289" s="12"/>
     </row>
-    <row r="290" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A290" s="73"/>
+    <row r="290" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A290" s="114"/>
       <c r="B290" s="42" t="s">
         <v>187</v>
       </c>
@@ -8652,8 +8652,8 @@
       <c r="F290" s="18"/>
       <c r="G290" s="13"/>
     </row>
-    <row r="291" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A291" s="73"/>
+    <row r="291" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A291" s="114"/>
       <c r="B291" s="42" t="s">
         <v>387</v>
       </c>
@@ -8666,8 +8666,8 @@
       <c r="F291" s="18"/>
       <c r="G291" s="13"/>
     </row>
-    <row r="292" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A292" s="73"/>
+    <row r="292" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A292" s="114"/>
       <c r="B292" s="42" t="s">
         <v>275</v>
       </c>
@@ -8680,8 +8680,8 @@
       <c r="F292" s="18"/>
       <c r="G292" s="13"/>
     </row>
-    <row r="293" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A293" s="73"/>
+    <row r="293" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A293" s="114"/>
       <c r="B293" s="42" t="s">
         <v>367</v>
       </c>
@@ -8694,8 +8694,8 @@
       <c r="F293" s="18"/>
       <c r="G293" s="13"/>
     </row>
-    <row r="294" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A294" s="73"/>
+    <row r="294" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A294" s="114"/>
       <c r="B294" s="42" t="s">
         <v>375</v>
       </c>
@@ -8708,8 +8708,8 @@
       <c r="F294" s="18"/>
       <c r="G294" s="13"/>
     </row>
-    <row r="295" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A295" s="73"/>
+    <row r="295" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A295" s="114"/>
       <c r="B295" s="42" t="s">
         <v>505</v>
       </c>
@@ -8723,8 +8723,8 @@
       <c r="F295" s="18"/>
       <c r="G295" s="13"/>
     </row>
-    <row r="296" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A296" s="73"/>
+    <row r="296" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A296" s="114"/>
       <c r="B296" s="42" t="s">
         <v>529</v>
       </c>
@@ -8738,8 +8738,8 @@
       <c r="F296" s="18"/>
       <c r="G296" s="13"/>
     </row>
-    <row r="297" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A297" s="73"/>
+    <row r="297" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A297" s="114"/>
       <c r="B297" s="42" t="s">
         <v>571</v>
       </c>
@@ -8753,8 +8753,8 @@
       <c r="F297" s="18"/>
       <c r="G297" s="13"/>
     </row>
-    <row r="298" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A298" s="73"/>
+    <row r="298" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A298" s="114"/>
       <c r="B298" s="42" t="s">
         <v>588</v>
       </c>
@@ -8768,8 +8768,8 @@
       <c r="F298" s="18"/>
       <c r="G298" s="13"/>
     </row>
-    <row r="299" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A299" s="73"/>
+    <row r="299" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A299" s="114"/>
       <c r="B299" s="42" t="s">
         <v>624</v>
       </c>
@@ -8783,8 +8783,8 @@
       <c r="F299" s="18"/>
       <c r="G299" s="13"/>
     </row>
-    <row r="300" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A300" s="73"/>
+    <row r="300" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A300" s="114"/>
       <c r="B300" s="42" t="s">
         <v>698</v>
       </c>
@@ -8798,8 +8798,8 @@
       <c r="F300" s="18"/>
       <c r="G300" s="13"/>
     </row>
-    <row r="301" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A301" s="73"/>
+    <row r="301" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A301" s="114"/>
       <c r="B301" s="42" t="s">
         <v>375</v>
       </c>
@@ -8815,8 +8815,8 @@
       </c>
       <c r="G301" s="13"/>
     </row>
-    <row r="302" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A302" s="73"/>
+    <row r="302" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A302" s="114"/>
       <c r="B302" s="42" t="s">
         <v>731</v>
       </c>
@@ -8830,8 +8830,8 @@
       <c r="F302" s="31"/>
       <c r="G302" s="13"/>
     </row>
-    <row r="303" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A303" s="73"/>
+    <row r="303" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A303" s="114"/>
       <c r="B303" s="42" t="s">
         <v>806</v>
       </c>
@@ -8845,8 +8845,8 @@
       <c r="F303" s="31"/>
       <c r="G303" s="13"/>
     </row>
-    <row r="304" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A304" s="73"/>
+    <row r="304" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A304" s="114"/>
       <c r="B304" s="42" t="s">
         <v>797</v>
       </c>
@@ -8860,8 +8860,8 @@
       <c r="F304" s="31"/>
       <c r="G304" s="13"/>
     </row>
-    <row r="305" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A305" s="73"/>
+    <row r="305" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A305" s="114"/>
       <c r="B305" s="31" t="s">
         <v>835</v>
       </c>
@@ -8875,8 +8875,8 @@
       <c r="F305" s="31"/>
       <c r="G305" s="13"/>
     </row>
-    <row r="306" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A306" s="73"/>
+    <row r="306" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A306" s="114"/>
       <c r="B306" s="31" t="s">
         <v>844</v>
       </c>
@@ -8890,8 +8890,8 @@
       <c r="F306" s="31"/>
       <c r="G306" s="13"/>
     </row>
-    <row r="307" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A307" s="73"/>
+    <row r="307" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A307" s="114"/>
       <c r="B307" s="39" t="s">
         <v>894</v>
       </c>
@@ -8905,8 +8905,8 @@
       <c r="F307" s="31"/>
       <c r="G307" s="13"/>
     </row>
-    <row r="308" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A308" s="73"/>
+    <row r="308" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="114"/>
       <c r="B308" s="39" t="s">
         <v>973</v>
       </c>
@@ -8920,8 +8920,8 @@
       <c r="F308" s="19"/>
       <c r="G308" s="16"/>
     </row>
-    <row r="309" spans="1:7" ht="14.4" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A309" s="71"/>
+    <row r="309" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A309" s="112"/>
       <c r="B309" s="31" t="s">
         <v>990</v>
       </c>
@@ -8935,8 +8935,8 @@
       <c r="F309" s="18"/>
       <c r="G309" s="13"/>
     </row>
-    <row r="310" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A310" s="71"/>
+    <row r="310" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A310" s="112"/>
       <c r="B310" s="39"/>
       <c r="C310" s="39"/>
       <c r="D310" s="39"/>
@@ -8944,8 +8944,8 @@
       <c r="F310" s="18"/>
       <c r="G310" s="13"/>
     </row>
-    <row r="311" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A311" s="71"/>
+    <row r="311" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A311" s="112"/>
       <c r="B311" s="39"/>
       <c r="C311" s="39"/>
       <c r="D311" s="39"/>
@@ -8953,8 +8953,8 @@
       <c r="F311" s="18"/>
       <c r="G311" s="13"/>
     </row>
-    <row r="312" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A312" s="71"/>
+    <row r="312" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A312" s="112"/>
       <c r="B312" s="39"/>
       <c r="C312" s="39"/>
       <c r="D312" s="39"/>
@@ -8962,8 +8962,8 @@
       <c r="F312" s="18"/>
       <c r="G312" s="13"/>
     </row>
-    <row r="313" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A313" s="71"/>
+    <row r="313" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="112"/>
       <c r="B313" s="39"/>
       <c r="C313" s="39"/>
       <c r="D313" s="39"/>
@@ -8971,8 +8971,8 @@
       <c r="F313" s="18"/>
       <c r="G313" s="13"/>
     </row>
-    <row r="314" spans="1:7" ht="14.4" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A314" s="120" t="s">
+    <row r="314" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A314" s="97" t="s">
         <v>495</v>
       </c>
       <c r="B314" s="42" t="s">
@@ -8987,8 +8987,8 @@
       <c r="F314" s="17"/>
       <c r="G314" s="12"/>
     </row>
-    <row r="315" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A315" s="121"/>
+    <row r="315" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A315" s="98"/>
       <c r="B315" s="42" t="s">
         <v>240</v>
       </c>
@@ -9001,8 +9001,8 @@
       <c r="F315" s="18"/>
       <c r="G315" s="13"/>
     </row>
-    <row r="316" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A316" s="121"/>
+    <row r="316" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A316" s="98"/>
       <c r="B316" s="42" t="s">
         <v>803</v>
       </c>
@@ -9016,8 +9016,8 @@
       <c r="F316" s="18"/>
       <c r="G316" s="13"/>
     </row>
-    <row r="317" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A317" s="121"/>
+    <row r="317" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A317" s="98"/>
       <c r="B317" s="31" t="s">
         <v>815</v>
       </c>
@@ -9031,8 +9031,8 @@
       <c r="F317" s="18"/>
       <c r="G317" s="13"/>
     </row>
-    <row r="318" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A318" s="121"/>
+    <row r="318" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A318" s="98"/>
       <c r="B318" s="39" t="s">
         <v>894</v>
       </c>
@@ -9046,8 +9046,8 @@
       <c r="F318" s="18"/>
       <c r="G318" s="13"/>
     </row>
-    <row r="319" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A319" s="121"/>
+    <row r="319" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A319" s="98"/>
       <c r="B319" s="35" t="s">
         <v>1139</v>
       </c>
@@ -9065,8 +9065,8 @@
       </c>
       <c r="G319" s="13"/>
     </row>
-    <row r="320" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A320" s="121"/>
+    <row r="320" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A320" s="98"/>
       <c r="B320" s="35" t="s">
         <v>1143</v>
       </c>
@@ -9084,8 +9084,8 @@
       </c>
       <c r="G320" s="13"/>
     </row>
-    <row r="321" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A321" s="121"/>
+    <row r="321" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A321" s="98"/>
       <c r="B321" s="35" t="s">
         <v>1146</v>
       </c>
@@ -9103,8 +9103,8 @@
       </c>
       <c r="G321" s="13"/>
     </row>
-    <row r="322" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A322" s="121"/>
+    <row r="322" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A322" s="98"/>
       <c r="B322" s="35" t="s">
         <v>141</v>
       </c>
@@ -9122,8 +9122,8 @@
       </c>
       <c r="G322" s="13"/>
     </row>
-    <row r="323" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A323" s="121"/>
+    <row r="323" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A323" s="98"/>
       <c r="B323" s="35" t="s">
         <v>1152</v>
       </c>
@@ -9141,8 +9141,8 @@
       </c>
       <c r="G323" s="13"/>
     </row>
-    <row r="324" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A324" s="121"/>
+    <row r="324" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A324" s="98"/>
       <c r="B324" s="35" t="s">
         <v>1155</v>
       </c>
@@ -9160,12 +9160,12 @@
       </c>
       <c r="G324" s="13"/>
     </row>
-    <row r="325" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A325" s="121"/>
+    <row r="325" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A325" s="98"/>
       <c r="G325" s="16"/>
     </row>
-    <row r="326" spans="1:7" ht="14.4" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A326" s="65" t="s">
+    <row r="326" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A326" s="91" t="s">
         <v>499</v>
       </c>
       <c r="B326" s="42" t="s">
@@ -9182,8 +9182,8 @@
       </c>
       <c r="G326" s="13"/>
     </row>
-    <row r="327" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A327" s="66"/>
+    <row r="327" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A327" s="92"/>
       <c r="B327" s="42" t="s">
         <v>189</v>
       </c>
@@ -9196,8 +9196,8 @@
       <c r="F327" s="18"/>
       <c r="G327" s="13"/>
     </row>
-    <row r="328" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A328" s="66"/>
+    <row r="328" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A328" s="92"/>
       <c r="B328" s="42" t="s">
         <v>725</v>
       </c>
@@ -9211,8 +9211,8 @@
       <c r="F328" s="18"/>
       <c r="G328" s="13"/>
     </row>
-    <row r="329" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A329" s="66"/>
+    <row r="329" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A329" s="92"/>
       <c r="B329" s="42" t="s">
         <v>776</v>
       </c>
@@ -9226,8 +9226,8 @@
       <c r="F329" s="18"/>
       <c r="G329" s="13"/>
     </row>
-    <row r="330" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A330" s="66"/>
+    <row r="330" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A330" s="92"/>
       <c r="B330" s="42"/>
       <c r="C330" s="7"/>
       <c r="D330" s="8"/>
@@ -9235,8 +9235,8 @@
       <c r="F330" s="18"/>
       <c r="G330" s="13"/>
     </row>
-    <row r="331" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A331" s="66"/>
+    <row r="331" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A331" s="92"/>
       <c r="B331" s="42"/>
       <c r="C331" s="7"/>
       <c r="D331" s="8"/>
@@ -9244,8 +9244,8 @@
       <c r="F331" s="18"/>
       <c r="G331" s="13"/>
     </row>
-    <row r="332" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A332" s="66"/>
+    <row r="332" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A332" s="92"/>
       <c r="B332" s="42"/>
       <c r="C332" s="7"/>
       <c r="D332" s="8"/>
@@ -9253,15 +9253,15 @@
       <c r="F332" s="18"/>
       <c r="G332" s="13"/>
     </row>
-    <row r="333" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A333" s="67"/>
+    <row r="333" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A333" s="108"/>
       <c r="F333" s="19"/>
       <c r="G333" s="16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="334" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A334" s="101" t="s">
+    <row r="334" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A334" s="76" t="s">
         <v>47</v>
       </c>
       <c r="B334" s="49" t="s">
@@ -9279,8 +9279,8 @@
       <c r="F334" s="17"/>
       <c r="G334" s="12"/>
     </row>
-    <row r="335" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A335" s="102"/>
+    <row r="335" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A335" s="77"/>
       <c r="B335" s="45" t="s">
         <v>51</v>
       </c>
@@ -9296,8 +9296,8 @@
       <c r="F335" s="18"/>
       <c r="G335" s="13"/>
     </row>
-    <row r="336" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A336" s="102"/>
+    <row r="336" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A336" s="77"/>
       <c r="B336" s="45" t="s">
         <v>54</v>
       </c>
@@ -9311,8 +9311,8 @@
       <c r="F336" s="18"/>
       <c r="G336" s="13"/>
     </row>
-    <row r="337" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A337" s="102"/>
+    <row r="337" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A337" s="77"/>
       <c r="B337" s="45" t="s">
         <v>57</v>
       </c>
@@ -9330,8 +9330,8 @@
       </c>
       <c r="G337" s="13"/>
     </row>
-    <row r="338" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A338" s="102"/>
+    <row r="338" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A338" s="77"/>
       <c r="B338" s="45" t="s">
         <v>61</v>
       </c>
@@ -9347,8 +9347,8 @@
       <c r="F338" s="18"/>
       <c r="G338" s="13"/>
     </row>
-    <row r="339" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A339" s="102"/>
+    <row r="339" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A339" s="77"/>
       <c r="B339" s="45" t="s">
         <v>64</v>
       </c>
@@ -9366,8 +9366,8 @@
       </c>
       <c r="G339" s="13"/>
     </row>
-    <row r="340" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A340" s="102"/>
+    <row r="340" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A340" s="77"/>
       <c r="B340" s="45" t="s">
         <v>67</v>
       </c>
@@ -9385,8 +9385,8 @@
       </c>
       <c r="G340" s="13"/>
     </row>
-    <row r="341" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A341" s="102"/>
+    <row r="341" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A341" s="77"/>
       <c r="B341" s="42" t="s">
         <v>51</v>
       </c>
@@ -9399,8 +9399,8 @@
       <c r="F341" s="18"/>
       <c r="G341" s="13"/>
     </row>
-    <row r="342" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A342" s="102"/>
+    <row r="342" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A342" s="77"/>
       <c r="B342" s="45"/>
       <c r="C342" s="4"/>
       <c r="D342" s="4"/>
@@ -9408,8 +9408,8 @@
       <c r="F342" s="18"/>
       <c r="G342" s="13"/>
     </row>
-    <row r="343" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A343" s="102"/>
+    <row r="343" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A343" s="77"/>
       <c r="B343" s="45"/>
       <c r="C343" s="4"/>
       <c r="D343" s="4"/>
@@ -9417,8 +9417,8 @@
       <c r="F343" s="18"/>
       <c r="G343" s="13"/>
     </row>
-    <row r="344" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A344" s="103"/>
+    <row r="344" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A344" s="78"/>
       <c r="B344" s="50"/>
       <c r="C344" s="14"/>
       <c r="D344" s="14"/>
@@ -9426,8 +9426,8 @@
       <c r="F344" s="19"/>
       <c r="G344" s="16"/>
     </row>
-    <row r="345" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A345" s="110" t="s">
+    <row r="345" spans="1:7" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A345" s="85" t="s">
         <v>408</v>
       </c>
       <c r="B345" s="42" t="s">
@@ -9443,8 +9443,8 @@
       <c r="F345" s="17"/>
       <c r="G345" s="12"/>
     </row>
-    <row r="346" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A346" s="111"/>
+    <row r="346" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A346" s="86"/>
       <c r="B346" s="42" t="s">
         <v>135</v>
       </c>
@@ -9457,8 +9457,8 @@
       <c r="F346" s="18"/>
       <c r="G346" s="13"/>
     </row>
-    <row r="347" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A347" s="111"/>
+    <row r="347" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A347" s="86"/>
       <c r="B347" s="42" t="s">
         <v>324</v>
       </c>
@@ -9471,8 +9471,8 @@
       <c r="F347" s="18"/>
       <c r="G347" s="13"/>
     </row>
-    <row r="348" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A348" s="111"/>
+    <row r="348" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A348" s="86"/>
       <c r="B348" s="31" t="s">
         <v>996</v>
       </c>
@@ -9486,8 +9486,8 @@
       <c r="F348" s="18"/>
       <c r="G348" s="13"/>
     </row>
-    <row r="349" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A349" s="111"/>
+    <row r="349" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A349" s="86"/>
       <c r="B349" s="31" t="s">
         <v>1022</v>
       </c>
@@ -9501,8 +9501,8 @@
       <c r="F349" s="18"/>
       <c r="G349" s="13"/>
     </row>
-    <row r="350" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A350" s="111"/>
+    <row r="350" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A350" s="86"/>
       <c r="B350" s="31" t="s">
         <v>1031</v>
       </c>
@@ -9516,8 +9516,8 @@
       <c r="F350" s="18"/>
       <c r="G350" s="13"/>
     </row>
-    <row r="351" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A351" s="111"/>
+    <row r="351" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A351" s="86"/>
       <c r="B351" s="31"/>
       <c r="C351" s="31"/>
       <c r="D351" s="31"/>
@@ -9525,8 +9525,8 @@
       <c r="F351" s="18"/>
       <c r="G351" s="13"/>
     </row>
-    <row r="352" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A352" s="111"/>
+    <row r="352" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A352" s="86"/>
       <c r="B352" s="31"/>
       <c r="C352" s="31"/>
       <c r="D352" s="31"/>
@@ -9534,8 +9534,8 @@
       <c r="F352" s="18"/>
       <c r="G352" s="13"/>
     </row>
-    <row r="353" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A353" s="112"/>
+    <row r="353" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A353" s="87"/>
       <c r="B353" s="50"/>
       <c r="C353" s="14"/>
       <c r="D353" s="14"/>
@@ -9543,8 +9543,8 @@
       <c r="F353" s="19"/>
       <c r="G353" s="16"/>
     </row>
-    <row r="354" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A354" s="128" t="s">
+    <row r="354" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A354" s="105" t="s">
         <v>498</v>
       </c>
       <c r="B354" s="42" t="s">
@@ -9561,8 +9561,8 @@
       </c>
       <c r="G354" s="12"/>
     </row>
-    <row r="355" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A355" s="129"/>
+    <row r="355" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A355" s="106"/>
       <c r="B355" s="42" t="s">
         <v>189</v>
       </c>
@@ -9575,8 +9575,8 @@
       <c r="F355" s="18"/>
       <c r="G355" s="13"/>
     </row>
-    <row r="356" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A356" s="129"/>
+    <row r="356" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A356" s="106"/>
       <c r="B356" s="42" t="s">
         <v>532</v>
       </c>
@@ -9590,8 +9590,8 @@
       <c r="F356" s="18"/>
       <c r="G356" s="13"/>
     </row>
-    <row r="357" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A357" s="129"/>
+    <row r="357" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A357" s="106"/>
       <c r="B357" s="45"/>
       <c r="C357" s="4"/>
       <c r="D357" s="4"/>
@@ -9599,8 +9599,8 @@
       <c r="F357" s="18"/>
       <c r="G357" s="13"/>
     </row>
-    <row r="358" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A358" s="129"/>
+    <row r="358" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A358" s="106"/>
       <c r="B358" s="45"/>
       <c r="C358" s="4"/>
       <c r="D358" s="4"/>
@@ -9608,8 +9608,8 @@
       <c r="F358" s="18"/>
       <c r="G358" s="13"/>
     </row>
-    <row r="359" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A359" s="129"/>
+    <row r="359" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A359" s="106"/>
       <c r="B359" s="45"/>
       <c r="C359" s="4"/>
       <c r="D359" s="4"/>
@@ -9617,16 +9617,16 @@
       <c r="F359" s="18"/>
       <c r="G359" s="13"/>
     </row>
-    <row r="360" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A360" s="130"/>
+    <row r="360" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A360" s="107"/>
       <c r="B360" s="42"/>
       <c r="C360" s="31"/>
       <c r="E360" s="31"/>
       <c r="F360" s="18"/>
       <c r="G360" s="13"/>
     </row>
-    <row r="361" spans="1:7" ht="14.4" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A361" s="122" t="s">
+    <row r="361" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A361" s="99" t="s">
         <v>497</v>
       </c>
       <c r="B361" s="42" t="s">
@@ -9641,8 +9641,8 @@
       <c r="F361" s="18"/>
       <c r="G361" s="18"/>
     </row>
-    <row r="362" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A362" s="123"/>
+    <row r="362" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A362" s="100"/>
       <c r="B362" s="42" t="s">
         <v>133</v>
       </c>
@@ -9655,8 +9655,8 @@
       <c r="F362" s="18"/>
       <c r="G362" s="13"/>
     </row>
-    <row r="363" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A363" s="123"/>
+    <row r="363" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A363" s="100"/>
       <c r="B363" s="42" t="s">
         <v>265</v>
       </c>
@@ -9669,8 +9669,8 @@
       <c r="F363" s="18"/>
       <c r="G363" s="13"/>
     </row>
-    <row r="364" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A364" s="123"/>
+    <row r="364" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A364" s="100"/>
       <c r="B364" s="42" t="s">
         <v>267</v>
       </c>
@@ -9683,8 +9683,8 @@
       <c r="F364" s="18"/>
       <c r="G364" s="13"/>
     </row>
-    <row r="365" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A365" s="123"/>
+    <row r="365" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A365" s="100"/>
       <c r="B365" s="42" t="s">
         <v>343</v>
       </c>
@@ -9699,8 +9699,8 @@
       </c>
       <c r="G365" s="13"/>
     </row>
-    <row r="366" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A366" s="123"/>
+    <row r="366" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A366" s="100"/>
       <c r="B366" s="42" t="s">
         <v>367</v>
       </c>
@@ -9713,8 +9713,8 @@
       <c r="F366" s="31"/>
       <c r="G366" s="13"/>
     </row>
-    <row r="367" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A367" s="123"/>
+    <row r="367" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A367" s="100"/>
       <c r="B367" s="42" t="s">
         <v>375</v>
       </c>
@@ -9727,8 +9727,8 @@
       <c r="F367" s="18"/>
       <c r="G367" s="13"/>
     </row>
-    <row r="368" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A368" s="123"/>
+    <row r="368" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A368" s="100"/>
       <c r="B368" s="35" t="s">
         <v>462</v>
       </c>
@@ -9744,8 +9744,8 @@
       </c>
       <c r="G368" s="13"/>
     </row>
-    <row r="369" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A369" s="123"/>
+    <row r="369" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A369" s="100"/>
       <c r="B369" s="42" t="s">
         <v>505</v>
       </c>
@@ -9759,8 +9759,8 @@
       <c r="F369" s="18"/>
       <c r="G369" s="13"/>
     </row>
-    <row r="370" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A370" s="123"/>
+    <row r="370" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A370" s="100"/>
       <c r="B370" s="42" t="s">
         <v>540</v>
       </c>
@@ -9774,8 +9774,8 @@
       <c r="F370" s="18"/>
       <c r="G370" s="13"/>
     </row>
-    <row r="371" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A371" s="123"/>
+    <row r="371" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A371" s="100"/>
       <c r="B371" s="42" t="s">
         <v>695</v>
       </c>
@@ -9791,8 +9791,8 @@
       </c>
       <c r="G371" s="13"/>
     </row>
-    <row r="372" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A372" s="123"/>
+    <row r="372" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A372" s="100"/>
       <c r="B372" s="42" t="s">
         <v>698</v>
       </c>
@@ -9806,8 +9806,8 @@
       <c r="F372" s="18"/>
       <c r="G372" s="13"/>
     </row>
-    <row r="373" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A373" s="123"/>
+    <row r="373" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A373" s="100"/>
       <c r="B373" s="42" t="s">
         <v>716</v>
       </c>
@@ -9823,8 +9823,8 @@
       </c>
       <c r="G373" s="13"/>
     </row>
-    <row r="374" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A374" s="123"/>
+    <row r="374" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A374" s="100"/>
       <c r="B374" s="31" t="s">
         <v>133</v>
       </c>
@@ -9838,8 +9838,8 @@
       <c r="F374" s="31"/>
       <c r="G374" s="13"/>
     </row>
-    <row r="375" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A375" s="123"/>
+    <row r="375" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A375" s="100"/>
       <c r="B375" s="31" t="s">
         <v>841</v>
       </c>
@@ -9853,8 +9853,8 @@
       <c r="F375" s="31"/>
       <c r="G375" s="13"/>
     </row>
-    <row r="376" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A376" s="123"/>
+    <row r="376" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A376" s="100"/>
       <c r="B376" s="39" t="s">
         <v>951</v>
       </c>
@@ -9868,8 +9868,8 @@
       <c r="F376" s="31"/>
       <c r="G376" s="13"/>
     </row>
-    <row r="377" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A377" s="123"/>
+    <row r="377" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A377" s="100"/>
       <c r="B377" s="39" t="s">
         <v>964</v>
       </c>
@@ -9883,8 +9883,8 @@
       <c r="F377" s="31"/>
       <c r="G377" s="13"/>
     </row>
-    <row r="378" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A378" s="123"/>
+    <row r="378" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A378" s="100"/>
       <c r="B378" s="31" t="s">
         <v>343</v>
       </c>
@@ -9898,8 +9898,8 @@
       <c r="F378" s="31"/>
       <c r="G378" s="13"/>
     </row>
-    <row r="379" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A379" s="123"/>
+    <row r="379" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A379" s="100"/>
       <c r="B379" s="39"/>
       <c r="C379" s="39"/>
       <c r="D379" s="39"/>
@@ -9907,8 +9907,8 @@
       <c r="F379" s="31"/>
       <c r="G379" s="13"/>
     </row>
-    <row r="380" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A380" s="123"/>
+    <row r="380" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A380" s="100"/>
       <c r="B380" s="39"/>
       <c r="C380" s="39"/>
       <c r="D380" s="39"/>
@@ -9916,8 +9916,8 @@
       <c r="F380" s="31"/>
       <c r="G380" s="13"/>
     </row>
-    <row r="381" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A381" s="123"/>
+    <row r="381" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A381" s="100"/>
       <c r="B381" s="39"/>
       <c r="C381" s="39"/>
       <c r="D381" s="39"/>
@@ -9925,8 +9925,8 @@
       <c r="F381" s="31"/>
       <c r="G381" s="13"/>
     </row>
-    <row r="382" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A382" s="124"/>
+    <row r="382" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A382" s="101"/>
       <c r="B382" s="42" t="s">
         <v>387</v>
       </c>
@@ -9939,8 +9939,8 @@
       <c r="F382" s="19"/>
       <c r="G382" s="16"/>
     </row>
-    <row r="383" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A383" s="104" t="s">
+    <row r="383" spans="1:7" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A383" s="79" t="s">
         <v>406</v>
       </c>
       <c r="B383" s="42" t="s">
@@ -9955,8 +9955,8 @@
       </c>
       <c r="G383" s="30"/>
     </row>
-    <row r="384" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A384" s="105"/>
+    <row r="384" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A384" s="80"/>
       <c r="B384" s="35" t="s">
         <v>434</v>
       </c>
@@ -9972,8 +9972,8 @@
       </c>
       <c r="G384" s="23"/>
     </row>
-    <row r="385" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A385" s="105"/>
+    <row r="385" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A385" s="80"/>
       <c r="B385" s="42" t="s">
         <v>347</v>
       </c>
@@ -9986,8 +9986,8 @@
       <c r="F385" s="18"/>
       <c r="G385" s="13"/>
     </row>
-    <row r="386" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A386" s="105"/>
+    <row r="386" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A386" s="80"/>
       <c r="B386" s="47" t="s">
         <v>369</v>
       </c>
@@ -9999,8 +9999,8 @@
       </c>
       <c r="G386" s="13"/>
     </row>
-    <row r="387" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A387" s="105"/>
+    <row r="387" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A387" s="80"/>
       <c r="B387" s="42" t="s">
         <v>371</v>
       </c>
@@ -10013,8 +10013,8 @@
       <c r="F387" s="18"/>
       <c r="G387" s="13"/>
     </row>
-    <row r="388" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A388" s="105"/>
+    <row r="388" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A388" s="80"/>
       <c r="B388" s="35" t="s">
         <v>394</v>
       </c>
@@ -10028,8 +10028,8 @@
       <c r="F388" s="18"/>
       <c r="G388" s="13"/>
     </row>
-    <row r="389" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A389" s="105"/>
+    <row r="389" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A389" s="80"/>
       <c r="B389" s="42" t="s">
         <v>165</v>
       </c>
@@ -10042,8 +10042,8 @@
       <c r="F389" s="18"/>
       <c r="G389" s="13"/>
     </row>
-    <row r="390" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A390" s="105"/>
+    <row r="390" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A390" s="80"/>
       <c r="B390" s="42" t="s">
         <v>71</v>
       </c>
@@ -10057,8 +10057,8 @@
       <c r="F390" s="18"/>
       <c r="G390" s="13"/>
     </row>
-    <row r="391" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A391" s="105"/>
+    <row r="391" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A391" s="80"/>
       <c r="B391" s="42" t="s">
         <v>154</v>
       </c>
@@ -10071,8 +10071,8 @@
       <c r="F391" s="18"/>
       <c r="G391" s="13"/>
     </row>
-    <row r="392" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A392" s="105"/>
+    <row r="392" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A392" s="80"/>
       <c r="B392" s="42" t="s">
         <v>181</v>
       </c>
@@ -10085,8 +10085,8 @@
       <c r="F392" s="18"/>
       <c r="G392" s="13"/>
     </row>
-    <row r="393" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A393" s="105"/>
+    <row r="393" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A393" s="80"/>
       <c r="B393" s="42" t="s">
         <v>232</v>
       </c>
@@ -10099,8 +10099,8 @@
       <c r="F393" s="18"/>
       <c r="G393" s="13"/>
     </row>
-    <row r="394" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A394" s="105"/>
+    <row r="394" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A394" s="80"/>
       <c r="B394" s="42" t="s">
         <v>514</v>
       </c>
@@ -10114,8 +10114,8 @@
       <c r="F394" s="18"/>
       <c r="G394" s="13"/>
     </row>
-    <row r="395" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A395" s="105"/>
+    <row r="395" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A395" s="80"/>
       <c r="B395" s="42" t="s">
         <v>719</v>
       </c>
@@ -10128,8 +10128,8 @@
       </c>
       <c r="G395" s="13"/>
     </row>
-    <row r="396" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A396" s="105"/>
+    <row r="396" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A396" s="80"/>
       <c r="B396" s="31" t="s">
         <v>821</v>
       </c>
@@ -10143,8 +10143,8 @@
       <c r="F396" s="18"/>
       <c r="G396" s="13"/>
     </row>
-    <row r="397" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A397" s="105"/>
+    <row r="397" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A397" s="80"/>
       <c r="B397" s="39" t="s">
         <v>888</v>
       </c>
@@ -10158,8 +10158,8 @@
       <c r="F397" s="18"/>
       <c r="G397" s="13"/>
     </row>
-    <row r="398" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A398" s="105"/>
+    <row r="398" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A398" s="80"/>
       <c r="B398" s="39" t="s">
         <v>906</v>
       </c>
@@ -10173,8 +10173,8 @@
       <c r="F398" s="18"/>
       <c r="G398" s="13"/>
     </row>
-    <row r="399" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A399" s="105"/>
+    <row r="399" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A399" s="80"/>
       <c r="B399" s="35" t="s">
         <v>1132</v>
       </c>
@@ -10189,8 +10189,8 @@
       </c>
       <c r="G399" s="13"/>
     </row>
-    <row r="400" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A400" s="105"/>
+    <row r="400" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A400" s="80"/>
       <c r="B400" s="35" t="s">
         <v>1136</v>
       </c>
@@ -10203,8 +10203,8 @@
       <c r="F400" s="18"/>
       <c r="G400" s="13"/>
     </row>
-    <row r="401" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A401" s="105"/>
+    <row r="401" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A401" s="80"/>
       <c r="B401" s="39"/>
       <c r="C401" s="39"/>
       <c r="D401" s="39"/>
@@ -10212,8 +10212,8 @@
       <c r="F401" s="18"/>
       <c r="G401" s="13"/>
     </row>
-    <row r="402" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A402" s="105"/>
+    <row r="402" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A402" s="80"/>
       <c r="B402" s="42"/>
       <c r="C402" s="31"/>
       <c r="D402" s="31"/>
@@ -10221,13 +10221,13 @@
       <c r="F402" s="18"/>
       <c r="G402" s="13"/>
     </row>
-    <row r="403" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A403" s="106"/>
+    <row r="403" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A403" s="81"/>
       <c r="F403" s="19"/>
       <c r="G403" s="16"/>
     </row>
-    <row r="404" spans="1:7" ht="14.4" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A404" s="113" t="s">
+    <row r="404" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A404" s="88" t="s">
         <v>491</v>
       </c>
       <c r="B404" s="42" t="s">
@@ -10242,8 +10242,8 @@
       <c r="F404" s="17"/>
       <c r="G404" s="12"/>
     </row>
-    <row r="405" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A405" s="114"/>
+    <row r="405" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A405" s="89"/>
       <c r="B405" s="42" t="s">
         <v>215</v>
       </c>
@@ -10256,8 +10256,8 @@
       <c r="F405" s="18"/>
       <c r="G405" s="13"/>
     </row>
-    <row r="406" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A406" s="114"/>
+    <row r="406" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A406" s="89"/>
       <c r="B406" s="42" t="s">
         <v>283</v>
       </c>
@@ -10272,8 +10272,8 @@
       </c>
       <c r="G406" s="13"/>
     </row>
-    <row r="407" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A407" s="114"/>
+    <row r="407" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A407" s="89"/>
       <c r="B407" s="42" t="s">
         <v>517</v>
       </c>
@@ -10287,8 +10287,8 @@
       <c r="F407" s="18"/>
       <c r="G407" s="13"/>
     </row>
-    <row r="408" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A408" s="114"/>
+    <row r="408" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A408" s="89"/>
       <c r="B408" s="42" t="s">
         <v>546</v>
       </c>
@@ -10302,8 +10302,8 @@
       <c r="F408" s="18"/>
       <c r="G408" s="13"/>
     </row>
-    <row r="409" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A409" s="114"/>
+    <row r="409" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A409" s="89"/>
       <c r="B409" s="42" t="s">
         <v>581</v>
       </c>
@@ -10317,8 +10317,8 @@
       <c r="F409" s="18"/>
       <c r="G409" s="13"/>
     </row>
-    <row r="410" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A410" s="114"/>
+    <row r="410" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A410" s="89"/>
       <c r="B410" s="42" t="s">
         <v>608</v>
       </c>
@@ -10332,8 +10332,8 @@
       <c r="F410" s="18"/>
       <c r="G410" s="13"/>
     </row>
-    <row r="411" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A411" s="114"/>
+    <row r="411" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A411" s="89"/>
       <c r="B411" s="42" t="s">
         <v>698</v>
       </c>
@@ -10347,8 +10347,8 @@
       <c r="F411" s="18"/>
       <c r="G411" s="13"/>
     </row>
-    <row r="412" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A412" s="114"/>
+    <row r="412" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A412" s="89"/>
       <c r="B412" s="42" t="s">
         <v>713</v>
       </c>
@@ -10362,8 +10362,8 @@
       <c r="F412" s="18"/>
       <c r="G412" s="13"/>
     </row>
-    <row r="413" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A413" s="114"/>
+    <row r="413" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A413" s="89"/>
       <c r="B413" s="42" t="s">
         <v>770</v>
       </c>
@@ -10376,8 +10376,8 @@
       </c>
       <c r="G413" s="13"/>
     </row>
-    <row r="414" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A414" s="114"/>
+    <row r="414" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A414" s="89"/>
       <c r="B414" s="31" t="s">
         <v>924</v>
       </c>
@@ -10390,8 +10390,8 @@
       </c>
       <c r="G414" s="13"/>
     </row>
-    <row r="415" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A415" s="114"/>
+    <row r="415" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A415" s="89"/>
       <c r="B415" s="39" t="s">
         <v>945</v>
       </c>
@@ -10404,8 +10404,8 @@
       </c>
       <c r="G415" s="13"/>
     </row>
-    <row r="416" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A416" s="114"/>
+    <row r="416" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A416" s="89"/>
       <c r="B416" s="39" t="s">
         <v>242</v>
       </c>
@@ -10418,24 +10418,24 @@
       </c>
       <c r="G416" s="13"/>
     </row>
-    <row r="417" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A417" s="114"/>
+    <row r="417" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A417" s="89"/>
       <c r="B417" s="42"/>
       <c r="C417" s="39"/>
       <c r="D417" s="39"/>
       <c r="E417" s="39"/>
       <c r="G417" s="13"/>
     </row>
-    <row r="418" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A418" s="114"/>
+    <row r="418" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A418" s="89"/>
       <c r="B418" s="42"/>
       <c r="C418" s="39"/>
       <c r="D418" s="39"/>
       <c r="E418" s="39"/>
       <c r="G418" s="13"/>
     </row>
-    <row r="419" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A419" s="115"/>
+    <row r="419" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A419" s="90"/>
       <c r="B419" s="50"/>
       <c r="C419" s="14"/>
       <c r="D419" s="14"/>
@@ -10443,8 +10443,8 @@
       <c r="F419" s="19"/>
       <c r="G419" s="16"/>
     </row>
-    <row r="420" spans="1:7" ht="14.4" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A420" s="125" t="s">
+    <row r="420" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A420" s="102" t="s">
         <v>208</v>
       </c>
       <c r="B420" s="42" t="s">
@@ -10459,8 +10459,8 @@
       <c r="F420" s="17"/>
       <c r="G420" s="12"/>
     </row>
-    <row r="421" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A421" s="126"/>
+    <row r="421" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A421" s="103"/>
       <c r="B421" s="42" t="s">
         <v>208</v>
       </c>
@@ -10473,8 +10473,8 @@
       <c r="F421" s="18"/>
       <c r="G421" s="13"/>
     </row>
-    <row r="422" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A422" s="126"/>
+    <row r="422" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A422" s="103"/>
       <c r="B422" s="42" t="s">
         <v>279</v>
       </c>
@@ -10487,8 +10487,8 @@
       <c r="F422" s="18"/>
       <c r="G422" s="13"/>
     </row>
-    <row r="423" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A423" s="126"/>
+    <row r="423" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A423" s="103"/>
       <c r="B423" s="42" t="s">
         <v>363</v>
       </c>
@@ -10501,8 +10501,8 @@
       <c r="F423" s="18"/>
       <c r="G423" s="13"/>
     </row>
-    <row r="424" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A424" s="126"/>
+    <row r="424" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A424" s="103"/>
       <c r="B424" s="35" t="s">
         <v>451</v>
       </c>
@@ -10518,8 +10518,8 @@
       </c>
       <c r="G424" s="13"/>
     </row>
-    <row r="425" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A425" s="126"/>
+    <row r="425" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A425" s="103"/>
       <c r="B425" s="42" t="s">
         <v>502</v>
       </c>
@@ -10533,8 +10533,8 @@
       <c r="F425" s="34"/>
       <c r="G425" s="13"/>
     </row>
-    <row r="426" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A426" s="126"/>
+    <row r="426" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A426" s="103"/>
       <c r="B426" s="42" t="s">
         <v>511</v>
       </c>
@@ -10548,8 +10548,8 @@
       <c r="F426" s="34"/>
       <c r="G426" s="13"/>
     </row>
-    <row r="427" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A427" s="126"/>
+    <row r="427" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A427" s="103"/>
       <c r="B427" s="42" t="s">
         <v>523</v>
       </c>
@@ -10563,8 +10563,8 @@
       <c r="F427" s="18"/>
       <c r="G427" s="13"/>
     </row>
-    <row r="428" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A428" s="126"/>
+    <row r="428" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A428" s="103"/>
       <c r="B428" s="42" t="s">
         <v>560</v>
       </c>
@@ -10578,8 +10578,8 @@
       <c r="F428" s="18"/>
       <c r="G428" s="13"/>
     </row>
-    <row r="429" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A429" s="126"/>
+    <row r="429" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A429" s="103"/>
       <c r="B429" s="42" t="s">
         <v>577</v>
       </c>
@@ -10595,8 +10595,8 @@
       </c>
       <c r="G429" s="13"/>
     </row>
-    <row r="430" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A430" s="126"/>
+    <row r="430" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A430" s="103"/>
       <c r="B430" s="42" t="s">
         <v>630</v>
       </c>
@@ -10609,8 +10609,8 @@
       </c>
       <c r="G430" s="13"/>
     </row>
-    <row r="431" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A431" s="126"/>
+    <row r="431" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A431" s="103"/>
       <c r="B431" s="42" t="s">
         <v>633</v>
       </c>
@@ -10626,8 +10626,8 @@
       </c>
       <c r="G431" s="13"/>
     </row>
-    <row r="432" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A432" s="126"/>
+    <row r="432" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A432" s="103"/>
       <c r="B432" s="42" t="s">
         <v>689</v>
       </c>
@@ -10641,8 +10641,8 @@
       <c r="F432" s="31"/>
       <c r="G432" s="13"/>
     </row>
-    <row r="433" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A433" s="126"/>
+    <row r="433" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A433" s="103"/>
       <c r="B433" s="42" t="s">
         <v>701</v>
       </c>
@@ -10656,8 +10656,8 @@
       <c r="F433" s="31"/>
       <c r="G433" s="13"/>
     </row>
-    <row r="434" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A434" s="126"/>
+    <row r="434" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A434" s="103"/>
       <c r="B434" s="42" t="s">
         <v>683</v>
       </c>
@@ -10671,8 +10671,8 @@
       <c r="F434" s="31"/>
       <c r="G434" s="13"/>
     </row>
-    <row r="435" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A435" s="126"/>
+    <row r="435" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A435" s="103"/>
       <c r="B435" s="42" t="s">
         <v>756</v>
       </c>
@@ -10686,8 +10686,8 @@
       <c r="F435" s="31"/>
       <c r="G435" s="13"/>
     </row>
-    <row r="436" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A436" s="126"/>
+    <row r="436" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A436" s="103"/>
       <c r="B436" s="31" t="s">
         <v>874</v>
       </c>
@@ -10701,8 +10701,8 @@
       <c r="F436" s="31"/>
       <c r="G436" s="13"/>
     </row>
-    <row r="437" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A437" s="126"/>
+    <row r="437" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A437" s="103"/>
       <c r="B437" s="39" t="s">
         <v>187</v>
       </c>
@@ -10716,8 +10716,8 @@
       <c r="F437" s="31"/>
       <c r="G437" s="13"/>
     </row>
-    <row r="438" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A438" s="126"/>
+    <row r="438" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A438" s="103"/>
       <c r="B438" s="31" t="s">
         <v>279</v>
       </c>
@@ -10731,8 +10731,8 @@
       <c r="F438" s="31"/>
       <c r="G438" s="13"/>
     </row>
-    <row r="439" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A439" s="126"/>
+    <row r="439" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A439" s="103"/>
       <c r="B439" s="31"/>
       <c r="C439" s="31"/>
       <c r="D439" s="31"/>
@@ -10740,8 +10740,8 @@
       <c r="F439" s="31"/>
       <c r="G439" s="13"/>
     </row>
-    <row r="440" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A440" s="126"/>
+    <row r="440" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A440" s="103"/>
       <c r="B440" s="42"/>
       <c r="C440" s="31"/>
       <c r="D440" s="31"/>
@@ -10749,8 +10749,8 @@
       <c r="F440" s="31"/>
       <c r="G440" s="13"/>
     </row>
-    <row r="441" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A441" s="127"/>
+    <row r="441" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A441" s="104"/>
       <c r="B441" s="31"/>
       <c r="C441" s="31"/>
       <c r="D441" s="31"/>
@@ -10758,8 +10758,8 @@
       <c r="F441" s="19"/>
       <c r="G441" s="16"/>
     </row>
-    <row r="442" spans="1:7" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A442" s="95" t="s">
+    <row r="442" spans="1:7" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A442" s="70" t="s">
         <v>10</v>
       </c>
       <c r="B442" s="51" t="s">
@@ -10779,8 +10779,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="443" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A443" s="96"/>
+    <row r="443" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A443" s="71"/>
       <c r="B443" s="35" t="s">
         <v>16</v>
       </c>
@@ -10794,8 +10794,8 @@
       <c r="F443" s="18"/>
       <c r="G443" s="13"/>
     </row>
-    <row r="444" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A444" s="96"/>
+    <row r="444" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A444" s="71"/>
       <c r="B444" s="35" t="s">
         <v>19</v>
       </c>
@@ -10809,8 +10809,8 @@
       <c r="F444" s="18"/>
       <c r="G444" s="13"/>
     </row>
-    <row r="445" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A445" s="96"/>
+    <row r="445" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A445" s="71"/>
       <c r="B445" s="35" t="s">
         <v>22</v>
       </c>
@@ -10824,8 +10824,8 @@
       <c r="F445" s="18"/>
       <c r="G445" s="13"/>
     </row>
-    <row r="446" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A446" s="96"/>
+    <row r="446" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A446" s="71"/>
       <c r="B446" s="35" t="s">
         <v>25</v>
       </c>
@@ -10839,8 +10839,8 @@
       <c r="F446" s="18"/>
       <c r="G446" s="13"/>
     </row>
-    <row r="447" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A447" s="96"/>
+    <row r="447" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A447" s="71"/>
       <c r="B447" s="35" t="s">
         <v>28</v>
       </c>
@@ -10854,8 +10854,8 @@
       <c r="F447" s="18"/>
       <c r="G447" s="13"/>
     </row>
-    <row r="448" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A448" s="96"/>
+    <row r="448" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A448" s="71"/>
       <c r="B448" s="35" t="s">
         <v>31</v>
       </c>
@@ -10869,8 +10869,8 @@
       <c r="F448" s="18"/>
       <c r="G448" s="13"/>
     </row>
-    <row r="449" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A449" s="96"/>
+    <row r="449" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A449" s="71"/>
       <c r="B449" s="35" t="s">
         <v>34</v>
       </c>
@@ -10884,8 +10884,8 @@
       <c r="F449" s="18"/>
       <c r="G449" s="13"/>
     </row>
-    <row r="450" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A450" s="96"/>
+    <row r="450" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A450" s="71"/>
       <c r="B450" s="35" t="s">
         <v>486</v>
       </c>
@@ -10901,8 +10901,8 @@
       </c>
       <c r="G450" s="13"/>
     </row>
-    <row r="451" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A451" s="96"/>
+    <row r="451" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A451" s="71"/>
       <c r="B451" s="42" t="s">
         <v>349</v>
       </c>
@@ -10915,8 +10915,8 @@
       <c r="F451" s="18"/>
       <c r="G451" s="13"/>
     </row>
-    <row r="452" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A452" s="96"/>
+    <row r="452" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A452" s="71"/>
       <c r="B452" s="42" t="s">
         <v>611</v>
       </c>
@@ -10932,8 +10932,8 @@
       </c>
       <c r="G452" s="13"/>
     </row>
-    <row r="453" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A453" s="96"/>
+    <row r="453" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A453" s="71"/>
       <c r="B453" s="42" t="s">
         <v>615</v>
       </c>
@@ -10946,8 +10946,8 @@
       </c>
       <c r="G453" s="13"/>
     </row>
-    <row r="454" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A454" s="96"/>
+    <row r="454" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A454" s="71"/>
       <c r="B454" s="42" t="s">
         <v>773</v>
       </c>
@@ -10961,8 +10961,8 @@
       <c r="F454" s="18"/>
       <c r="G454" s="13"/>
     </row>
-    <row r="455" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A455" s="96"/>
+    <row r="455" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A455" s="71"/>
       <c r="B455" s="39" t="s">
         <v>958</v>
       </c>
@@ -10976,8 +10976,8 @@
       <c r="F455" s="18"/>
       <c r="G455" s="13"/>
     </row>
-    <row r="456" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A456" s="96"/>
+    <row r="456" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A456" s="71"/>
       <c r="B456" s="31" t="s">
         <v>1007</v>
       </c>
@@ -10991,8 +10991,8 @@
       <c r="F456" s="18"/>
       <c r="G456" s="13"/>
     </row>
-    <row r="457" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A457" s="96"/>
+    <row r="457" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A457" s="71"/>
       <c r="B457" s="31" t="s">
         <v>1010</v>
       </c>
@@ -11006,8 +11006,8 @@
       <c r="F457" s="18"/>
       <c r="G457" s="13"/>
     </row>
-    <row r="458" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A458" s="96"/>
+    <row r="458" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A458" s="71"/>
       <c r="B458" s="34" t="s">
         <v>945</v>
       </c>
@@ -11025,8 +11025,8 @@
       </c>
       <c r="G458" s="13"/>
     </row>
-    <row r="459" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A459" s="96"/>
+    <row r="459" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A459" s="71"/>
       <c r="B459" s="34" t="s">
         <v>1079</v>
       </c>
@@ -11044,8 +11044,8 @@
       </c>
       <c r="G459" s="13"/>
     </row>
-    <row r="460" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A460" s="96"/>
+    <row r="460" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A460" s="71"/>
       <c r="B460" s="34" t="s">
         <v>1082</v>
       </c>
@@ -11063,8 +11063,8 @@
       </c>
       <c r="G460" s="13"/>
     </row>
-    <row r="461" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A461" s="96"/>
+    <row r="461" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A461" s="71"/>
       <c r="B461" s="34" t="s">
         <v>1088</v>
       </c>
@@ -11082,8 +11082,8 @@
       </c>
       <c r="G461" s="13"/>
     </row>
-    <row r="462" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A462" s="96"/>
+    <row r="462" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A462" s="71"/>
       <c r="B462" s="55" t="s">
         <v>1091</v>
       </c>
@@ -11099,8 +11099,8 @@
       <c r="F462" s="61"/>
       <c r="G462" s="13"/>
     </row>
-    <row r="463" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A463" s="96"/>
+    <row r="463" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A463" s="71"/>
       <c r="B463" s="35" t="s">
         <v>1101</v>
       </c>
@@ -11118,8 +11118,8 @@
       </c>
       <c r="G463" s="13"/>
     </row>
-    <row r="464" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A464" s="96"/>
+    <row r="464" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A464" s="71"/>
       <c r="B464" s="35" t="s">
         <v>1106</v>
       </c>
@@ -11137,8 +11137,8 @@
       </c>
       <c r="G464" s="13"/>
     </row>
-    <row r="465" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A465" s="96"/>
+    <row r="465" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A465" s="71"/>
       <c r="B465" s="35" t="s">
         <v>1109</v>
       </c>
@@ -11156,8 +11156,8 @@
       </c>
       <c r="G465" s="13"/>
     </row>
-    <row r="466" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A466" s="96"/>
+    <row r="466" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A466" s="71"/>
       <c r="B466" s="35" t="s">
         <v>1112</v>
       </c>
@@ -11175,8 +11175,8 @@
       </c>
       <c r="G466" s="13"/>
     </row>
-    <row r="467" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A467" s="96"/>
+    <row r="467" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A467" s="71"/>
       <c r="B467" s="35" t="s">
         <v>1116</v>
       </c>
@@ -11194,8 +11194,8 @@
       </c>
       <c r="G467" s="13"/>
     </row>
-    <row r="468" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A468" s="96"/>
+    <row r="468" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A468" s="71"/>
       <c r="B468" s="35" t="s">
         <v>1120</v>
       </c>
@@ -11213,8 +11213,8 @@
       </c>
       <c r="G468" s="13"/>
     </row>
-    <row r="469" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A469" s="96"/>
+    <row r="469" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A469" s="71"/>
       <c r="B469" s="35" t="s">
         <v>1120</v>
       </c>
@@ -11232,8 +11232,8 @@
       </c>
       <c r="G469" s="13"/>
     </row>
-    <row r="470" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A470" s="96"/>
+    <row r="470" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A470" s="71"/>
       <c r="B470" s="35" t="s">
         <v>1125</v>
       </c>
@@ -11251,8 +11251,8 @@
       </c>
       <c r="G470" s="13"/>
     </row>
-    <row r="471" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A471" s="96"/>
+    <row r="471" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A471" s="71"/>
       <c r="B471" s="35"/>
       <c r="C471" s="35"/>
       <c r="D471" s="64"/>
@@ -11260,8 +11260,8 @@
       <c r="F471" s="35"/>
       <c r="G471" s="13"/>
     </row>
-    <row r="472" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A472" s="96"/>
+    <row r="472" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A472" s="71"/>
       <c r="B472" s="35"/>
       <c r="C472" s="35"/>
       <c r="D472" s="64"/>
@@ -11269,8 +11269,8 @@
       <c r="F472" s="35"/>
       <c r="G472" s="13"/>
     </row>
-    <row r="473" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A473" s="96"/>
+    <row r="473" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A473" s="71"/>
       <c r="B473" s="35"/>
       <c r="C473" s="35"/>
       <c r="D473" s="64"/>
@@ -11278,8 +11278,8 @@
       <c r="F473" s="35"/>
       <c r="G473" s="13"/>
     </row>
-    <row r="474" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A474" s="96"/>
+    <row r="474" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A474" s="71"/>
       <c r="B474" s="35"/>
       <c r="C474" s="35"/>
       <c r="D474" s="64"/>
@@ -11287,8 +11287,8 @@
       <c r="F474" s="35"/>
       <c r="G474" s="13"/>
     </row>
-    <row r="475" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A475" s="97"/>
+    <row r="475" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A475" s="72"/>
       <c r="B475" s="52"/>
       <c r="C475" s="19"/>
       <c r="D475" s="25"/>
@@ -11296,2950 +11296,2958 @@
       <c r="F475" s="19"/>
       <c r="G475" s="16"/>
     </row>
-    <row r="476" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A476" s="4"/>
       <c r="E476" s="5"/>
     </row>
-    <row r="477" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="4"/>
       <c r="E477" s="5"/>
     </row>
-    <row r="478" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E478" s="5"/>
     </row>
-    <row r="479" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E479" s="5"/>
     </row>
-    <row r="480" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E480" s="5"/>
     </row>
-    <row r="481" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="481" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E481" s="5"/>
     </row>
-    <row r="482" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="482" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E482" s="5"/>
     </row>
-    <row r="483" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="483" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E483" s="5"/>
     </row>
-    <row r="484" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="484" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E484" s="5"/>
     </row>
-    <row r="485" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="485" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E485" s="5"/>
     </row>
-    <row r="486" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="486" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E486" s="5"/>
     </row>
-    <row r="487" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="487" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E487" s="5"/>
     </row>
-    <row r="488" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="488" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E488" s="5"/>
     </row>
-    <row r="489" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="489" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E489" s="5"/>
     </row>
-    <row r="490" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="490" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E490" s="5"/>
     </row>
-    <row r="491" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="491" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E491" s="5"/>
     </row>
-    <row r="492" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="492" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E492" s="5"/>
     </row>
-    <row r="493" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="493" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E493" s="5"/>
     </row>
-    <row r="494" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="494" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E494" s="5"/>
     </row>
-    <row r="495" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="495" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E495" s="5"/>
     </row>
-    <row r="496" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="496" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E496" s="5"/>
     </row>
-    <row r="497" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="497" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E497" s="5"/>
     </row>
-    <row r="498" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="498" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E498" s="5"/>
     </row>
-    <row r="499" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="499" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E499" s="5"/>
     </row>
-    <row r="500" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="500" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E500" s="5"/>
     </row>
-    <row r="501" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="501" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E501" s="5"/>
     </row>
-    <row r="502" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="502" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E502" s="5"/>
     </row>
-    <row r="503" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="503" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E503" s="5"/>
     </row>
-    <row r="504" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="504" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E504" s="5"/>
     </row>
-    <row r="505" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="505" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E505" s="5"/>
     </row>
-    <row r="506" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="506" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E506" s="5"/>
     </row>
-    <row r="507" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="507" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E507" s="5"/>
     </row>
-    <row r="508" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="508" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E508" s="5"/>
     </row>
-    <row r="509" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="509" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E509" s="5"/>
     </row>
-    <row r="510" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="510" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E510" s="5"/>
     </row>
-    <row r="511" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="511" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E511" s="5"/>
     </row>
-    <row r="512" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="512" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E512" s="5"/>
     </row>
-    <row r="513" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="513" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E513" s="5"/>
     </row>
-    <row r="514" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="514" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E514" s="5"/>
     </row>
-    <row r="515" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="515" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E515" s="5"/>
     </row>
-    <row r="516" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="516" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E516" s="5"/>
     </row>
-    <row r="517" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="517" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E517" s="5"/>
     </row>
-    <row r="518" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="518" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E518" s="5"/>
     </row>
-    <row r="519" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="519" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E519" s="5"/>
     </row>
-    <row r="520" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="520" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E520" s="5"/>
     </row>
-    <row r="521" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="521" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E521" s="5"/>
     </row>
-    <row r="522" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="522" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E522" s="5"/>
     </row>
-    <row r="523" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="523" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E523" s="5"/>
     </row>
-    <row r="524" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="524" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E524" s="5"/>
     </row>
-    <row r="525" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="525" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E525" s="5"/>
     </row>
-    <row r="526" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="526" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E526" s="5"/>
     </row>
-    <row r="527" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="527" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E527" s="5"/>
     </row>
-    <row r="528" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="528" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E528" s="5"/>
     </row>
-    <row r="529" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="529" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E529" s="5"/>
     </row>
-    <row r="530" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="530" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E530" s="5"/>
     </row>
-    <row r="531" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="531" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E531" s="5"/>
     </row>
-    <row r="532" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="532" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E532" s="5"/>
     </row>
-    <row r="533" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="533" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E533" s="5"/>
     </row>
-    <row r="534" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="534" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E534" s="5"/>
     </row>
-    <row r="535" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="535" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E535" s="5"/>
     </row>
-    <row r="536" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="536" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E536" s="5"/>
     </row>
-    <row r="537" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="537" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E537" s="5"/>
     </row>
-    <row r="538" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="538" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E538" s="5"/>
     </row>
-    <row r="539" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="539" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E539" s="5"/>
     </row>
-    <row r="540" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="540" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E540" s="5"/>
     </row>
-    <row r="541" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="541" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E541" s="5"/>
     </row>
-    <row r="542" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="542" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E542" s="5"/>
     </row>
-    <row r="543" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="543" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E543" s="5"/>
     </row>
-    <row r="544" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="544" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E544" s="5"/>
     </row>
-    <row r="545" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="545" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E545" s="5"/>
     </row>
-    <row r="546" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="546" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E546" s="5"/>
     </row>
-    <row r="547" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="547" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E547" s="5"/>
     </row>
-    <row r="548" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="548" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E548" s="5"/>
     </row>
-    <row r="549" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="549" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E549" s="5"/>
     </row>
-    <row r="550" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="550" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E550" s="5"/>
     </row>
-    <row r="551" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="551" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E551" s="5"/>
     </row>
-    <row r="552" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="552" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E552" s="5"/>
     </row>
-    <row r="553" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="553" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E553" s="5"/>
     </row>
-    <row r="554" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="554" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E554" s="5"/>
     </row>
-    <row r="555" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="555" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E555" s="5"/>
     </row>
-    <row r="556" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="556" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E556" s="5"/>
     </row>
-    <row r="557" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="557" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E557" s="5"/>
     </row>
-    <row r="558" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="558" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E558" s="5"/>
     </row>
-    <row r="559" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="559" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E559" s="5"/>
     </row>
-    <row r="560" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="560" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E560" s="5"/>
     </row>
-    <row r="561" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="561" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E561" s="5"/>
     </row>
-    <row r="562" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="562" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E562" s="5"/>
     </row>
-    <row r="563" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="563" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E563" s="5"/>
     </row>
-    <row r="564" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="564" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E564" s="5"/>
     </row>
-    <row r="565" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="565" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E565" s="5"/>
     </row>
-    <row r="566" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="566" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E566" s="5"/>
     </row>
-    <row r="567" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="567" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E567" s="5"/>
     </row>
-    <row r="568" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="568" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E568" s="5"/>
     </row>
-    <row r="569" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="569" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E569" s="5"/>
     </row>
-    <row r="570" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="570" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E570" s="5"/>
     </row>
-    <row r="571" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="571" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E571" s="5"/>
     </row>
-    <row r="572" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="572" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E572" s="5"/>
     </row>
-    <row r="573" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="573" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E573" s="5"/>
     </row>
-    <row r="574" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="574" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E574" s="5"/>
     </row>
-    <row r="575" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="575" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E575" s="5"/>
     </row>
-    <row r="576" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="576" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E576" s="5"/>
     </row>
-    <row r="577" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="577" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E577" s="5"/>
     </row>
-    <row r="578" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="578" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E578" s="5"/>
     </row>
-    <row r="579" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="579" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E579" s="5"/>
     </row>
-    <row r="580" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="580" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E580" s="5"/>
     </row>
-    <row r="581" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="581" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E581" s="5"/>
     </row>
-    <row r="582" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="582" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E582" s="5"/>
     </row>
-    <row r="583" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="583" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E583" s="5"/>
     </row>
-    <row r="584" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="584" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E584" s="5"/>
     </row>
-    <row r="585" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="585" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E585" s="5"/>
     </row>
-    <row r="586" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="586" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E586" s="5"/>
     </row>
-    <row r="587" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="587" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E587" s="5"/>
     </row>
-    <row r="588" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="588" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E588" s="5"/>
     </row>
-    <row r="589" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="589" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E589" s="5"/>
     </row>
-    <row r="590" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="590" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E590" s="5"/>
     </row>
-    <row r="591" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="591" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E591" s="5"/>
     </row>
-    <row r="592" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="592" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E592" s="5"/>
     </row>
-    <row r="593" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="593" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E593" s="5"/>
     </row>
-    <row r="594" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="594" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E594" s="5"/>
     </row>
-    <row r="595" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="595" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E595" s="5"/>
     </row>
-    <row r="596" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="596" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E596" s="5"/>
     </row>
-    <row r="597" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="597" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E597" s="5"/>
     </row>
-    <row r="598" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="598" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E598" s="5"/>
     </row>
-    <row r="599" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="599" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E599" s="5"/>
     </row>
-    <row r="600" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="600" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E600" s="5"/>
     </row>
-    <row r="601" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="601" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E601" s="5"/>
     </row>
-    <row r="602" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="602" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E602" s="5"/>
     </row>
-    <row r="603" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="603" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E603" s="5"/>
     </row>
-    <row r="604" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="604" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E604" s="5"/>
     </row>
-    <row r="605" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="605" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E605" s="5"/>
     </row>
-    <row r="606" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="606" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E606" s="5"/>
     </row>
-    <row r="607" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="607" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E607" s="5"/>
     </row>
-    <row r="608" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="608" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E608" s="5"/>
     </row>
-    <row r="609" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="609" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E609" s="5"/>
     </row>
-    <row r="610" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="610" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E610" s="5"/>
     </row>
-    <row r="611" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="611" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E611" s="5"/>
     </row>
-    <row r="612" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="612" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E612" s="5"/>
     </row>
-    <row r="613" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="613" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E613" s="5"/>
     </row>
-    <row r="614" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="614" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E614" s="5"/>
     </row>
-    <row r="615" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="615" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E615" s="5"/>
     </row>
-    <row r="616" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="616" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E616" s="5"/>
     </row>
-    <row r="617" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="617" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E617" s="5"/>
     </row>
-    <row r="618" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="618" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E618" s="5"/>
     </row>
-    <row r="619" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="619" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E619" s="5"/>
     </row>
-    <row r="620" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="620" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E620" s="5"/>
     </row>
-    <row r="621" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="621" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E621" s="5"/>
     </row>
-    <row r="622" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="622" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E622" s="5"/>
     </row>
-    <row r="623" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="623" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E623" s="5"/>
     </row>
-    <row r="624" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="624" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E624" s="5"/>
     </row>
-    <row r="625" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="625" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E625" s="5"/>
     </row>
-    <row r="626" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="626" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E626" s="5"/>
     </row>
-    <row r="627" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="627" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E627" s="5"/>
     </row>
-    <row r="628" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="628" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E628" s="5"/>
     </row>
-    <row r="629" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="629" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E629" s="5"/>
     </row>
-    <row r="630" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="630" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E630" s="5"/>
     </row>
-    <row r="631" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="631" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E631" s="5"/>
     </row>
-    <row r="632" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="632" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E632" s="5"/>
     </row>
-    <row r="633" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="633" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E633" s="5"/>
     </row>
-    <row r="634" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="634" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E634" s="5"/>
     </row>
-    <row r="635" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="635" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E635" s="5"/>
     </row>
-    <row r="636" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="636" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E636" s="5"/>
     </row>
-    <row r="637" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="637" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E637" s="5"/>
     </row>
-    <row r="638" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="638" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E638" s="5"/>
     </row>
-    <row r="639" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="639" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E639" s="5"/>
     </row>
-    <row r="640" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="640" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E640" s="5"/>
     </row>
-    <row r="641" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="641" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E641" s="5"/>
     </row>
-    <row r="642" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="642" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E642" s="5"/>
     </row>
-    <row r="643" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="643" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E643" s="5"/>
     </row>
-    <row r="644" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="644" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E644" s="5"/>
     </row>
-    <row r="645" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="645" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E645" s="5"/>
     </row>
-    <row r="646" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="646" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E646" s="5"/>
     </row>
-    <row r="647" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="647" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E647" s="5"/>
     </row>
-    <row r="648" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="648" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E648" s="5"/>
     </row>
-    <row r="649" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="649" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E649" s="5"/>
     </row>
-    <row r="650" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="650" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E650" s="5"/>
     </row>
-    <row r="651" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="651" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E651" s="5"/>
     </row>
-    <row r="652" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="652" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E652" s="5"/>
     </row>
-    <row r="653" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="653" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E653" s="5"/>
     </row>
-    <row r="654" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="654" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E654" s="5"/>
     </row>
-    <row r="655" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="655" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E655" s="5"/>
     </row>
-    <row r="656" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="656" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E656" s="5"/>
     </row>
-    <row r="657" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="657" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E657" s="5"/>
     </row>
-    <row r="658" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="658" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E658" s="5"/>
     </row>
-    <row r="659" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="659" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E659" s="5"/>
     </row>
-    <row r="660" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="660" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E660" s="5"/>
     </row>
-    <row r="661" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="661" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E661" s="5"/>
     </row>
-    <row r="662" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="662" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E662" s="5"/>
     </row>
-    <row r="663" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="663" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E663" s="5"/>
     </row>
-    <row r="664" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="664" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E664" s="5"/>
     </row>
-    <row r="665" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="665" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E665" s="5"/>
     </row>
-    <row r="666" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="666" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E666" s="5"/>
     </row>
-    <row r="667" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="667" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E667" s="5"/>
     </row>
-    <row r="668" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="668" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E668" s="5"/>
     </row>
-    <row r="669" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="669" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E669" s="5"/>
     </row>
-    <row r="670" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="670" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E670" s="5"/>
     </row>
-    <row r="671" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="671" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E671" s="5"/>
     </row>
-    <row r="672" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="672" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E672" s="5"/>
     </row>
-    <row r="673" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="673" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E673" s="5"/>
     </row>
-    <row r="674" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="674" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E674" s="5"/>
     </row>
-    <row r="675" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="675" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E675" s="5"/>
     </row>
-    <row r="676" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="676" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E676" s="5"/>
     </row>
-    <row r="677" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="677" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E677" s="5"/>
     </row>
-    <row r="678" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="678" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E678" s="5"/>
     </row>
-    <row r="679" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="679" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E679" s="5"/>
     </row>
-    <row r="680" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="680" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E680" s="5"/>
     </row>
-    <row r="681" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="681" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E681" s="5"/>
     </row>
-    <row r="682" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="682" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E682" s="5"/>
     </row>
-    <row r="683" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="683" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E683" s="5"/>
     </row>
-    <row r="684" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="684" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E684" s="5"/>
     </row>
-    <row r="685" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="685" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E685" s="5"/>
     </row>
-    <row r="686" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="686" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E686" s="5"/>
     </row>
-    <row r="687" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="687" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E687" s="5"/>
     </row>
-    <row r="688" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="688" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E688" s="5"/>
     </row>
-    <row r="689" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="689" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E689" s="5"/>
     </row>
-    <row r="690" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="690" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E690" s="5"/>
     </row>
-    <row r="691" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="691" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E691" s="5"/>
     </row>
-    <row r="692" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="692" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E692" s="5"/>
     </row>
-    <row r="693" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="693" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E693" s="5"/>
     </row>
-    <row r="694" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="694" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E694" s="5"/>
     </row>
-    <row r="695" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="695" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E695" s="5"/>
     </row>
-    <row r="696" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="696" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E696" s="5"/>
     </row>
-    <row r="697" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="697" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E697" s="5"/>
     </row>
-    <row r="698" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="698" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E698" s="5"/>
     </row>
-    <row r="699" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="699" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E699" s="5"/>
     </row>
-    <row r="700" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="700" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E700" s="5"/>
     </row>
-    <row r="701" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="701" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E701" s="5"/>
     </row>
-    <row r="702" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="702" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E702" s="5"/>
     </row>
-    <row r="703" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="703" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E703" s="5"/>
     </row>
-    <row r="704" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="704" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E704" s="5"/>
     </row>
-    <row r="705" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="705" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E705" s="5"/>
     </row>
-    <row r="706" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="706" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E706" s="5"/>
     </row>
-    <row r="707" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="707" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E707" s="5"/>
     </row>
-    <row r="708" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="708" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E708" s="5"/>
     </row>
-    <row r="709" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="709" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E709" s="5"/>
     </row>
-    <row r="710" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="710" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E710" s="5"/>
     </row>
-    <row r="711" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="711" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E711" s="5"/>
     </row>
-    <row r="712" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="712" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E712" s="5"/>
     </row>
-    <row r="713" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="713" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E713" s="5"/>
     </row>
-    <row r="714" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="714" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E714" s="5"/>
     </row>
-    <row r="715" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="715" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E715" s="5"/>
     </row>
-    <row r="716" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="716" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E716" s="5"/>
     </row>
-    <row r="717" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="717" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E717" s="5"/>
     </row>
-    <row r="718" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="718" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E718" s="5"/>
     </row>
-    <row r="719" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="719" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E719" s="5"/>
     </row>
-    <row r="720" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="720" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E720" s="5"/>
     </row>
-    <row r="721" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="721" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E721" s="5"/>
     </row>
-    <row r="722" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="722" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E722" s="5"/>
     </row>
-    <row r="723" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="723" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E723" s="5"/>
     </row>
-    <row r="724" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="724" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E724" s="5"/>
     </row>
-    <row r="725" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="725" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E725" s="5"/>
     </row>
-    <row r="726" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="726" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E726" s="5"/>
     </row>
-    <row r="727" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="727" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E727" s="5"/>
     </row>
-    <row r="728" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="728" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E728" s="5"/>
     </row>
-    <row r="729" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="729" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E729" s="5"/>
     </row>
-    <row r="730" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="730" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E730" s="5"/>
     </row>
-    <row r="731" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="731" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E731" s="5"/>
     </row>
-    <row r="732" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="732" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E732" s="5"/>
     </row>
-    <row r="733" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="733" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E733" s="5"/>
     </row>
-    <row r="734" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="734" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E734" s="5"/>
     </row>
-    <row r="735" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="735" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E735" s="5"/>
     </row>
-    <row r="736" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="736" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E736" s="5"/>
     </row>
-    <row r="737" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="737" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E737" s="5"/>
     </row>
-    <row r="738" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="738" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E738" s="5"/>
     </row>
-    <row r="739" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="739" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E739" s="5"/>
     </row>
-    <row r="740" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="740" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E740" s="5"/>
     </row>
-    <row r="741" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="741" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E741" s="5"/>
     </row>
-    <row r="742" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="742" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E742" s="5"/>
     </row>
-    <row r="743" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="743" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E743" s="5"/>
     </row>
-    <row r="744" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="744" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E744" s="5"/>
     </row>
-    <row r="745" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="745" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E745" s="5"/>
     </row>
-    <row r="746" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="746" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E746" s="5"/>
     </row>
-    <row r="747" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="747" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E747" s="5"/>
     </row>
-    <row r="748" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="748" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E748" s="5"/>
     </row>
-    <row r="749" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="749" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E749" s="5"/>
     </row>
-    <row r="750" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="750" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E750" s="5"/>
     </row>
-    <row r="751" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="751" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E751" s="5"/>
     </row>
-    <row r="752" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="752" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E752" s="5"/>
     </row>
-    <row r="753" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="753" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E753" s="5"/>
     </row>
-    <row r="754" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="754" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E754" s="5"/>
     </row>
-    <row r="755" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="755" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E755" s="5"/>
     </row>
-    <row r="756" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="756" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E756" s="5"/>
     </row>
-    <row r="757" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="757" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E757" s="5"/>
     </row>
-    <row r="758" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="758" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E758" s="5"/>
     </row>
-    <row r="759" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="759" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E759" s="5"/>
     </row>
-    <row r="760" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="760" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E760" s="5"/>
     </row>
-    <row r="761" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="761" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E761" s="5"/>
     </row>
-    <row r="762" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="762" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E762" s="5"/>
     </row>
-    <row r="763" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="763" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E763" s="5"/>
     </row>
-    <row r="764" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="764" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E764" s="5"/>
     </row>
-    <row r="765" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="765" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E765" s="5"/>
     </row>
-    <row r="766" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="766" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E766" s="5"/>
     </row>
-    <row r="767" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="767" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E767" s="5"/>
     </row>
-    <row r="768" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="768" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E768" s="5"/>
     </row>
-    <row r="769" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="769" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E769" s="5"/>
     </row>
-    <row r="770" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="770" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E770" s="5"/>
     </row>
-    <row r="771" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="771" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E771" s="5"/>
     </row>
-    <row r="772" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="772" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E772" s="5"/>
     </row>
-    <row r="773" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="773" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E773" s="5"/>
     </row>
-    <row r="774" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="774" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E774" s="5"/>
     </row>
-    <row r="775" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="775" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E775" s="5"/>
     </row>
-    <row r="776" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="776" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E776" s="5"/>
     </row>
-    <row r="777" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="777" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E777" s="5"/>
     </row>
-    <row r="778" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="778" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E778" s="5"/>
     </row>
-    <row r="779" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="779" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E779" s="5"/>
     </row>
-    <row r="780" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="780" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E780" s="5"/>
     </row>
-    <row r="781" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="781" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E781" s="5"/>
     </row>
-    <row r="782" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="782" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E782" s="5"/>
     </row>
-    <row r="783" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="783" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E783" s="5"/>
     </row>
-    <row r="784" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="784" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E784" s="5"/>
     </row>
-    <row r="785" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="785" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E785" s="5"/>
     </row>
-    <row r="786" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="786" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E786" s="5"/>
     </row>
-    <row r="787" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="787" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E787" s="5"/>
     </row>
-    <row r="788" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="788" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E788" s="5"/>
     </row>
-    <row r="789" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="789" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E789" s="5"/>
     </row>
-    <row r="790" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="790" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E790" s="5"/>
     </row>
-    <row r="791" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="791" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E791" s="5"/>
     </row>
-    <row r="792" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="792" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E792" s="5"/>
     </row>
-    <row r="793" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="793" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E793" s="5"/>
     </row>
-    <row r="794" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="794" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E794" s="5"/>
     </row>
-    <row r="795" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="795" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E795" s="5"/>
     </row>
-    <row r="796" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="796" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E796" s="5"/>
     </row>
-    <row r="797" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="797" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E797" s="5"/>
     </row>
-    <row r="798" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="798" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E798" s="5"/>
     </row>
-    <row r="799" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="799" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E799" s="5"/>
     </row>
-    <row r="800" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="800" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E800" s="5"/>
     </row>
-    <row r="801" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="801" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E801" s="5"/>
     </row>
-    <row r="802" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="802" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E802" s="5"/>
     </row>
-    <row r="803" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="803" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E803" s="5"/>
     </row>
-    <row r="804" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="804" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E804" s="5"/>
     </row>
-    <row r="805" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="805" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E805" s="5"/>
     </row>
-    <row r="806" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="806" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E806" s="5"/>
     </row>
-    <row r="807" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="807" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E807" s="5"/>
     </row>
-    <row r="808" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="808" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E808" s="5"/>
     </row>
-    <row r="809" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="809" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E809" s="5"/>
     </row>
-    <row r="810" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="810" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E810" s="5"/>
     </row>
-    <row r="811" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="811" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E811" s="5"/>
     </row>
-    <row r="812" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="812" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E812" s="5"/>
     </row>
-    <row r="813" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="813" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E813" s="5"/>
     </row>
-    <row r="814" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="814" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E814" s="5"/>
     </row>
-    <row r="815" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="815" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E815" s="5"/>
     </row>
-    <row r="816" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="816" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E816" s="5"/>
     </row>
-    <row r="817" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="817" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E817" s="5"/>
     </row>
-    <row r="818" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="818" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E818" s="5"/>
     </row>
-    <row r="819" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="819" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E819" s="5"/>
     </row>
-    <row r="820" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="820" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E820" s="5"/>
     </row>
-    <row r="821" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="821" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E821" s="5"/>
     </row>
-    <row r="822" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="822" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E822" s="5"/>
     </row>
-    <row r="823" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="823" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E823" s="5"/>
     </row>
-    <row r="824" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="824" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E824" s="5"/>
     </row>
-    <row r="825" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="825" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E825" s="5"/>
     </row>
-    <row r="826" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="826" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E826" s="5"/>
     </row>
-    <row r="827" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="827" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E827" s="5"/>
     </row>
-    <row r="828" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="828" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E828" s="5"/>
     </row>
-    <row r="829" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="829" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E829" s="5"/>
     </row>
-    <row r="830" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="830" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E830" s="5"/>
     </row>
-    <row r="831" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="831" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E831" s="5"/>
     </row>
-    <row r="832" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="832" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E832" s="5"/>
     </row>
-    <row r="833" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="833" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E833" s="5"/>
     </row>
-    <row r="834" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="834" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E834" s="5"/>
     </row>
-    <row r="835" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="835" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E835" s="5"/>
     </row>
-    <row r="836" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="836" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E836" s="5"/>
     </row>
-    <row r="837" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="837" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E837" s="5"/>
     </row>
-    <row r="838" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="838" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E838" s="5"/>
     </row>
-    <row r="839" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="839" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E839" s="5"/>
     </row>
-    <row r="840" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="840" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E840" s="5"/>
     </row>
-    <row r="841" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="841" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E841" s="5"/>
     </row>
-    <row r="842" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="842" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E842" s="5"/>
     </row>
-    <row r="843" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="843" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E843" s="5"/>
     </row>
-    <row r="844" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="844" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E844" s="5"/>
     </row>
-    <row r="845" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="845" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E845" s="5"/>
     </row>
-    <row r="846" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="846" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E846" s="5"/>
     </row>
-    <row r="847" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="847" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E847" s="5"/>
     </row>
-    <row r="848" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="848" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E848" s="5"/>
     </row>
-    <row r="849" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="849" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E849" s="5"/>
     </row>
-    <row r="850" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="850" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E850" s="5"/>
     </row>
-    <row r="851" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="851" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E851" s="5"/>
     </row>
-    <row r="852" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="852" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E852" s="5"/>
     </row>
-    <row r="853" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="853" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E853" s="5"/>
     </row>
-    <row r="854" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="854" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E854" s="5"/>
     </row>
-    <row r="855" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="855" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E855" s="5"/>
     </row>
-    <row r="856" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="856" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E856" s="5"/>
     </row>
-    <row r="857" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="857" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E857" s="5"/>
     </row>
-    <row r="858" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="858" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E858" s="5"/>
     </row>
-    <row r="859" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="859" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E859" s="5"/>
     </row>
-    <row r="860" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="860" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E860" s="5"/>
     </row>
-    <row r="861" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="861" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E861" s="5"/>
     </row>
-    <row r="862" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="862" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E862" s="5"/>
     </row>
-    <row r="863" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="863" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E863" s="5"/>
     </row>
-    <row r="864" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="864" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E864" s="5"/>
     </row>
-    <row r="865" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="865" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E865" s="5"/>
     </row>
-    <row r="866" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="866" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E866" s="5"/>
     </row>
-    <row r="867" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="867" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E867" s="5"/>
     </row>
-    <row r="868" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="868" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E868" s="5"/>
     </row>
-    <row r="869" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="869" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E869" s="5"/>
     </row>
-    <row r="870" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="870" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E870" s="5"/>
     </row>
-    <row r="871" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="871" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E871" s="5"/>
     </row>
-    <row r="872" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="872" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E872" s="5"/>
     </row>
-    <row r="873" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="873" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E873" s="5"/>
     </row>
-    <row r="874" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="874" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E874" s="5"/>
     </row>
-    <row r="875" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="875" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E875" s="5"/>
     </row>
-    <row r="876" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="876" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E876" s="5"/>
     </row>
-    <row r="877" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="877" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E877" s="5"/>
     </row>
-    <row r="878" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="878" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E878" s="5"/>
     </row>
-    <row r="879" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="879" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E879" s="5"/>
     </row>
-    <row r="880" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="880" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E880" s="5"/>
     </row>
-    <row r="881" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="881" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E881" s="5"/>
     </row>
-    <row r="882" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="882" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E882" s="5"/>
     </row>
-    <row r="883" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="883" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E883" s="5"/>
     </row>
-    <row r="884" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="884" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E884" s="5"/>
     </row>
-    <row r="885" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="885" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E885" s="5"/>
     </row>
-    <row r="886" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="886" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E886" s="5"/>
     </row>
-    <row r="887" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="887" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E887" s="5"/>
     </row>
-    <row r="888" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="888" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E888" s="5"/>
     </row>
-    <row r="889" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="889" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E889" s="5"/>
     </row>
-    <row r="890" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="890" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E890" s="5"/>
     </row>
-    <row r="891" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="891" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E891" s="5"/>
     </row>
-    <row r="892" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="892" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E892" s="5"/>
     </row>
-    <row r="893" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="893" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E893" s="5"/>
     </row>
-    <row r="894" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="894" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E894" s="5"/>
     </row>
-    <row r="895" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="895" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E895" s="5"/>
     </row>
-    <row r="896" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="896" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E896" s="5"/>
     </row>
-    <row r="897" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="897" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E897" s="5"/>
     </row>
-    <row r="898" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="898" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E898" s="5"/>
     </row>
-    <row r="899" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="899" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E899" s="5"/>
     </row>
-    <row r="900" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="900" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E900" s="5"/>
     </row>
-    <row r="901" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="901" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E901" s="5"/>
     </row>
-    <row r="902" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="902" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E902" s="5"/>
     </row>
-    <row r="903" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="903" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E903" s="5"/>
     </row>
-    <row r="904" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="904" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E904" s="5"/>
     </row>
-    <row r="905" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="905" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E905" s="5"/>
     </row>
-    <row r="906" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="906" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E906" s="5"/>
     </row>
-    <row r="907" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="907" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E907" s="5"/>
     </row>
-    <row r="908" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="908" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E908" s="5"/>
     </row>
-    <row r="909" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="909" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E909" s="5"/>
     </row>
-    <row r="910" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="910" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E910" s="5"/>
     </row>
-    <row r="911" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="911" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E911" s="5"/>
     </row>
-    <row r="912" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="912" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E912" s="5"/>
     </row>
-    <row r="913" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="913" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E913" s="5"/>
     </row>
-    <row r="914" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="914" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E914" s="5"/>
     </row>
-    <row r="915" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="915" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E915" s="5"/>
     </row>
-    <row r="916" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="916" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E916" s="5"/>
     </row>
-    <row r="917" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="917" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E917" s="5"/>
     </row>
-    <row r="918" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="918" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E918" s="5"/>
     </row>
-    <row r="919" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="919" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E919" s="5"/>
     </row>
-    <row r="920" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="920" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E920" s="5"/>
     </row>
-    <row r="921" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="921" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E921" s="5"/>
     </row>
-    <row r="922" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="922" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E922" s="5"/>
     </row>
-    <row r="923" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="923" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E923" s="5"/>
     </row>
-    <row r="924" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="924" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E924" s="5"/>
     </row>
-    <row r="925" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="925" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E925" s="5"/>
     </row>
-    <row r="926" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="926" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E926" s="5"/>
     </row>
-    <row r="927" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="927" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E927" s="5"/>
     </row>
-    <row r="928" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="928" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E928" s="5"/>
     </row>
-    <row r="929" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="929" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E929" s="5"/>
     </row>
-    <row r="930" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="930" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E930" s="5"/>
     </row>
-    <row r="931" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="931" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E931" s="5"/>
     </row>
-    <row r="932" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="932" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E932" s="5"/>
     </row>
-    <row r="933" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="933" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E933" s="5"/>
     </row>
-    <row r="934" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="934" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E934" s="5"/>
     </row>
-    <row r="935" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="935" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E935" s="5"/>
     </row>
-    <row r="936" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="936" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E936" s="5"/>
     </row>
-    <row r="937" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="937" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E937" s="5"/>
     </row>
-    <row r="938" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="938" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E938" s="5"/>
     </row>
-    <row r="939" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="939" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E939" s="5"/>
     </row>
-    <row r="940" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="940" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E940" s="5"/>
     </row>
-    <row r="941" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="941" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E941" s="5"/>
     </row>
-    <row r="942" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="942" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E942" s="5"/>
     </row>
-    <row r="943" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="943" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E943" s="5"/>
     </row>
-    <row r="944" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="944" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E944" s="5"/>
     </row>
-    <row r="945" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="945" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E945" s="5"/>
     </row>
-    <row r="946" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="946" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E946" s="5"/>
     </row>
-    <row r="947" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="947" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E947" s="5"/>
     </row>
-    <row r="948" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="948" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E948" s="5"/>
     </row>
-    <row r="949" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="949" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E949" s="5"/>
     </row>
-    <row r="950" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="950" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E950" s="5"/>
     </row>
-    <row r="951" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="951" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E951" s="5"/>
     </row>
-    <row r="952" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="952" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E952" s="5"/>
     </row>
-    <row r="953" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="953" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E953" s="5"/>
     </row>
-    <row r="954" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="954" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E954" s="5"/>
     </row>
-    <row r="955" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="955" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E955" s="5"/>
     </row>
-    <row r="956" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="956" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E956" s="5"/>
     </row>
-    <row r="957" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="957" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E957" s="5"/>
     </row>
-    <row r="958" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="958" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E958" s="5"/>
     </row>
-    <row r="959" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="959" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E959" s="5"/>
     </row>
-    <row r="960" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="960" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E960" s="5"/>
     </row>
-    <row r="961" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="961" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E961" s="5"/>
     </row>
-    <row r="962" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="962" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E962" s="5"/>
     </row>
-    <row r="963" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="963" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E963" s="5"/>
     </row>
-    <row r="964" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="964" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E964" s="5"/>
     </row>
-    <row r="965" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="965" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E965" s="5"/>
     </row>
-    <row r="966" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="966" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E966" s="5"/>
     </row>
-    <row r="967" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="967" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E967" s="5"/>
     </row>
-    <row r="968" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="968" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E968" s="5"/>
     </row>
-    <row r="969" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="969" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E969" s="5"/>
     </row>
-    <row r="970" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="970" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E970" s="5"/>
     </row>
-    <row r="971" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="971" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E971" s="5"/>
     </row>
-    <row r="972" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="972" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E972" s="5"/>
     </row>
-    <row r="973" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="973" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E973" s="5"/>
     </row>
-    <row r="974" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="974" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E974" s="5"/>
     </row>
-    <row r="975" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="975" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E975" s="5"/>
     </row>
-    <row r="976" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="976" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E976" s="5"/>
     </row>
-    <row r="977" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="977" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E977" s="5"/>
     </row>
-    <row r="978" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="978" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E978" s="5"/>
     </row>
-    <row r="979" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="979" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E979" s="5"/>
     </row>
-    <row r="980" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="980" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E980" s="5"/>
     </row>
-    <row r="981" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="981" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E981" s="5"/>
     </row>
-    <row r="982" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="982" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E982" s="5"/>
     </row>
-    <row r="983" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="983" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E983" s="5"/>
     </row>
-    <row r="984" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="984" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E984" s="5"/>
     </row>
-    <row r="985" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="985" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E985" s="5"/>
     </row>
-    <row r="986" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="986" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E986" s="5"/>
     </row>
-    <row r="987" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="987" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E987" s="5"/>
     </row>
-    <row r="988" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="988" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E988" s="5"/>
     </row>
-    <row r="989" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="989" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E989" s="5"/>
     </row>
-    <row r="990" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="990" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E990" s="5"/>
     </row>
-    <row r="991" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="991" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E991" s="5"/>
     </row>
-    <row r="992" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="992" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E992" s="5"/>
     </row>
-    <row r="993" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="993" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E993" s="5"/>
     </row>
-    <row r="994" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="994" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E994" s="5"/>
     </row>
-    <row r="995" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="995" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E995" s="5"/>
     </row>
-    <row r="996" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="996" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E996" s="5"/>
     </row>
-    <row r="997" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="997" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E997" s="5"/>
     </row>
-    <row r="998" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="998" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E998" s="5"/>
     </row>
-    <row r="999" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="999" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E999" s="5"/>
     </row>
-    <row r="1000" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1000" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1000" s="5"/>
     </row>
-    <row r="1001" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1001" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1001" s="5"/>
     </row>
-    <row r="1002" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1002" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1002" s="5"/>
     </row>
-    <row r="1003" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1003" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1003" s="5"/>
     </row>
-    <row r="1004" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1004" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1004" s="5"/>
     </row>
-    <row r="1005" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1005" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1005" s="5"/>
     </row>
-    <row r="1006" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1006" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1006" s="5"/>
     </row>
-    <row r="1007" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1007" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1007" s="5"/>
     </row>
-    <row r="1008" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1008" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1008" s="5"/>
     </row>
-    <row r="1009" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1009" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1009" s="5"/>
     </row>
-    <row r="1010" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1010" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1010" s="5"/>
     </row>
-    <row r="1011" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1011" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1011" s="5"/>
     </row>
-    <row r="1012" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1012" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1012" s="5"/>
     </row>
-    <row r="1013" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1013" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1013" s="5"/>
     </row>
-    <row r="1014" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1014" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1014" s="5"/>
     </row>
-    <row r="1015" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1015" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1015" s="5"/>
     </row>
-    <row r="1016" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1016" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1016" s="5"/>
     </row>
-    <row r="1017" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1017" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1017" s="5"/>
     </row>
-    <row r="1018" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1018" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1018" s="5"/>
     </row>
-    <row r="1019" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1019" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1019" s="5"/>
     </row>
-    <row r="1020" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1020" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1020" s="5"/>
     </row>
-    <row r="1021" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1021" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1021" s="5"/>
     </row>
-    <row r="1022" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1022" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1022" s="5"/>
     </row>
-    <row r="1023" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1023" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1023" s="5"/>
     </row>
-    <row r="1024" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1024" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1024" s="5"/>
     </row>
-    <row r="1025" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1025" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1025" s="5"/>
     </row>
-    <row r="1026" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1026" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1026" s="5"/>
     </row>
-    <row r="1027" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1027" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1027" s="5"/>
     </row>
-    <row r="1028" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1028" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1028" s="5"/>
     </row>
-    <row r="1029" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1029" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1029" s="5"/>
     </row>
-    <row r="1030" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1030" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1030" s="5"/>
     </row>
-    <row r="1031" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1031" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1031" s="5"/>
     </row>
-    <row r="1032" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1032" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1032" s="5"/>
     </row>
-    <row r="1033" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1033" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1033" s="5"/>
     </row>
-    <row r="1034" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1034" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1034" s="5"/>
     </row>
-    <row r="1035" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1035" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1035" s="5"/>
     </row>
-    <row r="1036" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1036" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1036" s="5"/>
     </row>
-    <row r="1037" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1037" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1037" s="5"/>
     </row>
-    <row r="1038" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1038" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1038" s="5"/>
     </row>
-    <row r="1039" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1039" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1039" s="5"/>
     </row>
-    <row r="1040" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1040" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1040" s="5"/>
     </row>
-    <row r="1041" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1041" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1041" s="5"/>
     </row>
-    <row r="1042" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1042" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1042" s="5"/>
     </row>
-    <row r="1043" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1043" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1043" s="5"/>
     </row>
-    <row r="1044" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1044" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1044" s="5"/>
     </row>
-    <row r="1045" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1045" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1045" s="5"/>
     </row>
-    <row r="1046" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1046" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1046" s="5"/>
     </row>
-    <row r="1047" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1047" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1047" s="5"/>
     </row>
-    <row r="1048" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1048" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1048" s="5"/>
     </row>
-    <row r="1049" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1049" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1049" s="5"/>
     </row>
-    <row r="1050" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1050" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1050" s="5"/>
     </row>
-    <row r="1051" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1051" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1051" s="5"/>
     </row>
-    <row r="1052" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1052" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1052" s="5"/>
     </row>
-    <row r="1053" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1053" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1053" s="5"/>
     </row>
-    <row r="1054" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1054" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1054" s="5"/>
     </row>
-    <row r="1055" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1055" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1055" s="5"/>
     </row>
-    <row r="1056" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1056" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1056" s="5"/>
     </row>
-    <row r="1057" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1057" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1057" s="5"/>
     </row>
-    <row r="1058" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1058" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1058" s="5"/>
     </row>
-    <row r="1059" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1059" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1059" s="5"/>
     </row>
-    <row r="1060" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1060" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1060" s="5"/>
     </row>
-    <row r="1061" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1061" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1061" s="5"/>
     </row>
-    <row r="1062" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1062" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1062" s="5"/>
     </row>
-    <row r="1063" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1063" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1063" s="5"/>
     </row>
-    <row r="1064" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1064" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1064" s="5"/>
     </row>
-    <row r="1065" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1065" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1065" s="5"/>
     </row>
-    <row r="1066" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1066" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1066" s="5"/>
     </row>
-    <row r="1067" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1067" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1067" s="5"/>
     </row>
-    <row r="1068" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1068" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1068" s="5"/>
     </row>
-    <row r="1069" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1069" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1069" s="5"/>
     </row>
-    <row r="1070" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1070" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1070" s="5"/>
     </row>
-    <row r="1071" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1071" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1071" s="5"/>
     </row>
-    <row r="1072" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1072" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1072" s="5"/>
     </row>
-    <row r="1073" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1073" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1073" s="5"/>
     </row>
-    <row r="1074" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1074" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1074" s="5"/>
     </row>
-    <row r="1075" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1075" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1075" s="5"/>
     </row>
-    <row r="1076" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1076" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1076" s="5"/>
     </row>
-    <row r="1077" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1077" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1077" s="5"/>
     </row>
-    <row r="1078" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1078" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1078" s="5"/>
     </row>
-    <row r="1079" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1079" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1079" s="5"/>
     </row>
-    <row r="1080" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1080" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1080" s="5"/>
     </row>
-    <row r="1081" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1081" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1081" s="5"/>
     </row>
-    <row r="1082" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1082" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1082" s="5"/>
     </row>
-    <row r="1083" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1083" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1083" s="5"/>
     </row>
-    <row r="1084" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1084" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1084" s="5"/>
     </row>
-    <row r="1085" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1085" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1085" s="5"/>
     </row>
-    <row r="1086" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1086" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1086" s="5"/>
     </row>
-    <row r="1087" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1087" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1087" s="5"/>
     </row>
-    <row r="1088" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1088" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1088" s="5"/>
     </row>
-    <row r="1089" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1089" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1089" s="5"/>
     </row>
-    <row r="1090" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1090" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1090" s="5"/>
     </row>
-    <row r="1091" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1091" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1091" s="5"/>
     </row>
-    <row r="1092" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1092" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1092" s="5"/>
     </row>
-    <row r="1093" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1093" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1093" s="5"/>
     </row>
-    <row r="1094" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1094" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1094" s="5"/>
     </row>
-    <row r="1095" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1095" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1095" s="5"/>
     </row>
-    <row r="1096" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1096" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1096" s="5"/>
     </row>
-    <row r="1097" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1097" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1097" s="5"/>
     </row>
-    <row r="1098" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1098" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1098" s="5"/>
     </row>
-    <row r="1099" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1099" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1099" s="5"/>
     </row>
-    <row r="1100" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1100" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1100" s="5"/>
     </row>
-    <row r="1101" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1101" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1101" s="5"/>
     </row>
-    <row r="1102" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1102" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1102" s="5"/>
     </row>
-    <row r="1103" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1103" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1103" s="5"/>
     </row>
-    <row r="1104" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1104" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1104" s="5"/>
     </row>
-    <row r="1105" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1105" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1105" s="5"/>
     </row>
-    <row r="1106" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1106" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1106" s="5"/>
     </row>
-    <row r="1107" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1107" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1107" s="5"/>
     </row>
-    <row r="1108" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1108" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1108" s="5"/>
     </row>
-    <row r="1109" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1109" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1109" s="5"/>
     </row>
-    <row r="1110" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1110" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1110" s="5"/>
     </row>
-    <row r="1111" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1111" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1111" s="5"/>
     </row>
-    <row r="1112" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1112" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1112" s="5"/>
     </row>
-    <row r="1113" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1113" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1113" s="5"/>
     </row>
-    <row r="1114" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1114" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1114" s="5"/>
     </row>
-    <row r="1115" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1115" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1115" s="5"/>
     </row>
-    <row r="1116" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1116" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1116" s="5"/>
     </row>
-    <row r="1117" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1117" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1117" s="5"/>
     </row>
-    <row r="1118" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1118" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1118" s="5"/>
     </row>
-    <row r="1119" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1119" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1119" s="5"/>
     </row>
-    <row r="1120" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1120" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1120" s="5"/>
     </row>
-    <row r="1121" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1121" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1121" s="5"/>
     </row>
-    <row r="1122" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1122" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1122" s="5"/>
     </row>
-    <row r="1123" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1123" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1123" s="5"/>
     </row>
-    <row r="1124" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1124" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1124" s="5"/>
     </row>
-    <row r="1125" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1125" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1125" s="5"/>
     </row>
-    <row r="1126" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1126" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1126" s="5"/>
     </row>
-    <row r="1127" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1127" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1127" s="5"/>
     </row>
-    <row r="1128" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1128" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1128" s="5"/>
     </row>
-    <row r="1129" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1129" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1129" s="5"/>
     </row>
-    <row r="1130" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1130" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1130" s="5"/>
     </row>
-    <row r="1131" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1131" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1131" s="5"/>
     </row>
-    <row r="1132" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1132" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1132" s="5"/>
     </row>
-    <row r="1133" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1133" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1133" s="5"/>
     </row>
-    <row r="1134" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1134" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1134" s="5"/>
     </row>
-    <row r="1135" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1135" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1135" s="5"/>
     </row>
-    <row r="1136" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1136" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1136" s="5"/>
     </row>
-    <row r="1137" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1137" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1137" s="5"/>
     </row>
-    <row r="1138" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1138" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1138" s="5"/>
     </row>
-    <row r="1139" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1139" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1139" s="5"/>
     </row>
-    <row r="1140" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1140" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1140" s="5"/>
     </row>
-    <row r="1141" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1141" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1141" s="5"/>
     </row>
-    <row r="1142" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1142" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1142" s="5"/>
     </row>
-    <row r="1143" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1143" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1143" s="5"/>
     </row>
-    <row r="1144" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1144" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1144" s="5"/>
     </row>
-    <row r="1145" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1145" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1145" s="5"/>
     </row>
-    <row r="1146" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1146" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1146" s="5"/>
     </row>
-    <row r="1147" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1147" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1147" s="5"/>
     </row>
-    <row r="1148" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1148" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1148" s="5"/>
     </row>
-    <row r="1149" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1149" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1149" s="5"/>
     </row>
-    <row r="1150" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1150" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1150" s="5"/>
     </row>
-    <row r="1151" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1151" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1151" s="5"/>
     </row>
-    <row r="1152" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1152" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1152" s="5"/>
     </row>
-    <row r="1153" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1153" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1153" s="5"/>
     </row>
-    <row r="1154" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1154" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1154" s="5"/>
     </row>
-    <row r="1155" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1155" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1155" s="5"/>
     </row>
-    <row r="1156" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1156" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1156" s="5"/>
     </row>
-    <row r="1157" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1157" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1157" s="5"/>
     </row>
-    <row r="1158" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1158" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1158" s="5"/>
     </row>
-    <row r="1159" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1159" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1159" s="5"/>
     </row>
-    <row r="1160" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1160" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1160" s="5"/>
     </row>
-    <row r="1161" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1161" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1161" s="5"/>
     </row>
-    <row r="1162" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1162" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1162" s="5"/>
     </row>
-    <row r="1163" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1163" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1163" s="5"/>
     </row>
-    <row r="1164" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1164" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1164" s="5"/>
     </row>
-    <row r="1165" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1165" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1165" s="5"/>
     </row>
-    <row r="1166" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1166" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1166" s="5"/>
     </row>
-    <row r="1167" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1167" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1167" s="5"/>
     </row>
-    <row r="1168" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1168" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1168" s="5"/>
     </row>
-    <row r="1169" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1169" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1169" s="5"/>
     </row>
-    <row r="1170" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1170" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1170" s="5"/>
     </row>
-    <row r="1171" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1171" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1171" s="5"/>
     </row>
-    <row r="1172" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1172" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1172" s="5"/>
     </row>
-    <row r="1173" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1173" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1173" s="5"/>
     </row>
-    <row r="1174" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1174" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1174" s="5"/>
     </row>
-    <row r="1175" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1175" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1175" s="5"/>
     </row>
-    <row r="1176" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1176" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1176" s="5"/>
     </row>
-    <row r="1177" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1177" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1177" s="5"/>
     </row>
-    <row r="1178" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1178" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1178" s="5"/>
     </row>
-    <row r="1179" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1179" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1179" s="5"/>
     </row>
-    <row r="1180" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1180" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1180" s="5"/>
     </row>
-    <row r="1181" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1181" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1181" s="5"/>
     </row>
-    <row r="1182" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1182" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1182" s="5"/>
     </row>
-    <row r="1183" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1183" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1183" s="5"/>
     </row>
-    <row r="1184" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1184" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1184" s="5"/>
     </row>
-    <row r="1185" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1185" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1185" s="5"/>
     </row>
-    <row r="1186" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1186" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1186" s="5"/>
     </row>
-    <row r="1187" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1187" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1187" s="5"/>
     </row>
-    <row r="1188" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1188" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1188" s="5"/>
     </row>
-    <row r="1189" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1189" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1189" s="5"/>
     </row>
-    <row r="1190" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1190" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1190" s="5"/>
     </row>
-    <row r="1191" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1191" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1191" s="5"/>
     </row>
-    <row r="1192" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1192" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1192" s="5"/>
     </row>
-    <row r="1193" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1193" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1193" s="5"/>
     </row>
-    <row r="1194" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1194" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1194" s="5"/>
     </row>
-    <row r="1195" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1195" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1195" s="5"/>
     </row>
-    <row r="1196" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1196" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1196" s="5"/>
     </row>
-    <row r="1197" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1197" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1197" s="5"/>
     </row>
-    <row r="1198" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1198" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1198" s="5"/>
     </row>
-    <row r="1199" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1199" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1199" s="5"/>
     </row>
-    <row r="1200" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1200" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1200" s="5"/>
     </row>
-    <row r="1201" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1201" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1201" s="5"/>
     </row>
-    <row r="1202" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1202" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1202" s="5"/>
     </row>
-    <row r="1203" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1203" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1203" s="5"/>
     </row>
-    <row r="1204" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1204" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1204" s="5"/>
     </row>
-    <row r="1205" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1205" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1205" s="5"/>
     </row>
-    <row r="1206" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1206" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1206" s="5"/>
     </row>
-    <row r="1207" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1207" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1207" s="5"/>
     </row>
-    <row r="1208" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1208" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1208" s="5"/>
     </row>
-    <row r="1209" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1209" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1209" s="5"/>
     </row>
-    <row r="1210" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1210" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1210" s="5"/>
     </row>
-    <row r="1211" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1211" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1211" s="5"/>
     </row>
-    <row r="1212" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1212" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1212" s="5"/>
     </row>
-    <row r="1213" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1213" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1213" s="5"/>
     </row>
-    <row r="1214" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1214" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1214" s="5"/>
     </row>
-    <row r="1215" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1215" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1215" s="5"/>
     </row>
-    <row r="1216" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1216" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1216" s="5"/>
     </row>
-    <row r="1217" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1217" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1217" s="5"/>
     </row>
-    <row r="1218" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1218" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1218" s="5"/>
     </row>
-    <row r="1219" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1219" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1219" s="5"/>
     </row>
-    <row r="1220" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1220" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1220" s="5"/>
     </row>
-    <row r="1221" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1221" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1221" s="5"/>
     </row>
-    <row r="1222" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1222" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1222" s="5"/>
     </row>
-    <row r="1223" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1223" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1223" s="5"/>
     </row>
-    <row r="1224" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1224" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1224" s="5"/>
     </row>
-    <row r="1225" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1225" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1225" s="5"/>
     </row>
-    <row r="1226" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1226" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1226" s="5"/>
     </row>
-    <row r="1227" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1227" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1227" s="5"/>
     </row>
-    <row r="1228" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1228" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1228" s="5"/>
     </row>
-    <row r="1229" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1229" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1229" s="5"/>
     </row>
-    <row r="1230" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1230" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1230" s="5"/>
     </row>
-    <row r="1231" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1231" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1231" s="5"/>
     </row>
-    <row r="1232" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1232" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1232" s="5"/>
     </row>
-    <row r="1233" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1233" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1233" s="5"/>
     </row>
-    <row r="1234" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1234" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1234" s="5"/>
     </row>
-    <row r="1235" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1235" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1235" s="5"/>
     </row>
-    <row r="1236" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1236" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1236" s="5"/>
     </row>
-    <row r="1237" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1237" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1237" s="5"/>
     </row>
-    <row r="1238" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1238" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1238" s="5"/>
     </row>
-    <row r="1239" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1239" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1239" s="5"/>
     </row>
-    <row r="1240" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1240" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1240" s="5"/>
     </row>
-    <row r="1241" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1241" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1241" s="5"/>
     </row>
-    <row r="1242" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1242" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1242" s="5"/>
     </row>
-    <row r="1243" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1243" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1243" s="5"/>
     </row>
-    <row r="1244" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1244" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1244" s="5"/>
     </row>
-    <row r="1245" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1245" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1245" s="5"/>
     </row>
-    <row r="1246" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1246" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1246" s="5"/>
     </row>
-    <row r="1247" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1247" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1247" s="5"/>
     </row>
-    <row r="1248" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1248" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1248" s="5"/>
     </row>
-    <row r="1249" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1249" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1249" s="5"/>
     </row>
-    <row r="1250" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1250" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1250" s="5"/>
     </row>
-    <row r="1251" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1251" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1251" s="5"/>
     </row>
-    <row r="1252" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1252" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1252" s="5"/>
     </row>
-    <row r="1253" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1253" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1253" s="5"/>
     </row>
-    <row r="1254" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1254" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1254" s="5"/>
     </row>
-    <row r="1255" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1255" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1255" s="5"/>
     </row>
-    <row r="1256" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1256" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1256" s="5"/>
     </row>
-    <row r="1257" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1257" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1257" s="5"/>
     </row>
-    <row r="1258" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1258" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1258" s="5"/>
     </row>
-    <row r="1259" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1259" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1259" s="5"/>
     </row>
-    <row r="1260" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1260" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1260" s="5"/>
     </row>
-    <row r="1261" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1261" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1261" s="5"/>
     </row>
-    <row r="1262" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1262" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1262" s="5"/>
     </row>
-    <row r="1263" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1263" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1263" s="5"/>
     </row>
-    <row r="1264" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1264" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1264" s="5"/>
     </row>
-    <row r="1265" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1265" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1265" s="5"/>
     </row>
-    <row r="1266" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1266" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1266" s="5"/>
     </row>
-    <row r="1267" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1267" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1267" s="5"/>
     </row>
-    <row r="1268" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1268" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1268" s="5"/>
     </row>
-    <row r="1269" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1269" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1269" s="5"/>
     </row>
-    <row r="1270" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1270" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1270" s="5"/>
     </row>
-    <row r="1271" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1271" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1271" s="5"/>
     </row>
-    <row r="1272" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1272" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1272" s="5"/>
     </row>
-    <row r="1273" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1273" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1273" s="5"/>
     </row>
-    <row r="1274" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1274" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1274" s="5"/>
     </row>
-    <row r="1275" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1275" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1275" s="5"/>
     </row>
-    <row r="1276" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1276" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1276" s="5"/>
     </row>
-    <row r="1277" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1277" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1277" s="5"/>
     </row>
-    <row r="1278" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1278" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1278" s="5"/>
     </row>
-    <row r="1279" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1279" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1279" s="5"/>
     </row>
-    <row r="1280" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1280" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1280" s="5"/>
     </row>
-    <row r="1281" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1281" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1281" s="5"/>
     </row>
-    <row r="1282" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1282" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1282" s="5"/>
     </row>
-    <row r="1283" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1283" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1283" s="5"/>
     </row>
-    <row r="1284" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1284" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1284" s="5"/>
     </row>
-    <row r="1285" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1285" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1285" s="5"/>
     </row>
-    <row r="1286" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1286" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1286" s="5"/>
     </row>
-    <row r="1287" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1287" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1287" s="5"/>
     </row>
-    <row r="1288" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1288" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1288" s="5"/>
     </row>
-    <row r="1289" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1289" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1289" s="5"/>
     </row>
-    <row r="1290" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1290" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1290" s="5"/>
     </row>
-    <row r="1291" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1291" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1291" s="5"/>
     </row>
-    <row r="1292" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1292" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1292" s="5"/>
     </row>
-    <row r="1293" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1293" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1293" s="5"/>
     </row>
-    <row r="1294" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1294" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1294" s="5"/>
     </row>
-    <row r="1295" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1295" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1295" s="5"/>
     </row>
-    <row r="1296" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1296" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1296" s="5"/>
     </row>
-    <row r="1297" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1297" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1297" s="5"/>
     </row>
-    <row r="1298" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1298" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1298" s="5"/>
     </row>
-    <row r="1299" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1299" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1299" s="5"/>
     </row>
-    <row r="1300" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1300" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1300" s="5"/>
     </row>
-    <row r="1301" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1301" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1301" s="5"/>
     </row>
-    <row r="1302" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1302" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1302" s="5"/>
     </row>
-    <row r="1303" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1303" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1303" s="5"/>
     </row>
-    <row r="1304" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1304" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1304" s="5"/>
     </row>
-    <row r="1305" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1305" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1305" s="5"/>
     </row>
-    <row r="1306" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1306" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1306" s="5"/>
     </row>
-    <row r="1307" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1307" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1307" s="5"/>
     </row>
-    <row r="1308" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1308" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1308" s="5"/>
     </row>
-    <row r="1309" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1309" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1309" s="5"/>
     </row>
-    <row r="1310" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1310" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1310" s="5"/>
     </row>
-    <row r="1311" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1311" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1311" s="5"/>
     </row>
-    <row r="1312" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1312" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1312" s="5"/>
     </row>
-    <row r="1313" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1313" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1313" s="5"/>
     </row>
-    <row r="1314" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1314" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1314" s="5"/>
     </row>
-    <row r="1315" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1315" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1315" s="5"/>
     </row>
-    <row r="1316" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1316" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1316" s="5"/>
     </row>
-    <row r="1317" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1317" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1317" s="5"/>
     </row>
-    <row r="1318" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1318" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1318" s="5"/>
     </row>
-    <row r="1319" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1319" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1319" s="5"/>
     </row>
-    <row r="1320" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1320" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1320" s="5"/>
     </row>
-    <row r="1321" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1321" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1321" s="5"/>
     </row>
-    <row r="1322" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1322" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1322" s="5"/>
     </row>
-    <row r="1323" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1323" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1323" s="5"/>
     </row>
-    <row r="1324" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1324" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1324" s="5"/>
     </row>
-    <row r="1325" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1325" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1325" s="5"/>
     </row>
-    <row r="1326" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1326" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1326" s="5"/>
     </row>
-    <row r="1327" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1327" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1327" s="5"/>
     </row>
-    <row r="1328" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1328" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1328" s="5"/>
     </row>
-    <row r="1329" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1329" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1329" s="5"/>
     </row>
-    <row r="1330" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1330" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1330" s="5"/>
     </row>
-    <row r="1331" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1331" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1331" s="5"/>
     </row>
-    <row r="1332" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1332" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1332" s="5"/>
     </row>
-    <row r="1333" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1333" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1333" s="5"/>
     </row>
-    <row r="1334" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1334" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1334" s="5"/>
     </row>
-    <row r="1335" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1335" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1335" s="5"/>
     </row>
-    <row r="1336" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1336" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1336" s="5"/>
     </row>
-    <row r="1337" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1337" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1337" s="5"/>
     </row>
-    <row r="1338" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1338" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1338" s="5"/>
     </row>
-    <row r="1339" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1339" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1339" s="5"/>
     </row>
-    <row r="1340" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1340" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1340" s="5"/>
     </row>
-    <row r="1341" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1341" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1341" s="5"/>
     </row>
-    <row r="1342" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1342" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1342" s="5"/>
     </row>
-    <row r="1343" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1343" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1343" s="5"/>
     </row>
-    <row r="1344" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1344" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1344" s="5"/>
     </row>
-    <row r="1345" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1345" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1345" s="5"/>
     </row>
-    <row r="1346" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1346" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1346" s="5"/>
     </row>
-    <row r="1347" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1347" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1347" s="5"/>
     </row>
-    <row r="1348" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1348" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1348" s="5"/>
     </row>
-    <row r="1349" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1349" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1349" s="5"/>
     </row>
-    <row r="1350" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1350" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1350" s="5"/>
     </row>
-    <row r="1351" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1351" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1351" s="5"/>
     </row>
-    <row r="1352" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1352" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1352" s="5"/>
     </row>
-    <row r="1353" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1353" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1353" s="5"/>
     </row>
-    <row r="1354" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1354" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1354" s="5"/>
     </row>
-    <row r="1355" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1355" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1355" s="5"/>
     </row>
-    <row r="1356" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1356" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1356" s="5"/>
     </row>
-    <row r="1357" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1357" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1357" s="5"/>
     </row>
-    <row r="1358" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1358" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1358" s="5"/>
     </row>
-    <row r="1359" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1359" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1359" s="5"/>
     </row>
-    <row r="1360" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1360" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1360" s="5"/>
     </row>
-    <row r="1361" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1361" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1361" s="5"/>
     </row>
-    <row r="1362" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1362" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1362" s="5"/>
     </row>
-    <row r="1363" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1363" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1363" s="5"/>
     </row>
-    <row r="1364" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1364" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1364" s="5"/>
     </row>
-    <row r="1365" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1365" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1365" s="5"/>
     </row>
-    <row r="1366" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1366" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1366" s="5"/>
     </row>
-    <row r="1367" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1367" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1367" s="5"/>
     </row>
-    <row r="1368" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1368" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1368" s="5"/>
     </row>
-    <row r="1369" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1369" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1369" s="5"/>
     </row>
-    <row r="1370" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1370" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1370" s="5"/>
     </row>
-    <row r="1371" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1371" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1371" s="5"/>
     </row>
-    <row r="1372" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1372" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1372" s="5"/>
     </row>
-    <row r="1373" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1373" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1373" s="5"/>
     </row>
-    <row r="1374" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1374" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1374" s="5"/>
     </row>
-    <row r="1375" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1375" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1375" s="5"/>
     </row>
-    <row r="1376" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1376" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1376" s="5"/>
     </row>
-    <row r="1377" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1377" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1377" s="5"/>
     </row>
-    <row r="1378" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1378" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1378" s="5"/>
     </row>
-    <row r="1379" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1379" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1379" s="5"/>
     </row>
-    <row r="1380" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1380" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1380" s="5"/>
     </row>
-    <row r="1381" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1381" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1381" s="5"/>
     </row>
-    <row r="1382" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1382" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1382" s="5"/>
     </row>
-    <row r="1383" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1383" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1383" s="5"/>
     </row>
-    <row r="1384" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1384" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1384" s="5"/>
     </row>
-    <row r="1385" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1385" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1385" s="5"/>
     </row>
-    <row r="1386" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1386" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1386" s="5"/>
     </row>
-    <row r="1387" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1387" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1387" s="5"/>
     </row>
-    <row r="1388" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1388" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1388" s="5"/>
     </row>
-    <row r="1389" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1389" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1389" s="5"/>
     </row>
-    <row r="1390" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1390" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1390" s="5"/>
     </row>
-    <row r="1391" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1391" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1391" s="5"/>
     </row>
-    <row r="1392" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1392" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1392" s="5"/>
     </row>
-    <row r="1393" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1393" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1393" s="5"/>
     </row>
-    <row r="1394" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1394" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1394" s="5"/>
     </row>
-    <row r="1395" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1395" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1395" s="5"/>
     </row>
-    <row r="1396" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1396" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1396" s="5"/>
     </row>
-    <row r="1397" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1397" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1397" s="5"/>
     </row>
-    <row r="1398" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1398" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1398" s="5"/>
     </row>
-    <row r="1399" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1399" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1399" s="5"/>
     </row>
-    <row r="1400" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1400" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1400" s="5"/>
     </row>
-    <row r="1401" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1401" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1401" s="5"/>
     </row>
-    <row r="1402" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1402" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1402" s="5"/>
     </row>
-    <row r="1403" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1403" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1403" s="5"/>
     </row>
-    <row r="1404" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1404" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1404" s="5"/>
     </row>
-    <row r="1405" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1405" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1405" s="5"/>
     </row>
-    <row r="1406" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1406" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1406" s="5"/>
     </row>
-    <row r="1407" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1407" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1407" s="5"/>
     </row>
-    <row r="1408" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1408" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1408" s="5"/>
     </row>
-    <row r="1409" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1409" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1409" s="5"/>
     </row>
-    <row r="1410" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1410" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1410" s="5"/>
     </row>
-    <row r="1411" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1411" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1411" s="5"/>
     </row>
-    <row r="1412" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1412" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1412" s="5"/>
     </row>
-    <row r="1413" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1413" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1413" s="5"/>
     </row>
-    <row r="1414" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1414" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1414" s="5"/>
     </row>
-    <row r="1415" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1415" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1415" s="5"/>
     </row>
-    <row r="1416" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1416" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1416" s="5"/>
     </row>
-    <row r="1417" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1417" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1417" s="5"/>
     </row>
-    <row r="1418" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1418" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1418" s="5"/>
     </row>
-    <row r="1419" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1419" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1419" s="5"/>
     </row>
-    <row r="1420" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1420" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1420" s="5"/>
     </row>
-    <row r="1421" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1421" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1421" s="5"/>
     </row>
-    <row r="1422" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1422" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1422" s="5"/>
     </row>
-    <row r="1423" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1423" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1423" s="5"/>
     </row>
-    <row r="1424" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1424" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1424" s="5"/>
     </row>
-    <row r="1425" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1425" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1425" s="5"/>
     </row>
-    <row r="1426" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1426" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1426" s="5"/>
     </row>
-    <row r="1427" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1427" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1427" s="5"/>
     </row>
-    <row r="1428" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1428" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1428" s="5"/>
     </row>
-    <row r="1429" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1429" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1429" s="5"/>
     </row>
-    <row r="1430" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1430" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1430" s="5"/>
     </row>
-    <row r="1431" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1431" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1431" s="5"/>
     </row>
-    <row r="1432" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1432" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1432" s="5"/>
     </row>
-    <row r="1433" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1433" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1433" s="5"/>
     </row>
-    <row r="1434" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1434" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1434" s="5"/>
     </row>
-    <row r="1435" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1435" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1435" s="5"/>
     </row>
-    <row r="1436" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1436" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1436" s="5"/>
     </row>
-    <row r="1437" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1437" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1437" s="5"/>
     </row>
-    <row r="1438" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1438" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1438" s="5"/>
     </row>
-    <row r="1439" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1439" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1439" s="5"/>
     </row>
-    <row r="1440" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1440" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1440" s="5"/>
     </row>
-    <row r="1441" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1441" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1441" s="5"/>
     </row>
-    <row r="1442" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1442" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1442" s="5"/>
     </row>
-    <row r="1443" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1443" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1443" s="5"/>
     </row>
-    <row r="1444" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1444" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1444" s="5"/>
     </row>
-    <row r="1445" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1445" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1445" s="5"/>
     </row>
-    <row r="1446" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1446" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1446" s="5"/>
     </row>
-    <row r="1447" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1447" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1447" s="5"/>
     </row>
-    <row r="1448" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1448" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1448" s="5"/>
     </row>
-    <row r="1449" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1449" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1449" s="5"/>
     </row>
-    <row r="1450" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1450" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1450" s="5"/>
     </row>
-    <row r="1451" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1451" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1451" s="5"/>
     </row>
-    <row r="1452" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1452" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1452" s="5"/>
     </row>
-    <row r="1453" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1453" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1453" s="5"/>
     </row>
-    <row r="1454" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1454" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1454" s="5"/>
     </row>
-    <row r="1455" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1455" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1455" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A281:A288"/>
+    <mergeCell ref="A164:A217"/>
+    <mergeCell ref="A289:A313"/>
+    <mergeCell ref="A120:A136"/>
+    <mergeCell ref="A137:A140"/>
+    <mergeCell ref="A233:A238"/>
+    <mergeCell ref="A255:A280"/>
+    <mergeCell ref="A218:A221"/>
     <mergeCell ref="A3:A99"/>
     <mergeCell ref="A141:A163"/>
     <mergeCell ref="A442:A475"/>
@@ -14256,14 +14264,6 @@
     <mergeCell ref="A420:A441"/>
     <mergeCell ref="A354:A360"/>
     <mergeCell ref="A326:A333"/>
-    <mergeCell ref="A281:A288"/>
-    <mergeCell ref="A164:A217"/>
-    <mergeCell ref="A289:A313"/>
-    <mergeCell ref="A120:A136"/>
-    <mergeCell ref="A137:A140"/>
-    <mergeCell ref="A233:A238"/>
-    <mergeCell ref="A255:A280"/>
-    <mergeCell ref="A218:A221"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/xcom_perks/compiled_perks.xlsx
+++ b/docs/xcom_perks/compiled_perks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\xcom2_my_tweaks\docs\xcom_perks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804284B8-2594-4E8D-824B-54A1AD119649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B91286-1649-476D-8252-65D0C4F4D885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19092" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4283,6 +4283,47 @@
     <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="40" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4329,10 +4370,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4358,43 +4395,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="34" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="34" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="40" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4616,8 +4616,8 @@
   <dimension ref="A1:AA1455"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A378" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B387" sqref="B387"/>
+      <pane ySplit="2" topLeftCell="A256" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E266" sqref="E266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4690,7 +4690,7 @@
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="65"/>
+      <c r="A3" s="90"/>
       <c r="B3" s="42" t="s">
         <v>79</v>
       </c>
@@ -4705,7 +4705,7 @@
       <c r="G3" s="20"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="65"/>
+      <c r="A4" s="90"/>
       <c r="B4" s="42" t="s">
         <v>102</v>
       </c>
@@ -4719,7 +4719,7 @@
       <c r="G4" s="20"/>
     </row>
     <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="65"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="42" t="s">
         <v>114</v>
       </c>
@@ -4732,7 +4732,7 @@
       <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="65"/>
+      <c r="A6" s="90"/>
       <c r="B6" s="42" t="s">
         <v>141</v>
       </c>
@@ -4745,7 +4745,7 @@
       <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="65"/>
+      <c r="A7" s="90"/>
       <c r="B7" s="42" t="s">
         <v>156</v>
       </c>
@@ -4758,7 +4758,7 @@
       <c r="G7" s="20"/>
     </row>
     <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="65"/>
+      <c r="A8" s="90"/>
       <c r="B8" s="42" t="s">
         <v>158</v>
       </c>
@@ -4771,7 +4771,7 @@
       <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="65"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="42" t="s">
         <v>160</v>
       </c>
@@ -4784,7 +4784,7 @@
       <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="65"/>
+      <c r="A10" s="90"/>
       <c r="B10" s="42" t="s">
         <v>177</v>
       </c>
@@ -4797,7 +4797,7 @@
       <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="65"/>
+      <c r="A11" s="90"/>
       <c r="B11" s="42" t="s">
         <v>192</v>
       </c>
@@ -4810,7 +4810,7 @@
       <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="65"/>
+      <c r="A12" s="90"/>
       <c r="B12" s="42" t="s">
         <v>204</v>
       </c>
@@ -4823,7 +4823,7 @@
       <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="65"/>
+      <c r="A13" s="90"/>
       <c r="B13" s="42" t="s">
         <v>210</v>
       </c>
@@ -4838,7 +4838,7 @@
       </c>
     </row>
     <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="65"/>
+      <c r="A14" s="90"/>
       <c r="B14" s="42" t="s">
         <v>213</v>
       </c>
@@ -4850,7 +4850,7 @@
       </c>
     </row>
     <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="65"/>
+      <c r="A15" s="90"/>
       <c r="B15" s="42" t="s">
         <v>219</v>
       </c>
@@ -4862,7 +4862,7 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="65"/>
+      <c r="A16" s="90"/>
       <c r="B16" s="42" t="s">
         <v>230</v>
       </c>
@@ -4874,7 +4874,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="65"/>
+      <c r="A17" s="90"/>
       <c r="B17" s="42" t="s">
         <v>236</v>
       </c>
@@ -4889,7 +4889,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="65"/>
+      <c r="A18" s="90"/>
       <c r="B18" s="42" t="s">
         <v>244</v>
       </c>
@@ -4901,7 +4901,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="65"/>
+      <c r="A19" s="90"/>
       <c r="B19" s="42" t="s">
         <v>257</v>
       </c>
@@ -4913,7 +4913,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="65"/>
+      <c r="A20" s="90"/>
       <c r="B20" s="42" t="s">
         <v>259</v>
       </c>
@@ -4925,7 +4925,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="65"/>
+      <c r="A21" s="90"/>
       <c r="B21" s="42" t="s">
         <v>277</v>
       </c>
@@ -4937,7 +4937,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="65"/>
+      <c r="A22" s="90"/>
       <c r="B22" s="42" t="s">
         <v>287</v>
       </c>
@@ -4949,7 +4949,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="65"/>
+      <c r="A23" s="90"/>
       <c r="B23" s="42" t="s">
         <v>314</v>
       </c>
@@ -4961,7 +4961,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="65"/>
+      <c r="A24" s="90"/>
       <c r="B24" s="42" t="s">
         <v>320</v>
       </c>
@@ -4973,7 +4973,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="65"/>
+      <c r="A25" s="90"/>
       <c r="B25" s="42" t="s">
         <v>326</v>
       </c>
@@ -4985,7 +4985,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="65"/>
+      <c r="A26" s="90"/>
       <c r="B26" s="42" t="s">
         <v>341</v>
       </c>
@@ -4997,7 +4997,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="65"/>
+      <c r="A27" s="90"/>
       <c r="B27" s="42" t="s">
         <v>345</v>
       </c>
@@ -5009,7 +5009,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="65"/>
+      <c r="A28" s="90"/>
       <c r="B28" s="42" t="s">
         <v>365</v>
       </c>
@@ -5021,7 +5021,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="65"/>
+      <c r="A29" s="90"/>
       <c r="B29" s="42" t="s">
         <v>385</v>
       </c>
@@ -5033,7 +5033,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="65"/>
+      <c r="A30" s="90"/>
       <c r="B30" s="35" t="s">
         <v>158</v>
       </c>
@@ -5049,7 +5049,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="65"/>
+      <c r="A31" s="90"/>
       <c r="B31" s="35" t="s">
         <v>416</v>
       </c>
@@ -5062,7 +5062,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="65"/>
+      <c r="A32" s="90"/>
       <c r="B32" s="35" t="s">
         <v>419</v>
       </c>
@@ -5078,7 +5078,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="65"/>
+      <c r="A33" s="90"/>
       <c r="B33" s="35" t="s">
         <v>430</v>
       </c>
@@ -5096,7 +5096,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="65"/>
+      <c r="A34" s="90"/>
       <c r="B34" s="35" t="s">
         <v>454</v>
       </c>
@@ -5114,7 +5114,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="65"/>
+      <c r="A35" s="90"/>
       <c r="B35" s="35" t="s">
         <v>458</v>
       </c>
@@ -5130,7 +5130,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="65"/>
+      <c r="A36" s="90"/>
       <c r="B36" s="35" t="s">
         <v>466</v>
       </c>
@@ -5143,7 +5143,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="65"/>
+      <c r="A37" s="90"/>
       <c r="B37" s="42" t="s">
         <v>508</v>
       </c>
@@ -5156,7 +5156,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="65"/>
+      <c r="A38" s="90"/>
       <c r="B38" s="42" t="s">
         <v>520</v>
       </c>
@@ -5169,7 +5169,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="65"/>
+      <c r="A39" s="90"/>
       <c r="B39" s="42" t="s">
         <v>535</v>
       </c>
@@ -5182,7 +5182,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="65"/>
+      <c r="A40" s="90"/>
       <c r="B40" s="42" t="s">
         <v>543</v>
       </c>
@@ -5195,7 +5195,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="65"/>
+      <c r="A41" s="90"/>
       <c r="B41" s="42" t="s">
         <v>555</v>
       </c>
@@ -5208,7 +5208,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="65"/>
+      <c r="A42" s="90"/>
       <c r="B42" s="42" t="s">
         <v>141</v>
       </c>
@@ -5221,7 +5221,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="65"/>
+      <c r="A43" s="90"/>
       <c r="B43" s="42" t="s">
         <v>574</v>
       </c>
@@ -5234,7 +5234,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="65"/>
+      <c r="A44" s="90"/>
       <c r="B44" s="42" t="s">
         <v>591</v>
       </c>
@@ -5247,7 +5247,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="65"/>
+      <c r="A45" s="90"/>
       <c r="B45" s="42" t="s">
         <v>594</v>
       </c>
@@ -5263,7 +5263,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="65"/>
+      <c r="A46" s="90"/>
       <c r="B46" s="42" t="s">
         <v>598</v>
       </c>
@@ -5276,7 +5276,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="65"/>
+      <c r="A47" s="90"/>
       <c r="B47" s="42" t="s">
         <v>605</v>
       </c>
@@ -5289,7 +5289,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="65"/>
+      <c r="A48" s="90"/>
       <c r="B48" s="42" t="s">
         <v>618</v>
       </c>
@@ -5302,7 +5302,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="65"/>
+      <c r="A49" s="90"/>
       <c r="B49" s="42" t="s">
         <v>621</v>
       </c>
@@ -5315,7 +5315,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="65"/>
+      <c r="A50" s="90"/>
       <c r="B50" s="42" t="s">
         <v>627</v>
       </c>
@@ -5328,7 +5328,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="65"/>
+      <c r="A51" s="90"/>
       <c r="B51" s="42" t="s">
         <v>637</v>
       </c>
@@ -5341,7 +5341,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="65"/>
+      <c r="A52" s="90"/>
       <c r="B52" s="42" t="s">
         <v>640</v>
       </c>
@@ -5354,7 +5354,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="65"/>
+      <c r="A53" s="90"/>
       <c r="B53" s="42" t="s">
         <v>643</v>
       </c>
@@ -5367,7 +5367,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="65"/>
+      <c r="A54" s="90"/>
       <c r="B54" s="42" t="s">
         <v>646</v>
       </c>
@@ -5380,7 +5380,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="65"/>
+      <c r="A55" s="90"/>
       <c r="B55" s="42" t="s">
         <v>649</v>
       </c>
@@ -5393,7 +5393,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="65"/>
+      <c r="A56" s="90"/>
       <c r="B56" s="42" t="s">
         <v>652</v>
       </c>
@@ -5406,7 +5406,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="65"/>
+      <c r="A57" s="90"/>
       <c r="B57" s="42" t="s">
         <v>655</v>
       </c>
@@ -5419,7 +5419,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="65"/>
+      <c r="A58" s="90"/>
       <c r="B58" s="42" t="s">
         <v>658</v>
       </c>
@@ -5432,7 +5432,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="65"/>
+      <c r="A59" s="90"/>
       <c r="B59" s="42" t="s">
         <v>661</v>
       </c>
@@ -5445,7 +5445,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="65"/>
+      <c r="A60" s="90"/>
       <c r="B60" s="42" t="s">
         <v>275</v>
       </c>
@@ -5458,7 +5458,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="65"/>
+      <c r="A61" s="90"/>
       <c r="B61" s="42" t="s">
         <v>665</v>
       </c>
@@ -5471,7 +5471,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="65"/>
+      <c r="A62" s="90"/>
       <c r="B62" s="42" t="s">
         <v>668</v>
       </c>
@@ -5485,7 +5485,7 @@
       <c r="F62" s="31"/>
     </row>
     <row r="63" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="65"/>
+      <c r="A63" s="90"/>
       <c r="B63" s="42" t="s">
         <v>671</v>
       </c>
@@ -5499,7 +5499,7 @@
       <c r="F63" s="31"/>
     </row>
     <row r="64" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="65"/>
+      <c r="A64" s="90"/>
       <c r="B64" s="42" t="s">
         <v>686</v>
       </c>
@@ -5512,7 +5512,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="65"/>
+      <c r="A65" s="90"/>
       <c r="B65" s="42" t="s">
         <v>704</v>
       </c>
@@ -5525,7 +5525,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="65"/>
+      <c r="A66" s="90"/>
       <c r="B66" s="42" t="s">
         <v>722</v>
       </c>
@@ -5539,7 +5539,7 @@
       <c r="F66" s="31"/>
     </row>
     <row r="67" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="65"/>
+      <c r="A67" s="90"/>
       <c r="B67" s="42" t="s">
         <v>728</v>
       </c>
@@ -5553,7 +5553,7 @@
       <c r="F67" s="31"/>
     </row>
     <row r="68" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="65"/>
+      <c r="A68" s="90"/>
       <c r="B68" s="42" t="s">
         <v>734</v>
       </c>
@@ -5566,7 +5566,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="65"/>
+      <c r="A69" s="90"/>
       <c r="B69" s="42" t="s">
         <v>740</v>
       </c>
@@ -5579,7 +5579,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="65"/>
+      <c r="A70" s="90"/>
       <c r="B70" s="42" t="s">
         <v>743</v>
       </c>
@@ -5592,7 +5592,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="65"/>
+      <c r="A71" s="90"/>
       <c r="B71" s="42" t="s">
         <v>752</v>
       </c>
@@ -5608,7 +5608,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="65"/>
+      <c r="A72" s="90"/>
       <c r="B72" s="42" t="s">
         <v>761</v>
       </c>
@@ -5621,7 +5621,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="65"/>
+      <c r="A73" s="90"/>
       <c r="B73" s="42" t="s">
         <v>767</v>
       </c>
@@ -5634,7 +5634,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="65"/>
+      <c r="A74" s="90"/>
       <c r="B74" s="42" t="s">
         <v>779</v>
       </c>
@@ -5647,7 +5647,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="65"/>
+      <c r="A75" s="90"/>
       <c r="B75" s="42" t="s">
         <v>788</v>
       </c>
@@ -5660,7 +5660,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="65"/>
+      <c r="A76" s="90"/>
       <c r="B76" s="42" t="s">
         <v>791</v>
       </c>
@@ -5673,7 +5673,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A77" s="65"/>
+      <c r="A77" s="90"/>
       <c r="B77" s="31" t="s">
         <v>809</v>
       </c>
@@ -5686,7 +5686,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A78" s="65"/>
+      <c r="A78" s="90"/>
       <c r="B78" s="31" t="s">
         <v>827</v>
       </c>
@@ -5699,7 +5699,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="65"/>
+      <c r="A79" s="90"/>
       <c r="B79" s="31" t="s">
         <v>830</v>
       </c>
@@ -5712,7 +5712,7 @@
       </c>
     </row>
     <row r="80" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="65"/>
+      <c r="A80" s="90"/>
       <c r="B80" s="31" t="s">
         <v>850</v>
       </c>
@@ -5725,7 +5725,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A81" s="65"/>
+      <c r="A81" s="90"/>
       <c r="B81" s="31" t="s">
         <v>853</v>
       </c>
@@ -5738,7 +5738,7 @@
       </c>
     </row>
     <row r="82" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A82" s="65"/>
+      <c r="A82" s="90"/>
       <c r="B82" s="31" t="s">
         <v>871</v>
       </c>
@@ -5751,7 +5751,7 @@
       </c>
     </row>
     <row r="83" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="65"/>
+      <c r="A83" s="90"/>
       <c r="B83" s="39" t="s">
         <v>891</v>
       </c>
@@ -5764,7 +5764,7 @@
       </c>
     </row>
     <row r="84" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="65"/>
+      <c r="A84" s="90"/>
       <c r="B84" s="39" t="s">
         <v>897</v>
       </c>
@@ -5777,7 +5777,7 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A85" s="65"/>
+      <c r="A85" s="90"/>
       <c r="B85" s="31" t="s">
         <v>912</v>
       </c>
@@ -5790,7 +5790,7 @@
       </c>
     </row>
     <row r="86" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A86" s="65"/>
+      <c r="A86" s="90"/>
       <c r="B86" s="31" t="s">
         <v>915</v>
       </c>
@@ -5803,7 +5803,7 @@
       </c>
     </row>
     <row r="87" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="65"/>
+      <c r="A87" s="90"/>
       <c r="B87" s="31" t="s">
         <v>933</v>
       </c>
@@ -5816,7 +5816,7 @@
       </c>
     </row>
     <row r="88" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A88" s="65"/>
+      <c r="A88" s="90"/>
       <c r="B88" s="31" t="s">
         <v>936</v>
       </c>
@@ -5829,7 +5829,7 @@
       </c>
     </row>
     <row r="89" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="65"/>
+      <c r="A89" s="90"/>
       <c r="B89" s="31" t="s">
         <v>939</v>
       </c>
@@ -5842,7 +5842,7 @@
       </c>
     </row>
     <row r="90" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="65"/>
+      <c r="A90" s="90"/>
       <c r="B90" s="39" t="s">
         <v>948</v>
       </c>
@@ -5855,7 +5855,7 @@
       </c>
     </row>
     <row r="91" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="65"/>
+      <c r="A91" s="90"/>
       <c r="B91" s="39" t="s">
         <v>236</v>
       </c>
@@ -5868,7 +5868,7 @@
       </c>
     </row>
     <row r="92" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A92" s="65"/>
+      <c r="A92" s="90"/>
       <c r="B92" s="31" t="s">
         <v>999</v>
       </c>
@@ -5881,7 +5881,7 @@
       </c>
     </row>
     <row r="93" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A93" s="65"/>
+      <c r="A93" s="90"/>
       <c r="B93" s="31" t="s">
         <v>1013</v>
       </c>
@@ -5894,7 +5894,7 @@
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="65"/>
+      <c r="A94" s="90"/>
       <c r="B94" s="31" t="s">
         <v>1016</v>
       </c>
@@ -5907,7 +5907,7 @@
       </c>
     </row>
     <row r="95" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="65"/>
+      <c r="A95" s="90"/>
       <c r="B95" s="31" t="s">
         <v>1025</v>
       </c>
@@ -5920,7 +5920,7 @@
       </c>
     </row>
     <row r="96" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A96" s="65"/>
+      <c r="A96" s="90"/>
       <c r="B96" s="31" t="s">
         <v>1028</v>
       </c>
@@ -5933,7 +5933,7 @@
       </c>
     </row>
     <row r="97" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A97" s="65"/>
+      <c r="A97" s="90"/>
       <c r="B97" s="31" t="s">
         <v>1040</v>
       </c>
@@ -5946,7 +5946,7 @@
       </c>
     </row>
     <row r="98" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="65"/>
+      <c r="A98" s="90"/>
       <c r="B98" s="31" t="s">
         <v>756</v>
       </c>
@@ -5959,7 +5959,7 @@
       </c>
     </row>
     <row r="99" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="66"/>
+      <c r="A99" s="91"/>
       <c r="B99" s="34" t="s">
         <v>1085</v>
       </c>
@@ -6140,7 +6140,7 @@
       <c r="G111" s="18"/>
     </row>
     <row r="112" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="73" t="s">
+      <c r="A112" s="98" t="s">
         <v>37</v>
       </c>
       <c r="B112" s="44" t="s">
@@ -6159,7 +6159,7 @@
       <c r="G112" s="13"/>
     </row>
     <row r="113" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="73"/>
+      <c r="A113" s="98"/>
       <c r="B113" s="45"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
@@ -6168,7 +6168,7 @@
       <c r="G113" s="13"/>
     </row>
     <row r="114" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="74"/>
+      <c r="A114" s="99"/>
       <c r="B114" s="45" t="s">
         <v>41</v>
       </c>
@@ -6183,7 +6183,7 @@
       <c r="G114" s="13"/>
     </row>
     <row r="115" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="75"/>
+      <c r="A115" s="100"/>
       <c r="B115" s="46" t="s">
         <v>44</v>
       </c>
@@ -6200,7 +6200,7 @@
       </c>
     </row>
     <row r="116" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="94" t="s">
+      <c r="A116" s="117" t="s">
         <v>494</v>
       </c>
       <c r="B116" s="42" t="s">
@@ -6216,7 +6216,7 @@
       <c r="G116" s="13"/>
     </row>
     <row r="117" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="94"/>
+      <c r="A117" s="117"/>
       <c r="B117" s="45"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
@@ -6225,7 +6225,7 @@
       <c r="G117" s="13"/>
     </row>
     <row r="118" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="95"/>
+      <c r="A118" s="118"/>
       <c r="B118" s="45"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
@@ -6234,7 +6234,7 @@
       <c r="G118" s="13"/>
     </row>
     <row r="119" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="96"/>
+      <c r="A119" s="119"/>
       <c r="B119" s="46"/>
       <c r="C119" s="32"/>
       <c r="D119" s="32"/>
@@ -6245,7 +6245,7 @@
       </c>
     </row>
     <row r="120" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="115" t="s">
+      <c r="A120" s="74" t="s">
         <v>496</v>
       </c>
       <c r="B120" s="42" t="s">
@@ -6261,7 +6261,7 @@
       <c r="G120" s="13"/>
     </row>
     <row r="121" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A121" s="115"/>
+      <c r="A121" s="74"/>
       <c r="B121" s="42" t="s">
         <v>118</v>
       </c>
@@ -6275,7 +6275,7 @@
       <c r="G121" s="13"/>
     </row>
     <row r="122" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A122" s="116"/>
+      <c r="A122" s="75"/>
       <c r="B122" s="42" t="s">
         <v>152</v>
       </c>
@@ -6289,7 +6289,7 @@
       <c r="G122" s="13"/>
     </row>
     <row r="123" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A123" s="117"/>
+      <c r="A123" s="76"/>
       <c r="B123" s="42" t="s">
         <v>234</v>
       </c>
@@ -6303,7 +6303,7 @@
       <c r="G123" s="18"/>
     </row>
     <row r="124" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A124" s="112"/>
+      <c r="A124" s="71"/>
       <c r="B124" s="42" t="s">
         <v>246</v>
       </c>
@@ -6317,7 +6317,7 @@
       <c r="G124" s="13"/>
     </row>
     <row r="125" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A125" s="112"/>
+      <c r="A125" s="71"/>
       <c r="B125" s="42" t="s">
         <v>601</v>
       </c>
@@ -6332,7 +6332,7 @@
       <c r="G125" s="13"/>
     </row>
     <row r="126" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A126" s="112"/>
+      <c r="A126" s="71"/>
       <c r="B126" s="42" t="s">
         <v>794</v>
       </c>
@@ -6349,7 +6349,7 @@
       <c r="G126" s="13"/>
     </row>
     <row r="127" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A127" s="112"/>
+      <c r="A127" s="71"/>
       <c r="B127" s="42" t="s">
         <v>800</v>
       </c>
@@ -6364,7 +6364,7 @@
       <c r="G127" s="13"/>
     </row>
     <row r="128" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A128" s="112"/>
+      <c r="A128" s="71"/>
       <c r="B128" s="31" t="s">
         <v>856</v>
       </c>
@@ -6379,7 +6379,7 @@
       <c r="G128" s="13"/>
     </row>
     <row r="129" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A129" s="112"/>
+      <c r="A129" s="71"/>
       <c r="B129" s="39" t="s">
         <v>906</v>
       </c>
@@ -6394,7 +6394,7 @@
       <c r="G129" s="13"/>
     </row>
     <row r="130" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A130" s="112"/>
+      <c r="A130" s="71"/>
       <c r="B130" s="39" t="s">
         <v>909</v>
       </c>
@@ -6409,7 +6409,7 @@
       <c r="G130" s="13"/>
     </row>
     <row r="131" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A131" s="112"/>
+      <c r="A131" s="71"/>
       <c r="B131" s="31" t="s">
         <v>930</v>
       </c>
@@ -6424,7 +6424,7 @@
       <c r="G131" s="13"/>
     </row>
     <row r="132" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A132" s="112"/>
+      <c r="A132" s="71"/>
       <c r="B132" s="31" t="s">
         <v>942</v>
       </c>
@@ -6439,7 +6439,7 @@
       <c r="G132" s="13"/>
     </row>
     <row r="133" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A133" s="112"/>
+      <c r="A133" s="71"/>
       <c r="B133" s="31" t="s">
         <v>981</v>
       </c>
@@ -6454,7 +6454,7 @@
       <c r="G133" s="13"/>
     </row>
     <row r="134" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A134" s="112"/>
+      <c r="A134" s="71"/>
       <c r="B134" s="31" t="s">
         <v>918</v>
       </c>
@@ -6469,7 +6469,7 @@
       <c r="G134" s="13"/>
     </row>
     <row r="135" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A135" s="112"/>
+      <c r="A135" s="71"/>
       <c r="B135" s="39"/>
       <c r="C135" s="39"/>
       <c r="D135" s="39"/>
@@ -6478,12 +6478,12 @@
       <c r="G135" s="13"/>
     </row>
     <row r="136" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="118"/>
+      <c r="A136" s="77"/>
       <c r="F136" s="18"/>
       <c r="G136" s="13"/>
     </row>
     <row r="137" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="119" t="s">
+      <c r="A137" s="78" t="s">
         <v>490</v>
       </c>
       <c r="B137" s="42" t="s">
@@ -6499,7 +6499,7 @@
       <c r="G137" s="13"/>
     </row>
     <row r="138" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="119"/>
+      <c r="A138" s="78"/>
       <c r="B138" s="42" t="s">
         <v>289</v>
       </c>
@@ -6513,7 +6513,7 @@
       <c r="G138" s="13"/>
     </row>
     <row r="139" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="120"/>
+      <c r="A139" s="79"/>
       <c r="B139" s="35" t="s">
         <v>423</v>
       </c>
@@ -6528,7 +6528,7 @@
       <c r="G139" s="13"/>
     </row>
     <row r="140" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="121"/>
+      <c r="A140" s="80"/>
       <c r="B140" s="46"/>
       <c r="C140" s="32"/>
       <c r="D140" s="32"/>
@@ -6539,7 +6539,7 @@
       </c>
     </row>
     <row r="141" spans="1:7" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="67" t="s">
+      <c r="A141" s="92" t="s">
         <v>96</v>
       </c>
       <c r="B141" s="42" t="s">
@@ -6556,7 +6556,7 @@
       <c r="G141" s="30"/>
     </row>
     <row r="142" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A142" s="68"/>
+      <c r="A142" s="93"/>
       <c r="B142" s="42" t="s">
         <v>75</v>
       </c>
@@ -6571,7 +6571,7 @@
       <c r="G142" s="23"/>
     </row>
     <row r="143" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A143" s="68"/>
+      <c r="A143" s="93"/>
       <c r="B143" s="42" t="s">
         <v>263</v>
       </c>
@@ -6585,7 +6585,7 @@
       <c r="G143" s="13"/>
     </row>
     <row r="144" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A144" s="68"/>
+      <c r="A144" s="93"/>
       <c r="B144" s="42" t="s">
         <v>361</v>
       </c>
@@ -6599,7 +6599,7 @@
       <c r="G144" s="13"/>
     </row>
     <row r="145" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A145" s="68"/>
+      <c r="A145" s="93"/>
       <c r="B145" s="42" t="s">
         <v>271</v>
       </c>
@@ -6615,7 +6615,7 @@
       <c r="G145" s="13"/>
     </row>
     <row r="146" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A146" s="68"/>
+      <c r="A146" s="93"/>
       <c r="B146" s="42" t="s">
         <v>281</v>
       </c>
@@ -6629,7 +6629,7 @@
       <c r="G146" s="13"/>
     </row>
     <row r="147" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A147" s="68"/>
+      <c r="A147" s="93"/>
       <c r="B147" s="42" t="s">
         <v>318</v>
       </c>
@@ -6643,7 +6643,7 @@
       <c r="G147" s="13"/>
     </row>
     <row r="148" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A148" s="68"/>
+      <c r="A148" s="93"/>
       <c r="B148" s="42" t="s">
         <v>351</v>
       </c>
@@ -6657,7 +6657,7 @@
       <c r="G148" s="13"/>
     </row>
     <row r="149" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A149" s="68"/>
+      <c r="A149" s="93"/>
       <c r="B149" s="42" t="s">
         <v>316</v>
       </c>
@@ -6671,7 +6671,7 @@
       <c r="G149" s="13"/>
     </row>
     <row r="150" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A150" s="68"/>
+      <c r="A150" s="93"/>
       <c r="B150" s="42" t="s">
         <v>269</v>
       </c>
@@ -6685,7 +6685,7 @@
       <c r="G150" s="13"/>
     </row>
     <row r="151" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A151" s="68"/>
+      <c r="A151" s="93"/>
       <c r="B151" s="35" t="s">
         <v>480</v>
       </c>
@@ -6702,7 +6702,7 @@
       <c r="G151" s="13"/>
     </row>
     <row r="152" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A152" s="68"/>
+      <c r="A152" s="93"/>
       <c r="B152" s="42" t="s">
         <v>322</v>
       </c>
@@ -6714,7 +6714,7 @@
       </c>
     </row>
     <row r="153" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A153" s="68"/>
+      <c r="A153" s="93"/>
       <c r="B153" s="42" t="s">
         <v>526</v>
       </c>
@@ -6729,7 +6729,7 @@
       <c r="G153" s="13"/>
     </row>
     <row r="154" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A154" s="68"/>
+      <c r="A154" s="93"/>
       <c r="B154" s="47" t="s">
         <v>584</v>
       </c>
@@ -6746,7 +6746,7 @@
       <c r="G154" s="13"/>
     </row>
     <row r="155" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A155" s="68"/>
+      <c r="A155" s="93"/>
       <c r="B155" s="42" t="s">
         <v>674</v>
       </c>
@@ -6763,7 +6763,7 @@
       <c r="G155" s="13"/>
     </row>
     <row r="156" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A156" s="68"/>
+      <c r="A156" s="93"/>
       <c r="B156" s="42" t="s">
         <v>764</v>
       </c>
@@ -6778,7 +6778,7 @@
       <c r="G156" s="13"/>
     </row>
     <row r="157" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A157" s="68"/>
+      <c r="A157" s="93"/>
       <c r="B157" s="31" t="s">
         <v>859</v>
       </c>
@@ -6793,7 +6793,7 @@
       <c r="G157" s="13"/>
     </row>
     <row r="158" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A158" s="68"/>
+      <c r="A158" s="93"/>
       <c r="B158" s="39" t="s">
         <v>882</v>
       </c>
@@ -6808,7 +6808,7 @@
       <c r="G158" s="13"/>
     </row>
     <row r="159" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A159" s="68"/>
+      <c r="A159" s="93"/>
       <c r="B159" s="31" t="s">
         <v>921</v>
       </c>
@@ -6823,7 +6823,7 @@
       <c r="G159" s="13"/>
     </row>
     <row r="160" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A160" s="68"/>
+      <c r="A160" s="93"/>
       <c r="B160" s="31" t="s">
         <v>976</v>
       </c>
@@ -6838,7 +6838,7 @@
       <c r="G160" s="13"/>
     </row>
     <row r="161" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A161" s="68"/>
+      <c r="A161" s="93"/>
       <c r="B161" s="31" t="s">
         <v>1034</v>
       </c>
@@ -6853,7 +6853,7 @@
       <c r="G161" s="13"/>
     </row>
     <row r="162" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A162" s="68"/>
+      <c r="A162" s="93"/>
       <c r="B162" s="31"/>
       <c r="C162" s="31"/>
       <c r="D162" s="31"/>
@@ -6862,7 +6862,7 @@
       <c r="G162" s="13"/>
     </row>
     <row r="163" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="69"/>
+      <c r="A163" s="94"/>
       <c r="B163" s="48"/>
       <c r="C163" s="24"/>
       <c r="D163" s="25"/>
@@ -6871,7 +6871,7 @@
       <c r="G163" s="16"/>
     </row>
     <row r="164" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="109" t="s">
+      <c r="A164" s="68" t="s">
         <v>444</v>
       </c>
       <c r="B164" s="42" t="s">
@@ -6889,7 +6889,7 @@
       </c>
     </row>
     <row r="165" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A165" s="110"/>
+      <c r="A165" s="69"/>
       <c r="B165" s="42" t="s">
         <v>127</v>
       </c>
@@ -6905,7 +6905,7 @@
       <c r="G165" s="13"/>
     </row>
     <row r="166" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A166" s="110"/>
+      <c r="A166" s="69"/>
       <c r="B166" s="42" t="s">
         <v>135</v>
       </c>
@@ -6919,7 +6919,7 @@
       <c r="G166" s="13"/>
     </row>
     <row r="167" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A167" s="110"/>
+      <c r="A167" s="69"/>
       <c r="B167" s="42" t="s">
         <v>137</v>
       </c>
@@ -6933,7 +6933,7 @@
       <c r="G167" s="13"/>
     </row>
     <row r="168" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A168" s="110"/>
+      <c r="A168" s="69"/>
       <c r="B168" s="42" t="s">
         <v>162</v>
       </c>
@@ -6946,7 +6946,7 @@
       <c r="G168" s="13"/>
     </row>
     <row r="169" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A169" s="110"/>
+      <c r="A169" s="69"/>
       <c r="B169" s="42" t="s">
         <v>162</v>
       </c>
@@ -6962,7 +6962,7 @@
       <c r="G169" s="13"/>
     </row>
     <row r="170" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A170" s="110"/>
+      <c r="A170" s="69"/>
       <c r="B170" s="42" t="s">
         <v>175</v>
       </c>
@@ -6976,7 +6976,7 @@
       <c r="G170" s="13"/>
     </row>
     <row r="171" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A171" s="110"/>
+      <c r="A171" s="69"/>
       <c r="B171" s="42" t="s">
         <v>238</v>
       </c>
@@ -6990,7 +6990,7 @@
       <c r="G171" s="13"/>
     </row>
     <row r="172" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A172" s="110"/>
+      <c r="A172" s="69"/>
       <c r="B172" s="42" t="s">
         <v>242</v>
       </c>
@@ -7006,7 +7006,7 @@
       <c r="G172" s="13"/>
     </row>
     <row r="173" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A173" s="110"/>
+      <c r="A173" s="69"/>
       <c r="B173" s="42" t="s">
         <v>273</v>
       </c>
@@ -7020,7 +7020,7 @@
       <c r="G173" s="13"/>
     </row>
     <row r="174" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A174" s="110"/>
+      <c r="A174" s="69"/>
       <c r="B174" s="42" t="s">
         <v>338</v>
       </c>
@@ -7036,7 +7036,7 @@
       <c r="G174" s="13"/>
     </row>
     <row r="175" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A175" s="110"/>
+      <c r="A175" s="69"/>
       <c r="B175" s="42" t="s">
         <v>338</v>
       </c>
@@ -7049,7 +7049,7 @@
       <c r="G175" s="13"/>
     </row>
     <row r="176" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A176" s="110"/>
+      <c r="A176" s="69"/>
       <c r="B176" s="35" t="s">
         <v>427</v>
       </c>
@@ -7064,7 +7064,7 @@
       <c r="G176" s="13"/>
     </row>
     <row r="177" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A177" s="110"/>
+      <c r="A177" s="69"/>
       <c r="B177" s="35" t="s">
         <v>438</v>
       </c>
@@ -7079,7 +7079,7 @@
       <c r="G177" s="13"/>
     </row>
     <row r="178" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A178" s="110"/>
+      <c r="A178" s="69"/>
       <c r="B178" s="35" t="s">
         <v>472</v>
       </c>
@@ -7096,7 +7096,7 @@
       <c r="G178" s="13"/>
     </row>
     <row r="179" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A179" s="110"/>
+      <c r="A179" s="69"/>
       <c r="B179" s="35" t="s">
         <v>398</v>
       </c>
@@ -7113,7 +7113,7 @@
       <c r="G179" s="13"/>
     </row>
     <row r="180" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A180" s="110"/>
+      <c r="A180" s="69"/>
       <c r="B180" s="35" t="s">
         <v>469</v>
       </c>
@@ -7130,7 +7130,7 @@
       <c r="G180" s="13"/>
     </row>
     <row r="181" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A181" s="110"/>
+      <c r="A181" s="69"/>
       <c r="B181" s="42" t="s">
         <v>285</v>
       </c>
@@ -7144,7 +7144,7 @@
       <c r="G181" s="13"/>
     </row>
     <row r="182" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A182" s="110"/>
+      <c r="A182" s="69"/>
       <c r="B182" s="42" t="s">
         <v>187</v>
       </c>
@@ -7158,7 +7158,7 @@
       <c r="G182" s="13"/>
     </row>
     <row r="183" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A183" s="110"/>
+      <c r="A183" s="69"/>
       <c r="B183" s="42" t="s">
         <v>116</v>
       </c>
@@ -7174,7 +7174,7 @@
       <c r="G183" s="13"/>
     </row>
     <row r="184" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A184" s="110"/>
+      <c r="A184" s="69"/>
       <c r="B184" s="42" t="s">
         <v>125</v>
       </c>
@@ -7189,7 +7189,7 @@
       <c r="G184" s="13"/>
     </row>
     <row r="185" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A185" s="110"/>
+      <c r="A185" s="69"/>
       <c r="B185" s="42" t="s">
         <v>438</v>
       </c>
@@ -7204,7 +7204,7 @@
       <c r="G185" s="13"/>
     </row>
     <row r="186" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A186" s="110"/>
+      <c r="A186" s="69"/>
       <c r="B186" s="42" t="s">
         <v>710</v>
       </c>
@@ -7219,7 +7219,7 @@
       <c r="G186" s="13"/>
     </row>
     <row r="187" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A187" s="110"/>
+      <c r="A187" s="69"/>
       <c r="B187" s="42" t="s">
         <v>776</v>
       </c>
@@ -7234,7 +7234,7 @@
       <c r="G187" s="13"/>
     </row>
     <row r="188" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A188" s="110"/>
+      <c r="A188" s="69"/>
       <c r="B188" s="42" t="s">
         <v>782</v>
       </c>
@@ -7249,7 +7249,7 @@
       <c r="G188" s="13"/>
     </row>
     <row r="189" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A189" s="110"/>
+      <c r="A189" s="69"/>
       <c r="B189" s="42" t="s">
         <v>785</v>
       </c>
@@ -7264,7 +7264,7 @@
       <c r="G189" s="13"/>
     </row>
     <row r="190" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A190" s="110"/>
+      <c r="A190" s="69"/>
       <c r="B190" s="31" t="s">
         <v>838</v>
       </c>
@@ -7279,7 +7279,7 @@
       <c r="G190" s="13"/>
     </row>
     <row r="191" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A191" s="110"/>
+      <c r="A191" s="69"/>
       <c r="B191" s="31" t="s">
         <v>865</v>
       </c>
@@ -7294,7 +7294,7 @@
       <c r="G191" s="13"/>
     </row>
     <row r="192" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A192" s="110"/>
+      <c r="A192" s="69"/>
       <c r="B192" s="39" t="s">
         <v>879</v>
       </c>
@@ -7309,7 +7309,7 @@
       <c r="G192" s="13"/>
     </row>
     <row r="193" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A193" s="110"/>
+      <c r="A193" s="69"/>
       <c r="B193" s="39" t="s">
         <v>885</v>
       </c>
@@ -7324,7 +7324,7 @@
       <c r="G193" s="13"/>
     </row>
     <row r="194" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A194" s="110"/>
+      <c r="A194" s="69"/>
       <c r="B194" s="39" t="s">
         <v>900</v>
       </c>
@@ -7339,7 +7339,7 @@
       <c r="G194" s="13"/>
     </row>
     <row r="195" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="111"/>
+      <c r="A195" s="70"/>
       <c r="B195" s="39" t="s">
         <v>903</v>
       </c>
@@ -7354,7 +7354,7 @@
       <c r="G195" s="16"/>
     </row>
     <row r="196" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="111"/>
+      <c r="A196" s="70"/>
       <c r="B196" s="39" t="s">
         <v>961</v>
       </c>
@@ -7368,7 +7368,7 @@
       <c r="G196" s="13"/>
     </row>
     <row r="197" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A197" s="111"/>
+      <c r="A197" s="70"/>
       <c r="B197" s="39" t="s">
         <v>967</v>
       </c>
@@ -7382,7 +7382,7 @@
       <c r="G197" s="13"/>
     </row>
     <row r="198" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A198" s="111"/>
+      <c r="A198" s="70"/>
       <c r="B198" s="39" t="s">
         <v>970</v>
       </c>
@@ -7396,7 +7396,7 @@
       <c r="G198" s="13"/>
     </row>
     <row r="199" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A199" s="111"/>
+      <c r="A199" s="70"/>
       <c r="B199" s="31" t="s">
         <v>984</v>
       </c>
@@ -7410,7 +7410,7 @@
       <c r="G199" s="13"/>
     </row>
     <row r="200" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A200" s="111"/>
+      <c r="A200" s="70"/>
       <c r="B200" s="31" t="s">
         <v>1002</v>
       </c>
@@ -7424,7 +7424,7 @@
       <c r="G200" s="13"/>
     </row>
     <row r="201" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A201" s="111"/>
+      <c r="A201" s="70"/>
       <c r="B201" s="31" t="s">
         <v>1019</v>
       </c>
@@ -7438,7 +7438,7 @@
       <c r="G201" s="13"/>
     </row>
     <row r="202" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A202" s="111"/>
+      <c r="A202" s="70"/>
       <c r="B202" s="31" t="s">
         <v>1037</v>
       </c>
@@ -7452,7 +7452,7 @@
       <c r="G202" s="13"/>
     </row>
     <row r="203" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A203" s="111"/>
+      <c r="A203" s="70"/>
       <c r="B203" s="34" t="s">
         <v>1048</v>
       </c>
@@ -7471,7 +7471,7 @@
       <c r="G203" s="13"/>
     </row>
     <row r="204" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A204" s="111"/>
+      <c r="A204" s="70"/>
       <c r="B204" s="34" t="s">
         <v>1048</v>
       </c>
@@ -7490,7 +7490,7 @@
       <c r="G204" s="13"/>
     </row>
     <row r="205" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A205" s="111"/>
+      <c r="A205" s="70"/>
       <c r="B205" s="34" t="s">
         <v>1056</v>
       </c>
@@ -7507,7 +7507,7 @@
       <c r="G205" s="13"/>
     </row>
     <row r="206" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A206" s="111"/>
+      <c r="A206" s="70"/>
       <c r="B206" s="34" t="s">
         <v>1059</v>
       </c>
@@ -7524,7 +7524,7 @@
       <c r="G206" s="13"/>
     </row>
     <row r="207" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A207" s="111"/>
+      <c r="A207" s="70"/>
       <c r="B207" s="34" t="s">
         <v>1062</v>
       </c>
@@ -7543,7 +7543,7 @@
       <c r="G207" s="13"/>
     </row>
     <row r="208" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A208" s="111"/>
+      <c r="A208" s="70"/>
       <c r="B208" s="34" t="s">
         <v>1066</v>
       </c>
@@ -7562,7 +7562,7 @@
       <c r="G208" s="13"/>
     </row>
     <row r="209" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A209" s="111"/>
+      <c r="A209" s="70"/>
       <c r="B209" s="34" t="s">
         <v>1070</v>
       </c>
@@ -7581,7 +7581,7 @@
       <c r="G209" s="13"/>
     </row>
     <row r="210" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A210" s="111"/>
+      <c r="A210" s="70"/>
       <c r="B210" s="55" t="s">
         <v>1073</v>
       </c>
@@ -7600,7 +7600,7 @@
       <c r="G210" s="13"/>
     </row>
     <row r="211" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A211" s="111"/>
+      <c r="A211" s="70"/>
       <c r="B211" s="34" t="s">
         <v>1094</v>
       </c>
@@ -7619,7 +7619,7 @@
       <c r="G211" s="13"/>
     </row>
     <row r="212" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A212" s="111"/>
+      <c r="A212" s="70"/>
       <c r="B212" s="55" t="s">
         <v>1094</v>
       </c>
@@ -7638,7 +7638,7 @@
       <c r="G212" s="13"/>
     </row>
     <row r="213" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A213" s="111"/>
+      <c r="A213" s="70"/>
       <c r="B213" s="34"/>
       <c r="C213" s="34"/>
       <c r="D213" s="34"/>
@@ -7647,7 +7647,7 @@
       <c r="G213" s="13"/>
     </row>
     <row r="214" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A214" s="111"/>
+      <c r="A214" s="70"/>
       <c r="B214" s="34"/>
       <c r="C214" s="34"/>
       <c r="D214" s="34"/>
@@ -7656,7 +7656,7 @@
       <c r="G214" s="13"/>
     </row>
     <row r="215" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A215" s="111"/>
+      <c r="A215" s="70"/>
       <c r="B215" s="34"/>
       <c r="C215" s="34"/>
       <c r="D215" s="34"/>
@@ -7665,7 +7665,7 @@
       <c r="G215" s="13"/>
     </row>
     <row r="216" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A216" s="111"/>
+      <c r="A216" s="70"/>
       <c r="B216" s="34"/>
       <c r="C216" s="34"/>
       <c r="D216" s="34"/>
@@ -7674,7 +7674,7 @@
       <c r="G216" s="13"/>
     </row>
     <row r="217" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A217" s="112"/>
+      <c r="A217" s="71"/>
       <c r="B217" s="39"/>
       <c r="C217" s="39"/>
       <c r="D217" s="39"/>
@@ -7682,7 +7682,7 @@
       <c r="G217" s="13"/>
     </row>
     <row r="218" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="128" t="s">
+      <c r="A218" s="87" t="s">
         <v>759</v>
       </c>
       <c r="B218" s="42" t="s">
@@ -7701,7 +7701,7 @@
       <c r="G218" s="13"/>
     </row>
     <row r="219" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="128"/>
+      <c r="A219" s="87"/>
       <c r="B219" s="42"/>
       <c r="C219" s="31"/>
       <c r="E219" s="31"/>
@@ -7709,7 +7709,7 @@
       <c r="G219" s="13"/>
     </row>
     <row r="220" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="129"/>
+      <c r="A220" s="88"/>
       <c r="B220" s="35"/>
       <c r="C220" s="35"/>
       <c r="D220" s="35"/>
@@ -7718,7 +7718,7 @@
       <c r="G220" s="13"/>
     </row>
     <row r="221" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="130"/>
+      <c r="A221" s="89"/>
       <c r="B221" s="46"/>
       <c r="C221" s="32"/>
       <c r="D221" s="32"/>
@@ -7727,7 +7727,7 @@
       <c r="G221" s="16"/>
     </row>
     <row r="222" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="82" t="s">
+      <c r="A222" s="107" t="s">
         <v>407</v>
       </c>
       <c r="B222" s="42" t="s">
@@ -7743,7 +7743,7 @@
       <c r="G222" s="13"/>
     </row>
     <row r="223" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A223" s="83"/>
+      <c r="A223" s="108"/>
       <c r="B223" s="42" t="s">
         <v>81</v>
       </c>
@@ -7758,7 +7758,7 @@
       <c r="G223" s="13"/>
     </row>
     <row r="224" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A224" s="83"/>
+      <c r="A224" s="108"/>
       <c r="B224" s="42" t="s">
         <v>73</v>
       </c>
@@ -7775,7 +7775,7 @@
       <c r="G224" s="13"/>
     </row>
     <row r="225" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A225" s="83"/>
+      <c r="A225" s="108"/>
       <c r="B225" s="42" t="s">
         <v>131</v>
       </c>
@@ -7789,7 +7789,7 @@
       <c r="G225" s="13"/>
     </row>
     <row r="226" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A226" s="83"/>
+      <c r="A226" s="108"/>
       <c r="B226" s="42" t="s">
         <v>549</v>
       </c>
@@ -7804,7 +7804,7 @@
       <c r="G226" s="13"/>
     </row>
     <row r="227" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A227" s="83"/>
+      <c r="A227" s="108"/>
       <c r="B227" s="42" t="s">
         <v>692</v>
       </c>
@@ -7819,7 +7819,7 @@
       <c r="G227" s="13"/>
     </row>
     <row r="228" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A228" s="83"/>
+      <c r="A228" s="108"/>
       <c r="B228" s="42" t="s">
         <v>707</v>
       </c>
@@ -7834,7 +7834,7 @@
       <c r="G228" s="13"/>
     </row>
     <row r="229" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A229" s="83"/>
+      <c r="A229" s="108"/>
       <c r="B229" s="31" t="s">
         <v>812</v>
       </c>
@@ -7849,7 +7849,7 @@
       <c r="G229" s="13"/>
     </row>
     <row r="230" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A230" s="83"/>
+      <c r="A230" s="108"/>
       <c r="B230" s="42"/>
       <c r="C230" s="31"/>
       <c r="D230" s="31"/>
@@ -7858,7 +7858,7 @@
       <c r="G230" s="13"/>
     </row>
     <row r="231" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A231" s="83"/>
+      <c r="A231" s="108"/>
       <c r="B231" s="42"/>
       <c r="C231" s="31"/>
       <c r="D231" s="31"/>
@@ -7867,11 +7867,11 @@
       <c r="G231" s="13"/>
     </row>
     <row r="232" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="84"/>
+      <c r="A232" s="109"/>
       <c r="G232" s="16"/>
     </row>
     <row r="233" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="122" t="s">
+      <c r="A233" s="81" t="s">
         <v>500</v>
       </c>
       <c r="B233" s="42" t="s">
@@ -7887,7 +7887,7 @@
       <c r="G233" s="13"/>
     </row>
     <row r="234" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="123"/>
+      <c r="A234" s="82"/>
       <c r="B234" s="42"/>
       <c r="C234" s="7"/>
       <c r="D234" s="8"/>
@@ -7896,7 +7896,7 @@
       <c r="G234" s="13"/>
     </row>
     <row r="235" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="123"/>
+      <c r="A235" s="82"/>
       <c r="B235" s="42"/>
       <c r="C235" s="7"/>
       <c r="D235" s="8"/>
@@ -7905,7 +7905,7 @@
       <c r="G235" s="13"/>
     </row>
     <row r="236" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="123"/>
+      <c r="A236" s="82"/>
       <c r="B236" s="42"/>
       <c r="C236" s="31"/>
       <c r="E236" s="31"/>
@@ -7913,7 +7913,7 @@
       <c r="G236" s="13"/>
     </row>
     <row r="237" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="123"/>
+      <c r="A237" s="82"/>
       <c r="B237" s="42"/>
       <c r="C237" s="7"/>
       <c r="D237" s="8"/>
@@ -7922,11 +7922,11 @@
       <c r="G237" s="13"/>
     </row>
     <row r="238" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="124"/>
+      <c r="A238" s="83"/>
       <c r="G238" s="16"/>
     </row>
     <row r="239" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="91" t="s">
+      <c r="A239" s="65" t="s">
         <v>493</v>
       </c>
       <c r="B239" s="35" t="s">
@@ -7945,7 +7945,7 @@
       <c r="G239" s="13"/>
     </row>
     <row r="240" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A240" s="92"/>
+      <c r="A240" s="66"/>
       <c r="B240" s="42" t="s">
         <v>179</v>
       </c>
@@ -7959,7 +7959,7 @@
       <c r="G240" s="13"/>
     </row>
     <row r="241" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A241" s="92"/>
+      <c r="A241" s="66"/>
       <c r="B241" s="42" t="s">
         <v>83</v>
       </c>
@@ -7974,7 +7974,7 @@
       <c r="G241" s="13"/>
     </row>
     <row r="242" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A242" s="92"/>
+      <c r="A242" s="66"/>
       <c r="B242" s="42" t="s">
         <v>293</v>
       </c>
@@ -7988,7 +7988,7 @@
       <c r="G242" s="13"/>
     </row>
     <row r="243" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A243" s="92"/>
+      <c r="A243" s="66"/>
       <c r="B243" s="42" t="s">
         <v>563</v>
       </c>
@@ -8005,7 +8005,7 @@
       <c r="G243" s="13"/>
     </row>
     <row r="244" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A244" s="92"/>
+      <c r="A244" s="66"/>
       <c r="B244" s="42" t="s">
         <v>125</v>
       </c>
@@ -8020,7 +8020,7 @@
       <c r="G244" s="13"/>
     </row>
     <row r="245" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A245" s="92"/>
+      <c r="A245" s="66"/>
       <c r="B245" s="42" t="s">
         <v>552</v>
       </c>
@@ -8035,7 +8035,7 @@
       <c r="G245" s="13"/>
     </row>
     <row r="246" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A246" s="92"/>
+      <c r="A246" s="66"/>
       <c r="B246" s="42" t="s">
         <v>707</v>
       </c>
@@ -8050,7 +8050,7 @@
       <c r="G246" s="13"/>
     </row>
     <row r="247" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A247" s="92"/>
+      <c r="A247" s="66"/>
       <c r="B247" s="42" t="s">
         <v>737</v>
       </c>
@@ -8065,7 +8065,7 @@
       <c r="G247" s="13"/>
     </row>
     <row r="248" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A248" s="92"/>
+      <c r="A248" s="66"/>
       <c r="B248" s="42" t="s">
         <v>746</v>
       </c>
@@ -8080,7 +8080,7 @@
       <c r="G248" s="13"/>
     </row>
     <row r="249" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A249" s="92"/>
+      <c r="A249" s="66"/>
       <c r="B249" s="31" t="s">
         <v>847</v>
       </c>
@@ -8095,7 +8095,7 @@
       <c r="G249" s="13"/>
     </row>
     <row r="250" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A250" s="92"/>
+      <c r="A250" s="66"/>
       <c r="B250" s="31" t="s">
         <v>862</v>
       </c>
@@ -8110,7 +8110,7 @@
       <c r="G250" s="13"/>
     </row>
     <row r="251" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A251" s="92"/>
+      <c r="A251" s="66"/>
       <c r="B251" s="31" t="s">
         <v>987</v>
       </c>
@@ -8125,7 +8125,7 @@
       <c r="G251" s="13"/>
     </row>
     <row r="252" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A252" s="92"/>
+      <c r="A252" s="66"/>
       <c r="B252" s="31"/>
       <c r="C252" s="31"/>
       <c r="D252" s="31"/>
@@ -8134,7 +8134,7 @@
       <c r="G252" s="13"/>
     </row>
     <row r="253" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A253" s="92"/>
+      <c r="A253" s="66"/>
       <c r="B253" s="31"/>
       <c r="C253" s="31"/>
       <c r="D253" s="31"/>
@@ -8143,14 +8143,14 @@
       <c r="G253" s="13"/>
     </row>
     <row r="254" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="93"/>
+      <c r="A254" s="116"/>
       <c r="F254" s="19"/>
       <c r="G254" s="16" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="255" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="125" t="s">
+      <c r="A255" s="84" t="s">
         <v>106</v>
       </c>
       <c r="B255" s="42" t="s">
@@ -8165,7 +8165,7 @@
       <c r="G255" s="30"/>
     </row>
     <row r="256" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A256" s="126"/>
+      <c r="A256" s="85"/>
       <c r="B256" s="42" t="s">
         <v>97</v>
       </c>
@@ -8180,7 +8180,7 @@
       <c r="G256" s="23"/>
     </row>
     <row r="257" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A257" s="126"/>
+      <c r="A257" s="85"/>
       <c r="B257" s="42" t="s">
         <v>328</v>
       </c>
@@ -8194,7 +8194,7 @@
       <c r="G257" s="13"/>
     </row>
     <row r="258" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A258" s="126"/>
+      <c r="A258" s="85"/>
       <c r="B258" s="42" t="s">
         <v>373</v>
       </c>
@@ -8208,7 +8208,7 @@
       <c r="G258" s="13"/>
     </row>
     <row r="259" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A259" s="126"/>
+      <c r="A259" s="85"/>
       <c r="B259" s="35" t="s">
         <v>441</v>
       </c>
@@ -8227,7 +8227,7 @@
       <c r="G259" s="13"/>
     </row>
     <row r="260" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A260" s="126"/>
+      <c r="A260" s="85"/>
       <c r="B260" s="35" t="s">
         <v>425</v>
       </c>
@@ -8246,7 +8246,7 @@
       <c r="G260" s="13"/>
     </row>
     <row r="261" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A261" s="126"/>
+      <c r="A261" s="85"/>
       <c r="B261" s="35" t="s">
         <v>483</v>
       </c>
@@ -8263,7 +8263,7 @@
       <c r="G261" s="13"/>
     </row>
     <row r="262" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A262" s="126"/>
+      <c r="A262" s="85"/>
       <c r="B262" s="35" t="s">
         <v>476</v>
       </c>
@@ -8280,7 +8280,7 @@
       <c r="G262" s="13"/>
     </row>
     <row r="263" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A263" s="126"/>
+      <c r="A263" s="85"/>
       <c r="B263" s="35" t="s">
         <v>414</v>
       </c>
@@ -8299,7 +8299,7 @@
       <c r="G263" s="13"/>
     </row>
     <row r="264" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A264" s="126"/>
+      <c r="A264" s="85"/>
       <c r="B264" s="35" t="s">
         <v>402</v>
       </c>
@@ -8318,7 +8318,7 @@
       <c r="G264" s="13"/>
     </row>
     <row r="265" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A265" s="126"/>
+      <c r="A265" s="85"/>
       <c r="B265" s="35" t="s">
         <v>396</v>
       </c>
@@ -8333,7 +8333,7 @@
       <c r="G265" s="13"/>
     </row>
     <row r="266" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A266" s="126"/>
+      <c r="A266" s="85"/>
       <c r="B266" s="35" t="s">
         <v>409</v>
       </c>
@@ -8348,7 +8348,7 @@
       <c r="G266" s="13"/>
     </row>
     <row r="267" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A267" s="126"/>
+      <c r="A267" s="85"/>
       <c r="B267" s="35" t="s">
         <v>445</v>
       </c>
@@ -8367,7 +8367,7 @@
       <c r="G267" s="13"/>
     </row>
     <row r="268" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A268" s="127"/>
+      <c r="A268" s="86"/>
       <c r="B268" s="35" t="s">
         <v>447</v>
       </c>
@@ -8386,7 +8386,7 @@
       <c r="G268" s="13"/>
     </row>
     <row r="269" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A269" s="127"/>
+      <c r="A269" s="86"/>
       <c r="B269" s="42" t="s">
         <v>567</v>
       </c>
@@ -8403,7 +8403,7 @@
       <c r="G269" s="18"/>
     </row>
     <row r="270" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A270" s="127"/>
+      <c r="A270" s="86"/>
       <c r="B270" s="42" t="s">
         <v>679</v>
       </c>
@@ -8420,7 +8420,7 @@
       <c r="G270" s="13"/>
     </row>
     <row r="271" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A271" s="127"/>
+      <c r="A271" s="86"/>
       <c r="B271" s="31" t="s">
         <v>818</v>
       </c>
@@ -8435,7 +8435,7 @@
       <c r="G271" s="13"/>
     </row>
     <row r="272" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A272" s="127"/>
+      <c r="A272" s="86"/>
       <c r="B272" s="31" t="s">
         <v>824</v>
       </c>
@@ -8450,7 +8450,7 @@
       <c r="G272" s="13"/>
     </row>
     <row r="273" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A273" s="127"/>
+      <c r="A273" s="86"/>
       <c r="B273" s="31" t="s">
         <v>868</v>
       </c>
@@ -8465,7 +8465,7 @@
       <c r="G273" s="13"/>
     </row>
     <row r="274" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A274" s="127"/>
+      <c r="A274" s="86"/>
       <c r="B274" s="31" t="s">
         <v>927</v>
       </c>
@@ -8480,7 +8480,7 @@
       <c r="G274" s="13"/>
     </row>
     <row r="275" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A275" s="127"/>
+      <c r="A275" s="86"/>
       <c r="B275" s="31" t="s">
         <v>993</v>
       </c>
@@ -8495,7 +8495,7 @@
       <c r="G275" s="13"/>
     </row>
     <row r="276" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A276" s="127"/>
+      <c r="A276" s="86"/>
       <c r="B276" s="31" t="s">
         <v>1043</v>
       </c>
@@ -8510,7 +8510,7 @@
       <c r="G276" s="13"/>
     </row>
     <row r="277" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A277" s="127"/>
+      <c r="A277" s="86"/>
       <c r="B277" s="31"/>
       <c r="C277" s="31"/>
       <c r="D277" s="31"/>
@@ -8519,7 +8519,7 @@
       <c r="G277" s="13"/>
     </row>
     <row r="278" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A278" s="127"/>
+      <c r="A278" s="86"/>
       <c r="B278" s="31"/>
       <c r="C278" s="31"/>
       <c r="D278" s="31"/>
@@ -8528,7 +8528,7 @@
       <c r="G278" s="13"/>
     </row>
     <row r="279" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A279" s="127"/>
+      <c r="A279" s="86"/>
       <c r="B279" s="31"/>
       <c r="C279" s="31"/>
       <c r="D279" s="31"/>
@@ -8537,7 +8537,7 @@
       <c r="G279" s="13"/>
     </row>
     <row r="280" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A280" s="112"/>
+      <c r="A280" s="71"/>
       <c r="B280" s="35"/>
       <c r="C280" s="34"/>
       <c r="D280" s="4"/>
@@ -8546,7 +8546,7 @@
       <c r="G280" s="13"/>
     </row>
     <row r="281" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A281" s="91" t="s">
+      <c r="A281" s="65" t="s">
         <v>760</v>
       </c>
       <c r="B281" s="42" t="s">
@@ -8563,7 +8563,7 @@
       <c r="G281" s="13"/>
     </row>
     <row r="282" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A282" s="92"/>
+      <c r="A282" s="66"/>
       <c r="B282" s="42"/>
       <c r="C282" s="31"/>
       <c r="E282" s="31"/>
@@ -8571,7 +8571,7 @@
       <c r="G282" s="13"/>
     </row>
     <row r="283" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A283" s="92"/>
+      <c r="A283" s="66"/>
       <c r="B283" s="42"/>
       <c r="C283" s="31"/>
       <c r="D283" s="31"/>
@@ -8580,7 +8580,7 @@
       <c r="G283" s="13"/>
     </row>
     <row r="284" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="92"/>
+      <c r="A284" s="66"/>
       <c r="B284" s="42"/>
       <c r="C284" s="7"/>
       <c r="D284" s="8"/>
@@ -8589,7 +8589,7 @@
       <c r="G284" s="13"/>
     </row>
     <row r="285" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="92"/>
+      <c r="A285" s="66"/>
       <c r="B285" s="42"/>
       <c r="C285" s="7"/>
       <c r="D285" s="8"/>
@@ -8598,7 +8598,7 @@
       <c r="G285" s="13"/>
     </row>
     <row r="286" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="92"/>
+      <c r="A286" s="66"/>
       <c r="B286" s="42"/>
       <c r="C286" s="7"/>
       <c r="D286" s="8"/>
@@ -8607,7 +8607,7 @@
       <c r="G286" s="13"/>
     </row>
     <row r="287" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="92"/>
+      <c r="A287" s="66"/>
       <c r="B287" s="42"/>
       <c r="C287" s="7"/>
       <c r="D287" s="8"/>
@@ -8616,14 +8616,14 @@
       <c r="G287" s="13"/>
     </row>
     <row r="288" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="108"/>
+      <c r="A288" s="67"/>
       <c r="F288" s="19"/>
       <c r="G288" s="16" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="289" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A289" s="113" t="s">
+      <c r="A289" s="72" t="s">
         <v>492</v>
       </c>
       <c r="B289" s="42" t="s">
@@ -8639,7 +8639,7 @@
       <c r="G289" s="12"/>
     </row>
     <row r="290" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A290" s="114"/>
+      <c r="A290" s="73"/>
       <c r="B290" s="42" t="s">
         <v>187</v>
       </c>
@@ -8653,7 +8653,7 @@
       <c r="G290" s="13"/>
     </row>
     <row r="291" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A291" s="114"/>
+      <c r="A291" s="73"/>
       <c r="B291" s="42" t="s">
         <v>387</v>
       </c>
@@ -8667,7 +8667,7 @@
       <c r="G291" s="13"/>
     </row>
     <row r="292" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A292" s="114"/>
+      <c r="A292" s="73"/>
       <c r="B292" s="42" t="s">
         <v>275</v>
       </c>
@@ -8681,7 +8681,7 @@
       <c r="G292" s="13"/>
     </row>
     <row r="293" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A293" s="114"/>
+      <c r="A293" s="73"/>
       <c r="B293" s="42" t="s">
         <v>367</v>
       </c>
@@ -8695,7 +8695,7 @@
       <c r="G293" s="13"/>
     </row>
     <row r="294" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A294" s="114"/>
+      <c r="A294" s="73"/>
       <c r="B294" s="42" t="s">
         <v>375</v>
       </c>
@@ -8709,7 +8709,7 @@
       <c r="G294" s="13"/>
     </row>
     <row r="295" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A295" s="114"/>
+      <c r="A295" s="73"/>
       <c r="B295" s="42" t="s">
         <v>505</v>
       </c>
@@ -8724,7 +8724,7 @@
       <c r="G295" s="13"/>
     </row>
     <row r="296" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A296" s="114"/>
+      <c r="A296" s="73"/>
       <c r="B296" s="42" t="s">
         <v>529</v>
       </c>
@@ -8739,7 +8739,7 @@
       <c r="G296" s="13"/>
     </row>
     <row r="297" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A297" s="114"/>
+      <c r="A297" s="73"/>
       <c r="B297" s="42" t="s">
         <v>571</v>
       </c>
@@ -8754,7 +8754,7 @@
       <c r="G297" s="13"/>
     </row>
     <row r="298" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A298" s="114"/>
+      <c r="A298" s="73"/>
       <c r="B298" s="42" t="s">
         <v>588</v>
       </c>
@@ -8769,7 +8769,7 @@
       <c r="G298" s="13"/>
     </row>
     <row r="299" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A299" s="114"/>
+      <c r="A299" s="73"/>
       <c r="B299" s="42" t="s">
         <v>624</v>
       </c>
@@ -8784,7 +8784,7 @@
       <c r="G299" s="13"/>
     </row>
     <row r="300" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A300" s="114"/>
+      <c r="A300" s="73"/>
       <c r="B300" s="42" t="s">
         <v>698</v>
       </c>
@@ -8799,7 +8799,7 @@
       <c r="G300" s="13"/>
     </row>
     <row r="301" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A301" s="114"/>
+      <c r="A301" s="73"/>
       <c r="B301" s="42" t="s">
         <v>375</v>
       </c>
@@ -8816,7 +8816,7 @@
       <c r="G301" s="13"/>
     </row>
     <row r="302" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A302" s="114"/>
+      <c r="A302" s="73"/>
       <c r="B302" s="42" t="s">
         <v>731</v>
       </c>
@@ -8831,7 +8831,7 @@
       <c r="G302" s="13"/>
     </row>
     <row r="303" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A303" s="114"/>
+      <c r="A303" s="73"/>
       <c r="B303" s="42" t="s">
         <v>806</v>
       </c>
@@ -8846,7 +8846,7 @@
       <c r="G303" s="13"/>
     </row>
     <row r="304" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A304" s="114"/>
+      <c r="A304" s="73"/>
       <c r="B304" s="42" t="s">
         <v>797</v>
       </c>
@@ -8861,7 +8861,7 @@
       <c r="G304" s="13"/>
     </row>
     <row r="305" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A305" s="114"/>
+      <c r="A305" s="73"/>
       <c r="B305" s="31" t="s">
         <v>835</v>
       </c>
@@ -8876,7 +8876,7 @@
       <c r="G305" s="13"/>
     </row>
     <row r="306" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A306" s="114"/>
+      <c r="A306" s="73"/>
       <c r="B306" s="31" t="s">
         <v>844</v>
       </c>
@@ -8891,7 +8891,7 @@
       <c r="G306" s="13"/>
     </row>
     <row r="307" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A307" s="114"/>
+      <c r="A307" s="73"/>
       <c r="B307" s="39" t="s">
         <v>894</v>
       </c>
@@ -8906,7 +8906,7 @@
       <c r="G307" s="13"/>
     </row>
     <row r="308" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="114"/>
+      <c r="A308" s="73"/>
       <c r="B308" s="39" t="s">
         <v>973</v>
       </c>
@@ -8921,7 +8921,7 @@
       <c r="G308" s="16"/>
     </row>
     <row r="309" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A309" s="112"/>
+      <c r="A309" s="71"/>
       <c r="B309" s="31" t="s">
         <v>990</v>
       </c>
@@ -8936,7 +8936,7 @@
       <c r="G309" s="13"/>
     </row>
     <row r="310" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A310" s="112"/>
+      <c r="A310" s="71"/>
       <c r="B310" s="39"/>
       <c r="C310" s="39"/>
       <c r="D310" s="39"/>
@@ -8945,7 +8945,7 @@
       <c r="G310" s="13"/>
     </row>
     <row r="311" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A311" s="112"/>
+      <c r="A311" s="71"/>
       <c r="B311" s="39"/>
       <c r="C311" s="39"/>
       <c r="D311" s="39"/>
@@ -8954,7 +8954,7 @@
       <c r="G311" s="13"/>
     </row>
     <row r="312" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A312" s="112"/>
+      <c r="A312" s="71"/>
       <c r="B312" s="39"/>
       <c r="C312" s="39"/>
       <c r="D312" s="39"/>
@@ -8963,7 +8963,7 @@
       <c r="G312" s="13"/>
     </row>
     <row r="313" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="112"/>
+      <c r="A313" s="71"/>
       <c r="B313" s="39"/>
       <c r="C313" s="39"/>
       <c r="D313" s="39"/>
@@ -8972,7 +8972,7 @@
       <c r="G313" s="13"/>
     </row>
     <row r="314" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A314" s="97" t="s">
+      <c r="A314" s="120" t="s">
         <v>495</v>
       </c>
       <c r="B314" s="42" t="s">
@@ -8988,7 +8988,7 @@
       <c r="G314" s="12"/>
     </row>
     <row r="315" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A315" s="98"/>
+      <c r="A315" s="121"/>
       <c r="B315" s="42" t="s">
         <v>240</v>
       </c>
@@ -9002,7 +9002,7 @@
       <c r="G315" s="13"/>
     </row>
     <row r="316" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A316" s="98"/>
+      <c r="A316" s="121"/>
       <c r="B316" s="42" t="s">
         <v>803</v>
       </c>
@@ -9017,7 +9017,7 @@
       <c r="G316" s="13"/>
     </row>
     <row r="317" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A317" s="98"/>
+      <c r="A317" s="121"/>
       <c r="B317" s="31" t="s">
         <v>815</v>
       </c>
@@ -9032,7 +9032,7 @@
       <c r="G317" s="13"/>
     </row>
     <row r="318" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A318" s="98"/>
+      <c r="A318" s="121"/>
       <c r="B318" s="39" t="s">
         <v>894</v>
       </c>
@@ -9047,7 +9047,7 @@
       <c r="G318" s="13"/>
     </row>
     <row r="319" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A319" s="98"/>
+      <c r="A319" s="121"/>
       <c r="B319" s="35" t="s">
         <v>1139</v>
       </c>
@@ -9066,7 +9066,7 @@
       <c r="G319" s="13"/>
     </row>
     <row r="320" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A320" s="98"/>
+      <c r="A320" s="121"/>
       <c r="B320" s="35" t="s">
         <v>1143</v>
       </c>
@@ -9085,7 +9085,7 @@
       <c r="G320" s="13"/>
     </row>
     <row r="321" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A321" s="98"/>
+      <c r="A321" s="121"/>
       <c r="B321" s="35" t="s">
         <v>1146</v>
       </c>
@@ -9104,7 +9104,7 @@
       <c r="G321" s="13"/>
     </row>
     <row r="322" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A322" s="98"/>
+      <c r="A322" s="121"/>
       <c r="B322" s="35" t="s">
         <v>141</v>
       </c>
@@ -9123,7 +9123,7 @@
       <c r="G322" s="13"/>
     </row>
     <row r="323" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A323" s="98"/>
+      <c r="A323" s="121"/>
       <c r="B323" s="35" t="s">
         <v>1152</v>
       </c>
@@ -9142,7 +9142,7 @@
       <c r="G323" s="13"/>
     </row>
     <row r="324" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A324" s="98"/>
+      <c r="A324" s="121"/>
       <c r="B324" s="35" t="s">
         <v>1155</v>
       </c>
@@ -9161,11 +9161,11 @@
       <c r="G324" s="13"/>
     </row>
     <row r="325" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A325" s="98"/>
+      <c r="A325" s="121"/>
       <c r="G325" s="16"/>
     </row>
     <row r="326" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A326" s="91" t="s">
+      <c r="A326" s="65" t="s">
         <v>499</v>
       </c>
       <c r="B326" s="42" t="s">
@@ -9183,7 +9183,7 @@
       <c r="G326" s="13"/>
     </row>
     <row r="327" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A327" s="92"/>
+      <c r="A327" s="66"/>
       <c r="B327" s="42" t="s">
         <v>189</v>
       </c>
@@ -9197,7 +9197,7 @@
       <c r="G327" s="13"/>
     </row>
     <row r="328" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A328" s="92"/>
+      <c r="A328" s="66"/>
       <c r="B328" s="42" t="s">
         <v>725</v>
       </c>
@@ -9212,7 +9212,7 @@
       <c r="G328" s="13"/>
     </row>
     <row r="329" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A329" s="92"/>
+      <c r="A329" s="66"/>
       <c r="B329" s="42" t="s">
         <v>776</v>
       </c>
@@ -9227,7 +9227,7 @@
       <c r="G329" s="13"/>
     </row>
     <row r="330" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A330" s="92"/>
+      <c r="A330" s="66"/>
       <c r="B330" s="42"/>
       <c r="C330" s="7"/>
       <c r="D330" s="8"/>
@@ -9236,7 +9236,7 @@
       <c r="G330" s="13"/>
     </row>
     <row r="331" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A331" s="92"/>
+      <c r="A331" s="66"/>
       <c r="B331" s="42"/>
       <c r="C331" s="7"/>
       <c r="D331" s="8"/>
@@ -9245,7 +9245,7 @@
       <c r="G331" s="13"/>
     </row>
     <row r="332" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A332" s="92"/>
+      <c r="A332" s="66"/>
       <c r="B332" s="42"/>
       <c r="C332" s="7"/>
       <c r="D332" s="8"/>
@@ -9254,14 +9254,14 @@
       <c r="G332" s="13"/>
     </row>
     <row r="333" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="108"/>
+      <c r="A333" s="67"/>
       <c r="F333" s="19"/>
       <c r="G333" s="16" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="334" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="76" t="s">
+      <c r="A334" s="101" t="s">
         <v>47</v>
       </c>
       <c r="B334" s="49" t="s">
@@ -9280,7 +9280,7 @@
       <c r="G334" s="12"/>
     </row>
     <row r="335" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A335" s="77"/>
+      <c r="A335" s="102"/>
       <c r="B335" s="45" t="s">
         <v>51</v>
       </c>
@@ -9297,7 +9297,7 @@
       <c r="G335" s="13"/>
     </row>
     <row r="336" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A336" s="77"/>
+      <c r="A336" s="102"/>
       <c r="B336" s="45" t="s">
         <v>54</v>
       </c>
@@ -9312,7 +9312,7 @@
       <c r="G336" s="13"/>
     </row>
     <row r="337" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="77"/>
+      <c r="A337" s="102"/>
       <c r="B337" s="45" t="s">
         <v>57</v>
       </c>
@@ -9331,7 +9331,7 @@
       <c r="G337" s="13"/>
     </row>
     <row r="338" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A338" s="77"/>
+      <c r="A338" s="102"/>
       <c r="B338" s="45" t="s">
         <v>61</v>
       </c>
@@ -9348,7 +9348,7 @@
       <c r="G338" s="13"/>
     </row>
     <row r="339" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A339" s="77"/>
+      <c r="A339" s="102"/>
       <c r="B339" s="45" t="s">
         <v>64</v>
       </c>
@@ -9367,7 +9367,7 @@
       <c r="G339" s="13"/>
     </row>
     <row r="340" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A340" s="77"/>
+      <c r="A340" s="102"/>
       <c r="B340" s="45" t="s">
         <v>67</v>
       </c>
@@ -9386,7 +9386,7 @@
       <c r="G340" s="13"/>
     </row>
     <row r="341" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A341" s="77"/>
+      <c r="A341" s="102"/>
       <c r="B341" s="42" t="s">
         <v>51</v>
       </c>
@@ -9400,7 +9400,7 @@
       <c r="G341" s="13"/>
     </row>
     <row r="342" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="77"/>
+      <c r="A342" s="102"/>
       <c r="B342" s="45"/>
       <c r="C342" s="4"/>
       <c r="D342" s="4"/>
@@ -9409,7 +9409,7 @@
       <c r="G342" s="13"/>
     </row>
     <row r="343" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="77"/>
+      <c r="A343" s="102"/>
       <c r="B343" s="45"/>
       <c r="C343" s="4"/>
       <c r="D343" s="4"/>
@@ -9418,7 +9418,7 @@
       <c r="G343" s="13"/>
     </row>
     <row r="344" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A344" s="78"/>
+      <c r="A344" s="103"/>
       <c r="B344" s="50"/>
       <c r="C344" s="14"/>
       <c r="D344" s="14"/>
@@ -9427,7 +9427,7 @@
       <c r="G344" s="16"/>
     </row>
     <row r="345" spans="1:7" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A345" s="85" t="s">
+      <c r="A345" s="110" t="s">
         <v>408</v>
       </c>
       <c r="B345" s="42" t="s">
@@ -9444,7 +9444,7 @@
       <c r="G345" s="12"/>
     </row>
     <row r="346" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A346" s="86"/>
+      <c r="A346" s="111"/>
       <c r="B346" s="42" t="s">
         <v>135</v>
       </c>
@@ -9458,7 +9458,7 @@
       <c r="G346" s="13"/>
     </row>
     <row r="347" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A347" s="86"/>
+      <c r="A347" s="111"/>
       <c r="B347" s="42" t="s">
         <v>324</v>
       </c>
@@ -9472,7 +9472,7 @@
       <c r="G347" s="13"/>
     </row>
     <row r="348" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A348" s="86"/>
+      <c r="A348" s="111"/>
       <c r="B348" s="31" t="s">
         <v>996</v>
       </c>
@@ -9487,7 +9487,7 @@
       <c r="G348" s="13"/>
     </row>
     <row r="349" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A349" s="86"/>
+      <c r="A349" s="111"/>
       <c r="B349" s="31" t="s">
         <v>1022</v>
       </c>
@@ -9502,7 +9502,7 @@
       <c r="G349" s="13"/>
     </row>
     <row r="350" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A350" s="86"/>
+      <c r="A350" s="111"/>
       <c r="B350" s="31" t="s">
         <v>1031</v>
       </c>
@@ -9517,7 +9517,7 @@
       <c r="G350" s="13"/>
     </row>
     <row r="351" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A351" s="86"/>
+      <c r="A351" s="111"/>
       <c r="B351" s="31"/>
       <c r="C351" s="31"/>
       <c r="D351" s="31"/>
@@ -9526,7 +9526,7 @@
       <c r="G351" s="13"/>
     </row>
     <row r="352" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A352" s="86"/>
+      <c r="A352" s="111"/>
       <c r="B352" s="31"/>
       <c r="C352" s="31"/>
       <c r="D352" s="31"/>
@@ -9535,7 +9535,7 @@
       <c r="G352" s="13"/>
     </row>
     <row r="353" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A353" s="87"/>
+      <c r="A353" s="112"/>
       <c r="B353" s="50"/>
       <c r="C353" s="14"/>
       <c r="D353" s="14"/>
@@ -9544,7 +9544,7 @@
       <c r="G353" s="16"/>
     </row>
     <row r="354" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A354" s="105" t="s">
+      <c r="A354" s="128" t="s">
         <v>498</v>
       </c>
       <c r="B354" s="42" t="s">
@@ -9562,7 +9562,7 @@
       <c r="G354" s="12"/>
     </row>
     <row r="355" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A355" s="106"/>
+      <c r="A355" s="129"/>
       <c r="B355" s="42" t="s">
         <v>189</v>
       </c>
@@ -9576,7 +9576,7 @@
       <c r="G355" s="13"/>
     </row>
     <row r="356" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A356" s="106"/>
+      <c r="A356" s="129"/>
       <c r="B356" s="42" t="s">
         <v>532</v>
       </c>
@@ -9591,7 +9591,7 @@
       <c r="G356" s="13"/>
     </row>
     <row r="357" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A357" s="106"/>
+      <c r="A357" s="129"/>
       <c r="B357" s="45"/>
       <c r="C357" s="4"/>
       <c r="D357" s="4"/>
@@ -9600,7 +9600,7 @@
       <c r="G357" s="13"/>
     </row>
     <row r="358" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A358" s="106"/>
+      <c r="A358" s="129"/>
       <c r="B358" s="45"/>
       <c r="C358" s="4"/>
       <c r="D358" s="4"/>
@@ -9609,7 +9609,7 @@
       <c r="G358" s="13"/>
     </row>
     <row r="359" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A359" s="106"/>
+      <c r="A359" s="129"/>
       <c r="B359" s="45"/>
       <c r="C359" s="4"/>
       <c r="D359" s="4"/>
@@ -9618,7 +9618,7 @@
       <c r="G359" s="13"/>
     </row>
     <row r="360" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A360" s="107"/>
+      <c r="A360" s="130"/>
       <c r="B360" s="42"/>
       <c r="C360" s="31"/>
       <c r="E360" s="31"/>
@@ -9626,7 +9626,7 @@
       <c r="G360" s="13"/>
     </row>
     <row r="361" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A361" s="99" t="s">
+      <c r="A361" s="122" t="s">
         <v>497</v>
       </c>
       <c r="B361" s="42" t="s">
@@ -9642,7 +9642,7 @@
       <c r="G361" s="18"/>
     </row>
     <row r="362" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A362" s="100"/>
+      <c r="A362" s="123"/>
       <c r="B362" s="42" t="s">
         <v>133</v>
       </c>
@@ -9656,7 +9656,7 @@
       <c r="G362" s="13"/>
     </row>
     <row r="363" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A363" s="100"/>
+      <c r="A363" s="123"/>
       <c r="B363" s="42" t="s">
         <v>265</v>
       </c>
@@ -9670,7 +9670,7 @@
       <c r="G363" s="13"/>
     </row>
     <row r="364" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A364" s="100"/>
+      <c r="A364" s="123"/>
       <c r="B364" s="42" t="s">
         <v>267</v>
       </c>
@@ -9684,7 +9684,7 @@
       <c r="G364" s="13"/>
     </row>
     <row r="365" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A365" s="100"/>
+      <c r="A365" s="123"/>
       <c r="B365" s="42" t="s">
         <v>343</v>
       </c>
@@ -9700,7 +9700,7 @@
       <c r="G365" s="13"/>
     </row>
     <row r="366" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A366" s="100"/>
+      <c r="A366" s="123"/>
       <c r="B366" s="42" t="s">
         <v>367</v>
       </c>
@@ -9714,7 +9714,7 @@
       <c r="G366" s="13"/>
     </row>
     <row r="367" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A367" s="100"/>
+      <c r="A367" s="123"/>
       <c r="B367" s="42" t="s">
         <v>375</v>
       </c>
@@ -9728,7 +9728,7 @@
       <c r="G367" s="13"/>
     </row>
     <row r="368" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A368" s="100"/>
+      <c r="A368" s="123"/>
       <c r="B368" s="35" t="s">
         <v>462</v>
       </c>
@@ -9745,7 +9745,7 @@
       <c r="G368" s="13"/>
     </row>
     <row r="369" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A369" s="100"/>
+      <c r="A369" s="123"/>
       <c r="B369" s="42" t="s">
         <v>505</v>
       </c>
@@ -9760,7 +9760,7 @@
       <c r="G369" s="13"/>
     </row>
     <row r="370" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A370" s="100"/>
+      <c r="A370" s="123"/>
       <c r="B370" s="42" t="s">
         <v>540</v>
       </c>
@@ -9775,7 +9775,7 @@
       <c r="G370" s="13"/>
     </row>
     <row r="371" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A371" s="100"/>
+      <c r="A371" s="123"/>
       <c r="B371" s="42" t="s">
         <v>695</v>
       </c>
@@ -9792,7 +9792,7 @@
       <c r="G371" s="13"/>
     </row>
     <row r="372" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A372" s="100"/>
+      <c r="A372" s="123"/>
       <c r="B372" s="42" t="s">
         <v>698</v>
       </c>
@@ -9807,7 +9807,7 @@
       <c r="G372" s="13"/>
     </row>
     <row r="373" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A373" s="100"/>
+      <c r="A373" s="123"/>
       <c r="B373" s="42" t="s">
         <v>716</v>
       </c>
@@ -9824,7 +9824,7 @@
       <c r="G373" s="13"/>
     </row>
     <row r="374" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A374" s="100"/>
+      <c r="A374" s="123"/>
       <c r="B374" s="31" t="s">
         <v>133</v>
       </c>
@@ -9839,7 +9839,7 @@
       <c r="G374" s="13"/>
     </row>
     <row r="375" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A375" s="100"/>
+      <c r="A375" s="123"/>
       <c r="B375" s="31" t="s">
         <v>841</v>
       </c>
@@ -9854,7 +9854,7 @@
       <c r="G375" s="13"/>
     </row>
     <row r="376" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A376" s="100"/>
+      <c r="A376" s="123"/>
       <c r="B376" s="39" t="s">
         <v>951</v>
       </c>
@@ -9869,7 +9869,7 @@
       <c r="G376" s="13"/>
     </row>
     <row r="377" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A377" s="100"/>
+      <c r="A377" s="123"/>
       <c r="B377" s="39" t="s">
         <v>964</v>
       </c>
@@ -9884,7 +9884,7 @@
       <c r="G377" s="13"/>
     </row>
     <row r="378" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A378" s="100"/>
+      <c r="A378" s="123"/>
       <c r="B378" s="31" t="s">
         <v>343</v>
       </c>
@@ -9899,7 +9899,7 @@
       <c r="G378" s="13"/>
     </row>
     <row r="379" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A379" s="100"/>
+      <c r="A379" s="123"/>
       <c r="B379" s="39"/>
       <c r="C379" s="39"/>
       <c r="D379" s="39"/>
@@ -9908,7 +9908,7 @@
       <c r="G379" s="13"/>
     </row>
     <row r="380" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A380" s="100"/>
+      <c r="A380" s="123"/>
       <c r="B380" s="39"/>
       <c r="C380" s="39"/>
       <c r="D380" s="39"/>
@@ -9917,7 +9917,7 @@
       <c r="G380" s="13"/>
     </row>
     <row r="381" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A381" s="100"/>
+      <c r="A381" s="123"/>
       <c r="B381" s="39"/>
       <c r="C381" s="39"/>
       <c r="D381" s="39"/>
@@ -9926,7 +9926,7 @@
       <c r="G381" s="13"/>
     </row>
     <row r="382" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A382" s="101"/>
+      <c r="A382" s="124"/>
       <c r="B382" s="42" t="s">
         <v>387</v>
       </c>
@@ -9940,7 +9940,7 @@
       <c r="G382" s="16"/>
     </row>
     <row r="383" spans="1:7" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A383" s="79" t="s">
+      <c r="A383" s="104" t="s">
         <v>406</v>
       </c>
       <c r="B383" s="42" t="s">
@@ -9956,7 +9956,7 @@
       <c r="G383" s="30"/>
     </row>
     <row r="384" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A384" s="80"/>
+      <c r="A384" s="105"/>
       <c r="B384" s="35" t="s">
         <v>434</v>
       </c>
@@ -9973,7 +9973,7 @@
       <c r="G384" s="23"/>
     </row>
     <row r="385" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A385" s="80"/>
+      <c r="A385" s="105"/>
       <c r="B385" s="42" t="s">
         <v>347</v>
       </c>
@@ -9987,7 +9987,7 @@
       <c r="G385" s="13"/>
     </row>
     <row r="386" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A386" s="80"/>
+      <c r="A386" s="105"/>
       <c r="B386" s="47" t="s">
         <v>369</v>
       </c>
@@ -10000,7 +10000,7 @@
       <c r="G386" s="13"/>
     </row>
     <row r="387" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A387" s="80"/>
+      <c r="A387" s="105"/>
       <c r="B387" s="42" t="s">
         <v>371</v>
       </c>
@@ -10014,7 +10014,7 @@
       <c r="G387" s="13"/>
     </row>
     <row r="388" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A388" s="80"/>
+      <c r="A388" s="105"/>
       <c r="B388" s="35" t="s">
         <v>394</v>
       </c>
@@ -10029,7 +10029,7 @@
       <c r="G388" s="13"/>
     </row>
     <row r="389" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A389" s="80"/>
+      <c r="A389" s="105"/>
       <c r="B389" s="42" t="s">
         <v>165</v>
       </c>
@@ -10043,7 +10043,7 @@
       <c r="G389" s="13"/>
     </row>
     <row r="390" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A390" s="80"/>
+      <c r="A390" s="105"/>
       <c r="B390" s="42" t="s">
         <v>71</v>
       </c>
@@ -10058,7 +10058,7 @@
       <c r="G390" s="13"/>
     </row>
     <row r="391" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A391" s="80"/>
+      <c r="A391" s="105"/>
       <c r="B391" s="42" t="s">
         <v>154</v>
       </c>
@@ -10072,7 +10072,7 @@
       <c r="G391" s="13"/>
     </row>
     <row r="392" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A392" s="80"/>
+      <c r="A392" s="105"/>
       <c r="B392" s="42" t="s">
         <v>181</v>
       </c>
@@ -10086,7 +10086,7 @@
       <c r="G392" s="13"/>
     </row>
     <row r="393" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A393" s="80"/>
+      <c r="A393" s="105"/>
       <c r="B393" s="42" t="s">
         <v>232</v>
       </c>
@@ -10100,7 +10100,7 @@
       <c r="G393" s="13"/>
     </row>
     <row r="394" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A394" s="80"/>
+      <c r="A394" s="105"/>
       <c r="B394" s="42" t="s">
         <v>514</v>
       </c>
@@ -10115,7 +10115,7 @@
       <c r="G394" s="13"/>
     </row>
     <row r="395" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A395" s="80"/>
+      <c r="A395" s="105"/>
       <c r="B395" s="42" t="s">
         <v>719</v>
       </c>
@@ -10129,7 +10129,7 @@
       <c r="G395" s="13"/>
     </row>
     <row r="396" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A396" s="80"/>
+      <c r="A396" s="105"/>
       <c r="B396" s="31" t="s">
         <v>821</v>
       </c>
@@ -10144,7 +10144,7 @@
       <c r="G396" s="13"/>
     </row>
     <row r="397" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A397" s="80"/>
+      <c r="A397" s="105"/>
       <c r="B397" s="39" t="s">
         <v>888</v>
       </c>
@@ -10159,7 +10159,7 @@
       <c r="G397" s="13"/>
     </row>
     <row r="398" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A398" s="80"/>
+      <c r="A398" s="105"/>
       <c r="B398" s="39" t="s">
         <v>906</v>
       </c>
@@ -10174,7 +10174,7 @@
       <c r="G398" s="13"/>
     </row>
     <row r="399" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A399" s="80"/>
+      <c r="A399" s="105"/>
       <c r="B399" s="35" t="s">
         <v>1132</v>
       </c>
@@ -10190,7 +10190,7 @@
       <c r="G399" s="13"/>
     </row>
     <row r="400" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A400" s="80"/>
+      <c r="A400" s="105"/>
       <c r="B400" s="35" t="s">
         <v>1136</v>
       </c>
@@ -10204,7 +10204,7 @@
       <c r="G400" s="13"/>
     </row>
     <row r="401" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A401" s="80"/>
+      <c r="A401" s="105"/>
       <c r="B401" s="39"/>
       <c r="C401" s="39"/>
       <c r="D401" s="39"/>
@@ -10213,7 +10213,7 @@
       <c r="G401" s="13"/>
     </row>
     <row r="402" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A402" s="80"/>
+      <c r="A402" s="105"/>
       <c r="B402" s="42"/>
       <c r="C402" s="31"/>
       <c r="D402" s="31"/>
@@ -10222,12 +10222,12 @@
       <c r="G402" s="13"/>
     </row>
     <row r="403" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A403" s="81"/>
+      <c r="A403" s="106"/>
       <c r="F403" s="19"/>
       <c r="G403" s="16"/>
     </row>
     <row r="404" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A404" s="88" t="s">
+      <c r="A404" s="113" t="s">
         <v>491</v>
       </c>
       <c r="B404" s="42" t="s">
@@ -10243,7 +10243,7 @@
       <c r="G404" s="12"/>
     </row>
     <row r="405" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A405" s="89"/>
+      <c r="A405" s="114"/>
       <c r="B405" s="42" t="s">
         <v>215</v>
       </c>
@@ -10257,7 +10257,7 @@
       <c r="G405" s="13"/>
     </row>
     <row r="406" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A406" s="89"/>
+      <c r="A406" s="114"/>
       <c r="B406" s="42" t="s">
         <v>283</v>
       </c>
@@ -10273,7 +10273,7 @@
       <c r="G406" s="13"/>
     </row>
     <row r="407" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A407" s="89"/>
+      <c r="A407" s="114"/>
       <c r="B407" s="42" t="s">
         <v>517</v>
       </c>
@@ -10288,7 +10288,7 @@
       <c r="G407" s="13"/>
     </row>
     <row r="408" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A408" s="89"/>
+      <c r="A408" s="114"/>
       <c r="B408" s="42" t="s">
         <v>546</v>
       </c>
@@ -10303,7 +10303,7 @@
       <c r="G408" s="13"/>
     </row>
     <row r="409" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A409" s="89"/>
+      <c r="A409" s="114"/>
       <c r="B409" s="42" t="s">
         <v>581</v>
       </c>
@@ -10318,7 +10318,7 @@
       <c r="G409" s="13"/>
     </row>
     <row r="410" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A410" s="89"/>
+      <c r="A410" s="114"/>
       <c r="B410" s="42" t="s">
         <v>608</v>
       </c>
@@ -10333,7 +10333,7 @@
       <c r="G410" s="13"/>
     </row>
     <row r="411" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A411" s="89"/>
+      <c r="A411" s="114"/>
       <c r="B411" s="42" t="s">
         <v>698</v>
       </c>
@@ -10348,7 +10348,7 @@
       <c r="G411" s="13"/>
     </row>
     <row r="412" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A412" s="89"/>
+      <c r="A412" s="114"/>
       <c r="B412" s="42" t="s">
         <v>713</v>
       </c>
@@ -10363,7 +10363,7 @@
       <c r="G412" s="13"/>
     </row>
     <row r="413" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A413" s="89"/>
+      <c r="A413" s="114"/>
       <c r="B413" s="42" t="s">
         <v>770</v>
       </c>
@@ -10377,7 +10377,7 @@
       <c r="G413" s="13"/>
     </row>
     <row r="414" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A414" s="89"/>
+      <c r="A414" s="114"/>
       <c r="B414" s="31" t="s">
         <v>924</v>
       </c>
@@ -10391,7 +10391,7 @@
       <c r="G414" s="13"/>
     </row>
     <row r="415" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A415" s="89"/>
+      <c r="A415" s="114"/>
       <c r="B415" s="39" t="s">
         <v>945</v>
       </c>
@@ -10405,7 +10405,7 @@
       <c r="G415" s="13"/>
     </row>
     <row r="416" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A416" s="89"/>
+      <c r="A416" s="114"/>
       <c r="B416" s="39" t="s">
         <v>242</v>
       </c>
@@ -10419,7 +10419,7 @@
       <c r="G416" s="13"/>
     </row>
     <row r="417" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A417" s="89"/>
+      <c r="A417" s="114"/>
       <c r="B417" s="42"/>
       <c r="C417" s="39"/>
       <c r="D417" s="39"/>
@@ -10427,7 +10427,7 @@
       <c r="G417" s="13"/>
     </row>
     <row r="418" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A418" s="89"/>
+      <c r="A418" s="114"/>
       <c r="B418" s="42"/>
       <c r="C418" s="39"/>
       <c r="D418" s="39"/>
@@ -10435,7 +10435,7 @@
       <c r="G418" s="13"/>
     </row>
     <row r="419" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A419" s="90"/>
+      <c r="A419" s="115"/>
       <c r="B419" s="50"/>
       <c r="C419" s="14"/>
       <c r="D419" s="14"/>
@@ -10444,7 +10444,7 @@
       <c r="G419" s="16"/>
     </row>
     <row r="420" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A420" s="102" t="s">
+      <c r="A420" s="125" t="s">
         <v>208</v>
       </c>
       <c r="B420" s="42" t="s">
@@ -10460,7 +10460,7 @@
       <c r="G420" s="12"/>
     </row>
     <row r="421" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A421" s="103"/>
+      <c r="A421" s="126"/>
       <c r="B421" s="42" t="s">
         <v>208</v>
       </c>
@@ -10474,7 +10474,7 @@
       <c r="G421" s="13"/>
     </row>
     <row r="422" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A422" s="103"/>
+      <c r="A422" s="126"/>
       <c r="B422" s="42" t="s">
         <v>279</v>
       </c>
@@ -10488,7 +10488,7 @@
       <c r="G422" s="13"/>
     </row>
     <row r="423" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A423" s="103"/>
+      <c r="A423" s="126"/>
       <c r="B423" s="42" t="s">
         <v>363</v>
       </c>
@@ -10502,7 +10502,7 @@
       <c r="G423" s="13"/>
     </row>
     <row r="424" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A424" s="103"/>
+      <c r="A424" s="126"/>
       <c r="B424" s="35" t="s">
         <v>451</v>
       </c>
@@ -10519,7 +10519,7 @@
       <c r="G424" s="13"/>
     </row>
     <row r="425" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A425" s="103"/>
+      <c r="A425" s="126"/>
       <c r="B425" s="42" t="s">
         <v>502</v>
       </c>
@@ -10534,7 +10534,7 @@
       <c r="G425" s="13"/>
     </row>
     <row r="426" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A426" s="103"/>
+      <c r="A426" s="126"/>
       <c r="B426" s="42" t="s">
         <v>511</v>
       </c>
@@ -10549,7 +10549,7 @@
       <c r="G426" s="13"/>
     </row>
     <row r="427" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A427" s="103"/>
+      <c r="A427" s="126"/>
       <c r="B427" s="42" t="s">
         <v>523</v>
       </c>
@@ -10564,7 +10564,7 @@
       <c r="G427" s="13"/>
     </row>
     <row r="428" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A428" s="103"/>
+      <c r="A428" s="126"/>
       <c r="B428" s="42" t="s">
         <v>560</v>
       </c>
@@ -10579,7 +10579,7 @@
       <c r="G428" s="13"/>
     </row>
     <row r="429" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A429" s="103"/>
+      <c r="A429" s="126"/>
       <c r="B429" s="42" t="s">
         <v>577</v>
       </c>
@@ -10596,7 +10596,7 @@
       <c r="G429" s="13"/>
     </row>
     <row r="430" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A430" s="103"/>
+      <c r="A430" s="126"/>
       <c r="B430" s="42" t="s">
         <v>630</v>
       </c>
@@ -10610,7 +10610,7 @@
       <c r="G430" s="13"/>
     </row>
     <row r="431" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A431" s="103"/>
+      <c r="A431" s="126"/>
       <c r="B431" s="42" t="s">
         <v>633</v>
       </c>
@@ -10627,7 +10627,7 @@
       <c r="G431" s="13"/>
     </row>
     <row r="432" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A432" s="103"/>
+      <c r="A432" s="126"/>
       <c r="B432" s="42" t="s">
         <v>689</v>
       </c>
@@ -10642,7 +10642,7 @@
       <c r="G432" s="13"/>
     </row>
     <row r="433" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A433" s="103"/>
+      <c r="A433" s="126"/>
       <c r="B433" s="42" t="s">
         <v>701</v>
       </c>
@@ -10657,7 +10657,7 @@
       <c r="G433" s="13"/>
     </row>
     <row r="434" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A434" s="103"/>
+      <c r="A434" s="126"/>
       <c r="B434" s="42" t="s">
         <v>683</v>
       </c>
@@ -10672,7 +10672,7 @@
       <c r="G434" s="13"/>
     </row>
     <row r="435" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A435" s="103"/>
+      <c r="A435" s="126"/>
       <c r="B435" s="42" t="s">
         <v>756</v>
       </c>
@@ -10687,7 +10687,7 @@
       <c r="G435" s="13"/>
     </row>
     <row r="436" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A436" s="103"/>
+      <c r="A436" s="126"/>
       <c r="B436" s="31" t="s">
         <v>874</v>
       </c>
@@ -10702,7 +10702,7 @@
       <c r="G436" s="13"/>
     </row>
     <row r="437" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A437" s="103"/>
+      <c r="A437" s="126"/>
       <c r="B437" s="39" t="s">
         <v>187</v>
       </c>
@@ -10717,7 +10717,7 @@
       <c r="G437" s="13"/>
     </row>
     <row r="438" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A438" s="103"/>
+      <c r="A438" s="126"/>
       <c r="B438" s="31" t="s">
         <v>279</v>
       </c>
@@ -10732,7 +10732,7 @@
       <c r="G438" s="13"/>
     </row>
     <row r="439" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A439" s="103"/>
+      <c r="A439" s="126"/>
       <c r="B439" s="31"/>
       <c r="C439" s="31"/>
       <c r="D439" s="31"/>
@@ -10741,7 +10741,7 @@
       <c r="G439" s="13"/>
     </row>
     <row r="440" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A440" s="103"/>
+      <c r="A440" s="126"/>
       <c r="B440" s="42"/>
       <c r="C440" s="31"/>
       <c r="D440" s="31"/>
@@ -10750,7 +10750,7 @@
       <c r="G440" s="13"/>
     </row>
     <row r="441" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A441" s="104"/>
+      <c r="A441" s="127"/>
       <c r="B441" s="31"/>
       <c r="C441" s="31"/>
       <c r="D441" s="31"/>
@@ -10759,7 +10759,7 @@
       <c r="G441" s="16"/>
     </row>
     <row r="442" spans="1:7" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A442" s="70" t="s">
+      <c r="A442" s="95" t="s">
         <v>10</v>
       </c>
       <c r="B442" s="51" t="s">
@@ -10780,7 +10780,7 @@
       </c>
     </row>
     <row r="443" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A443" s="71"/>
+      <c r="A443" s="96"/>
       <c r="B443" s="35" t="s">
         <v>16</v>
       </c>
@@ -10795,7 +10795,7 @@
       <c r="G443" s="13"/>
     </row>
     <row r="444" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A444" s="71"/>
+      <c r="A444" s="96"/>
       <c r="B444" s="35" t="s">
         <v>19</v>
       </c>
@@ -10810,7 +10810,7 @@
       <c r="G444" s="13"/>
     </row>
     <row r="445" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A445" s="71"/>
+      <c r="A445" s="96"/>
       <c r="B445" s="35" t="s">
         <v>22</v>
       </c>
@@ -10825,7 +10825,7 @@
       <c r="G445" s="13"/>
     </row>
     <row r="446" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A446" s="71"/>
+      <c r="A446" s="96"/>
       <c r="B446" s="35" t="s">
         <v>25</v>
       </c>
@@ -10840,7 +10840,7 @@
       <c r="G446" s="13"/>
     </row>
     <row r="447" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A447" s="71"/>
+      <c r="A447" s="96"/>
       <c r="B447" s="35" t="s">
         <v>28</v>
       </c>
@@ -10855,7 +10855,7 @@
       <c r="G447" s="13"/>
     </row>
     <row r="448" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A448" s="71"/>
+      <c r="A448" s="96"/>
       <c r="B448" s="35" t="s">
         <v>31</v>
       </c>
@@ -10870,7 +10870,7 @@
       <c r="G448" s="13"/>
     </row>
     <row r="449" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A449" s="71"/>
+      <c r="A449" s="96"/>
       <c r="B449" s="35" t="s">
         <v>34</v>
       </c>
@@ -10885,7 +10885,7 @@
       <c r="G449" s="13"/>
     </row>
     <row r="450" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A450" s="71"/>
+      <c r="A450" s="96"/>
       <c r="B450" s="35" t="s">
         <v>486</v>
       </c>
@@ -10902,7 +10902,7 @@
       <c r="G450" s="13"/>
     </row>
     <row r="451" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A451" s="71"/>
+      <c r="A451" s="96"/>
       <c r="B451" s="42" t="s">
         <v>349</v>
       </c>
@@ -10916,7 +10916,7 @@
       <c r="G451" s="13"/>
     </row>
     <row r="452" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A452" s="71"/>
+      <c r="A452" s="96"/>
       <c r="B452" s="42" t="s">
         <v>611</v>
       </c>
@@ -10933,7 +10933,7 @@
       <c r="G452" s="13"/>
     </row>
     <row r="453" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A453" s="71"/>
+      <c r="A453" s="96"/>
       <c r="B453" s="42" t="s">
         <v>615</v>
       </c>
@@ -10947,7 +10947,7 @@
       <c r="G453" s="13"/>
     </row>
     <row r="454" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A454" s="71"/>
+      <c r="A454" s="96"/>
       <c r="B454" s="42" t="s">
         <v>773</v>
       </c>
@@ -10962,7 +10962,7 @@
       <c r="G454" s="13"/>
     </row>
     <row r="455" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A455" s="71"/>
+      <c r="A455" s="96"/>
       <c r="B455" s="39" t="s">
         <v>958</v>
       </c>
@@ -10977,7 +10977,7 @@
       <c r="G455" s="13"/>
     </row>
     <row r="456" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A456" s="71"/>
+      <c r="A456" s="96"/>
       <c r="B456" s="31" t="s">
         <v>1007</v>
       </c>
@@ -10992,7 +10992,7 @@
       <c r="G456" s="13"/>
     </row>
     <row r="457" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A457" s="71"/>
+      <c r="A457" s="96"/>
       <c r="B457" s="31" t="s">
         <v>1010</v>
       </c>
@@ -11007,7 +11007,7 @@
       <c r="G457" s="13"/>
     </row>
     <row r="458" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A458" s="71"/>
+      <c r="A458" s="96"/>
       <c r="B458" s="34" t="s">
         <v>945</v>
       </c>
@@ -11026,7 +11026,7 @@
       <c r="G458" s="13"/>
     </row>
     <row r="459" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A459" s="71"/>
+      <c r="A459" s="96"/>
       <c r="B459" s="34" t="s">
         <v>1079</v>
       </c>
@@ -11045,7 +11045,7 @@
       <c r="G459" s="13"/>
     </row>
     <row r="460" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A460" s="71"/>
+      <c r="A460" s="96"/>
       <c r="B460" s="34" t="s">
         <v>1082</v>
       </c>
@@ -11064,7 +11064,7 @@
       <c r="G460" s="13"/>
     </row>
     <row r="461" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A461" s="71"/>
+      <c r="A461" s="96"/>
       <c r="B461" s="34" t="s">
         <v>1088</v>
       </c>
@@ -11083,7 +11083,7 @@
       <c r="G461" s="13"/>
     </row>
     <row r="462" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A462" s="71"/>
+      <c r="A462" s="96"/>
       <c r="B462" s="55" t="s">
         <v>1091</v>
       </c>
@@ -11100,7 +11100,7 @@
       <c r="G462" s="13"/>
     </row>
     <row r="463" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A463" s="71"/>
+      <c r="A463" s="96"/>
       <c r="B463" s="35" t="s">
         <v>1101</v>
       </c>
@@ -11119,7 +11119,7 @@
       <c r="G463" s="13"/>
     </row>
     <row r="464" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A464" s="71"/>
+      <c r="A464" s="96"/>
       <c r="B464" s="35" t="s">
         <v>1106</v>
       </c>
@@ -11138,7 +11138,7 @@
       <c r="G464" s="13"/>
     </row>
     <row r="465" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A465" s="71"/>
+      <c r="A465" s="96"/>
       <c r="B465" s="35" t="s">
         <v>1109</v>
       </c>
@@ -11157,7 +11157,7 @@
       <c r="G465" s="13"/>
     </row>
     <row r="466" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A466" s="71"/>
+      <c r="A466" s="96"/>
       <c r="B466" s="35" t="s">
         <v>1112</v>
       </c>
@@ -11176,7 +11176,7 @@
       <c r="G466" s="13"/>
     </row>
     <row r="467" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A467" s="71"/>
+      <c r="A467" s="96"/>
       <c r="B467" s="35" t="s">
         <v>1116</v>
       </c>
@@ -11195,7 +11195,7 @@
       <c r="G467" s="13"/>
     </row>
     <row r="468" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A468" s="71"/>
+      <c r="A468" s="96"/>
       <c r="B468" s="35" t="s">
         <v>1120</v>
       </c>
@@ -11214,7 +11214,7 @@
       <c r="G468" s="13"/>
     </row>
     <row r="469" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A469" s="71"/>
+      <c r="A469" s="96"/>
       <c r="B469" s="35" t="s">
         <v>1120</v>
       </c>
@@ -11233,7 +11233,7 @@
       <c r="G469" s="13"/>
     </row>
     <row r="470" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A470" s="71"/>
+      <c r="A470" s="96"/>
       <c r="B470" s="35" t="s">
         <v>1125</v>
       </c>
@@ -11252,7 +11252,7 @@
       <c r="G470" s="13"/>
     </row>
     <row r="471" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A471" s="71"/>
+      <c r="A471" s="96"/>
       <c r="B471" s="35"/>
       <c r="C471" s="35"/>
       <c r="D471" s="64"/>
@@ -11261,7 +11261,7 @@
       <c r="G471" s="13"/>
     </row>
     <row r="472" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A472" s="71"/>
+      <c r="A472" s="96"/>
       <c r="B472" s="35"/>
       <c r="C472" s="35"/>
       <c r="D472" s="64"/>
@@ -11270,7 +11270,7 @@
       <c r="G472" s="13"/>
     </row>
     <row r="473" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A473" s="71"/>
+      <c r="A473" s="96"/>
       <c r="B473" s="35"/>
       <c r="C473" s="35"/>
       <c r="D473" s="64"/>
@@ -11279,7 +11279,7 @@
       <c r="G473" s="13"/>
     </row>
     <row r="474" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A474" s="71"/>
+      <c r="A474" s="96"/>
       <c r="B474" s="35"/>
       <c r="C474" s="35"/>
       <c r="D474" s="64"/>
@@ -11288,7 +11288,7 @@
       <c r="G474" s="13"/>
     </row>
     <row r="475" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A475" s="72"/>
+      <c r="A475" s="97"/>
       <c r="B475" s="52"/>
       <c r="C475" s="19"/>
       <c r="D475" s="25"/>
@@ -14240,14 +14240,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A281:A288"/>
-    <mergeCell ref="A164:A217"/>
-    <mergeCell ref="A289:A313"/>
-    <mergeCell ref="A120:A136"/>
-    <mergeCell ref="A137:A140"/>
-    <mergeCell ref="A233:A238"/>
-    <mergeCell ref="A255:A280"/>
-    <mergeCell ref="A218:A221"/>
     <mergeCell ref="A3:A99"/>
     <mergeCell ref="A141:A163"/>
     <mergeCell ref="A442:A475"/>
@@ -14264,6 +14256,14 @@
     <mergeCell ref="A420:A441"/>
     <mergeCell ref="A354:A360"/>
     <mergeCell ref="A326:A333"/>
+    <mergeCell ref="A281:A288"/>
+    <mergeCell ref="A164:A217"/>
+    <mergeCell ref="A289:A313"/>
+    <mergeCell ref="A120:A136"/>
+    <mergeCell ref="A137:A140"/>
+    <mergeCell ref="A233:A238"/>
+    <mergeCell ref="A255:A280"/>
+    <mergeCell ref="A218:A221"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/xcom_perks/compiled_perks.xlsx
+++ b/docs/xcom_perks/compiled_perks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\xcom2_my_tweaks\docs\xcom_perks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B91286-1649-476D-8252-65D0C4F4D885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C869ACD-4C22-4C15-8268-2884CB842867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19092" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabellenblatt1" sheetId="1" r:id="rId1"/>
@@ -4283,47 +4283,6 @@
     <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="40" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4370,6 +4329,10 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4395,6 +4358,43 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="34" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="34" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="40" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4616,8 +4616,8 @@
   <dimension ref="A1:AA1455"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A256" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E266" sqref="E266"/>
+      <pane ySplit="2" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C131" sqref="C131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4690,7 +4690,7 @@
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="90"/>
+      <c r="A3" s="65"/>
       <c r="B3" s="42" t="s">
         <v>79</v>
       </c>
@@ -4705,7 +4705,7 @@
       <c r="G3" s="20"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="90"/>
+      <c r="A4" s="65"/>
       <c r="B4" s="42" t="s">
         <v>102</v>
       </c>
@@ -4719,7 +4719,7 @@
       <c r="G4" s="20"/>
     </row>
     <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="90"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="42" t="s">
         <v>114</v>
       </c>
@@ -4732,7 +4732,7 @@
       <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="90"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="42" t="s">
         <v>141</v>
       </c>
@@ -4745,7 +4745,7 @@
       <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="90"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="42" t="s">
         <v>156</v>
       </c>
@@ -4758,7 +4758,7 @@
       <c r="G7" s="20"/>
     </row>
     <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="90"/>
+      <c r="A8" s="65"/>
       <c r="B8" s="42" t="s">
         <v>158</v>
       </c>
@@ -4771,7 +4771,7 @@
       <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="90"/>
+      <c r="A9" s="65"/>
       <c r="B9" s="42" t="s">
         <v>160</v>
       </c>
@@ -4784,7 +4784,7 @@
       <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="90"/>
+      <c r="A10" s="65"/>
       <c r="B10" s="42" t="s">
         <v>177</v>
       </c>
@@ -4797,7 +4797,7 @@
       <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="90"/>
+      <c r="A11" s="65"/>
       <c r="B11" s="42" t="s">
         <v>192</v>
       </c>
@@ -4810,7 +4810,7 @@
       <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="90"/>
+      <c r="A12" s="65"/>
       <c r="B12" s="42" t="s">
         <v>204</v>
       </c>
@@ -4823,7 +4823,7 @@
       <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="90"/>
+      <c r="A13" s="65"/>
       <c r="B13" s="42" t="s">
         <v>210</v>
       </c>
@@ -4838,7 +4838,7 @@
       </c>
     </row>
     <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="90"/>
+      <c r="A14" s="65"/>
       <c r="B14" s="42" t="s">
         <v>213</v>
       </c>
@@ -4850,7 +4850,7 @@
       </c>
     </row>
     <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="90"/>
+      <c r="A15" s="65"/>
       <c r="B15" s="42" t="s">
         <v>219</v>
       </c>
@@ -4862,7 +4862,7 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="90"/>
+      <c r="A16" s="65"/>
       <c r="B16" s="42" t="s">
         <v>230</v>
       </c>
@@ -4874,7 +4874,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="90"/>
+      <c r="A17" s="65"/>
       <c r="B17" s="42" t="s">
         <v>236</v>
       </c>
@@ -4889,7 +4889,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="90"/>
+      <c r="A18" s="65"/>
       <c r="B18" s="42" t="s">
         <v>244</v>
       </c>
@@ -4901,7 +4901,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="90"/>
+      <c r="A19" s="65"/>
       <c r="B19" s="42" t="s">
         <v>257</v>
       </c>
@@ -4913,7 +4913,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="90"/>
+      <c r="A20" s="65"/>
       <c r="B20" s="42" t="s">
         <v>259</v>
       </c>
@@ -4925,7 +4925,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="90"/>
+      <c r="A21" s="65"/>
       <c r="B21" s="42" t="s">
         <v>277</v>
       </c>
@@ -4937,7 +4937,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="90"/>
+      <c r="A22" s="65"/>
       <c r="B22" s="42" t="s">
         <v>287</v>
       </c>
@@ -4949,7 +4949,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="90"/>
+      <c r="A23" s="65"/>
       <c r="B23" s="42" t="s">
         <v>314</v>
       </c>
@@ -4961,7 +4961,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="90"/>
+      <c r="A24" s="65"/>
       <c r="B24" s="42" t="s">
         <v>320</v>
       </c>
@@ -4973,7 +4973,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="90"/>
+      <c r="A25" s="65"/>
       <c r="B25" s="42" t="s">
         <v>326</v>
       </c>
@@ -4985,7 +4985,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="90"/>
+      <c r="A26" s="65"/>
       <c r="B26" s="42" t="s">
         <v>341</v>
       </c>
@@ -4997,7 +4997,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="90"/>
+      <c r="A27" s="65"/>
       <c r="B27" s="42" t="s">
         <v>345</v>
       </c>
@@ -5009,7 +5009,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="90"/>
+      <c r="A28" s="65"/>
       <c r="B28" s="42" t="s">
         <v>365</v>
       </c>
@@ -5021,7 +5021,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="90"/>
+      <c r="A29" s="65"/>
       <c r="B29" s="42" t="s">
         <v>385</v>
       </c>
@@ -5033,7 +5033,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="90"/>
+      <c r="A30" s="65"/>
       <c r="B30" s="35" t="s">
         <v>158</v>
       </c>
@@ -5049,7 +5049,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="90"/>
+      <c r="A31" s="65"/>
       <c r="B31" s="35" t="s">
         <v>416</v>
       </c>
@@ -5062,7 +5062,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="90"/>
+      <c r="A32" s="65"/>
       <c r="B32" s="35" t="s">
         <v>419</v>
       </c>
@@ -5078,7 +5078,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="90"/>
+      <c r="A33" s="65"/>
       <c r="B33" s="35" t="s">
         <v>430</v>
       </c>
@@ -5096,7 +5096,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="90"/>
+      <c r="A34" s="65"/>
       <c r="B34" s="35" t="s">
         <v>454</v>
       </c>
@@ -5114,7 +5114,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="90"/>
+      <c r="A35" s="65"/>
       <c r="B35" s="35" t="s">
         <v>458</v>
       </c>
@@ -5130,7 +5130,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="90"/>
+      <c r="A36" s="65"/>
       <c r="B36" s="35" t="s">
         <v>466</v>
       </c>
@@ -5143,7 +5143,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="90"/>
+      <c r="A37" s="65"/>
       <c r="B37" s="42" t="s">
         <v>508</v>
       </c>
@@ -5156,7 +5156,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="90"/>
+      <c r="A38" s="65"/>
       <c r="B38" s="42" t="s">
         <v>520</v>
       </c>
@@ -5169,7 +5169,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="90"/>
+      <c r="A39" s="65"/>
       <c r="B39" s="42" t="s">
         <v>535</v>
       </c>
@@ -5182,7 +5182,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="90"/>
+      <c r="A40" s="65"/>
       <c r="B40" s="42" t="s">
         <v>543</v>
       </c>
@@ -5195,7 +5195,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="90"/>
+      <c r="A41" s="65"/>
       <c r="B41" s="42" t="s">
         <v>555</v>
       </c>
@@ -5208,7 +5208,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="90"/>
+      <c r="A42" s="65"/>
       <c r="B42" s="42" t="s">
         <v>141</v>
       </c>
@@ -5221,7 +5221,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="90"/>
+      <c r="A43" s="65"/>
       <c r="B43" s="42" t="s">
         <v>574</v>
       </c>
@@ -5234,7 +5234,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="90"/>
+      <c r="A44" s="65"/>
       <c r="B44" s="42" t="s">
         <v>591</v>
       </c>
@@ -5247,7 +5247,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="90"/>
+      <c r="A45" s="65"/>
       <c r="B45" s="42" t="s">
         <v>594</v>
       </c>
@@ -5263,7 +5263,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="90"/>
+      <c r="A46" s="65"/>
       <c r="B46" s="42" t="s">
         <v>598</v>
       </c>
@@ -5276,7 +5276,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="90"/>
+      <c r="A47" s="65"/>
       <c r="B47" s="42" t="s">
         <v>605</v>
       </c>
@@ -5289,7 +5289,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="90"/>
+      <c r="A48" s="65"/>
       <c r="B48" s="42" t="s">
         <v>618</v>
       </c>
@@ -5302,7 +5302,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="90"/>
+      <c r="A49" s="65"/>
       <c r="B49" s="42" t="s">
         <v>621</v>
       </c>
@@ -5315,7 +5315,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="90"/>
+      <c r="A50" s="65"/>
       <c r="B50" s="42" t="s">
         <v>627</v>
       </c>
@@ -5328,7 +5328,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="90"/>
+      <c r="A51" s="65"/>
       <c r="B51" s="42" t="s">
         <v>637</v>
       </c>
@@ -5341,7 +5341,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="90"/>
+      <c r="A52" s="65"/>
       <c r="B52" s="42" t="s">
         <v>640</v>
       </c>
@@ -5354,7 +5354,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="90"/>
+      <c r="A53" s="65"/>
       <c r="B53" s="42" t="s">
         <v>643</v>
       </c>
@@ -5367,7 +5367,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="90"/>
+      <c r="A54" s="65"/>
       <c r="B54" s="42" t="s">
         <v>646</v>
       </c>
@@ -5380,7 +5380,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="90"/>
+      <c r="A55" s="65"/>
       <c r="B55" s="42" t="s">
         <v>649</v>
       </c>
@@ -5393,7 +5393,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="90"/>
+      <c r="A56" s="65"/>
       <c r="B56" s="42" t="s">
         <v>652</v>
       </c>
@@ -5406,7 +5406,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="90"/>
+      <c r="A57" s="65"/>
       <c r="B57" s="42" t="s">
         <v>655</v>
       </c>
@@ -5419,7 +5419,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="90"/>
+      <c r="A58" s="65"/>
       <c r="B58" s="42" t="s">
         <v>658</v>
       </c>
@@ -5432,7 +5432,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="90"/>
+      <c r="A59" s="65"/>
       <c r="B59" s="42" t="s">
         <v>661</v>
       </c>
@@ -5445,7 +5445,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="90"/>
+      <c r="A60" s="65"/>
       <c r="B60" s="42" t="s">
         <v>275</v>
       </c>
@@ -5458,7 +5458,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="90"/>
+      <c r="A61" s="65"/>
       <c r="B61" s="42" t="s">
         <v>665</v>
       </c>
@@ -5471,7 +5471,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="90"/>
+      <c r="A62" s="65"/>
       <c r="B62" s="42" t="s">
         <v>668</v>
       </c>
@@ -5485,7 +5485,7 @@
       <c r="F62" s="31"/>
     </row>
     <row r="63" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="90"/>
+      <c r="A63" s="65"/>
       <c r="B63" s="42" t="s">
         <v>671</v>
       </c>
@@ -5499,7 +5499,7 @@
       <c r="F63" s="31"/>
     </row>
     <row r="64" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="90"/>
+      <c r="A64" s="65"/>
       <c r="B64" s="42" t="s">
         <v>686</v>
       </c>
@@ -5512,7 +5512,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="90"/>
+      <c r="A65" s="65"/>
       <c r="B65" s="42" t="s">
         <v>704</v>
       </c>
@@ -5525,7 +5525,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="90"/>
+      <c r="A66" s="65"/>
       <c r="B66" s="42" t="s">
         <v>722</v>
       </c>
@@ -5539,7 +5539,7 @@
       <c r="F66" s="31"/>
     </row>
     <row r="67" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="90"/>
+      <c r="A67" s="65"/>
       <c r="B67" s="42" t="s">
         <v>728</v>
       </c>
@@ -5553,7 +5553,7 @@
       <c r="F67" s="31"/>
     </row>
     <row r="68" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="90"/>
+      <c r="A68" s="65"/>
       <c r="B68" s="42" t="s">
         <v>734</v>
       </c>
@@ -5566,7 +5566,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="90"/>
+      <c r="A69" s="65"/>
       <c r="B69" s="42" t="s">
         <v>740</v>
       </c>
@@ -5579,7 +5579,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="90"/>
+      <c r="A70" s="65"/>
       <c r="B70" s="42" t="s">
         <v>743</v>
       </c>
@@ -5592,7 +5592,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="90"/>
+      <c r="A71" s="65"/>
       <c r="B71" s="42" t="s">
         <v>752</v>
       </c>
@@ -5608,7 +5608,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="90"/>
+      <c r="A72" s="65"/>
       <c r="B72" s="42" t="s">
         <v>761</v>
       </c>
@@ -5621,7 +5621,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="90"/>
+      <c r="A73" s="65"/>
       <c r="B73" s="42" t="s">
         <v>767</v>
       </c>
@@ -5634,7 +5634,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="90"/>
+      <c r="A74" s="65"/>
       <c r="B74" s="42" t="s">
         <v>779</v>
       </c>
@@ -5647,7 +5647,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="90"/>
+      <c r="A75" s="65"/>
       <c r="B75" s="42" t="s">
         <v>788</v>
       </c>
@@ -5660,7 +5660,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="90"/>
+      <c r="A76" s="65"/>
       <c r="B76" s="42" t="s">
         <v>791</v>
       </c>
@@ -5673,7 +5673,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A77" s="90"/>
+      <c r="A77" s="65"/>
       <c r="B77" s="31" t="s">
         <v>809</v>
       </c>
@@ -5686,7 +5686,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A78" s="90"/>
+      <c r="A78" s="65"/>
       <c r="B78" s="31" t="s">
         <v>827</v>
       </c>
@@ -5699,7 +5699,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="90"/>
+      <c r="A79" s="65"/>
       <c r="B79" s="31" t="s">
         <v>830</v>
       </c>
@@ -5712,7 +5712,7 @@
       </c>
     </row>
     <row r="80" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="90"/>
+      <c r="A80" s="65"/>
       <c r="B80" s="31" t="s">
         <v>850</v>
       </c>
@@ -5725,7 +5725,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A81" s="90"/>
+      <c r="A81" s="65"/>
       <c r="B81" s="31" t="s">
         <v>853</v>
       </c>
@@ -5738,7 +5738,7 @@
       </c>
     </row>
     <row r="82" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A82" s="90"/>
+      <c r="A82" s="65"/>
       <c r="B82" s="31" t="s">
         <v>871</v>
       </c>
@@ -5751,7 +5751,7 @@
       </c>
     </row>
     <row r="83" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="90"/>
+      <c r="A83" s="65"/>
       <c r="B83" s="39" t="s">
         <v>891</v>
       </c>
@@ -5764,7 +5764,7 @@
       </c>
     </row>
     <row r="84" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="90"/>
+      <c r="A84" s="65"/>
       <c r="B84" s="39" t="s">
         <v>897</v>
       </c>
@@ -5777,7 +5777,7 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A85" s="90"/>
+      <c r="A85" s="65"/>
       <c r="B85" s="31" t="s">
         <v>912</v>
       </c>
@@ -5790,7 +5790,7 @@
       </c>
     </row>
     <row r="86" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A86" s="90"/>
+      <c r="A86" s="65"/>
       <c r="B86" s="31" t="s">
         <v>915</v>
       </c>
@@ -5803,7 +5803,7 @@
       </c>
     </row>
     <row r="87" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="90"/>
+      <c r="A87" s="65"/>
       <c r="B87" s="31" t="s">
         <v>933</v>
       </c>
@@ -5816,7 +5816,7 @@
       </c>
     </row>
     <row r="88" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A88" s="90"/>
+      <c r="A88" s="65"/>
       <c r="B88" s="31" t="s">
         <v>936</v>
       </c>
@@ -5829,7 +5829,7 @@
       </c>
     </row>
     <row r="89" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="90"/>
+      <c r="A89" s="65"/>
       <c r="B89" s="31" t="s">
         <v>939</v>
       </c>
@@ -5842,7 +5842,7 @@
       </c>
     </row>
     <row r="90" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="90"/>
+      <c r="A90" s="65"/>
       <c r="B90" s="39" t="s">
         <v>948</v>
       </c>
@@ -5855,7 +5855,7 @@
       </c>
     </row>
     <row r="91" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="90"/>
+      <c r="A91" s="65"/>
       <c r="B91" s="39" t="s">
         <v>236</v>
       </c>
@@ -5868,7 +5868,7 @@
       </c>
     </row>
     <row r="92" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A92" s="90"/>
+      <c r="A92" s="65"/>
       <c r="B92" s="31" t="s">
         <v>999</v>
       </c>
@@ -5881,7 +5881,7 @@
       </c>
     </row>
     <row r="93" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A93" s="90"/>
+      <c r="A93" s="65"/>
       <c r="B93" s="31" t="s">
         <v>1013</v>
       </c>
@@ -5894,7 +5894,7 @@
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="90"/>
+      <c r="A94" s="65"/>
       <c r="B94" s="31" t="s">
         <v>1016</v>
       </c>
@@ -5907,7 +5907,7 @@
       </c>
     </row>
     <row r="95" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="90"/>
+      <c r="A95" s="65"/>
       <c r="B95" s="31" t="s">
         <v>1025</v>
       </c>
@@ -5920,7 +5920,7 @@
       </c>
     </row>
     <row r="96" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A96" s="90"/>
+      <c r="A96" s="65"/>
       <c r="B96" s="31" t="s">
         <v>1028</v>
       </c>
@@ -5933,7 +5933,7 @@
       </c>
     </row>
     <row r="97" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A97" s="90"/>
+      <c r="A97" s="65"/>
       <c r="B97" s="31" t="s">
         <v>1040</v>
       </c>
@@ -5946,7 +5946,7 @@
       </c>
     </row>
     <row r="98" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="90"/>
+      <c r="A98" s="65"/>
       <c r="B98" s="31" t="s">
         <v>756</v>
       </c>
@@ -5959,7 +5959,7 @@
       </c>
     </row>
     <row r="99" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="91"/>
+      <c r="A99" s="66"/>
       <c r="B99" s="34" t="s">
         <v>1085</v>
       </c>
@@ -6140,7 +6140,7 @@
       <c r="G111" s="18"/>
     </row>
     <row r="112" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="98" t="s">
+      <c r="A112" s="73" t="s">
         <v>37</v>
       </c>
       <c r="B112" s="44" t="s">
@@ -6159,7 +6159,7 @@
       <c r="G112" s="13"/>
     </row>
     <row r="113" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="98"/>
+      <c r="A113" s="73"/>
       <c r="B113" s="45"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
@@ -6168,7 +6168,7 @@
       <c r="G113" s="13"/>
     </row>
     <row r="114" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="99"/>
+      <c r="A114" s="74"/>
       <c r="B114" s="45" t="s">
         <v>41</v>
       </c>
@@ -6183,7 +6183,7 @@
       <c r="G114" s="13"/>
     </row>
     <row r="115" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="100"/>
+      <c r="A115" s="75"/>
       <c r="B115" s="46" t="s">
         <v>44</v>
       </c>
@@ -6200,7 +6200,7 @@
       </c>
     </row>
     <row r="116" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="117" t="s">
+      <c r="A116" s="94" t="s">
         <v>494</v>
       </c>
       <c r="B116" s="42" t="s">
@@ -6216,7 +6216,7 @@
       <c r="G116" s="13"/>
     </row>
     <row r="117" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="117"/>
+      <c r="A117" s="94"/>
       <c r="B117" s="45"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
@@ -6225,7 +6225,7 @@
       <c r="G117" s="13"/>
     </row>
     <row r="118" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="118"/>
+      <c r="A118" s="95"/>
       <c r="B118" s="45"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
@@ -6234,7 +6234,7 @@
       <c r="G118" s="13"/>
     </row>
     <row r="119" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="119"/>
+      <c r="A119" s="96"/>
       <c r="B119" s="46"/>
       <c r="C119" s="32"/>
       <c r="D119" s="32"/>
@@ -6245,7 +6245,7 @@
       </c>
     </row>
     <row r="120" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="74" t="s">
+      <c r="A120" s="115" t="s">
         <v>496</v>
       </c>
       <c r="B120" s="42" t="s">
@@ -6261,7 +6261,7 @@
       <c r="G120" s="13"/>
     </row>
     <row r="121" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A121" s="74"/>
+      <c r="A121" s="115"/>
       <c r="B121" s="42" t="s">
         <v>118</v>
       </c>
@@ -6275,7 +6275,7 @@
       <c r="G121" s="13"/>
     </row>
     <row r="122" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A122" s="75"/>
+      <c r="A122" s="116"/>
       <c r="B122" s="42" t="s">
         <v>152</v>
       </c>
@@ -6289,7 +6289,7 @@
       <c r="G122" s="13"/>
     </row>
     <row r="123" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A123" s="76"/>
+      <c r="A123" s="117"/>
       <c r="B123" s="42" t="s">
         <v>234</v>
       </c>
@@ -6303,7 +6303,7 @@
       <c r="G123" s="18"/>
     </row>
     <row r="124" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A124" s="71"/>
+      <c r="A124" s="112"/>
       <c r="B124" s="42" t="s">
         <v>246</v>
       </c>
@@ -6317,7 +6317,7 @@
       <c r="G124" s="13"/>
     </row>
     <row r="125" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A125" s="71"/>
+      <c r="A125" s="112"/>
       <c r="B125" s="42" t="s">
         <v>601</v>
       </c>
@@ -6332,11 +6332,11 @@
       <c r="G125" s="13"/>
     </row>
     <row r="126" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A126" s="71"/>
+      <c r="A126" s="112"/>
       <c r="B126" s="42" t="s">
         <v>794</v>
       </c>
-      <c r="C126" s="39" t="s">
+      <c r="C126" s="31" t="s">
         <v>795</v>
       </c>
       <c r="D126" s="39"/>
@@ -6349,7 +6349,7 @@
       <c r="G126" s="13"/>
     </row>
     <row r="127" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A127" s="71"/>
+      <c r="A127" s="112"/>
       <c r="B127" s="42" t="s">
         <v>800</v>
       </c>
@@ -6364,7 +6364,7 @@
       <c r="G127" s="13"/>
     </row>
     <row r="128" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A128" s="71"/>
+      <c r="A128" s="112"/>
       <c r="B128" s="31" t="s">
         <v>856</v>
       </c>
@@ -6379,7 +6379,7 @@
       <c r="G128" s="13"/>
     </row>
     <row r="129" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A129" s="71"/>
+      <c r="A129" s="112"/>
       <c r="B129" s="39" t="s">
         <v>906</v>
       </c>
@@ -6394,7 +6394,7 @@
       <c r="G129" s="13"/>
     </row>
     <row r="130" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A130" s="71"/>
+      <c r="A130" s="112"/>
       <c r="B130" s="39" t="s">
         <v>909</v>
       </c>
@@ -6409,7 +6409,7 @@
       <c r="G130" s="13"/>
     </row>
     <row r="131" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A131" s="71"/>
+      <c r="A131" s="112"/>
       <c r="B131" s="31" t="s">
         <v>930</v>
       </c>
@@ -6424,7 +6424,7 @@
       <c r="G131" s="13"/>
     </row>
     <row r="132" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A132" s="71"/>
+      <c r="A132" s="112"/>
       <c r="B132" s="31" t="s">
         <v>942</v>
       </c>
@@ -6439,7 +6439,7 @@
       <c r="G132" s="13"/>
     </row>
     <row r="133" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A133" s="71"/>
+      <c r="A133" s="112"/>
       <c r="B133" s="31" t="s">
         <v>981</v>
       </c>
@@ -6454,7 +6454,7 @@
       <c r="G133" s="13"/>
     </row>
     <row r="134" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A134" s="71"/>
+      <c r="A134" s="112"/>
       <c r="B134" s="31" t="s">
         <v>918</v>
       </c>
@@ -6469,7 +6469,7 @@
       <c r="G134" s="13"/>
     </row>
     <row r="135" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A135" s="71"/>
+      <c r="A135" s="112"/>
       <c r="B135" s="39"/>
       <c r="C135" s="39"/>
       <c r="D135" s="39"/>
@@ -6478,12 +6478,12 @@
       <c r="G135" s="13"/>
     </row>
     <row r="136" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="77"/>
+      <c r="A136" s="118"/>
       <c r="F136" s="18"/>
       <c r="G136" s="13"/>
     </row>
     <row r="137" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="78" t="s">
+      <c r="A137" s="119" t="s">
         <v>490</v>
       </c>
       <c r="B137" s="42" t="s">
@@ -6499,7 +6499,7 @@
       <c r="G137" s="13"/>
     </row>
     <row r="138" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="78"/>
+      <c r="A138" s="119"/>
       <c r="B138" s="42" t="s">
         <v>289</v>
       </c>
@@ -6513,7 +6513,7 @@
       <c r="G138" s="13"/>
     </row>
     <row r="139" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="79"/>
+      <c r="A139" s="120"/>
       <c r="B139" s="35" t="s">
         <v>423</v>
       </c>
@@ -6528,7 +6528,7 @@
       <c r="G139" s="13"/>
     </row>
     <row r="140" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="80"/>
+      <c r="A140" s="121"/>
       <c r="B140" s="46"/>
       <c r="C140" s="32"/>
       <c r="D140" s="32"/>
@@ -6539,7 +6539,7 @@
       </c>
     </row>
     <row r="141" spans="1:7" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="92" t="s">
+      <c r="A141" s="67" t="s">
         <v>96</v>
       </c>
       <c r="B141" s="42" t="s">
@@ -6556,7 +6556,7 @@
       <c r="G141" s="30"/>
     </row>
     <row r="142" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A142" s="93"/>
+      <c r="A142" s="68"/>
       <c r="B142" s="42" t="s">
         <v>75</v>
       </c>
@@ -6571,7 +6571,7 @@
       <c r="G142" s="23"/>
     </row>
     <row r="143" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A143" s="93"/>
+      <c r="A143" s="68"/>
       <c r="B143" s="42" t="s">
         <v>263</v>
       </c>
@@ -6585,7 +6585,7 @@
       <c r="G143" s="13"/>
     </row>
     <row r="144" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A144" s="93"/>
+      <c r="A144" s="68"/>
       <c r="B144" s="42" t="s">
         <v>361</v>
       </c>
@@ -6599,7 +6599,7 @@
       <c r="G144" s="13"/>
     </row>
     <row r="145" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A145" s="93"/>
+      <c r="A145" s="68"/>
       <c r="B145" s="42" t="s">
         <v>271</v>
       </c>
@@ -6615,7 +6615,7 @@
       <c r="G145" s="13"/>
     </row>
     <row r="146" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A146" s="93"/>
+      <c r="A146" s="68"/>
       <c r="B146" s="42" t="s">
         <v>281</v>
       </c>
@@ -6629,7 +6629,7 @@
       <c r="G146" s="13"/>
     </row>
     <row r="147" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A147" s="93"/>
+      <c r="A147" s="68"/>
       <c r="B147" s="42" t="s">
         <v>318</v>
       </c>
@@ -6643,7 +6643,7 @@
       <c r="G147" s="13"/>
     </row>
     <row r="148" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A148" s="93"/>
+      <c r="A148" s="68"/>
       <c r="B148" s="42" t="s">
         <v>351</v>
       </c>
@@ -6657,7 +6657,7 @@
       <c r="G148" s="13"/>
     </row>
     <row r="149" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A149" s="93"/>
+      <c r="A149" s="68"/>
       <c r="B149" s="42" t="s">
         <v>316</v>
       </c>
@@ -6671,7 +6671,7 @@
       <c r="G149" s="13"/>
     </row>
     <row r="150" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A150" s="93"/>
+      <c r="A150" s="68"/>
       <c r="B150" s="42" t="s">
         <v>269</v>
       </c>
@@ -6685,7 +6685,7 @@
       <c r="G150" s="13"/>
     </row>
     <row r="151" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A151" s="93"/>
+      <c r="A151" s="68"/>
       <c r="B151" s="35" t="s">
         <v>480</v>
       </c>
@@ -6702,7 +6702,7 @@
       <c r="G151" s="13"/>
     </row>
     <row r="152" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A152" s="93"/>
+      <c r="A152" s="68"/>
       <c r="B152" s="42" t="s">
         <v>322</v>
       </c>
@@ -6714,7 +6714,7 @@
       </c>
     </row>
     <row r="153" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A153" s="93"/>
+      <c r="A153" s="68"/>
       <c r="B153" s="42" t="s">
         <v>526</v>
       </c>
@@ -6729,7 +6729,7 @@
       <c r="G153" s="13"/>
     </row>
     <row r="154" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A154" s="93"/>
+      <c r="A154" s="68"/>
       <c r="B154" s="47" t="s">
         <v>584</v>
       </c>
@@ -6746,7 +6746,7 @@
       <c r="G154" s="13"/>
     </row>
     <row r="155" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A155" s="93"/>
+      <c r="A155" s="68"/>
       <c r="B155" s="42" t="s">
         <v>674</v>
       </c>
@@ -6763,7 +6763,7 @@
       <c r="G155" s="13"/>
     </row>
     <row r="156" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A156" s="93"/>
+      <c r="A156" s="68"/>
       <c r="B156" s="42" t="s">
         <v>764</v>
       </c>
@@ -6778,7 +6778,7 @@
       <c r="G156" s="13"/>
     </row>
     <row r="157" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A157" s="93"/>
+      <c r="A157" s="68"/>
       <c r="B157" s="31" t="s">
         <v>859</v>
       </c>
@@ -6793,7 +6793,7 @@
       <c r="G157" s="13"/>
     </row>
     <row r="158" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A158" s="93"/>
+      <c r="A158" s="68"/>
       <c r="B158" s="39" t="s">
         <v>882</v>
       </c>
@@ -6808,7 +6808,7 @@
       <c r="G158" s="13"/>
     </row>
     <row r="159" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A159" s="93"/>
+      <c r="A159" s="68"/>
       <c r="B159" s="31" t="s">
         <v>921</v>
       </c>
@@ -6823,7 +6823,7 @@
       <c r="G159" s="13"/>
     </row>
     <row r="160" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A160" s="93"/>
+      <c r="A160" s="68"/>
       <c r="B160" s="31" t="s">
         <v>976</v>
       </c>
@@ -6838,7 +6838,7 @@
       <c r="G160" s="13"/>
     </row>
     <row r="161" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A161" s="93"/>
+      <c r="A161" s="68"/>
       <c r="B161" s="31" t="s">
         <v>1034</v>
       </c>
@@ -6853,7 +6853,7 @@
       <c r="G161" s="13"/>
     </row>
     <row r="162" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A162" s="93"/>
+      <c r="A162" s="68"/>
       <c r="B162" s="31"/>
       <c r="C162" s="31"/>
       <c r="D162" s="31"/>
@@ -6862,7 +6862,7 @@
       <c r="G162" s="13"/>
     </row>
     <row r="163" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="94"/>
+      <c r="A163" s="69"/>
       <c r="B163" s="48"/>
       <c r="C163" s="24"/>
       <c r="D163" s="25"/>
@@ -6871,7 +6871,7 @@
       <c r="G163" s="16"/>
     </row>
     <row r="164" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="68" t="s">
+      <c r="A164" s="109" t="s">
         <v>444</v>
       </c>
       <c r="B164" s="42" t="s">
@@ -6889,7 +6889,7 @@
       </c>
     </row>
     <row r="165" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A165" s="69"/>
+      <c r="A165" s="110"/>
       <c r="B165" s="42" t="s">
         <v>127</v>
       </c>
@@ -6905,7 +6905,7 @@
       <c r="G165" s="13"/>
     </row>
     <row r="166" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A166" s="69"/>
+      <c r="A166" s="110"/>
       <c r="B166" s="42" t="s">
         <v>135</v>
       </c>
@@ -6919,7 +6919,7 @@
       <c r="G166" s="13"/>
     </row>
     <row r="167" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A167" s="69"/>
+      <c r="A167" s="110"/>
       <c r="B167" s="42" t="s">
         <v>137</v>
       </c>
@@ -6933,7 +6933,7 @@
       <c r="G167" s="13"/>
     </row>
     <row r="168" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A168" s="69"/>
+      <c r="A168" s="110"/>
       <c r="B168" s="42" t="s">
         <v>162</v>
       </c>
@@ -6946,7 +6946,7 @@
       <c r="G168" s="13"/>
     </row>
     <row r="169" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A169" s="69"/>
+      <c r="A169" s="110"/>
       <c r="B169" s="42" t="s">
         <v>162</v>
       </c>
@@ -6962,7 +6962,7 @@
       <c r="G169" s="13"/>
     </row>
     <row r="170" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A170" s="69"/>
+      <c r="A170" s="110"/>
       <c r="B170" s="42" t="s">
         <v>175</v>
       </c>
@@ -6976,7 +6976,7 @@
       <c r="G170" s="13"/>
     </row>
     <row r="171" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A171" s="69"/>
+      <c r="A171" s="110"/>
       <c r="B171" s="42" t="s">
         <v>238</v>
       </c>
@@ -6990,7 +6990,7 @@
       <c r="G171" s="13"/>
     </row>
     <row r="172" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A172" s="69"/>
+      <c r="A172" s="110"/>
       <c r="B172" s="42" t="s">
         <v>242</v>
       </c>
@@ -7006,7 +7006,7 @@
       <c r="G172" s="13"/>
     </row>
     <row r="173" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A173" s="69"/>
+      <c r="A173" s="110"/>
       <c r="B173" s="42" t="s">
         <v>273</v>
       </c>
@@ -7020,7 +7020,7 @@
       <c r="G173" s="13"/>
     </row>
     <row r="174" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A174" s="69"/>
+      <c r="A174" s="110"/>
       <c r="B174" s="42" t="s">
         <v>338</v>
       </c>
@@ -7036,7 +7036,7 @@
       <c r="G174" s="13"/>
     </row>
     <row r="175" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A175" s="69"/>
+      <c r="A175" s="110"/>
       <c r="B175" s="42" t="s">
         <v>338</v>
       </c>
@@ -7049,7 +7049,7 @@
       <c r="G175" s="13"/>
     </row>
     <row r="176" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A176" s="69"/>
+      <c r="A176" s="110"/>
       <c r="B176" s="35" t="s">
         <v>427</v>
       </c>
@@ -7064,7 +7064,7 @@
       <c r="G176" s="13"/>
     </row>
     <row r="177" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A177" s="69"/>
+      <c r="A177" s="110"/>
       <c r="B177" s="35" t="s">
         <v>438</v>
       </c>
@@ -7079,7 +7079,7 @@
       <c r="G177" s="13"/>
     </row>
     <row r="178" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A178" s="69"/>
+      <c r="A178" s="110"/>
       <c r="B178" s="35" t="s">
         <v>472</v>
       </c>
@@ -7096,7 +7096,7 @@
       <c r="G178" s="13"/>
     </row>
     <row r="179" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A179" s="69"/>
+      <c r="A179" s="110"/>
       <c r="B179" s="35" t="s">
         <v>398</v>
       </c>
@@ -7113,7 +7113,7 @@
       <c r="G179" s="13"/>
     </row>
     <row r="180" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A180" s="69"/>
+      <c r="A180" s="110"/>
       <c r="B180" s="35" t="s">
         <v>469</v>
       </c>
@@ -7130,7 +7130,7 @@
       <c r="G180" s="13"/>
     </row>
     <row r="181" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A181" s="69"/>
+      <c r="A181" s="110"/>
       <c r="B181" s="42" t="s">
         <v>285</v>
       </c>
@@ -7144,7 +7144,7 @@
       <c r="G181" s="13"/>
     </row>
     <row r="182" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A182" s="69"/>
+      <c r="A182" s="110"/>
       <c r="B182" s="42" t="s">
         <v>187</v>
       </c>
@@ -7158,7 +7158,7 @@
       <c r="G182" s="13"/>
     </row>
     <row r="183" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A183" s="69"/>
+      <c r="A183" s="110"/>
       <c r="B183" s="42" t="s">
         <v>116</v>
       </c>
@@ -7174,7 +7174,7 @@
       <c r="G183" s="13"/>
     </row>
     <row r="184" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A184" s="69"/>
+      <c r="A184" s="110"/>
       <c r="B184" s="42" t="s">
         <v>125</v>
       </c>
@@ -7189,7 +7189,7 @@
       <c r="G184" s="13"/>
     </row>
     <row r="185" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A185" s="69"/>
+      <c r="A185" s="110"/>
       <c r="B185" s="42" t="s">
         <v>438</v>
       </c>
@@ -7204,7 +7204,7 @@
       <c r="G185" s="13"/>
     </row>
     <row r="186" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A186" s="69"/>
+      <c r="A186" s="110"/>
       <c r="B186" s="42" t="s">
         <v>710</v>
       </c>
@@ -7219,7 +7219,7 @@
       <c r="G186" s="13"/>
     </row>
     <row r="187" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A187" s="69"/>
+      <c r="A187" s="110"/>
       <c r="B187" s="42" t="s">
         <v>776</v>
       </c>
@@ -7234,7 +7234,7 @@
       <c r="G187" s="13"/>
     </row>
     <row r="188" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A188" s="69"/>
+      <c r="A188" s="110"/>
       <c r="B188" s="42" t="s">
         <v>782</v>
       </c>
@@ -7249,7 +7249,7 @@
       <c r="G188" s="13"/>
     </row>
     <row r="189" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A189" s="69"/>
+      <c r="A189" s="110"/>
       <c r="B189" s="42" t="s">
         <v>785</v>
       </c>
@@ -7264,7 +7264,7 @@
       <c r="G189" s="13"/>
     </row>
     <row r="190" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A190" s="69"/>
+      <c r="A190" s="110"/>
       <c r="B190" s="31" t="s">
         <v>838</v>
       </c>
@@ -7279,7 +7279,7 @@
       <c r="G190" s="13"/>
     </row>
     <row r="191" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A191" s="69"/>
+      <c r="A191" s="110"/>
       <c r="B191" s="31" t="s">
         <v>865</v>
       </c>
@@ -7294,7 +7294,7 @@
       <c r="G191" s="13"/>
     </row>
     <row r="192" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A192" s="69"/>
+      <c r="A192" s="110"/>
       <c r="B192" s="39" t="s">
         <v>879</v>
       </c>
@@ -7309,7 +7309,7 @@
       <c r="G192" s="13"/>
     </row>
     <row r="193" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A193" s="69"/>
+      <c r="A193" s="110"/>
       <c r="B193" s="39" t="s">
         <v>885</v>
       </c>
@@ -7324,7 +7324,7 @@
       <c r="G193" s="13"/>
     </row>
     <row r="194" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A194" s="69"/>
+      <c r="A194" s="110"/>
       <c r="B194" s="39" t="s">
         <v>900</v>
       </c>
@@ -7339,7 +7339,7 @@
       <c r="G194" s="13"/>
     </row>
     <row r="195" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="70"/>
+      <c r="A195" s="111"/>
       <c r="B195" s="39" t="s">
         <v>903</v>
       </c>
@@ -7354,7 +7354,7 @@
       <c r="G195" s="16"/>
     </row>
     <row r="196" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="70"/>
+      <c r="A196" s="111"/>
       <c r="B196" s="39" t="s">
         <v>961</v>
       </c>
@@ -7368,7 +7368,7 @@
       <c r="G196" s="13"/>
     </row>
     <row r="197" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A197" s="70"/>
+      <c r="A197" s="111"/>
       <c r="B197" s="39" t="s">
         <v>967</v>
       </c>
@@ -7382,7 +7382,7 @@
       <c r="G197" s="13"/>
     </row>
     <row r="198" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A198" s="70"/>
+      <c r="A198" s="111"/>
       <c r="B198" s="39" t="s">
         <v>970</v>
       </c>
@@ -7396,7 +7396,7 @@
       <c r="G198" s="13"/>
     </row>
     <row r="199" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A199" s="70"/>
+      <c r="A199" s="111"/>
       <c r="B199" s="31" t="s">
         <v>984</v>
       </c>
@@ -7410,7 +7410,7 @@
       <c r="G199" s="13"/>
     </row>
     <row r="200" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A200" s="70"/>
+      <c r="A200" s="111"/>
       <c r="B200" s="31" t="s">
         <v>1002</v>
       </c>
@@ -7424,7 +7424,7 @@
       <c r="G200" s="13"/>
     </row>
     <row r="201" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A201" s="70"/>
+      <c r="A201" s="111"/>
       <c r="B201" s="31" t="s">
         <v>1019</v>
       </c>
@@ -7438,7 +7438,7 @@
       <c r="G201" s="13"/>
     </row>
     <row r="202" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A202" s="70"/>
+      <c r="A202" s="111"/>
       <c r="B202" s="31" t="s">
         <v>1037</v>
       </c>
@@ -7452,7 +7452,7 @@
       <c r="G202" s="13"/>
     </row>
     <row r="203" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A203" s="70"/>
+      <c r="A203" s="111"/>
       <c r="B203" s="34" t="s">
         <v>1048</v>
       </c>
@@ -7471,7 +7471,7 @@
       <c r="G203" s="13"/>
     </row>
     <row r="204" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A204" s="70"/>
+      <c r="A204" s="111"/>
       <c r="B204" s="34" t="s">
         <v>1048</v>
       </c>
@@ -7490,7 +7490,7 @@
       <c r="G204" s="13"/>
     </row>
     <row r="205" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A205" s="70"/>
+      <c r="A205" s="111"/>
       <c r="B205" s="34" t="s">
         <v>1056</v>
       </c>
@@ -7507,7 +7507,7 @@
       <c r="G205" s="13"/>
     </row>
     <row r="206" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A206" s="70"/>
+      <c r="A206" s="111"/>
       <c r="B206" s="34" t="s">
         <v>1059</v>
       </c>
@@ -7524,7 +7524,7 @@
       <c r="G206" s="13"/>
     </row>
     <row r="207" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A207" s="70"/>
+      <c r="A207" s="111"/>
       <c r="B207" s="34" t="s">
         <v>1062</v>
       </c>
@@ -7543,7 +7543,7 @@
       <c r="G207" s="13"/>
     </row>
     <row r="208" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A208" s="70"/>
+      <c r="A208" s="111"/>
       <c r="B208" s="34" t="s">
         <v>1066</v>
       </c>
@@ -7562,7 +7562,7 @@
       <c r="G208" s="13"/>
     </row>
     <row r="209" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A209" s="70"/>
+      <c r="A209" s="111"/>
       <c r="B209" s="34" t="s">
         <v>1070</v>
       </c>
@@ -7581,7 +7581,7 @@
       <c r="G209" s="13"/>
     </row>
     <row r="210" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A210" s="70"/>
+      <c r="A210" s="111"/>
       <c r="B210" s="55" t="s">
         <v>1073</v>
       </c>
@@ -7600,7 +7600,7 @@
       <c r="G210" s="13"/>
     </row>
     <row r="211" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A211" s="70"/>
+      <c r="A211" s="111"/>
       <c r="B211" s="34" t="s">
         <v>1094</v>
       </c>
@@ -7619,7 +7619,7 @@
       <c r="G211" s="13"/>
     </row>
     <row r="212" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A212" s="70"/>
+      <c r="A212" s="111"/>
       <c r="B212" s="55" t="s">
         <v>1094</v>
       </c>
@@ -7638,7 +7638,7 @@
       <c r="G212" s="13"/>
     </row>
     <row r="213" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A213" s="70"/>
+      <c r="A213" s="111"/>
       <c r="B213" s="34"/>
       <c r="C213" s="34"/>
       <c r="D213" s="34"/>
@@ -7647,7 +7647,7 @@
       <c r="G213" s="13"/>
     </row>
     <row r="214" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A214" s="70"/>
+      <c r="A214" s="111"/>
       <c r="B214" s="34"/>
       <c r="C214" s="34"/>
       <c r="D214" s="34"/>
@@ -7656,7 +7656,7 @@
       <c r="G214" s="13"/>
     </row>
     <row r="215" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A215" s="70"/>
+      <c r="A215" s="111"/>
       <c r="B215" s="34"/>
       <c r="C215" s="34"/>
       <c r="D215" s="34"/>
@@ -7665,7 +7665,7 @@
       <c r="G215" s="13"/>
     </row>
     <row r="216" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A216" s="70"/>
+      <c r="A216" s="111"/>
       <c r="B216" s="34"/>
       <c r="C216" s="34"/>
       <c r="D216" s="34"/>
@@ -7674,7 +7674,7 @@
       <c r="G216" s="13"/>
     </row>
     <row r="217" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A217" s="71"/>
+      <c r="A217" s="112"/>
       <c r="B217" s="39"/>
       <c r="C217" s="39"/>
       <c r="D217" s="39"/>
@@ -7682,7 +7682,7 @@
       <c r="G217" s="13"/>
     </row>
     <row r="218" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="87" t="s">
+      <c r="A218" s="128" t="s">
         <v>759</v>
       </c>
       <c r="B218" s="42" t="s">
@@ -7701,7 +7701,7 @@
       <c r="G218" s="13"/>
     </row>
     <row r="219" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="87"/>
+      <c r="A219" s="128"/>
       <c r="B219" s="42"/>
       <c r="C219" s="31"/>
       <c r="E219" s="31"/>
@@ -7709,7 +7709,7 @@
       <c r="G219" s="13"/>
     </row>
     <row r="220" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="88"/>
+      <c r="A220" s="129"/>
       <c r="B220" s="35"/>
       <c r="C220" s="35"/>
       <c r="D220" s="35"/>
@@ -7718,7 +7718,7 @@
       <c r="G220" s="13"/>
     </row>
     <row r="221" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="89"/>
+      <c r="A221" s="130"/>
       <c r="B221" s="46"/>
       <c r="C221" s="32"/>
       <c r="D221" s="32"/>
@@ -7727,7 +7727,7 @@
       <c r="G221" s="16"/>
     </row>
     <row r="222" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="107" t="s">
+      <c r="A222" s="82" t="s">
         <v>407</v>
       </c>
       <c r="B222" s="42" t="s">
@@ -7743,7 +7743,7 @@
       <c r="G222" s="13"/>
     </row>
     <row r="223" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A223" s="108"/>
+      <c r="A223" s="83"/>
       <c r="B223" s="42" t="s">
         <v>81</v>
       </c>
@@ -7758,7 +7758,7 @@
       <c r="G223" s="13"/>
     </row>
     <row r="224" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A224" s="108"/>
+      <c r="A224" s="83"/>
       <c r="B224" s="42" t="s">
         <v>73</v>
       </c>
@@ -7775,7 +7775,7 @@
       <c r="G224" s="13"/>
     </row>
     <row r="225" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A225" s="108"/>
+      <c r="A225" s="83"/>
       <c r="B225" s="42" t="s">
         <v>131</v>
       </c>
@@ -7789,7 +7789,7 @@
       <c r="G225" s="13"/>
     </row>
     <row r="226" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A226" s="108"/>
+      <c r="A226" s="83"/>
       <c r="B226" s="42" t="s">
         <v>549</v>
       </c>
@@ -7804,7 +7804,7 @@
       <c r="G226" s="13"/>
     </row>
     <row r="227" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A227" s="108"/>
+      <c r="A227" s="83"/>
       <c r="B227" s="42" t="s">
         <v>692</v>
       </c>
@@ -7819,7 +7819,7 @@
       <c r="G227" s="13"/>
     </row>
     <row r="228" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A228" s="108"/>
+      <c r="A228" s="83"/>
       <c r="B228" s="42" t="s">
         <v>707</v>
       </c>
@@ -7834,7 +7834,7 @@
       <c r="G228" s="13"/>
     </row>
     <row r="229" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A229" s="108"/>
+      <c r="A229" s="83"/>
       <c r="B229" s="31" t="s">
         <v>812</v>
       </c>
@@ -7849,7 +7849,7 @@
       <c r="G229" s="13"/>
     </row>
     <row r="230" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A230" s="108"/>
+      <c r="A230" s="83"/>
       <c r="B230" s="42"/>
       <c r="C230" s="31"/>
       <c r="D230" s="31"/>
@@ -7858,7 +7858,7 @@
       <c r="G230" s="13"/>
     </row>
     <row r="231" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A231" s="108"/>
+      <c r="A231" s="83"/>
       <c r="B231" s="42"/>
       <c r="C231" s="31"/>
       <c r="D231" s="31"/>
@@ -7867,11 +7867,11 @@
       <c r="G231" s="13"/>
     </row>
     <row r="232" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="109"/>
+      <c r="A232" s="84"/>
       <c r="G232" s="16"/>
     </row>
     <row r="233" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="81" t="s">
+      <c r="A233" s="122" t="s">
         <v>500</v>
       </c>
       <c r="B233" s="42" t="s">
@@ -7887,7 +7887,7 @@
       <c r="G233" s="13"/>
     </row>
     <row r="234" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="82"/>
+      <c r="A234" s="123"/>
       <c r="B234" s="42"/>
       <c r="C234" s="7"/>
       <c r="D234" s="8"/>
@@ -7896,7 +7896,7 @@
       <c r="G234" s="13"/>
     </row>
     <row r="235" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="82"/>
+      <c r="A235" s="123"/>
       <c r="B235" s="42"/>
       <c r="C235" s="7"/>
       <c r="D235" s="8"/>
@@ -7905,7 +7905,7 @@
       <c r="G235" s="13"/>
     </row>
     <row r="236" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="82"/>
+      <c r="A236" s="123"/>
       <c r="B236" s="42"/>
       <c r="C236" s="31"/>
       <c r="E236" s="31"/>
@@ -7913,7 +7913,7 @@
       <c r="G236" s="13"/>
     </row>
     <row r="237" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="82"/>
+      <c r="A237" s="123"/>
       <c r="B237" s="42"/>
       <c r="C237" s="7"/>
       <c r="D237" s="8"/>
@@ -7922,11 +7922,11 @@
       <c r="G237" s="13"/>
     </row>
     <row r="238" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="83"/>
+      <c r="A238" s="124"/>
       <c r="G238" s="16"/>
     </row>
     <row r="239" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="65" t="s">
+      <c r="A239" s="91" t="s">
         <v>493</v>
       </c>
       <c r="B239" s="35" t="s">
@@ -7945,7 +7945,7 @@
       <c r="G239" s="13"/>
     </row>
     <row r="240" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A240" s="66"/>
+      <c r="A240" s="92"/>
       <c r="B240" s="42" t="s">
         <v>179</v>
       </c>
@@ -7959,7 +7959,7 @@
       <c r="G240" s="13"/>
     </row>
     <row r="241" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A241" s="66"/>
+      <c r="A241" s="92"/>
       <c r="B241" s="42" t="s">
         <v>83</v>
       </c>
@@ -7974,7 +7974,7 @@
       <c r="G241" s="13"/>
     </row>
     <row r="242" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A242" s="66"/>
+      <c r="A242" s="92"/>
       <c r="B242" s="42" t="s">
         <v>293</v>
       </c>
@@ -7988,7 +7988,7 @@
       <c r="G242" s="13"/>
     </row>
     <row r="243" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A243" s="66"/>
+      <c r="A243" s="92"/>
       <c r="B243" s="42" t="s">
         <v>563</v>
       </c>
@@ -8005,7 +8005,7 @@
       <c r="G243" s="13"/>
     </row>
     <row r="244" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A244" s="66"/>
+      <c r="A244" s="92"/>
       <c r="B244" s="42" t="s">
         <v>125</v>
       </c>
@@ -8020,7 +8020,7 @@
       <c r="G244" s="13"/>
     </row>
     <row r="245" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A245" s="66"/>
+      <c r="A245" s="92"/>
       <c r="B245" s="42" t="s">
         <v>552</v>
       </c>
@@ -8035,7 +8035,7 @@
       <c r="G245" s="13"/>
     </row>
     <row r="246" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A246" s="66"/>
+      <c r="A246" s="92"/>
       <c r="B246" s="42" t="s">
         <v>707</v>
       </c>
@@ -8050,7 +8050,7 @@
       <c r="G246" s="13"/>
     </row>
     <row r="247" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A247" s="66"/>
+      <c r="A247" s="92"/>
       <c r="B247" s="42" t="s">
         <v>737</v>
       </c>
@@ -8065,7 +8065,7 @@
       <c r="G247" s="13"/>
     </row>
     <row r="248" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A248" s="66"/>
+      <c r="A248" s="92"/>
       <c r="B248" s="42" t="s">
         <v>746</v>
       </c>
@@ -8080,7 +8080,7 @@
       <c r="G248" s="13"/>
     </row>
     <row r="249" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A249" s="66"/>
+      <c r="A249" s="92"/>
       <c r="B249" s="31" t="s">
         <v>847</v>
       </c>
@@ -8095,7 +8095,7 @@
       <c r="G249" s="13"/>
     </row>
     <row r="250" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A250" s="66"/>
+      <c r="A250" s="92"/>
       <c r="B250" s="31" t="s">
         <v>862</v>
       </c>
@@ -8110,7 +8110,7 @@
       <c r="G250" s="13"/>
     </row>
     <row r="251" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A251" s="66"/>
+      <c r="A251" s="92"/>
       <c r="B251" s="31" t="s">
         <v>987</v>
       </c>
@@ -8125,7 +8125,7 @@
       <c r="G251" s="13"/>
     </row>
     <row r="252" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A252" s="66"/>
+      <c r="A252" s="92"/>
       <c r="B252" s="31"/>
       <c r="C252" s="31"/>
       <c r="D252" s="31"/>
@@ -8134,7 +8134,7 @@
       <c r="G252" s="13"/>
     </row>
     <row r="253" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A253" s="66"/>
+      <c r="A253" s="92"/>
       <c r="B253" s="31"/>
       <c r="C253" s="31"/>
       <c r="D253" s="31"/>
@@ -8143,14 +8143,14 @@
       <c r="G253" s="13"/>
     </row>
     <row r="254" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="116"/>
+      <c r="A254" s="93"/>
       <c r="F254" s="19"/>
       <c r="G254" s="16" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="255" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="84" t="s">
+      <c r="A255" s="125" t="s">
         <v>106</v>
       </c>
       <c r="B255" s="42" t="s">
@@ -8165,7 +8165,7 @@
       <c r="G255" s="30"/>
     </row>
     <row r="256" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A256" s="85"/>
+      <c r="A256" s="126"/>
       <c r="B256" s="42" t="s">
         <v>97</v>
       </c>
@@ -8180,7 +8180,7 @@
       <c r="G256" s="23"/>
     </row>
     <row r="257" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A257" s="85"/>
+      <c r="A257" s="126"/>
       <c r="B257" s="42" t="s">
         <v>328</v>
       </c>
@@ -8194,7 +8194,7 @@
       <c r="G257" s="13"/>
     </row>
     <row r="258" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A258" s="85"/>
+      <c r="A258" s="126"/>
       <c r="B258" s="42" t="s">
         <v>373</v>
       </c>
@@ -8208,7 +8208,7 @@
       <c r="G258" s="13"/>
     </row>
     <row r="259" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A259" s="85"/>
+      <c r="A259" s="126"/>
       <c r="B259" s="35" t="s">
         <v>441</v>
       </c>
@@ -8227,7 +8227,7 @@
       <c r="G259" s="13"/>
     </row>
     <row r="260" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A260" s="85"/>
+      <c r="A260" s="126"/>
       <c r="B260" s="35" t="s">
         <v>425</v>
       </c>
@@ -8246,7 +8246,7 @@
       <c r="G260" s="13"/>
     </row>
     <row r="261" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A261" s="85"/>
+      <c r="A261" s="126"/>
       <c r="B261" s="35" t="s">
         <v>483</v>
       </c>
@@ -8263,7 +8263,7 @@
       <c r="G261" s="13"/>
     </row>
     <row r="262" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A262" s="85"/>
+      <c r="A262" s="126"/>
       <c r="B262" s="35" t="s">
         <v>476</v>
       </c>
@@ -8280,7 +8280,7 @@
       <c r="G262" s="13"/>
     </row>
     <row r="263" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A263" s="85"/>
+      <c r="A263" s="126"/>
       <c r="B263" s="35" t="s">
         <v>414</v>
       </c>
@@ -8299,7 +8299,7 @@
       <c r="G263" s="13"/>
     </row>
     <row r="264" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A264" s="85"/>
+      <c r="A264" s="126"/>
       <c r="B264" s="35" t="s">
         <v>402</v>
       </c>
@@ -8318,7 +8318,7 @@
       <c r="G264" s="13"/>
     </row>
     <row r="265" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A265" s="85"/>
+      <c r="A265" s="126"/>
       <c r="B265" s="35" t="s">
         <v>396</v>
       </c>
@@ -8333,7 +8333,7 @@
       <c r="G265" s="13"/>
     </row>
     <row r="266" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A266" s="85"/>
+      <c r="A266" s="126"/>
       <c r="B266" s="35" t="s">
         <v>409</v>
       </c>
@@ -8348,7 +8348,7 @@
       <c r="G266" s="13"/>
     </row>
     <row r="267" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A267" s="85"/>
+      <c r="A267" s="126"/>
       <c r="B267" s="35" t="s">
         <v>445</v>
       </c>
@@ -8367,7 +8367,7 @@
       <c r="G267" s="13"/>
     </row>
     <row r="268" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A268" s="86"/>
+      <c r="A268" s="127"/>
       <c r="B268" s="35" t="s">
         <v>447</v>
       </c>
@@ -8386,7 +8386,7 @@
       <c r="G268" s="13"/>
     </row>
     <row r="269" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A269" s="86"/>
+      <c r="A269" s="127"/>
       <c r="B269" s="42" t="s">
         <v>567</v>
       </c>
@@ -8403,7 +8403,7 @@
       <c r="G269" s="18"/>
     </row>
     <row r="270" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A270" s="86"/>
+      <c r="A270" s="127"/>
       <c r="B270" s="42" t="s">
         <v>679</v>
       </c>
@@ -8420,7 +8420,7 @@
       <c r="G270" s="13"/>
     </row>
     <row r="271" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A271" s="86"/>
+      <c r="A271" s="127"/>
       <c r="B271" s="31" t="s">
         <v>818</v>
       </c>
@@ -8435,7 +8435,7 @@
       <c r="G271" s="13"/>
     </row>
     <row r="272" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A272" s="86"/>
+      <c r="A272" s="127"/>
       <c r="B272" s="31" t="s">
         <v>824</v>
       </c>
@@ -8450,7 +8450,7 @@
       <c r="G272" s="13"/>
     </row>
     <row r="273" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A273" s="86"/>
+      <c r="A273" s="127"/>
       <c r="B273" s="31" t="s">
         <v>868</v>
       </c>
@@ -8465,7 +8465,7 @@
       <c r="G273" s="13"/>
     </row>
     <row r="274" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A274" s="86"/>
+      <c r="A274" s="127"/>
       <c r="B274" s="31" t="s">
         <v>927</v>
       </c>
@@ -8480,7 +8480,7 @@
       <c r="G274" s="13"/>
     </row>
     <row r="275" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A275" s="86"/>
+      <c r="A275" s="127"/>
       <c r="B275" s="31" t="s">
         <v>993</v>
       </c>
@@ -8495,7 +8495,7 @@
       <c r="G275" s="13"/>
     </row>
     <row r="276" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A276" s="86"/>
+      <c r="A276" s="127"/>
       <c r="B276" s="31" t="s">
         <v>1043</v>
       </c>
@@ -8510,7 +8510,7 @@
       <c r="G276" s="13"/>
     </row>
     <row r="277" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A277" s="86"/>
+      <c r="A277" s="127"/>
       <c r="B277" s="31"/>
       <c r="C277" s="31"/>
       <c r="D277" s="31"/>
@@ -8519,7 +8519,7 @@
       <c r="G277" s="13"/>
     </row>
     <row r="278" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A278" s="86"/>
+      <c r="A278" s="127"/>
       <c r="B278" s="31"/>
       <c r="C278" s="31"/>
       <c r="D278" s="31"/>
@@ -8528,7 +8528,7 @@
       <c r="G278" s="13"/>
     </row>
     <row r="279" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A279" s="86"/>
+      <c r="A279" s="127"/>
       <c r="B279" s="31"/>
       <c r="C279" s="31"/>
       <c r="D279" s="31"/>
@@ -8537,7 +8537,7 @@
       <c r="G279" s="13"/>
     </row>
     <row r="280" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A280" s="71"/>
+      <c r="A280" s="112"/>
       <c r="B280" s="35"/>
       <c r="C280" s="34"/>
       <c r="D280" s="4"/>
@@ -8546,7 +8546,7 @@
       <c r="G280" s="13"/>
     </row>
     <row r="281" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A281" s="65" t="s">
+      <c r="A281" s="91" t="s">
         <v>760</v>
       </c>
       <c r="B281" s="42" t="s">
@@ -8563,7 +8563,7 @@
       <c r="G281" s="13"/>
     </row>
     <row r="282" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A282" s="66"/>
+      <c r="A282" s="92"/>
       <c r="B282" s="42"/>
       <c r="C282" s="31"/>
       <c r="E282" s="31"/>
@@ -8571,7 +8571,7 @@
       <c r="G282" s="13"/>
     </row>
     <row r="283" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A283" s="66"/>
+      <c r="A283" s="92"/>
       <c r="B283" s="42"/>
       <c r="C283" s="31"/>
       <c r="D283" s="31"/>
@@ -8580,7 +8580,7 @@
       <c r="G283" s="13"/>
     </row>
     <row r="284" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="66"/>
+      <c r="A284" s="92"/>
       <c r="B284" s="42"/>
       <c r="C284" s="7"/>
       <c r="D284" s="8"/>
@@ -8589,7 +8589,7 @@
       <c r="G284" s="13"/>
     </row>
     <row r="285" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="66"/>
+      <c r="A285" s="92"/>
       <c r="B285" s="42"/>
       <c r="C285" s="7"/>
       <c r="D285" s="8"/>
@@ -8598,7 +8598,7 @@
       <c r="G285" s="13"/>
     </row>
     <row r="286" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="66"/>
+      <c r="A286" s="92"/>
       <c r="B286" s="42"/>
       <c r="C286" s="7"/>
       <c r="D286" s="8"/>
@@ -8607,7 +8607,7 @@
       <c r="G286" s="13"/>
     </row>
     <row r="287" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="66"/>
+      <c r="A287" s="92"/>
       <c r="B287" s="42"/>
       <c r="C287" s="7"/>
       <c r="D287" s="8"/>
@@ -8616,14 +8616,14 @@
       <c r="G287" s="13"/>
     </row>
     <row r="288" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="67"/>
+      <c r="A288" s="108"/>
       <c r="F288" s="19"/>
       <c r="G288" s="16" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="289" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A289" s="72" t="s">
+      <c r="A289" s="113" t="s">
         <v>492</v>
       </c>
       <c r="B289" s="42" t="s">
@@ -8639,7 +8639,7 @@
       <c r="G289" s="12"/>
     </row>
     <row r="290" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A290" s="73"/>
+      <c r="A290" s="114"/>
       <c r="B290" s="42" t="s">
         <v>187</v>
       </c>
@@ -8653,7 +8653,7 @@
       <c r="G290" s="13"/>
     </row>
     <row r="291" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A291" s="73"/>
+      <c r="A291" s="114"/>
       <c r="B291" s="42" t="s">
         <v>387</v>
       </c>
@@ -8667,7 +8667,7 @@
       <c r="G291" s="13"/>
     </row>
     <row r="292" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A292" s="73"/>
+      <c r="A292" s="114"/>
       <c r="B292" s="42" t="s">
         <v>275</v>
       </c>
@@ -8681,7 +8681,7 @@
       <c r="G292" s="13"/>
     </row>
     <row r="293" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A293" s="73"/>
+      <c r="A293" s="114"/>
       <c r="B293" s="42" t="s">
         <v>367</v>
       </c>
@@ -8695,7 +8695,7 @@
       <c r="G293" s="13"/>
     </row>
     <row r="294" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A294" s="73"/>
+      <c r="A294" s="114"/>
       <c r="B294" s="42" t="s">
         <v>375</v>
       </c>
@@ -8709,7 +8709,7 @@
       <c r="G294" s="13"/>
     </row>
     <row r="295" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A295" s="73"/>
+      <c r="A295" s="114"/>
       <c r="B295" s="42" t="s">
         <v>505</v>
       </c>
@@ -8724,7 +8724,7 @@
       <c r="G295" s="13"/>
     </row>
     <row r="296" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A296" s="73"/>
+      <c r="A296" s="114"/>
       <c r="B296" s="42" t="s">
         <v>529</v>
       </c>
@@ -8739,7 +8739,7 @@
       <c r="G296" s="13"/>
     </row>
     <row r="297" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A297" s="73"/>
+      <c r="A297" s="114"/>
       <c r="B297" s="42" t="s">
         <v>571</v>
       </c>
@@ -8754,7 +8754,7 @@
       <c r="G297" s="13"/>
     </row>
     <row r="298" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A298" s="73"/>
+      <c r="A298" s="114"/>
       <c r="B298" s="42" t="s">
         <v>588</v>
       </c>
@@ -8769,7 +8769,7 @@
       <c r="G298" s="13"/>
     </row>
     <row r="299" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A299" s="73"/>
+      <c r="A299" s="114"/>
       <c r="B299" s="42" t="s">
         <v>624</v>
       </c>
@@ -8784,7 +8784,7 @@
       <c r="G299" s="13"/>
     </row>
     <row r="300" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A300" s="73"/>
+      <c r="A300" s="114"/>
       <c r="B300" s="42" t="s">
         <v>698</v>
       </c>
@@ -8799,7 +8799,7 @@
       <c r="G300" s="13"/>
     </row>
     <row r="301" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A301" s="73"/>
+      <c r="A301" s="114"/>
       <c r="B301" s="42" t="s">
         <v>375</v>
       </c>
@@ -8816,7 +8816,7 @@
       <c r="G301" s="13"/>
     </row>
     <row r="302" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A302" s="73"/>
+      <c r="A302" s="114"/>
       <c r="B302" s="42" t="s">
         <v>731</v>
       </c>
@@ -8831,7 +8831,7 @@
       <c r="G302" s="13"/>
     </row>
     <row r="303" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A303" s="73"/>
+      <c r="A303" s="114"/>
       <c r="B303" s="42" t="s">
         <v>806</v>
       </c>
@@ -8846,7 +8846,7 @@
       <c r="G303" s="13"/>
     </row>
     <row r="304" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A304" s="73"/>
+      <c r="A304" s="114"/>
       <c r="B304" s="42" t="s">
         <v>797</v>
       </c>
@@ -8861,7 +8861,7 @@
       <c r="G304" s="13"/>
     </row>
     <row r="305" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A305" s="73"/>
+      <c r="A305" s="114"/>
       <c r="B305" s="31" t="s">
         <v>835</v>
       </c>
@@ -8876,7 +8876,7 @@
       <c r="G305" s="13"/>
     </row>
     <row r="306" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A306" s="73"/>
+      <c r="A306" s="114"/>
       <c r="B306" s="31" t="s">
         <v>844</v>
       </c>
@@ -8891,7 +8891,7 @@
       <c r="G306" s="13"/>
     </row>
     <row r="307" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A307" s="73"/>
+      <c r="A307" s="114"/>
       <c r="B307" s="39" t="s">
         <v>894</v>
       </c>
@@ -8906,7 +8906,7 @@
       <c r="G307" s="13"/>
     </row>
     <row r="308" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="73"/>
+      <c r="A308" s="114"/>
       <c r="B308" s="39" t="s">
         <v>973</v>
       </c>
@@ -8921,7 +8921,7 @@
       <c r="G308" s="16"/>
     </row>
     <row r="309" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A309" s="71"/>
+      <c r="A309" s="112"/>
       <c r="B309" s="31" t="s">
         <v>990</v>
       </c>
@@ -8936,7 +8936,7 @@
       <c r="G309" s="13"/>
     </row>
     <row r="310" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A310" s="71"/>
+      <c r="A310" s="112"/>
       <c r="B310" s="39"/>
       <c r="C310" s="39"/>
       <c r="D310" s="39"/>
@@ -8945,7 +8945,7 @@
       <c r="G310" s="13"/>
     </row>
     <row r="311" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A311" s="71"/>
+      <c r="A311" s="112"/>
       <c r="B311" s="39"/>
       <c r="C311" s="39"/>
       <c r="D311" s="39"/>
@@ -8954,7 +8954,7 @@
       <c r="G311" s="13"/>
     </row>
     <row r="312" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A312" s="71"/>
+      <c r="A312" s="112"/>
       <c r="B312" s="39"/>
       <c r="C312" s="39"/>
       <c r="D312" s="39"/>
@@ -8963,7 +8963,7 @@
       <c r="G312" s="13"/>
     </row>
     <row r="313" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="71"/>
+      <c r="A313" s="112"/>
       <c r="B313" s="39"/>
       <c r="C313" s="39"/>
       <c r="D313" s="39"/>
@@ -8972,7 +8972,7 @@
       <c r="G313" s="13"/>
     </row>
     <row r="314" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A314" s="120" t="s">
+      <c r="A314" s="97" t="s">
         <v>495</v>
       </c>
       <c r="B314" s="42" t="s">
@@ -8988,7 +8988,7 @@
       <c r="G314" s="12"/>
     </row>
     <row r="315" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A315" s="121"/>
+      <c r="A315" s="98"/>
       <c r="B315" s="42" t="s">
         <v>240</v>
       </c>
@@ -9002,7 +9002,7 @@
       <c r="G315" s="13"/>
     </row>
     <row r="316" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A316" s="121"/>
+      <c r="A316" s="98"/>
       <c r="B316" s="42" t="s">
         <v>803</v>
       </c>
@@ -9017,7 +9017,7 @@
       <c r="G316" s="13"/>
     </row>
     <row r="317" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A317" s="121"/>
+      <c r="A317" s="98"/>
       <c r="B317" s="31" t="s">
         <v>815</v>
       </c>
@@ -9032,7 +9032,7 @@
       <c r="G317" s="13"/>
     </row>
     <row r="318" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A318" s="121"/>
+      <c r="A318" s="98"/>
       <c r="B318" s="39" t="s">
         <v>894</v>
       </c>
@@ -9047,7 +9047,7 @@
       <c r="G318" s="13"/>
     </row>
     <row r="319" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A319" s="121"/>
+      <c r="A319" s="98"/>
       <c r="B319" s="35" t="s">
         <v>1139</v>
       </c>
@@ -9066,7 +9066,7 @@
       <c r="G319" s="13"/>
     </row>
     <row r="320" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A320" s="121"/>
+      <c r="A320" s="98"/>
       <c r="B320" s="35" t="s">
         <v>1143</v>
       </c>
@@ -9085,7 +9085,7 @@
       <c r="G320" s="13"/>
     </row>
     <row r="321" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A321" s="121"/>
+      <c r="A321" s="98"/>
       <c r="B321" s="35" t="s">
         <v>1146</v>
       </c>
@@ -9104,7 +9104,7 @@
       <c r="G321" s="13"/>
     </row>
     <row r="322" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A322" s="121"/>
+      <c r="A322" s="98"/>
       <c r="B322" s="35" t="s">
         <v>141</v>
       </c>
@@ -9123,7 +9123,7 @@
       <c r="G322" s="13"/>
     </row>
     <row r="323" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A323" s="121"/>
+      <c r="A323" s="98"/>
       <c r="B323" s="35" t="s">
         <v>1152</v>
       </c>
@@ -9142,7 +9142,7 @@
       <c r="G323" s="13"/>
     </row>
     <row r="324" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A324" s="121"/>
+      <c r="A324" s="98"/>
       <c r="B324" s="35" t="s">
         <v>1155</v>
       </c>
@@ -9161,11 +9161,11 @@
       <c r="G324" s="13"/>
     </row>
     <row r="325" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A325" s="121"/>
+      <c r="A325" s="98"/>
       <c r="G325" s="16"/>
     </row>
     <row r="326" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A326" s="65" t="s">
+      <c r="A326" s="91" t="s">
         <v>499</v>
       </c>
       <c r="B326" s="42" t="s">
@@ -9183,7 +9183,7 @@
       <c r="G326" s="13"/>
     </row>
     <row r="327" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A327" s="66"/>
+      <c r="A327" s="92"/>
       <c r="B327" s="42" t="s">
         <v>189</v>
       </c>
@@ -9197,7 +9197,7 @@
       <c r="G327" s="13"/>
     </row>
     <row r="328" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A328" s="66"/>
+      <c r="A328" s="92"/>
       <c r="B328" s="42" t="s">
         <v>725</v>
       </c>
@@ -9212,7 +9212,7 @@
       <c r="G328" s="13"/>
     </row>
     <row r="329" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A329" s="66"/>
+      <c r="A329" s="92"/>
       <c r="B329" s="42" t="s">
         <v>776</v>
       </c>
@@ -9227,7 +9227,7 @@
       <c r="G329" s="13"/>
     </row>
     <row r="330" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A330" s="66"/>
+      <c r="A330" s="92"/>
       <c r="B330" s="42"/>
       <c r="C330" s="7"/>
       <c r="D330" s="8"/>
@@ -9236,7 +9236,7 @@
       <c r="G330" s="13"/>
     </row>
     <row r="331" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A331" s="66"/>
+      <c r="A331" s="92"/>
       <c r="B331" s="42"/>
       <c r="C331" s="7"/>
       <c r="D331" s="8"/>
@@ -9245,7 +9245,7 @@
       <c r="G331" s="13"/>
     </row>
     <row r="332" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A332" s="66"/>
+      <c r="A332" s="92"/>
       <c r="B332" s="42"/>
       <c r="C332" s="7"/>
       <c r="D332" s="8"/>
@@ -9254,14 +9254,14 @@
       <c r="G332" s="13"/>
     </row>
     <row r="333" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="67"/>
+      <c r="A333" s="108"/>
       <c r="F333" s="19"/>
       <c r="G333" s="16" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="334" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="101" t="s">
+      <c r="A334" s="76" t="s">
         <v>47</v>
       </c>
       <c r="B334" s="49" t="s">
@@ -9280,7 +9280,7 @@
       <c r="G334" s="12"/>
     </row>
     <row r="335" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A335" s="102"/>
+      <c r="A335" s="77"/>
       <c r="B335" s="45" t="s">
         <v>51</v>
       </c>
@@ -9297,7 +9297,7 @@
       <c r="G335" s="13"/>
     </row>
     <row r="336" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A336" s="102"/>
+      <c r="A336" s="77"/>
       <c r="B336" s="45" t="s">
         <v>54</v>
       </c>
@@ -9312,7 +9312,7 @@
       <c r="G336" s="13"/>
     </row>
     <row r="337" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="102"/>
+      <c r="A337" s="77"/>
       <c r="B337" s="45" t="s">
         <v>57</v>
       </c>
@@ -9331,7 +9331,7 @@
       <c r="G337" s="13"/>
     </row>
     <row r="338" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A338" s="102"/>
+      <c r="A338" s="77"/>
       <c r="B338" s="45" t="s">
         <v>61</v>
       </c>
@@ -9348,7 +9348,7 @@
       <c r="G338" s="13"/>
     </row>
     <row r="339" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A339" s="102"/>
+      <c r="A339" s="77"/>
       <c r="B339" s="45" t="s">
         <v>64</v>
       </c>
@@ -9367,7 +9367,7 @@
       <c r="G339" s="13"/>
     </row>
     <row r="340" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A340" s="102"/>
+      <c r="A340" s="77"/>
       <c r="B340" s="45" t="s">
         <v>67</v>
       </c>
@@ -9386,7 +9386,7 @@
       <c r="G340" s="13"/>
     </row>
     <row r="341" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A341" s="102"/>
+      <c r="A341" s="77"/>
       <c r="B341" s="42" t="s">
         <v>51</v>
       </c>
@@ -9400,7 +9400,7 @@
       <c r="G341" s="13"/>
     </row>
     <row r="342" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="102"/>
+      <c r="A342" s="77"/>
       <c r="B342" s="45"/>
       <c r="C342" s="4"/>
       <c r="D342" s="4"/>
@@ -9409,7 +9409,7 @@
       <c r="G342" s="13"/>
     </row>
     <row r="343" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="102"/>
+      <c r="A343" s="77"/>
       <c r="B343" s="45"/>
       <c r="C343" s="4"/>
       <c r="D343" s="4"/>
@@ -9418,7 +9418,7 @@
       <c r="G343" s="13"/>
     </row>
     <row r="344" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A344" s="103"/>
+      <c r="A344" s="78"/>
       <c r="B344" s="50"/>
       <c r="C344" s="14"/>
       <c r="D344" s="14"/>
@@ -9427,7 +9427,7 @@
       <c r="G344" s="16"/>
     </row>
     <row r="345" spans="1:7" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A345" s="110" t="s">
+      <c r="A345" s="85" t="s">
         <v>408</v>
       </c>
       <c r="B345" s="42" t="s">
@@ -9444,7 +9444,7 @@
       <c r="G345" s="12"/>
     </row>
     <row r="346" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A346" s="111"/>
+      <c r="A346" s="86"/>
       <c r="B346" s="42" t="s">
         <v>135</v>
       </c>
@@ -9458,7 +9458,7 @@
       <c r="G346" s="13"/>
     </row>
     <row r="347" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A347" s="111"/>
+      <c r="A347" s="86"/>
       <c r="B347" s="42" t="s">
         <v>324</v>
       </c>
@@ -9472,7 +9472,7 @@
       <c r="G347" s="13"/>
     </row>
     <row r="348" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A348" s="111"/>
+      <c r="A348" s="86"/>
       <c r="B348" s="31" t="s">
         <v>996</v>
       </c>
@@ -9487,7 +9487,7 @@
       <c r="G348" s="13"/>
     </row>
     <row r="349" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A349" s="111"/>
+      <c r="A349" s="86"/>
       <c r="B349" s="31" t="s">
         <v>1022</v>
       </c>
@@ -9502,7 +9502,7 @@
       <c r="G349" s="13"/>
     </row>
     <row r="350" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A350" s="111"/>
+      <c r="A350" s="86"/>
       <c r="B350" s="31" t="s">
         <v>1031</v>
       </c>
@@ -9517,7 +9517,7 @@
       <c r="G350" s="13"/>
     </row>
     <row r="351" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A351" s="111"/>
+      <c r="A351" s="86"/>
       <c r="B351" s="31"/>
       <c r="C351" s="31"/>
       <c r="D351" s="31"/>
@@ -9526,7 +9526,7 @@
       <c r="G351" s="13"/>
     </row>
     <row r="352" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A352" s="111"/>
+      <c r="A352" s="86"/>
       <c r="B352" s="31"/>
       <c r="C352" s="31"/>
       <c r="D352" s="31"/>
@@ -9535,7 +9535,7 @@
       <c r="G352" s="13"/>
     </row>
     <row r="353" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A353" s="112"/>
+      <c r="A353" s="87"/>
       <c r="B353" s="50"/>
       <c r="C353" s="14"/>
       <c r="D353" s="14"/>
@@ -9544,7 +9544,7 @@
       <c r="G353" s="16"/>
     </row>
     <row r="354" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A354" s="128" t="s">
+      <c r="A354" s="105" t="s">
         <v>498</v>
       </c>
       <c r="B354" s="42" t="s">
@@ -9562,7 +9562,7 @@
       <c r="G354" s="12"/>
     </row>
     <row r="355" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A355" s="129"/>
+      <c r="A355" s="106"/>
       <c r="B355" s="42" t="s">
         <v>189</v>
       </c>
@@ -9576,7 +9576,7 @@
       <c r="G355" s="13"/>
     </row>
     <row r="356" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A356" s="129"/>
+      <c r="A356" s="106"/>
       <c r="B356" s="42" t="s">
         <v>532</v>
       </c>
@@ -9591,7 +9591,7 @@
       <c r="G356" s="13"/>
     </row>
     <row r="357" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A357" s="129"/>
+      <c r="A357" s="106"/>
       <c r="B357" s="45"/>
       <c r="C357" s="4"/>
       <c r="D357" s="4"/>
@@ -9600,7 +9600,7 @@
       <c r="G357" s="13"/>
     </row>
     <row r="358" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A358" s="129"/>
+      <c r="A358" s="106"/>
       <c r="B358" s="45"/>
       <c r="C358" s="4"/>
       <c r="D358" s="4"/>
@@ -9609,7 +9609,7 @@
       <c r="G358" s="13"/>
     </row>
     <row r="359" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A359" s="129"/>
+      <c r="A359" s="106"/>
       <c r="B359" s="45"/>
       <c r="C359" s="4"/>
       <c r="D359" s="4"/>
@@ -9618,7 +9618,7 @@
       <c r="G359" s="13"/>
     </row>
     <row r="360" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A360" s="130"/>
+      <c r="A360" s="107"/>
       <c r="B360" s="42"/>
       <c r="C360" s="31"/>
       <c r="E360" s="31"/>
@@ -9626,7 +9626,7 @@
       <c r="G360" s="13"/>
     </row>
     <row r="361" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A361" s="122" t="s">
+      <c r="A361" s="99" t="s">
         <v>497</v>
       </c>
       <c r="B361" s="42" t="s">
@@ -9642,7 +9642,7 @@
       <c r="G361" s="18"/>
     </row>
     <row r="362" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A362" s="123"/>
+      <c r="A362" s="100"/>
       <c r="B362" s="42" t="s">
         <v>133</v>
       </c>
@@ -9656,7 +9656,7 @@
       <c r="G362" s="13"/>
     </row>
     <row r="363" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A363" s="123"/>
+      <c r="A363" s="100"/>
       <c r="B363" s="42" t="s">
         <v>265</v>
       </c>
@@ -9670,7 +9670,7 @@
       <c r="G363" s="13"/>
     </row>
     <row r="364" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A364" s="123"/>
+      <c r="A364" s="100"/>
       <c r="B364" s="42" t="s">
         <v>267</v>
       </c>
@@ -9684,7 +9684,7 @@
       <c r="G364" s="13"/>
     </row>
     <row r="365" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A365" s="123"/>
+      <c r="A365" s="100"/>
       <c r="B365" s="42" t="s">
         <v>343</v>
       </c>
@@ -9700,7 +9700,7 @@
       <c r="G365" s="13"/>
     </row>
     <row r="366" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A366" s="123"/>
+      <c r="A366" s="100"/>
       <c r="B366" s="42" t="s">
         <v>367</v>
       </c>
@@ -9714,7 +9714,7 @@
       <c r="G366" s="13"/>
     </row>
     <row r="367" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A367" s="123"/>
+      <c r="A367" s="100"/>
       <c r="B367" s="42" t="s">
         <v>375</v>
       </c>
@@ -9728,7 +9728,7 @@
       <c r="G367" s="13"/>
     </row>
     <row r="368" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A368" s="123"/>
+      <c r="A368" s="100"/>
       <c r="B368" s="35" t="s">
         <v>462</v>
       </c>
@@ -9745,7 +9745,7 @@
       <c r="G368" s="13"/>
     </row>
     <row r="369" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A369" s="123"/>
+      <c r="A369" s="100"/>
       <c r="B369" s="42" t="s">
         <v>505</v>
       </c>
@@ -9760,7 +9760,7 @@
       <c r="G369" s="13"/>
     </row>
     <row r="370" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A370" s="123"/>
+      <c r="A370" s="100"/>
       <c r="B370" s="42" t="s">
         <v>540</v>
       </c>
@@ -9775,7 +9775,7 @@
       <c r="G370" s="13"/>
     </row>
     <row r="371" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A371" s="123"/>
+      <c r="A371" s="100"/>
       <c r="B371" s="42" t="s">
         <v>695</v>
       </c>
@@ -9792,7 +9792,7 @@
       <c r="G371" s="13"/>
     </row>
     <row r="372" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A372" s="123"/>
+      <c r="A372" s="100"/>
       <c r="B372" s="42" t="s">
         <v>698</v>
       </c>
@@ -9807,7 +9807,7 @@
       <c r="G372" s="13"/>
     </row>
     <row r="373" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A373" s="123"/>
+      <c r="A373" s="100"/>
       <c r="B373" s="42" t="s">
         <v>716</v>
       </c>
@@ -9824,7 +9824,7 @@
       <c r="G373" s="13"/>
     </row>
     <row r="374" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A374" s="123"/>
+      <c r="A374" s="100"/>
       <c r="B374" s="31" t="s">
         <v>133</v>
       </c>
@@ -9839,7 +9839,7 @@
       <c r="G374" s="13"/>
     </row>
     <row r="375" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A375" s="123"/>
+      <c r="A375" s="100"/>
       <c r="B375" s="31" t="s">
         <v>841</v>
       </c>
@@ -9854,7 +9854,7 @@
       <c r="G375" s="13"/>
     </row>
     <row r="376" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A376" s="123"/>
+      <c r="A376" s="100"/>
       <c r="B376" s="39" t="s">
         <v>951</v>
       </c>
@@ -9869,7 +9869,7 @@
       <c r="G376" s="13"/>
     </row>
     <row r="377" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A377" s="123"/>
+      <c r="A377" s="100"/>
       <c r="B377" s="39" t="s">
         <v>964</v>
       </c>
@@ -9884,7 +9884,7 @@
       <c r="G377" s="13"/>
     </row>
     <row r="378" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A378" s="123"/>
+      <c r="A378" s="100"/>
       <c r="B378" s="31" t="s">
         <v>343</v>
       </c>
@@ -9899,7 +9899,7 @@
       <c r="G378" s="13"/>
     </row>
     <row r="379" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A379" s="123"/>
+      <c r="A379" s="100"/>
       <c r="B379" s="39"/>
       <c r="C379" s="39"/>
       <c r="D379" s="39"/>
@@ -9908,7 +9908,7 @@
       <c r="G379" s="13"/>
     </row>
     <row r="380" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A380" s="123"/>
+      <c r="A380" s="100"/>
       <c r="B380" s="39"/>
       <c r="C380" s="39"/>
       <c r="D380" s="39"/>
@@ -9917,7 +9917,7 @@
       <c r="G380" s="13"/>
     </row>
     <row r="381" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A381" s="123"/>
+      <c r="A381" s="100"/>
       <c r="B381" s="39"/>
       <c r="C381" s="39"/>
       <c r="D381" s="39"/>
@@ -9926,7 +9926,7 @@
       <c r="G381" s="13"/>
     </row>
     <row r="382" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A382" s="124"/>
+      <c r="A382" s="101"/>
       <c r="B382" s="42" t="s">
         <v>387</v>
       </c>
@@ -9940,7 +9940,7 @@
       <c r="G382" s="16"/>
     </row>
     <row r="383" spans="1:7" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A383" s="104" t="s">
+      <c r="A383" s="79" t="s">
         <v>406</v>
       </c>
       <c r="B383" s="42" t="s">
@@ -9956,7 +9956,7 @@
       <c r="G383" s="30"/>
     </row>
     <row r="384" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A384" s="105"/>
+      <c r="A384" s="80"/>
       <c r="B384" s="35" t="s">
         <v>434</v>
       </c>
@@ -9973,7 +9973,7 @@
       <c r="G384" s="23"/>
     </row>
     <row r="385" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A385" s="105"/>
+      <c r="A385" s="80"/>
       <c r="B385" s="42" t="s">
         <v>347</v>
       </c>
@@ -9987,7 +9987,7 @@
       <c r="G385" s="13"/>
     </row>
     <row r="386" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A386" s="105"/>
+      <c r="A386" s="80"/>
       <c r="B386" s="47" t="s">
         <v>369</v>
       </c>
@@ -10000,7 +10000,7 @@
       <c r="G386" s="13"/>
     </row>
     <row r="387" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A387" s="105"/>
+      <c r="A387" s="80"/>
       <c r="B387" s="42" t="s">
         <v>371</v>
       </c>
@@ -10014,7 +10014,7 @@
       <c r="G387" s="13"/>
     </row>
     <row r="388" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A388" s="105"/>
+      <c r="A388" s="80"/>
       <c r="B388" s="35" t="s">
         <v>394</v>
       </c>
@@ -10029,7 +10029,7 @@
       <c r="G388" s="13"/>
     </row>
     <row r="389" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A389" s="105"/>
+      <c r="A389" s="80"/>
       <c r="B389" s="42" t="s">
         <v>165</v>
       </c>
@@ -10043,7 +10043,7 @@
       <c r="G389" s="13"/>
     </row>
     <row r="390" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A390" s="105"/>
+      <c r="A390" s="80"/>
       <c r="B390" s="42" t="s">
         <v>71</v>
       </c>
@@ -10058,7 +10058,7 @@
       <c r="G390" s="13"/>
     </row>
     <row r="391" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A391" s="105"/>
+      <c r="A391" s="80"/>
       <c r="B391" s="42" t="s">
         <v>154</v>
       </c>
@@ -10072,7 +10072,7 @@
       <c r="G391" s="13"/>
     </row>
     <row r="392" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A392" s="105"/>
+      <c r="A392" s="80"/>
       <c r="B392" s="42" t="s">
         <v>181</v>
       </c>
@@ -10086,7 +10086,7 @@
       <c r="G392" s="13"/>
     </row>
     <row r="393" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A393" s="105"/>
+      <c r="A393" s="80"/>
       <c r="B393" s="42" t="s">
         <v>232</v>
       </c>
@@ -10100,7 +10100,7 @@
       <c r="G393" s="13"/>
     </row>
     <row r="394" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A394" s="105"/>
+      <c r="A394" s="80"/>
       <c r="B394" s="42" t="s">
         <v>514</v>
       </c>
@@ -10115,7 +10115,7 @@
       <c r="G394" s="13"/>
     </row>
     <row r="395" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A395" s="105"/>
+      <c r="A395" s="80"/>
       <c r="B395" s="42" t="s">
         <v>719</v>
       </c>
@@ -10129,7 +10129,7 @@
       <c r="G395" s="13"/>
     </row>
     <row r="396" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A396" s="105"/>
+      <c r="A396" s="80"/>
       <c r="B396" s="31" t="s">
         <v>821</v>
       </c>
@@ -10144,7 +10144,7 @@
       <c r="G396" s="13"/>
     </row>
     <row r="397" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A397" s="105"/>
+      <c r="A397" s="80"/>
       <c r="B397" s="39" t="s">
         <v>888</v>
       </c>
@@ -10159,7 +10159,7 @@
       <c r="G397" s="13"/>
     </row>
     <row r="398" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A398" s="105"/>
+      <c r="A398" s="80"/>
       <c r="B398" s="39" t="s">
         <v>906</v>
       </c>
@@ -10174,7 +10174,7 @@
       <c r="G398" s="13"/>
     </row>
     <row r="399" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A399" s="105"/>
+      <c r="A399" s="80"/>
       <c r="B399" s="35" t="s">
         <v>1132</v>
       </c>
@@ -10190,7 +10190,7 @@
       <c r="G399" s="13"/>
     </row>
     <row r="400" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A400" s="105"/>
+      <c r="A400" s="80"/>
       <c r="B400" s="35" t="s">
         <v>1136</v>
       </c>
@@ -10204,7 +10204,7 @@
       <c r="G400" s="13"/>
     </row>
     <row r="401" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A401" s="105"/>
+      <c r="A401" s="80"/>
       <c r="B401" s="39"/>
       <c r="C401" s="39"/>
       <c r="D401" s="39"/>
@@ -10213,7 +10213,7 @@
       <c r="G401" s="13"/>
     </row>
     <row r="402" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A402" s="105"/>
+      <c r="A402" s="80"/>
       <c r="B402" s="42"/>
       <c r="C402" s="31"/>
       <c r="D402" s="31"/>
@@ -10222,12 +10222,12 @@
       <c r="G402" s="13"/>
     </row>
     <row r="403" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A403" s="106"/>
+      <c r="A403" s="81"/>
       <c r="F403" s="19"/>
       <c r="G403" s="16"/>
     </row>
     <row r="404" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A404" s="113" t="s">
+      <c r="A404" s="88" t="s">
         <v>491</v>
       </c>
       <c r="B404" s="42" t="s">
@@ -10243,7 +10243,7 @@
       <c r="G404" s="12"/>
     </row>
     <row r="405" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A405" s="114"/>
+      <c r="A405" s="89"/>
       <c r="B405" s="42" t="s">
         <v>215</v>
       </c>
@@ -10257,7 +10257,7 @@
       <c r="G405" s="13"/>
     </row>
     <row r="406" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A406" s="114"/>
+      <c r="A406" s="89"/>
       <c r="B406" s="42" t="s">
         <v>283</v>
       </c>
@@ -10273,7 +10273,7 @@
       <c r="G406" s="13"/>
     </row>
     <row r="407" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A407" s="114"/>
+      <c r="A407" s="89"/>
       <c r="B407" s="42" t="s">
         <v>517</v>
       </c>
@@ -10288,7 +10288,7 @@
       <c r="G407" s="13"/>
     </row>
     <row r="408" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A408" s="114"/>
+      <c r="A408" s="89"/>
       <c r="B408" s="42" t="s">
         <v>546</v>
       </c>
@@ -10303,7 +10303,7 @@
       <c r="G408" s="13"/>
     </row>
     <row r="409" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A409" s="114"/>
+      <c r="A409" s="89"/>
       <c r="B409" s="42" t="s">
         <v>581</v>
       </c>
@@ -10318,7 +10318,7 @@
       <c r="G409" s="13"/>
     </row>
     <row r="410" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A410" s="114"/>
+      <c r="A410" s="89"/>
       <c r="B410" s="42" t="s">
         <v>608</v>
       </c>
@@ -10333,7 +10333,7 @@
       <c r="G410" s="13"/>
     </row>
     <row r="411" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A411" s="114"/>
+      <c r="A411" s="89"/>
       <c r="B411" s="42" t="s">
         <v>698</v>
       </c>
@@ -10348,7 +10348,7 @@
       <c r="G411" s="13"/>
     </row>
     <row r="412" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A412" s="114"/>
+      <c r="A412" s="89"/>
       <c r="B412" s="42" t="s">
         <v>713</v>
       </c>
@@ -10363,7 +10363,7 @@
       <c r="G412" s="13"/>
     </row>
     <row r="413" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A413" s="114"/>
+      <c r="A413" s="89"/>
       <c r="B413" s="42" t="s">
         <v>770</v>
       </c>
@@ -10377,7 +10377,7 @@
       <c r="G413" s="13"/>
     </row>
     <row r="414" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A414" s="114"/>
+      <c r="A414" s="89"/>
       <c r="B414" s="31" t="s">
         <v>924</v>
       </c>
@@ -10391,7 +10391,7 @@
       <c r="G414" s="13"/>
     </row>
     <row r="415" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A415" s="114"/>
+      <c r="A415" s="89"/>
       <c r="B415" s="39" t="s">
         <v>945</v>
       </c>
@@ -10405,7 +10405,7 @@
       <c r="G415" s="13"/>
     </row>
     <row r="416" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A416" s="114"/>
+      <c r="A416" s="89"/>
       <c r="B416" s="39" t="s">
         <v>242</v>
       </c>
@@ -10419,7 +10419,7 @@
       <c r="G416" s="13"/>
     </row>
     <row r="417" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A417" s="114"/>
+      <c r="A417" s="89"/>
       <c r="B417" s="42"/>
       <c r="C417" s="39"/>
       <c r="D417" s="39"/>
@@ -10427,7 +10427,7 @@
       <c r="G417" s="13"/>
     </row>
     <row r="418" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A418" s="114"/>
+      <c r="A418" s="89"/>
       <c r="B418" s="42"/>
       <c r="C418" s="39"/>
       <c r="D418" s="39"/>
@@ -10435,7 +10435,7 @@
       <c r="G418" s="13"/>
     </row>
     <row r="419" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A419" s="115"/>
+      <c r="A419" s="90"/>
       <c r="B419" s="50"/>
       <c r="C419" s="14"/>
       <c r="D419" s="14"/>
@@ -10444,7 +10444,7 @@
       <c r="G419" s="16"/>
     </row>
     <row r="420" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A420" s="125" t="s">
+      <c r="A420" s="102" t="s">
         <v>208</v>
       </c>
       <c r="B420" s="42" t="s">
@@ -10460,7 +10460,7 @@
       <c r="G420" s="12"/>
     </row>
     <row r="421" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A421" s="126"/>
+      <c r="A421" s="103"/>
       <c r="B421" s="42" t="s">
         <v>208</v>
       </c>
@@ -10474,7 +10474,7 @@
       <c r="G421" s="13"/>
     </row>
     <row r="422" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A422" s="126"/>
+      <c r="A422" s="103"/>
       <c r="B422" s="42" t="s">
         <v>279</v>
       </c>
@@ -10488,7 +10488,7 @@
       <c r="G422" s="13"/>
     </row>
     <row r="423" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A423" s="126"/>
+      <c r="A423" s="103"/>
       <c r="B423" s="42" t="s">
         <v>363</v>
       </c>
@@ -10502,7 +10502,7 @@
       <c r="G423" s="13"/>
     </row>
     <row r="424" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A424" s="126"/>
+      <c r="A424" s="103"/>
       <c r="B424" s="35" t="s">
         <v>451</v>
       </c>
@@ -10519,7 +10519,7 @@
       <c r="G424" s="13"/>
     </row>
     <row r="425" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A425" s="126"/>
+      <c r="A425" s="103"/>
       <c r="B425" s="42" t="s">
         <v>502</v>
       </c>
@@ -10534,7 +10534,7 @@
       <c r="G425" s="13"/>
     </row>
     <row r="426" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A426" s="126"/>
+      <c r="A426" s="103"/>
       <c r="B426" s="42" t="s">
         <v>511</v>
       </c>
@@ -10549,7 +10549,7 @@
       <c r="G426" s="13"/>
     </row>
     <row r="427" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A427" s="126"/>
+      <c r="A427" s="103"/>
       <c r="B427" s="42" t="s">
         <v>523</v>
       </c>
@@ -10564,7 +10564,7 @@
       <c r="G427" s="13"/>
     </row>
     <row r="428" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A428" s="126"/>
+      <c r="A428" s="103"/>
       <c r="B428" s="42" t="s">
         <v>560</v>
       </c>
@@ -10579,7 +10579,7 @@
       <c r="G428" s="13"/>
     </row>
     <row r="429" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A429" s="126"/>
+      <c r="A429" s="103"/>
       <c r="B429" s="42" t="s">
         <v>577</v>
       </c>
@@ -10596,7 +10596,7 @@
       <c r="G429" s="13"/>
     </row>
     <row r="430" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A430" s="126"/>
+      <c r="A430" s="103"/>
       <c r="B430" s="42" t="s">
         <v>630</v>
       </c>
@@ -10610,7 +10610,7 @@
       <c r="G430" s="13"/>
     </row>
     <row r="431" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A431" s="126"/>
+      <c r="A431" s="103"/>
       <c r="B431" s="42" t="s">
         <v>633</v>
       </c>
@@ -10627,7 +10627,7 @@
       <c r="G431" s="13"/>
     </row>
     <row r="432" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A432" s="126"/>
+      <c r="A432" s="103"/>
       <c r="B432" s="42" t="s">
         <v>689</v>
       </c>
@@ -10642,7 +10642,7 @@
       <c r="G432" s="13"/>
     </row>
     <row r="433" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A433" s="126"/>
+      <c r="A433" s="103"/>
       <c r="B433" s="42" t="s">
         <v>701</v>
       </c>
@@ -10657,7 +10657,7 @@
       <c r="G433" s="13"/>
     </row>
     <row r="434" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A434" s="126"/>
+      <c r="A434" s="103"/>
       <c r="B434" s="42" t="s">
         <v>683</v>
       </c>
@@ -10672,7 +10672,7 @@
       <c r="G434" s="13"/>
     </row>
     <row r="435" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A435" s="126"/>
+      <c r="A435" s="103"/>
       <c r="B435" s="42" t="s">
         <v>756</v>
       </c>
@@ -10687,7 +10687,7 @@
       <c r="G435" s="13"/>
     </row>
     <row r="436" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A436" s="126"/>
+      <c r="A436" s="103"/>
       <c r="B436" s="31" t="s">
         <v>874</v>
       </c>
@@ -10702,7 +10702,7 @@
       <c r="G436" s="13"/>
     </row>
     <row r="437" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A437" s="126"/>
+      <c r="A437" s="103"/>
       <c r="B437" s="39" t="s">
         <v>187</v>
       </c>
@@ -10717,7 +10717,7 @@
       <c r="G437" s="13"/>
     </row>
     <row r="438" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A438" s="126"/>
+      <c r="A438" s="103"/>
       <c r="B438" s="31" t="s">
         <v>279</v>
       </c>
@@ -10732,7 +10732,7 @@
       <c r="G438" s="13"/>
     </row>
     <row r="439" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A439" s="126"/>
+      <c r="A439" s="103"/>
       <c r="B439" s="31"/>
       <c r="C439" s="31"/>
       <c r="D439" s="31"/>
@@ -10741,7 +10741,7 @@
       <c r="G439" s="13"/>
     </row>
     <row r="440" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A440" s="126"/>
+      <c r="A440" s="103"/>
       <c r="B440" s="42"/>
       <c r="C440" s="31"/>
       <c r="D440" s="31"/>
@@ -10750,7 +10750,7 @@
       <c r="G440" s="13"/>
     </row>
     <row r="441" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A441" s="127"/>
+      <c r="A441" s="104"/>
       <c r="B441" s="31"/>
       <c r="C441" s="31"/>
       <c r="D441" s="31"/>
@@ -10759,7 +10759,7 @@
       <c r="G441" s="16"/>
     </row>
     <row r="442" spans="1:7" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A442" s="95" t="s">
+      <c r="A442" s="70" t="s">
         <v>10</v>
       </c>
       <c r="B442" s="51" t="s">
@@ -10780,7 +10780,7 @@
       </c>
     </row>
     <row r="443" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A443" s="96"/>
+      <c r="A443" s="71"/>
       <c r="B443" s="35" t="s">
         <v>16</v>
       </c>
@@ -10795,7 +10795,7 @@
       <c r="G443" s="13"/>
     </row>
     <row r="444" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A444" s="96"/>
+      <c r="A444" s="71"/>
       <c r="B444" s="35" t="s">
         <v>19</v>
       </c>
@@ -10810,7 +10810,7 @@
       <c r="G444" s="13"/>
     </row>
     <row r="445" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A445" s="96"/>
+      <c r="A445" s="71"/>
       <c r="B445" s="35" t="s">
         <v>22</v>
       </c>
@@ -10825,7 +10825,7 @@
       <c r="G445" s="13"/>
     </row>
     <row r="446" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A446" s="96"/>
+      <c r="A446" s="71"/>
       <c r="B446" s="35" t="s">
         <v>25</v>
       </c>
@@ -10840,7 +10840,7 @@
       <c r="G446" s="13"/>
     </row>
     <row r="447" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A447" s="96"/>
+      <c r="A447" s="71"/>
       <c r="B447" s="35" t="s">
         <v>28</v>
       </c>
@@ -10855,7 +10855,7 @@
       <c r="G447" s="13"/>
     </row>
     <row r="448" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A448" s="96"/>
+      <c r="A448" s="71"/>
       <c r="B448" s="35" t="s">
         <v>31</v>
       </c>
@@ -10870,7 +10870,7 @@
       <c r="G448" s="13"/>
     </row>
     <row r="449" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A449" s="96"/>
+      <c r="A449" s="71"/>
       <c r="B449" s="35" t="s">
         <v>34</v>
       </c>
@@ -10885,7 +10885,7 @@
       <c r="G449" s="13"/>
     </row>
     <row r="450" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A450" s="96"/>
+      <c r="A450" s="71"/>
       <c r="B450" s="35" t="s">
         <v>486</v>
       </c>
@@ -10902,7 +10902,7 @@
       <c r="G450" s="13"/>
     </row>
     <row r="451" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A451" s="96"/>
+      <c r="A451" s="71"/>
       <c r="B451" s="42" t="s">
         <v>349</v>
       </c>
@@ -10916,7 +10916,7 @@
       <c r="G451" s="13"/>
     </row>
     <row r="452" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A452" s="96"/>
+      <c r="A452" s="71"/>
       <c r="B452" s="42" t="s">
         <v>611</v>
       </c>
@@ -10933,7 +10933,7 @@
       <c r="G452" s="13"/>
     </row>
     <row r="453" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A453" s="96"/>
+      <c r="A453" s="71"/>
       <c r="B453" s="42" t="s">
         <v>615</v>
       </c>
@@ -10947,7 +10947,7 @@
       <c r="G453" s="13"/>
     </row>
     <row r="454" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A454" s="96"/>
+      <c r="A454" s="71"/>
       <c r="B454" s="42" t="s">
         <v>773</v>
       </c>
@@ -10962,7 +10962,7 @@
       <c r="G454" s="13"/>
     </row>
     <row r="455" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A455" s="96"/>
+      <c r="A455" s="71"/>
       <c r="B455" s="39" t="s">
         <v>958</v>
       </c>
@@ -10977,7 +10977,7 @@
       <c r="G455" s="13"/>
     </row>
     <row r="456" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A456" s="96"/>
+      <c r="A456" s="71"/>
       <c r="B456" s="31" t="s">
         <v>1007</v>
       </c>
@@ -10992,7 +10992,7 @@
       <c r="G456" s="13"/>
     </row>
     <row r="457" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A457" s="96"/>
+      <c r="A457" s="71"/>
       <c r="B457" s="31" t="s">
         <v>1010</v>
       </c>
@@ -11007,7 +11007,7 @@
       <c r="G457" s="13"/>
     </row>
     <row r="458" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A458" s="96"/>
+      <c r="A458" s="71"/>
       <c r="B458" s="34" t="s">
         <v>945</v>
       </c>
@@ -11026,7 +11026,7 @@
       <c r="G458" s="13"/>
     </row>
     <row r="459" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A459" s="96"/>
+      <c r="A459" s="71"/>
       <c r="B459" s="34" t="s">
         <v>1079</v>
       </c>
@@ -11045,7 +11045,7 @@
       <c r="G459" s="13"/>
     </row>
     <row r="460" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A460" s="96"/>
+      <c r="A460" s="71"/>
       <c r="B460" s="34" t="s">
         <v>1082</v>
       </c>
@@ -11063,8 +11063,8 @@
       </c>
       <c r="G460" s="13"/>
     </row>
-    <row r="461" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A461" s="96"/>
+    <row r="461" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A461" s="71"/>
       <c r="B461" s="34" t="s">
         <v>1088</v>
       </c>
@@ -11083,7 +11083,7 @@
       <c r="G461" s="13"/>
     </row>
     <row r="462" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A462" s="96"/>
+      <c r="A462" s="71"/>
       <c r="B462" s="55" t="s">
         <v>1091</v>
       </c>
@@ -11100,7 +11100,7 @@
       <c r="G462" s="13"/>
     </row>
     <row r="463" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A463" s="96"/>
+      <c r="A463" s="71"/>
       <c r="B463" s="35" t="s">
         <v>1101</v>
       </c>
@@ -11119,7 +11119,7 @@
       <c r="G463" s="13"/>
     </row>
     <row r="464" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A464" s="96"/>
+      <c r="A464" s="71"/>
       <c r="B464" s="35" t="s">
         <v>1106</v>
       </c>
@@ -11138,7 +11138,7 @@
       <c r="G464" s="13"/>
     </row>
     <row r="465" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A465" s="96"/>
+      <c r="A465" s="71"/>
       <c r="B465" s="35" t="s">
         <v>1109</v>
       </c>
@@ -11157,7 +11157,7 @@
       <c r="G465" s="13"/>
     </row>
     <row r="466" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A466" s="96"/>
+      <c r="A466" s="71"/>
       <c r="B466" s="35" t="s">
         <v>1112</v>
       </c>
@@ -11176,7 +11176,7 @@
       <c r="G466" s="13"/>
     </row>
     <row r="467" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A467" s="96"/>
+      <c r="A467" s="71"/>
       <c r="B467" s="35" t="s">
         <v>1116</v>
       </c>
@@ -11195,7 +11195,7 @@
       <c r="G467" s="13"/>
     </row>
     <row r="468" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A468" s="96"/>
+      <c r="A468" s="71"/>
       <c r="B468" s="35" t="s">
         <v>1120</v>
       </c>
@@ -11214,7 +11214,7 @@
       <c r="G468" s="13"/>
     </row>
     <row r="469" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A469" s="96"/>
+      <c r="A469" s="71"/>
       <c r="B469" s="35" t="s">
         <v>1120</v>
       </c>
@@ -11233,7 +11233,7 @@
       <c r="G469" s="13"/>
     </row>
     <row r="470" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A470" s="96"/>
+      <c r="A470" s="71"/>
       <c r="B470" s="35" t="s">
         <v>1125</v>
       </c>
@@ -11252,7 +11252,7 @@
       <c r="G470" s="13"/>
     </row>
     <row r="471" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A471" s="96"/>
+      <c r="A471" s="71"/>
       <c r="B471" s="35"/>
       <c r="C471" s="35"/>
       <c r="D471" s="64"/>
@@ -11261,7 +11261,7 @@
       <c r="G471" s="13"/>
     </row>
     <row r="472" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A472" s="96"/>
+      <c r="A472" s="71"/>
       <c r="B472" s="35"/>
       <c r="C472" s="35"/>
       <c r="D472" s="64"/>
@@ -11270,7 +11270,7 @@
       <c r="G472" s="13"/>
     </row>
     <row r="473" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A473" s="96"/>
+      <c r="A473" s="71"/>
       <c r="B473" s="35"/>
       <c r="C473" s="35"/>
       <c r="D473" s="64"/>
@@ -11279,7 +11279,7 @@
       <c r="G473" s="13"/>
     </row>
     <row r="474" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A474" s="96"/>
+      <c r="A474" s="71"/>
       <c r="B474" s="35"/>
       <c r="C474" s="35"/>
       <c r="D474" s="64"/>
@@ -11288,7 +11288,7 @@
       <c r="G474" s="13"/>
     </row>
     <row r="475" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A475" s="97"/>
+      <c r="A475" s="72"/>
       <c r="B475" s="52"/>
       <c r="C475" s="19"/>
       <c r="D475" s="25"/>
@@ -14240,6 +14240,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A281:A288"/>
+    <mergeCell ref="A164:A217"/>
+    <mergeCell ref="A289:A313"/>
+    <mergeCell ref="A120:A136"/>
+    <mergeCell ref="A137:A140"/>
+    <mergeCell ref="A233:A238"/>
+    <mergeCell ref="A255:A280"/>
+    <mergeCell ref="A218:A221"/>
     <mergeCell ref="A3:A99"/>
     <mergeCell ref="A141:A163"/>
     <mergeCell ref="A442:A475"/>
@@ -14256,14 +14264,6 @@
     <mergeCell ref="A420:A441"/>
     <mergeCell ref="A354:A360"/>
     <mergeCell ref="A326:A333"/>
-    <mergeCell ref="A281:A288"/>
-    <mergeCell ref="A164:A217"/>
-    <mergeCell ref="A289:A313"/>
-    <mergeCell ref="A120:A136"/>
-    <mergeCell ref="A137:A140"/>
-    <mergeCell ref="A233:A238"/>
-    <mergeCell ref="A255:A280"/>
-    <mergeCell ref="A218:A221"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/xcom_perks/compiled_perks.xlsx
+++ b/docs/xcom_perks/compiled_perks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\xcom2_my_tweaks\docs\xcom_perks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C869ACD-4C22-4C15-8268-2884CB842867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B368D077-85B7-433F-84EB-55AAD57C3A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19092" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabellenblatt1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="1181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="1181">
   <si>
     <t>Localized Name</t>
   </si>
@@ -4283,6 +4283,47 @@
     <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="40" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4329,10 +4370,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4358,43 +4395,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="34" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="34" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="40" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4616,14 +4616,14 @@
   <dimension ref="A1:AA1455"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C131" sqref="C131"/>
+      <pane ySplit="2" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="43" customWidth="1"/>
+    <col min="2" max="2" width="27" style="43" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.28515625" customWidth="1"/>
     <col min="5" max="5" width="154.7109375" customWidth="1"/>
@@ -4690,7 +4690,7 @@
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="65"/>
+      <c r="A3" s="90"/>
       <c r="B3" s="42" t="s">
         <v>79</v>
       </c>
@@ -4705,7 +4705,7 @@
       <c r="G3" s="20"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="65"/>
+      <c r="A4" s="90"/>
       <c r="B4" s="42" t="s">
         <v>102</v>
       </c>
@@ -4719,7 +4719,7 @@
       <c r="G4" s="20"/>
     </row>
     <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="65"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="42" t="s">
         <v>114</v>
       </c>
@@ -4732,7 +4732,7 @@
       <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="65"/>
+      <c r="A6" s="90"/>
       <c r="B6" s="42" t="s">
         <v>141</v>
       </c>
@@ -4745,7 +4745,7 @@
       <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="65"/>
+      <c r="A7" s="90"/>
       <c r="B7" s="42" t="s">
         <v>156</v>
       </c>
@@ -4758,7 +4758,7 @@
       <c r="G7" s="20"/>
     </row>
     <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="65"/>
+      <c r="A8" s="90"/>
       <c r="B8" s="42" t="s">
         <v>158</v>
       </c>
@@ -4771,7 +4771,7 @@
       <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="65"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="42" t="s">
         <v>160</v>
       </c>
@@ -4784,7 +4784,7 @@
       <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="65"/>
+      <c r="A10" s="90"/>
       <c r="B10" s="42" t="s">
         <v>177</v>
       </c>
@@ -4797,7 +4797,7 @@
       <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="65"/>
+      <c r="A11" s="90"/>
       <c r="B11" s="42" t="s">
         <v>192</v>
       </c>
@@ -4810,7 +4810,7 @@
       <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="65"/>
+      <c r="A12" s="90"/>
       <c r="B12" s="42" t="s">
         <v>204</v>
       </c>
@@ -4823,7 +4823,7 @@
       <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="65"/>
+      <c r="A13" s="90"/>
       <c r="B13" s="42" t="s">
         <v>210</v>
       </c>
@@ -4838,7 +4838,7 @@
       </c>
     </row>
     <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="65"/>
+      <c r="A14" s="90"/>
       <c r="B14" s="42" t="s">
         <v>213</v>
       </c>
@@ -4850,7 +4850,7 @@
       </c>
     </row>
     <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="65"/>
+      <c r="A15" s="90"/>
       <c r="B15" s="42" t="s">
         <v>219</v>
       </c>
@@ -4862,7 +4862,7 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="65"/>
+      <c r="A16" s="90"/>
       <c r="B16" s="42" t="s">
         <v>230</v>
       </c>
@@ -4874,7 +4874,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="65"/>
+      <c r="A17" s="90"/>
       <c r="B17" s="42" t="s">
         <v>236</v>
       </c>
@@ -4889,7 +4889,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="65"/>
+      <c r="A18" s="90"/>
       <c r="B18" s="42" t="s">
         <v>244</v>
       </c>
@@ -4901,7 +4901,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="65"/>
+      <c r="A19" s="90"/>
       <c r="B19" s="42" t="s">
         <v>257</v>
       </c>
@@ -4913,7 +4913,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="65"/>
+      <c r="A20" s="90"/>
       <c r="B20" s="42" t="s">
         <v>259</v>
       </c>
@@ -4925,7 +4925,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="65"/>
+      <c r="A21" s="90"/>
       <c r="B21" s="42" t="s">
         <v>277</v>
       </c>
@@ -4937,7 +4937,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="65"/>
+      <c r="A22" s="90"/>
       <c r="B22" s="42" t="s">
         <v>287</v>
       </c>
@@ -4949,7 +4949,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="65"/>
+      <c r="A23" s="90"/>
       <c r="B23" s="42" t="s">
         <v>314</v>
       </c>
@@ -4961,7 +4961,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="65"/>
+      <c r="A24" s="90"/>
       <c r="B24" s="42" t="s">
         <v>320</v>
       </c>
@@ -4973,7 +4973,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="65"/>
+      <c r="A25" s="90"/>
       <c r="B25" s="42" t="s">
         <v>326</v>
       </c>
@@ -4985,7 +4985,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="65"/>
+      <c r="A26" s="90"/>
       <c r="B26" s="42" t="s">
         <v>341</v>
       </c>
@@ -4997,7 +4997,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="65"/>
+      <c r="A27" s="90"/>
       <c r="B27" s="42" t="s">
         <v>345</v>
       </c>
@@ -5009,7 +5009,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="65"/>
+      <c r="A28" s="90"/>
       <c r="B28" s="42" t="s">
         <v>365</v>
       </c>
@@ -5021,7 +5021,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="65"/>
+      <c r="A29" s="90"/>
       <c r="B29" s="42" t="s">
         <v>385</v>
       </c>
@@ -5033,7 +5033,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="65"/>
+      <c r="A30" s="90"/>
       <c r="B30" s="35" t="s">
         <v>158</v>
       </c>
@@ -5049,7 +5049,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="65"/>
+      <c r="A31" s="90"/>
       <c r="B31" s="35" t="s">
         <v>416</v>
       </c>
@@ -5062,7 +5062,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="65"/>
+      <c r="A32" s="90"/>
       <c r="B32" s="35" t="s">
         <v>419</v>
       </c>
@@ -5078,7 +5078,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="65"/>
+      <c r="A33" s="90"/>
       <c r="B33" s="35" t="s">
         <v>430</v>
       </c>
@@ -5096,7 +5096,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="65"/>
+      <c r="A34" s="90"/>
       <c r="B34" s="35" t="s">
         <v>454</v>
       </c>
@@ -5114,7 +5114,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="65"/>
+      <c r="A35" s="90"/>
       <c r="B35" s="35" t="s">
         <v>458</v>
       </c>
@@ -5130,7 +5130,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="65"/>
+      <c r="A36" s="90"/>
       <c r="B36" s="35" t="s">
         <v>466</v>
       </c>
@@ -5143,7 +5143,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="65"/>
+      <c r="A37" s="90"/>
       <c r="B37" s="42" t="s">
         <v>508</v>
       </c>
@@ -5156,7 +5156,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="65"/>
+      <c r="A38" s="90"/>
       <c r="B38" s="42" t="s">
         <v>520</v>
       </c>
@@ -5169,7 +5169,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="65"/>
+      <c r="A39" s="90"/>
       <c r="B39" s="42" t="s">
         <v>535</v>
       </c>
@@ -5182,7 +5182,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="65"/>
+      <c r="A40" s="90"/>
       <c r="B40" s="42" t="s">
         <v>543</v>
       </c>
@@ -5195,7 +5195,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="65"/>
+      <c r="A41" s="90"/>
       <c r="B41" s="42" t="s">
         <v>555</v>
       </c>
@@ -5208,7 +5208,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="65"/>
+      <c r="A42" s="90"/>
       <c r="B42" s="42" t="s">
         <v>141</v>
       </c>
@@ -5221,7 +5221,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="65"/>
+      <c r="A43" s="90"/>
       <c r="B43" s="42" t="s">
         <v>574</v>
       </c>
@@ -5234,7 +5234,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="65"/>
+      <c r="A44" s="90"/>
       <c r="B44" s="42" t="s">
         <v>591</v>
       </c>
@@ -5247,7 +5247,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="65"/>
+      <c r="A45" s="90"/>
       <c r="B45" s="42" t="s">
         <v>594</v>
       </c>
@@ -5263,7 +5263,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="65"/>
+      <c r="A46" s="90"/>
       <c r="B46" s="42" t="s">
         <v>598</v>
       </c>
@@ -5276,7 +5276,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="65"/>
+      <c r="A47" s="90"/>
       <c r="B47" s="42" t="s">
         <v>605</v>
       </c>
@@ -5289,7 +5289,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="65"/>
+      <c r="A48" s="90"/>
       <c r="B48" s="42" t="s">
         <v>618</v>
       </c>
@@ -5302,7 +5302,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="65"/>
+      <c r="A49" s="90"/>
       <c r="B49" s="42" t="s">
         <v>621</v>
       </c>
@@ -5315,7 +5315,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="65"/>
+      <c r="A50" s="90"/>
       <c r="B50" s="42" t="s">
         <v>627</v>
       </c>
@@ -5328,7 +5328,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="65"/>
+      <c r="A51" s="90"/>
       <c r="B51" s="42" t="s">
         <v>637</v>
       </c>
@@ -5341,7 +5341,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="65"/>
+      <c r="A52" s="90"/>
       <c r="B52" s="42" t="s">
         <v>640</v>
       </c>
@@ -5354,7 +5354,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="65"/>
+      <c r="A53" s="90"/>
       <c r="B53" s="42" t="s">
         <v>643</v>
       </c>
@@ -5367,7 +5367,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="65"/>
+      <c r="A54" s="90"/>
       <c r="B54" s="42" t="s">
         <v>646</v>
       </c>
@@ -5380,7 +5380,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="65"/>
+      <c r="A55" s="90"/>
       <c r="B55" s="42" t="s">
         <v>649</v>
       </c>
@@ -5393,7 +5393,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="65"/>
+      <c r="A56" s="90"/>
       <c r="B56" s="42" t="s">
         <v>652</v>
       </c>
@@ -5406,7 +5406,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="65"/>
+      <c r="A57" s="90"/>
       <c r="B57" s="42" t="s">
         <v>655</v>
       </c>
@@ -5419,7 +5419,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="65"/>
+      <c r="A58" s="90"/>
       <c r="B58" s="42" t="s">
         <v>658</v>
       </c>
@@ -5432,7 +5432,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="65"/>
+      <c r="A59" s="90"/>
       <c r="B59" s="42" t="s">
         <v>661</v>
       </c>
@@ -5445,7 +5445,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="65"/>
+      <c r="A60" s="90"/>
       <c r="B60" s="42" t="s">
         <v>275</v>
       </c>
@@ -5458,7 +5458,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="65"/>
+      <c r="A61" s="90"/>
       <c r="B61" s="42" t="s">
         <v>665</v>
       </c>
@@ -5471,7 +5471,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="65"/>
+      <c r="A62" s="90"/>
       <c r="B62" s="42" t="s">
         <v>668</v>
       </c>
@@ -5485,7 +5485,7 @@
       <c r="F62" s="31"/>
     </row>
     <row r="63" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="65"/>
+      <c r="A63" s="90"/>
       <c r="B63" s="42" t="s">
         <v>671</v>
       </c>
@@ -5499,7 +5499,7 @@
       <c r="F63" s="31"/>
     </row>
     <row r="64" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="65"/>
+      <c r="A64" s="90"/>
       <c r="B64" s="42" t="s">
         <v>686</v>
       </c>
@@ -5512,7 +5512,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="65"/>
+      <c r="A65" s="90"/>
       <c r="B65" s="42" t="s">
         <v>704</v>
       </c>
@@ -5525,7 +5525,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="65"/>
+      <c r="A66" s="90"/>
       <c r="B66" s="42" t="s">
         <v>722</v>
       </c>
@@ -5539,7 +5539,7 @@
       <c r="F66" s="31"/>
     </row>
     <row r="67" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="65"/>
+      <c r="A67" s="90"/>
       <c r="B67" s="42" t="s">
         <v>728</v>
       </c>
@@ -5553,7 +5553,7 @@
       <c r="F67" s="31"/>
     </row>
     <row r="68" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="65"/>
+      <c r="A68" s="90"/>
       <c r="B68" s="42" t="s">
         <v>734</v>
       </c>
@@ -5566,7 +5566,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="65"/>
+      <c r="A69" s="90"/>
       <c r="B69" s="42" t="s">
         <v>740</v>
       </c>
@@ -5579,7 +5579,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="65"/>
+      <c r="A70" s="90"/>
       <c r="B70" s="42" t="s">
         <v>743</v>
       </c>
@@ -5592,7 +5592,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="65"/>
+      <c r="A71" s="90"/>
       <c r="B71" s="42" t="s">
         <v>752</v>
       </c>
@@ -5608,7 +5608,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="65"/>
+      <c r="A72" s="90"/>
       <c r="B72" s="42" t="s">
         <v>761</v>
       </c>
@@ -5621,7 +5621,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="65"/>
+      <c r="A73" s="90"/>
       <c r="B73" s="42" t="s">
         <v>767</v>
       </c>
@@ -5634,7 +5634,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="65"/>
+      <c r="A74" s="90"/>
       <c r="B74" s="42" t="s">
         <v>779</v>
       </c>
@@ -5647,7 +5647,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="65"/>
+      <c r="A75" s="90"/>
       <c r="B75" s="42" t="s">
         <v>788</v>
       </c>
@@ -5660,7 +5660,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="65"/>
+      <c r="A76" s="90"/>
       <c r="B76" s="42" t="s">
         <v>791</v>
       </c>
@@ -5673,7 +5673,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A77" s="65"/>
+      <c r="A77" s="90"/>
       <c r="B77" s="31" t="s">
         <v>809</v>
       </c>
@@ -5686,7 +5686,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A78" s="65"/>
+      <c r="A78" s="90"/>
       <c r="B78" s="31" t="s">
         <v>827</v>
       </c>
@@ -5699,7 +5699,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="65"/>
+      <c r="A79" s="90"/>
       <c r="B79" s="31" t="s">
         <v>830</v>
       </c>
@@ -5712,7 +5712,7 @@
       </c>
     </row>
     <row r="80" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="65"/>
+      <c r="A80" s="90"/>
       <c r="B80" s="31" t="s">
         <v>850</v>
       </c>
@@ -5725,7 +5725,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A81" s="65"/>
+      <c r="A81" s="90"/>
       <c r="B81" s="31" t="s">
         <v>853</v>
       </c>
@@ -5738,7 +5738,7 @@
       </c>
     </row>
     <row r="82" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A82" s="65"/>
+      <c r="A82" s="90"/>
       <c r="B82" s="31" t="s">
         <v>871</v>
       </c>
@@ -5751,7 +5751,7 @@
       </c>
     </row>
     <row r="83" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="65"/>
+      <c r="A83" s="90"/>
       <c r="B83" s="39" t="s">
         <v>891</v>
       </c>
@@ -5764,7 +5764,7 @@
       </c>
     </row>
     <row r="84" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="65"/>
+      <c r="A84" s="90"/>
       <c r="B84" s="39" t="s">
         <v>897</v>
       </c>
@@ -5777,7 +5777,7 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A85" s="65"/>
+      <c r="A85" s="90"/>
       <c r="B85" s="31" t="s">
         <v>912</v>
       </c>
@@ -5790,7 +5790,7 @@
       </c>
     </row>
     <row r="86" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A86" s="65"/>
+      <c r="A86" s="90"/>
       <c r="B86" s="31" t="s">
         <v>915</v>
       </c>
@@ -5803,7 +5803,7 @@
       </c>
     </row>
     <row r="87" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="65"/>
+      <c r="A87" s="90"/>
       <c r="B87" s="31" t="s">
         <v>933</v>
       </c>
@@ -5816,7 +5816,7 @@
       </c>
     </row>
     <row r="88" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A88" s="65"/>
+      <c r="A88" s="90"/>
       <c r="B88" s="31" t="s">
         <v>936</v>
       </c>
@@ -5829,7 +5829,7 @@
       </c>
     </row>
     <row r="89" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="65"/>
+      <c r="A89" s="90"/>
       <c r="B89" s="31" t="s">
         <v>939</v>
       </c>
@@ -5842,7 +5842,7 @@
       </c>
     </row>
     <row r="90" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="65"/>
+      <c r="A90" s="90"/>
       <c r="B90" s="39" t="s">
         <v>948</v>
       </c>
@@ -5855,7 +5855,7 @@
       </c>
     </row>
     <row r="91" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="65"/>
+      <c r="A91" s="90"/>
       <c r="B91" s="39" t="s">
         <v>236</v>
       </c>
@@ -5868,7 +5868,7 @@
       </c>
     </row>
     <row r="92" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A92" s="65"/>
+      <c r="A92" s="90"/>
       <c r="B92" s="31" t="s">
         <v>999</v>
       </c>
@@ -5881,7 +5881,7 @@
       </c>
     </row>
     <row r="93" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A93" s="65"/>
+      <c r="A93" s="90"/>
       <c r="B93" s="31" t="s">
         <v>1013</v>
       </c>
@@ -5894,7 +5894,7 @@
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="65"/>
+      <c r="A94" s="90"/>
       <c r="B94" s="31" t="s">
         <v>1016</v>
       </c>
@@ -5907,7 +5907,7 @@
       </c>
     </row>
     <row r="95" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="65"/>
+      <c r="A95" s="90"/>
       <c r="B95" s="31" t="s">
         <v>1025</v>
       </c>
@@ -5920,7 +5920,7 @@
       </c>
     </row>
     <row r="96" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A96" s="65"/>
+      <c r="A96" s="90"/>
       <c r="B96" s="31" t="s">
         <v>1028</v>
       </c>
@@ -5933,7 +5933,7 @@
       </c>
     </row>
     <row r="97" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A97" s="65"/>
+      <c r="A97" s="90"/>
       <c r="B97" s="31" t="s">
         <v>1040</v>
       </c>
@@ -5946,7 +5946,7 @@
       </c>
     </row>
     <row r="98" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="65"/>
+      <c r="A98" s="90"/>
       <c r="B98" s="31" t="s">
         <v>756</v>
       </c>
@@ -5959,7 +5959,7 @@
       </c>
     </row>
     <row r="99" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="66"/>
+      <c r="A99" s="91"/>
       <c r="B99" s="34" t="s">
         <v>1085</v>
       </c>
@@ -6140,7 +6140,7 @@
       <c r="G111" s="18"/>
     </row>
     <row r="112" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="73" t="s">
+      <c r="A112" s="98" t="s">
         <v>37</v>
       </c>
       <c r="B112" s="44" t="s">
@@ -6159,7 +6159,7 @@
       <c r="G112" s="13"/>
     </row>
     <row r="113" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="73"/>
+      <c r="A113" s="98"/>
       <c r="B113" s="45"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
@@ -6168,7 +6168,7 @@
       <c r="G113" s="13"/>
     </row>
     <row r="114" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="74"/>
+      <c r="A114" s="99"/>
       <c r="B114" s="45" t="s">
         <v>41</v>
       </c>
@@ -6183,7 +6183,7 @@
       <c r="G114" s="13"/>
     </row>
     <row r="115" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="75"/>
+      <c r="A115" s="100"/>
       <c r="B115" s="46" t="s">
         <v>44</v>
       </c>
@@ -6200,7 +6200,7 @@
       </c>
     </row>
     <row r="116" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="94" t="s">
+      <c r="A116" s="117" t="s">
         <v>494</v>
       </c>
       <c r="B116" s="42" t="s">
@@ -6216,7 +6216,7 @@
       <c r="G116" s="13"/>
     </row>
     <row r="117" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="94"/>
+      <c r="A117" s="117"/>
       <c r="B117" s="45"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
@@ -6225,7 +6225,7 @@
       <c r="G117" s="13"/>
     </row>
     <row r="118" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="95"/>
+      <c r="A118" s="118"/>
       <c r="B118" s="45"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
@@ -6234,7 +6234,7 @@
       <c r="G118" s="13"/>
     </row>
     <row r="119" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="96"/>
+      <c r="A119" s="119"/>
       <c r="B119" s="46"/>
       <c r="C119" s="32"/>
       <c r="D119" s="32"/>
@@ -6245,7 +6245,7 @@
       </c>
     </row>
     <row r="120" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="115" t="s">
+      <c r="A120" s="74" t="s">
         <v>496</v>
       </c>
       <c r="B120" s="42" t="s">
@@ -6261,7 +6261,7 @@
       <c r="G120" s="13"/>
     </row>
     <row r="121" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A121" s="115"/>
+      <c r="A121" s="74"/>
       <c r="B121" s="42" t="s">
         <v>118</v>
       </c>
@@ -6275,7 +6275,7 @@
       <c r="G121" s="13"/>
     </row>
     <row r="122" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A122" s="116"/>
+      <c r="A122" s="75"/>
       <c r="B122" s="42" t="s">
         <v>152</v>
       </c>
@@ -6289,7 +6289,7 @@
       <c r="G122" s="13"/>
     </row>
     <row r="123" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A123" s="117"/>
+      <c r="A123" s="76"/>
       <c r="B123" s="42" t="s">
         <v>234</v>
       </c>
@@ -6303,7 +6303,7 @@
       <c r="G123" s="18"/>
     </row>
     <row r="124" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A124" s="112"/>
+      <c r="A124" s="71"/>
       <c r="B124" s="42" t="s">
         <v>246</v>
       </c>
@@ -6317,7 +6317,7 @@
       <c r="G124" s="13"/>
     </row>
     <row r="125" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A125" s="112"/>
+      <c r="A125" s="71"/>
       <c r="B125" s="42" t="s">
         <v>601</v>
       </c>
@@ -6332,7 +6332,7 @@
       <c r="G125" s="13"/>
     </row>
     <row r="126" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A126" s="112"/>
+      <c r="A126" s="71"/>
       <c r="B126" s="42" t="s">
         <v>794</v>
       </c>
@@ -6349,7 +6349,7 @@
       <c r="G126" s="13"/>
     </row>
     <row r="127" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A127" s="112"/>
+      <c r="A127" s="71"/>
       <c r="B127" s="42" t="s">
         <v>800</v>
       </c>
@@ -6364,7 +6364,7 @@
       <c r="G127" s="13"/>
     </row>
     <row r="128" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A128" s="112"/>
+      <c r="A128" s="71"/>
       <c r="B128" s="31" t="s">
         <v>856</v>
       </c>
@@ -6379,7 +6379,7 @@
       <c r="G128" s="13"/>
     </row>
     <row r="129" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A129" s="112"/>
+      <c r="A129" s="71"/>
       <c r="B129" s="39" t="s">
         <v>906</v>
       </c>
@@ -6394,7 +6394,7 @@
       <c r="G129" s="13"/>
     </row>
     <row r="130" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A130" s="112"/>
+      <c r="A130" s="71"/>
       <c r="B130" s="39" t="s">
         <v>909</v>
       </c>
@@ -6409,7 +6409,7 @@
       <c r="G130" s="13"/>
     </row>
     <row r="131" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A131" s="112"/>
+      <c r="A131" s="71"/>
       <c r="B131" s="31" t="s">
         <v>930</v>
       </c>
@@ -6424,7 +6424,7 @@
       <c r="G131" s="13"/>
     </row>
     <row r="132" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A132" s="112"/>
+      <c r="A132" s="71"/>
       <c r="B132" s="31" t="s">
         <v>942</v>
       </c>
@@ -6439,7 +6439,7 @@
       <c r="G132" s="13"/>
     </row>
     <row r="133" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A133" s="112"/>
+      <c r="A133" s="71"/>
       <c r="B133" s="31" t="s">
         <v>981</v>
       </c>
@@ -6454,7 +6454,7 @@
       <c r="G133" s="13"/>
     </row>
     <row r="134" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A134" s="112"/>
+      <c r="A134" s="71"/>
       <c r="B134" s="31" t="s">
         <v>918</v>
       </c>
@@ -6469,7 +6469,7 @@
       <c r="G134" s="13"/>
     </row>
     <row r="135" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A135" s="112"/>
+      <c r="A135" s="71"/>
       <c r="B135" s="39"/>
       <c r="C135" s="39"/>
       <c r="D135" s="39"/>
@@ -6478,12 +6478,12 @@
       <c r="G135" s="13"/>
     </row>
     <row r="136" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="118"/>
+      <c r="A136" s="77"/>
       <c r="F136" s="18"/>
       <c r="G136" s="13"/>
     </row>
     <row r="137" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="119" t="s">
+      <c r="A137" s="78" t="s">
         <v>490</v>
       </c>
       <c r="B137" s="42" t="s">
@@ -6499,7 +6499,7 @@
       <c r="G137" s="13"/>
     </row>
     <row r="138" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="119"/>
+      <c r="A138" s="78"/>
       <c r="B138" s="42" t="s">
         <v>289</v>
       </c>
@@ -6513,7 +6513,7 @@
       <c r="G138" s="13"/>
     </row>
     <row r="139" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="120"/>
+      <c r="A139" s="79"/>
       <c r="B139" s="35" t="s">
         <v>423</v>
       </c>
@@ -6528,7 +6528,7 @@
       <c r="G139" s="13"/>
     </row>
     <row r="140" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="121"/>
+      <c r="A140" s="80"/>
       <c r="B140" s="46"/>
       <c r="C140" s="32"/>
       <c r="D140" s="32"/>
@@ -6539,7 +6539,7 @@
       </c>
     </row>
     <row r="141" spans="1:7" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="67" t="s">
+      <c r="A141" s="92" t="s">
         <v>96</v>
       </c>
       <c r="B141" s="42" t="s">
@@ -6556,7 +6556,7 @@
       <c r="G141" s="30"/>
     </row>
     <row r="142" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A142" s="68"/>
+      <c r="A142" s="93"/>
       <c r="B142" s="42" t="s">
         <v>75</v>
       </c>
@@ -6571,7 +6571,7 @@
       <c r="G142" s="23"/>
     </row>
     <row r="143" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A143" s="68"/>
+      <c r="A143" s="93"/>
       <c r="B143" s="42" t="s">
         <v>263</v>
       </c>
@@ -6585,7 +6585,7 @@
       <c r="G143" s="13"/>
     </row>
     <row r="144" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A144" s="68"/>
+      <c r="A144" s="93"/>
       <c r="B144" s="42" t="s">
         <v>361</v>
       </c>
@@ -6599,7 +6599,7 @@
       <c r="G144" s="13"/>
     </row>
     <row r="145" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A145" s="68"/>
+      <c r="A145" s="93"/>
       <c r="B145" s="42" t="s">
         <v>271</v>
       </c>
@@ -6615,7 +6615,7 @@
       <c r="G145" s="13"/>
     </row>
     <row r="146" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A146" s="68"/>
+      <c r="A146" s="93"/>
       <c r="B146" s="42" t="s">
         <v>281</v>
       </c>
@@ -6629,7 +6629,7 @@
       <c r="G146" s="13"/>
     </row>
     <row r="147" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A147" s="68"/>
+      <c r="A147" s="93"/>
       <c r="B147" s="42" t="s">
         <v>318</v>
       </c>
@@ -6643,7 +6643,7 @@
       <c r="G147" s="13"/>
     </row>
     <row r="148" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A148" s="68"/>
+      <c r="A148" s="93"/>
       <c r="B148" s="42" t="s">
         <v>351</v>
       </c>
@@ -6657,7 +6657,7 @@
       <c r="G148" s="13"/>
     </row>
     <row r="149" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A149" s="68"/>
+      <c r="A149" s="93"/>
       <c r="B149" s="42" t="s">
         <v>316</v>
       </c>
@@ -6671,7 +6671,7 @@
       <c r="G149" s="13"/>
     </row>
     <row r="150" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A150" s="68"/>
+      <c r="A150" s="93"/>
       <c r="B150" s="42" t="s">
         <v>269</v>
       </c>
@@ -6685,7 +6685,7 @@
       <c r="G150" s="13"/>
     </row>
     <row r="151" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A151" s="68"/>
+      <c r="A151" s="93"/>
       <c r="B151" s="35" t="s">
         <v>480</v>
       </c>
@@ -6702,7 +6702,7 @@
       <c r="G151" s="13"/>
     </row>
     <row r="152" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A152" s="68"/>
+      <c r="A152" s="93"/>
       <c r="B152" s="42" t="s">
         <v>322</v>
       </c>
@@ -6714,7 +6714,7 @@
       </c>
     </row>
     <row r="153" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A153" s="68"/>
+      <c r="A153" s="93"/>
       <c r="B153" s="42" t="s">
         <v>526</v>
       </c>
@@ -6729,7 +6729,7 @@
       <c r="G153" s="13"/>
     </row>
     <row r="154" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A154" s="68"/>
+      <c r="A154" s="93"/>
       <c r="B154" s="47" t="s">
         <v>584</v>
       </c>
@@ -6746,7 +6746,7 @@
       <c r="G154" s="13"/>
     </row>
     <row r="155" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A155" s="68"/>
+      <c r="A155" s="93"/>
       <c r="B155" s="42" t="s">
         <v>674</v>
       </c>
@@ -6763,7 +6763,7 @@
       <c r="G155" s="13"/>
     </row>
     <row r="156" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A156" s="68"/>
+      <c r="A156" s="93"/>
       <c r="B156" s="42" t="s">
         <v>764</v>
       </c>
@@ -6778,7 +6778,7 @@
       <c r="G156" s="13"/>
     </row>
     <row r="157" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A157" s="68"/>
+      <c r="A157" s="93"/>
       <c r="B157" s="31" t="s">
         <v>859</v>
       </c>
@@ -6793,7 +6793,7 @@
       <c r="G157" s="13"/>
     </row>
     <row r="158" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A158" s="68"/>
+      <c r="A158" s="93"/>
       <c r="B158" s="39" t="s">
         <v>882</v>
       </c>
@@ -6808,7 +6808,7 @@
       <c r="G158" s="13"/>
     </row>
     <row r="159" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A159" s="68"/>
+      <c r="A159" s="93"/>
       <c r="B159" s="31" t="s">
         <v>921</v>
       </c>
@@ -6823,7 +6823,7 @@
       <c r="G159" s="13"/>
     </row>
     <row r="160" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A160" s="68"/>
+      <c r="A160" s="93"/>
       <c r="B160" s="31" t="s">
         <v>976</v>
       </c>
@@ -6838,7 +6838,7 @@
       <c r="G160" s="13"/>
     </row>
     <row r="161" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A161" s="68"/>
+      <c r="A161" s="93"/>
       <c r="B161" s="31" t="s">
         <v>1034</v>
       </c>
@@ -6853,7 +6853,7 @@
       <c r="G161" s="13"/>
     </row>
     <row r="162" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A162" s="68"/>
+      <c r="A162" s="93"/>
       <c r="B162" s="31"/>
       <c r="C162" s="31"/>
       <c r="D162" s="31"/>
@@ -6862,7 +6862,7 @@
       <c r="G162" s="13"/>
     </row>
     <row r="163" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="69"/>
+      <c r="A163" s="94"/>
       <c r="B163" s="48"/>
       <c r="C163" s="24"/>
       <c r="D163" s="25"/>
@@ -6871,7 +6871,7 @@
       <c r="G163" s="16"/>
     </row>
     <row r="164" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="109" t="s">
+      <c r="A164" s="68" t="s">
         <v>444</v>
       </c>
       <c r="B164" s="42" t="s">
@@ -6889,7 +6889,7 @@
       </c>
     </row>
     <row r="165" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A165" s="110"/>
+      <c r="A165" s="69"/>
       <c r="B165" s="42" t="s">
         <v>127</v>
       </c>
@@ -6905,7 +6905,7 @@
       <c r="G165" s="13"/>
     </row>
     <row r="166" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A166" s="110"/>
+      <c r="A166" s="69"/>
       <c r="B166" s="42" t="s">
         <v>135</v>
       </c>
@@ -6919,7 +6919,7 @@
       <c r="G166" s="13"/>
     </row>
     <row r="167" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A167" s="110"/>
+      <c r="A167" s="69"/>
       <c r="B167" s="42" t="s">
         <v>137</v>
       </c>
@@ -6933,7 +6933,7 @@
       <c r="G167" s="13"/>
     </row>
     <row r="168" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A168" s="110"/>
+      <c r="A168" s="69"/>
       <c r="B168" s="42" t="s">
         <v>162</v>
       </c>
@@ -6946,7 +6946,7 @@
       <c r="G168" s="13"/>
     </row>
     <row r="169" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A169" s="110"/>
+      <c r="A169" s="69"/>
       <c r="B169" s="42" t="s">
         <v>162</v>
       </c>
@@ -6962,7 +6962,7 @@
       <c r="G169" s="13"/>
     </row>
     <row r="170" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A170" s="110"/>
+      <c r="A170" s="69"/>
       <c r="B170" s="42" t="s">
         <v>175</v>
       </c>
@@ -6976,7 +6976,7 @@
       <c r="G170" s="13"/>
     </row>
     <row r="171" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A171" s="110"/>
+      <c r="A171" s="69"/>
       <c r="B171" s="42" t="s">
         <v>238</v>
       </c>
@@ -6990,7 +6990,7 @@
       <c r="G171" s="13"/>
     </row>
     <row r="172" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A172" s="110"/>
+      <c r="A172" s="69"/>
       <c r="B172" s="42" t="s">
         <v>242</v>
       </c>
@@ -7006,7 +7006,7 @@
       <c r="G172" s="13"/>
     </row>
     <row r="173" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A173" s="110"/>
+      <c r="A173" s="69"/>
       <c r="B173" s="42" t="s">
         <v>273</v>
       </c>
@@ -7020,7 +7020,7 @@
       <c r="G173" s="13"/>
     </row>
     <row r="174" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A174" s="110"/>
+      <c r="A174" s="69"/>
       <c r="B174" s="42" t="s">
         <v>338</v>
       </c>
@@ -7036,7 +7036,7 @@
       <c r="G174" s="13"/>
     </row>
     <row r="175" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A175" s="110"/>
+      <c r="A175" s="69"/>
       <c r="B175" s="42" t="s">
         <v>338</v>
       </c>
@@ -7049,7 +7049,7 @@
       <c r="G175" s="13"/>
     </row>
     <row r="176" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A176" s="110"/>
+      <c r="A176" s="69"/>
       <c r="B176" s="35" t="s">
         <v>427</v>
       </c>
@@ -7064,7 +7064,7 @@
       <c r="G176" s="13"/>
     </row>
     <row r="177" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A177" s="110"/>
+      <c r="A177" s="69"/>
       <c r="B177" s="35" t="s">
         <v>438</v>
       </c>
@@ -7079,7 +7079,7 @@
       <c r="G177" s="13"/>
     </row>
     <row r="178" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A178" s="110"/>
+      <c r="A178" s="69"/>
       <c r="B178" s="35" t="s">
         <v>472</v>
       </c>
@@ -7096,7 +7096,7 @@
       <c r="G178" s="13"/>
     </row>
     <row r="179" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A179" s="110"/>
+      <c r="A179" s="69"/>
       <c r="B179" s="35" t="s">
         <v>398</v>
       </c>
@@ -7113,7 +7113,7 @@
       <c r="G179" s="13"/>
     </row>
     <row r="180" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A180" s="110"/>
+      <c r="A180" s="69"/>
       <c r="B180" s="35" t="s">
         <v>469</v>
       </c>
@@ -7130,7 +7130,7 @@
       <c r="G180" s="13"/>
     </row>
     <row r="181" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A181" s="110"/>
+      <c r="A181" s="69"/>
       <c r="B181" s="42" t="s">
         <v>285</v>
       </c>
@@ -7144,7 +7144,7 @@
       <c r="G181" s="13"/>
     </row>
     <row r="182" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A182" s="110"/>
+      <c r="A182" s="69"/>
       <c r="B182" s="42" t="s">
         <v>187</v>
       </c>
@@ -7158,7 +7158,7 @@
       <c r="G182" s="13"/>
     </row>
     <row r="183" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A183" s="110"/>
+      <c r="A183" s="69"/>
       <c r="B183" s="42" t="s">
         <v>116</v>
       </c>
@@ -7174,7 +7174,7 @@
       <c r="G183" s="13"/>
     </row>
     <row r="184" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A184" s="110"/>
+      <c r="A184" s="69"/>
       <c r="B184" s="42" t="s">
         <v>125</v>
       </c>
@@ -7189,7 +7189,7 @@
       <c r="G184" s="13"/>
     </row>
     <row r="185" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A185" s="110"/>
+      <c r="A185" s="69"/>
       <c r="B185" s="42" t="s">
         <v>438</v>
       </c>
@@ -7204,7 +7204,7 @@
       <c r="G185" s="13"/>
     </row>
     <row r="186" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A186" s="110"/>
+      <c r="A186" s="69"/>
       <c r="B186" s="42" t="s">
         <v>710</v>
       </c>
@@ -7219,7 +7219,7 @@
       <c r="G186" s="13"/>
     </row>
     <row r="187" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A187" s="110"/>
+      <c r="A187" s="69"/>
       <c r="B187" s="42" t="s">
         <v>776</v>
       </c>
@@ -7234,7 +7234,7 @@
       <c r="G187" s="13"/>
     </row>
     <row r="188" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A188" s="110"/>
+      <c r="A188" s="69"/>
       <c r="B188" s="42" t="s">
         <v>782</v>
       </c>
@@ -7249,7 +7249,7 @@
       <c r="G188" s="13"/>
     </row>
     <row r="189" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A189" s="110"/>
+      <c r="A189" s="69"/>
       <c r="B189" s="42" t="s">
         <v>785</v>
       </c>
@@ -7264,7 +7264,7 @@
       <c r="G189" s="13"/>
     </row>
     <row r="190" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A190" s="110"/>
+      <c r="A190" s="69"/>
       <c r="B190" s="31" t="s">
         <v>838</v>
       </c>
@@ -7279,7 +7279,7 @@
       <c r="G190" s="13"/>
     </row>
     <row r="191" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A191" s="110"/>
+      <c r="A191" s="69"/>
       <c r="B191" s="31" t="s">
         <v>865</v>
       </c>
@@ -7294,7 +7294,7 @@
       <c r="G191" s="13"/>
     </row>
     <row r="192" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A192" s="110"/>
+      <c r="A192" s="69"/>
       <c r="B192" s="39" t="s">
         <v>879</v>
       </c>
@@ -7309,7 +7309,7 @@
       <c r="G192" s="13"/>
     </row>
     <row r="193" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A193" s="110"/>
+      <c r="A193" s="69"/>
       <c r="B193" s="39" t="s">
         <v>885</v>
       </c>
@@ -7324,7 +7324,7 @@
       <c r="G193" s="13"/>
     </row>
     <row r="194" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A194" s="110"/>
+      <c r="A194" s="69"/>
       <c r="B194" s="39" t="s">
         <v>900</v>
       </c>
@@ -7339,7 +7339,7 @@
       <c r="G194" s="13"/>
     </row>
     <row r="195" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="111"/>
+      <c r="A195" s="70"/>
       <c r="B195" s="39" t="s">
         <v>903</v>
       </c>
@@ -7354,7 +7354,7 @@
       <c r="G195" s="16"/>
     </row>
     <row r="196" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="111"/>
+      <c r="A196" s="70"/>
       <c r="B196" s="39" t="s">
         <v>961</v>
       </c>
@@ -7368,7 +7368,7 @@
       <c r="G196" s="13"/>
     </row>
     <row r="197" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A197" s="111"/>
+      <c r="A197" s="70"/>
       <c r="B197" s="39" t="s">
         <v>967</v>
       </c>
@@ -7382,7 +7382,7 @@
       <c r="G197" s="13"/>
     </row>
     <row r="198" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A198" s="111"/>
+      <c r="A198" s="70"/>
       <c r="B198" s="39" t="s">
         <v>970</v>
       </c>
@@ -7396,7 +7396,7 @@
       <c r="G198" s="13"/>
     </row>
     <row r="199" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A199" s="111"/>
+      <c r="A199" s="70"/>
       <c r="B199" s="31" t="s">
         <v>984</v>
       </c>
@@ -7410,7 +7410,7 @@
       <c r="G199" s="13"/>
     </row>
     <row r="200" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A200" s="111"/>
+      <c r="A200" s="70"/>
       <c r="B200" s="31" t="s">
         <v>1002</v>
       </c>
@@ -7424,7 +7424,7 @@
       <c r="G200" s="13"/>
     </row>
     <row r="201" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A201" s="111"/>
+      <c r="A201" s="70"/>
       <c r="B201" s="31" t="s">
         <v>1019</v>
       </c>
@@ -7438,7 +7438,7 @@
       <c r="G201" s="13"/>
     </row>
     <row r="202" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A202" s="111"/>
+      <c r="A202" s="70"/>
       <c r="B202" s="31" t="s">
         <v>1037</v>
       </c>
@@ -7452,7 +7452,7 @@
       <c r="G202" s="13"/>
     </row>
     <row r="203" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A203" s="111"/>
+      <c r="A203" s="70"/>
       <c r="B203" s="34" t="s">
         <v>1048</v>
       </c>
@@ -7471,7 +7471,7 @@
       <c r="G203" s="13"/>
     </row>
     <row r="204" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A204" s="111"/>
+      <c r="A204" s="70"/>
       <c r="B204" s="34" t="s">
         <v>1048</v>
       </c>
@@ -7490,7 +7490,7 @@
       <c r="G204" s="13"/>
     </row>
     <row r="205" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A205" s="111"/>
+      <c r="A205" s="70"/>
       <c r="B205" s="34" t="s">
         <v>1056</v>
       </c>
@@ -7507,7 +7507,7 @@
       <c r="G205" s="13"/>
     </row>
     <row r="206" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A206" s="111"/>
+      <c r="A206" s="70"/>
       <c r="B206" s="34" t="s">
         <v>1059</v>
       </c>
@@ -7524,7 +7524,7 @@
       <c r="G206" s="13"/>
     </row>
     <row r="207" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A207" s="111"/>
+      <c r="A207" s="70"/>
       <c r="B207" s="34" t="s">
         <v>1062</v>
       </c>
@@ -7543,7 +7543,7 @@
       <c r="G207" s="13"/>
     </row>
     <row r="208" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A208" s="111"/>
+      <c r="A208" s="70"/>
       <c r="B208" s="34" t="s">
         <v>1066</v>
       </c>
@@ -7562,7 +7562,7 @@
       <c r="G208" s="13"/>
     </row>
     <row r="209" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A209" s="111"/>
+      <c r="A209" s="70"/>
       <c r="B209" s="34" t="s">
         <v>1070</v>
       </c>
@@ -7581,7 +7581,7 @@
       <c r="G209" s="13"/>
     </row>
     <row r="210" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A210" s="111"/>
+      <c r="A210" s="70"/>
       <c r="B210" s="55" t="s">
         <v>1073</v>
       </c>
@@ -7600,7 +7600,7 @@
       <c r="G210" s="13"/>
     </row>
     <row r="211" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A211" s="111"/>
+      <c r="A211" s="70"/>
       <c r="B211" s="34" t="s">
         <v>1094</v>
       </c>
@@ -7619,7 +7619,7 @@
       <c r="G211" s="13"/>
     </row>
     <row r="212" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A212" s="111"/>
+      <c r="A212" s="70"/>
       <c r="B212" s="55" t="s">
         <v>1094</v>
       </c>
@@ -7638,16 +7638,22 @@
       <c r="G212" s="13"/>
     </row>
     <row r="213" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A213" s="111"/>
-      <c r="B213" s="34"/>
-      <c r="C213" s="34"/>
-      <c r="D213" s="34"/>
-      <c r="E213" s="34"/>
+      <c r="A213" s="70"/>
+      <c r="B213" s="42" t="s">
+        <v>746</v>
+      </c>
+      <c r="C213" s="31" t="s">
+        <v>747</v>
+      </c>
+      <c r="D213" s="31"/>
+      <c r="E213" s="31" t="s">
+        <v>748</v>
+      </c>
       <c r="F213" s="34"/>
       <c r="G213" s="13"/>
     </row>
     <row r="214" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A214" s="111"/>
+      <c r="A214" s="70"/>
       <c r="B214" s="34"/>
       <c r="C214" s="34"/>
       <c r="D214" s="34"/>
@@ -7656,7 +7662,7 @@
       <c r="G214" s="13"/>
     </row>
     <row r="215" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A215" s="111"/>
+      <c r="A215" s="70"/>
       <c r="B215" s="34"/>
       <c r="C215" s="34"/>
       <c r="D215" s="34"/>
@@ -7665,7 +7671,7 @@
       <c r="G215" s="13"/>
     </row>
     <row r="216" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A216" s="111"/>
+      <c r="A216" s="70"/>
       <c r="B216" s="34"/>
       <c r="C216" s="34"/>
       <c r="D216" s="34"/>
@@ -7674,7 +7680,7 @@
       <c r="G216" s="13"/>
     </row>
     <row r="217" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A217" s="112"/>
+      <c r="A217" s="71"/>
       <c r="B217" s="39"/>
       <c r="C217" s="39"/>
       <c r="D217" s="39"/>
@@ -7682,7 +7688,7 @@
       <c r="G217" s="13"/>
     </row>
     <row r="218" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="128" t="s">
+      <c r="A218" s="87" t="s">
         <v>759</v>
       </c>
       <c r="B218" s="42" t="s">
@@ -7701,7 +7707,7 @@
       <c r="G218" s="13"/>
     </row>
     <row r="219" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="128"/>
+      <c r="A219" s="87"/>
       <c r="B219" s="42"/>
       <c r="C219" s="31"/>
       <c r="E219" s="31"/>
@@ -7709,7 +7715,7 @@
       <c r="G219" s="13"/>
     </row>
     <row r="220" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="129"/>
+      <c r="A220" s="88"/>
       <c r="B220" s="35"/>
       <c r="C220" s="35"/>
       <c r="D220" s="35"/>
@@ -7718,7 +7724,7 @@
       <c r="G220" s="13"/>
     </row>
     <row r="221" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="130"/>
+      <c r="A221" s="89"/>
       <c r="B221" s="46"/>
       <c r="C221" s="32"/>
       <c r="D221" s="32"/>
@@ -7727,7 +7733,7 @@
       <c r="G221" s="16"/>
     </row>
     <row r="222" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="82" t="s">
+      <c r="A222" s="107" t="s">
         <v>407</v>
       </c>
       <c r="B222" s="42" t="s">
@@ -7743,7 +7749,7 @@
       <c r="G222" s="13"/>
     </row>
     <row r="223" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A223" s="83"/>
+      <c r="A223" s="108"/>
       <c r="B223" s="42" t="s">
         <v>81</v>
       </c>
@@ -7758,7 +7764,7 @@
       <c r="G223" s="13"/>
     </row>
     <row r="224" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A224" s="83"/>
+      <c r="A224" s="108"/>
       <c r="B224" s="42" t="s">
         <v>73</v>
       </c>
@@ -7775,7 +7781,7 @@
       <c r="G224" s="13"/>
     </row>
     <row r="225" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A225" s="83"/>
+      <c r="A225" s="108"/>
       <c r="B225" s="42" t="s">
         <v>131</v>
       </c>
@@ -7789,7 +7795,7 @@
       <c r="G225" s="13"/>
     </row>
     <row r="226" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A226" s="83"/>
+      <c r="A226" s="108"/>
       <c r="B226" s="42" t="s">
         <v>549</v>
       </c>
@@ -7804,7 +7810,7 @@
       <c r="G226" s="13"/>
     </row>
     <row r="227" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A227" s="83"/>
+      <c r="A227" s="108"/>
       <c r="B227" s="42" t="s">
         <v>692</v>
       </c>
@@ -7819,7 +7825,7 @@
       <c r="G227" s="13"/>
     </row>
     <row r="228" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A228" s="83"/>
+      <c r="A228" s="108"/>
       <c r="B228" s="42" t="s">
         <v>707</v>
       </c>
@@ -7834,7 +7840,7 @@
       <c r="G228" s="13"/>
     </row>
     <row r="229" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A229" s="83"/>
+      <c r="A229" s="108"/>
       <c r="B229" s="31" t="s">
         <v>812</v>
       </c>
@@ -7849,7 +7855,7 @@
       <c r="G229" s="13"/>
     </row>
     <row r="230" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A230" s="83"/>
+      <c r="A230" s="108"/>
       <c r="B230" s="42"/>
       <c r="C230" s="31"/>
       <c r="D230" s="31"/>
@@ -7858,7 +7864,7 @@
       <c r="G230" s="13"/>
     </row>
     <row r="231" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A231" s="83"/>
+      <c r="A231" s="108"/>
       <c r="B231" s="42"/>
       <c r="C231" s="31"/>
       <c r="D231" s="31"/>
@@ -7867,11 +7873,11 @@
       <c r="G231" s="13"/>
     </row>
     <row r="232" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="84"/>
+      <c r="A232" s="109"/>
       <c r="G232" s="16"/>
     </row>
     <row r="233" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="122" t="s">
+      <c r="A233" s="81" t="s">
         <v>500</v>
       </c>
       <c r="B233" s="42" t="s">
@@ -7887,7 +7893,7 @@
       <c r="G233" s="13"/>
     </row>
     <row r="234" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="123"/>
+      <c r="A234" s="82"/>
       <c r="B234" s="42"/>
       <c r="C234" s="7"/>
       <c r="D234" s="8"/>
@@ -7896,7 +7902,7 @@
       <c r="G234" s="13"/>
     </row>
     <row r="235" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="123"/>
+      <c r="A235" s="82"/>
       <c r="B235" s="42"/>
       <c r="C235" s="7"/>
       <c r="D235" s="8"/>
@@ -7905,7 +7911,7 @@
       <c r="G235" s="13"/>
     </row>
     <row r="236" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="123"/>
+      <c r="A236" s="82"/>
       <c r="B236" s="42"/>
       <c r="C236" s="31"/>
       <c r="E236" s="31"/>
@@ -7913,7 +7919,7 @@
       <c r="G236" s="13"/>
     </row>
     <row r="237" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="123"/>
+      <c r="A237" s="82"/>
       <c r="B237" s="42"/>
       <c r="C237" s="7"/>
       <c r="D237" s="8"/>
@@ -7922,11 +7928,11 @@
       <c r="G237" s="13"/>
     </row>
     <row r="238" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="124"/>
+      <c r="A238" s="83"/>
       <c r="G238" s="16"/>
     </row>
     <row r="239" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="91" t="s">
+      <c r="A239" s="65" t="s">
         <v>493</v>
       </c>
       <c r="B239" s="35" t="s">
@@ -7945,7 +7951,7 @@
       <c r="G239" s="13"/>
     </row>
     <row r="240" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A240" s="92"/>
+      <c r="A240" s="66"/>
       <c r="B240" s="42" t="s">
         <v>179</v>
       </c>
@@ -7959,7 +7965,7 @@
       <c r="G240" s="13"/>
     </row>
     <row r="241" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A241" s="92"/>
+      <c r="A241" s="66"/>
       <c r="B241" s="42" t="s">
         <v>83</v>
       </c>
@@ -7974,7 +7980,7 @@
       <c r="G241" s="13"/>
     </row>
     <row r="242" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A242" s="92"/>
+      <c r="A242" s="66"/>
       <c r="B242" s="42" t="s">
         <v>293</v>
       </c>
@@ -7988,7 +7994,7 @@
       <c r="G242" s="13"/>
     </row>
     <row r="243" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A243" s="92"/>
+      <c r="A243" s="66"/>
       <c r="B243" s="42" t="s">
         <v>563</v>
       </c>
@@ -8005,7 +8011,7 @@
       <c r="G243" s="13"/>
     </row>
     <row r="244" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A244" s="92"/>
+      <c r="A244" s="66"/>
       <c r="B244" s="42" t="s">
         <v>125</v>
       </c>
@@ -8020,7 +8026,7 @@
       <c r="G244" s="13"/>
     </row>
     <row r="245" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A245" s="92"/>
+      <c r="A245" s="66"/>
       <c r="B245" s="42" t="s">
         <v>552</v>
       </c>
@@ -8035,7 +8041,7 @@
       <c r="G245" s="13"/>
     </row>
     <row r="246" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A246" s="92"/>
+      <c r="A246" s="66"/>
       <c r="B246" s="42" t="s">
         <v>707</v>
       </c>
@@ -8050,7 +8056,7 @@
       <c r="G246" s="13"/>
     </row>
     <row r="247" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A247" s="92"/>
+      <c r="A247" s="66"/>
       <c r="B247" s="42" t="s">
         <v>737</v>
       </c>
@@ -8065,67 +8071,57 @@
       <c r="G247" s="13"/>
     </row>
     <row r="248" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A248" s="92"/>
-      <c r="B248" s="42" t="s">
-        <v>746</v>
+      <c r="A248" s="66"/>
+      <c r="B248" s="31" t="s">
+        <v>847</v>
       </c>
       <c r="C248" s="31" t="s">
-        <v>747</v>
+        <v>848</v>
       </c>
       <c r="D248" s="31"/>
       <c r="E248" s="31" t="s">
-        <v>748</v>
+        <v>849</v>
       </c>
       <c r="F248" s="18"/>
       <c r="G248" s="13"/>
     </row>
     <row r="249" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A249" s="92"/>
+      <c r="A249" s="66"/>
       <c r="B249" s="31" t="s">
-        <v>847</v>
+        <v>862</v>
       </c>
       <c r="C249" s="31" t="s">
-        <v>848</v>
+        <v>863</v>
       </c>
       <c r="D249" s="31"/>
       <c r="E249" s="31" t="s">
-        <v>849</v>
+        <v>864</v>
       </c>
       <c r="F249" s="18"/>
       <c r="G249" s="13"/>
     </row>
     <row r="250" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A250" s="92"/>
+      <c r="A250" s="66"/>
       <c r="B250" s="31" t="s">
-        <v>862</v>
+        <v>987</v>
       </c>
       <c r="C250" s="31" t="s">
-        <v>863</v>
+        <v>988</v>
       </c>
       <c r="D250" s="31"/>
       <c r="E250" s="31" t="s">
-        <v>864</v>
+        <v>989</v>
       </c>
       <c r="F250" s="18"/>
       <c r="G250" s="13"/>
     </row>
     <row r="251" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A251" s="92"/>
-      <c r="B251" s="31" t="s">
-        <v>987</v>
-      </c>
-      <c r="C251" s="31" t="s">
-        <v>988</v>
-      </c>
-      <c r="D251" s="31"/>
-      <c r="E251" s="31" t="s">
-        <v>989</v>
-      </c>
+      <c r="A251" s="66"/>
       <c r="F251" s="18"/>
       <c r="G251" s="13"/>
     </row>
     <row r="252" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A252" s="92"/>
+      <c r="A252" s="66"/>
       <c r="B252" s="31"/>
       <c r="C252" s="31"/>
       <c r="D252" s="31"/>
@@ -8134,7 +8130,7 @@
       <c r="G252" s="13"/>
     </row>
     <row r="253" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A253" s="92"/>
+      <c r="A253" s="66"/>
       <c r="B253" s="31"/>
       <c r="C253" s="31"/>
       <c r="D253" s="31"/>
@@ -8143,14 +8139,14 @@
       <c r="G253" s="13"/>
     </row>
     <row r="254" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="93"/>
+      <c r="A254" s="116"/>
       <c r="F254" s="19"/>
       <c r="G254" s="16" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="255" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="125" t="s">
+      <c r="A255" s="84" t="s">
         <v>106</v>
       </c>
       <c r="B255" s="42" t="s">
@@ -8165,7 +8161,7 @@
       <c r="G255" s="30"/>
     </row>
     <row r="256" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A256" s="126"/>
+      <c r="A256" s="85"/>
       <c r="B256" s="42" t="s">
         <v>97</v>
       </c>
@@ -8180,7 +8176,7 @@
       <c r="G256" s="23"/>
     </row>
     <row r="257" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A257" s="126"/>
+      <c r="A257" s="85"/>
       <c r="B257" s="42" t="s">
         <v>328</v>
       </c>
@@ -8194,7 +8190,7 @@
       <c r="G257" s="13"/>
     </row>
     <row r="258" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A258" s="126"/>
+      <c r="A258" s="85"/>
       <c r="B258" s="42" t="s">
         <v>373</v>
       </c>
@@ -8208,7 +8204,7 @@
       <c r="G258" s="13"/>
     </row>
     <row r="259" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A259" s="126"/>
+      <c r="A259" s="85"/>
       <c r="B259" s="35" t="s">
         <v>441</v>
       </c>
@@ -8227,7 +8223,7 @@
       <c r="G259" s="13"/>
     </row>
     <row r="260" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A260" s="126"/>
+      <c r="A260" s="85"/>
       <c r="B260" s="35" t="s">
         <v>425</v>
       </c>
@@ -8246,7 +8242,7 @@
       <c r="G260" s="13"/>
     </row>
     <row r="261" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A261" s="126"/>
+      <c r="A261" s="85"/>
       <c r="B261" s="35" t="s">
         <v>483</v>
       </c>
@@ -8263,7 +8259,7 @@
       <c r="G261" s="13"/>
     </row>
     <row r="262" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A262" s="126"/>
+      <c r="A262" s="85"/>
       <c r="B262" s="35" t="s">
         <v>476</v>
       </c>
@@ -8280,7 +8276,7 @@
       <c r="G262" s="13"/>
     </row>
     <row r="263" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A263" s="126"/>
+      <c r="A263" s="85"/>
       <c r="B263" s="35" t="s">
         <v>414</v>
       </c>
@@ -8299,7 +8295,7 @@
       <c r="G263" s="13"/>
     </row>
     <row r="264" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A264" s="126"/>
+      <c r="A264" s="85"/>
       <c r="B264" s="35" t="s">
         <v>402</v>
       </c>
@@ -8318,7 +8314,7 @@
       <c r="G264" s="13"/>
     </row>
     <row r="265" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A265" s="126"/>
+      <c r="A265" s="85"/>
       <c r="B265" s="35" t="s">
         <v>396</v>
       </c>
@@ -8333,7 +8329,7 @@
       <c r="G265" s="13"/>
     </row>
     <row r="266" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A266" s="126"/>
+      <c r="A266" s="85"/>
       <c r="B266" s="35" t="s">
         <v>409</v>
       </c>
@@ -8348,7 +8344,7 @@
       <c r="G266" s="13"/>
     </row>
     <row r="267" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A267" s="126"/>
+      <c r="A267" s="85"/>
       <c r="B267" s="35" t="s">
         <v>445</v>
       </c>
@@ -8367,7 +8363,7 @@
       <c r="G267" s="13"/>
     </row>
     <row r="268" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A268" s="127"/>
+      <c r="A268" s="86"/>
       <c r="B268" s="35" t="s">
         <v>447</v>
       </c>
@@ -8386,7 +8382,7 @@
       <c r="G268" s="13"/>
     </row>
     <row r="269" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A269" s="127"/>
+      <c r="A269" s="86"/>
       <c r="B269" s="42" t="s">
         <v>567</v>
       </c>
@@ -8403,7 +8399,7 @@
       <c r="G269" s="18"/>
     </row>
     <row r="270" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A270" s="127"/>
+      <c r="A270" s="86"/>
       <c r="B270" s="42" t="s">
         <v>679</v>
       </c>
@@ -8420,7 +8416,7 @@
       <c r="G270" s="13"/>
     </row>
     <row r="271" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A271" s="127"/>
+      <c r="A271" s="86"/>
       <c r="B271" s="31" t="s">
         <v>818</v>
       </c>
@@ -8435,7 +8431,7 @@
       <c r="G271" s="13"/>
     </row>
     <row r="272" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A272" s="127"/>
+      <c r="A272" s="86"/>
       <c r="B272" s="31" t="s">
         <v>824</v>
       </c>
@@ -8450,7 +8446,7 @@
       <c r="G272" s="13"/>
     </row>
     <row r="273" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A273" s="127"/>
+      <c r="A273" s="86"/>
       <c r="B273" s="31" t="s">
         <v>868</v>
       </c>
@@ -8465,7 +8461,7 @@
       <c r="G273" s="13"/>
     </row>
     <row r="274" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A274" s="127"/>
+      <c r="A274" s="86"/>
       <c r="B274" s="31" t="s">
         <v>927</v>
       </c>
@@ -8480,7 +8476,7 @@
       <c r="G274" s="13"/>
     </row>
     <row r="275" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A275" s="127"/>
+      <c r="A275" s="86"/>
       <c r="B275" s="31" t="s">
         <v>993</v>
       </c>
@@ -8495,7 +8491,7 @@
       <c r="G275" s="13"/>
     </row>
     <row r="276" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A276" s="127"/>
+      <c r="A276" s="86"/>
       <c r="B276" s="31" t="s">
         <v>1043</v>
       </c>
@@ -8510,7 +8506,7 @@
       <c r="G276" s="13"/>
     </row>
     <row r="277" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A277" s="127"/>
+      <c r="A277" s="86"/>
       <c r="B277" s="31"/>
       <c r="C277" s="31"/>
       <c r="D277" s="31"/>
@@ -8519,7 +8515,7 @@
       <c r="G277" s="13"/>
     </row>
     <row r="278" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A278" s="127"/>
+      <c r="A278" s="86"/>
       <c r="B278" s="31"/>
       <c r="C278" s="31"/>
       <c r="D278" s="31"/>
@@ -8528,7 +8524,7 @@
       <c r="G278" s="13"/>
     </row>
     <row r="279" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A279" s="127"/>
+      <c r="A279" s="86"/>
       <c r="B279" s="31"/>
       <c r="C279" s="31"/>
       <c r="D279" s="31"/>
@@ -8537,7 +8533,7 @@
       <c r="G279" s="13"/>
     </row>
     <row r="280" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A280" s="112"/>
+      <c r="A280" s="71"/>
       <c r="B280" s="35"/>
       <c r="C280" s="34"/>
       <c r="D280" s="4"/>
@@ -8546,7 +8542,7 @@
       <c r="G280" s="13"/>
     </row>
     <row r="281" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A281" s="91" t="s">
+      <c r="A281" s="65" t="s">
         <v>760</v>
       </c>
       <c r="B281" s="42" t="s">
@@ -8563,7 +8559,7 @@
       <c r="G281" s="13"/>
     </row>
     <row r="282" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A282" s="92"/>
+      <c r="A282" s="66"/>
       <c r="B282" s="42"/>
       <c r="C282" s="31"/>
       <c r="E282" s="31"/>
@@ -8571,7 +8567,7 @@
       <c r="G282" s="13"/>
     </row>
     <row r="283" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A283" s="92"/>
+      <c r="A283" s="66"/>
       <c r="B283" s="42"/>
       <c r="C283" s="31"/>
       <c r="D283" s="31"/>
@@ -8580,7 +8576,7 @@
       <c r="G283" s="13"/>
     </row>
     <row r="284" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="92"/>
+      <c r="A284" s="66"/>
       <c r="B284" s="42"/>
       <c r="C284" s="7"/>
       <c r="D284" s="8"/>
@@ -8589,7 +8585,7 @@
       <c r="G284" s="13"/>
     </row>
     <row r="285" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="92"/>
+      <c r="A285" s="66"/>
       <c r="B285" s="42"/>
       <c r="C285" s="7"/>
       <c r="D285" s="8"/>
@@ -8598,7 +8594,7 @@
       <c r="G285" s="13"/>
     </row>
     <row r="286" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="92"/>
+      <c r="A286" s="66"/>
       <c r="B286" s="42"/>
       <c r="C286" s="7"/>
       <c r="D286" s="8"/>
@@ -8607,7 +8603,7 @@
       <c r="G286" s="13"/>
     </row>
     <row r="287" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="92"/>
+      <c r="A287" s="66"/>
       <c r="B287" s="42"/>
       <c r="C287" s="7"/>
       <c r="D287" s="8"/>
@@ -8616,14 +8612,14 @@
       <c r="G287" s="13"/>
     </row>
     <row r="288" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="108"/>
+      <c r="A288" s="67"/>
       <c r="F288" s="19"/>
       <c r="G288" s="16" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="289" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A289" s="113" t="s">
+      <c r="A289" s="72" t="s">
         <v>492</v>
       </c>
       <c r="B289" s="42" t="s">
@@ -8639,7 +8635,7 @@
       <c r="G289" s="12"/>
     </row>
     <row r="290" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A290" s="114"/>
+      <c r="A290" s="73"/>
       <c r="B290" s="42" t="s">
         <v>187</v>
       </c>
@@ -8653,7 +8649,7 @@
       <c r="G290" s="13"/>
     </row>
     <row r="291" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A291" s="114"/>
+      <c r="A291" s="73"/>
       <c r="B291" s="42" t="s">
         <v>387</v>
       </c>
@@ -8667,7 +8663,7 @@
       <c r="G291" s="13"/>
     </row>
     <row r="292" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A292" s="114"/>
+      <c r="A292" s="73"/>
       <c r="B292" s="42" t="s">
         <v>275</v>
       </c>
@@ -8681,7 +8677,7 @@
       <c r="G292" s="13"/>
     </row>
     <row r="293" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A293" s="114"/>
+      <c r="A293" s="73"/>
       <c r="B293" s="42" t="s">
         <v>367</v>
       </c>
@@ -8695,7 +8691,7 @@
       <c r="G293" s="13"/>
     </row>
     <row r="294" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A294" s="114"/>
+      <c r="A294" s="73"/>
       <c r="B294" s="42" t="s">
         <v>375</v>
       </c>
@@ -8709,7 +8705,7 @@
       <c r="G294" s="13"/>
     </row>
     <row r="295" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A295" s="114"/>
+      <c r="A295" s="73"/>
       <c r="B295" s="42" t="s">
         <v>505</v>
       </c>
@@ -8724,7 +8720,7 @@
       <c r="G295" s="13"/>
     </row>
     <row r="296" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A296" s="114"/>
+      <c r="A296" s="73"/>
       <c r="B296" s="42" t="s">
         <v>529</v>
       </c>
@@ -8739,7 +8735,7 @@
       <c r="G296" s="13"/>
     </row>
     <row r="297" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A297" s="114"/>
+      <c r="A297" s="73"/>
       <c r="B297" s="42" t="s">
         <v>571</v>
       </c>
@@ -8754,7 +8750,7 @@
       <c r="G297" s="13"/>
     </row>
     <row r="298" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A298" s="114"/>
+      <c r="A298" s="73"/>
       <c r="B298" s="42" t="s">
         <v>588</v>
       </c>
@@ -8769,7 +8765,7 @@
       <c r="G298" s="13"/>
     </row>
     <row r="299" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A299" s="114"/>
+      <c r="A299" s="73"/>
       <c r="B299" s="42" t="s">
         <v>624</v>
       </c>
@@ -8784,7 +8780,7 @@
       <c r="G299" s="13"/>
     </row>
     <row r="300" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A300" s="114"/>
+      <c r="A300" s="73"/>
       <c r="B300" s="42" t="s">
         <v>698</v>
       </c>
@@ -8799,7 +8795,7 @@
       <c r="G300" s="13"/>
     </row>
     <row r="301" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A301" s="114"/>
+      <c r="A301" s="73"/>
       <c r="B301" s="42" t="s">
         <v>375</v>
       </c>
@@ -8816,7 +8812,7 @@
       <c r="G301" s="13"/>
     </row>
     <row r="302" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A302" s="114"/>
+      <c r="A302" s="73"/>
       <c r="B302" s="42" t="s">
         <v>731</v>
       </c>
@@ -8831,7 +8827,7 @@
       <c r="G302" s="13"/>
     </row>
     <row r="303" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A303" s="114"/>
+      <c r="A303" s="73"/>
       <c r="B303" s="42" t="s">
         <v>806</v>
       </c>
@@ -8846,7 +8842,7 @@
       <c r="G303" s="13"/>
     </row>
     <row r="304" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A304" s="114"/>
+      <c r="A304" s="73"/>
       <c r="B304" s="42" t="s">
         <v>797</v>
       </c>
@@ -8861,7 +8857,7 @@
       <c r="G304" s="13"/>
     </row>
     <row r="305" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A305" s="114"/>
+      <c r="A305" s="73"/>
       <c r="B305" s="31" t="s">
         <v>835</v>
       </c>
@@ -8876,7 +8872,7 @@
       <c r="G305" s="13"/>
     </row>
     <row r="306" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A306" s="114"/>
+      <c r="A306" s="73"/>
       <c r="B306" s="31" t="s">
         <v>844</v>
       </c>
@@ -8891,7 +8887,7 @@
       <c r="G306" s="13"/>
     </row>
     <row r="307" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A307" s="114"/>
+      <c r="A307" s="73"/>
       <c r="B307" s="39" t="s">
         <v>894</v>
       </c>
@@ -8906,7 +8902,7 @@
       <c r="G307" s="13"/>
     </row>
     <row r="308" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="114"/>
+      <c r="A308" s="73"/>
       <c r="B308" s="39" t="s">
         <v>973</v>
       </c>
@@ -8921,7 +8917,7 @@
       <c r="G308" s="16"/>
     </row>
     <row r="309" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A309" s="112"/>
+      <c r="A309" s="71"/>
       <c r="B309" s="31" t="s">
         <v>990</v>
       </c>
@@ -8936,16 +8932,22 @@
       <c r="G309" s="13"/>
     </row>
     <row r="310" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A310" s="112"/>
-      <c r="B310" s="39"/>
-      <c r="C310" s="39"/>
-      <c r="D310" s="39"/>
-      <c r="E310" s="39"/>
+      <c r="A310" s="71"/>
+      <c r="B310" s="42" t="s">
+        <v>746</v>
+      </c>
+      <c r="C310" s="31" t="s">
+        <v>747</v>
+      </c>
+      <c r="D310" s="31"/>
+      <c r="E310" s="31" t="s">
+        <v>748</v>
+      </c>
       <c r="F310" s="18"/>
       <c r="G310" s="13"/>
     </row>
     <row r="311" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A311" s="112"/>
+      <c r="A311" s="71"/>
       <c r="B311" s="39"/>
       <c r="C311" s="39"/>
       <c r="D311" s="39"/>
@@ -8954,7 +8956,7 @@
       <c r="G311" s="13"/>
     </row>
     <row r="312" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A312" s="112"/>
+      <c r="A312" s="71"/>
       <c r="B312" s="39"/>
       <c r="C312" s="39"/>
       <c r="D312" s="39"/>
@@ -8963,7 +8965,7 @@
       <c r="G312" s="13"/>
     </row>
     <row r="313" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="112"/>
+      <c r="A313" s="71"/>
       <c r="B313" s="39"/>
       <c r="C313" s="39"/>
       <c r="D313" s="39"/>
@@ -8972,7 +8974,7 @@
       <c r="G313" s="13"/>
     </row>
     <row r="314" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A314" s="97" t="s">
+      <c r="A314" s="120" t="s">
         <v>495</v>
       </c>
       <c r="B314" s="42" t="s">
@@ -8988,7 +8990,7 @@
       <c r="G314" s="12"/>
     </row>
     <row r="315" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A315" s="98"/>
+      <c r="A315" s="121"/>
       <c r="B315" s="42" t="s">
         <v>240</v>
       </c>
@@ -9002,7 +9004,7 @@
       <c r="G315" s="13"/>
     </row>
     <row r="316" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A316" s="98"/>
+      <c r="A316" s="121"/>
       <c r="B316" s="42" t="s">
         <v>803</v>
       </c>
@@ -9017,7 +9019,7 @@
       <c r="G316" s="13"/>
     </row>
     <row r="317" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A317" s="98"/>
+      <c r="A317" s="121"/>
       <c r="B317" s="31" t="s">
         <v>815</v>
       </c>
@@ -9032,7 +9034,7 @@
       <c r="G317" s="13"/>
     </row>
     <row r="318" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A318" s="98"/>
+      <c r="A318" s="121"/>
       <c r="B318" s="39" t="s">
         <v>894</v>
       </c>
@@ -9047,7 +9049,7 @@
       <c r="G318" s="13"/>
     </row>
     <row r="319" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A319" s="98"/>
+      <c r="A319" s="121"/>
       <c r="B319" s="35" t="s">
         <v>1139</v>
       </c>
@@ -9066,7 +9068,7 @@
       <c r="G319" s="13"/>
     </row>
     <row r="320" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A320" s="98"/>
+      <c r="A320" s="121"/>
       <c r="B320" s="35" t="s">
         <v>1143</v>
       </c>
@@ -9085,7 +9087,7 @@
       <c r="G320" s="13"/>
     </row>
     <row r="321" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A321" s="98"/>
+      <c r="A321" s="121"/>
       <c r="B321" s="35" t="s">
         <v>1146</v>
       </c>
@@ -9104,7 +9106,7 @@
       <c r="G321" s="13"/>
     </row>
     <row r="322" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A322" s="98"/>
+      <c r="A322" s="121"/>
       <c r="B322" s="35" t="s">
         <v>141</v>
       </c>
@@ -9123,7 +9125,7 @@
       <c r="G322" s="13"/>
     </row>
     <row r="323" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A323" s="98"/>
+      <c r="A323" s="121"/>
       <c r="B323" s="35" t="s">
         <v>1152</v>
       </c>
@@ -9142,7 +9144,7 @@
       <c r="G323" s="13"/>
     </row>
     <row r="324" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A324" s="98"/>
+      <c r="A324" s="121"/>
       <c r="B324" s="35" t="s">
         <v>1155</v>
       </c>
@@ -9161,11 +9163,11 @@
       <c r="G324" s="13"/>
     </row>
     <row r="325" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A325" s="98"/>
+      <c r="A325" s="121"/>
       <c r="G325" s="16"/>
     </row>
     <row r="326" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A326" s="91" t="s">
+      <c r="A326" s="65" t="s">
         <v>499</v>
       </c>
       <c r="B326" s="42" t="s">
@@ -9183,7 +9185,7 @@
       <c r="G326" s="13"/>
     </row>
     <row r="327" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A327" s="92"/>
+      <c r="A327" s="66"/>
       <c r="B327" s="42" t="s">
         <v>189</v>
       </c>
@@ -9197,7 +9199,7 @@
       <c r="G327" s="13"/>
     </row>
     <row r="328" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A328" s="92"/>
+      <c r="A328" s="66"/>
       <c r="B328" s="42" t="s">
         <v>725</v>
       </c>
@@ -9212,7 +9214,7 @@
       <c r="G328" s="13"/>
     </row>
     <row r="329" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A329" s="92"/>
+      <c r="A329" s="66"/>
       <c r="B329" s="42" t="s">
         <v>776</v>
       </c>
@@ -9227,7 +9229,7 @@
       <c r="G329" s="13"/>
     </row>
     <row r="330" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A330" s="92"/>
+      <c r="A330" s="66"/>
       <c r="B330" s="42"/>
       <c r="C330" s="7"/>
       <c r="D330" s="8"/>
@@ -9236,7 +9238,7 @@
       <c r="G330" s="13"/>
     </row>
     <row r="331" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A331" s="92"/>
+      <c r="A331" s="66"/>
       <c r="B331" s="42"/>
       <c r="C331" s="7"/>
       <c r="D331" s="8"/>
@@ -9245,7 +9247,7 @@
       <c r="G331" s="13"/>
     </row>
     <row r="332" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A332" s="92"/>
+      <c r="A332" s="66"/>
       <c r="B332" s="42"/>
       <c r="C332" s="7"/>
       <c r="D332" s="8"/>
@@ -9254,14 +9256,14 @@
       <c r="G332" s="13"/>
     </row>
     <row r="333" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="108"/>
+      <c r="A333" s="67"/>
       <c r="F333" s="19"/>
       <c r="G333" s="16" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="334" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="76" t="s">
+      <c r="A334" s="101" t="s">
         <v>47</v>
       </c>
       <c r="B334" s="49" t="s">
@@ -9280,7 +9282,7 @@
       <c r="G334" s="12"/>
     </row>
     <row r="335" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A335" s="77"/>
+      <c r="A335" s="102"/>
       <c r="B335" s="45" t="s">
         <v>51</v>
       </c>
@@ -9297,7 +9299,7 @@
       <c r="G335" s="13"/>
     </row>
     <row r="336" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A336" s="77"/>
+      <c r="A336" s="102"/>
       <c r="B336" s="45" t="s">
         <v>54</v>
       </c>
@@ -9312,7 +9314,7 @@
       <c r="G336" s="13"/>
     </row>
     <row r="337" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="77"/>
+      <c r="A337" s="102"/>
       <c r="B337" s="45" t="s">
         <v>57</v>
       </c>
@@ -9331,7 +9333,7 @@
       <c r="G337" s="13"/>
     </row>
     <row r="338" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A338" s="77"/>
+      <c r="A338" s="102"/>
       <c r="B338" s="45" t="s">
         <v>61</v>
       </c>
@@ -9348,7 +9350,7 @@
       <c r="G338" s="13"/>
     </row>
     <row r="339" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A339" s="77"/>
+      <c r="A339" s="102"/>
       <c r="B339" s="45" t="s">
         <v>64</v>
       </c>
@@ -9367,7 +9369,7 @@
       <c r="G339" s="13"/>
     </row>
     <row r="340" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A340" s="77"/>
+      <c r="A340" s="102"/>
       <c r="B340" s="45" t="s">
         <v>67</v>
       </c>
@@ -9386,7 +9388,7 @@
       <c r="G340" s="13"/>
     </row>
     <row r="341" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A341" s="77"/>
+      <c r="A341" s="102"/>
       <c r="B341" s="42" t="s">
         <v>51</v>
       </c>
@@ -9400,7 +9402,7 @@
       <c r="G341" s="13"/>
     </row>
     <row r="342" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="77"/>
+      <c r="A342" s="102"/>
       <c r="B342" s="45"/>
       <c r="C342" s="4"/>
       <c r="D342" s="4"/>
@@ -9409,7 +9411,7 @@
       <c r="G342" s="13"/>
     </row>
     <row r="343" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="77"/>
+      <c r="A343" s="102"/>
       <c r="B343" s="45"/>
       <c r="C343" s="4"/>
       <c r="D343" s="4"/>
@@ -9418,7 +9420,7 @@
       <c r="G343" s="13"/>
     </row>
     <row r="344" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A344" s="78"/>
+      <c r="A344" s="103"/>
       <c r="B344" s="50"/>
       <c r="C344" s="14"/>
       <c r="D344" s="14"/>
@@ -9427,7 +9429,7 @@
       <c r="G344" s="16"/>
     </row>
     <row r="345" spans="1:7" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A345" s="85" t="s">
+      <c r="A345" s="110" t="s">
         <v>408</v>
       </c>
       <c r="B345" s="42" t="s">
@@ -9444,7 +9446,7 @@
       <c r="G345" s="12"/>
     </row>
     <row r="346" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A346" s="86"/>
+      <c r="A346" s="111"/>
       <c r="B346" s="42" t="s">
         <v>135</v>
       </c>
@@ -9458,7 +9460,7 @@
       <c r="G346" s="13"/>
     </row>
     <row r="347" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A347" s="86"/>
+      <c r="A347" s="111"/>
       <c r="B347" s="42" t="s">
         <v>324</v>
       </c>
@@ -9472,7 +9474,7 @@
       <c r="G347" s="13"/>
     </row>
     <row r="348" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A348" s="86"/>
+      <c r="A348" s="111"/>
       <c r="B348" s="31" t="s">
         <v>996</v>
       </c>
@@ -9487,7 +9489,7 @@
       <c r="G348" s="13"/>
     </row>
     <row r="349" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A349" s="86"/>
+      <c r="A349" s="111"/>
       <c r="B349" s="31" t="s">
         <v>1022</v>
       </c>
@@ -9502,7 +9504,7 @@
       <c r="G349" s="13"/>
     </row>
     <row r="350" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A350" s="86"/>
+      <c r="A350" s="111"/>
       <c r="B350" s="31" t="s">
         <v>1031</v>
       </c>
@@ -9517,7 +9519,7 @@
       <c r="G350" s="13"/>
     </row>
     <row r="351" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A351" s="86"/>
+      <c r="A351" s="111"/>
       <c r="B351" s="31"/>
       <c r="C351" s="31"/>
       <c r="D351" s="31"/>
@@ -9526,7 +9528,7 @@
       <c r="G351" s="13"/>
     </row>
     <row r="352" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A352" s="86"/>
+      <c r="A352" s="111"/>
       <c r="B352" s="31"/>
       <c r="C352" s="31"/>
       <c r="D352" s="31"/>
@@ -9535,7 +9537,7 @@
       <c r="G352" s="13"/>
     </row>
     <row r="353" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A353" s="87"/>
+      <c r="A353" s="112"/>
       <c r="B353" s="50"/>
       <c r="C353" s="14"/>
       <c r="D353" s="14"/>
@@ -9544,7 +9546,7 @@
       <c r="G353" s="16"/>
     </row>
     <row r="354" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A354" s="105" t="s">
+      <c r="A354" s="128" t="s">
         <v>498</v>
       </c>
       <c r="B354" s="42" t="s">
@@ -9562,7 +9564,7 @@
       <c r="G354" s="12"/>
     </row>
     <row r="355" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A355" s="106"/>
+      <c r="A355" s="129"/>
       <c r="B355" s="42" t="s">
         <v>189</v>
       </c>
@@ -9576,7 +9578,7 @@
       <c r="G355" s="13"/>
     </row>
     <row r="356" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A356" s="106"/>
+      <c r="A356" s="129"/>
       <c r="B356" s="42" t="s">
         <v>532</v>
       </c>
@@ -9591,7 +9593,7 @@
       <c r="G356" s="13"/>
     </row>
     <row r="357" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A357" s="106"/>
+      <c r="A357" s="129"/>
       <c r="B357" s="45"/>
       <c r="C357" s="4"/>
       <c r="D357" s="4"/>
@@ -9600,7 +9602,7 @@
       <c r="G357" s="13"/>
     </row>
     <row r="358" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A358" s="106"/>
+      <c r="A358" s="129"/>
       <c r="B358" s="45"/>
       <c r="C358" s="4"/>
       <c r="D358" s="4"/>
@@ -9609,7 +9611,7 @@
       <c r="G358" s="13"/>
     </row>
     <row r="359" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A359" s="106"/>
+      <c r="A359" s="129"/>
       <c r="B359" s="45"/>
       <c r="C359" s="4"/>
       <c r="D359" s="4"/>
@@ -9618,7 +9620,7 @@
       <c r="G359" s="13"/>
     </row>
     <row r="360" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A360" s="107"/>
+      <c r="A360" s="130"/>
       <c r="B360" s="42"/>
       <c r="C360" s="31"/>
       <c r="E360" s="31"/>
@@ -9626,7 +9628,7 @@
       <c r="G360" s="13"/>
     </row>
     <row r="361" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A361" s="99" t="s">
+      <c r="A361" s="122" t="s">
         <v>497</v>
       </c>
       <c r="B361" s="42" t="s">
@@ -9642,7 +9644,7 @@
       <c r="G361" s="18"/>
     </row>
     <row r="362" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A362" s="100"/>
+      <c r="A362" s="123"/>
       <c r="B362" s="42" t="s">
         <v>133</v>
       </c>
@@ -9656,7 +9658,7 @@
       <c r="G362" s="13"/>
     </row>
     <row r="363" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A363" s="100"/>
+      <c r="A363" s="123"/>
       <c r="B363" s="42" t="s">
         <v>265</v>
       </c>
@@ -9670,7 +9672,7 @@
       <c r="G363" s="13"/>
     </row>
     <row r="364" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A364" s="100"/>
+      <c r="A364" s="123"/>
       <c r="B364" s="42" t="s">
         <v>267</v>
       </c>
@@ -9684,7 +9686,7 @@
       <c r="G364" s="13"/>
     </row>
     <row r="365" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A365" s="100"/>
+      <c r="A365" s="123"/>
       <c r="B365" s="42" t="s">
         <v>343</v>
       </c>
@@ -9700,7 +9702,7 @@
       <c r="G365" s="13"/>
     </row>
     <row r="366" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A366" s="100"/>
+      <c r="A366" s="123"/>
       <c r="B366" s="42" t="s">
         <v>367</v>
       </c>
@@ -9714,7 +9716,7 @@
       <c r="G366" s="13"/>
     </row>
     <row r="367" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A367" s="100"/>
+      <c r="A367" s="123"/>
       <c r="B367" s="42" t="s">
         <v>375</v>
       </c>
@@ -9728,7 +9730,7 @@
       <c r="G367" s="13"/>
     </row>
     <row r="368" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A368" s="100"/>
+      <c r="A368" s="123"/>
       <c r="B368" s="35" t="s">
         <v>462</v>
       </c>
@@ -9745,7 +9747,7 @@
       <c r="G368" s="13"/>
     </row>
     <row r="369" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A369" s="100"/>
+      <c r="A369" s="123"/>
       <c r="B369" s="42" t="s">
         <v>505</v>
       </c>
@@ -9760,7 +9762,7 @@
       <c r="G369" s="13"/>
     </row>
     <row r="370" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A370" s="100"/>
+      <c r="A370" s="123"/>
       <c r="B370" s="42" t="s">
         <v>540</v>
       </c>
@@ -9775,7 +9777,7 @@
       <c r="G370" s="13"/>
     </row>
     <row r="371" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A371" s="100"/>
+      <c r="A371" s="123"/>
       <c r="B371" s="42" t="s">
         <v>695</v>
       </c>
@@ -9792,7 +9794,7 @@
       <c r="G371" s="13"/>
     </row>
     <row r="372" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A372" s="100"/>
+      <c r="A372" s="123"/>
       <c r="B372" s="42" t="s">
         <v>698</v>
       </c>
@@ -9807,7 +9809,7 @@
       <c r="G372" s="13"/>
     </row>
     <row r="373" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A373" s="100"/>
+      <c r="A373" s="123"/>
       <c r="B373" s="42" t="s">
         <v>716</v>
       </c>
@@ -9824,7 +9826,7 @@
       <c r="G373" s="13"/>
     </row>
     <row r="374" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A374" s="100"/>
+      <c r="A374" s="123"/>
       <c r="B374" s="31" t="s">
         <v>133</v>
       </c>
@@ -9839,7 +9841,7 @@
       <c r="G374" s="13"/>
     </row>
     <row r="375" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A375" s="100"/>
+      <c r="A375" s="123"/>
       <c r="B375" s="31" t="s">
         <v>841</v>
       </c>
@@ -9854,7 +9856,7 @@
       <c r="G375" s="13"/>
     </row>
     <row r="376" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A376" s="100"/>
+      <c r="A376" s="123"/>
       <c r="B376" s="39" t="s">
         <v>951</v>
       </c>
@@ -9869,7 +9871,7 @@
       <c r="G376" s="13"/>
     </row>
     <row r="377" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A377" s="100"/>
+      <c r="A377" s="123"/>
       <c r="B377" s="39" t="s">
         <v>964</v>
       </c>
@@ -9884,7 +9886,7 @@
       <c r="G377" s="13"/>
     </row>
     <row r="378" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A378" s="100"/>
+      <c r="A378" s="123"/>
       <c r="B378" s="31" t="s">
         <v>343</v>
       </c>
@@ -9899,7 +9901,7 @@
       <c r="G378" s="13"/>
     </row>
     <row r="379" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A379" s="100"/>
+      <c r="A379" s="123"/>
       <c r="B379" s="39"/>
       <c r="C379" s="39"/>
       <c r="D379" s="39"/>
@@ -9908,7 +9910,7 @@
       <c r="G379" s="13"/>
     </row>
     <row r="380" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A380" s="100"/>
+      <c r="A380" s="123"/>
       <c r="B380" s="39"/>
       <c r="C380" s="39"/>
       <c r="D380" s="39"/>
@@ -9917,7 +9919,7 @@
       <c r="G380" s="13"/>
     </row>
     <row r="381" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A381" s="100"/>
+      <c r="A381" s="123"/>
       <c r="B381" s="39"/>
       <c r="C381" s="39"/>
       <c r="D381" s="39"/>
@@ -9926,7 +9928,7 @@
       <c r="G381" s="13"/>
     </row>
     <row r="382" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A382" s="101"/>
+      <c r="A382" s="124"/>
       <c r="B382" s="42" t="s">
         <v>387</v>
       </c>
@@ -9940,7 +9942,7 @@
       <c r="G382" s="16"/>
     </row>
     <row r="383" spans="1:7" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A383" s="79" t="s">
+      <c r="A383" s="104" t="s">
         <v>406</v>
       </c>
       <c r="B383" s="42" t="s">
@@ -9956,7 +9958,7 @@
       <c r="G383" s="30"/>
     </row>
     <row r="384" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A384" s="80"/>
+      <c r="A384" s="105"/>
       <c r="B384" s="35" t="s">
         <v>434</v>
       </c>
@@ -9973,7 +9975,7 @@
       <c r="G384" s="23"/>
     </row>
     <row r="385" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A385" s="80"/>
+      <c r="A385" s="105"/>
       <c r="B385" s="42" t="s">
         <v>347</v>
       </c>
@@ -9987,7 +9989,7 @@
       <c r="G385" s="13"/>
     </row>
     <row r="386" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A386" s="80"/>
+      <c r="A386" s="105"/>
       <c r="B386" s="47" t="s">
         <v>369</v>
       </c>
@@ -10000,7 +10002,7 @@
       <c r="G386" s="13"/>
     </row>
     <row r="387" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A387" s="80"/>
+      <c r="A387" s="105"/>
       <c r="B387" s="42" t="s">
         <v>371</v>
       </c>
@@ -10014,7 +10016,7 @@
       <c r="G387" s="13"/>
     </row>
     <row r="388" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A388" s="80"/>
+      <c r="A388" s="105"/>
       <c r="B388" s="35" t="s">
         <v>394</v>
       </c>
@@ -10029,7 +10031,7 @@
       <c r="G388" s="13"/>
     </row>
     <row r="389" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A389" s="80"/>
+      <c r="A389" s="105"/>
       <c r="B389" s="42" t="s">
         <v>165</v>
       </c>
@@ -10043,7 +10045,7 @@
       <c r="G389" s="13"/>
     </row>
     <row r="390" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A390" s="80"/>
+      <c r="A390" s="105"/>
       <c r="B390" s="42" t="s">
         <v>71</v>
       </c>
@@ -10058,7 +10060,7 @@
       <c r="G390" s="13"/>
     </row>
     <row r="391" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A391" s="80"/>
+      <c r="A391" s="105"/>
       <c r="B391" s="42" t="s">
         <v>154</v>
       </c>
@@ -10072,7 +10074,7 @@
       <c r="G391" s="13"/>
     </row>
     <row r="392" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A392" s="80"/>
+      <c r="A392" s="105"/>
       <c r="B392" s="42" t="s">
         <v>181</v>
       </c>
@@ -10086,7 +10088,7 @@
       <c r="G392" s="13"/>
     </row>
     <row r="393" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A393" s="80"/>
+      <c r="A393" s="105"/>
       <c r="B393" s="42" t="s">
         <v>232</v>
       </c>
@@ -10100,7 +10102,7 @@
       <c r="G393" s="13"/>
     </row>
     <row r="394" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A394" s="80"/>
+      <c r="A394" s="105"/>
       <c r="B394" s="42" t="s">
         <v>514</v>
       </c>
@@ -10115,7 +10117,7 @@
       <c r="G394" s="13"/>
     </row>
     <row r="395" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A395" s="80"/>
+      <c r="A395" s="105"/>
       <c r="B395" s="42" t="s">
         <v>719</v>
       </c>
@@ -10129,7 +10131,7 @@
       <c r="G395" s="13"/>
     </row>
     <row r="396" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A396" s="80"/>
+      <c r="A396" s="105"/>
       <c r="B396" s="31" t="s">
         <v>821</v>
       </c>
@@ -10144,7 +10146,7 @@
       <c r="G396" s="13"/>
     </row>
     <row r="397" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A397" s="80"/>
+      <c r="A397" s="105"/>
       <c r="B397" s="39" t="s">
         <v>888</v>
       </c>
@@ -10159,7 +10161,7 @@
       <c r="G397" s="13"/>
     </row>
     <row r="398" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A398" s="80"/>
+      <c r="A398" s="105"/>
       <c r="B398" s="39" t="s">
         <v>906</v>
       </c>
@@ -10174,7 +10176,7 @@
       <c r="G398" s="13"/>
     </row>
     <row r="399" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A399" s="80"/>
+      <c r="A399" s="105"/>
       <c r="B399" s="35" t="s">
         <v>1132</v>
       </c>
@@ -10190,7 +10192,7 @@
       <c r="G399" s="13"/>
     </row>
     <row r="400" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A400" s="80"/>
+      <c r="A400" s="105"/>
       <c r="B400" s="35" t="s">
         <v>1136</v>
       </c>
@@ -10204,7 +10206,7 @@
       <c r="G400" s="13"/>
     </row>
     <row r="401" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A401" s="80"/>
+      <c r="A401" s="105"/>
       <c r="B401" s="39"/>
       <c r="C401" s="39"/>
       <c r="D401" s="39"/>
@@ -10213,7 +10215,7 @@
       <c r="G401" s="13"/>
     </row>
     <row r="402" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A402" s="80"/>
+      <c r="A402" s="105"/>
       <c r="B402" s="42"/>
       <c r="C402" s="31"/>
       <c r="D402" s="31"/>
@@ -10222,12 +10224,12 @@
       <c r="G402" s="13"/>
     </row>
     <row r="403" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A403" s="81"/>
+      <c r="A403" s="106"/>
       <c r="F403" s="19"/>
       <c r="G403" s="16"/>
     </row>
     <row r="404" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A404" s="88" t="s">
+      <c r="A404" s="113" t="s">
         <v>491</v>
       </c>
       <c r="B404" s="42" t="s">
@@ -10243,7 +10245,7 @@
       <c r="G404" s="12"/>
     </row>
     <row r="405" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A405" s="89"/>
+      <c r="A405" s="114"/>
       <c r="B405" s="42" t="s">
         <v>215</v>
       </c>
@@ -10257,7 +10259,7 @@
       <c r="G405" s="13"/>
     </row>
     <row r="406" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A406" s="89"/>
+      <c r="A406" s="114"/>
       <c r="B406" s="42" t="s">
         <v>283</v>
       </c>
@@ -10273,7 +10275,7 @@
       <c r="G406" s="13"/>
     </row>
     <row r="407" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A407" s="89"/>
+      <c r="A407" s="114"/>
       <c r="B407" s="42" t="s">
         <v>517</v>
       </c>
@@ -10288,7 +10290,7 @@
       <c r="G407" s="13"/>
     </row>
     <row r="408" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A408" s="89"/>
+      <c r="A408" s="114"/>
       <c r="B408" s="42" t="s">
         <v>546</v>
       </c>
@@ -10303,7 +10305,7 @@
       <c r="G408" s="13"/>
     </row>
     <row r="409" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A409" s="89"/>
+      <c r="A409" s="114"/>
       <c r="B409" s="42" t="s">
         <v>581</v>
       </c>
@@ -10318,7 +10320,7 @@
       <c r="G409" s="13"/>
     </row>
     <row r="410" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A410" s="89"/>
+      <c r="A410" s="114"/>
       <c r="B410" s="42" t="s">
         <v>608</v>
       </c>
@@ -10333,7 +10335,7 @@
       <c r="G410" s="13"/>
     </row>
     <row r="411" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A411" s="89"/>
+      <c r="A411" s="114"/>
       <c r="B411" s="42" t="s">
         <v>698</v>
       </c>
@@ -10348,7 +10350,7 @@
       <c r="G411" s="13"/>
     </row>
     <row r="412" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A412" s="89"/>
+      <c r="A412" s="114"/>
       <c r="B412" s="42" t="s">
         <v>713</v>
       </c>
@@ -10363,7 +10365,7 @@
       <c r="G412" s="13"/>
     </row>
     <row r="413" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A413" s="89"/>
+      <c r="A413" s="114"/>
       <c r="B413" s="42" t="s">
         <v>770</v>
       </c>
@@ -10377,7 +10379,7 @@
       <c r="G413" s="13"/>
     </row>
     <row r="414" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A414" s="89"/>
+      <c r="A414" s="114"/>
       <c r="B414" s="31" t="s">
         <v>924</v>
       </c>
@@ -10391,7 +10393,7 @@
       <c r="G414" s="13"/>
     </row>
     <row r="415" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A415" s="89"/>
+      <c r="A415" s="114"/>
       <c r="B415" s="39" t="s">
         <v>945</v>
       </c>
@@ -10405,7 +10407,7 @@
       <c r="G415" s="13"/>
     </row>
     <row r="416" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A416" s="89"/>
+      <c r="A416" s="114"/>
       <c r="B416" s="39" t="s">
         <v>242</v>
       </c>
@@ -10419,7 +10421,7 @@
       <c r="G416" s="13"/>
     </row>
     <row r="417" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A417" s="89"/>
+      <c r="A417" s="114"/>
       <c r="B417" s="42"/>
       <c r="C417" s="39"/>
       <c r="D417" s="39"/>
@@ -10427,7 +10429,7 @@
       <c r="G417" s="13"/>
     </row>
     <row r="418" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A418" s="89"/>
+      <c r="A418" s="114"/>
       <c r="B418" s="42"/>
       <c r="C418" s="39"/>
       <c r="D418" s="39"/>
@@ -10435,7 +10437,7 @@
       <c r="G418" s="13"/>
     </row>
     <row r="419" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A419" s="90"/>
+      <c r="A419" s="115"/>
       <c r="B419" s="50"/>
       <c r="C419" s="14"/>
       <c r="D419" s="14"/>
@@ -10444,7 +10446,7 @@
       <c r="G419" s="16"/>
     </row>
     <row r="420" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A420" s="102" t="s">
+      <c r="A420" s="125" t="s">
         <v>208</v>
       </c>
       <c r="B420" s="42" t="s">
@@ -10460,7 +10462,7 @@
       <c r="G420" s="12"/>
     </row>
     <row r="421" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A421" s="103"/>
+      <c r="A421" s="126"/>
       <c r="B421" s="42" t="s">
         <v>208</v>
       </c>
@@ -10474,7 +10476,7 @@
       <c r="G421" s="13"/>
     </row>
     <row r="422" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A422" s="103"/>
+      <c r="A422" s="126"/>
       <c r="B422" s="42" t="s">
         <v>279</v>
       </c>
@@ -10488,7 +10490,7 @@
       <c r="G422" s="13"/>
     </row>
     <row r="423" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A423" s="103"/>
+      <c r="A423" s="126"/>
       <c r="B423" s="42" t="s">
         <v>363</v>
       </c>
@@ -10502,7 +10504,7 @@
       <c r="G423" s="13"/>
     </row>
     <row r="424" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A424" s="103"/>
+      <c r="A424" s="126"/>
       <c r="B424" s="35" t="s">
         <v>451</v>
       </c>
@@ -10519,7 +10521,7 @@
       <c r="G424" s="13"/>
     </row>
     <row r="425" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A425" s="103"/>
+      <c r="A425" s="126"/>
       <c r="B425" s="42" t="s">
         <v>502</v>
       </c>
@@ -10534,7 +10536,7 @@
       <c r="G425" s="13"/>
     </row>
     <row r="426" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A426" s="103"/>
+      <c r="A426" s="126"/>
       <c r="B426" s="42" t="s">
         <v>511</v>
       </c>
@@ -10549,7 +10551,7 @@
       <c r="G426" s="13"/>
     </row>
     <row r="427" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A427" s="103"/>
+      <c r="A427" s="126"/>
       <c r="B427" s="42" t="s">
         <v>523</v>
       </c>
@@ -10564,7 +10566,7 @@
       <c r="G427" s="13"/>
     </row>
     <row r="428" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A428" s="103"/>
+      <c r="A428" s="126"/>
       <c r="B428" s="42" t="s">
         <v>560</v>
       </c>
@@ -10579,7 +10581,7 @@
       <c r="G428" s="13"/>
     </row>
     <row r="429" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A429" s="103"/>
+      <c r="A429" s="126"/>
       <c r="B429" s="42" t="s">
         <v>577</v>
       </c>
@@ -10596,7 +10598,7 @@
       <c r="G429" s="13"/>
     </row>
     <row r="430" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A430" s="103"/>
+      <c r="A430" s="126"/>
       <c r="B430" s="42" t="s">
         <v>630</v>
       </c>
@@ -10610,7 +10612,7 @@
       <c r="G430" s="13"/>
     </row>
     <row r="431" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A431" s="103"/>
+      <c r="A431" s="126"/>
       <c r="B431" s="42" t="s">
         <v>633</v>
       </c>
@@ -10627,7 +10629,7 @@
       <c r="G431" s="13"/>
     </row>
     <row r="432" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A432" s="103"/>
+      <c r="A432" s="126"/>
       <c r="B432" s="42" t="s">
         <v>689</v>
       </c>
@@ -10642,7 +10644,7 @@
       <c r="G432" s="13"/>
     </row>
     <row r="433" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A433" s="103"/>
+      <c r="A433" s="126"/>
       <c r="B433" s="42" t="s">
         <v>701</v>
       </c>
@@ -10657,7 +10659,7 @@
       <c r="G433" s="13"/>
     </row>
     <row r="434" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A434" s="103"/>
+      <c r="A434" s="126"/>
       <c r="B434" s="42" t="s">
         <v>683</v>
       </c>
@@ -10672,7 +10674,7 @@
       <c r="G434" s="13"/>
     </row>
     <row r="435" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A435" s="103"/>
+      <c r="A435" s="126"/>
       <c r="B435" s="42" t="s">
         <v>756</v>
       </c>
@@ -10687,7 +10689,7 @@
       <c r="G435" s="13"/>
     </row>
     <row r="436" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A436" s="103"/>
+      <c r="A436" s="126"/>
       <c r="B436" s="31" t="s">
         <v>874</v>
       </c>
@@ -10702,7 +10704,7 @@
       <c r="G436" s="13"/>
     </row>
     <row r="437" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A437" s="103"/>
+      <c r="A437" s="126"/>
       <c r="B437" s="39" t="s">
         <v>187</v>
       </c>
@@ -10717,7 +10719,7 @@
       <c r="G437" s="13"/>
     </row>
     <row r="438" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A438" s="103"/>
+      <c r="A438" s="126"/>
       <c r="B438" s="31" t="s">
         <v>279</v>
       </c>
@@ -10732,7 +10734,7 @@
       <c r="G438" s="13"/>
     </row>
     <row r="439" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A439" s="103"/>
+      <c r="A439" s="126"/>
       <c r="B439" s="31"/>
       <c r="C439" s="31"/>
       <c r="D439" s="31"/>
@@ -10741,7 +10743,7 @@
       <c r="G439" s="13"/>
     </row>
     <row r="440" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A440" s="103"/>
+      <c r="A440" s="126"/>
       <c r="B440" s="42"/>
       <c r="C440" s="31"/>
       <c r="D440" s="31"/>
@@ -10750,7 +10752,7 @@
       <c r="G440" s="13"/>
     </row>
     <row r="441" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A441" s="104"/>
+      <c r="A441" s="127"/>
       <c r="B441" s="31"/>
       <c r="C441" s="31"/>
       <c r="D441" s="31"/>
@@ -10759,7 +10761,7 @@
       <c r="G441" s="16"/>
     </row>
     <row r="442" spans="1:7" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A442" s="70" t="s">
+      <c r="A442" s="95" t="s">
         <v>10</v>
       </c>
       <c r="B442" s="51" t="s">
@@ -10780,7 +10782,7 @@
       </c>
     </row>
     <row r="443" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A443" s="71"/>
+      <c r="A443" s="96"/>
       <c r="B443" s="35" t="s">
         <v>16</v>
       </c>
@@ -10795,7 +10797,7 @@
       <c r="G443" s="13"/>
     </row>
     <row r="444" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A444" s="71"/>
+      <c r="A444" s="96"/>
       <c r="B444" s="35" t="s">
         <v>19</v>
       </c>
@@ -10810,7 +10812,7 @@
       <c r="G444" s="13"/>
     </row>
     <row r="445" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A445" s="71"/>
+      <c r="A445" s="96"/>
       <c r="B445" s="35" t="s">
         <v>22</v>
       </c>
@@ -10825,7 +10827,7 @@
       <c r="G445" s="13"/>
     </row>
     <row r="446" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A446" s="71"/>
+      <c r="A446" s="96"/>
       <c r="B446" s="35" t="s">
         <v>25</v>
       </c>
@@ -10840,7 +10842,7 @@
       <c r="G446" s="13"/>
     </row>
     <row r="447" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A447" s="71"/>
+      <c r="A447" s="96"/>
       <c r="B447" s="35" t="s">
         <v>28</v>
       </c>
@@ -10855,7 +10857,7 @@
       <c r="G447" s="13"/>
     </row>
     <row r="448" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A448" s="71"/>
+      <c r="A448" s="96"/>
       <c r="B448" s="35" t="s">
         <v>31</v>
       </c>
@@ -10870,7 +10872,7 @@
       <c r="G448" s="13"/>
     </row>
     <row r="449" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A449" s="71"/>
+      <c r="A449" s="96"/>
       <c r="B449" s="35" t="s">
         <v>34</v>
       </c>
@@ -10885,7 +10887,7 @@
       <c r="G449" s="13"/>
     </row>
     <row r="450" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A450" s="71"/>
+      <c r="A450" s="96"/>
       <c r="B450" s="35" t="s">
         <v>486</v>
       </c>
@@ -10902,7 +10904,7 @@
       <c r="G450" s="13"/>
     </row>
     <row r="451" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A451" s="71"/>
+      <c r="A451" s="96"/>
       <c r="B451" s="42" t="s">
         <v>349</v>
       </c>
@@ -10916,7 +10918,7 @@
       <c r="G451" s="13"/>
     </row>
     <row r="452" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A452" s="71"/>
+      <c r="A452" s="96"/>
       <c r="B452" s="42" t="s">
         <v>611</v>
       </c>
@@ -10933,7 +10935,7 @@
       <c r="G452" s="13"/>
     </row>
     <row r="453" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A453" s="71"/>
+      <c r="A453" s="96"/>
       <c r="B453" s="42" t="s">
         <v>615</v>
       </c>
@@ -10947,7 +10949,7 @@
       <c r="G453" s="13"/>
     </row>
     <row r="454" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A454" s="71"/>
+      <c r="A454" s="96"/>
       <c r="B454" s="42" t="s">
         <v>773</v>
       </c>
@@ -10962,7 +10964,7 @@
       <c r="G454" s="13"/>
     </row>
     <row r="455" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A455" s="71"/>
+      <c r="A455" s="96"/>
       <c r="B455" s="39" t="s">
         <v>958</v>
       </c>
@@ -10977,7 +10979,7 @@
       <c r="G455" s="13"/>
     </row>
     <row r="456" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A456" s="71"/>
+      <c r="A456" s="96"/>
       <c r="B456" s="31" t="s">
         <v>1007</v>
       </c>
@@ -10992,7 +10994,7 @@
       <c r="G456" s="13"/>
     </row>
     <row r="457" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A457" s="71"/>
+      <c r="A457" s="96"/>
       <c r="B457" s="31" t="s">
         <v>1010</v>
       </c>
@@ -11007,7 +11009,7 @@
       <c r="G457" s="13"/>
     </row>
     <row r="458" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A458" s="71"/>
+      <c r="A458" s="96"/>
       <c r="B458" s="34" t="s">
         <v>945</v>
       </c>
@@ -11026,7 +11028,7 @@
       <c r="G458" s="13"/>
     </row>
     <row r="459" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A459" s="71"/>
+      <c r="A459" s="96"/>
       <c r="B459" s="34" t="s">
         <v>1079</v>
       </c>
@@ -11045,7 +11047,7 @@
       <c r="G459" s="13"/>
     </row>
     <row r="460" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A460" s="71"/>
+      <c r="A460" s="96"/>
       <c r="B460" s="34" t="s">
         <v>1082</v>
       </c>
@@ -11063,8 +11065,8 @@
       </c>
       <c r="G460" s="13"/>
     </row>
-    <row r="461" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A461" s="71"/>
+    <row r="461" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A461" s="96"/>
       <c r="B461" s="34" t="s">
         <v>1088</v>
       </c>
@@ -11083,7 +11085,7 @@
       <c r="G461" s="13"/>
     </row>
     <row r="462" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A462" s="71"/>
+      <c r="A462" s="96"/>
       <c r="B462" s="55" t="s">
         <v>1091</v>
       </c>
@@ -11100,7 +11102,7 @@
       <c r="G462" s="13"/>
     </row>
     <row r="463" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A463" s="71"/>
+      <c r="A463" s="96"/>
       <c r="B463" s="35" t="s">
         <v>1101</v>
       </c>
@@ -11119,7 +11121,7 @@
       <c r="G463" s="13"/>
     </row>
     <row r="464" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A464" s="71"/>
+      <c r="A464" s="96"/>
       <c r="B464" s="35" t="s">
         <v>1106</v>
       </c>
@@ -11138,7 +11140,7 @@
       <c r="G464" s="13"/>
     </row>
     <row r="465" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A465" s="71"/>
+      <c r="A465" s="96"/>
       <c r="B465" s="35" t="s">
         <v>1109</v>
       </c>
@@ -11157,7 +11159,7 @@
       <c r="G465" s="13"/>
     </row>
     <row r="466" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A466" s="71"/>
+      <c r="A466" s="96"/>
       <c r="B466" s="35" t="s">
         <v>1112</v>
       </c>
@@ -11176,7 +11178,7 @@
       <c r="G466" s="13"/>
     </row>
     <row r="467" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A467" s="71"/>
+      <c r="A467" s="96"/>
       <c r="B467" s="35" t="s">
         <v>1116</v>
       </c>
@@ -11195,7 +11197,7 @@
       <c r="G467" s="13"/>
     </row>
     <row r="468" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A468" s="71"/>
+      <c r="A468" s="96"/>
       <c r="B468" s="35" t="s">
         <v>1120</v>
       </c>
@@ -11214,7 +11216,7 @@
       <c r="G468" s="13"/>
     </row>
     <row r="469" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A469" s="71"/>
+      <c r="A469" s="96"/>
       <c r="B469" s="35" t="s">
         <v>1120</v>
       </c>
@@ -11233,7 +11235,7 @@
       <c r="G469" s="13"/>
     </row>
     <row r="470" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A470" s="71"/>
+      <c r="A470" s="96"/>
       <c r="B470" s="35" t="s">
         <v>1125</v>
       </c>
@@ -11252,7 +11254,7 @@
       <c r="G470" s="13"/>
     </row>
     <row r="471" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A471" s="71"/>
+      <c r="A471" s="96"/>
       <c r="B471" s="35"/>
       <c r="C471" s="35"/>
       <c r="D471" s="64"/>
@@ -11261,7 +11263,7 @@
       <c r="G471" s="13"/>
     </row>
     <row r="472" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A472" s="71"/>
+      <c r="A472" s="96"/>
       <c r="B472" s="35"/>
       <c r="C472" s="35"/>
       <c r="D472" s="64"/>
@@ -11270,7 +11272,7 @@
       <c r="G472" s="13"/>
     </row>
     <row r="473" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A473" s="71"/>
+      <c r="A473" s="96"/>
       <c r="B473" s="35"/>
       <c r="C473" s="35"/>
       <c r="D473" s="64"/>
@@ -11279,7 +11281,7 @@
       <c r="G473" s="13"/>
     </row>
     <row r="474" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A474" s="71"/>
+      <c r="A474" s="96"/>
       <c r="B474" s="35"/>
       <c r="C474" s="35"/>
       <c r="D474" s="64"/>
@@ -11288,7 +11290,7 @@
       <c r="G474" s="13"/>
     </row>
     <row r="475" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A475" s="72"/>
+      <c r="A475" s="97"/>
       <c r="B475" s="52"/>
       <c r="C475" s="19"/>
       <c r="D475" s="25"/>
@@ -14240,14 +14242,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A281:A288"/>
-    <mergeCell ref="A164:A217"/>
-    <mergeCell ref="A289:A313"/>
-    <mergeCell ref="A120:A136"/>
-    <mergeCell ref="A137:A140"/>
-    <mergeCell ref="A233:A238"/>
-    <mergeCell ref="A255:A280"/>
-    <mergeCell ref="A218:A221"/>
     <mergeCell ref="A3:A99"/>
     <mergeCell ref="A141:A163"/>
     <mergeCell ref="A442:A475"/>
@@ -14264,6 +14258,14 @@
     <mergeCell ref="A420:A441"/>
     <mergeCell ref="A354:A360"/>
     <mergeCell ref="A326:A333"/>
+    <mergeCell ref="A281:A288"/>
+    <mergeCell ref="A164:A217"/>
+    <mergeCell ref="A289:A313"/>
+    <mergeCell ref="A120:A136"/>
+    <mergeCell ref="A137:A140"/>
+    <mergeCell ref="A233:A238"/>
+    <mergeCell ref="A255:A280"/>
+    <mergeCell ref="A218:A221"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/xcom_perks/compiled_perks.xlsx
+++ b/docs/xcom_perks/compiled_perks.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\xcom2_my_tweaks\docs\xcom_perks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B368D077-85B7-433F-84EB-55AAD57C3A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F140FF-7489-4F9C-A192-BE6F91ADF4B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19092" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabellenblatt1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="1181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="1181">
   <si>
     <t>Localized Name</t>
   </si>
@@ -4283,47 +4296,6 @@
     <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="40" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4370,6 +4342,10 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4395,6 +4371,43 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="34" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="34" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="40" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4616,8 +4629,8 @@
   <dimension ref="A1:AA1455"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C120" sqref="C120"/>
+      <pane ySplit="2" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C212" sqref="C212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4690,7 +4703,7 @@
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="90"/>
+      <c r="A3" s="65"/>
       <c r="B3" s="42" t="s">
         <v>79</v>
       </c>
@@ -4705,7 +4718,7 @@
       <c r="G3" s="20"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="90"/>
+      <c r="A4" s="65"/>
       <c r="B4" s="42" t="s">
         <v>102</v>
       </c>
@@ -4719,7 +4732,7 @@
       <c r="G4" s="20"/>
     </row>
     <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="90"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="42" t="s">
         <v>114</v>
       </c>
@@ -4732,7 +4745,7 @@
       <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="90"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="42" t="s">
         <v>141</v>
       </c>
@@ -4745,7 +4758,7 @@
       <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="90"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="42" t="s">
         <v>156</v>
       </c>
@@ -4758,7 +4771,7 @@
       <c r="G7" s="20"/>
     </row>
     <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="90"/>
+      <c r="A8" s="65"/>
       <c r="B8" s="42" t="s">
         <v>158</v>
       </c>
@@ -4771,7 +4784,7 @@
       <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="90"/>
+      <c r="A9" s="65"/>
       <c r="B9" s="42" t="s">
         <v>160</v>
       </c>
@@ -4784,7 +4797,7 @@
       <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="90"/>
+      <c r="A10" s="65"/>
       <c r="B10" s="42" t="s">
         <v>177</v>
       </c>
@@ -4797,7 +4810,7 @@
       <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="90"/>
+      <c r="A11" s="65"/>
       <c r="B11" s="42" t="s">
         <v>192</v>
       </c>
@@ -4810,7 +4823,7 @@
       <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="90"/>
+      <c r="A12" s="65"/>
       <c r="B12" s="42" t="s">
         <v>204</v>
       </c>
@@ -4823,7 +4836,7 @@
       <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="90"/>
+      <c r="A13" s="65"/>
       <c r="B13" s="42" t="s">
         <v>210</v>
       </c>
@@ -4838,7 +4851,7 @@
       </c>
     </row>
     <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="90"/>
+      <c r="A14" s="65"/>
       <c r="B14" s="42" t="s">
         <v>213</v>
       </c>
@@ -4850,7 +4863,7 @@
       </c>
     </row>
     <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="90"/>
+      <c r="A15" s="65"/>
       <c r="B15" s="42" t="s">
         <v>219</v>
       </c>
@@ -4862,7 +4875,7 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="90"/>
+      <c r="A16" s="65"/>
       <c r="B16" s="42" t="s">
         <v>230</v>
       </c>
@@ -4874,7 +4887,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="90"/>
+      <c r="A17" s="65"/>
       <c r="B17" s="42" t="s">
         <v>236</v>
       </c>
@@ -4889,7 +4902,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="90"/>
+      <c r="A18" s="65"/>
       <c r="B18" s="42" t="s">
         <v>244</v>
       </c>
@@ -4901,7 +4914,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="90"/>
+      <c r="A19" s="65"/>
       <c r="B19" s="42" t="s">
         <v>257</v>
       </c>
@@ -4913,7 +4926,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="90"/>
+      <c r="A20" s="65"/>
       <c r="B20" s="42" t="s">
         <v>259</v>
       </c>
@@ -4925,7 +4938,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="90"/>
+      <c r="A21" s="65"/>
       <c r="B21" s="42" t="s">
         <v>277</v>
       </c>
@@ -4937,7 +4950,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="90"/>
+      <c r="A22" s="65"/>
       <c r="B22" s="42" t="s">
         <v>287</v>
       </c>
@@ -4949,7 +4962,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="90"/>
+      <c r="A23" s="65"/>
       <c r="B23" s="42" t="s">
         <v>314</v>
       </c>
@@ -4961,7 +4974,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="90"/>
+      <c r="A24" s="65"/>
       <c r="B24" s="42" t="s">
         <v>320</v>
       </c>
@@ -4973,7 +4986,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="90"/>
+      <c r="A25" s="65"/>
       <c r="B25" s="42" t="s">
         <v>326</v>
       </c>
@@ -4985,7 +4998,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="90"/>
+      <c r="A26" s="65"/>
       <c r="B26" s="42" t="s">
         <v>341</v>
       </c>
@@ -4997,7 +5010,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="90"/>
+      <c r="A27" s="65"/>
       <c r="B27" s="42" t="s">
         <v>345</v>
       </c>
@@ -5009,7 +5022,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="90"/>
+      <c r="A28" s="65"/>
       <c r="B28" s="42" t="s">
         <v>365</v>
       </c>
@@ -5021,7 +5034,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="90"/>
+      <c r="A29" s="65"/>
       <c r="B29" s="42" t="s">
         <v>385</v>
       </c>
@@ -5033,7 +5046,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="90"/>
+      <c r="A30" s="65"/>
       <c r="B30" s="35" t="s">
         <v>158</v>
       </c>
@@ -5049,7 +5062,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="90"/>
+      <c r="A31" s="65"/>
       <c r="B31" s="35" t="s">
         <v>416</v>
       </c>
@@ -5062,7 +5075,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="90"/>
+      <c r="A32" s="65"/>
       <c r="B32" s="35" t="s">
         <v>419</v>
       </c>
@@ -5078,7 +5091,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="90"/>
+      <c r="A33" s="65"/>
       <c r="B33" s="35" t="s">
         <v>430</v>
       </c>
@@ -5096,7 +5109,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="90"/>
+      <c r="A34" s="65"/>
       <c r="B34" s="35" t="s">
         <v>454</v>
       </c>
@@ -5114,7 +5127,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="90"/>
+      <c r="A35" s="65"/>
       <c r="B35" s="35" t="s">
         <v>458</v>
       </c>
@@ -5130,7 +5143,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="90"/>
+      <c r="A36" s="65"/>
       <c r="B36" s="35" t="s">
         <v>466</v>
       </c>
@@ -5143,7 +5156,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="90"/>
+      <c r="A37" s="65"/>
       <c r="B37" s="42" t="s">
         <v>508</v>
       </c>
@@ -5156,7 +5169,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="90"/>
+      <c r="A38" s="65"/>
       <c r="B38" s="42" t="s">
         <v>520</v>
       </c>
@@ -5169,7 +5182,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="90"/>
+      <c r="A39" s="65"/>
       <c r="B39" s="42" t="s">
         <v>535</v>
       </c>
@@ -5182,7 +5195,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="90"/>
+      <c r="A40" s="65"/>
       <c r="B40" s="42" t="s">
         <v>543</v>
       </c>
@@ -5195,7 +5208,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="90"/>
+      <c r="A41" s="65"/>
       <c r="B41" s="42" t="s">
         <v>555</v>
       </c>
@@ -5208,7 +5221,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="90"/>
+      <c r="A42" s="65"/>
       <c r="B42" s="42" t="s">
         <v>141</v>
       </c>
@@ -5221,7 +5234,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="90"/>
+      <c r="A43" s="65"/>
       <c r="B43" s="42" t="s">
         <v>574</v>
       </c>
@@ -5234,7 +5247,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="90"/>
+      <c r="A44" s="65"/>
       <c r="B44" s="42" t="s">
         <v>591</v>
       </c>
@@ -5247,7 +5260,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="90"/>
+      <c r="A45" s="65"/>
       <c r="B45" s="42" t="s">
         <v>594</v>
       </c>
@@ -5263,7 +5276,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="90"/>
+      <c r="A46" s="65"/>
       <c r="B46" s="42" t="s">
         <v>598</v>
       </c>
@@ -5276,7 +5289,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="90"/>
+      <c r="A47" s="65"/>
       <c r="B47" s="42" t="s">
         <v>605</v>
       </c>
@@ -5289,7 +5302,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="90"/>
+      <c r="A48" s="65"/>
       <c r="B48" s="42" t="s">
         <v>618</v>
       </c>
@@ -5302,7 +5315,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="90"/>
+      <c r="A49" s="65"/>
       <c r="B49" s="42" t="s">
         <v>621</v>
       </c>
@@ -5315,7 +5328,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="90"/>
+      <c r="A50" s="65"/>
       <c r="B50" s="42" t="s">
         <v>627</v>
       </c>
@@ -5328,7 +5341,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="90"/>
+      <c r="A51" s="65"/>
       <c r="B51" s="42" t="s">
         <v>637</v>
       </c>
@@ -5341,7 +5354,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="90"/>
+      <c r="A52" s="65"/>
       <c r="B52" s="42" t="s">
         <v>640</v>
       </c>
@@ -5354,7 +5367,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="90"/>
+      <c r="A53" s="65"/>
       <c r="B53" s="42" t="s">
         <v>643</v>
       </c>
@@ -5367,7 +5380,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="90"/>
+      <c r="A54" s="65"/>
       <c r="B54" s="42" t="s">
         <v>646</v>
       </c>
@@ -5380,7 +5393,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="90"/>
+      <c r="A55" s="65"/>
       <c r="B55" s="42" t="s">
         <v>649</v>
       </c>
@@ -5393,7 +5406,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="90"/>
+      <c r="A56" s="65"/>
       <c r="B56" s="42" t="s">
         <v>652</v>
       </c>
@@ -5406,7 +5419,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="90"/>
+      <c r="A57" s="65"/>
       <c r="B57" s="42" t="s">
         <v>655</v>
       </c>
@@ -5419,7 +5432,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="90"/>
+      <c r="A58" s="65"/>
       <c r="B58" s="42" t="s">
         <v>658</v>
       </c>
@@ -5432,7 +5445,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="90"/>
+      <c r="A59" s="65"/>
       <c r="B59" s="42" t="s">
         <v>661</v>
       </c>
@@ -5445,7 +5458,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="90"/>
+      <c r="A60" s="65"/>
       <c r="B60" s="42" t="s">
         <v>275</v>
       </c>
@@ -5458,7 +5471,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="90"/>
+      <c r="A61" s="65"/>
       <c r="B61" s="42" t="s">
         <v>665</v>
       </c>
@@ -5471,7 +5484,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="90"/>
+      <c r="A62" s="65"/>
       <c r="B62" s="42" t="s">
         <v>668</v>
       </c>
@@ -5485,7 +5498,7 @@
       <c r="F62" s="31"/>
     </row>
     <row r="63" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="90"/>
+      <c r="A63" s="65"/>
       <c r="B63" s="42" t="s">
         <v>671</v>
       </c>
@@ -5499,7 +5512,7 @@
       <c r="F63" s="31"/>
     </row>
     <row r="64" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="90"/>
+      <c r="A64" s="65"/>
       <c r="B64" s="42" t="s">
         <v>686</v>
       </c>
@@ -5512,7 +5525,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="90"/>
+      <c r="A65" s="65"/>
       <c r="B65" s="42" t="s">
         <v>704</v>
       </c>
@@ -5525,7 +5538,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="90"/>
+      <c r="A66" s="65"/>
       <c r="B66" s="42" t="s">
         <v>722</v>
       </c>
@@ -5539,7 +5552,7 @@
       <c r="F66" s="31"/>
     </row>
     <row r="67" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="90"/>
+      <c r="A67" s="65"/>
       <c r="B67" s="42" t="s">
         <v>728</v>
       </c>
@@ -5553,7 +5566,7 @@
       <c r="F67" s="31"/>
     </row>
     <row r="68" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="90"/>
+      <c r="A68" s="65"/>
       <c r="B68" s="42" t="s">
         <v>734</v>
       </c>
@@ -5566,7 +5579,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="90"/>
+      <c r="A69" s="65"/>
       <c r="B69" s="42" t="s">
         <v>740</v>
       </c>
@@ -5579,7 +5592,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="90"/>
+      <c r="A70" s="65"/>
       <c r="B70" s="42" t="s">
         <v>743</v>
       </c>
@@ -5592,7 +5605,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="90"/>
+      <c r="A71" s="65"/>
       <c r="B71" s="42" t="s">
         <v>752</v>
       </c>
@@ -5608,7 +5621,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="90"/>
+      <c r="A72" s="65"/>
       <c r="B72" s="42" t="s">
         <v>761</v>
       </c>
@@ -5621,7 +5634,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="90"/>
+      <c r="A73" s="65"/>
       <c r="B73" s="42" t="s">
         <v>767</v>
       </c>
@@ -5634,7 +5647,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="90"/>
+      <c r="A74" s="65"/>
       <c r="B74" s="42" t="s">
         <v>779</v>
       </c>
@@ -5647,7 +5660,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="90"/>
+      <c r="A75" s="65"/>
       <c r="B75" s="42" t="s">
         <v>788</v>
       </c>
@@ -5660,7 +5673,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="90"/>
+      <c r="A76" s="65"/>
       <c r="B76" s="42" t="s">
         <v>791</v>
       </c>
@@ -5673,7 +5686,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A77" s="90"/>
+      <c r="A77" s="65"/>
       <c r="B77" s="31" t="s">
         <v>809</v>
       </c>
@@ -5686,7 +5699,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A78" s="90"/>
+      <c r="A78" s="65"/>
       <c r="B78" s="31" t="s">
         <v>827</v>
       </c>
@@ -5699,7 +5712,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="90"/>
+      <c r="A79" s="65"/>
       <c r="B79" s="31" t="s">
         <v>830</v>
       </c>
@@ -5712,7 +5725,7 @@
       </c>
     </row>
     <row r="80" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="90"/>
+      <c r="A80" s="65"/>
       <c r="B80" s="31" t="s">
         <v>850</v>
       </c>
@@ -5725,7 +5738,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A81" s="90"/>
+      <c r="A81" s="65"/>
       <c r="B81" s="31" t="s">
         <v>853</v>
       </c>
@@ -5738,7 +5751,7 @@
       </c>
     </row>
     <row r="82" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A82" s="90"/>
+      <c r="A82" s="65"/>
       <c r="B82" s="31" t="s">
         <v>871</v>
       </c>
@@ -5751,7 +5764,7 @@
       </c>
     </row>
     <row r="83" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="90"/>
+      <c r="A83" s="65"/>
       <c r="B83" s="39" t="s">
         <v>891</v>
       </c>
@@ -5764,7 +5777,7 @@
       </c>
     </row>
     <row r="84" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="90"/>
+      <c r="A84" s="65"/>
       <c r="B84" s="39" t="s">
         <v>897</v>
       </c>
@@ -5777,7 +5790,7 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A85" s="90"/>
+      <c r="A85" s="65"/>
       <c r="B85" s="31" t="s">
         <v>912</v>
       </c>
@@ -5790,7 +5803,7 @@
       </c>
     </row>
     <row r="86" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A86" s="90"/>
+      <c r="A86" s="65"/>
       <c r="B86" s="31" t="s">
         <v>915</v>
       </c>
@@ -5803,7 +5816,7 @@
       </c>
     </row>
     <row r="87" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="90"/>
+      <c r="A87" s="65"/>
       <c r="B87" s="31" t="s">
         <v>933</v>
       </c>
@@ -5816,7 +5829,7 @@
       </c>
     </row>
     <row r="88" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A88" s="90"/>
+      <c r="A88" s="65"/>
       <c r="B88" s="31" t="s">
         <v>936</v>
       </c>
@@ -5829,7 +5842,7 @@
       </c>
     </row>
     <row r="89" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="90"/>
+      <c r="A89" s="65"/>
       <c r="B89" s="31" t="s">
         <v>939</v>
       </c>
@@ -5842,7 +5855,7 @@
       </c>
     </row>
     <row r="90" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="90"/>
+      <c r="A90" s="65"/>
       <c r="B90" s="39" t="s">
         <v>948</v>
       </c>
@@ -5855,7 +5868,7 @@
       </c>
     </row>
     <row r="91" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="90"/>
+      <c r="A91" s="65"/>
       <c r="B91" s="39" t="s">
         <v>236</v>
       </c>
@@ -5868,7 +5881,7 @@
       </c>
     </row>
     <row r="92" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A92" s="90"/>
+      <c r="A92" s="65"/>
       <c r="B92" s="31" t="s">
         <v>999</v>
       </c>
@@ -5881,7 +5894,7 @@
       </c>
     </row>
     <row r="93" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A93" s="90"/>
+      <c r="A93" s="65"/>
       <c r="B93" s="31" t="s">
         <v>1013</v>
       </c>
@@ -5894,7 +5907,7 @@
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="90"/>
+      <c r="A94" s="65"/>
       <c r="B94" s="31" t="s">
         <v>1016</v>
       </c>
@@ -5907,7 +5920,7 @@
       </c>
     </row>
     <row r="95" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="90"/>
+      <c r="A95" s="65"/>
       <c r="B95" s="31" t="s">
         <v>1025</v>
       </c>
@@ -5920,7 +5933,7 @@
       </c>
     </row>
     <row r="96" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A96" s="90"/>
+      <c r="A96" s="65"/>
       <c r="B96" s="31" t="s">
         <v>1028</v>
       </c>
@@ -5933,7 +5946,7 @@
       </c>
     </row>
     <row r="97" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A97" s="90"/>
+      <c r="A97" s="65"/>
       <c r="B97" s="31" t="s">
         <v>1040</v>
       </c>
@@ -5946,7 +5959,7 @@
       </c>
     </row>
     <row r="98" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="90"/>
+      <c r="A98" s="65"/>
       <c r="B98" s="31" t="s">
         <v>756</v>
       </c>
@@ -5959,7 +5972,7 @@
       </c>
     </row>
     <row r="99" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="91"/>
+      <c r="A99" s="66"/>
       <c r="B99" s="34" t="s">
         <v>1085</v>
       </c>
@@ -6140,7 +6153,7 @@
       <c r="G111" s="18"/>
     </row>
     <row r="112" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="98" t="s">
+      <c r="A112" s="73" t="s">
         <v>37</v>
       </c>
       <c r="B112" s="44" t="s">
@@ -6159,7 +6172,7 @@
       <c r="G112" s="13"/>
     </row>
     <row r="113" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="98"/>
+      <c r="A113" s="73"/>
       <c r="B113" s="45"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
@@ -6168,7 +6181,7 @@
       <c r="G113" s="13"/>
     </row>
     <row r="114" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="99"/>
+      <c r="A114" s="74"/>
       <c r="B114" s="45" t="s">
         <v>41</v>
       </c>
@@ -6183,7 +6196,7 @@
       <c r="G114" s="13"/>
     </row>
     <row r="115" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="100"/>
+      <c r="A115" s="75"/>
       <c r="B115" s="46" t="s">
         <v>44</v>
       </c>
@@ -6200,7 +6213,7 @@
       </c>
     </row>
     <row r="116" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="117" t="s">
+      <c r="A116" s="94" t="s">
         <v>494</v>
       </c>
       <c r="B116" s="42" t="s">
@@ -6216,7 +6229,7 @@
       <c r="G116" s="13"/>
     </row>
     <row r="117" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="117"/>
+      <c r="A117" s="94"/>
       <c r="B117" s="45"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
@@ -6225,7 +6238,7 @@
       <c r="G117" s="13"/>
     </row>
     <row r="118" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="118"/>
+      <c r="A118" s="95"/>
       <c r="B118" s="45"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
@@ -6234,7 +6247,7 @@
       <c r="G118" s="13"/>
     </row>
     <row r="119" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="119"/>
+      <c r="A119" s="96"/>
       <c r="B119" s="46"/>
       <c r="C119" s="32"/>
       <c r="D119" s="32"/>
@@ -6245,7 +6258,7 @@
       </c>
     </row>
     <row r="120" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="74" t="s">
+      <c r="A120" s="115" t="s">
         <v>496</v>
       </c>
       <c r="B120" s="42" t="s">
@@ -6261,7 +6274,7 @@
       <c r="G120" s="13"/>
     </row>
     <row r="121" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A121" s="74"/>
+      <c r="A121" s="115"/>
       <c r="B121" s="42" t="s">
         <v>118</v>
       </c>
@@ -6275,7 +6288,7 @@
       <c r="G121" s="13"/>
     </row>
     <row r="122" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A122" s="75"/>
+      <c r="A122" s="116"/>
       <c r="B122" s="42" t="s">
         <v>152</v>
       </c>
@@ -6289,7 +6302,7 @@
       <c r="G122" s="13"/>
     </row>
     <row r="123" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A123" s="76"/>
+      <c r="A123" s="117"/>
       <c r="B123" s="42" t="s">
         <v>234</v>
       </c>
@@ -6303,7 +6316,7 @@
       <c r="G123" s="18"/>
     </row>
     <row r="124" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A124" s="71"/>
+      <c r="A124" s="112"/>
       <c r="B124" s="42" t="s">
         <v>246</v>
       </c>
@@ -6317,7 +6330,7 @@
       <c r="G124" s="13"/>
     </row>
     <row r="125" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A125" s="71"/>
+      <c r="A125" s="112"/>
       <c r="B125" s="42" t="s">
         <v>601</v>
       </c>
@@ -6332,7 +6345,7 @@
       <c r="G125" s="13"/>
     </row>
     <row r="126" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A126" s="71"/>
+      <c r="A126" s="112"/>
       <c r="B126" s="42" t="s">
         <v>794</v>
       </c>
@@ -6349,7 +6362,7 @@
       <c r="G126" s="13"/>
     </row>
     <row r="127" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A127" s="71"/>
+      <c r="A127" s="112"/>
       <c r="B127" s="42" t="s">
         <v>800</v>
       </c>
@@ -6364,7 +6377,7 @@
       <c r="G127" s="13"/>
     </row>
     <row r="128" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A128" s="71"/>
+      <c r="A128" s="112"/>
       <c r="B128" s="31" t="s">
         <v>856</v>
       </c>
@@ -6379,7 +6392,7 @@
       <c r="G128" s="13"/>
     </row>
     <row r="129" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A129" s="71"/>
+      <c r="A129" s="112"/>
       <c r="B129" s="39" t="s">
         <v>906</v>
       </c>
@@ -6394,7 +6407,7 @@
       <c r="G129" s="13"/>
     </row>
     <row r="130" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A130" s="71"/>
+      <c r="A130" s="112"/>
       <c r="B130" s="39" t="s">
         <v>909</v>
       </c>
@@ -6409,7 +6422,7 @@
       <c r="G130" s="13"/>
     </row>
     <row r="131" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A131" s="71"/>
+      <c r="A131" s="112"/>
       <c r="B131" s="31" t="s">
         <v>930</v>
       </c>
@@ -6424,7 +6437,7 @@
       <c r="G131" s="13"/>
     </row>
     <row r="132" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A132" s="71"/>
+      <c r="A132" s="112"/>
       <c r="B132" s="31" t="s">
         <v>942</v>
       </c>
@@ -6439,7 +6452,7 @@
       <c r="G132" s="13"/>
     </row>
     <row r="133" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A133" s="71"/>
+      <c r="A133" s="112"/>
       <c r="B133" s="31" t="s">
         <v>981</v>
       </c>
@@ -6454,7 +6467,7 @@
       <c r="G133" s="13"/>
     </row>
     <row r="134" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A134" s="71"/>
+      <c r="A134" s="112"/>
       <c r="B134" s="31" t="s">
         <v>918</v>
       </c>
@@ -6469,7 +6482,7 @@
       <c r="G134" s="13"/>
     </row>
     <row r="135" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A135" s="71"/>
+      <c r="A135" s="112"/>
       <c r="B135" s="39"/>
       <c r="C135" s="39"/>
       <c r="D135" s="39"/>
@@ -6478,12 +6491,12 @@
       <c r="G135" s="13"/>
     </row>
     <row r="136" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="77"/>
+      <c r="A136" s="118"/>
       <c r="F136" s="18"/>
       <c r="G136" s="13"/>
     </row>
     <row r="137" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="78" t="s">
+      <c r="A137" s="119" t="s">
         <v>490</v>
       </c>
       <c r="B137" s="42" t="s">
@@ -6499,7 +6512,7 @@
       <c r="G137" s="13"/>
     </row>
     <row r="138" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="78"/>
+      <c r="A138" s="119"/>
       <c r="B138" s="42" t="s">
         <v>289</v>
       </c>
@@ -6513,7 +6526,7 @@
       <c r="G138" s="13"/>
     </row>
     <row r="139" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="79"/>
+      <c r="A139" s="120"/>
       <c r="B139" s="35" t="s">
         <v>423</v>
       </c>
@@ -6528,7 +6541,7 @@
       <c r="G139" s="13"/>
     </row>
     <row r="140" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="80"/>
+      <c r="A140" s="121"/>
       <c r="B140" s="46"/>
       <c r="C140" s="32"/>
       <c r="D140" s="32"/>
@@ -6539,7 +6552,7 @@
       </c>
     </row>
     <row r="141" spans="1:7" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="92" t="s">
+      <c r="A141" s="67" t="s">
         <v>96</v>
       </c>
       <c r="B141" s="42" t="s">
@@ -6556,7 +6569,7 @@
       <c r="G141" s="30"/>
     </row>
     <row r="142" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A142" s="93"/>
+      <c r="A142" s="68"/>
       <c r="B142" s="42" t="s">
         <v>75</v>
       </c>
@@ -6571,7 +6584,7 @@
       <c r="G142" s="23"/>
     </row>
     <row r="143" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A143" s="93"/>
+      <c r="A143" s="68"/>
       <c r="B143" s="42" t="s">
         <v>263</v>
       </c>
@@ -6585,7 +6598,7 @@
       <c r="G143" s="13"/>
     </row>
     <row r="144" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A144" s="93"/>
+      <c r="A144" s="68"/>
       <c r="B144" s="42" t="s">
         <v>361</v>
       </c>
@@ -6599,7 +6612,7 @@
       <c r="G144" s="13"/>
     </row>
     <row r="145" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A145" s="93"/>
+      <c r="A145" s="68"/>
       <c r="B145" s="42" t="s">
         <v>271</v>
       </c>
@@ -6615,7 +6628,7 @@
       <c r="G145" s="13"/>
     </row>
     <row r="146" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A146" s="93"/>
+      <c r="A146" s="68"/>
       <c r="B146" s="42" t="s">
         <v>281</v>
       </c>
@@ -6629,7 +6642,7 @@
       <c r="G146" s="13"/>
     </row>
     <row r="147" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A147" s="93"/>
+      <c r="A147" s="68"/>
       <c r="B147" s="42" t="s">
         <v>318</v>
       </c>
@@ -6643,7 +6656,7 @@
       <c r="G147" s="13"/>
     </row>
     <row r="148" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A148" s="93"/>
+      <c r="A148" s="68"/>
       <c r="B148" s="42" t="s">
         <v>351</v>
       </c>
@@ -6657,7 +6670,7 @@
       <c r="G148" s="13"/>
     </row>
     <row r="149" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A149" s="93"/>
+      <c r="A149" s="68"/>
       <c r="B149" s="42" t="s">
         <v>316</v>
       </c>
@@ -6671,7 +6684,7 @@
       <c r="G149" s="13"/>
     </row>
     <row r="150" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A150" s="93"/>
+      <c r="A150" s="68"/>
       <c r="B150" s="42" t="s">
         <v>269</v>
       </c>
@@ -6685,7 +6698,7 @@
       <c r="G150" s="13"/>
     </row>
     <row r="151" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A151" s="93"/>
+      <c r="A151" s="68"/>
       <c r="B151" s="35" t="s">
         <v>480</v>
       </c>
@@ -6702,7 +6715,7 @@
       <c r="G151" s="13"/>
     </row>
     <row r="152" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A152" s="93"/>
+      <c r="A152" s="68"/>
       <c r="B152" s="42" t="s">
         <v>322</v>
       </c>
@@ -6714,7 +6727,7 @@
       </c>
     </row>
     <row r="153" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A153" s="93"/>
+      <c r="A153" s="68"/>
       <c r="B153" s="42" t="s">
         <v>526</v>
       </c>
@@ -6729,7 +6742,7 @@
       <c r="G153" s="13"/>
     </row>
     <row r="154" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A154" s="93"/>
+      <c r="A154" s="68"/>
       <c r="B154" s="47" t="s">
         <v>584</v>
       </c>
@@ -6746,7 +6759,7 @@
       <c r="G154" s="13"/>
     </row>
     <row r="155" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A155" s="93"/>
+      <c r="A155" s="68"/>
       <c r="B155" s="42" t="s">
         <v>674</v>
       </c>
@@ -6763,7 +6776,7 @@
       <c r="G155" s="13"/>
     </row>
     <row r="156" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A156" s="93"/>
+      <c r="A156" s="68"/>
       <c r="B156" s="42" t="s">
         <v>764</v>
       </c>
@@ -6778,7 +6791,7 @@
       <c r="G156" s="13"/>
     </row>
     <row r="157" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A157" s="93"/>
+      <c r="A157" s="68"/>
       <c r="B157" s="31" t="s">
         <v>859</v>
       </c>
@@ -6793,7 +6806,7 @@
       <c r="G157" s="13"/>
     </row>
     <row r="158" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A158" s="93"/>
+      <c r="A158" s="68"/>
       <c r="B158" s="39" t="s">
         <v>882</v>
       </c>
@@ -6808,7 +6821,7 @@
       <c r="G158" s="13"/>
     </row>
     <row r="159" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A159" s="93"/>
+      <c r="A159" s="68"/>
       <c r="B159" s="31" t="s">
         <v>921</v>
       </c>
@@ -6823,7 +6836,7 @@
       <c r="G159" s="13"/>
     </row>
     <row r="160" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A160" s="93"/>
+      <c r="A160" s="68"/>
       <c r="B160" s="31" t="s">
         <v>976</v>
       </c>
@@ -6838,7 +6851,7 @@
       <c r="G160" s="13"/>
     </row>
     <row r="161" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A161" s="93"/>
+      <c r="A161" s="68"/>
       <c r="B161" s="31" t="s">
         <v>1034</v>
       </c>
@@ -6853,7 +6866,7 @@
       <c r="G161" s="13"/>
     </row>
     <row r="162" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A162" s="93"/>
+      <c r="A162" s="68"/>
       <c r="B162" s="31"/>
       <c r="C162" s="31"/>
       <c r="D162" s="31"/>
@@ -6862,7 +6875,7 @@
       <c r="G162" s="13"/>
     </row>
     <row r="163" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="94"/>
+      <c r="A163" s="69"/>
       <c r="B163" s="48"/>
       <c r="C163" s="24"/>
       <c r="D163" s="25"/>
@@ -6871,7 +6884,7 @@
       <c r="G163" s="16"/>
     </row>
     <row r="164" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="68" t="s">
+      <c r="A164" s="109" t="s">
         <v>444</v>
       </c>
       <c r="B164" s="42" t="s">
@@ -6889,7 +6902,7 @@
       </c>
     </row>
     <row r="165" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A165" s="69"/>
+      <c r="A165" s="110"/>
       <c r="B165" s="42" t="s">
         <v>127</v>
       </c>
@@ -6905,7 +6918,7 @@
       <c r="G165" s="13"/>
     </row>
     <row r="166" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A166" s="69"/>
+      <c r="A166" s="110"/>
       <c r="B166" s="42" t="s">
         <v>135</v>
       </c>
@@ -6919,7 +6932,7 @@
       <c r="G166" s="13"/>
     </row>
     <row r="167" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A167" s="69"/>
+      <c r="A167" s="110"/>
       <c r="B167" s="42" t="s">
         <v>137</v>
       </c>
@@ -6933,7 +6946,7 @@
       <c r="G167" s="13"/>
     </row>
     <row r="168" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A168" s="69"/>
+      <c r="A168" s="110"/>
       <c r="B168" s="42" t="s">
         <v>162</v>
       </c>
@@ -6946,7 +6959,7 @@
       <c r="G168" s="13"/>
     </row>
     <row r="169" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A169" s="69"/>
+      <c r="A169" s="110"/>
       <c r="B169" s="42" t="s">
         <v>162</v>
       </c>
@@ -6962,7 +6975,7 @@
       <c r="G169" s="13"/>
     </row>
     <row r="170" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A170" s="69"/>
+      <c r="A170" s="110"/>
       <c r="B170" s="42" t="s">
         <v>175</v>
       </c>
@@ -6976,7 +6989,7 @@
       <c r="G170" s="13"/>
     </row>
     <row r="171" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A171" s="69"/>
+      <c r="A171" s="110"/>
       <c r="B171" s="42" t="s">
         <v>238</v>
       </c>
@@ -6990,7 +7003,7 @@
       <c r="G171" s="13"/>
     </row>
     <row r="172" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A172" s="69"/>
+      <c r="A172" s="110"/>
       <c r="B172" s="42" t="s">
         <v>242</v>
       </c>
@@ -7006,7 +7019,7 @@
       <c r="G172" s="13"/>
     </row>
     <row r="173" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A173" s="69"/>
+      <c r="A173" s="110"/>
       <c r="B173" s="42" t="s">
         <v>273</v>
       </c>
@@ -7020,7 +7033,7 @@
       <c r="G173" s="13"/>
     </row>
     <row r="174" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A174" s="69"/>
+      <c r="A174" s="110"/>
       <c r="B174" s="42" t="s">
         <v>338</v>
       </c>
@@ -7036,7 +7049,7 @@
       <c r="G174" s="13"/>
     </row>
     <row r="175" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A175" s="69"/>
+      <c r="A175" s="110"/>
       <c r="B175" s="42" t="s">
         <v>338</v>
       </c>
@@ -7049,7 +7062,7 @@
       <c r="G175" s="13"/>
     </row>
     <row r="176" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A176" s="69"/>
+      <c r="A176" s="110"/>
       <c r="B176" s="35" t="s">
         <v>427</v>
       </c>
@@ -7064,7 +7077,7 @@
       <c r="G176" s="13"/>
     </row>
     <row r="177" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A177" s="69"/>
+      <c r="A177" s="110"/>
       <c r="B177" s="35" t="s">
         <v>438</v>
       </c>
@@ -7079,7 +7092,7 @@
       <c r="G177" s="13"/>
     </row>
     <row r="178" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A178" s="69"/>
+      <c r="A178" s="110"/>
       <c r="B178" s="35" t="s">
         <v>472</v>
       </c>
@@ -7096,7 +7109,7 @@
       <c r="G178" s="13"/>
     </row>
     <row r="179" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A179" s="69"/>
+      <c r="A179" s="110"/>
       <c r="B179" s="35" t="s">
         <v>398</v>
       </c>
@@ -7113,7 +7126,7 @@
       <c r="G179" s="13"/>
     </row>
     <row r="180" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A180" s="69"/>
+      <c r="A180" s="110"/>
       <c r="B180" s="35" t="s">
         <v>469</v>
       </c>
@@ -7130,7 +7143,7 @@
       <c r="G180" s="13"/>
     </row>
     <row r="181" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A181" s="69"/>
+      <c r="A181" s="110"/>
       <c r="B181" s="42" t="s">
         <v>285</v>
       </c>
@@ -7144,29 +7157,30 @@
       <c r="G181" s="13"/>
     </row>
     <row r="182" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A182" s="69"/>
+      <c r="A182" s="110"/>
       <c r="B182" s="42" t="s">
-        <v>187</v>
-      </c>
-      <c r="C182" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="E182" s="31" t="s">
-        <v>200</v>
+        <v>116</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E182" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="F182" s="34"/>
       <c r="G182" s="13"/>
     </row>
     <row r="183" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A183" s="69"/>
+      <c r="A183" s="110"/>
       <c r="B183" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="C183" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="E183" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
+      </c>
+      <c r="C183" s="31" t="s">
+        <v>538</v>
+      </c>
+      <c r="D183" s="31"/>
+      <c r="E183" s="31" t="s">
+        <v>539</v>
       </c>
       <c r="F183" s="7" t="s">
         <v>95</v>
@@ -7174,296 +7188,298 @@
       <c r="G183" s="13"/>
     </row>
     <row r="184" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A184" s="69"/>
+      <c r="A184" s="110"/>
       <c r="B184" s="42" t="s">
-        <v>125</v>
+        <v>438</v>
       </c>
       <c r="C184" s="31" t="s">
-        <v>538</v>
+        <v>677</v>
       </c>
       <c r="D184" s="31"/>
       <c r="E184" s="31" t="s">
-        <v>539</v>
+        <v>678</v>
       </c>
       <c r="F184" s="7"/>
       <c r="G184" s="13"/>
     </row>
     <row r="185" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A185" s="69"/>
+      <c r="A185" s="110"/>
       <c r="B185" s="42" t="s">
-        <v>438</v>
+        <v>710</v>
       </c>
       <c r="C185" s="31" t="s">
-        <v>677</v>
+        <v>711</v>
       </c>
       <c r="D185" s="31"/>
       <c r="E185" s="31" t="s">
-        <v>678</v>
+        <v>712</v>
       </c>
       <c r="F185" s="7"/>
       <c r="G185" s="13"/>
     </row>
     <row r="186" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A186" s="69"/>
+      <c r="A186" s="110"/>
       <c r="B186" s="42" t="s">
-        <v>710</v>
-      </c>
-      <c r="C186" s="31" t="s">
-        <v>711</v>
-      </c>
-      <c r="D186" s="31"/>
-      <c r="E186" s="31" t="s">
-        <v>712</v>
+        <v>776</v>
+      </c>
+      <c r="C186" s="39" t="s">
+        <v>777</v>
+      </c>
+      <c r="D186" s="39"/>
+      <c r="E186" s="39" t="s">
+        <v>778</v>
       </c>
       <c r="F186" s="7"/>
       <c r="G186" s="13"/>
     </row>
     <row r="187" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A187" s="69"/>
+      <c r="A187" s="110"/>
       <c r="B187" s="42" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="C187" s="39" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="D187" s="39"/>
       <c r="E187" s="39" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="F187" s="7"/>
       <c r="G187" s="13"/>
     </row>
     <row r="188" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A188" s="69"/>
+      <c r="A188" s="110"/>
       <c r="B188" s="42" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="C188" s="39" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="D188" s="39"/>
       <c r="E188" s="39" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="F188" s="7"/>
       <c r="G188" s="13"/>
     </row>
     <row r="189" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A189" s="69"/>
-      <c r="B189" s="42" t="s">
-        <v>785</v>
-      </c>
-      <c r="C189" s="39" t="s">
-        <v>786</v>
-      </c>
-      <c r="D189" s="39"/>
-      <c r="E189" s="39" t="s">
-        <v>787</v>
+      <c r="A189" s="110"/>
+      <c r="B189" s="31" t="s">
+        <v>838</v>
+      </c>
+      <c r="C189" s="31" t="s">
+        <v>839</v>
+      </c>
+      <c r="D189" s="31"/>
+      <c r="E189" s="31" t="s">
+        <v>840</v>
       </c>
       <c r="F189" s="7"/>
       <c r="G189" s="13"/>
     </row>
     <row r="190" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A190" s="69"/>
+      <c r="A190" s="110"/>
       <c r="B190" s="31" t="s">
-        <v>838</v>
+        <v>865</v>
       </c>
       <c r="C190" s="31" t="s">
-        <v>839</v>
+        <v>866</v>
       </c>
       <c r="D190" s="31"/>
       <c r="E190" s="31" t="s">
-        <v>840</v>
+        <v>867</v>
       </c>
       <c r="F190" s="7"/>
       <c r="G190" s="13"/>
     </row>
     <row r="191" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A191" s="69"/>
-      <c r="B191" s="31" t="s">
-        <v>865</v>
+      <c r="A191" s="110"/>
+      <c r="B191" s="39" t="s">
+        <v>879</v>
       </c>
       <c r="C191" s="31" t="s">
-        <v>866</v>
-      </c>
-      <c r="D191" s="31"/>
-      <c r="E191" s="31" t="s">
-        <v>867</v>
+        <v>880</v>
+      </c>
+      <c r="D191" s="39"/>
+      <c r="E191" s="39" t="s">
+        <v>881</v>
       </c>
       <c r="F191" s="7"/>
       <c r="G191" s="13"/>
     </row>
     <row r="192" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A192" s="69"/>
+      <c r="A192" s="110"/>
       <c r="B192" s="39" t="s">
-        <v>879</v>
+        <v>885</v>
       </c>
       <c r="C192" s="39" t="s">
-        <v>880</v>
+        <v>886</v>
       </c>
       <c r="D192" s="39"/>
       <c r="E192" s="39" t="s">
-        <v>881</v>
+        <v>887</v>
       </c>
       <c r="F192" s="7"/>
       <c r="G192" s="13"/>
     </row>
     <row r="193" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A193" s="69"/>
+      <c r="A193" s="110"/>
       <c r="B193" s="39" t="s">
-        <v>885</v>
-      </c>
-      <c r="C193" s="39" t="s">
-        <v>886</v>
+        <v>900</v>
+      </c>
+      <c r="C193" s="31" t="s">
+        <v>901</v>
       </c>
       <c r="D193" s="39"/>
       <c r="E193" s="39" t="s">
-        <v>887</v>
+        <v>902</v>
       </c>
       <c r="F193" s="7"/>
       <c r="G193" s="13"/>
     </row>
     <row r="194" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A194" s="69"/>
+      <c r="A194" s="110"/>
       <c r="B194" s="39" t="s">
-        <v>900</v>
-      </c>
-      <c r="C194" s="39" t="s">
-        <v>901</v>
+        <v>903</v>
+      </c>
+      <c r="C194" s="31" t="s">
+        <v>904</v>
       </c>
       <c r="D194" s="39"/>
       <c r="E194" s="39" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="F194" s="7"/>
       <c r="G194" s="13"/>
     </row>
     <row r="195" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="70"/>
+      <c r="A195" s="111"/>
       <c r="B195" s="39" t="s">
-        <v>903</v>
+        <v>961</v>
       </c>
       <c r="C195" s="39" t="s">
-        <v>904</v>
+        <v>962</v>
       </c>
       <c r="D195" s="39"/>
       <c r="E195" s="39" t="s">
-        <v>905</v>
+        <v>963</v>
       </c>
       <c r="F195" s="38"/>
       <c r="G195" s="16"/>
     </row>
     <row r="196" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="70"/>
+      <c r="A196" s="111"/>
       <c r="B196" s="39" t="s">
-        <v>961</v>
-      </c>
-      <c r="C196" s="39" t="s">
-        <v>962</v>
+        <v>967</v>
+      </c>
+      <c r="C196" s="31" t="s">
+        <v>968</v>
       </c>
       <c r="D196" s="39"/>
       <c r="E196" s="39" t="s">
-        <v>963</v>
+        <v>969</v>
       </c>
       <c r="G196" s="13"/>
     </row>
     <row r="197" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A197" s="70"/>
+      <c r="A197" s="111"/>
       <c r="B197" s="39" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="C197" s="39" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="D197" s="39"/>
       <c r="E197" s="39" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="G197" s="13"/>
     </row>
     <row r="198" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A198" s="70"/>
-      <c r="B198" s="39" t="s">
-        <v>970</v>
-      </c>
-      <c r="C198" s="39" t="s">
-        <v>971</v>
-      </c>
-      <c r="D198" s="39"/>
-      <c r="E198" s="39" t="s">
-        <v>972</v>
+      <c r="A198" s="111"/>
+      <c r="B198" s="31" t="s">
+        <v>984</v>
+      </c>
+      <c r="C198" s="31" t="s">
+        <v>985</v>
+      </c>
+      <c r="D198" s="31"/>
+      <c r="E198" s="31" t="s">
+        <v>986</v>
       </c>
       <c r="G198" s="13"/>
     </row>
     <row r="199" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A199" s="70"/>
+      <c r="A199" s="111"/>
       <c r="B199" s="31" t="s">
-        <v>984</v>
+        <v>1002</v>
       </c>
       <c r="C199" s="31" t="s">
-        <v>985</v>
+        <v>1003</v>
       </c>
       <c r="D199" s="31"/>
       <c r="E199" s="31" t="s">
-        <v>986</v>
+        <v>1004</v>
       </c>
       <c r="G199" s="13"/>
     </row>
     <row r="200" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A200" s="70"/>
+      <c r="A200" s="111"/>
       <c r="B200" s="31" t="s">
-        <v>1002</v>
+        <v>1019</v>
       </c>
       <c r="C200" s="31" t="s">
-        <v>1003</v>
+        <v>1020</v>
       </c>
       <c r="D200" s="31"/>
       <c r="E200" s="31" t="s">
-        <v>1004</v>
+        <v>1021</v>
       </c>
       <c r="G200" s="13"/>
     </row>
     <row r="201" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A201" s="70"/>
+      <c r="A201" s="111"/>
       <c r="B201" s="31" t="s">
-        <v>1019</v>
+        <v>1037</v>
       </c>
       <c r="C201" s="31" t="s">
-        <v>1020</v>
+        <v>1038</v>
       </c>
       <c r="D201" s="31"/>
       <c r="E201" s="31" t="s">
-        <v>1021</v>
+        <v>1039</v>
       </c>
       <c r="G201" s="13"/>
     </row>
     <row r="202" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A202" s="70"/>
-      <c r="B202" s="31" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C202" s="31" t="s">
-        <v>1038</v>
-      </c>
-      <c r="D202" s="31"/>
-      <c r="E202" s="31" t="s">
-        <v>1039</v>
+      <c r="A202" s="111"/>
+      <c r="B202" s="34" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C202" s="34" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D202" s="53" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E202" s="34" t="s">
+        <v>1051</v>
       </c>
       <c r="G202" s="13"/>
     </row>
     <row r="203" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A203" s="70"/>
+      <c r="A203" s="111"/>
       <c r="B203" s="34" t="s">
         <v>1048</v>
       </c>
       <c r="C203" s="34" t="s">
-        <v>1049</v>
+        <v>1053</v>
       </c>
       <c r="D203" s="53" t="s">
         <v>1050</v>
       </c>
       <c r="E203" s="34" t="s">
-        <v>1051</v>
+        <v>1054</v>
       </c>
       <c r="F203" s="54" t="s">
         <v>1052</v>
@@ -7471,18 +7487,18 @@
       <c r="G203" s="13"/>
     </row>
     <row r="204" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A204" s="70"/>
+      <c r="A204" s="111"/>
       <c r="B204" s="34" t="s">
-        <v>1048</v>
+        <v>1056</v>
       </c>
       <c r="C204" s="34" t="s">
-        <v>1053</v>
+        <v>1057</v>
       </c>
       <c r="D204" s="53" t="s">
         <v>1050</v>
       </c>
       <c r="E204" s="34" t="s">
-        <v>1054</v>
+        <v>1058</v>
       </c>
       <c r="F204" s="54" t="s">
         <v>1055</v>
@@ -7490,52 +7506,52 @@
       <c r="G204" s="13"/>
     </row>
     <row r="205" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A205" s="70"/>
+      <c r="A205" s="111"/>
       <c r="B205" s="34" t="s">
-        <v>1056</v>
+        <v>1059</v>
       </c>
       <c r="C205" s="34" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D205" s="53" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D205" s="34" t="s">
         <v>1050</v>
       </c>
       <c r="E205" s="34" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="F205" s="34"/>
       <c r="G205" s="13"/>
     </row>
     <row r="206" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A206" s="70"/>
+      <c r="A206" s="111"/>
       <c r="B206" s="34" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="C206" s="34" t="s">
-        <v>1060</v>
-      </c>
-      <c r="D206" s="34" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D206" s="53" t="s">
         <v>1050</v>
       </c>
       <c r="E206" s="34" t="s">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="F206" s="34"/>
       <c r="G206" s="13"/>
     </row>
     <row r="207" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A207" s="70"/>
+      <c r="A207" s="111"/>
       <c r="B207" s="34" t="s">
-        <v>1062</v>
+        <v>1066</v>
       </c>
       <c r="C207" s="34" t="s">
-        <v>1063</v>
+        <v>1067</v>
       </c>
       <c r="D207" s="53" t="s">
         <v>1050</v>
       </c>
       <c r="E207" s="34" t="s">
-        <v>1064</v>
+        <v>1068</v>
       </c>
       <c r="F207" s="54" t="s">
         <v>1065</v>
@@ -7543,18 +7559,18 @@
       <c r="G207" s="13"/>
     </row>
     <row r="208" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A208" s="70"/>
+      <c r="A208" s="111"/>
       <c r="B208" s="34" t="s">
-        <v>1066</v>
+        <v>1070</v>
       </c>
       <c r="C208" s="34" t="s">
-        <v>1067</v>
+        <v>1071</v>
       </c>
       <c r="D208" s="53" t="s">
         <v>1050</v>
       </c>
       <c r="E208" s="34" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="F208" s="54" t="s">
         <v>1069</v>
@@ -7562,18 +7578,18 @@
       <c r="G208" s="13"/>
     </row>
     <row r="209" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A209" s="70"/>
-      <c r="B209" s="34" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C209" s="34" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D209" s="53" t="s">
+      <c r="A209" s="111"/>
+      <c r="B209" s="55" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C209" s="55" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D209" s="55" t="s">
         <v>1050</v>
       </c>
-      <c r="E209" s="34" t="s">
-        <v>1072</v>
+      <c r="E209" s="55" t="s">
+        <v>1075</v>
       </c>
       <c r="F209" s="54" t="s">
         <v>1069</v>
@@ -7581,18 +7597,18 @@
       <c r="G209" s="13"/>
     </row>
     <row r="210" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A210" s="70"/>
-      <c r="B210" s="55" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C210" s="55" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D210" s="55" t="s">
+      <c r="A210" s="111"/>
+      <c r="B210" s="34" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C210" s="34" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D210" s="34" t="s">
         <v>1050</v>
       </c>
-      <c r="E210" s="55" t="s">
-        <v>1075</v>
+      <c r="E210" s="34" t="s">
+        <v>1096</v>
       </c>
       <c r="F210" s="56" t="s">
         <v>1069</v>
@@ -7600,18 +7616,18 @@
       <c r="G210" s="13"/>
     </row>
     <row r="211" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A211" s="70"/>
-      <c r="B211" s="34" t="s">
+      <c r="A211" s="111"/>
+      <c r="B211" s="55" t="s">
         <v>1094</v>
       </c>
-      <c r="C211" s="34" t="s">
-        <v>1095</v>
-      </c>
-      <c r="D211" s="34" t="s">
+      <c r="C211" s="55" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D211" s="55" t="s">
         <v>1050</v>
       </c>
-      <c r="E211" s="34" t="s">
-        <v>1096</v>
+      <c r="E211" s="55" t="s">
+        <v>1099</v>
       </c>
       <c r="F211" s="54" t="s">
         <v>1097</v>
@@ -7619,18 +7635,16 @@
       <c r="G211" s="13"/>
     </row>
     <row r="212" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A212" s="70"/>
-      <c r="B212" s="55" t="s">
-        <v>1094</v>
-      </c>
-      <c r="C212" s="55" t="s">
-        <v>1098</v>
-      </c>
-      <c r="D212" s="55" t="s">
-        <v>1050</v>
-      </c>
-      <c r="E212" s="55" t="s">
-        <v>1099</v>
+      <c r="A212" s="111"/>
+      <c r="B212" s="42" t="s">
+        <v>746</v>
+      </c>
+      <c r="C212" s="31" t="s">
+        <v>747</v>
+      </c>
+      <c r="D212" s="31"/>
+      <c r="E212" s="31" t="s">
+        <v>748</v>
       </c>
       <c r="F212" s="56" t="s">
         <v>1100</v>
@@ -7638,22 +7652,16 @@
       <c r="G212" s="13"/>
     </row>
     <row r="213" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A213" s="70"/>
-      <c r="B213" s="42" t="s">
-        <v>746</v>
-      </c>
-      <c r="C213" s="31" t="s">
-        <v>747</v>
-      </c>
-      <c r="D213" s="31"/>
-      <c r="E213" s="31" t="s">
-        <v>748</v>
-      </c>
+      <c r="A213" s="111"/>
+      <c r="B213" s="34"/>
+      <c r="C213" s="34"/>
+      <c r="D213" s="34"/>
+      <c r="E213" s="34"/>
       <c r="F213" s="34"/>
       <c r="G213" s="13"/>
     </row>
     <row r="214" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A214" s="70"/>
+      <c r="A214" s="111"/>
       <c r="B214" s="34"/>
       <c r="C214" s="34"/>
       <c r="D214" s="34"/>
@@ -7662,7 +7670,7 @@
       <c r="G214" s="13"/>
     </row>
     <row r="215" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A215" s="70"/>
+      <c r="A215" s="111"/>
       <c r="B215" s="34"/>
       <c r="C215" s="34"/>
       <c r="D215" s="34"/>
@@ -7671,109 +7679,114 @@
       <c r="G215" s="13"/>
     </row>
     <row r="216" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A216" s="70"/>
-      <c r="B216" s="34"/>
-      <c r="C216" s="34"/>
-      <c r="D216" s="34"/>
-      <c r="E216" s="34"/>
+      <c r="A216" s="111"/>
+      <c r="B216" s="39"/>
+      <c r="C216" s="39"/>
+      <c r="D216" s="39"/>
+      <c r="E216" s="39"/>
       <c r="F216" s="34"/>
       <c r="G216" s="13"/>
     </row>
     <row r="217" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A217" s="71"/>
-      <c r="B217" s="39"/>
-      <c r="C217" s="39"/>
-      <c r="D217" s="39"/>
-      <c r="E217" s="39"/>
+      <c r="A217" s="112"/>
+      <c r="B217" s="42" t="s">
+        <v>375</v>
+      </c>
+      <c r="C217" s="31" t="s">
+        <v>749</v>
+      </c>
+      <c r="D217" s="31"/>
+      <c r="E217" s="31" t="s">
+        <v>750</v>
+      </c>
       <c r="G217" s="13"/>
     </row>
     <row r="218" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="87" t="s">
+      <c r="A218" s="128" t="s">
         <v>759</v>
       </c>
-      <c r="B218" s="42" t="s">
-        <v>375</v>
-      </c>
-      <c r="C218" s="31" t="s">
-        <v>749</v>
-      </c>
-      <c r="D218" s="31"/>
-      <c r="E218" s="31" t="s">
-        <v>750</v>
-      </c>
+      <c r="B218" s="42"/>
+      <c r="C218" s="31"/>
+      <c r="E218" s="31"/>
       <c r="F218" s="31" t="s">
         <v>751</v>
       </c>
       <c r="G218" s="13"/>
     </row>
     <row r="219" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="87"/>
-      <c r="B219" s="42"/>
-      <c r="C219" s="31"/>
-      <c r="E219" s="31"/>
+      <c r="A219" s="128"/>
+      <c r="B219" s="35"/>
+      <c r="C219" s="35"/>
+      <c r="D219" s="35"/>
+      <c r="E219" s="35"/>
       <c r="F219" s="18"/>
       <c r="G219" s="13"/>
     </row>
-    <row r="220" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="88"/>
-      <c r="B220" s="35"/>
-      <c r="C220" s="35"/>
-      <c r="D220" s="35"/>
-      <c r="E220" s="35"/>
+    <row r="220" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="129"/>
+      <c r="B220" s="46"/>
+      <c r="C220" s="32"/>
+      <c r="D220" s="32"/>
+      <c r="E220" s="33"/>
       <c r="F220" s="18"/>
       <c r="G220" s="13"/>
     </row>
-    <row r="221" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="89"/>
-      <c r="B221" s="46"/>
-      <c r="C221" s="32"/>
-      <c r="D221" s="32"/>
-      <c r="E221" s="33"/>
+    <row r="221" spans="1:7" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="130"/>
+      <c r="B221" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="C221" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="E221" s="31" t="s">
+        <v>228</v>
+      </c>
       <c r="F221" s="19"/>
       <c r="G221" s="16"/>
     </row>
-    <row r="222" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="107" t="s">
+    <row r="222" spans="1:7" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="82" t="s">
         <v>407</v>
       </c>
       <c r="B222" s="42" t="s">
-        <v>217</v>
-      </c>
-      <c r="C222" s="31" t="s">
-        <v>218</v>
-      </c>
-      <c r="E222" s="31" t="s">
-        <v>228</v>
+        <v>81</v>
+      </c>
+      <c r="C222" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D222" s="8"/>
+      <c r="E222" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="F222" s="18"/>
       <c r="G222" s="13"/>
     </row>
     <row r="223" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A223" s="108"/>
+      <c r="A223" s="83"/>
       <c r="B223" s="42" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D223" s="8"/>
       <c r="E223" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F223" s="18"/>
       <c r="G223" s="13"/>
     </row>
-    <row r="224" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A224" s="108"/>
+    <row r="224" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A224" s="83"/>
       <c r="B224" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="C224" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D224" s="8"/>
-      <c r="E224" s="7" t="s">
-        <v>88</v>
+        <v>131</v>
+      </c>
+      <c r="C224" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="E224" s="31" t="s">
+        <v>146</v>
       </c>
       <c r="F224" s="7" t="s">
         <v>95</v>
@@ -7781,81 +7794,76 @@
       <c r="G224" s="13"/>
     </row>
     <row r="225" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A225" s="108"/>
+      <c r="A225" s="83"/>
       <c r="B225" s="42" t="s">
-        <v>131</v>
+        <v>549</v>
       </c>
       <c r="C225" s="31" t="s">
-        <v>132</v>
-      </c>
+        <v>550</v>
+      </c>
+      <c r="D225" s="31"/>
       <c r="E225" s="31" t="s">
-        <v>146</v>
+        <v>551</v>
       </c>
       <c r="F225" s="7"/>
       <c r="G225" s="13"/>
     </row>
     <row r="226" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A226" s="108"/>
+      <c r="A226" s="83"/>
       <c r="B226" s="42" t="s">
-        <v>549</v>
+        <v>692</v>
       </c>
       <c r="C226" s="31" t="s">
-        <v>550</v>
+        <v>693</v>
       </c>
       <c r="D226" s="31"/>
       <c r="E226" s="31" t="s">
-        <v>551</v>
+        <v>694</v>
       </c>
       <c r="F226" s="7"/>
       <c r="G226" s="13"/>
     </row>
     <row r="227" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A227" s="108"/>
+      <c r="A227" s="83"/>
       <c r="B227" s="42" t="s">
-        <v>692</v>
+        <v>707</v>
       </c>
       <c r="C227" s="31" t="s">
-        <v>693</v>
+        <v>708</v>
       </c>
       <c r="D227" s="31"/>
       <c r="E227" s="31" t="s">
-        <v>694</v>
+        <v>709</v>
       </c>
       <c r="F227" s="7"/>
       <c r="G227" s="13"/>
     </row>
     <row r="228" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A228" s="108"/>
-      <c r="B228" s="42" t="s">
-        <v>707</v>
+      <c r="A228" s="83"/>
+      <c r="B228" s="31" t="s">
+        <v>812</v>
       </c>
       <c r="C228" s="31" t="s">
-        <v>708</v>
+        <v>813</v>
       </c>
       <c r="D228" s="31"/>
       <c r="E228" s="31" t="s">
-        <v>709</v>
+        <v>814</v>
       </c>
       <c r="F228" s="7"/>
       <c r="G228" s="13"/>
     </row>
     <row r="229" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A229" s="108"/>
-      <c r="B229" s="31" t="s">
-        <v>812</v>
-      </c>
-      <c r="C229" s="31" t="s">
-        <v>813</v>
-      </c>
+      <c r="A229" s="83"/>
+      <c r="B229" s="42"/>
+      <c r="C229" s="31"/>
       <c r="D229" s="31"/>
-      <c r="E229" s="31" t="s">
-        <v>814</v>
-      </c>
+      <c r="E229" s="31"/>
       <c r="F229" s="7"/>
       <c r="G229" s="13"/>
     </row>
     <row r="230" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A230" s="108"/>
+      <c r="A230" s="83"/>
       <c r="B230" s="42"/>
       <c r="C230" s="31"/>
       <c r="D230" s="31"/>
@@ -7864,36 +7872,36 @@
       <c r="G230" s="13"/>
     </row>
     <row r="231" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A231" s="108"/>
-      <c r="B231" s="42"/>
-      <c r="C231" s="31"/>
-      <c r="D231" s="31"/>
-      <c r="E231" s="31"/>
+      <c r="A231" s="83"/>
       <c r="F231" s="7"/>
       <c r="G231" s="13"/>
     </row>
     <row r="232" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="109"/>
+      <c r="A232" s="84"/>
+      <c r="B232" s="42" t="s">
+        <v>291</v>
+      </c>
+      <c r="C232" s="31" t="s">
+        <v>292</v>
+      </c>
+      <c r="E232" s="31" t="s">
+        <v>312</v>
+      </c>
       <c r="G232" s="16"/>
     </row>
-    <row r="233" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="81" t="s">
+    <row r="233" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="122" t="s">
         <v>500</v>
       </c>
-      <c r="B233" s="42" t="s">
-        <v>291</v>
-      </c>
-      <c r="C233" s="31" t="s">
-        <v>292</v>
-      </c>
-      <c r="E233" s="31" t="s">
-        <v>312</v>
-      </c>
+      <c r="B233" s="42"/>
+      <c r="C233" s="7"/>
+      <c r="D233" s="8"/>
+      <c r="E233" s="7"/>
       <c r="F233" s="18"/>
       <c r="G233" s="13"/>
     </row>
     <row r="234" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="82"/>
+      <c r="A234" s="123"/>
       <c r="B234" s="42"/>
       <c r="C234" s="7"/>
       <c r="D234" s="8"/>
@@ -7901,109 +7909,115 @@
       <c r="F234" s="18"/>
       <c r="G234" s="13"/>
     </row>
-    <row r="235" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="82"/>
+    <row r="235" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A235" s="123"/>
       <c r="B235" s="42"/>
-      <c r="C235" s="7"/>
-      <c r="D235" s="8"/>
-      <c r="E235" s="7"/>
+      <c r="C235" s="31"/>
+      <c r="E235" s="31"/>
       <c r="F235" s="7"/>
       <c r="G235" s="13"/>
     </row>
-    <row r="236" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="82"/>
+    <row r="236" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="123"/>
       <c r="B236" s="42"/>
-      <c r="C236" s="31"/>
-      <c r="E236" s="31"/>
+      <c r="C236" s="7"/>
+      <c r="D236" s="8"/>
+      <c r="E236" s="7"/>
       <c r="F236" s="7"/>
       <c r="G236" s="13"/>
     </row>
-    <row r="237" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="82"/>
-      <c r="B237" s="42"/>
-      <c r="C237" s="7"/>
-      <c r="D237" s="8"/>
-      <c r="E237" s="7"/>
+    <row r="237" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A237" s="123"/>
       <c r="F237" s="7"/>
       <c r="G237" s="13"/>
     </row>
     <row r="238" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="83"/>
+      <c r="A238" s="124"/>
+      <c r="B238" s="35" t="s">
+        <v>391</v>
+      </c>
+      <c r="C238" s="34" t="s">
+        <v>391</v>
+      </c>
+      <c r="D238" s="34"/>
+      <c r="E238" s="34" t="s">
+        <v>392</v>
+      </c>
       <c r="G238" s="16"/>
     </row>
     <row r="239" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="65" t="s">
+      <c r="A239" s="91" t="s">
         <v>493</v>
       </c>
-      <c r="B239" s="35" t="s">
-        <v>391</v>
-      </c>
-      <c r="C239" s="34" t="s">
-        <v>391</v>
-      </c>
-      <c r="D239" s="34"/>
-      <c r="E239" s="34" t="s">
-        <v>392</v>
+      <c r="B239" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="C239" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="E239" s="31" t="s">
+        <v>196</v>
       </c>
       <c r="F239" s="34" t="s">
         <v>393</v>
       </c>
       <c r="G239" s="13"/>
     </row>
-    <row r="240" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A240" s="66"/>
+    <row r="240" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A240" s="92"/>
       <c r="B240" s="42" t="s">
-        <v>179</v>
-      </c>
-      <c r="C240" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="E240" s="31" t="s">
-        <v>196</v>
+        <v>83</v>
+      </c>
+      <c r="C240" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D240" s="8"/>
+      <c r="E240" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="F240" s="18"/>
       <c r="G240" s="13"/>
     </row>
-    <row r="241" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A241" s="66"/>
+    <row r="241" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A241" s="92"/>
       <c r="B241" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="C241" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D241" s="8"/>
-      <c r="E241" s="7" t="s">
-        <v>93</v>
+        <v>293</v>
+      </c>
+      <c r="C241" s="31" t="s">
+        <v>294</v>
+      </c>
+      <c r="E241" s="31" t="s">
+        <v>313</v>
       </c>
       <c r="F241" s="18"/>
       <c r="G241" s="13"/>
     </row>
     <row r="242" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A242" s="66"/>
+      <c r="A242" s="92"/>
       <c r="B242" s="42" t="s">
-        <v>293</v>
+        <v>563</v>
       </c>
       <c r="C242" s="31" t="s">
-        <v>294</v>
-      </c>
+        <v>564</v>
+      </c>
+      <c r="D242" s="31"/>
       <c r="E242" s="31" t="s">
-        <v>313</v>
+        <v>565</v>
       </c>
       <c r="F242" s="18"/>
       <c r="G242" s="13"/>
     </row>
     <row r="243" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A243" s="66"/>
+      <c r="A243" s="92"/>
       <c r="B243" s="42" t="s">
-        <v>563</v>
+        <v>125</v>
       </c>
       <c r="C243" s="31" t="s">
-        <v>564</v>
+        <v>538</v>
       </c>
       <c r="D243" s="31"/>
       <c r="E243" s="31" t="s">
-        <v>565</v>
+        <v>539</v>
       </c>
       <c r="F243" s="31" t="s">
         <v>566</v>
@@ -8011,117 +8025,111 @@
       <c r="G243" s="13"/>
     </row>
     <row r="244" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A244" s="66"/>
+      <c r="A244" s="92"/>
       <c r="B244" s="42" t="s">
-        <v>125</v>
+        <v>552</v>
       </c>
       <c r="C244" s="31" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="D244" s="31"/>
       <c r="E244" s="31" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="F244" s="18"/>
       <c r="G244" s="13"/>
     </row>
     <row r="245" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A245" s="66"/>
+      <c r="A245" s="92"/>
       <c r="B245" s="42" t="s">
-        <v>552</v>
+        <v>707</v>
       </c>
       <c r="C245" s="31" t="s">
-        <v>553</v>
+        <v>708</v>
       </c>
       <c r="D245" s="31"/>
       <c r="E245" s="31" t="s">
-        <v>554</v>
+        <v>709</v>
       </c>
       <c r="F245" s="18"/>
       <c r="G245" s="13"/>
     </row>
     <row r="246" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A246" s="66"/>
+      <c r="A246" s="92"/>
       <c r="B246" s="42" t="s">
-        <v>707</v>
+        <v>737</v>
       </c>
       <c r="C246" s="31" t="s">
-        <v>708</v>
+        <v>738</v>
       </c>
       <c r="D246" s="31"/>
       <c r="E246" s="31" t="s">
-        <v>709</v>
+        <v>739</v>
       </c>
       <c r="F246" s="18"/>
       <c r="G246" s="13"/>
     </row>
     <row r="247" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A247" s="66"/>
-      <c r="B247" s="42" t="s">
-        <v>737</v>
+      <c r="A247" s="92"/>
+      <c r="B247" s="31" t="s">
+        <v>847</v>
       </c>
       <c r="C247" s="31" t="s">
-        <v>738</v>
+        <v>848</v>
       </c>
       <c r="D247" s="31"/>
       <c r="E247" s="31" t="s">
-        <v>739</v>
+        <v>849</v>
       </c>
       <c r="F247" s="18"/>
       <c r="G247" s="13"/>
     </row>
     <row r="248" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A248" s="66"/>
+      <c r="A248" s="92"/>
       <c r="B248" s="31" t="s">
-        <v>847</v>
+        <v>862</v>
       </c>
       <c r="C248" s="31" t="s">
-        <v>848</v>
+        <v>863</v>
       </c>
       <c r="D248" s="31"/>
       <c r="E248" s="31" t="s">
-        <v>849</v>
+        <v>864</v>
       </c>
       <c r="F248" s="18"/>
       <c r="G248" s="13"/>
     </row>
     <row r="249" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A249" s="66"/>
+      <c r="A249" s="92"/>
       <c r="B249" s="31" t="s">
-        <v>862</v>
+        <v>987</v>
       </c>
       <c r="C249" s="31" t="s">
-        <v>863</v>
+        <v>988</v>
       </c>
       <c r="D249" s="31"/>
       <c r="E249" s="31" t="s">
-        <v>864</v>
+        <v>989</v>
       </c>
       <c r="F249" s="18"/>
       <c r="G249" s="13"/>
     </row>
     <row r="250" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A250" s="66"/>
-      <c r="B250" s="31" t="s">
-        <v>987</v>
-      </c>
-      <c r="C250" s="31" t="s">
-        <v>988</v>
-      </c>
-      <c r="D250" s="31"/>
-      <c r="E250" s="31" t="s">
-        <v>989</v>
-      </c>
+      <c r="A250" s="92"/>
       <c r="F250" s="18"/>
       <c r="G250" s="13"/>
     </row>
     <row r="251" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A251" s="66"/>
+      <c r="A251" s="92"/>
+      <c r="B251" s="31"/>
+      <c r="C251" s="31"/>
+      <c r="D251" s="31"/>
+      <c r="E251" s="31"/>
       <c r="F251" s="18"/>
       <c r="G251" s="13"/>
     </row>
     <row r="252" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A252" s="66"/>
+      <c r="A252" s="92"/>
       <c r="B252" s="31"/>
       <c r="C252" s="31"/>
       <c r="D252" s="31"/>
@@ -8130,111 +8138,117 @@
       <c r="G252" s="13"/>
     </row>
     <row r="253" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A253" s="66"/>
-      <c r="B253" s="31"/>
-      <c r="C253" s="31"/>
-      <c r="D253" s="31"/>
-      <c r="E253" s="31"/>
+      <c r="A253" s="92"/>
       <c r="F253" s="18"/>
       <c r="G253" s="13"/>
     </row>
     <row r="254" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="116"/>
+      <c r="A254" s="93"/>
+      <c r="B254" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="C254" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E254" s="7" t="s">
+        <v>109</v>
+      </c>
       <c r="F254" s="19"/>
       <c r="G254" s="16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="255" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="84" t="s">
+    <row r="255" spans="1:7" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="125" t="s">
         <v>106</v>
       </c>
       <c r="B255" s="42" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C255" s="7" t="s">
-        <v>108</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="D255" s="8"/>
       <c r="E255" s="7" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="G255" s="30"/>
     </row>
-    <row r="256" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A256" s="85"/>
+    <row r="256" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A256" s="126"/>
       <c r="B256" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="C256" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D256" s="8"/>
-      <c r="E256" s="7" t="s">
-        <v>99</v>
+        <v>328</v>
+      </c>
+      <c r="C256" s="31" t="s">
+        <v>329</v>
+      </c>
+      <c r="E256" s="31" t="s">
+        <v>337</v>
       </c>
       <c r="F256" s="18"/>
       <c r="G256" s="23"/>
     </row>
     <row r="257" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A257" s="85"/>
+      <c r="A257" s="126"/>
       <c r="B257" s="42" t="s">
-        <v>328</v>
+        <v>373</v>
       </c>
       <c r="C257" s="31" t="s">
-        <v>329</v>
+        <v>374</v>
       </c>
       <c r="E257" s="31" t="s">
-        <v>337</v>
+        <v>383</v>
       </c>
       <c r="F257" s="18"/>
       <c r="G257" s="13"/>
     </row>
-    <row r="258" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A258" s="85"/>
-      <c r="B258" s="42" t="s">
-        <v>373</v>
-      </c>
-      <c r="C258" s="31" t="s">
-        <v>374</v>
-      </c>
-      <c r="E258" s="31" t="s">
-        <v>383</v>
+    <row r="258" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A258" s="126"/>
+      <c r="B258" s="35" t="s">
+        <v>441</v>
+      </c>
+      <c r="C258" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="D258" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E258" s="35" t="s">
+        <v>443</v>
       </c>
       <c r="F258" s="18"/>
       <c r="G258" s="13"/>
     </row>
     <row r="259" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A259" s="85"/>
+      <c r="A259" s="126"/>
       <c r="B259" s="35" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="C259" s="35" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="D259" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E259" s="35" t="s">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="F259" s="35" t="s">
         <v>405</v>
       </c>
       <c r="G259" s="13"/>
     </row>
-    <row r="260" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A260" s="85"/>
+    <row r="260" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A260" s="126"/>
       <c r="B260" s="35" t="s">
-        <v>425</v>
-      </c>
-      <c r="C260" s="35" t="s">
-        <v>425</v>
-      </c>
-      <c r="D260" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E260" s="35" t="s">
-        <v>426</v>
+        <v>483</v>
+      </c>
+      <c r="C260" s="34" t="s">
+        <v>483</v>
+      </c>
+      <c r="D260" s="34"/>
+      <c r="E260" s="34" t="s">
+        <v>484</v>
       </c>
       <c r="F260" s="35" t="s">
         <v>405</v>
@@ -8242,33 +8256,35 @@
       <c r="G260" s="13"/>
     </row>
     <row r="261" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A261" s="85"/>
+      <c r="A261" s="126"/>
       <c r="B261" s="35" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="C261" s="34" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="D261" s="34"/>
       <c r="E261" s="34" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="F261" s="34" t="s">
         <v>485</v>
       </c>
       <c r="G261" s="13"/>
     </row>
-    <row r="262" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A262" s="85"/>
+    <row r="262" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A262" s="126"/>
       <c r="B262" s="35" t="s">
-        <v>476</v>
-      </c>
-      <c r="C262" s="34" t="s">
-        <v>477</v>
-      </c>
-      <c r="D262" s="34"/>
-      <c r="E262" s="34" t="s">
-        <v>478</v>
+        <v>414</v>
+      </c>
+      <c r="C262" s="35" t="s">
+        <v>414</v>
+      </c>
+      <c r="D262" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E262" s="35" t="s">
+        <v>415</v>
       </c>
       <c r="F262" s="34" t="s">
         <v>479</v>
@@ -8276,37 +8292,35 @@
       <c r="G262" s="13"/>
     </row>
     <row r="263" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A263" s="85"/>
+      <c r="A263" s="126"/>
       <c r="B263" s="35" t="s">
-        <v>414</v>
-      </c>
-      <c r="C263" s="35" t="s">
-        <v>414</v>
+        <v>402</v>
+      </c>
+      <c r="C263" s="34" t="s">
+        <v>403</v>
       </c>
       <c r="D263" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E263" s="35" t="s">
-        <v>415</v>
+      <c r="E263" s="34" t="s">
+        <v>404</v>
       </c>
       <c r="F263" s="35" t="s">
         <v>405</v>
       </c>
       <c r="G263" s="13"/>
     </row>
-    <row r="264" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A264" s="85"/>
+    <row r="264" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A264" s="126"/>
       <c r="B264" s="35" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C264" s="34" t="s">
-        <v>403</v>
-      </c>
-      <c r="D264" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="D264" s="34"/>
       <c r="E264" s="34" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="F264" s="34" t="s">
         <v>405</v>
@@ -8314,67 +8328,67 @@
       <c r="G264" s="13"/>
     </row>
     <row r="265" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A265" s="85"/>
+      <c r="A265" s="126"/>
       <c r="B265" s="35" t="s">
-        <v>396</v>
-      </c>
-      <c r="C265" s="34" t="s">
-        <v>396</v>
-      </c>
-      <c r="D265" s="34"/>
-      <c r="E265" s="34" t="s">
-        <v>397</v>
+        <v>409</v>
+      </c>
+      <c r="C265" s="35" t="s">
+        <v>410</v>
+      </c>
+      <c r="D265" s="35"/>
+      <c r="E265" s="35" t="s">
+        <v>411</v>
       </c>
       <c r="F265" s="35"/>
       <c r="G265" s="13"/>
     </row>
-    <row r="266" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A266" s="85"/>
+    <row r="266" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A266" s="126"/>
       <c r="B266" s="35" t="s">
-        <v>409</v>
-      </c>
-      <c r="C266" s="35" t="s">
-        <v>410</v>
-      </c>
-      <c r="D266" s="35"/>
-      <c r="E266" s="35" t="s">
-        <v>411</v>
+        <v>445</v>
+      </c>
+      <c r="C266" s="34" t="s">
+        <v>445</v>
+      </c>
+      <c r="D266" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E266" s="34" t="s">
+        <v>446</v>
       </c>
       <c r="F266" s="35"/>
       <c r="G266" s="13"/>
     </row>
     <row r="267" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A267" s="85"/>
+      <c r="A267" s="126"/>
       <c r="B267" s="35" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C267" s="34" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="D267" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E267" s="34" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="F267" s="34" t="s">
         <v>405</v>
       </c>
       <c r="G267" s="13"/>
     </row>
-    <row r="268" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A268" s="86"/>
-      <c r="B268" s="35" t="s">
-        <v>447</v>
-      </c>
-      <c r="C268" s="34" t="s">
-        <v>448</v>
-      </c>
-      <c r="D268" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E268" s="34" t="s">
-        <v>449</v>
+    <row r="268" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A268" s="127"/>
+      <c r="B268" s="42" t="s">
+        <v>567</v>
+      </c>
+      <c r="C268" s="31" t="s">
+        <v>568</v>
+      </c>
+      <c r="D268" s="31"/>
+      <c r="E268" s="31" t="s">
+        <v>569</v>
       </c>
       <c r="F268" s="34" t="s">
         <v>450</v>
@@ -8382,16 +8396,16 @@
       <c r="G268" s="13"/>
     </row>
     <row r="269" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A269" s="86"/>
+      <c r="A269" s="127"/>
       <c r="B269" s="42" t="s">
-        <v>567</v>
+        <v>679</v>
       </c>
       <c r="C269" s="31" t="s">
-        <v>568</v>
+        <v>680</v>
       </c>
       <c r="D269" s="31"/>
       <c r="E269" s="31" t="s">
-        <v>569</v>
+        <v>681</v>
       </c>
       <c r="F269" s="31" t="s">
         <v>570</v>
@@ -8399,16 +8413,16 @@
       <c r="G269" s="18"/>
     </row>
     <row r="270" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A270" s="86"/>
-      <c r="B270" s="42" t="s">
-        <v>679</v>
+      <c r="A270" s="127"/>
+      <c r="B270" s="31" t="s">
+        <v>818</v>
       </c>
       <c r="C270" s="31" t="s">
-        <v>680</v>
+        <v>819</v>
       </c>
       <c r="D270" s="31"/>
       <c r="E270" s="31" t="s">
-        <v>681</v>
+        <v>820</v>
       </c>
       <c r="F270" s="31" t="s">
         <v>682</v>
@@ -8416,97 +8430,91 @@
       <c r="G270" s="13"/>
     </row>
     <row r="271" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A271" s="86"/>
+      <c r="A271" s="127"/>
       <c r="B271" s="31" t="s">
-        <v>818</v>
+        <v>824</v>
       </c>
       <c r="C271" s="31" t="s">
-        <v>819</v>
+        <v>825</v>
       </c>
       <c r="D271" s="31"/>
       <c r="E271" s="31" t="s">
-        <v>820</v>
+        <v>826</v>
       </c>
       <c r="F271" s="34"/>
       <c r="G271" s="13"/>
     </row>
     <row r="272" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A272" s="86"/>
+      <c r="A272" s="127"/>
       <c r="B272" s="31" t="s">
-        <v>824</v>
+        <v>868</v>
       </c>
       <c r="C272" s="31" t="s">
-        <v>825</v>
+        <v>869</v>
       </c>
       <c r="D272" s="31"/>
       <c r="E272" s="31" t="s">
-        <v>826</v>
+        <v>870</v>
       </c>
       <c r="F272" s="34"/>
       <c r="G272" s="13"/>
     </row>
     <row r="273" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A273" s="86"/>
+      <c r="A273" s="127"/>
       <c r="B273" s="31" t="s">
-        <v>868</v>
+        <v>927</v>
       </c>
       <c r="C273" s="31" t="s">
-        <v>869</v>
+        <v>928</v>
       </c>
       <c r="D273" s="31"/>
       <c r="E273" s="31" t="s">
-        <v>870</v>
+        <v>929</v>
       </c>
       <c r="F273" s="34"/>
       <c r="G273" s="13"/>
     </row>
     <row r="274" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A274" s="86"/>
+      <c r="A274" s="127"/>
       <c r="B274" s="31" t="s">
-        <v>927</v>
+        <v>993</v>
       </c>
       <c r="C274" s="31" t="s">
-        <v>928</v>
+        <v>994</v>
       </c>
       <c r="D274" s="31"/>
       <c r="E274" s="31" t="s">
-        <v>929</v>
+        <v>995</v>
       </c>
       <c r="F274" s="34"/>
       <c r="G274" s="13"/>
     </row>
     <row r="275" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A275" s="86"/>
+      <c r="A275" s="127"/>
       <c r="B275" s="31" t="s">
-        <v>993</v>
+        <v>1043</v>
       </c>
       <c r="C275" s="31" t="s">
-        <v>994</v>
+        <v>1044</v>
       </c>
       <c r="D275" s="31"/>
       <c r="E275" s="31" t="s">
-        <v>995</v>
+        <v>1045</v>
       </c>
       <c r="F275" s="34"/>
       <c r="G275" s="13"/>
     </row>
     <row r="276" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A276" s="86"/>
-      <c r="B276" s="31" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C276" s="31" t="s">
-        <v>1044</v>
-      </c>
+      <c r="A276" s="127"/>
+      <c r="B276" s="31"/>
+      <c r="C276" s="31"/>
       <c r="D276" s="31"/>
-      <c r="E276" s="31" t="s">
-        <v>1045</v>
-      </c>
+      <c r="E276" s="31"/>
       <c r="F276" s="34"/>
       <c r="G276" s="13"/>
     </row>
     <row r="277" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A277" s="86"/>
+      <c r="A277" s="127"/>
       <c r="B277" s="31"/>
       <c r="C277" s="31"/>
       <c r="D277" s="31"/>
@@ -8515,7 +8523,7 @@
       <c r="G277" s="13"/>
     </row>
     <row r="278" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A278" s="86"/>
+      <c r="A278" s="127"/>
       <c r="B278" s="31"/>
       <c r="C278" s="31"/>
       <c r="D278" s="31"/>
@@ -8523,60 +8531,60 @@
       <c r="F278" s="34"/>
       <c r="G278" s="13"/>
     </row>
-    <row r="279" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A279" s="86"/>
-      <c r="B279" s="31"/>
-      <c r="C279" s="31"/>
-      <c r="D279" s="31"/>
-      <c r="E279" s="31"/>
+    <row r="279" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A279" s="127"/>
+      <c r="B279" s="35"/>
+      <c r="C279" s="34"/>
+      <c r="D279" s="4"/>
+      <c r="E279" s="34"/>
       <c r="F279" s="34"/>
       <c r="G279" s="13"/>
     </row>
-    <row r="280" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A280" s="71"/>
-      <c r="B280" s="35"/>
-      <c r="C280" s="34"/>
-      <c r="D280" s="4"/>
-      <c r="E280" s="34"/>
+    <row r="280" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A280" s="112"/>
+      <c r="B280" s="42" t="s">
+        <v>725</v>
+      </c>
+      <c r="C280" s="31" t="s">
+        <v>726</v>
+      </c>
+      <c r="D280" s="31"/>
+      <c r="E280" s="31" t="s">
+        <v>727</v>
+      </c>
       <c r="F280" s="34"/>
       <c r="G280" s="13"/>
     </row>
     <row r="281" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A281" s="65" t="s">
+      <c r="A281" s="91" t="s">
         <v>760</v>
       </c>
-      <c r="B281" s="42" t="s">
-        <v>725</v>
-      </c>
-      <c r="C281" s="31" t="s">
-        <v>726</v>
-      </c>
-      <c r="D281" s="31"/>
-      <c r="E281" s="31" t="s">
-        <v>727</v>
-      </c>
+      <c r="B281" s="42"/>
+      <c r="C281" s="31"/>
+      <c r="E281" s="31"/>
       <c r="F281" s="31"/>
       <c r="G281" s="13"/>
     </row>
     <row r="282" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A282" s="66"/>
+      <c r="A282" s="92"/>
       <c r="B282" s="42"/>
       <c r="C282" s="31"/>
+      <c r="D282" s="31"/>
       <c r="E282" s="31"/>
       <c r="F282" s="18"/>
       <c r="G282" s="13"/>
     </row>
-    <row r="283" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A283" s="66"/>
+    <row r="283" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="92"/>
       <c r="B283" s="42"/>
-      <c r="C283" s="31"/>
-      <c r="D283" s="31"/>
-      <c r="E283" s="31"/>
+      <c r="C283" s="7"/>
+      <c r="D283" s="8"/>
+      <c r="E283" s="7"/>
       <c r="F283" s="18"/>
       <c r="G283" s="13"/>
     </row>
     <row r="284" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="66"/>
+      <c r="A284" s="92"/>
       <c r="B284" s="42"/>
       <c r="C284" s="7"/>
       <c r="D284" s="8"/>
@@ -8585,7 +8593,7 @@
       <c r="G284" s="13"/>
     </row>
     <row r="285" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="66"/>
+      <c r="A285" s="92"/>
       <c r="B285" s="42"/>
       <c r="C285" s="7"/>
       <c r="D285" s="8"/>
@@ -8594,7 +8602,7 @@
       <c r="G285" s="13"/>
     </row>
     <row r="286" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="66"/>
+      <c r="A286" s="92"/>
       <c r="B286" s="42"/>
       <c r="C286" s="7"/>
       <c r="D286" s="8"/>
@@ -8602,209 +8610,215 @@
       <c r="F286" s="18"/>
       <c r="G286" s="13"/>
     </row>
-    <row r="287" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="66"/>
-      <c r="B287" s="42"/>
-      <c r="C287" s="7"/>
-      <c r="D287" s="8"/>
-      <c r="E287" s="7"/>
+    <row r="287" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A287" s="92"/>
       <c r="F287" s="18"/>
       <c r="G287" s="13"/>
     </row>
     <row r="288" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="67"/>
+      <c r="A288" s="108"/>
+      <c r="B288" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="C288" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="E288" s="31" t="s">
+        <v>198</v>
+      </c>
       <c r="F288" s="19"/>
       <c r="G288" s="16" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="289" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A289" s="72" t="s">
+      <c r="A289" s="113" t="s">
         <v>492</v>
       </c>
       <c r="B289" s="42" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C289" s="31" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E289" s="31" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F289" s="17"/>
       <c r="G289" s="12"/>
     </row>
     <row r="290" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A290" s="73"/>
+      <c r="A290" s="114"/>
       <c r="B290" s="42" t="s">
-        <v>187</v>
+        <v>387</v>
       </c>
       <c r="C290" s="31" t="s">
-        <v>188</v>
+        <v>388</v>
       </c>
       <c r="E290" s="31" t="s">
-        <v>200</v>
+        <v>390</v>
       </c>
       <c r="F290" s="18"/>
       <c r="G290" s="13"/>
     </row>
     <row r="291" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A291" s="73"/>
+      <c r="A291" s="114"/>
       <c r="B291" s="42" t="s">
-        <v>387</v>
+        <v>275</v>
       </c>
       <c r="C291" s="31" t="s">
-        <v>388</v>
+        <v>276</v>
       </c>
       <c r="E291" s="31" t="s">
-        <v>390</v>
+        <v>304</v>
       </c>
       <c r="F291" s="18"/>
       <c r="G291" s="13"/>
     </row>
     <row r="292" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A292" s="73"/>
+      <c r="A292" s="114"/>
       <c r="B292" s="42" t="s">
-        <v>275</v>
+        <v>367</v>
       </c>
       <c r="C292" s="31" t="s">
-        <v>276</v>
+        <v>368</v>
       </c>
       <c r="E292" s="31" t="s">
-        <v>304</v>
+        <v>380</v>
       </c>
       <c r="F292" s="18"/>
       <c r="G292" s="13"/>
     </row>
     <row r="293" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A293" s="73"/>
+      <c r="A293" s="114"/>
       <c r="B293" s="42" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="C293" s="31" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="E293" s="31" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="F293" s="18"/>
       <c r="G293" s="13"/>
     </row>
     <row r="294" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A294" s="73"/>
+      <c r="A294" s="114"/>
       <c r="B294" s="42" t="s">
-        <v>375</v>
+        <v>505</v>
       </c>
       <c r="C294" s="31" t="s">
-        <v>376</v>
-      </c>
+        <v>506</v>
+      </c>
+      <c r="D294" s="31"/>
       <c r="E294" s="31" t="s">
-        <v>384</v>
+        <v>507</v>
       </c>
       <c r="F294" s="18"/>
       <c r="G294" s="13"/>
     </row>
     <row r="295" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A295" s="73"/>
+      <c r="A295" s="114"/>
       <c r="B295" s="42" t="s">
-        <v>505</v>
+        <v>529</v>
       </c>
       <c r="C295" s="31" t="s">
-        <v>506</v>
+        <v>530</v>
       </c>
       <c r="D295" s="31"/>
       <c r="E295" s="31" t="s">
-        <v>507</v>
+        <v>531</v>
       </c>
       <c r="F295" s="18"/>
       <c r="G295" s="13"/>
     </row>
     <row r="296" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A296" s="73"/>
+      <c r="A296" s="114"/>
       <c r="B296" s="42" t="s">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="C296" s="31" t="s">
-        <v>530</v>
+        <v>572</v>
       </c>
       <c r="D296" s="31"/>
       <c r="E296" s="31" t="s">
-        <v>531</v>
+        <v>573</v>
       </c>
       <c r="F296" s="18"/>
       <c r="G296" s="13"/>
     </row>
     <row r="297" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A297" s="73"/>
+      <c r="A297" s="114"/>
       <c r="B297" s="42" t="s">
-        <v>571</v>
+        <v>588</v>
       </c>
       <c r="C297" s="31" t="s">
-        <v>572</v>
+        <v>589</v>
       </c>
       <c r="D297" s="31"/>
       <c r="E297" s="31" t="s">
-        <v>573</v>
+        <v>590</v>
       </c>
       <c r="F297" s="18"/>
       <c r="G297" s="13"/>
     </row>
     <row r="298" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A298" s="73"/>
+      <c r="A298" s="114"/>
       <c r="B298" s="42" t="s">
-        <v>588</v>
+        <v>624</v>
       </c>
       <c r="C298" s="31" t="s">
-        <v>589</v>
+        <v>625</v>
       </c>
       <c r="D298" s="31"/>
       <c r="E298" s="31" t="s">
-        <v>590</v>
+        <v>626</v>
       </c>
       <c r="F298" s="18"/>
       <c r="G298" s="13"/>
     </row>
     <row r="299" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A299" s="73"/>
+      <c r="A299" s="114"/>
       <c r="B299" s="42" t="s">
-        <v>624</v>
+        <v>698</v>
       </c>
       <c r="C299" s="31" t="s">
-        <v>625</v>
+        <v>699</v>
       </c>
       <c r="D299" s="31"/>
       <c r="E299" s="31" t="s">
-        <v>626</v>
+        <v>700</v>
       </c>
       <c r="F299" s="18"/>
       <c r="G299" s="13"/>
     </row>
     <row r="300" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A300" s="73"/>
+      <c r="A300" s="114"/>
       <c r="B300" s="42" t="s">
-        <v>698</v>
+        <v>375</v>
       </c>
       <c r="C300" s="31" t="s">
-        <v>699</v>
+        <v>749</v>
       </c>
       <c r="D300" s="31"/>
       <c r="E300" s="31" t="s">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="F300" s="18"/>
       <c r="G300" s="13"/>
     </row>
     <row r="301" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A301" s="73"/>
+      <c r="A301" s="114"/>
       <c r="B301" s="42" t="s">
-        <v>375</v>
+        <v>731</v>
       </c>
       <c r="C301" s="31" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="D301" s="31"/>
       <c r="E301" s="31" t="s">
-        <v>750</v>
+        <v>733</v>
       </c>
       <c r="F301" s="31" t="s">
         <v>751</v>
@@ -8812,142 +8826,136 @@
       <c r="G301" s="13"/>
     </row>
     <row r="302" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A302" s="73"/>
+      <c r="A302" s="114"/>
       <c r="B302" s="42" t="s">
-        <v>731</v>
-      </c>
-      <c r="C302" s="31" t="s">
-        <v>732</v>
-      </c>
-      <c r="D302" s="31"/>
-      <c r="E302" s="31" t="s">
-        <v>733</v>
+        <v>806</v>
+      </c>
+      <c r="C302" s="39" t="s">
+        <v>807</v>
+      </c>
+      <c r="D302" s="39"/>
+      <c r="E302" s="39" t="s">
+        <v>808</v>
       </c>
       <c r="F302" s="31"/>
       <c r="G302" s="13"/>
     </row>
     <row r="303" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A303" s="73"/>
+      <c r="A303" s="114"/>
       <c r="B303" s="42" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="C303" s="39" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="D303" s="39"/>
       <c r="E303" s="39" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="F303" s="31"/>
       <c r="G303" s="13"/>
     </row>
     <row r="304" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A304" s="73"/>
-      <c r="B304" s="42" t="s">
-        <v>797</v>
-      </c>
-      <c r="C304" s="39" t="s">
-        <v>798</v>
-      </c>
-      <c r="D304" s="39"/>
-      <c r="E304" s="39" t="s">
-        <v>799</v>
+      <c r="A304" s="114"/>
+      <c r="B304" s="31" t="s">
+        <v>835</v>
+      </c>
+      <c r="C304" s="31" t="s">
+        <v>836</v>
+      </c>
+      <c r="D304" s="31"/>
+      <c r="E304" s="31" t="s">
+        <v>837</v>
       </c>
       <c r="F304" s="31"/>
       <c r="G304" s="13"/>
     </row>
     <row r="305" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A305" s="73"/>
+      <c r="A305" s="114"/>
       <c r="B305" s="31" t="s">
-        <v>835</v>
+        <v>844</v>
       </c>
       <c r="C305" s="31" t="s">
-        <v>836</v>
+        <v>845</v>
       </c>
       <c r="D305" s="31"/>
       <c r="E305" s="31" t="s">
-        <v>837</v>
+        <v>846</v>
       </c>
       <c r="F305" s="31"/>
       <c r="G305" s="13"/>
     </row>
     <row r="306" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A306" s="73"/>
-      <c r="B306" s="31" t="s">
-        <v>844</v>
-      </c>
-      <c r="C306" s="31" t="s">
-        <v>845</v>
-      </c>
-      <c r="D306" s="31"/>
-      <c r="E306" s="31" t="s">
-        <v>846</v>
+      <c r="A306" s="114"/>
+      <c r="B306" s="39" t="s">
+        <v>894</v>
+      </c>
+      <c r="C306" s="39" t="s">
+        <v>895</v>
+      </c>
+      <c r="D306" s="39"/>
+      <c r="E306" s="39" t="s">
+        <v>896</v>
       </c>
       <c r="F306" s="31"/>
       <c r="G306" s="13"/>
     </row>
     <row r="307" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A307" s="73"/>
+      <c r="A307" s="114"/>
       <c r="B307" s="39" t="s">
-        <v>894</v>
+        <v>973</v>
       </c>
       <c r="C307" s="39" t="s">
-        <v>895</v>
+        <v>974</v>
       </c>
       <c r="D307" s="39"/>
       <c r="E307" s="39" t="s">
-        <v>896</v>
+        <v>975</v>
       </c>
       <c r="F307" s="31"/>
       <c r="G307" s="13"/>
     </row>
     <row r="308" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="73"/>
-      <c r="B308" s="39" t="s">
-        <v>973</v>
-      </c>
-      <c r="C308" s="39" t="s">
-        <v>974</v>
-      </c>
-      <c r="D308" s="39"/>
-      <c r="E308" s="39" t="s">
-        <v>975</v>
+      <c r="A308" s="114"/>
+      <c r="B308" s="31" t="s">
+        <v>990</v>
+      </c>
+      <c r="C308" s="31" t="s">
+        <v>991</v>
+      </c>
+      <c r="D308" s="31"/>
+      <c r="E308" s="31" t="s">
+        <v>992</v>
       </c>
       <c r="F308" s="19"/>
       <c r="G308" s="16"/>
     </row>
     <row r="309" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A309" s="71"/>
-      <c r="B309" s="31" t="s">
-        <v>990</v>
+      <c r="A309" s="112"/>
+      <c r="B309" s="42" t="s">
+        <v>746</v>
       </c>
       <c r="C309" s="31" t="s">
-        <v>991</v>
+        <v>747</v>
       </c>
       <c r="D309" s="31"/>
       <c r="E309" s="31" t="s">
-        <v>992</v>
+        <v>748</v>
       </c>
       <c r="F309" s="18"/>
       <c r="G309" s="13"/>
     </row>
     <row r="310" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A310" s="71"/>
-      <c r="B310" s="42" t="s">
-        <v>746</v>
-      </c>
-      <c r="C310" s="31" t="s">
-        <v>747</v>
-      </c>
-      <c r="D310" s="31"/>
-      <c r="E310" s="31" t="s">
-        <v>748</v>
-      </c>
+      <c r="A310" s="112"/>
+      <c r="B310" s="39"/>
+      <c r="C310" s="39"/>
+      <c r="D310" s="39"/>
+      <c r="E310" s="39"/>
       <c r="F310" s="18"/>
       <c r="G310" s="13"/>
     </row>
     <row r="311" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A311" s="71"/>
+      <c r="A311" s="112"/>
       <c r="B311" s="39"/>
       <c r="C311" s="39"/>
       <c r="D311" s="39"/>
@@ -8956,7 +8964,7 @@
       <c r="G311" s="13"/>
     </row>
     <row r="312" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A312" s="71"/>
+      <c r="A312" s="112"/>
       <c r="B312" s="39"/>
       <c r="C312" s="39"/>
       <c r="D312" s="39"/>
@@ -8965,102 +8973,110 @@
       <c r="G312" s="13"/>
     </row>
     <row r="313" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="71"/>
-      <c r="B313" s="39"/>
-      <c r="C313" s="39"/>
-      <c r="D313" s="39"/>
-      <c r="E313" s="39"/>
+      <c r="A313" s="112"/>
+      <c r="B313" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="C313" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E313" s="31" t="s">
+        <v>145</v>
+      </c>
       <c r="F313" s="18"/>
       <c r="G313" s="13"/>
     </row>
     <row r="314" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A314" s="120" t="s">
+      <c r="A314" s="97" t="s">
         <v>495</v>
       </c>
       <c r="B314" s="42" t="s">
-        <v>129</v>
+        <v>240</v>
       </c>
       <c r="C314" s="31" t="s">
-        <v>130</v>
+        <v>241</v>
       </c>
       <c r="E314" s="31" t="s">
-        <v>145</v>
+        <v>253</v>
       </c>
       <c r="F314" s="17"/>
       <c r="G314" s="12"/>
     </row>
     <row r="315" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A315" s="121"/>
+      <c r="A315" s="98"/>
       <c r="B315" s="42" t="s">
-        <v>240</v>
-      </c>
-      <c r="C315" s="31" t="s">
-        <v>241</v>
-      </c>
-      <c r="E315" s="31" t="s">
-        <v>253</v>
+        <v>803</v>
+      </c>
+      <c r="C315" s="39" t="s">
+        <v>804</v>
+      </c>
+      <c r="D315" s="39"/>
+      <c r="E315" s="39" t="s">
+        <v>805</v>
       </c>
       <c r="F315" s="18"/>
       <c r="G315" s="13"/>
     </row>
     <row r="316" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A316" s="121"/>
-      <c r="B316" s="42" t="s">
-        <v>803</v>
-      </c>
-      <c r="C316" s="39" t="s">
-        <v>804</v>
-      </c>
-      <c r="D316" s="39"/>
-      <c r="E316" s="39" t="s">
-        <v>805</v>
+      <c r="A316" s="98"/>
+      <c r="B316" s="31" t="s">
+        <v>815</v>
+      </c>
+      <c r="C316" s="31" t="s">
+        <v>816</v>
+      </c>
+      <c r="D316" s="31"/>
+      <c r="E316" s="31" t="s">
+        <v>817</v>
       </c>
       <c r="F316" s="18"/>
       <c r="G316" s="13"/>
     </row>
     <row r="317" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A317" s="121"/>
-      <c r="B317" s="31" t="s">
-        <v>815</v>
-      </c>
-      <c r="C317" s="31" t="s">
-        <v>816</v>
-      </c>
-      <c r="D317" s="31"/>
-      <c r="E317" s="31" t="s">
-        <v>817</v>
+      <c r="A317" s="98"/>
+      <c r="B317" s="39" t="s">
+        <v>894</v>
+      </c>
+      <c r="C317" s="39" t="s">
+        <v>895</v>
+      </c>
+      <c r="D317" s="39"/>
+      <c r="E317" s="39" t="s">
+        <v>896</v>
       </c>
       <c r="F317" s="18"/>
       <c r="G317" s="13"/>
     </row>
     <row r="318" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A318" s="121"/>
-      <c r="B318" s="39" t="s">
-        <v>894</v>
-      </c>
-      <c r="C318" s="39" t="s">
-        <v>895</v>
-      </c>
-      <c r="D318" s="39"/>
-      <c r="E318" s="39" t="s">
-        <v>896</v>
+      <c r="A318" s="98"/>
+      <c r="B318" s="35" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C318" s="35" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D318" s="35" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E318" s="35" t="s">
+        <v>1141</v>
       </c>
       <c r="F318" s="18"/>
       <c r="G318" s="13"/>
     </row>
     <row r="319" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A319" s="121"/>
+      <c r="A319" s="98"/>
       <c r="B319" s="35" t="s">
-        <v>1139</v>
+        <v>1143</v>
       </c>
       <c r="C319" s="35" t="s">
-        <v>1140</v>
+        <v>1144</v>
       </c>
       <c r="D319" s="35" t="s">
         <v>1077</v>
       </c>
       <c r="E319" s="35" t="s">
-        <v>1141</v>
+        <v>1145</v>
       </c>
       <c r="F319" s="62" t="s">
         <v>1142</v>
@@ -9068,18 +9084,18 @@
       <c r="G319" s="13"/>
     </row>
     <row r="320" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A320" s="121"/>
+      <c r="A320" s="98"/>
       <c r="B320" s="35" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="C320" s="35" t="s">
-        <v>1144</v>
+        <v>1147</v>
       </c>
       <c r="D320" s="35" t="s">
         <v>1077</v>
       </c>
       <c r="E320" s="35" t="s">
-        <v>1145</v>
+        <v>1148</v>
       </c>
       <c r="F320" s="62" t="s">
         <v>1142</v>
@@ -9087,18 +9103,18 @@
       <c r="G320" s="13"/>
     </row>
     <row r="321" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A321" s="121"/>
+      <c r="A321" s="98"/>
       <c r="B321" s="35" t="s">
-        <v>1146</v>
+        <v>141</v>
       </c>
       <c r="C321" s="35" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="D321" s="35" t="s">
         <v>1077</v>
       </c>
       <c r="E321" s="35" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="F321" s="62" t="s">
         <v>1142</v>
@@ -9106,18 +9122,18 @@
       <c r="G321" s="13"/>
     </row>
     <row r="322" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A322" s="121"/>
+      <c r="A322" s="98"/>
       <c r="B322" s="35" t="s">
-        <v>141</v>
+        <v>1152</v>
       </c>
       <c r="C322" s="35" t="s">
-        <v>1149</v>
+        <v>1153</v>
       </c>
       <c r="D322" s="35" t="s">
         <v>1077</v>
       </c>
       <c r="E322" s="35" t="s">
-        <v>1150</v>
+        <v>1154</v>
       </c>
       <c r="F322" s="62" t="s">
         <v>1151</v>
@@ -9125,18 +9141,18 @@
       <c r="G322" s="13"/>
     </row>
     <row r="323" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A323" s="121"/>
+      <c r="A323" s="98"/>
       <c r="B323" s="35" t="s">
-        <v>1152</v>
+        <v>1155</v>
       </c>
       <c r="C323" s="35" t="s">
-        <v>1153</v>
+        <v>1156</v>
       </c>
       <c r="D323" s="35" t="s">
         <v>1077</v>
       </c>
       <c r="E323" s="35" t="s">
-        <v>1154</v>
+        <v>1157</v>
       </c>
       <c r="F323" s="62" t="s">
         <v>1151</v>
@@ -9144,40 +9160,37 @@
       <c r="G323" s="13"/>
     </row>
     <row r="324" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A324" s="121"/>
-      <c r="B324" s="35" t="s">
-        <v>1155</v>
-      </c>
-      <c r="C324" s="35" t="s">
-        <v>1156</v>
-      </c>
-      <c r="D324" s="35" t="s">
-        <v>1077</v>
-      </c>
-      <c r="E324" s="35" t="s">
-        <v>1157</v>
-      </c>
+      <c r="A324" s="98"/>
       <c r="F324" s="35" t="s">
         <v>1151</v>
       </c>
       <c r="G324" s="13"/>
     </row>
     <row r="325" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A325" s="121"/>
+      <c r="A325" s="98"/>
+      <c r="B325" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="C325" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="E325" s="31" t="s">
+        <v>222</v>
+      </c>
       <c r="G325" s="16"/>
     </row>
     <row r="326" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A326" s="65" t="s">
+      <c r="A326" s="91" t="s">
         <v>499</v>
       </c>
       <c r="B326" s="42" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="C326" s="31" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="E326" s="31" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="F326" s="31" t="s">
         <v>95</v>
@@ -9185,51 +9198,46 @@
       <c r="G326" s="13"/>
     </row>
     <row r="327" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A327" s="66"/>
+      <c r="A327" s="92"/>
       <c r="B327" s="42" t="s">
-        <v>189</v>
+        <v>725</v>
       </c>
       <c r="C327" s="31" t="s">
-        <v>191</v>
-      </c>
+        <v>726</v>
+      </c>
+      <c r="D327" s="31"/>
       <c r="E327" s="31" t="s">
-        <v>202</v>
+        <v>727</v>
       </c>
       <c r="F327" s="18"/>
       <c r="G327" s="13"/>
     </row>
     <row r="328" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A328" s="66"/>
+      <c r="A328" s="92"/>
       <c r="B328" s="42" t="s">
-        <v>725</v>
-      </c>
-      <c r="C328" s="31" t="s">
-        <v>726</v>
-      </c>
-      <c r="D328" s="31"/>
-      <c r="E328" s="31" t="s">
-        <v>727</v>
+        <v>776</v>
+      </c>
+      <c r="C328" s="39" t="s">
+        <v>777</v>
+      </c>
+      <c r="D328" s="39"/>
+      <c r="E328" s="39" t="s">
+        <v>778</v>
       </c>
       <c r="F328" s="18"/>
       <c r="G328" s="13"/>
     </row>
-    <row r="329" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A329" s="66"/>
-      <c r="B329" s="42" t="s">
-        <v>776</v>
-      </c>
-      <c r="C329" s="39" t="s">
-        <v>777</v>
-      </c>
-      <c r="D329" s="39"/>
-      <c r="E329" s="39" t="s">
-        <v>778</v>
-      </c>
+    <row r="329" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A329" s="92"/>
+      <c r="B329" s="42"/>
+      <c r="C329" s="7"/>
+      <c r="D329" s="8"/>
+      <c r="E329" s="7"/>
       <c r="F329" s="18"/>
       <c r="G329" s="13"/>
     </row>
     <row r="330" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A330" s="66"/>
+      <c r="A330" s="92"/>
       <c r="B330" s="42"/>
       <c r="C330" s="7"/>
       <c r="D330" s="8"/>
@@ -9238,7 +9246,7 @@
       <c r="G330" s="13"/>
     </row>
     <row r="331" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A331" s="66"/>
+      <c r="A331" s="92"/>
       <c r="B331" s="42"/>
       <c r="C331" s="7"/>
       <c r="D331" s="8"/>
@@ -9246,86 +9254,94 @@
       <c r="F331" s="18"/>
       <c r="G331" s="13"/>
     </row>
-    <row r="332" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A332" s="66"/>
-      <c r="B332" s="42"/>
-      <c r="C332" s="7"/>
-      <c r="D332" s="8"/>
-      <c r="E332" s="7"/>
+    <row r="332" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A332" s="92"/>
       <c r="F332" s="18"/>
       <c r="G332" s="13"/>
     </row>
-    <row r="333" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="67"/>
+    <row r="333" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A333" s="108"/>
+      <c r="B333" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C333" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D333" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E333" s="11" t="s">
+        <v>50</v>
+      </c>
       <c r="F333" s="19"/>
       <c r="G333" s="16" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="334" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="101" t="s">
+      <c r="A334" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="B334" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="C334" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D334" s="10" t="s">
+      <c r="B334" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C334" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D334" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E334" s="11" t="s">
-        <v>50</v>
+      <c r="E334" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="F334" s="17"/>
       <c r="G334" s="12"/>
     </row>
     <row r="335" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A335" s="102"/>
+      <c r="A335" s="77"/>
       <c r="B335" s="45" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C335" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D335" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D335" s="4"/>
       <c r="E335" s="9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F335" s="18"/>
       <c r="G335" s="13"/>
     </row>
     <row r="336" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A336" s="102"/>
+      <c r="A336" s="77"/>
       <c r="B336" s="45" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D336" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="D336" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="E336" s="9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F336" s="18"/>
       <c r="G336" s="13"/>
     </row>
     <row r="337" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="102"/>
+      <c r="A337" s="77"/>
       <c r="B337" s="45" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D337" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E337" s="9" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F337" s="18" t="s">
         <v>60</v>
@@ -9333,76 +9349,68 @@
       <c r="G337" s="13"/>
     </row>
     <row r="338" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A338" s="102"/>
+      <c r="A338" s="77"/>
       <c r="B338" s="45" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D338" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E338" s="9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F338" s="18"/>
       <c r="G338" s="13"/>
     </row>
     <row r="339" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A339" s="102"/>
+      <c r="A339" s="77"/>
       <c r="B339" s="45" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D339" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E339" s="9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F339" s="18" t="s">
         <v>60</v>
       </c>
       <c r="G339" s="13"/>
     </row>
-    <row r="340" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A340" s="102"/>
-      <c r="B340" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="C340" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D340" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E340" s="9" t="s">
-        <v>69</v>
+    <row r="340" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A340" s="77"/>
+      <c r="B340" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C340" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="E340" s="31" t="s">
+        <v>225</v>
       </c>
       <c r="F340" s="18" t="s">
         <v>60</v>
       </c>
       <c r="G340" s="13"/>
     </row>
-    <row r="341" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A341" s="102"/>
-      <c r="B341" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="C341" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="E341" s="31" t="s">
-        <v>225</v>
-      </c>
+    <row r="341" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A341" s="77"/>
+      <c r="B341" s="45"/>
+      <c r="C341" s="4"/>
+      <c r="D341" s="4"/>
+      <c r="E341" s="9"/>
       <c r="F341" s="18"/>
       <c r="G341" s="13"/>
     </row>
     <row r="342" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="102"/>
+      <c r="A342" s="77"/>
       <c r="B342" s="45"/>
       <c r="C342" s="4"/>
       <c r="D342" s="4"/>
@@ -9410,116 +9418,116 @@
       <c r="F342" s="18"/>
       <c r="G342" s="13"/>
     </row>
-    <row r="343" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="102"/>
-      <c r="B343" s="45"/>
-      <c r="C343" s="4"/>
-      <c r="D343" s="4"/>
-      <c r="E343" s="9"/>
+    <row r="343" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A343" s="77"/>
+      <c r="B343" s="50"/>
+      <c r="C343" s="14"/>
+      <c r="D343" s="14"/>
+      <c r="E343" s="15"/>
       <c r="F343" s="18"/>
       <c r="G343" s="13"/>
     </row>
-    <row r="344" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A344" s="103"/>
-      <c r="B344" s="50"/>
-      <c r="C344" s="14"/>
-      <c r="D344" s="14"/>
-      <c r="E344" s="15"/>
+    <row r="344" spans="1:7" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A344" s="78"/>
+      <c r="B344" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="C344" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D344" s="8"/>
+      <c r="E344" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="F344" s="19"/>
       <c r="G344" s="16"/>
     </row>
-    <row r="345" spans="1:7" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A345" s="110" t="s">
+    <row r="345" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A345" s="85" t="s">
         <v>408</v>
       </c>
       <c r="B345" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="C345" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D345" s="8"/>
-      <c r="E345" s="7" t="s">
-        <v>104</v>
+        <v>135</v>
+      </c>
+      <c r="C345" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="E345" s="31" t="s">
+        <v>148</v>
       </c>
       <c r="F345" s="17"/>
       <c r="G345" s="12"/>
     </row>
     <row r="346" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A346" s="111"/>
+      <c r="A346" s="86"/>
       <c r="B346" s="42" t="s">
-        <v>135</v>
+        <v>324</v>
       </c>
       <c r="C346" s="31" t="s">
-        <v>136</v>
+        <v>325</v>
       </c>
       <c r="E346" s="31" t="s">
-        <v>148</v>
+        <v>335</v>
       </c>
       <c r="F346" s="18"/>
       <c r="G346" s="13"/>
     </row>
     <row r="347" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A347" s="111"/>
-      <c r="B347" s="42" t="s">
-        <v>324</v>
+      <c r="A347" s="86"/>
+      <c r="B347" s="31" t="s">
+        <v>996</v>
       </c>
       <c r="C347" s="31" t="s">
-        <v>325</v>
-      </c>
+        <v>997</v>
+      </c>
+      <c r="D347" s="31"/>
       <c r="E347" s="31" t="s">
-        <v>335</v>
+        <v>998</v>
       </c>
       <c r="F347" s="18"/>
       <c r="G347" s="13"/>
     </row>
     <row r="348" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A348" s="111"/>
+      <c r="A348" s="86"/>
       <c r="B348" s="31" t="s">
-        <v>996</v>
+        <v>1022</v>
       </c>
       <c r="C348" s="31" t="s">
-        <v>997</v>
+        <v>1023</v>
       </c>
       <c r="D348" s="31"/>
       <c r="E348" s="31" t="s">
-        <v>998</v>
+        <v>1024</v>
       </c>
       <c r="F348" s="18"/>
       <c r="G348" s="13"/>
     </row>
     <row r="349" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A349" s="111"/>
+      <c r="A349" s="86"/>
       <c r="B349" s="31" t="s">
-        <v>1022</v>
+        <v>1031</v>
       </c>
       <c r="C349" s="31" t="s">
-        <v>1023</v>
+        <v>1032</v>
       </c>
       <c r="D349" s="31"/>
       <c r="E349" s="31" t="s">
-        <v>1024</v>
+        <v>1033</v>
       </c>
       <c r="F349" s="18"/>
       <c r="G349" s="13"/>
     </row>
     <row r="350" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A350" s="111"/>
-      <c r="B350" s="31" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C350" s="31" t="s">
-        <v>1032</v>
-      </c>
+      <c r="A350" s="86"/>
+      <c r="B350" s="31"/>
+      <c r="C350" s="31"/>
       <c r="D350" s="31"/>
-      <c r="E350" s="31" t="s">
-        <v>1033</v>
-      </c>
+      <c r="E350" s="31"/>
       <c r="F350" s="18"/>
       <c r="G350" s="13"/>
     </row>
     <row r="351" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A351" s="111"/>
+      <c r="A351" s="86"/>
       <c r="B351" s="31"/>
       <c r="C351" s="31"/>
       <c r="D351" s="31"/>
@@ -9527,36 +9535,41 @@
       <c r="F351" s="18"/>
       <c r="G351" s="13"/>
     </row>
-    <row r="352" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A352" s="111"/>
-      <c r="B352" s="31"/>
-      <c r="C352" s="31"/>
-      <c r="D352" s="31"/>
-      <c r="E352" s="31"/>
+    <row r="352" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A352" s="86"/>
+      <c r="B352" s="50"/>
+      <c r="C352" s="14"/>
+      <c r="D352" s="14"/>
+      <c r="E352" s="15"/>
       <c r="F352" s="18"/>
       <c r="G352" s="13"/>
     </row>
-    <row r="353" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A353" s="112"/>
-      <c r="B353" s="50"/>
-      <c r="C353" s="14"/>
-      <c r="D353" s="14"/>
-      <c r="E353" s="15"/>
+    <row r="353" spans="1:7" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A353" s="87"/>
+      <c r="B353" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="C353" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="E353" s="31" t="s">
+        <v>201</v>
+      </c>
       <c r="F353" s="19"/>
       <c r="G353" s="16"/>
     </row>
     <row r="354" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A354" s="128" t="s">
+      <c r="A354" s="105" t="s">
         <v>498</v>
       </c>
       <c r="B354" s="42" t="s">
         <v>189</v>
       </c>
       <c r="C354" s="31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E354" s="31" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F354" s="31" t="s">
         <v>95</v>
@@ -9564,36 +9577,31 @@
       <c r="G354" s="12"/>
     </row>
     <row r="355" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A355" s="129"/>
+      <c r="A355" s="106"/>
       <c r="B355" s="42" t="s">
-        <v>189</v>
+        <v>532</v>
       </c>
       <c r="C355" s="31" t="s">
-        <v>191</v>
-      </c>
+        <v>533</v>
+      </c>
+      <c r="D355" s="31"/>
       <c r="E355" s="31" t="s">
-        <v>202</v>
+        <v>534</v>
       </c>
       <c r="F355" s="18"/>
       <c r="G355" s="13"/>
     </row>
-    <row r="356" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A356" s="129"/>
-      <c r="B356" s="42" t="s">
-        <v>532</v>
-      </c>
-      <c r="C356" s="31" t="s">
-        <v>533</v>
-      </c>
-      <c r="D356" s="31"/>
-      <c r="E356" s="31" t="s">
-        <v>534</v>
-      </c>
+    <row r="356" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A356" s="106"/>
+      <c r="B356" s="45"/>
+      <c r="C356" s="4"/>
+      <c r="D356" s="4"/>
+      <c r="E356" s="9"/>
       <c r="F356" s="18"/>
       <c r="G356" s="13"/>
     </row>
     <row r="357" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A357" s="129"/>
+      <c r="A357" s="106"/>
       <c r="B357" s="45"/>
       <c r="C357" s="4"/>
       <c r="D357" s="4"/>
@@ -9602,7 +9610,7 @@
       <c r="G357" s="13"/>
     </row>
     <row r="358" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A358" s="129"/>
+      <c r="A358" s="106"/>
       <c r="B358" s="45"/>
       <c r="C358" s="4"/>
       <c r="D358" s="4"/>
@@ -9610,91 +9618,96 @@
       <c r="F358" s="18"/>
       <c r="G358" s="13"/>
     </row>
-    <row r="359" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A359" s="129"/>
-      <c r="B359" s="45"/>
-      <c r="C359" s="4"/>
-      <c r="D359" s="4"/>
-      <c r="E359" s="9"/>
+    <row r="359" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A359" s="106"/>
+      <c r="B359" s="42"/>
+      <c r="C359" s="31"/>
+      <c r="E359" s="31"/>
       <c r="F359" s="18"/>
       <c r="G359" s="13"/>
     </row>
     <row r="360" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A360" s="130"/>
-      <c r="B360" s="42"/>
-      <c r="C360" s="31"/>
-      <c r="E360" s="31"/>
+      <c r="A360" s="107"/>
+      <c r="B360" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="C360" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E360" s="7" t="s">
+        <v>120</v>
+      </c>
       <c r="F360" s="18"/>
       <c r="G360" s="13"/>
     </row>
     <row r="361" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A361" s="122" t="s">
+      <c r="A361" s="99" t="s">
         <v>497</v>
       </c>
       <c r="B361" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="C361" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E361" s="7" t="s">
-        <v>120</v>
+        <v>133</v>
+      </c>
+      <c r="C361" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="E361" s="31" t="s">
+        <v>147</v>
       </c>
       <c r="F361" s="18"/>
       <c r="G361" s="18"/>
     </row>
     <row r="362" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A362" s="123"/>
+      <c r="A362" s="100"/>
       <c r="B362" s="42" t="s">
-        <v>133</v>
+        <v>265</v>
       </c>
       <c r="C362" s="31" t="s">
-        <v>134</v>
+        <v>266</v>
       </c>
       <c r="E362" s="31" t="s">
-        <v>147</v>
+        <v>299</v>
       </c>
       <c r="F362" s="18"/>
       <c r="G362" s="13"/>
     </row>
     <row r="363" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A363" s="123"/>
+      <c r="A363" s="100"/>
       <c r="B363" s="42" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C363" s="31" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E363" s="31" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F363" s="18"/>
       <c r="G363" s="13"/>
     </row>
     <row r="364" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A364" s="123"/>
+      <c r="A364" s="100"/>
       <c r="B364" s="42" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
       <c r="C364" s="31" t="s">
-        <v>268</v>
+        <v>344</v>
       </c>
       <c r="E364" s="31" t="s">
-        <v>300</v>
+        <v>356</v>
       </c>
       <c r="F364" s="18"/>
       <c r="G364" s="13"/>
     </row>
     <row r="365" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A365" s="123"/>
+      <c r="A365" s="100"/>
       <c r="B365" s="42" t="s">
-        <v>343</v>
+        <v>367</v>
       </c>
       <c r="C365" s="31" t="s">
-        <v>344</v>
+        <v>368</v>
       </c>
       <c r="E365" s="31" t="s">
-        <v>356</v>
+        <v>380</v>
       </c>
       <c r="F365" s="31" t="s">
         <v>95</v>
@@ -9702,44 +9715,45 @@
       <c r="G365" s="13"/>
     </row>
     <row r="366" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A366" s="123"/>
+      <c r="A366" s="100"/>
       <c r="B366" s="42" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="C366" s="31" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="E366" s="31" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="F366" s="31"/>
       <c r="G366" s="13"/>
     </row>
     <row r="367" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A367" s="123"/>
-      <c r="B367" s="42" t="s">
-        <v>375</v>
-      </c>
-      <c r="C367" s="31" t="s">
-        <v>376</v>
-      </c>
-      <c r="E367" s="31" t="s">
-        <v>384</v>
+      <c r="A367" s="100"/>
+      <c r="B367" s="35" t="s">
+        <v>462</v>
+      </c>
+      <c r="C367" s="34" t="s">
+        <v>463</v>
+      </c>
+      <c r="D367" s="34"/>
+      <c r="E367" s="34" t="s">
+        <v>464</v>
       </c>
       <c r="F367" s="18"/>
       <c r="G367" s="13"/>
     </row>
     <row r="368" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A368" s="123"/>
-      <c r="B368" s="35" t="s">
-        <v>462</v>
-      </c>
-      <c r="C368" s="34" t="s">
-        <v>463</v>
-      </c>
-      <c r="D368" s="34"/>
-      <c r="E368" s="34" t="s">
-        <v>464</v>
+      <c r="A368" s="100"/>
+      <c r="B368" s="42" t="s">
+        <v>505</v>
+      </c>
+      <c r="C368" s="31" t="s">
+        <v>506</v>
+      </c>
+      <c r="D368" s="31"/>
+      <c r="E368" s="31" t="s">
+        <v>507</v>
       </c>
       <c r="F368" s="34" t="s">
         <v>465</v>
@@ -9747,46 +9761,46 @@
       <c r="G368" s="13"/>
     </row>
     <row r="369" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A369" s="123"/>
+      <c r="A369" s="100"/>
       <c r="B369" s="42" t="s">
-        <v>505</v>
+        <v>540</v>
       </c>
       <c r="C369" s="31" t="s">
-        <v>506</v>
+        <v>541</v>
       </c>
       <c r="D369" s="31"/>
       <c r="E369" s="31" t="s">
-        <v>507</v>
+        <v>542</v>
       </c>
       <c r="F369" s="18"/>
       <c r="G369" s="13"/>
     </row>
     <row r="370" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A370" s="123"/>
+      <c r="A370" s="100"/>
       <c r="B370" s="42" t="s">
-        <v>540</v>
+        <v>695</v>
       </c>
       <c r="C370" s="31" t="s">
-        <v>541</v>
+        <v>696</v>
       </c>
       <c r="D370" s="31"/>
       <c r="E370" s="31" t="s">
-        <v>542</v>
+        <v>697</v>
       </c>
       <c r="F370" s="18"/>
       <c r="G370" s="13"/>
     </row>
     <row r="371" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A371" s="123"/>
+      <c r="A371" s="100"/>
       <c r="B371" s="42" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="C371" s="31" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="D371" s="31"/>
       <c r="E371" s="31" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="F371" s="31" t="s">
         <v>597</v>
@@ -9794,31 +9808,31 @@
       <c r="G371" s="13"/>
     </row>
     <row r="372" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A372" s="123"/>
+      <c r="A372" s="100"/>
       <c r="B372" s="42" t="s">
-        <v>698</v>
+        <v>716</v>
       </c>
       <c r="C372" s="31" t="s">
-        <v>699</v>
+        <v>717</v>
       </c>
       <c r="D372" s="31"/>
       <c r="E372" s="31" t="s">
-        <v>700</v>
+        <v>718</v>
       </c>
       <c r="F372" s="18"/>
       <c r="G372" s="13"/>
     </row>
     <row r="373" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A373" s="123"/>
-      <c r="B373" s="42" t="s">
-        <v>716</v>
+      <c r="A373" s="100"/>
+      <c r="B373" s="31" t="s">
+        <v>133</v>
       </c>
       <c r="C373" s="31" t="s">
-        <v>717</v>
+        <v>833</v>
       </c>
       <c r="D373" s="31"/>
       <c r="E373" s="31" t="s">
-        <v>718</v>
+        <v>834</v>
       </c>
       <c r="F373" s="31" t="s">
         <v>597</v>
@@ -9826,82 +9840,76 @@
       <c r="G373" s="13"/>
     </row>
     <row r="374" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A374" s="123"/>
+      <c r="A374" s="100"/>
       <c r="B374" s="31" t="s">
-        <v>133</v>
+        <v>841</v>
       </c>
       <c r="C374" s="31" t="s">
-        <v>833</v>
+        <v>842</v>
       </c>
       <c r="D374" s="31"/>
       <c r="E374" s="31" t="s">
-        <v>834</v>
+        <v>843</v>
       </c>
       <c r="F374" s="31"/>
       <c r="G374" s="13"/>
     </row>
     <row r="375" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A375" s="123"/>
-      <c r="B375" s="31" t="s">
-        <v>841</v>
-      </c>
-      <c r="C375" s="31" t="s">
-        <v>842</v>
-      </c>
-      <c r="D375" s="31"/>
-      <c r="E375" s="31" t="s">
-        <v>843</v>
+      <c r="A375" s="100"/>
+      <c r="B375" s="39" t="s">
+        <v>951</v>
+      </c>
+      <c r="C375" s="39" t="s">
+        <v>952</v>
+      </c>
+      <c r="D375" s="39"/>
+      <c r="E375" s="39" t="s">
+        <v>953</v>
       </c>
       <c r="F375" s="31"/>
       <c r="G375" s="13"/>
     </row>
     <row r="376" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A376" s="123"/>
+      <c r="A376" s="100"/>
       <c r="B376" s="39" t="s">
-        <v>951</v>
+        <v>964</v>
       </c>
       <c r="C376" s="39" t="s">
-        <v>952</v>
+        <v>965</v>
       </c>
       <c r="D376" s="39"/>
       <c r="E376" s="39" t="s">
-        <v>953</v>
+        <v>966</v>
       </c>
       <c r="F376" s="31"/>
       <c r="G376" s="13"/>
     </row>
     <row r="377" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A377" s="123"/>
-      <c r="B377" s="39" t="s">
-        <v>964</v>
-      </c>
-      <c r="C377" s="39" t="s">
-        <v>965</v>
-      </c>
-      <c r="D377" s="39"/>
-      <c r="E377" s="39" t="s">
-        <v>966</v>
+      <c r="A377" s="100"/>
+      <c r="B377" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="C377" s="31" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D377" s="31"/>
+      <c r="E377" s="31" t="s">
+        <v>1006</v>
       </c>
       <c r="F377" s="31"/>
       <c r="G377" s="13"/>
     </row>
     <row r="378" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A378" s="123"/>
-      <c r="B378" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="C378" s="31" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D378" s="31"/>
-      <c r="E378" s="31" t="s">
-        <v>1006</v>
-      </c>
+      <c r="A378" s="100"/>
+      <c r="B378" s="39"/>
+      <c r="C378" s="39"/>
+      <c r="D378" s="39"/>
+      <c r="E378" s="39"/>
       <c r="F378" s="31"/>
       <c r="G378" s="13"/>
     </row>
     <row r="379" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A379" s="123"/>
+      <c r="A379" s="100"/>
       <c r="B379" s="39"/>
       <c r="C379" s="39"/>
       <c r="D379" s="39"/>
@@ -9910,7 +9918,7 @@
       <c r="G379" s="13"/>
     </row>
     <row r="380" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A380" s="123"/>
+      <c r="A380" s="100"/>
       <c r="B380" s="39"/>
       <c r="C380" s="39"/>
       <c r="D380" s="39"/>
@@ -9919,55 +9927,60 @@
       <c r="G380" s="13"/>
     </row>
     <row r="381" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A381" s="123"/>
-      <c r="B381" s="39"/>
-      <c r="C381" s="39"/>
-      <c r="D381" s="39"/>
-      <c r="E381" s="39"/>
+      <c r="A381" s="100"/>
+      <c r="B381" s="42" t="s">
+        <v>387</v>
+      </c>
+      <c r="C381" s="31" t="s">
+        <v>388</v>
+      </c>
+      <c r="E381" s="31" t="s">
+        <v>390</v>
+      </c>
       <c r="F381" s="31"/>
       <c r="G381" s="13"/>
     </row>
-    <row r="382" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A382" s="124"/>
+    <row r="382" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A382" s="101"/>
       <c r="B382" s="42" t="s">
-        <v>387</v>
-      </c>
-      <c r="C382" s="31" t="s">
-        <v>388</v>
-      </c>
-      <c r="E382" s="31" t="s">
-        <v>390</v>
+        <v>85</v>
+      </c>
+      <c r="C382" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D382" s="8"/>
+      <c r="E382" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="F382" s="19"/>
       <c r="G382" s="16"/>
     </row>
-    <row r="383" spans="1:7" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A383" s="104" t="s">
+    <row r="383" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A383" s="79" t="s">
         <v>406</v>
       </c>
-      <c r="B383" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="C383" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D383" s="8"/>
-      <c r="E383" s="7" t="s">
-        <v>94</v>
+      <c r="B383" s="35" t="s">
+        <v>434</v>
+      </c>
+      <c r="C383" s="35" t="s">
+        <v>435</v>
+      </c>
+      <c r="D383" s="35"/>
+      <c r="E383" s="35" t="s">
+        <v>436</v>
       </c>
       <c r="G383" s="30"/>
     </row>
     <row r="384" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A384" s="105"/>
-      <c r="B384" s="35" t="s">
-        <v>434</v>
-      </c>
-      <c r="C384" s="35" t="s">
-        <v>435</v>
-      </c>
-      <c r="D384" s="35"/>
-      <c r="E384" s="35" t="s">
-        <v>436</v>
+      <c r="A384" s="80"/>
+      <c r="B384" s="42" t="s">
+        <v>347</v>
+      </c>
+      <c r="C384" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="E384" s="31" t="s">
+        <v>358</v>
       </c>
       <c r="F384" s="35" t="s">
         <v>437</v>
@@ -9975,216 +9988,216 @@
       <c r="G384" s="23"/>
     </row>
     <row r="385" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A385" s="105"/>
-      <c r="B385" s="42" t="s">
-        <v>347</v>
+      <c r="A385" s="80"/>
+      <c r="B385" s="47" t="s">
+        <v>369</v>
       </c>
       <c r="C385" s="31" t="s">
-        <v>348</v>
+        <v>370</v>
       </c>
       <c r="E385" s="31" t="s">
-        <v>358</v>
+        <v>381</v>
       </c>
       <c r="F385" s="18"/>
       <c r="G385" s="13"/>
     </row>
     <row r="386" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A386" s="105"/>
-      <c r="B386" s="47" t="s">
-        <v>369</v>
+      <c r="A386" s="80"/>
+      <c r="B386" s="42" t="s">
+        <v>371</v>
       </c>
       <c r="C386" s="31" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E386" s="31" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G386" s="13"/>
     </row>
     <row r="387" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A387" s="105"/>
-      <c r="B387" s="42" t="s">
-        <v>371</v>
-      </c>
-      <c r="C387" s="31" t="s">
-        <v>372</v>
-      </c>
-      <c r="E387" s="31" t="s">
-        <v>382</v>
+      <c r="A387" s="80"/>
+      <c r="B387" s="35" t="s">
+        <v>394</v>
+      </c>
+      <c r="C387" s="34" t="s">
+        <v>394</v>
+      </c>
+      <c r="D387" s="34"/>
+      <c r="E387" s="34" t="s">
+        <v>395</v>
       </c>
       <c r="F387" s="18"/>
       <c r="G387" s="13"/>
     </row>
     <row r="388" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A388" s="105"/>
-      <c r="B388" s="35" t="s">
-        <v>394</v>
-      </c>
-      <c r="C388" s="34" t="s">
-        <v>394</v>
-      </c>
-      <c r="D388" s="34"/>
-      <c r="E388" s="34" t="s">
-        <v>395</v>
+      <c r="A388" s="80"/>
+      <c r="B388" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="C388" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="E388" s="31" t="s">
+        <v>174</v>
       </c>
       <c r="F388" s="18"/>
       <c r="G388" s="13"/>
     </row>
-    <row r="389" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A389" s="105"/>
+    <row r="389" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A389" s="80"/>
       <c r="B389" s="42" t="s">
-        <v>165</v>
-      </c>
-      <c r="C389" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="E389" s="31" t="s">
-        <v>174</v>
+        <v>71</v>
+      </c>
+      <c r="C389" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D389" s="8"/>
+      <c r="E389" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="F389" s="18"/>
       <c r="G389" s="13"/>
     </row>
-    <row r="390" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A390" s="105"/>
+    <row r="390" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A390" s="80"/>
       <c r="B390" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="C390" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D390" s="8"/>
-      <c r="E390" s="7" t="s">
-        <v>87</v>
+        <v>154</v>
+      </c>
+      <c r="C390" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="E390" s="31" t="s">
+        <v>168</v>
       </c>
       <c r="F390" s="18"/>
       <c r="G390" s="13"/>
     </row>
     <row r="391" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A391" s="105"/>
+      <c r="A391" s="80"/>
       <c r="B391" s="42" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="C391" s="31" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="E391" s="31" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="F391" s="18"/>
       <c r="G391" s="13"/>
     </row>
     <row r="392" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A392" s="105"/>
+      <c r="A392" s="80"/>
       <c r="B392" s="42" t="s">
-        <v>181</v>
+        <v>232</v>
       </c>
       <c r="C392" s="31" t="s">
-        <v>182</v>
+        <v>233</v>
       </c>
       <c r="E392" s="31" t="s">
-        <v>197</v>
+        <v>249</v>
       </c>
       <c r="F392" s="18"/>
       <c r="G392" s="13"/>
     </row>
     <row r="393" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A393" s="105"/>
+      <c r="A393" s="80"/>
       <c r="B393" s="42" t="s">
-        <v>232</v>
+        <v>514</v>
       </c>
       <c r="C393" s="31" t="s">
-        <v>233</v>
-      </c>
+        <v>515</v>
+      </c>
+      <c r="D393" s="31"/>
       <c r="E393" s="31" t="s">
-        <v>249</v>
+        <v>516</v>
       </c>
       <c r="F393" s="18"/>
       <c r="G393" s="13"/>
     </row>
     <row r="394" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A394" s="105"/>
+      <c r="A394" s="80"/>
       <c r="B394" s="42" t="s">
-        <v>514</v>
+        <v>719</v>
       </c>
       <c r="C394" s="31" t="s">
-        <v>515</v>
+        <v>720</v>
       </c>
       <c r="D394" s="31"/>
       <c r="E394" s="31" t="s">
-        <v>516</v>
+        <v>721</v>
       </c>
       <c r="F394" s="18"/>
       <c r="G394" s="13"/>
     </row>
     <row r="395" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A395" s="105"/>
-      <c r="B395" s="42" t="s">
-        <v>719</v>
+      <c r="A395" s="80"/>
+      <c r="B395" s="31" t="s">
+        <v>821</v>
       </c>
       <c r="C395" s="31" t="s">
-        <v>720</v>
+        <v>822</v>
       </c>
       <c r="D395" s="31"/>
       <c r="E395" s="31" t="s">
-        <v>721</v>
+        <v>823</v>
       </c>
       <c r="G395" s="13"/>
     </row>
     <row r="396" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A396" s="105"/>
-      <c r="B396" s="31" t="s">
-        <v>821</v>
-      </c>
-      <c r="C396" s="31" t="s">
-        <v>822</v>
-      </c>
-      <c r="D396" s="31"/>
-      <c r="E396" s="31" t="s">
-        <v>823</v>
+      <c r="A396" s="80"/>
+      <c r="B396" s="39" t="s">
+        <v>888</v>
+      </c>
+      <c r="C396" s="39" t="s">
+        <v>889</v>
+      </c>
+      <c r="D396" s="39"/>
+      <c r="E396" s="39" t="s">
+        <v>890</v>
       </c>
       <c r="F396" s="18"/>
       <c r="G396" s="13"/>
     </row>
     <row r="397" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A397" s="105"/>
+      <c r="A397" s="80"/>
       <c r="B397" s="39" t="s">
-        <v>888</v>
+        <v>906</v>
       </c>
       <c r="C397" s="39" t="s">
-        <v>889</v>
+        <v>907</v>
       </c>
       <c r="D397" s="39"/>
       <c r="E397" s="39" t="s">
-        <v>890</v>
+        <v>908</v>
       </c>
       <c r="F397" s="18"/>
       <c r="G397" s="13"/>
     </row>
     <row r="398" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A398" s="105"/>
-      <c r="B398" s="39" t="s">
-        <v>906</v>
-      </c>
-      <c r="C398" s="39" t="s">
-        <v>907</v>
-      </c>
-      <c r="D398" s="39"/>
-      <c r="E398" s="39" t="s">
-        <v>908</v>
+      <c r="A398" s="80"/>
+      <c r="B398" s="35" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C398" s="35" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E398" s="35" t="s">
+        <v>1134</v>
       </c>
       <c r="F398" s="18"/>
       <c r="G398" s="13"/>
     </row>
     <row r="399" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A399" s="105"/>
+      <c r="A399" s="80"/>
       <c r="B399" s="35" t="s">
-        <v>1132</v>
+        <v>1136</v>
       </c>
       <c r="C399" s="35" t="s">
-        <v>1133</v>
+        <v>1137</v>
       </c>
       <c r="E399" s="35" t="s">
-        <v>1134</v>
+        <v>1138</v>
       </c>
       <c r="F399" s="62" t="s">
         <v>1135</v>
@@ -10192,82 +10205,83 @@
       <c r="G399" s="13"/>
     </row>
     <row r="400" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A400" s="105"/>
-      <c r="B400" s="35" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C400" s="35" t="s">
-        <v>1137</v>
-      </c>
-      <c r="E400" s="35" t="s">
-        <v>1138</v>
-      </c>
+      <c r="A400" s="80"/>
+      <c r="B400" s="39"/>
+      <c r="C400" s="39"/>
+      <c r="D400" s="39"/>
+      <c r="E400" s="39"/>
       <c r="F400" s="18"/>
       <c r="G400" s="13"/>
     </row>
     <row r="401" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A401" s="105"/>
-      <c r="B401" s="39"/>
-      <c r="C401" s="39"/>
-      <c r="D401" s="39"/>
-      <c r="E401" s="39"/>
+      <c r="A401" s="80"/>
+      <c r="B401" s="42"/>
+      <c r="C401" s="31"/>
+      <c r="D401" s="31"/>
+      <c r="E401" s="31"/>
       <c r="F401" s="18"/>
       <c r="G401" s="13"/>
     </row>
     <row r="402" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A402" s="105"/>
-      <c r="B402" s="42"/>
-      <c r="C402" s="31"/>
-      <c r="D402" s="31"/>
-      <c r="E402" s="31"/>
+      <c r="A402" s="80"/>
       <c r="F402" s="18"/>
       <c r="G402" s="13"/>
     </row>
     <row r="403" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A403" s="106"/>
+      <c r="A403" s="81"/>
+      <c r="B403" s="42" t="s">
+        <v>187</v>
+      </c>
+      <c r="C403" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="E403" s="31" t="s">
+        <v>200</v>
+      </c>
       <c r="F403" s="19"/>
       <c r="G403" s="16"/>
     </row>
     <row r="404" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A404" s="113" t="s">
+      <c r="A404" s="88" t="s">
         <v>491</v>
       </c>
       <c r="B404" s="42" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="C404" s="31" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="E404" s="31" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="F404" s="17"/>
       <c r="G404" s="12"/>
     </row>
     <row r="405" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A405" s="114"/>
+      <c r="A405" s="89"/>
       <c r="B405" s="42" t="s">
-        <v>215</v>
+        <v>283</v>
       </c>
       <c r="C405" s="31" t="s">
-        <v>216</v>
+        <v>284</v>
       </c>
       <c r="E405" s="31" t="s">
-        <v>227</v>
+        <v>308</v>
       </c>
       <c r="F405" s="18"/>
       <c r="G405" s="13"/>
     </row>
     <row r="406" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A406" s="114"/>
+      <c r="A406" s="89"/>
       <c r="B406" s="42" t="s">
-        <v>283</v>
+        <v>517</v>
       </c>
       <c r="C406" s="31" t="s">
-        <v>284</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="D406" s="31"/>
       <c r="E406" s="31" t="s">
-        <v>308</v>
+        <v>519</v>
       </c>
       <c r="F406" s="31" t="s">
         <v>95</v>
@@ -10275,245 +10289,245 @@
       <c r="G406" s="13"/>
     </row>
     <row r="407" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A407" s="114"/>
+      <c r="A407" s="89"/>
       <c r="B407" s="42" t="s">
-        <v>517</v>
+        <v>546</v>
       </c>
       <c r="C407" s="31" t="s">
-        <v>518</v>
+        <v>547</v>
       </c>
       <c r="D407" s="31"/>
       <c r="E407" s="31" t="s">
-        <v>519</v>
+        <v>548</v>
       </c>
       <c r="F407" s="18"/>
       <c r="G407" s="13"/>
     </row>
     <row r="408" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A408" s="114"/>
+      <c r="A408" s="89"/>
       <c r="B408" s="42" t="s">
-        <v>546</v>
+        <v>581</v>
       </c>
       <c r="C408" s="31" t="s">
-        <v>547</v>
+        <v>582</v>
       </c>
       <c r="D408" s="31"/>
       <c r="E408" s="31" t="s">
-        <v>548</v>
+        <v>583</v>
       </c>
       <c r="F408" s="18"/>
       <c r="G408" s="13"/>
     </row>
     <row r="409" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A409" s="114"/>
+      <c r="A409" s="89"/>
       <c r="B409" s="42" t="s">
-        <v>581</v>
+        <v>608</v>
       </c>
       <c r="C409" s="31" t="s">
-        <v>582</v>
+        <v>609</v>
       </c>
       <c r="D409" s="31"/>
       <c r="E409" s="31" t="s">
-        <v>583</v>
+        <v>610</v>
       </c>
       <c r="F409" s="18"/>
       <c r="G409" s="13"/>
     </row>
     <row r="410" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A410" s="114"/>
+      <c r="A410" s="89"/>
       <c r="B410" s="42" t="s">
-        <v>608</v>
+        <v>698</v>
       </c>
       <c r="C410" s="31" t="s">
-        <v>609</v>
+        <v>699</v>
       </c>
       <c r="D410" s="31"/>
       <c r="E410" s="31" t="s">
-        <v>610</v>
+        <v>700</v>
       </c>
       <c r="F410" s="18"/>
       <c r="G410" s="13"/>
     </row>
     <row r="411" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A411" s="114"/>
+      <c r="A411" s="89"/>
       <c r="B411" s="42" t="s">
-        <v>698</v>
+        <v>713</v>
       </c>
       <c r="C411" s="31" t="s">
-        <v>699</v>
+        <v>714</v>
       </c>
       <c r="D411" s="31"/>
       <c r="E411" s="31" t="s">
-        <v>700</v>
+        <v>715</v>
       </c>
       <c r="F411" s="18"/>
       <c r="G411" s="13"/>
     </row>
     <row r="412" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A412" s="114"/>
+      <c r="A412" s="89"/>
       <c r="B412" s="42" t="s">
-        <v>713</v>
-      </c>
-      <c r="C412" s="31" t="s">
-        <v>714</v>
-      </c>
-      <c r="D412" s="31"/>
-      <c r="E412" s="31" t="s">
-        <v>715</v>
+        <v>770</v>
+      </c>
+      <c r="C412" s="39" t="s">
+        <v>771</v>
+      </c>
+      <c r="D412" s="39"/>
+      <c r="E412" s="39" t="s">
+        <v>772</v>
       </c>
       <c r="F412" s="18"/>
       <c r="G412" s="13"/>
     </row>
     <row r="413" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A413" s="114"/>
-      <c r="B413" s="42" t="s">
-        <v>770</v>
-      </c>
-      <c r="C413" s="39" t="s">
-        <v>771</v>
-      </c>
-      <c r="D413" s="39"/>
-      <c r="E413" s="39" t="s">
-        <v>772</v>
+      <c r="A413" s="89"/>
+      <c r="B413" s="31" t="s">
+        <v>924</v>
+      </c>
+      <c r="C413" s="31" t="s">
+        <v>925</v>
+      </c>
+      <c r="D413" s="31"/>
+      <c r="E413" s="31" t="s">
+        <v>926</v>
       </c>
       <c r="G413" s="13"/>
     </row>
     <row r="414" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A414" s="114"/>
-      <c r="B414" s="31" t="s">
-        <v>924</v>
-      </c>
-      <c r="C414" s="31" t="s">
-        <v>925</v>
-      </c>
-      <c r="D414" s="31"/>
-      <c r="E414" s="31" t="s">
-        <v>926</v>
+      <c r="A414" s="89"/>
+      <c r="B414" s="39" t="s">
+        <v>945</v>
+      </c>
+      <c r="C414" s="39" t="s">
+        <v>946</v>
+      </c>
+      <c r="D414" s="39"/>
+      <c r="E414" s="39" t="s">
+        <v>947</v>
       </c>
       <c r="G414" s="13"/>
     </row>
     <row r="415" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A415" s="114"/>
+      <c r="A415" s="89"/>
       <c r="B415" s="39" t="s">
-        <v>945</v>
+        <v>242</v>
       </c>
       <c r="C415" s="39" t="s">
-        <v>946</v>
+        <v>956</v>
       </c>
       <c r="D415" s="39"/>
       <c r="E415" s="39" t="s">
-        <v>947</v>
+        <v>957</v>
       </c>
       <c r="G415" s="13"/>
     </row>
     <row r="416" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A416" s="114"/>
-      <c r="B416" s="39" t="s">
-        <v>242</v>
-      </c>
-      <c r="C416" s="39" t="s">
-        <v>956</v>
-      </c>
+      <c r="A416" s="89"/>
+      <c r="B416" s="42"/>
+      <c r="C416" s="39"/>
       <c r="D416" s="39"/>
-      <c r="E416" s="39" t="s">
-        <v>957</v>
-      </c>
+      <c r="E416" s="39"/>
       <c r="G416" s="13"/>
     </row>
     <row r="417" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A417" s="114"/>
+      <c r="A417" s="89"/>
       <c r="B417" s="42"/>
       <c r="C417" s="39"/>
       <c r="D417" s="39"/>
       <c r="E417" s="39"/>
       <c r="G417" s="13"/>
     </row>
-    <row r="418" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A418" s="114"/>
-      <c r="B418" s="42"/>
-      <c r="C418" s="39"/>
-      <c r="D418" s="39"/>
-      <c r="E418" s="39"/>
+    <row r="418" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A418" s="89"/>
+      <c r="B418" s="50"/>
+      <c r="C418" s="14"/>
+      <c r="D418" s="14"/>
+      <c r="E418" s="15"/>
       <c r="G418" s="13"/>
     </row>
-    <row r="419" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A419" s="115"/>
-      <c r="B419" s="50"/>
-      <c r="C419" s="14"/>
-      <c r="D419" s="14"/>
-      <c r="E419" s="15"/>
+    <row r="419" spans="1:7" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A419" s="90"/>
+      <c r="B419" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="C419" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="E419" s="31" t="s">
+        <v>150</v>
+      </c>
       <c r="F419" s="19"/>
       <c r="G419" s="16"/>
     </row>
     <row r="420" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A420" s="125" t="s">
+      <c r="A420" s="102" t="s">
         <v>208</v>
       </c>
       <c r="B420" s="42" t="s">
-        <v>139</v>
+        <v>208</v>
       </c>
       <c r="C420" s="31" t="s">
-        <v>140</v>
+        <v>209</v>
       </c>
       <c r="E420" s="31" t="s">
-        <v>150</v>
+        <v>223</v>
       </c>
       <c r="F420" s="17"/>
       <c r="G420" s="12"/>
     </row>
     <row r="421" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A421" s="126"/>
+      <c r="A421" s="103"/>
       <c r="B421" s="42" t="s">
-        <v>208</v>
+        <v>279</v>
       </c>
       <c r="C421" s="31" t="s">
-        <v>209</v>
+        <v>280</v>
       </c>
       <c r="E421" s="31" t="s">
-        <v>223</v>
+        <v>306</v>
       </c>
       <c r="F421" s="18"/>
       <c r="G421" s="13"/>
     </row>
     <row r="422" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A422" s="126"/>
+      <c r="A422" s="103"/>
       <c r="B422" s="42" t="s">
-        <v>279</v>
+        <v>363</v>
       </c>
       <c r="C422" s="31" t="s">
-        <v>280</v>
+        <v>364</v>
       </c>
       <c r="E422" s="31" t="s">
-        <v>306</v>
+        <v>378</v>
       </c>
       <c r="F422" s="18"/>
       <c r="G422" s="13"/>
     </row>
     <row r="423" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A423" s="126"/>
-      <c r="B423" s="42" t="s">
-        <v>363</v>
-      </c>
-      <c r="C423" s="31" t="s">
-        <v>364</v>
-      </c>
-      <c r="E423" s="31" t="s">
-        <v>378</v>
+      <c r="A423" s="103"/>
+      <c r="B423" s="35" t="s">
+        <v>451</v>
+      </c>
+      <c r="C423" s="34" t="s">
+        <v>451</v>
+      </c>
+      <c r="D423" s="34"/>
+      <c r="E423" s="34" t="s">
+        <v>452</v>
       </c>
       <c r="F423" s="18"/>
       <c r="G423" s="13"/>
     </row>
     <row r="424" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A424" s="126"/>
-      <c r="B424" s="35" t="s">
-        <v>451</v>
-      </c>
-      <c r="C424" s="34" t="s">
-        <v>451</v>
-      </c>
-      <c r="D424" s="34"/>
-      <c r="E424" s="34" t="s">
-        <v>452</v>
+      <c r="A424" s="103"/>
+      <c r="B424" s="42" t="s">
+        <v>502</v>
+      </c>
+      <c r="C424" s="31" t="s">
+        <v>503</v>
+      </c>
+      <c r="D424" s="31"/>
+      <c r="E424" s="31" t="s">
+        <v>504</v>
       </c>
       <c r="F424" s="34" t="s">
         <v>453</v>
@@ -10521,76 +10535,76 @@
       <c r="G424" s="13"/>
     </row>
     <row r="425" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A425" s="126"/>
+      <c r="A425" s="103"/>
       <c r="B425" s="42" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="C425" s="31" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="D425" s="31"/>
       <c r="E425" s="31" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="F425" s="34"/>
       <c r="G425" s="13"/>
     </row>
     <row r="426" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A426" s="126"/>
+      <c r="A426" s="103"/>
       <c r="B426" s="42" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="C426" s="31" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="D426" s="31"/>
       <c r="E426" s="31" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="F426" s="34"/>
       <c r="G426" s="13"/>
     </row>
     <row r="427" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A427" s="126"/>
+      <c r="A427" s="103"/>
       <c r="B427" s="42" t="s">
-        <v>523</v>
+        <v>560</v>
       </c>
       <c r="C427" s="31" t="s">
-        <v>524</v>
+        <v>561</v>
       </c>
       <c r="D427" s="31"/>
       <c r="E427" s="31" t="s">
-        <v>525</v>
+        <v>562</v>
       </c>
       <c r="F427" s="18"/>
       <c r="G427" s="13"/>
     </row>
     <row r="428" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A428" s="126"/>
+      <c r="A428" s="103"/>
       <c r="B428" s="42" t="s">
-        <v>560</v>
+        <v>577</v>
       </c>
       <c r="C428" s="31" t="s">
-        <v>561</v>
+        <v>578</v>
       </c>
       <c r="D428" s="31"/>
       <c r="E428" s="31" t="s">
-        <v>562</v>
+        <v>579</v>
       </c>
       <c r="F428" s="18"/>
       <c r="G428" s="13"/>
     </row>
     <row r="429" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A429" s="126"/>
+      <c r="A429" s="103"/>
       <c r="B429" s="42" t="s">
-        <v>577</v>
+        <v>630</v>
       </c>
       <c r="C429" s="31" t="s">
-        <v>578</v>
+        <v>631</v>
       </c>
       <c r="D429" s="31"/>
       <c r="E429" s="31" t="s">
-        <v>579</v>
+        <v>632</v>
       </c>
       <c r="F429" s="31" t="s">
         <v>580</v>
@@ -10598,30 +10612,30 @@
       <c r="G429" s="13"/>
     </row>
     <row r="430" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A430" s="126"/>
+      <c r="A430" s="103"/>
       <c r="B430" s="42" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="C430" s="31" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="D430" s="31"/>
       <c r="E430" s="31" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="G430" s="13"/>
     </row>
     <row r="431" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A431" s="126"/>
+      <c r="A431" s="103"/>
       <c r="B431" s="42" t="s">
-        <v>633</v>
+        <v>689</v>
       </c>
       <c r="C431" s="31" t="s">
-        <v>634</v>
+        <v>690</v>
       </c>
       <c r="D431" s="31"/>
       <c r="E431" s="31" t="s">
-        <v>635</v>
+        <v>691</v>
       </c>
       <c r="F431" s="31" t="s">
         <v>636</v>
@@ -10629,274 +10643,273 @@
       <c r="G431" s="13"/>
     </row>
     <row r="432" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A432" s="126"/>
+      <c r="A432" s="103"/>
       <c r="B432" s="42" t="s">
-        <v>689</v>
+        <v>701</v>
       </c>
       <c r="C432" s="31" t="s">
-        <v>690</v>
+        <v>702</v>
       </c>
       <c r="D432" s="31"/>
       <c r="E432" s="31" t="s">
-        <v>691</v>
+        <v>703</v>
       </c>
       <c r="F432" s="31"/>
       <c r="G432" s="13"/>
     </row>
     <row r="433" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A433" s="126"/>
+      <c r="A433" s="103"/>
       <c r="B433" s="42" t="s">
-        <v>701</v>
+        <v>683</v>
       </c>
       <c r="C433" s="31" t="s">
-        <v>702</v>
+        <v>684</v>
       </c>
       <c r="D433" s="31"/>
       <c r="E433" s="31" t="s">
-        <v>703</v>
+        <v>685</v>
       </c>
       <c r="F433" s="31"/>
       <c r="G433" s="13"/>
     </row>
     <row r="434" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A434" s="126"/>
+      <c r="A434" s="103"/>
       <c r="B434" s="42" t="s">
-        <v>683</v>
+        <v>756</v>
       </c>
       <c r="C434" s="31" t="s">
-        <v>684</v>
+        <v>757</v>
       </c>
       <c r="D434" s="31"/>
       <c r="E434" s="31" t="s">
-        <v>685</v>
+        <v>758</v>
       </c>
       <c r="F434" s="31"/>
       <c r="G434" s="13"/>
     </row>
     <row r="435" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A435" s="126"/>
-      <c r="B435" s="42" t="s">
-        <v>756</v>
+      <c r="A435" s="103"/>
+      <c r="B435" s="31" t="s">
+        <v>874</v>
       </c>
       <c r="C435" s="31" t="s">
-        <v>757</v>
+        <v>875</v>
       </c>
       <c r="D435" s="31"/>
       <c r="E435" s="31" t="s">
-        <v>758</v>
+        <v>876</v>
       </c>
       <c r="F435" s="31"/>
       <c r="G435" s="13"/>
     </row>
     <row r="436" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A436" s="126"/>
-      <c r="B436" s="31" t="s">
-        <v>874</v>
-      </c>
-      <c r="C436" s="31" t="s">
-        <v>875</v>
-      </c>
-      <c r="D436" s="31"/>
-      <c r="E436" s="31" t="s">
-        <v>876</v>
+      <c r="A436" s="103"/>
+      <c r="B436" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="C436" s="39" t="s">
+        <v>877</v>
+      </c>
+      <c r="D436" s="39"/>
+      <c r="E436" s="39" t="s">
+        <v>878</v>
       </c>
       <c r="F436" s="31"/>
       <c r="G436" s="13"/>
     </row>
     <row r="437" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A437" s="126"/>
-      <c r="B437" s="39" t="s">
-        <v>187</v>
-      </c>
-      <c r="C437" s="39" t="s">
-        <v>877</v>
-      </c>
-      <c r="D437" s="39"/>
-      <c r="E437" s="39" t="s">
-        <v>878</v>
+      <c r="A437" s="103"/>
+      <c r="B437" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="C437" s="31" t="s">
+        <v>979</v>
+      </c>
+      <c r="D437" s="31"/>
+      <c r="E437" s="31" t="s">
+        <v>980</v>
       </c>
       <c r="F437" s="31"/>
       <c r="G437" s="13"/>
     </row>
     <row r="438" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A438" s="126"/>
-      <c r="B438" s="31" t="s">
-        <v>279</v>
-      </c>
-      <c r="C438" s="31" t="s">
-        <v>979</v>
-      </c>
+      <c r="A438" s="103"/>
+      <c r="B438" s="31"/>
+      <c r="C438" s="31"/>
       <c r="D438" s="31"/>
-      <c r="E438" s="31" t="s">
-        <v>980</v>
-      </c>
+      <c r="E438" s="31"/>
       <c r="F438" s="31"/>
       <c r="G438" s="13"/>
     </row>
     <row r="439" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A439" s="126"/>
-      <c r="B439" s="31"/>
+      <c r="A439" s="103"/>
+      <c r="B439" s="42"/>
       <c r="C439" s="31"/>
       <c r="D439" s="31"/>
       <c r="E439" s="31"/>
       <c r="F439" s="31"/>
       <c r="G439" s="13"/>
     </row>
-    <row r="440" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A440" s="126"/>
-      <c r="B440" s="42"/>
+    <row r="440" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A440" s="103"/>
+      <c r="B440" s="31"/>
       <c r="C440" s="31"/>
       <c r="D440" s="31"/>
       <c r="E440" s="31"/>
       <c r="F440" s="31"/>
       <c r="G440" s="13"/>
     </row>
-    <row r="441" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A441" s="127"/>
-      <c r="B441" s="31"/>
-      <c r="C441" s="31"/>
-      <c r="D441" s="31"/>
-      <c r="E441" s="31"/>
+    <row r="441" spans="1:7" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A441" s="104"/>
+      <c r="B441" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C441" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D441" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E441" s="26" t="s">
+        <v>14</v>
+      </c>
       <c r="F441" s="19"/>
       <c r="G441" s="16"/>
     </row>
     <row r="442" spans="1:7" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A442" s="95" t="s">
+      <c r="A442" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B442" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="C442" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D442" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E442" s="26" t="s">
-        <v>14</v>
+      <c r="B442" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C442" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D442" s="8"/>
+      <c r="E442" s="27" t="s">
+        <v>18</v>
       </c>
       <c r="F442" s="17"/>
       <c r="G442" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="443" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A443" s="96"/>
+    <row r="443" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A443" s="71"/>
       <c r="B443" s="35" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C443" s="18" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D443" s="8"/>
-      <c r="E443" s="27" t="s">
-        <v>18</v>
+      <c r="E443" s="28" t="s">
+        <v>21</v>
       </c>
       <c r="F443" s="18"/>
       <c r="G443" s="13"/>
     </row>
     <row r="444" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A444" s="96"/>
+      <c r="A444" s="71"/>
       <c r="B444" s="35" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C444" s="18" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D444" s="8"/>
-      <c r="E444" s="28" t="s">
-        <v>21</v>
+      <c r="E444" s="27" t="s">
+        <v>24</v>
       </c>
       <c r="F444" s="18"/>
       <c r="G444" s="13"/>
     </row>
     <row r="445" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A445" s="96"/>
+      <c r="A445" s="71"/>
       <c r="B445" s="35" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C445" s="18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D445" s="8"/>
       <c r="E445" s="27" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F445" s="18"/>
       <c r="G445" s="13"/>
     </row>
     <row r="446" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A446" s="96"/>
+      <c r="A446" s="71"/>
       <c r="B446" s="35" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C446" s="18" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D446" s="8"/>
       <c r="E446" s="27" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F446" s="18"/>
       <c r="G446" s="13"/>
     </row>
     <row r="447" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A447" s="96"/>
+      <c r="A447" s="71"/>
       <c r="B447" s="35" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C447" s="18" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D447" s="8"/>
       <c r="E447" s="27" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F447" s="18"/>
       <c r="G447" s="13"/>
     </row>
     <row r="448" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A448" s="96"/>
+      <c r="A448" s="71"/>
       <c r="B448" s="35" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C448" s="18" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D448" s="8"/>
-      <c r="E448" s="27" t="s">
-        <v>33</v>
+      <c r="E448" s="28" t="s">
+        <v>36</v>
       </c>
       <c r="F448" s="18"/>
       <c r="G448" s="13"/>
     </row>
-    <row r="449" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A449" s="96"/>
+    <row r="449" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A449" s="71"/>
       <c r="B449" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="C449" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D449" s="8"/>
-      <c r="E449" s="28" t="s">
-        <v>36</v>
+        <v>486</v>
+      </c>
+      <c r="C449" s="34" t="s">
+        <v>487</v>
+      </c>
+      <c r="D449" s="34"/>
+      <c r="E449" s="34" t="s">
+        <v>488</v>
       </c>
       <c r="F449" s="18"/>
       <c r="G449" s="13"/>
     </row>
     <row r="450" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A450" s="96"/>
-      <c r="B450" s="35" t="s">
-        <v>486</v>
-      </c>
-      <c r="C450" s="34" t="s">
-        <v>487</v>
-      </c>
-      <c r="D450" s="34"/>
-      <c r="E450" s="34" t="s">
-        <v>488</v>
+      <c r="A450" s="71"/>
+      <c r="B450" s="42" t="s">
+        <v>349</v>
+      </c>
+      <c r="C450" s="31" t="s">
+        <v>350</v>
+      </c>
+      <c r="E450" s="31" t="s">
+        <v>359</v>
       </c>
       <c r="F450" s="34" t="s">
         <v>489</v>
@@ -10904,30 +10917,31 @@
       <c r="G450" s="13"/>
     </row>
     <row r="451" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A451" s="96"/>
+      <c r="A451" s="71"/>
       <c r="B451" s="42" t="s">
-        <v>349</v>
+        <v>611</v>
       </c>
       <c r="C451" s="31" t="s">
-        <v>350</v>
-      </c>
+        <v>612</v>
+      </c>
+      <c r="D451" s="31"/>
       <c r="E451" s="31" t="s">
-        <v>359</v>
+        <v>613</v>
       </c>
       <c r="F451" s="18"/>
       <c r="G451" s="13"/>
     </row>
     <row r="452" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A452" s="96"/>
+      <c r="A452" s="71"/>
       <c r="B452" s="42" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="C452" s="31" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="D452" s="31"/>
       <c r="E452" s="31" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="F452" s="31" t="s">
         <v>614</v>
@@ -10935,92 +10949,94 @@
       <c r="G452" s="13"/>
     </row>
     <row r="453" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A453" s="96"/>
+      <c r="A453" s="71"/>
       <c r="B453" s="42" t="s">
-        <v>615</v>
-      </c>
-      <c r="C453" s="31" t="s">
-        <v>616</v>
-      </c>
-      <c r="D453" s="31"/>
-      <c r="E453" s="31" t="s">
-        <v>617</v>
+        <v>773</v>
+      </c>
+      <c r="C453" s="39" t="s">
+        <v>774</v>
+      </c>
+      <c r="D453" s="39"/>
+      <c r="E453" s="39" t="s">
+        <v>775</v>
       </c>
       <c r="G453" s="13"/>
     </row>
     <row r="454" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A454" s="96"/>
-      <c r="B454" s="42" t="s">
-        <v>773</v>
+      <c r="A454" s="71"/>
+      <c r="B454" s="39" t="s">
+        <v>958</v>
       </c>
       <c r="C454" s="39" t="s">
-        <v>774</v>
+        <v>959</v>
       </c>
       <c r="D454" s="39"/>
       <c r="E454" s="39" t="s">
-        <v>775</v>
+        <v>960</v>
       </c>
       <c r="F454" s="18"/>
       <c r="G454" s="13"/>
     </row>
     <row r="455" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A455" s="96"/>
-      <c r="B455" s="39" t="s">
-        <v>958</v>
-      </c>
-      <c r="C455" s="39" t="s">
-        <v>959</v>
-      </c>
-      <c r="D455" s="39"/>
-      <c r="E455" s="39" t="s">
-        <v>960</v>
+      <c r="A455" s="71"/>
+      <c r="B455" s="31" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C455" s="31" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D455" s="31"/>
+      <c r="E455" s="31" t="s">
+        <v>1009</v>
       </c>
       <c r="F455" s="18"/>
       <c r="G455" s="13"/>
     </row>
     <row r="456" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A456" s="96"/>
+      <c r="A456" s="71"/>
       <c r="B456" s="31" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="C456" s="31" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="D456" s="31"/>
       <c r="E456" s="31" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="F456" s="18"/>
       <c r="G456" s="13"/>
     </row>
     <row r="457" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A457" s="96"/>
-      <c r="B457" s="31" t="s">
-        <v>1010</v>
-      </c>
-      <c r="C457" s="31" t="s">
-        <v>1011</v>
-      </c>
-      <c r="D457" s="31"/>
-      <c r="E457" s="31" t="s">
-        <v>1012</v>
+      <c r="A457" s="71"/>
+      <c r="B457" s="34" t="s">
+        <v>945</v>
+      </c>
+      <c r="C457" s="34" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D457" s="34" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E457" s="34" t="s">
+        <v>1078</v>
       </c>
       <c r="F457" s="18"/>
       <c r="G457" s="13"/>
     </row>
     <row r="458" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A458" s="96"/>
+      <c r="A458" s="71"/>
       <c r="B458" s="34" t="s">
-        <v>945</v>
+        <v>1079</v>
       </c>
       <c r="C458" s="34" t="s">
-        <v>1076</v>
+        <v>1080</v>
       </c>
       <c r="D458" s="34" t="s">
         <v>1077</v>
       </c>
       <c r="E458" s="34" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="F458" s="54" t="s">
         <v>614</v>
@@ -11028,37 +11044,37 @@
       <c r="G458" s="13"/>
     </row>
     <row r="459" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A459" s="96"/>
+      <c r="A459" s="71"/>
       <c r="B459" s="34" t="s">
-        <v>1079</v>
+        <v>1082</v>
       </c>
       <c r="C459" s="34" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="D459" s="34" t="s">
         <v>1077</v>
       </c>
       <c r="E459" s="34" t="s">
-        <v>1081</v>
+        <v>1084</v>
       </c>
       <c r="F459" s="57" t="s">
         <v>614</v>
       </c>
       <c r="G459" s="13"/>
     </row>
-    <row r="460" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A460" s="96"/>
+    <row r="460" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A460" s="71"/>
       <c r="B460" s="34" t="s">
-        <v>1082</v>
+        <v>1088</v>
       </c>
       <c r="C460" s="34" t="s">
-        <v>1083</v>
+        <v>1089</v>
       </c>
       <c r="D460" s="34" t="s">
         <v>1077</v>
       </c>
-      <c r="E460" s="34" t="s">
-        <v>1084</v>
+      <c r="E460" s="59" t="s">
+        <v>1090</v>
       </c>
       <c r="F460" s="57" t="s">
         <v>614</v>
@@ -11066,18 +11082,18 @@
       <c r="G460" s="13"/>
     </row>
     <row r="461" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A461" s="96"/>
-      <c r="B461" s="34" t="s">
-        <v>1088</v>
-      </c>
-      <c r="C461" s="34" t="s">
-        <v>1089</v>
-      </c>
-      <c r="D461" s="34" t="s">
-        <v>1077</v>
-      </c>
-      <c r="E461" s="59" t="s">
-        <v>1090</v>
+      <c r="A461" s="71"/>
+      <c r="B461" s="55" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C461" s="55" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D461" s="55" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E461" s="55" t="s">
+        <v>1093</v>
       </c>
       <c r="F461" s="60" t="s">
         <v>614</v>
@@ -11085,35 +11101,35 @@
       <c r="G461" s="13"/>
     </row>
     <row r="462" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A462" s="96"/>
-      <c r="B462" s="55" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C462" s="55" t="s">
-        <v>1092</v>
-      </c>
-      <c r="D462" s="55" t="s">
-        <v>1050</v>
-      </c>
-      <c r="E462" s="55" t="s">
-        <v>1093</v>
+      <c r="A462" s="71"/>
+      <c r="B462" s="35" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C462" s="35" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D462" s="35" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E462" s="35" t="s">
+        <v>1104</v>
       </c>
       <c r="F462" s="61"/>
       <c r="G462" s="13"/>
     </row>
     <row r="463" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A463" s="96"/>
+      <c r="A463" s="71"/>
       <c r="B463" s="35" t="s">
-        <v>1101</v>
+        <v>1106</v>
       </c>
       <c r="C463" s="35" t="s">
-        <v>1102</v>
+        <v>1107</v>
       </c>
       <c r="D463" s="35" t="s">
         <v>1103</v>
       </c>
       <c r="E463" s="35" t="s">
-        <v>1104</v>
+        <v>1108</v>
       </c>
       <c r="F463" s="62" t="s">
         <v>1105</v>
@@ -11121,18 +11137,18 @@
       <c r="G463" s="13"/>
     </row>
     <row r="464" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A464" s="96"/>
+      <c r="A464" s="71"/>
       <c r="B464" s="35" t="s">
-        <v>1106</v>
+        <v>1109</v>
       </c>
       <c r="C464" s="35" t="s">
-        <v>1107</v>
+        <v>1110</v>
       </c>
       <c r="D464" s="35" t="s">
         <v>1103</v>
       </c>
       <c r="E464" s="35" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="F464" s="63" t="s">
         <v>1105</v>
@@ -11140,18 +11156,18 @@
       <c r="G464" s="13"/>
     </row>
     <row r="465" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A465" s="96"/>
+      <c r="A465" s="71"/>
       <c r="B465" s="35" t="s">
-        <v>1109</v>
+        <v>1112</v>
       </c>
       <c r="C465" s="35" t="s">
-        <v>1110</v>
+        <v>1113</v>
       </c>
       <c r="D465" s="35" t="s">
-        <v>1103</v>
+        <v>1050</v>
       </c>
       <c r="E465" s="35" t="s">
-        <v>1111</v>
+        <v>1114</v>
       </c>
       <c r="F465" s="63" t="s">
         <v>1105</v>
@@ -11159,18 +11175,18 @@
       <c r="G465" s="13"/>
     </row>
     <row r="466" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A466" s="96"/>
+      <c r="A466" s="71"/>
       <c r="B466" s="35" t="s">
-        <v>1112</v>
+        <v>1116</v>
       </c>
       <c r="C466" s="35" t="s">
-        <v>1113</v>
-      </c>
-      <c r="D466" s="35" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D466" s="64" t="s">
         <v>1050</v>
       </c>
       <c r="E466" s="35" t="s">
-        <v>1114</v>
+        <v>1118</v>
       </c>
       <c r="F466" s="63" t="s">
         <v>1115</v>
@@ -11178,18 +11194,18 @@
       <c r="G466" s="13"/>
     </row>
     <row r="467" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A467" s="96"/>
+      <c r="A467" s="71"/>
       <c r="B467" s="35" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
       <c r="C467" s="35" t="s">
-        <v>1117</v>
+        <v>1121</v>
       </c>
       <c r="D467" s="64" t="s">
         <v>1050</v>
       </c>
       <c r="E467" s="35" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
       <c r="F467" s="62" t="s">
         <v>1119</v>
@@ -11197,12 +11213,12 @@
       <c r="G467" s="13"/>
     </row>
     <row r="468" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A468" s="96"/>
+      <c r="A468" s="71"/>
       <c r="B468" s="35" t="s">
         <v>1120</v>
       </c>
       <c r="C468" s="35" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="D468" s="64" t="s">
         <v>1050</v>
@@ -11216,18 +11232,18 @@
       <c r="G468" s="13"/>
     </row>
     <row r="469" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A469" s="96"/>
+      <c r="A469" s="71"/>
       <c r="B469" s="35" t="s">
-        <v>1120</v>
+        <v>1125</v>
       </c>
       <c r="C469" s="35" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="D469" s="64" t="s">
         <v>1050</v>
       </c>
       <c r="E469" s="35" t="s">
-        <v>1122</v>
+        <v>1127</v>
       </c>
       <c r="F469" s="62" t="s">
         <v>1124</v>
@@ -11235,26 +11251,18 @@
       <c r="G469" s="13"/>
     </row>
     <row r="470" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A470" s="96"/>
-      <c r="B470" s="35" t="s">
-        <v>1125</v>
-      </c>
-      <c r="C470" s="35" t="s">
-        <v>1126</v>
-      </c>
-      <c r="D470" s="64" t="s">
-        <v>1050</v>
-      </c>
-      <c r="E470" s="35" t="s">
-        <v>1127</v>
-      </c>
+      <c r="A470" s="71"/>
+      <c r="B470" s="35"/>
+      <c r="C470" s="35"/>
+      <c r="D470" s="64"/>
+      <c r="E470" s="35"/>
       <c r="F470" s="62" t="s">
         <v>1128</v>
       </c>
       <c r="G470" s="13"/>
     </row>
     <row r="471" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A471" s="96"/>
+      <c r="A471" s="71"/>
       <c r="B471" s="35"/>
       <c r="C471" s="35"/>
       <c r="D471" s="64"/>
@@ -11263,7 +11271,7 @@
       <c r="G471" s="13"/>
     </row>
     <row r="472" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A472" s="96"/>
+      <c r="A472" s="71"/>
       <c r="B472" s="35"/>
       <c r="C472" s="35"/>
       <c r="D472" s="64"/>
@@ -11272,7 +11280,7 @@
       <c r="G472" s="13"/>
     </row>
     <row r="473" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A473" s="96"/>
+      <c r="A473" s="71"/>
       <c r="B473" s="35"/>
       <c r="C473" s="35"/>
       <c r="D473" s="64"/>
@@ -11280,21 +11288,18 @@
       <c r="F473" s="35"/>
       <c r="G473" s="13"/>
     </row>
-    <row r="474" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A474" s="96"/>
-      <c r="B474" s="35"/>
-      <c r="C474" s="35"/>
-      <c r="D474" s="64"/>
-      <c r="E474" s="35"/>
+    <row r="474" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A474" s="71"/>
+      <c r="B474" s="52"/>
+      <c r="C474" s="19"/>
+      <c r="D474" s="25"/>
+      <c r="E474" s="29"/>
       <c r="F474" s="35"/>
       <c r="G474" s="13"/>
     </row>
-    <row r="475" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A475" s="97"/>
-      <c r="B475" s="52"/>
-      <c r="C475" s="19"/>
-      <c r="D475" s="25"/>
-      <c r="E475" s="29"/>
+    <row r="475" spans="1:7" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A475" s="72"/>
+      <c r="E475" s="5"/>
       <c r="F475" s="19"/>
       <c r="G475" s="16"/>
     </row>
@@ -14237,11 +14242,17 @@
     <row r="1454" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1454" s="5"/>
     </row>
-    <row r="1455" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="E1455" s="5"/>
-    </row>
+    <row r="1455" spans="5:5" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A281:A288"/>
+    <mergeCell ref="A164:A217"/>
+    <mergeCell ref="A289:A313"/>
+    <mergeCell ref="A120:A136"/>
+    <mergeCell ref="A137:A140"/>
+    <mergeCell ref="A233:A238"/>
+    <mergeCell ref="A255:A280"/>
+    <mergeCell ref="A218:A221"/>
     <mergeCell ref="A3:A99"/>
     <mergeCell ref="A141:A163"/>
     <mergeCell ref="A442:A475"/>
@@ -14258,14 +14269,6 @@
     <mergeCell ref="A420:A441"/>
     <mergeCell ref="A354:A360"/>
     <mergeCell ref="A326:A333"/>
-    <mergeCell ref="A281:A288"/>
-    <mergeCell ref="A164:A217"/>
-    <mergeCell ref="A289:A313"/>
-    <mergeCell ref="A120:A136"/>
-    <mergeCell ref="A137:A140"/>
-    <mergeCell ref="A233:A238"/>
-    <mergeCell ref="A255:A280"/>
-    <mergeCell ref="A218:A221"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/xcom_perks/compiled_perks.xlsx
+++ b/docs/xcom_perks/compiled_perks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\xcom2_my_tweaks\docs\xcom_perks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F140FF-7489-4F9C-A192-BE6F91ADF4B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1C7D43-B808-46E0-B18D-1410258CCE75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabellenblatt1" sheetId="1" r:id="rId1"/>
@@ -4184,7 +4184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4296,6 +4296,47 @@
     <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="40" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4342,10 +4383,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4371,43 +4408,23 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="34" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="34" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="40" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4629,8 +4646,8 @@
   <dimension ref="A1:AA1455"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C212" sqref="C212"/>
+      <pane ySplit="2" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4703,7 +4720,7 @@
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="65"/>
+      <c r="A3" s="90"/>
       <c r="B3" s="42" t="s">
         <v>79</v>
       </c>
@@ -4718,7 +4735,7 @@
       <c r="G3" s="20"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="65"/>
+      <c r="A4" s="90"/>
       <c r="B4" s="42" t="s">
         <v>102</v>
       </c>
@@ -4732,7 +4749,7 @@
       <c r="G4" s="20"/>
     </row>
     <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="65"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="42" t="s">
         <v>114</v>
       </c>
@@ -4745,7 +4762,7 @@
       <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="65"/>
+      <c r="A6" s="90"/>
       <c r="B6" s="42" t="s">
         <v>141</v>
       </c>
@@ -4758,7 +4775,7 @@
       <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="65"/>
+      <c r="A7" s="90"/>
       <c r="B7" s="42" t="s">
         <v>156</v>
       </c>
@@ -4771,7 +4788,7 @@
       <c r="G7" s="20"/>
     </row>
     <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="65"/>
+      <c r="A8" s="90"/>
       <c r="B8" s="42" t="s">
         <v>158</v>
       </c>
@@ -4784,7 +4801,7 @@
       <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="65"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="42" t="s">
         <v>160</v>
       </c>
@@ -4797,7 +4814,7 @@
       <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="65"/>
+      <c r="A10" s="90"/>
       <c r="B10" s="42" t="s">
         <v>177</v>
       </c>
@@ -4810,7 +4827,7 @@
       <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="65"/>
+      <c r="A11" s="90"/>
       <c r="B11" s="42" t="s">
         <v>192</v>
       </c>
@@ -4823,7 +4840,7 @@
       <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="65"/>
+      <c r="A12" s="90"/>
       <c r="B12" s="42" t="s">
         <v>204</v>
       </c>
@@ -4836,7 +4853,7 @@
       <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="65"/>
+      <c r="A13" s="90"/>
       <c r="B13" s="42" t="s">
         <v>210</v>
       </c>
@@ -4851,7 +4868,7 @@
       </c>
     </row>
     <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="65"/>
+      <c r="A14" s="90"/>
       <c r="B14" s="42" t="s">
         <v>213</v>
       </c>
@@ -4863,7 +4880,7 @@
       </c>
     </row>
     <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="65"/>
+      <c r="A15" s="90"/>
       <c r="B15" s="42" t="s">
         <v>219</v>
       </c>
@@ -4875,7 +4892,7 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="65"/>
+      <c r="A16" s="90"/>
       <c r="B16" s="42" t="s">
         <v>230</v>
       </c>
@@ -4887,7 +4904,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="65"/>
+      <c r="A17" s="90"/>
       <c r="B17" s="42" t="s">
         <v>236</v>
       </c>
@@ -4902,7 +4919,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="65"/>
+      <c r="A18" s="90"/>
       <c r="B18" s="42" t="s">
         <v>244</v>
       </c>
@@ -4914,7 +4931,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="65"/>
+      <c r="A19" s="90"/>
       <c r="B19" s="42" t="s">
         <v>257</v>
       </c>
@@ -4926,7 +4943,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="65"/>
+      <c r="A20" s="90"/>
       <c r="B20" s="42" t="s">
         <v>259</v>
       </c>
@@ -4938,7 +4955,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="65"/>
+      <c r="A21" s="90"/>
       <c r="B21" s="42" t="s">
         <v>277</v>
       </c>
@@ -4950,7 +4967,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="65"/>
+      <c r="A22" s="90"/>
       <c r="B22" s="42" t="s">
         <v>287</v>
       </c>
@@ -4962,7 +4979,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="65"/>
+      <c r="A23" s="90"/>
       <c r="B23" s="42" t="s">
         <v>314</v>
       </c>
@@ -4974,7 +4991,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="65"/>
+      <c r="A24" s="90"/>
       <c r="B24" s="42" t="s">
         <v>320</v>
       </c>
@@ -4986,7 +5003,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="65"/>
+      <c r="A25" s="90"/>
       <c r="B25" s="42" t="s">
         <v>326</v>
       </c>
@@ -4998,7 +5015,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="65"/>
+      <c r="A26" s="90"/>
       <c r="B26" s="42" t="s">
         <v>341</v>
       </c>
@@ -5010,7 +5027,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="65"/>
+      <c r="A27" s="90"/>
       <c r="B27" s="42" t="s">
         <v>345</v>
       </c>
@@ -5022,7 +5039,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="65"/>
+      <c r="A28" s="90"/>
       <c r="B28" s="42" t="s">
         <v>365</v>
       </c>
@@ -5034,7 +5051,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="65"/>
+      <c r="A29" s="90"/>
       <c r="B29" s="42" t="s">
         <v>385</v>
       </c>
@@ -5046,7 +5063,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="65"/>
+      <c r="A30" s="90"/>
       <c r="B30" s="35" t="s">
         <v>158</v>
       </c>
@@ -5062,7 +5079,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="65"/>
+      <c r="A31" s="90"/>
       <c r="B31" s="35" t="s">
         <v>416</v>
       </c>
@@ -5075,7 +5092,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="65"/>
+      <c r="A32" s="90"/>
       <c r="B32" s="35" t="s">
         <v>419</v>
       </c>
@@ -5091,7 +5108,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="65"/>
+      <c r="A33" s="90"/>
       <c r="B33" s="35" t="s">
         <v>430</v>
       </c>
@@ -5109,7 +5126,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="65"/>
+      <c r="A34" s="90"/>
       <c r="B34" s="35" t="s">
         <v>454</v>
       </c>
@@ -5127,7 +5144,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="65"/>
+      <c r="A35" s="90"/>
       <c r="B35" s="35" t="s">
         <v>458</v>
       </c>
@@ -5143,7 +5160,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="65"/>
+      <c r="A36" s="90"/>
       <c r="B36" s="35" t="s">
         <v>466</v>
       </c>
@@ -5156,7 +5173,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="65"/>
+      <c r="A37" s="90"/>
       <c r="B37" s="42" t="s">
         <v>508</v>
       </c>
@@ -5169,7 +5186,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="65"/>
+      <c r="A38" s="90"/>
       <c r="B38" s="42" t="s">
         <v>520</v>
       </c>
@@ -5182,7 +5199,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="65"/>
+      <c r="A39" s="90"/>
       <c r="B39" s="42" t="s">
         <v>535</v>
       </c>
@@ -5195,7 +5212,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="65"/>
+      <c r="A40" s="90"/>
       <c r="B40" s="42" t="s">
         <v>543</v>
       </c>
@@ -5208,7 +5225,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="65"/>
+      <c r="A41" s="90"/>
       <c r="B41" s="42" t="s">
         <v>555</v>
       </c>
@@ -5221,7 +5238,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="65"/>
+      <c r="A42" s="90"/>
       <c r="B42" s="42" t="s">
         <v>141</v>
       </c>
@@ -5234,7 +5251,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="65"/>
+      <c r="A43" s="90"/>
       <c r="B43" s="42" t="s">
         <v>574</v>
       </c>
@@ -5247,7 +5264,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="65"/>
+      <c r="A44" s="90"/>
       <c r="B44" s="42" t="s">
         <v>591</v>
       </c>
@@ -5260,7 +5277,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="65"/>
+      <c r="A45" s="90"/>
       <c r="B45" s="42" t="s">
         <v>594</v>
       </c>
@@ -5276,7 +5293,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="65"/>
+      <c r="A46" s="90"/>
       <c r="B46" s="42" t="s">
         <v>598</v>
       </c>
@@ -5289,7 +5306,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="65"/>
+      <c r="A47" s="90"/>
       <c r="B47" s="42" t="s">
         <v>605</v>
       </c>
@@ -5302,7 +5319,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="65"/>
+      <c r="A48" s="90"/>
       <c r="B48" s="42" t="s">
         <v>618</v>
       </c>
@@ -5315,7 +5332,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="65"/>
+      <c r="A49" s="90"/>
       <c r="B49" s="42" t="s">
         <v>621</v>
       </c>
@@ -5328,7 +5345,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="65"/>
+      <c r="A50" s="90"/>
       <c r="B50" s="42" t="s">
         <v>627</v>
       </c>
@@ -5341,7 +5358,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="65"/>
+      <c r="A51" s="90"/>
       <c r="B51" s="42" t="s">
         <v>637</v>
       </c>
@@ -5354,7 +5371,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="65"/>
+      <c r="A52" s="90"/>
       <c r="B52" s="42" t="s">
         <v>640</v>
       </c>
@@ -5367,7 +5384,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="65"/>
+      <c r="A53" s="90"/>
       <c r="B53" s="42" t="s">
         <v>643</v>
       </c>
@@ -5380,7 +5397,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="65"/>
+      <c r="A54" s="90"/>
       <c r="B54" s="42" t="s">
         <v>646</v>
       </c>
@@ -5393,7 +5410,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="65"/>
+      <c r="A55" s="90"/>
       <c r="B55" s="42" t="s">
         <v>649</v>
       </c>
@@ -5406,7 +5423,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="65"/>
+      <c r="A56" s="90"/>
       <c r="B56" s="42" t="s">
         <v>652</v>
       </c>
@@ -5419,7 +5436,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="65"/>
+      <c r="A57" s="90"/>
       <c r="B57" s="42" t="s">
         <v>655</v>
       </c>
@@ -5432,7 +5449,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="65"/>
+      <c r="A58" s="90"/>
       <c r="B58" s="42" t="s">
         <v>658</v>
       </c>
@@ -5445,7 +5462,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="65"/>
+      <c r="A59" s="90"/>
       <c r="B59" s="42" t="s">
         <v>661</v>
       </c>
@@ -5458,7 +5475,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="65"/>
+      <c r="A60" s="90"/>
       <c r="B60" s="42" t="s">
         <v>275</v>
       </c>
@@ -5471,7 +5488,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="65"/>
+      <c r="A61" s="90"/>
       <c r="B61" s="42" t="s">
         <v>665</v>
       </c>
@@ -5484,7 +5501,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="65"/>
+      <c r="A62" s="90"/>
       <c r="B62" s="42" t="s">
         <v>668</v>
       </c>
@@ -5498,7 +5515,7 @@
       <c r="F62" s="31"/>
     </row>
     <row r="63" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="65"/>
+      <c r="A63" s="90"/>
       <c r="B63" s="42" t="s">
         <v>671</v>
       </c>
@@ -5512,7 +5529,7 @@
       <c r="F63" s="31"/>
     </row>
     <row r="64" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="65"/>
+      <c r="A64" s="90"/>
       <c r="B64" s="42" t="s">
         <v>686</v>
       </c>
@@ -5525,7 +5542,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="65"/>
+      <c r="A65" s="90"/>
       <c r="B65" s="42" t="s">
         <v>704</v>
       </c>
@@ -5538,7 +5555,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="65"/>
+      <c r="A66" s="90"/>
       <c r="B66" s="42" t="s">
         <v>722</v>
       </c>
@@ -5552,7 +5569,7 @@
       <c r="F66" s="31"/>
     </row>
     <row r="67" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="65"/>
+      <c r="A67" s="90"/>
       <c r="B67" s="42" t="s">
         <v>728</v>
       </c>
@@ -5566,7 +5583,7 @@
       <c r="F67" s="31"/>
     </row>
     <row r="68" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="65"/>
+      <c r="A68" s="90"/>
       <c r="B68" s="42" t="s">
         <v>734</v>
       </c>
@@ -5579,7 +5596,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="65"/>
+      <c r="A69" s="90"/>
       <c r="B69" s="42" t="s">
         <v>740</v>
       </c>
@@ -5592,7 +5609,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="65"/>
+      <c r="A70" s="90"/>
       <c r="B70" s="42" t="s">
         <v>743</v>
       </c>
@@ -5605,7 +5622,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="65"/>
+      <c r="A71" s="90"/>
       <c r="B71" s="42" t="s">
         <v>752</v>
       </c>
@@ -5621,7 +5638,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="65"/>
+      <c r="A72" s="90"/>
       <c r="B72" s="42" t="s">
         <v>761</v>
       </c>
@@ -5634,7 +5651,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="65"/>
+      <c r="A73" s="90"/>
       <c r="B73" s="42" t="s">
         <v>767</v>
       </c>
@@ -5647,7 +5664,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="65"/>
+      <c r="A74" s="90"/>
       <c r="B74" s="42" t="s">
         <v>779</v>
       </c>
@@ -5660,7 +5677,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="65"/>
+      <c r="A75" s="90"/>
       <c r="B75" s="42" t="s">
         <v>788</v>
       </c>
@@ -5673,7 +5690,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="65"/>
+      <c r="A76" s="90"/>
       <c r="B76" s="42" t="s">
         <v>791</v>
       </c>
@@ -5686,7 +5703,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A77" s="65"/>
+      <c r="A77" s="90"/>
       <c r="B77" s="31" t="s">
         <v>809</v>
       </c>
@@ -5699,7 +5716,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A78" s="65"/>
+      <c r="A78" s="90"/>
       <c r="B78" s="31" t="s">
         <v>827</v>
       </c>
@@ -5712,7 +5729,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="65"/>
+      <c r="A79" s="90"/>
       <c r="B79" s="31" t="s">
         <v>830</v>
       </c>
@@ -5725,7 +5742,7 @@
       </c>
     </row>
     <row r="80" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="65"/>
+      <c r="A80" s="90"/>
       <c r="B80" s="31" t="s">
         <v>850</v>
       </c>
@@ -5738,7 +5755,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A81" s="65"/>
+      <c r="A81" s="90"/>
       <c r="B81" s="31" t="s">
         <v>853</v>
       </c>
@@ -5751,7 +5768,7 @@
       </c>
     </row>
     <row r="82" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A82" s="65"/>
+      <c r="A82" s="90"/>
       <c r="B82" s="31" t="s">
         <v>871</v>
       </c>
@@ -5764,7 +5781,7 @@
       </c>
     </row>
     <row r="83" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="65"/>
+      <c r="A83" s="90"/>
       <c r="B83" s="39" t="s">
         <v>891</v>
       </c>
@@ -5777,7 +5794,7 @@
       </c>
     </row>
     <row r="84" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="65"/>
+      <c r="A84" s="90"/>
       <c r="B84" s="39" t="s">
         <v>897</v>
       </c>
@@ -5790,7 +5807,7 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A85" s="65"/>
+      <c r="A85" s="90"/>
       <c r="B85" s="31" t="s">
         <v>912</v>
       </c>
@@ -5803,7 +5820,7 @@
       </c>
     </row>
     <row r="86" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A86" s="65"/>
+      <c r="A86" s="90"/>
       <c r="B86" s="31" t="s">
         <v>915</v>
       </c>
@@ -5816,7 +5833,7 @@
       </c>
     </row>
     <row r="87" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="65"/>
+      <c r="A87" s="90"/>
       <c r="B87" s="31" t="s">
         <v>933</v>
       </c>
@@ -5829,7 +5846,7 @@
       </c>
     </row>
     <row r="88" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A88" s="65"/>
+      <c r="A88" s="90"/>
       <c r="B88" s="31" t="s">
         <v>936</v>
       </c>
@@ -5842,7 +5859,7 @@
       </c>
     </row>
     <row r="89" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="65"/>
+      <c r="A89" s="90"/>
       <c r="B89" s="31" t="s">
         <v>939</v>
       </c>
@@ -5855,7 +5872,7 @@
       </c>
     </row>
     <row r="90" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="65"/>
+      <c r="A90" s="90"/>
       <c r="B90" s="39" t="s">
         <v>948</v>
       </c>
@@ -5868,7 +5885,7 @@
       </c>
     </row>
     <row r="91" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="65"/>
+      <c r="A91" s="90"/>
       <c r="B91" s="39" t="s">
         <v>236</v>
       </c>
@@ -5881,7 +5898,7 @@
       </c>
     </row>
     <row r="92" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A92" s="65"/>
+      <c r="A92" s="90"/>
       <c r="B92" s="31" t="s">
         <v>999</v>
       </c>
@@ -5894,7 +5911,7 @@
       </c>
     </row>
     <row r="93" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A93" s="65"/>
+      <c r="A93" s="90"/>
       <c r="B93" s="31" t="s">
         <v>1013</v>
       </c>
@@ -5907,7 +5924,7 @@
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="65"/>
+      <c r="A94" s="90"/>
       <c r="B94" s="31" t="s">
         <v>1016</v>
       </c>
@@ -5920,7 +5937,7 @@
       </c>
     </row>
     <row r="95" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="65"/>
+      <c r="A95" s="90"/>
       <c r="B95" s="31" t="s">
         <v>1025</v>
       </c>
@@ -5933,7 +5950,7 @@
       </c>
     </row>
     <row r="96" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A96" s="65"/>
+      <c r="A96" s="90"/>
       <c r="B96" s="31" t="s">
         <v>1028</v>
       </c>
@@ -5946,7 +5963,7 @@
       </c>
     </row>
     <row r="97" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A97" s="65"/>
+      <c r="A97" s="90"/>
       <c r="B97" s="31" t="s">
         <v>1040</v>
       </c>
@@ -5959,7 +5976,7 @@
       </c>
     </row>
     <row r="98" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="65"/>
+      <c r="A98" s="90"/>
       <c r="B98" s="31" t="s">
         <v>756</v>
       </c>
@@ -5972,7 +5989,7 @@
       </c>
     </row>
     <row r="99" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="66"/>
+      <c r="A99" s="91"/>
       <c r="B99" s="34" t="s">
         <v>1085</v>
       </c>
@@ -6153,7 +6170,7 @@
       <c r="G111" s="18"/>
     </row>
     <row r="112" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="73" t="s">
+      <c r="A112" s="98" t="s">
         <v>37</v>
       </c>
       <c r="B112" s="44" t="s">
@@ -6172,7 +6189,7 @@
       <c r="G112" s="13"/>
     </row>
     <row r="113" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="73"/>
+      <c r="A113" s="98"/>
       <c r="B113" s="45"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
@@ -6181,7 +6198,7 @@
       <c r="G113" s="13"/>
     </row>
     <row r="114" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="74"/>
+      <c r="A114" s="99"/>
       <c r="B114" s="45" t="s">
         <v>41</v>
       </c>
@@ -6196,7 +6213,7 @@
       <c r="G114" s="13"/>
     </row>
     <row r="115" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="75"/>
+      <c r="A115" s="100"/>
       <c r="B115" s="46" t="s">
         <v>44</v>
       </c>
@@ -6213,7 +6230,7 @@
       </c>
     </row>
     <row r="116" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="94" t="s">
+      <c r="A116" s="117" t="s">
         <v>494</v>
       </c>
       <c r="B116" s="42" t="s">
@@ -6229,7 +6246,7 @@
       <c r="G116" s="13"/>
     </row>
     <row r="117" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="94"/>
+      <c r="A117" s="117"/>
       <c r="B117" s="45"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
@@ -6238,7 +6255,7 @@
       <c r="G117" s="13"/>
     </row>
     <row r="118" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="95"/>
+      <c r="A118" s="118"/>
       <c r="B118" s="45"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
@@ -6247,7 +6264,7 @@
       <c r="G118" s="13"/>
     </row>
     <row r="119" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="96"/>
+      <c r="A119" s="119"/>
       <c r="B119" s="46"/>
       <c r="C119" s="32"/>
       <c r="D119" s="32"/>
@@ -6258,7 +6275,7 @@
       </c>
     </row>
     <row r="120" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="115" t="s">
+      <c r="A120" s="74" t="s">
         <v>496</v>
       </c>
       <c r="B120" s="42" t="s">
@@ -6274,7 +6291,7 @@
       <c r="G120" s="13"/>
     </row>
     <row r="121" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A121" s="115"/>
+      <c r="A121" s="74"/>
       <c r="B121" s="42" t="s">
         <v>118</v>
       </c>
@@ -6288,7 +6305,7 @@
       <c r="G121" s="13"/>
     </row>
     <row r="122" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A122" s="116"/>
+      <c r="A122" s="75"/>
       <c r="B122" s="42" t="s">
         <v>152</v>
       </c>
@@ -6302,7 +6319,7 @@
       <c r="G122" s="13"/>
     </row>
     <row r="123" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A123" s="117"/>
+      <c r="A123" s="76"/>
       <c r="B123" s="42" t="s">
         <v>234</v>
       </c>
@@ -6316,7 +6333,7 @@
       <c r="G123" s="18"/>
     </row>
     <row r="124" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A124" s="112"/>
+      <c r="A124" s="71"/>
       <c r="B124" s="42" t="s">
         <v>246</v>
       </c>
@@ -6330,7 +6347,7 @@
       <c r="G124" s="13"/>
     </row>
     <row r="125" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A125" s="112"/>
+      <c r="A125" s="71"/>
       <c r="B125" s="42" t="s">
         <v>601</v>
       </c>
@@ -6345,7 +6362,7 @@
       <c r="G125" s="13"/>
     </row>
     <row r="126" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A126" s="112"/>
+      <c r="A126" s="71"/>
       <c r="B126" s="42" t="s">
         <v>794</v>
       </c>
@@ -6362,11 +6379,11 @@
       <c r="G126" s="13"/>
     </row>
     <row r="127" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A127" s="112"/>
+      <c r="A127" s="71"/>
       <c r="B127" s="42" t="s">
         <v>800</v>
       </c>
-      <c r="C127" s="39" t="s">
+      <c r="C127" s="31" t="s">
         <v>801</v>
       </c>
       <c r="D127" s="39"/>
@@ -6377,7 +6394,7 @@
       <c r="G127" s="13"/>
     </row>
     <row r="128" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A128" s="112"/>
+      <c r="A128" s="71"/>
       <c r="B128" s="31" t="s">
         <v>856</v>
       </c>
@@ -6392,7 +6409,7 @@
       <c r="G128" s="13"/>
     </row>
     <row r="129" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A129" s="112"/>
+      <c r="A129" s="71"/>
       <c r="B129" s="39" t="s">
         <v>906</v>
       </c>
@@ -6407,7 +6424,7 @@
       <c r="G129" s="13"/>
     </row>
     <row r="130" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A130" s="112"/>
+      <c r="A130" s="71"/>
       <c r="B130" s="39" t="s">
         <v>909</v>
       </c>
@@ -6422,7 +6439,7 @@
       <c r="G130" s="13"/>
     </row>
     <row r="131" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A131" s="112"/>
+      <c r="A131" s="71"/>
       <c r="B131" s="31" t="s">
         <v>930</v>
       </c>
@@ -6437,7 +6454,7 @@
       <c r="G131" s="13"/>
     </row>
     <row r="132" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A132" s="112"/>
+      <c r="A132" s="71"/>
       <c r="B132" s="31" t="s">
         <v>942</v>
       </c>
@@ -6452,7 +6469,7 @@
       <c r="G132" s="13"/>
     </row>
     <row r="133" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A133" s="112"/>
+      <c r="A133" s="71"/>
       <c r="B133" s="31" t="s">
         <v>981</v>
       </c>
@@ -6467,7 +6484,7 @@
       <c r="G133" s="13"/>
     </row>
     <row r="134" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A134" s="112"/>
+      <c r="A134" s="71"/>
       <c r="B134" s="31" t="s">
         <v>918</v>
       </c>
@@ -6482,7 +6499,7 @@
       <c r="G134" s="13"/>
     </row>
     <row r="135" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A135" s="112"/>
+      <c r="A135" s="71"/>
       <c r="B135" s="39"/>
       <c r="C135" s="39"/>
       <c r="D135" s="39"/>
@@ -6491,12 +6508,12 @@
       <c r="G135" s="13"/>
     </row>
     <row r="136" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="118"/>
+      <c r="A136" s="77"/>
       <c r="F136" s="18"/>
       <c r="G136" s="13"/>
     </row>
     <row r="137" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="119" t="s">
+      <c r="A137" s="78" t="s">
         <v>490</v>
       </c>
       <c r="B137" s="42" t="s">
@@ -6512,7 +6529,7 @@
       <c r="G137" s="13"/>
     </row>
     <row r="138" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="119"/>
+      <c r="A138" s="78"/>
       <c r="B138" s="42" t="s">
         <v>289</v>
       </c>
@@ -6526,7 +6543,7 @@
       <c r="G138" s="13"/>
     </row>
     <row r="139" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="120"/>
+      <c r="A139" s="79"/>
       <c r="B139" s="35" t="s">
         <v>423</v>
       </c>
@@ -6541,7 +6558,7 @@
       <c r="G139" s="13"/>
     </row>
     <row r="140" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="121"/>
+      <c r="A140" s="80"/>
       <c r="B140" s="46"/>
       <c r="C140" s="32"/>
       <c r="D140" s="32"/>
@@ -6552,7 +6569,7 @@
       </c>
     </row>
     <row r="141" spans="1:7" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="67" t="s">
+      <c r="A141" s="92" t="s">
         <v>96</v>
       </c>
       <c r="B141" s="42" t="s">
@@ -6569,7 +6586,7 @@
       <c r="G141" s="30"/>
     </row>
     <row r="142" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A142" s="68"/>
+      <c r="A142" s="93"/>
       <c r="B142" s="42" t="s">
         <v>75</v>
       </c>
@@ -6584,7 +6601,7 @@
       <c r="G142" s="23"/>
     </row>
     <row r="143" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A143" s="68"/>
+      <c r="A143" s="93"/>
       <c r="B143" s="42" t="s">
         <v>263</v>
       </c>
@@ -6598,7 +6615,7 @@
       <c r="G143" s="13"/>
     </row>
     <row r="144" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A144" s="68"/>
+      <c r="A144" s="93"/>
       <c r="B144" s="42" t="s">
         <v>361</v>
       </c>
@@ -6612,7 +6629,7 @@
       <c r="G144" s="13"/>
     </row>
     <row r="145" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A145" s="68"/>
+      <c r="A145" s="93"/>
       <c r="B145" s="42" t="s">
         <v>271</v>
       </c>
@@ -6628,7 +6645,7 @@
       <c r="G145" s="13"/>
     </row>
     <row r="146" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A146" s="68"/>
+      <c r="A146" s="93"/>
       <c r="B146" s="42" t="s">
         <v>281</v>
       </c>
@@ -6642,7 +6659,7 @@
       <c r="G146" s="13"/>
     </row>
     <row r="147" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A147" s="68"/>
+      <c r="A147" s="93"/>
       <c r="B147" s="42" t="s">
         <v>318</v>
       </c>
@@ -6656,7 +6673,7 @@
       <c r="G147" s="13"/>
     </row>
     <row r="148" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A148" s="68"/>
+      <c r="A148" s="93"/>
       <c r="B148" s="42" t="s">
         <v>351</v>
       </c>
@@ -6670,7 +6687,7 @@
       <c r="G148" s="13"/>
     </row>
     <row r="149" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A149" s="68"/>
+      <c r="A149" s="93"/>
       <c r="B149" s="42" t="s">
         <v>316</v>
       </c>
@@ -6684,7 +6701,7 @@
       <c r="G149" s="13"/>
     </row>
     <row r="150" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A150" s="68"/>
+      <c r="A150" s="93"/>
       <c r="B150" s="42" t="s">
         <v>269</v>
       </c>
@@ -6698,7 +6715,7 @@
       <c r="G150" s="13"/>
     </row>
     <row r="151" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A151" s="68"/>
+      <c r="A151" s="93"/>
       <c r="B151" s="35" t="s">
         <v>480</v>
       </c>
@@ -6715,7 +6732,7 @@
       <c r="G151" s="13"/>
     </row>
     <row r="152" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A152" s="68"/>
+      <c r="A152" s="93"/>
       <c r="B152" s="42" t="s">
         <v>322</v>
       </c>
@@ -6727,7 +6744,7 @@
       </c>
     </row>
     <row r="153" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A153" s="68"/>
+      <c r="A153" s="93"/>
       <c r="B153" s="42" t="s">
         <v>526</v>
       </c>
@@ -6742,7 +6759,7 @@
       <c r="G153" s="13"/>
     </row>
     <row r="154" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A154" s="68"/>
+      <c r="A154" s="93"/>
       <c r="B154" s="47" t="s">
         <v>584</v>
       </c>
@@ -6759,7 +6776,7 @@
       <c r="G154" s="13"/>
     </row>
     <row r="155" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A155" s="68"/>
+      <c r="A155" s="93"/>
       <c r="B155" s="42" t="s">
         <v>674</v>
       </c>
@@ -6776,7 +6793,7 @@
       <c r="G155" s="13"/>
     </row>
     <row r="156" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A156" s="68"/>
+      <c r="A156" s="93"/>
       <c r="B156" s="42" t="s">
         <v>764</v>
       </c>
@@ -6791,7 +6808,7 @@
       <c r="G156" s="13"/>
     </row>
     <row r="157" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A157" s="68"/>
+      <c r="A157" s="93"/>
       <c r="B157" s="31" t="s">
         <v>859</v>
       </c>
@@ -6806,7 +6823,7 @@
       <c r="G157" s="13"/>
     </row>
     <row r="158" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A158" s="68"/>
+      <c r="A158" s="93"/>
       <c r="B158" s="39" t="s">
         <v>882</v>
       </c>
@@ -6821,7 +6838,7 @@
       <c r="G158" s="13"/>
     </row>
     <row r="159" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A159" s="68"/>
+      <c r="A159" s="93"/>
       <c r="B159" s="31" t="s">
         <v>921</v>
       </c>
@@ -6836,7 +6853,7 @@
       <c r="G159" s="13"/>
     </row>
     <row r="160" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A160" s="68"/>
+      <c r="A160" s="93"/>
       <c r="B160" s="31" t="s">
         <v>976</v>
       </c>
@@ -6851,7 +6868,7 @@
       <c r="G160" s="13"/>
     </row>
     <row r="161" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A161" s="68"/>
+      <c r="A161" s="93"/>
       <c r="B161" s="31" t="s">
         <v>1034</v>
       </c>
@@ -6866,7 +6883,7 @@
       <c r="G161" s="13"/>
     </row>
     <row r="162" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A162" s="68"/>
+      <c r="A162" s="93"/>
       <c r="B162" s="31"/>
       <c r="C162" s="31"/>
       <c r="D162" s="31"/>
@@ -6875,7 +6892,7 @@
       <c r="G162" s="13"/>
     </row>
     <row r="163" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="69"/>
+      <c r="A163" s="94"/>
       <c r="B163" s="48"/>
       <c r="C163" s="24"/>
       <c r="D163" s="25"/>
@@ -6884,7 +6901,7 @@
       <c r="G163" s="16"/>
     </row>
     <row r="164" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="109" t="s">
+      <c r="A164" s="68" t="s">
         <v>444</v>
       </c>
       <c r="B164" s="42" t="s">
@@ -6902,7 +6919,7 @@
       </c>
     </row>
     <row r="165" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A165" s="110"/>
+      <c r="A165" s="69"/>
       <c r="B165" s="42" t="s">
         <v>127</v>
       </c>
@@ -6918,7 +6935,7 @@
       <c r="G165" s="13"/>
     </row>
     <row r="166" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A166" s="110"/>
+      <c r="A166" s="69"/>
       <c r="B166" s="42" t="s">
         <v>135</v>
       </c>
@@ -6932,7 +6949,7 @@
       <c r="G166" s="13"/>
     </row>
     <row r="167" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A167" s="110"/>
+      <c r="A167" s="69"/>
       <c r="B167" s="42" t="s">
         <v>137</v>
       </c>
@@ -6946,7 +6963,7 @@
       <c r="G167" s="13"/>
     </row>
     <row r="168" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A168" s="110"/>
+      <c r="A168" s="69"/>
       <c r="B168" s="42" t="s">
         <v>162</v>
       </c>
@@ -6959,7 +6976,7 @@
       <c r="G168" s="13"/>
     </row>
     <row r="169" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A169" s="110"/>
+      <c r="A169" s="69"/>
       <c r="B169" s="42" t="s">
         <v>162</v>
       </c>
@@ -6975,7 +6992,7 @@
       <c r="G169" s="13"/>
     </row>
     <row r="170" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A170" s="110"/>
+      <c r="A170" s="69"/>
       <c r="B170" s="42" t="s">
         <v>175</v>
       </c>
@@ -6989,7 +7006,7 @@
       <c r="G170" s="13"/>
     </row>
     <row r="171" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A171" s="110"/>
+      <c r="A171" s="69"/>
       <c r="B171" s="42" t="s">
         <v>238</v>
       </c>
@@ -7003,7 +7020,7 @@
       <c r="G171" s="13"/>
     </row>
     <row r="172" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A172" s="110"/>
+      <c r="A172" s="69"/>
       <c r="B172" s="42" t="s">
         <v>242</v>
       </c>
@@ -7019,7 +7036,7 @@
       <c r="G172" s="13"/>
     </row>
     <row r="173" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A173" s="110"/>
+      <c r="A173" s="69"/>
       <c r="B173" s="42" t="s">
         <v>273</v>
       </c>
@@ -7033,7 +7050,7 @@
       <c r="G173" s="13"/>
     </row>
     <row r="174" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A174" s="110"/>
+      <c r="A174" s="69"/>
       <c r="B174" s="42" t="s">
         <v>338</v>
       </c>
@@ -7049,7 +7066,7 @@
       <c r="G174" s="13"/>
     </row>
     <row r="175" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A175" s="110"/>
+      <c r="A175" s="69"/>
       <c r="B175" s="42" t="s">
         <v>338</v>
       </c>
@@ -7062,7 +7079,7 @@
       <c r="G175" s="13"/>
     </row>
     <row r="176" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A176" s="110"/>
+      <c r="A176" s="69"/>
       <c r="B176" s="35" t="s">
         <v>427</v>
       </c>
@@ -7077,7 +7094,7 @@
       <c r="G176" s="13"/>
     </row>
     <row r="177" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A177" s="110"/>
+      <c r="A177" s="69"/>
       <c r="B177" s="35" t="s">
         <v>438</v>
       </c>
@@ -7092,7 +7109,7 @@
       <c r="G177" s="13"/>
     </row>
     <row r="178" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A178" s="110"/>
+      <c r="A178" s="69"/>
       <c r="B178" s="35" t="s">
         <v>472</v>
       </c>
@@ -7109,7 +7126,7 @@
       <c r="G178" s="13"/>
     </row>
     <row r="179" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A179" s="110"/>
+      <c r="A179" s="69"/>
       <c r="B179" s="35" t="s">
         <v>398</v>
       </c>
@@ -7126,7 +7143,7 @@
       <c r="G179" s="13"/>
     </row>
     <row r="180" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A180" s="110"/>
+      <c r="A180" s="69"/>
       <c r="B180" s="35" t="s">
         <v>469</v>
       </c>
@@ -7143,7 +7160,7 @@
       <c r="G180" s="13"/>
     </row>
     <row r="181" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A181" s="110"/>
+      <c r="A181" s="69"/>
       <c r="B181" s="42" t="s">
         <v>285</v>
       </c>
@@ -7157,7 +7174,7 @@
       <c r="G181" s="13"/>
     </row>
     <row r="182" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A182" s="110"/>
+      <c r="A182" s="69"/>
       <c r="B182" s="42" t="s">
         <v>116</v>
       </c>
@@ -7171,7 +7188,7 @@
       <c r="G182" s="13"/>
     </row>
     <row r="183" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A183" s="110"/>
+      <c r="A183" s="69"/>
       <c r="B183" s="42" t="s">
         <v>125</v>
       </c>
@@ -7188,7 +7205,7 @@
       <c r="G183" s="13"/>
     </row>
     <row r="184" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A184" s="110"/>
+      <c r="A184" s="69"/>
       <c r="B184" s="42" t="s">
         <v>438</v>
       </c>
@@ -7203,7 +7220,7 @@
       <c r="G184" s="13"/>
     </row>
     <row r="185" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A185" s="110"/>
+      <c r="A185" s="69"/>
       <c r="B185" s="42" t="s">
         <v>710</v>
       </c>
@@ -7218,7 +7235,7 @@
       <c r="G185" s="13"/>
     </row>
     <row r="186" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A186" s="110"/>
+      <c r="A186" s="69"/>
       <c r="B186" s="42" t="s">
         <v>776</v>
       </c>
@@ -7233,7 +7250,7 @@
       <c r="G186" s="13"/>
     </row>
     <row r="187" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A187" s="110"/>
+      <c r="A187" s="69"/>
       <c r="B187" s="42" t="s">
         <v>782</v>
       </c>
@@ -7248,7 +7265,7 @@
       <c r="G187" s="13"/>
     </row>
     <row r="188" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A188" s="110"/>
+      <c r="A188" s="69"/>
       <c r="B188" s="42" t="s">
         <v>785</v>
       </c>
@@ -7263,7 +7280,7 @@
       <c r="G188" s="13"/>
     </row>
     <row r="189" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A189" s="110"/>
+      <c r="A189" s="69"/>
       <c r="B189" s="31" t="s">
         <v>838</v>
       </c>
@@ -7278,7 +7295,7 @@
       <c r="G189" s="13"/>
     </row>
     <row r="190" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A190" s="110"/>
+      <c r="A190" s="69"/>
       <c r="B190" s="31" t="s">
         <v>865</v>
       </c>
@@ -7293,7 +7310,7 @@
       <c r="G190" s="13"/>
     </row>
     <row r="191" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A191" s="110"/>
+      <c r="A191" s="69"/>
       <c r="B191" s="39" t="s">
         <v>879</v>
       </c>
@@ -7308,7 +7325,7 @@
       <c r="G191" s="13"/>
     </row>
     <row r="192" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A192" s="110"/>
+      <c r="A192" s="69"/>
       <c r="B192" s="39" t="s">
         <v>885</v>
       </c>
@@ -7323,7 +7340,7 @@
       <c r="G192" s="13"/>
     </row>
     <row r="193" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A193" s="110"/>
+      <c r="A193" s="69"/>
       <c r="B193" s="39" t="s">
         <v>900</v>
       </c>
@@ -7338,7 +7355,7 @@
       <c r="G193" s="13"/>
     </row>
     <row r="194" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A194" s="110"/>
+      <c r="A194" s="69"/>
       <c r="B194" s="39" t="s">
         <v>903</v>
       </c>
@@ -7353,7 +7370,7 @@
       <c r="G194" s="13"/>
     </row>
     <row r="195" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="111"/>
+      <c r="A195" s="70"/>
       <c r="B195" s="39" t="s">
         <v>961</v>
       </c>
@@ -7368,7 +7385,7 @@
       <c r="G195" s="16"/>
     </row>
     <row r="196" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="111"/>
+      <c r="A196" s="70"/>
       <c r="B196" s="39" t="s">
         <v>967</v>
       </c>
@@ -7382,7 +7399,7 @@
       <c r="G196" s="13"/>
     </row>
     <row r="197" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A197" s="111"/>
+      <c r="A197" s="70"/>
       <c r="B197" s="39" t="s">
         <v>970</v>
       </c>
@@ -7396,7 +7413,7 @@
       <c r="G197" s="13"/>
     </row>
     <row r="198" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A198" s="111"/>
+      <c r="A198" s="70"/>
       <c r="B198" s="31" t="s">
         <v>984</v>
       </c>
@@ -7410,7 +7427,7 @@
       <c r="G198" s="13"/>
     </row>
     <row r="199" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A199" s="111"/>
+      <c r="A199" s="70"/>
       <c r="B199" s="31" t="s">
         <v>1002</v>
       </c>
@@ -7424,7 +7441,7 @@
       <c r="G199" s="13"/>
     </row>
     <row r="200" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A200" s="111"/>
+      <c r="A200" s="70"/>
       <c r="B200" s="31" t="s">
         <v>1019</v>
       </c>
@@ -7438,7 +7455,7 @@
       <c r="G200" s="13"/>
     </row>
     <row r="201" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A201" s="111"/>
+      <c r="A201" s="70"/>
       <c r="B201" s="31" t="s">
         <v>1037</v>
       </c>
@@ -7452,7 +7469,7 @@
       <c r="G201" s="13"/>
     </row>
     <row r="202" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A202" s="111"/>
+      <c r="A202" s="70"/>
       <c r="B202" s="34" t="s">
         <v>1048</v>
       </c>
@@ -7468,7 +7485,7 @@
       <c r="G202" s="13"/>
     </row>
     <row r="203" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A203" s="111"/>
+      <c r="A203" s="70"/>
       <c r="B203" s="34" t="s">
         <v>1048</v>
       </c>
@@ -7487,7 +7504,7 @@
       <c r="G203" s="13"/>
     </row>
     <row r="204" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A204" s="111"/>
+      <c r="A204" s="70"/>
       <c r="B204" s="34" t="s">
         <v>1056</v>
       </c>
@@ -7506,7 +7523,7 @@
       <c r="G204" s="13"/>
     </row>
     <row r="205" spans="1:7" ht="1